--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="188">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">每一级塔拆除后返回的钱</t>
   </si>
   <si>
-    <t xml:space="preserve">塔每一级的guid</t>
+    <t xml:space="preserve">塔每一级buff特效的guid</t>
   </si>
   <si>
     <t xml:space="preserve">武器guid</t>
@@ -843,6 +843,24 @@
   </si>
   <si>
     <t xml:space="preserve">2001|2002|2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">龙娘测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60|100|200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09E82E72488ED6F749BA99A256F1792F|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E8DF061043359EE84F60AEAAB3D3A68A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48|0.48|0.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58|68|78</t>
   </si>
 </sst>
 </file>
@@ -982,7 +1000,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1037,6 +1055,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1225,9 +1247,9 @@
   <dimension ref="A1:AZ28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="W21" activeCellId="0" sqref="W21"/>
+      <selection pane="topRight" activeCell="L22" activeCellId="0" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2542,18 +2564,82 @@
       <c r="AK16" s="9"/>
       <c r="AM16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>326244</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N17" s="8" t="n">
+        <v>107535</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <v>144183</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="W17" s="1" t="n">
+        <v>84912</v>
+      </c>
+      <c r="X17" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="AK17" s="9"/>
       <c r="AL17" s="8"/>
       <c r="AM17" s="9"/>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="195">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -845,6 +845,9 @@
     <t xml:space="preserve">2001|2002|2003</t>
   </si>
   <si>
+    <t xml:space="preserve">光龙娘1</t>
+  </si>
+  <si>
     <t xml:space="preserve">龙娘测试</t>
   </si>
   <si>
@@ -861,6 +864,24 @@
   </si>
   <si>
     <t xml:space="preserve">58|68|78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光龙娘4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600|700|800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88A9134443C169D1D86DE4A68690D295|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC07D30340D3F7222F7D498025208100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3|3|2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000|1250|1500</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1021,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1059,6 +1080,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1247,9 +1280,9 @@
   <dimension ref="A1:AZ28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L22" activeCellId="0" sqref="L22"/>
+      <selection pane="topRight" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2572,7 +2605,7 @@
         <v>182</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D17" s="11" t="n">
         <v>100</v>
@@ -2593,25 +2626,25 @@
         <v>65</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>107535</v>
+        <v>168944</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>71</v>
@@ -2623,7 +2656,7 @@
         <v>71</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="U17" s="1" t="n">
         <v>144183</v>
@@ -2632,7 +2665,7 @@
         <v>162</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>84912</v>
+        <v>85959</v>
       </c>
       <c r="X17" s="1" t="n">
         <v>0.3</v>
@@ -2646,14 +2679,82 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="15" t="n">
+        <v>326244</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>153046</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="U18" s="1" t="n">
+        <v>144183</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="W18" s="1" t="n">
+        <v>121794</v>
+      </c>
+      <c r="X18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="AK18" s="9"/>
       <c r="AM18" s="9"/>
     </row>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="210">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -854,9 +854,6 @@
     <t xml:space="preserve">光龙娘1</t>
   </si>
   <si>
-    <t xml:space="preserve">龙娘测试</t>
-  </si>
-  <si>
     <t xml:space="preserve">60|100|200</t>
   </si>
   <si>
@@ -891,6 +888,45 @@
   </si>
   <si>
     <t xml:space="preserve">光龙娘3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550|600|650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B06787054CADB7A7F6D7119045051E1E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4B7264E42074A814EA43BA7906BBEE7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4|4|4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2|2.25|2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280|320|370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光龙娘2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80|120|200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB17F0404A02BC9A002911BC7BDC0A65|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B8042E594FB8BDA5FFE681993C5A8FB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7|0.6|0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|1.2|1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60|90|140</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1059,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1089,6 +1125,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1277,10 +1317,10 @@
   </sheetPr>
   <dimension ref="A1:BA28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="U4" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topRight" activeCell="Z22" activeCellId="0" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2648,7 +2688,7 @@
         <v>184</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" s="10" t="n">
         <v>100</v>
@@ -2663,22 +2703,22 @@
         <v>326244</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J17" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="N17" s="8" t="n">
         <v>168944</v>
@@ -2690,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>73</v>
@@ -2702,7 +2742,7 @@
         <v>73</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V17" s="1" t="n">
         <v>144183</v>
@@ -2730,10 +2770,10 @@
         <v>1012</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>600</v>
@@ -2748,22 +2788,22 @@
         <v>326244</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>67</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>153046</v>
@@ -2775,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>73</v>
@@ -2787,7 +2827,7 @@
         <v>138</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V18" s="1" t="n">
         <v>144183</v>
@@ -2812,17 +2852,83 @@
         <v>1013</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>550</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="12" t="n">
+        <v>326267</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="10"/>
+      <c r="K19" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>151551</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="V19" s="1" t="n">
+        <v>144183</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="X19" s="1" t="n">
+        <v>20275</v>
+      </c>
+      <c r="Y19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB19" s="1" t="n">
+        <v>100</v>
+      </c>
       <c r="AL19" s="9"/>
       <c r="AM19" s="8"/>
       <c r="AN19" s="9"/>
@@ -2830,13 +2936,84 @@
       <c r="AT19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="A20" s="2" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="12" t="n">
+        <v>150576</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>200133</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="V20" s="1" t="n">
+        <v>144183</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="X20" s="1" t="n">
+        <v>20270</v>
+      </c>
+      <c r="Y20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AL20" s="9"/>
       <c r="AN20" s="9"/>
     </row>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="214">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -851,6 +851,9 @@
     <t xml:space="preserve">2001|2002|2003</t>
   </si>
   <si>
+    <t xml:space="preserve">光龙男1</t>
+  </si>
+  <si>
     <t xml:space="preserve">光龙娘1</t>
   </si>
   <si>
@@ -908,6 +911,9 @@
     <t xml:space="preserve">280|320|370</t>
   </si>
   <si>
+    <t xml:space="preserve">光龙男2</t>
+  </si>
+  <si>
     <t xml:space="preserve">光龙娘2</t>
   </si>
   <si>
@@ -927,6 +933,12 @@
   </si>
   <si>
     <t xml:space="preserve">60|90|140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光龙娘7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F295C0434C6D1288C0CBCD81DD5DE08B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1009,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1008,6 +1020,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -1059,7 +1077,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1130,6 +1148,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1317,10 +1339,10 @@
   </sheetPr>
   <dimension ref="A1:BA28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="U4" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="topRight" activeCell="Z22" activeCellId="0" sqref="Z22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="W23" activeCellId="0" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2688,7 +2710,7 @@
         <v>184</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D17" s="10" t="n">
         <v>100</v>
@@ -2709,16 +2731,16 @@
         <v>67</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N17" s="8" t="n">
         <v>168944</v>
@@ -2730,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>73</v>
@@ -2742,7 +2764,7 @@
         <v>73</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V17" s="1" t="n">
         <v>144183</v>
@@ -2770,10 +2792,10 @@
         <v>1012</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>600</v>
@@ -2794,16 +2816,16 @@
         <v>67</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>153046</v>
@@ -2815,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>73</v>
@@ -2827,7 +2849,7 @@
         <v>138</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V18" s="1" t="n">
         <v>144183</v>
@@ -2852,10 +2874,10 @@
         <v>1013</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D19" s="10" t="n">
         <v>550</v>
@@ -2876,16 +2898,16 @@
         <v>67</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>151551</v>
@@ -2900,16 +2922,16 @@
         <v>138</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>73</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V19" s="1" t="n">
         <v>144183</v>
@@ -2940,10 +2962,10 @@
         <v>1014</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>80</v>
@@ -2964,16 +2986,16 @@
         <v>67</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>200133</v>
@@ -2985,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>73</v>
@@ -2994,10 +3016,10 @@
         <v>74</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="V20" s="1" t="n">
         <v>144183</v>
@@ -3009,7 +3031,7 @@
         <v>20270</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>78</v>
@@ -3018,17 +3040,82 @@
       <c r="AN20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="A21" s="18" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>3</v>
+      </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="10"/>
+      <c r="G21" s="12" t="n">
+        <v>130536</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>200133</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="V21" s="1" t="n">
+        <v>144183</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <v>20270</v>
+      </c>
+      <c r="Y21" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AL21" s="9"/>
       <c r="AM21" s="8"/>
       <c r="AN21" s="9"/>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="224">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -935,10 +935,59 @@
     <t xml:space="preserve">60|90|140</t>
   </si>
   <si>
+    <t xml:space="preserve">光龙娘6</t>
+  </si>
+  <si>
     <t xml:space="preserve">光龙娘7</t>
   </si>
   <si>
     <t xml:space="preserve">F295C0434C6D1288C0CBCD81DD5DE08B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暖机光龙娘5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光龙娘5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200|250|300</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">200|250|300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">7A8D6E2149EC964C609BEABB1CD4DB6E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">421CE1374301DC37D8FCB09C2F2321C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7|1.7|1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">增益光龙娘7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2156CCFE49B0B0F804086C96D2F8166C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1126,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1152,6 +1201,34 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1340,9 +1417,9 @@
   <dimension ref="A1:BA28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="W23" activeCellId="0" sqref="W23"/>
+      <selection pane="topRight" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2852,7 +2929,7 @@
         <v>196</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>144183</v>
+        <v>284848</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>164</v>
@@ -3047,7 +3124,7 @@
         <v>212</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D21" s="10" t="n">
         <v>100</v>
@@ -3072,7 +3149,7 @@
         <v>170</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>208</v>
@@ -3123,27 +3200,164 @@
       <c r="AT21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="A22" s="18" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="12" t="n">
+        <v>326241</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>150929</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="V22" s="1" t="n">
+        <v>122546</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="X22" s="1" t="n">
+        <v>135369</v>
+      </c>
+      <c r="Y22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AL22" s="9"/>
       <c r="AN22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="A23" s="19" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="20" t="n">
+        <v>300</v>
+      </c>
+      <c r="E23" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21" t="n">
+        <v>326271</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>200133</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V23" s="1" t="n">
+        <v>144183</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="X23" s="1" t="n">
+        <v>20270</v>
+      </c>
+      <c r="Y23" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AL23" s="9"/>
       <c r="AM23" s="8"/>
       <c r="AN23" s="9"/>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="231">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -988,6 +988,27 @@
   </si>
   <si>
     <t xml:space="preserve">2156CCFE49B0B0F804086C96D2F8166C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗龙娘2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60|100|130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28D3AAC24F38644228D141AF6EE3C31F|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45F04C6F46C61EA619AEF0B058363AC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85|1.5|1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|1.2|1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200|250|320</t>
   </si>
 </sst>
 </file>
@@ -1417,9 +1438,9 @@
   <dimension ref="A1:BA28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="topRight" activeCell="S14" activeCellId="0" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2960,7 +2981,7 @@
         <v>550</v>
       </c>
       <c r="E19" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>65</v>
@@ -3002,7 +3023,7 @@
         <v>201</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>202</v>
@@ -3316,12 +3337,6 @@
       <c r="L23" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="N23" s="1" t="n">
-        <v>200133</v>
-      </c>
       <c r="O23" s="1" t="n">
         <v>1</v>
       </c>
@@ -3343,20 +3358,14 @@
       <c r="U23" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="V23" s="1" t="n">
-        <v>144183</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="X23" s="1" t="n">
         <v>20270</v>
       </c>
-      <c r="Y23" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Z23" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="AA23" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="AL23" s="9"/>
       <c r="AM23" s="8"/>
@@ -3365,15 +3374,84 @@
       <c r="AT23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="10"/>
-      <c r="V24" s="10"/>
+      <c r="A24" s="2" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="12" t="n">
+        <v>143689</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>254300</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="V24" s="10" t="n">
+        <v>285370</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="X24" s="1" t="n">
+        <v>279685</v>
+      </c>
+      <c r="Y24" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AL24" s="9"/>
       <c r="AM24" s="8"/>
       <c r="AN24" s="9"/>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="246">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1009,6 +1009,51 @@
   </si>
   <si>
     <t xml:space="preserve">200|250|320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗龙娘1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160|250|320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3A9D803A4C74C27DA0A11FA53B742510|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07F582E14688F6E9C9F0D2951D0902E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3|1.3|1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8|8|8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|1.25|1.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50|65|80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗龙娘3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70|120|180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD0581B64EAB0563BF8537BCE23878AE|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2E34840A438C9605A8FB7C978CAFE3D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6|0.6|0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5|1.6|1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55|80|110</t>
   </si>
 </sst>
 </file>
@@ -1438,9 +1483,9 @@
   <dimension ref="A1:BA28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="S14" activeCellId="0" sqref="S14"/>
+      <selection pane="topRight" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1454,7 +1499,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="44.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="53.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="1" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="1" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18"/>
@@ -3459,16 +3506,84 @@
       <c r="AT24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="A25" s="2" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="10" t="n">
+        <v>160</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="10" t="n">
+        <v>326237</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>150927</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="V25" s="1" t="n">
+        <v>146119</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="X25" s="1" t="n">
+        <v>279672</v>
+      </c>
+      <c r="Y25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AL25" s="9"/>
       <c r="AM25" s="8"/>
       <c r="AN25" s="9"/>
@@ -3476,11 +3591,84 @@
       <c r="AT25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="K26" s="10"/>
-      <c r="V26" s="10"/>
+      <c r="A26" s="2" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>326236</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>181026</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="V26" s="10" t="n">
+        <v>144198</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="X26" s="1" t="n">
+        <v>285283</v>
+      </c>
+      <c r="Y26" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AL26" s="9"/>
       <c r="AM26" s="8"/>
       <c r="AN26" s="9"/>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="261">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -76,16 +76,34 @@
     <t xml:space="preserve">guid</t>
   </si>
   <si>
+    <t xml:space="preserve">guid2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guid3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">characterDelayTime</t>
+  </si>
+  <si>
     <t xml:space="preserve">weaponGuid</t>
   </si>
   <si>
+    <t xml:space="preserve">weaponSlot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weaponLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effectDelayTime</t>
+  </si>
+  <si>
     <t xml:space="preserve">attackEffect</t>
   </si>
   <si>
     <t xml:space="preserve">hitEffect</t>
   </si>
   <si>
-    <t xml:space="preserve">effectDelayTime</t>
+    <t xml:space="preserve">attackEffectDelay</t>
   </si>
   <si>
     <t xml:space="preserve">attackTime</t>
@@ -110,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">attackAnim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackAnimNew</t>
   </si>
   <si>
     <t xml:space="preserve">AtkAnimDur</t>
@@ -167,7 +188,25 @@
     <t xml:space="preserve">塔每一级buff特效的guid</t>
   </si>
   <si>
+    <t xml:space="preserve">防御塔二级特效guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防御塔三级特效guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防御塔攻击特效延迟时间</t>
+  </si>
+  <si>
     <t xml:space="preserve">武器guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武器挂载插槽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武器相对于插槽的位置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武器特效延迟播放时间</t>
   </si>
   <si>
     <t xml:space="preserve">击中特效</t>
@@ -204,6 +243,9 @@
   </si>
   <si>
     <t xml:space="preserve">攻击动画</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击动画数组</t>
   </si>
   <si>
     <t xml:space="preserve">攻击动画持续时间</t>
@@ -863,6 +905,9 @@
     <t xml:space="preserve">E8DF061043359EE84F60AEAAB3D3A68A</t>
   </si>
   <si>
+    <t xml:space="preserve">10|5|6</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.48|0.48|0.48</t>
   </si>
   <si>
@@ -885,6 +930,9 @@
   </si>
   <si>
     <t xml:space="preserve">1000|1250|1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81687|80483</t>
   </si>
   <si>
     <t xml:space="preserve">光龙娘3</t>
@@ -1189,7 +1237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1242,27 +1290,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1275,10 +1303,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1501,15 +1525,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BA28"/>
+  <dimension ref="A1:BH28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topRight" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="13.35"/>
@@ -1519,35 +1543,40 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="36.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="44.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="53.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="14" style="1" width="12.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="24" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="27.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="117.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="46.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="96.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="36.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="64.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="36.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="15.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="22.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="27.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="31.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="23.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="45" min="44" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="47" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="31.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="16.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="18.75"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="55" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="1" width="53.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="21.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="20" style="1" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="23" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="21.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="32" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="27.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="117.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="46.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="96.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="36.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="64.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="36.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="2" width="27.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="2" width="31.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="23.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="57" min="54" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="31.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="18.75"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1032" min="62" style="1" width="12.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1588,43 +1617,43 @@
         <v>3</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>5</v>
@@ -1633,25 +1662,39 @@
         <v>5</v>
       </c>
       <c r="AB1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
+      <c r="AG1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
-      <c r="AL1" s="4"/>
+      <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
       <c r="AP1" s="3"/>
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
+      <c r="AS1" s="4"/>
       <c r="AT1" s="3"/>
       <c r="AU1" s="3"/>
       <c r="AV1" s="3"/>
@@ -1660,6 +1703,13 @@
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
       <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -1746,23 +1796,37 @@
       <c r="AB2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
+      <c r="AC2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
-      <c r="AL2" s="4"/>
+      <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
+      <c r="AS2" s="4"/>
       <c r="AT2" s="3"/>
       <c r="AU2" s="3"/>
       <c r="AV2" s="3"/>
@@ -1771,109 +1835,130 @@
       <c r="AY2" s="3"/>
       <c r="AZ2" s="3"/>
       <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
-      <c r="AL3" s="4"/>
+      <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
+      <c r="AS3" s="4"/>
       <c r="AT3" s="3"/>
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
@@ -1882,10 +1967,17 @@
       <c r="AY3" s="3"/>
       <c r="AZ3" s="3"/>
       <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,10 +1985,10 @@
         <v>1001</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>300</v>
@@ -1905,87 +1997,87 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>291768</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="8" t="n">
+        <v>84</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="O5" s="8" t="n">
+      <c r="U5" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="V5" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V5" s="1" t="n">
+      <c r="W5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB5" s="1" t="n">
         <v>281795</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" s="1" t="n">
+      <c r="AC5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD5" s="1" t="n">
         <v>81687</v>
       </c>
-      <c r="Y5" s="1" t="n">
+      <c r="AF5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA5" s="8" t="n">
+      <c r="AG5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH5" s="8" t="n">
         <v>4007</v>
       </c>
-      <c r="AB5" s="8"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="9"/>
-      <c r="AQ5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AS5" s="9"/>
       <c r="AT5" s="8"/>
+      <c r="AU5" s="9"/>
+      <c r="AX5" s="8"/>
+      <c r="BA5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>1002</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>360</v>
@@ -1994,82 +2086,82 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G6" s="10" t="n">
         <v>291769</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6" s="8" t="n">
+        <v>98</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T6" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="O6" s="8" t="n">
+      <c r="U6" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="V6" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="W6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="V6" s="1" t="n">
+      <c r="Z6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB6" s="1" t="n">
         <v>281710</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X6" s="1" t="n">
+      <c r="AC6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD6" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="Y6" s="1" t="n">
+      <c r="AF6" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AL6" s="9"/>
-      <c r="AN6" s="9"/>
+      <c r="AG6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AS6" s="9"/>
+      <c r="AU6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>1003</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>540</v>
@@ -2084,79 +2176,79 @@
         <v>291776</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T7" s="8" t="n">
+        <v>107535</v>
+      </c>
+      <c r="U7" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>281710</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD7" s="1" t="n">
+        <v>80483</v>
+      </c>
+      <c r="AF7" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7" s="8" t="n">
-        <v>107535</v>
-      </c>
-      <c r="O7" s="8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="V7" s="1" t="n">
-        <v>281710</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X7" s="1" t="n">
-        <v>80483</v>
-      </c>
-      <c r="Y7" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="9"/>
-      <c r="AQ7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AS7" s="9"/>
       <c r="AT7" s="8"/>
+      <c r="AU7" s="9"/>
+      <c r="AX7" s="8"/>
+      <c r="BA7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>1004</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>750</v>
@@ -2165,82 +2257,82 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="G8" s="10" t="n">
         <v>291770</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N8" s="8" t="n">
+        <v>119</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T8" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="O8" s="8" t="n">
+      <c r="U8" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="V8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V8" s="1" t="n">
+      <c r="W8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB8" s="1" t="n">
         <v>20227</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="X8" s="1" t="n">
+      <c r="AC8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD8" s="1" t="n">
         <v>20279</v>
       </c>
-      <c r="Y8" s="1" t="n">
+      <c r="AF8" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AL8" s="9"/>
-      <c r="AN8" s="9"/>
+      <c r="AG8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AS8" s="9"/>
+      <c r="AU8" s="9"/>
     </row>
     <row r="9" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>1005</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>1125</v>
@@ -2249,80 +2341,87 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G9" s="10" t="n">
         <v>291772</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N9" s="8" t="n">
+        <v>129</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="O9" s="8" t="n">
+      <c r="U9" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="V9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="V9" s="1" t="n">
+      <c r="W9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB9" s="1" t="n">
         <v>20273</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="X9" s="1" t="n">
+      <c r="AC9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD9" s="1" t="n">
         <v>288430</v>
       </c>
-      <c r="Y9" s="1" t="n">
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
+      <c r="AG9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
     </row>
     <row r="10" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>1006</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>720</v>
@@ -2331,80 +2430,87 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G10" s="10" t="n">
         <v>291775</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N10" s="8" t="n">
+        <v>140</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="O10" s="8" t="n">
+      <c r="U10" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="V10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V10" s="1" t="n">
+      <c r="W10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB10" s="1" t="n">
         <v>281710</v>
       </c>
-      <c r="W10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="X10" s="1" t="n">
+      <c r="AC10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD10" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="Y10" s="1" t="n">
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
+      <c r="AG10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
     </row>
     <row r="11" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>1007</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>900</v>
@@ -2413,68 +2519,75 @@
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G11" s="10" t="n">
         <v>291779</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N11" s="8" t="n">
+        <v>149</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="O11" s="8" t="n">
+      <c r="U11" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="V11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="V11" s="1" t="n">
+      <c r="W11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB11" s="1" t="n">
         <v>35385</v>
       </c>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1" t="n">
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1" t="n">
         <v>84862</v>
       </c>
-      <c r="Y11" s="1" t="n">
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8" t="n">
+      <c r="AG11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8" t="n">
         <v>200</v>
       </c>
     </row>
@@ -2483,10 +2596,10 @@
         <v>1008</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>1800</v>
@@ -2495,66 +2608,73 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="G12" s="10" t="n">
         <v>291773</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N12" s="8" t="n">
+        <v>159</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="O12" s="8" t="n">
+      <c r="U12" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="V12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V12" s="1" t="n">
+      <c r="W12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB12" s="1" t="n">
         <v>180888</v>
       </c>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1" t="n">
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1" t="n">
         <v>86462</v>
       </c>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8" t="n">
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2563,10 +2683,10 @@
         <v>1009</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>675</v>
@@ -2581,74 +2701,81 @@
         <v>291780</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N13" s="8" t="n">
+        <v>164</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="O13" s="8" t="n">
+      <c r="U13" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="V13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V13" s="1" t="n">
+      <c r="W13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB13" s="1" t="n">
         <v>281710</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="X13" s="1" t="n">
+      <c r="AC13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD13" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="Y13" s="1" t="n">
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="Z13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
+      <c r="AG13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
     </row>
     <row r="14" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>1010</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>2100</v>
@@ -2657,80 +2784,87 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G14" s="10" t="n">
         <v>291778</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="N14" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="O14" s="8" t="n">
+      <c r="U14" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="V14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="V14" s="1" t="n">
+      <c r="W14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB14" s="1" t="n">
         <v>281710</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="X14" s="1" t="n">
+      <c r="AC14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD14" s="1" t="n">
         <v>281780</v>
       </c>
-      <c r="Y14" s="1" t="n">
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="Z14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
+      <c r="AG14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>2001</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>100</v>
@@ -2742,70 +2876,70 @@
         <v>291777</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N15" s="8" t="n">
+        <v>184</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T15" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="O15" s="8" t="n">
+      <c r="U15" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="P15" s="1" t="n">
+      <c r="V15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="V15" s="1" t="n">
+      <c r="W15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB15" s="1" t="n">
         <v>180888</v>
       </c>
-      <c r="X15" s="1" t="n">
+      <c r="AD15" s="1" t="n">
         <v>97181</v>
       </c>
-      <c r="Z15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="8"/>
-      <c r="AL15" s="9"/>
-      <c r="AN15" s="9"/>
+      <c r="AG15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="8"/>
+      <c r="AS15" s="9"/>
+      <c r="AU15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>3001</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>500</v>
@@ -2817,905 +2951,900 @@
         <v>291764</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8" t="n">
+        <v>193</v>
+      </c>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="P16" s="1" t="n">
+      <c r="V16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="X16" s="1" t="n">
+      <c r="W16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD16" s="1" t="n">
         <v>97181</v>
       </c>
-      <c r="Z16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA16" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB16" s="8"/>
-      <c r="AL16" s="9"/>
-      <c r="AN16" s="9"/>
+      <c r="AG16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH16" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI16" s="8"/>
+      <c r="AS16" s="9"/>
+      <c r="AU16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="n">
+      <c r="A17" s="2" t="n">
         <v>1011</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="14" t="n">
+      <c r="B17" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="E17" s="14" t="n">
+      <c r="E17" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="14" t="n">
+      <c r="F17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="10" t="n">
         <v>326244</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="N17" s="18" t="n">
+      <c r="H17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T17" s="8" t="n">
         <v>168944</v>
       </c>
-      <c r="O17" s="18" t="n">
+      <c r="U17" s="8" t="n">
         <v>0.3</v>
       </c>
-      <c r="P17" s="16" t="n">
+      <c r="V17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="R17" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="S17" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="V17" s="16" t="n">
+      <c r="W17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB17" s="1" t="n">
         <v>144183</v>
       </c>
-      <c r="W17" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="X17" s="16" t="n">
+      <c r="AC17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD17" s="1" t="n">
         <v>85959</v>
       </c>
-      <c r="Y17" s="16" t="n">
+      <c r="AF17" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="Z17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="9"/>
-      <c r="AQ17" s="8"/>
+      <c r="AG17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS17" s="9"/>
       <c r="AT17" s="8"/>
+      <c r="AU17" s="9"/>
+      <c r="AX17" s="8"/>
+      <c r="BA17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
+      <c r="A18" s="2" t="n">
         <v>1012</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="16" t="n">
+      <c r="B18" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="E18" s="16" t="n">
+      <c r="E18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="19" t="n">
+      <c r="F18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="14" t="n">
         <v>326244</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="N18" s="16" t="n">
+      <c r="H18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="T18" s="1" t="n">
         <v>153046</v>
       </c>
-      <c r="O18" s="18" t="n">
+      <c r="U18" s="8" t="n">
         <v>1.5</v>
       </c>
-      <c r="P18" s="16" t="n">
+      <c r="V18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="R18" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="S18" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="T18" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="V18" s="16" t="n">
+      <c r="W18" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB18" s="1" t="n">
         <v>284848</v>
       </c>
-      <c r="W18" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="X18" s="16" t="n">
+      <c r="AC18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD18" s="1" t="n">
         <v>121794</v>
       </c>
-      <c r="Y18" s="16" t="n">
+      <c r="AE18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AL18" s="9"/>
-      <c r="AN18" s="9"/>
+      <c r="AG18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS18" s="9"/>
+      <c r="AU18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
+      <c r="A19" s="2" t="n">
         <v>1013</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="14" t="n">
+      <c r="B19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="10" t="n">
         <v>550</v>
       </c>
-      <c r="E19" s="14" t="n">
+      <c r="E19" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="22" t="n">
+      <c r="F19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="12" t="n">
         <v>326267</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="N19" s="16" t="n">
+      <c r="H19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T19" s="1" t="n">
         <v>151551</v>
       </c>
-      <c r="O19" s="16" t="n">
+      <c r="U19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P19" s="16" t="n">
+      <c r="V19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="R19" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="S19" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="T19" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="U19" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="V19" s="16" t="n">
+      <c r="W19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB19" s="1" t="n">
         <v>144183</v>
       </c>
-      <c r="W19" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="X19" s="16" t="n">
+      <c r="AC19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD19" s="1" t="n">
         <v>20275</v>
       </c>
-      <c r="Y19" s="16" t="n">
+      <c r="AF19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Z19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16" t="n">
+      <c r="AG19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI19" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="9"/>
-      <c r="AQ19" s="8"/>
+      <c r="AS19" s="9"/>
       <c r="AT19" s="8"/>
+      <c r="AU19" s="9"/>
+      <c r="AX19" s="8"/>
+      <c r="BA19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
+      <c r="A20" s="2" t="n">
         <v>1014</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="16" t="n">
+      <c r="B20" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E20" s="16" t="n">
+      <c r="E20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="22" t="n">
+      <c r="F20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="12" t="n">
         <v>150576</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="N20" s="16" t="n">
+      <c r="H20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="T20" s="1" t="n">
         <v>200133</v>
       </c>
-      <c r="O20" s="16" t="n">
+      <c r="U20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P20" s="16" t="n">
+      <c r="V20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="S20" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="T20" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="U20" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="V20" s="16" t="n">
+      <c r="W20" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB20" s="1" t="n">
         <v>144183</v>
       </c>
-      <c r="W20" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="X20" s="16" t="n">
+      <c r="AC20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD20" s="1" t="n">
         <v>20270</v>
       </c>
-      <c r="Y20" s="16" t="n">
+      <c r="AF20" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z20" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AL20" s="9"/>
-      <c r="AN20" s="9"/>
+      <c r="AG20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS20" s="9"/>
+      <c r="AU20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="n">
+      <c r="A21" s="18" t="n">
         <v>1015</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D21" s="14" t="n">
+      <c r="B21" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="E21" s="14" t="n">
+      <c r="E21" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="22" t="n">
+      <c r="F21" s="10"/>
+      <c r="G21" s="12" t="n">
         <v>130536</v>
       </c>
-      <c r="H21" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="N21" s="16" t="n">
+      <c r="H21" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="T21" s="1" t="n">
         <v>200133</v>
       </c>
-      <c r="O21" s="16" t="n">
+      <c r="U21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P21" s="16" t="n">
+      <c r="V21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="R21" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="S21" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="T21" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="U21" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="V21" s="16" t="n">
+      <c r="W21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB21" s="1" t="n">
         <v>144183</v>
       </c>
-      <c r="W21" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="X21" s="16" t="n">
+      <c r="AC21" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD21" s="1" t="n">
         <v>20270</v>
       </c>
-      <c r="Y21" s="16" t="n">
+      <c r="AF21" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="9"/>
-      <c r="AQ21" s="8"/>
+      <c r="AG21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS21" s="9"/>
       <c r="AT21" s="8"/>
+      <c r="AU21" s="9"/>
+      <c r="AX21" s="8"/>
+      <c r="BA21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="n">
+      <c r="A22" s="18" t="n">
         <v>1016</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="16" t="n">
+      <c r="B22" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E22" s="16" t="n">
+      <c r="E22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="22" t="n">
+      <c r="F22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="12" t="n">
         <v>326241</v>
       </c>
-      <c r="H22" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="N22" s="16" t="n">
+      <c r="H22" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T22" s="1" t="n">
         <v>150929</v>
       </c>
-      <c r="O22" s="16" t="n">
+      <c r="U22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P22" s="16" t="n">
+      <c r="V22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q22" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="R22" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="S22" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="T22" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="U22" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="V22" s="16" t="n">
+      <c r="W22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB22" s="1" t="n">
         <v>122546</v>
       </c>
-      <c r="W22" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="X22" s="16" t="n">
+      <c r="AC22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD22" s="1" t="n">
         <v>135369</v>
       </c>
-      <c r="Y22" s="16" t="n">
+      <c r="AF22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AL22" s="9"/>
-      <c r="AN22" s="9"/>
+      <c r="AG22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS22" s="9"/>
+      <c r="AU22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="n">
+      <c r="A23" s="19" t="n">
         <v>1017</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="D23" s="26" t="n">
+      <c r="B23" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="20" t="n">
         <v>300</v>
       </c>
-      <c r="E23" s="26" t="n">
+      <c r="E23" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27" t="n">
+      <c r="F23" s="20"/>
+      <c r="G23" s="21" t="n">
         <v>326271</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="K23" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16" t="n">
+      <c r="H23" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="U23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P23" s="16" t="n">
+      <c r="V23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q23" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="R23" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="S23" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="T23" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16" t="n">
+      <c r="W23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD23" s="1" t="n">
         <v>20270</v>
       </c>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA23" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB23" s="16"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="8"/>
-      <c r="AN23" s="9"/>
-      <c r="AQ23" s="8"/>
+      <c r="AG23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH23" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AS23" s="9"/>
       <c r="AT23" s="8"/>
+      <c r="AU23" s="9"/>
+      <c r="AX23" s="8"/>
+      <c r="BA23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="n">
+      <c r="A24" s="2" t="n">
         <v>1018</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" s="16" t="n">
+      <c r="B24" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E24" s="16" t="n">
+      <c r="E24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="22" t="n">
+      <c r="F24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="12" t="n">
         <v>143689</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="N24" s="16" t="n">
+      <c r="H24" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="T24" s="1" t="n">
         <v>254300</v>
       </c>
-      <c r="O24" s="16" t="n">
+      <c r="U24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="16" t="n">
+      <c r="V24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q24" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="R24" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="S24" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="T24" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="V24" s="14" t="n">
+      <c r="W24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB24" s="10" t="n">
         <v>285370</v>
       </c>
-      <c r="W24" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="X24" s="16" t="n">
+      <c r="AC24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD24" s="1" t="n">
         <v>279685</v>
       </c>
-      <c r="Y24" s="16" t="n">
+      <c r="AF24" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AL24" s="9"/>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="9"/>
-      <c r="AQ24" s="8"/>
+      <c r="AG24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS24" s="9"/>
       <c r="AT24" s="8"/>
+      <c r="AU24" s="9"/>
+      <c r="AX24" s="8"/>
+      <c r="BA24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="n">
+      <c r="A25" s="2" t="n">
         <v>1019</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D25" s="14" t="n">
+      <c r="B25" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="10" t="n">
         <v>160</v>
       </c>
-      <c r="E25" s="14" t="n">
+      <c r="E25" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="14" t="n">
+      <c r="F25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="10" t="n">
         <v>326237</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="N25" s="16" t="n">
+      <c r="H25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="T25" s="1" t="n">
         <v>150927</v>
       </c>
-      <c r="O25" s="16" t="n">
+      <c r="U25" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="P25" s="16" t="n">
+      <c r="V25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q25" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="R25" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="S25" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="T25" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="V25" s="16" t="n">
+      <c r="W25" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB25" s="1" t="n">
         <v>146119</v>
       </c>
-      <c r="W25" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="X25" s="16" t="n">
+      <c r="AC25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD25" s="1" t="n">
         <v>279672</v>
       </c>
-      <c r="Y25" s="16" t="n">
+      <c r="AF25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z25" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="8"/>
-      <c r="AN25" s="9"/>
-      <c r="AQ25" s="8"/>
+      <c r="AG25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS25" s="9"/>
       <c r="AT25" s="8"/>
+      <c r="AU25" s="9"/>
+      <c r="AX25" s="8"/>
+      <c r="BA25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="n">
+      <c r="A26" s="2" t="n">
         <v>1020</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26" s="16" t="n">
+      <c r="B26" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="E26" s="16" t="n">
+      <c r="E26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="16" t="n">
+      <c r="F26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>326236</v>
       </c>
-      <c r="H26" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="N26" s="16" t="n">
+      <c r="H26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T26" s="1" t="n">
         <v>181026</v>
       </c>
-      <c r="O26" s="16" t="n">
+      <c r="U26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P26" s="16" t="n">
+      <c r="V26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q26" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="R26" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="S26" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="T26" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="U26" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="V26" s="14" t="n">
+      <c r="W26" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB26" s="10" t="n">
         <v>144198</v>
       </c>
-      <c r="W26" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="X26" s="16" t="n">
+      <c r="AC26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD26" s="1" t="n">
         <v>285283</v>
       </c>
-      <c r="Y26" s="16" t="n">
+      <c r="AF26" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="Z26" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="8"/>
-      <c r="AN26" s="9"/>
-      <c r="AQ26" s="8"/>
+      <c r="AG26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS26" s="9"/>
       <c r="AT26" s="8"/>
+      <c r="AU26" s="9"/>
+      <c r="AX26" s="8"/>
+      <c r="BA26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
@@ -3728,8 +3857,8 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
-      <c r="AL27" s="9"/>
-      <c r="AN27" s="9"/>
+      <c r="AS27" s="9"/>
+      <c r="AU27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
@@ -3737,12 +3866,15 @@
       <c r="C28" s="2"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="AL28" s="9"/>
-      <c r="AM28" s="8"/>
-      <c r="AN28" s="9"/>
-      <c r="AQ28" s="8"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AS28" s="9"/>
       <c r="AT28" s="8"/>
+      <c r="AU28" s="9"/>
+      <c r="AX28" s="8"/>
+      <c r="BA28" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="278">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1099,6 +1099,57 @@
   </si>
   <si>
     <t xml:space="preserve">55|80|110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗龙娘4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9E7CB4874D5A5A99FE782A946A61E0DC|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2790D96472CAB1BF1D3578B3620717C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6|0.6|0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5|1.5|1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56|96|176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗龙娘5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60|120|180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB4D06E34849041AB9D5C084904B8036|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15|12|9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10|20|30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗龙娘6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2413BE794DFD89225C6BB1984BF3B39A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40|60|80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗龙娘7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4E3FA2424F946AAFD47668983B3506B9|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60|80|100</t>
   </si>
 </sst>
 </file>
@@ -1525,12 +1576,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BH28"/>
+  <dimension ref="A1:BH30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N15" activeCellId="0" sqref="N15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="Z4" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topRight" activeCell="AG33" activeCellId="0" sqref="AG33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3847,34 +3898,304 @@
       <c r="BA26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="A27" s="2" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>326245</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>151069</v>
+      </c>
+      <c r="U27" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB27" s="1" t="n">
+        <v>281886</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD27" s="1" t="n">
+        <v>281763</v>
+      </c>
+      <c r="AF27" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="AS27" s="9"/>
       <c r="AU27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="A28" s="2" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D28" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>130536</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
-      <c r="AB28" s="10"/>
+      <c r="P28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>200133</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB28" s="1" t="n">
+        <v>144183</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD28" s="1" t="n">
+        <v>20270</v>
+      </c>
+      <c r="AF28" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="AS28" s="9"/>
       <c r="AT28" s="8"/>
       <c r="AU28" s="9"/>
       <c r="AX28" s="8"/>
       <c r="BA28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>129508</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="U29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD29" s="1" t="n">
+        <v>20270</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH29" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>319126</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="U30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD30" s="1" t="n">
+        <v>20270</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH30" s="8" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="295">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1150,6 +1150,57 @@
   </si>
   <si>
     <t xml:space="preserve">60|80|100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水龙娘1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400|600|900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">588EA3A049E954202CC020B7C119324A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A4B3C9846217C42C0C3C3B2371F9918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82|0.75|0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58|88|128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水龙娘2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210|320|700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2376FBE449DD94F61D9F08B9220157E7|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EF86F5344F48528C8775BCAB8A3CC651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30|45|70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水龙娘3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500|600|800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEA94B29458A224F6916409D0B5EEBD0|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A79AF731457034A4CF4D289257346D2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9|0.9|0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55|75|95</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1339,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1390,6 +1441,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1576,12 +1631,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BH30"/>
+  <dimension ref="A1:BH33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="Z4" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="topRight" activeCell="AG33" activeCellId="0" sqref="AG33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="P10" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topRight" activeCell="V35" activeCellId="0" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4197,6 +4252,246 @@
         <v>196</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>326261</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>151576</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB31" s="1" t="n">
+        <v>281788</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD31" s="1" t="n">
+        <v>268572</v>
+      </c>
+      <c r="AF31" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>326270</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="T32" s="1" t="n">
+        <v>168944</v>
+      </c>
+      <c r="U32" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB32" s="1" t="n">
+        <v>285400</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD32" s="1" t="n">
+        <v>85955</v>
+      </c>
+      <c r="AF32" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>142127</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>99608</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB33" s="1" t="n">
+        <v>281710</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD33" s="1" t="n">
+        <v>80483</v>
+      </c>
+      <c r="AF33" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lincheng\AppData\MetaApp\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7FDAAE-6F93-4C24-B616-75B3318A66DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -25,252 +20,252 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="276">
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>float[]</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>nameCN</t>
-  </si>
-  <si>
-    <t>shopPrice</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>attackTags</t>
-  </si>
-  <si>
-    <t>imgGuid</t>
-  </si>
-  <si>
-    <t>infoTestsCn</t>
-  </si>
-  <si>
-    <t>infoTexts</t>
-  </si>
-  <si>
-    <t>spend</t>
-  </si>
-  <si>
-    <t>sellBack</t>
-  </si>
-  <si>
-    <t>guid</t>
-  </si>
-  <si>
-    <t>guid2</t>
-  </si>
-  <si>
-    <t>guid3</t>
-  </si>
-  <si>
-    <t>characterDelayTime</t>
-  </si>
-  <si>
-    <t>weaponGuid</t>
-  </si>
-  <si>
-    <t>weaponSlot</t>
-  </si>
-  <si>
-    <t>weaponLocation</t>
-  </si>
-  <si>
-    <t>effectDelayTime</t>
-  </si>
-  <si>
-    <t>attackEffect</t>
-  </si>
-  <si>
-    <t>hitEffect</t>
-  </si>
-  <si>
-    <t>attackEffectDelay</t>
-  </si>
-  <si>
-    <t>attackTime</t>
-  </si>
-  <si>
-    <t>attackCount</t>
-  </si>
-  <si>
-    <t>attackRange</t>
-  </si>
-  <si>
-    <t>findRange</t>
-  </si>
-  <si>
-    <t>attackDamage</t>
-  </si>
-  <si>
-    <t>idleAnim</t>
-  </si>
-  <si>
-    <t>effectColor</t>
-  </si>
-  <si>
-    <t>attackAnim</t>
-  </si>
-  <si>
-    <t>AtkAnimDur</t>
-  </si>
-  <si>
-    <t>attackAnimSpeed</t>
-  </si>
-  <si>
-    <t>attackBuff</t>
-  </si>
-  <si>
-    <t>flyZ</t>
-  </si>
-  <si>
-    <t>塔ID</t>
-  </si>
-  <si>
-    <t>塔的名字</t>
-  </si>
-  <si>
-    <t>名字备注</t>
-  </si>
-  <si>
-    <t>塔的售价</t>
-  </si>
-  <si>
-    <t>塔的类型
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="295">
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nameCN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shopPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackTags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgGuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infoTestsCn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infoTexts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sellBack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guid2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guid3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">characterDelayTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weaponGuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weaponSlot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weaponLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effectDelayTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackEffect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hitEffect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackEffectDelay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">findRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackDamage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idleAnim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effectColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackAnim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AtkAnimDur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackAnimSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackBuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flyZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔的名字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">名字备注</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔的售价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔的类型
 1 攻击塔
 2 buff 塔
 3 产出塔
 4 投掷物塔</t>
   </si>
   <si>
-    <t>特殊索敌类型
+    <t xml:space="preserve">特殊索敌类型
     Stealth = 1,
     Flying = 2,
 Armored = 3</t>
   </si>
   <si>
-    <t>塔的UI图片</t>
-  </si>
-  <si>
-    <t>描述显示字段文本文字</t>
-  </si>
-  <si>
-    <t>资料卡的显示字段文本</t>
-  </si>
-  <si>
-    <t>每一级塔要花的钱</t>
-  </si>
-  <si>
-    <t>每一级塔拆除后返回的钱</t>
-  </si>
-  <si>
-    <t>塔每一级buff特效的guid</t>
-  </si>
-  <si>
-    <t>防御塔二级特效guid</t>
-  </si>
-  <si>
-    <t>防御塔三级特效guid</t>
-  </si>
-  <si>
-    <t>防御塔攻击特效延迟时间</t>
-  </si>
-  <si>
-    <t>武器guid</t>
-  </si>
-  <si>
-    <t>武器挂载插槽</t>
-  </si>
-  <si>
-    <t>武器相对于插槽的位置</t>
-  </si>
-  <si>
-    <t>武器特效延迟播放时间</t>
-  </si>
-  <si>
-    <t>击中特效</t>
-  </si>
-  <si>
-    <t>受击特效的缩放</t>
-  </si>
-  <si>
-    <t>特效延迟
+    <t xml:space="preserve">塔的UI图片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">描述显示字段文本文字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资料卡的显示字段文本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每一级塔要花的钱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每一级塔拆除后返回的钱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塔每一级buff特效的guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防御塔二级特效guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防御塔三级特效guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防御塔攻击特效延迟时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武器guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武器挂载插槽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武器相对于插槽的位置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武器特效延迟播放时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">击中特效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">受击特效的缩放</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特效延迟
 播放时间
 单位秒</t>
   </si>
   <si>
-    <t>攻击间隔</t>
-  </si>
-  <si>
-    <t>攻击数量</t>
-  </si>
-  <si>
-    <t>攻击AOE范围
+    <t xml:space="preserve">攻击间隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击AOE范围
 （0为单体)</t>
   </si>
   <si>
-    <t>索敌范围</t>
-  </si>
-  <si>
-    <t>攻击伤害</t>
-  </si>
-  <si>
-    <t>待机动画</t>
-  </si>
-  <si>
-    <t>特效颜色</t>
-  </si>
-  <si>
-    <t>攻击动画</t>
-  </si>
-  <si>
-    <t>攻击动画持续时间</t>
-  </si>
-  <si>
-    <t>攻击动画参数
+    <t xml:space="preserve">索敌范围</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve">待机动画</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特效颜色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击动画</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击动画持续时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击动画参数
 速率|次数</t>
   </si>
   <si>
-    <t>攻击带的buff
+    <t xml:space="preserve">攻击带的buff
 对应buff表的id</t>
   </si>
   <si>
-    <t>投掷物的Z</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Tower_name_1</t>
-  </si>
-  <si>
-    <t>枪手</t>
-  </si>
-  <si>
-    <t>1|2</t>
+    <t xml:space="preserve">投掷物的Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">枪手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|2</t>
   </si>
   <si>
     <r>
@@ -281,7 +276,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Tower_attackTags_1</t>
+      <t xml:space="preserve">Tower_attackTags_1</t>
     </r>
     <r>
       <rPr>
@@ -291,7 +286,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>|</t>
+      <t xml:space="preserve">|</t>
     </r>
     <r>
       <rPr>
@@ -301,7 +296,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Tower_attackTags_2</t>
+      <t xml:space="preserve">Tower_attackTags_2</t>
     </r>
     <r>
       <rPr>
@@ -311,7 +306,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>|</t>
+      <t xml:space="preserve">|</t>
     </r>
     <r>
       <rPr>
@@ -321,7 +316,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Tower_attackTags_3</t>
+      <t xml:space="preserve">Tower_attackTags_3</t>
     </r>
     <r>
       <rPr>
@@ -331,7 +326,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>|</t>
+      <t xml:space="preserve">|</t>
     </r>
     <r>
       <rPr>
@@ -341,203 +336,203 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Tower_attackTags_4</t>
+      <t xml:space="preserve">Tower_attackTags_4</t>
     </r>
   </si>
   <si>
-    <t>attackDamage|attackTime|attackCount|findRange</t>
-  </si>
-  <si>
-    <t>50|90|150</t>
-  </si>
-  <si>
-    <t>25|70|160</t>
-  </si>
-  <si>
-    <t>035FE6194D5ED1833C63E8A5565B4B2A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>0524CC544E1BF295C554C69AD1D8CFA2</t>
-  </si>
-  <si>
-    <t>1|0.83|0.8</t>
-  </si>
-  <si>
-    <t>1|1|1</t>
-  </si>
-  <si>
-    <t>0|0|0</t>
-  </si>
-  <si>
-    <t>2|2.1|2.25</t>
-  </si>
-  <si>
-    <t>50|57.5|65</t>
-  </si>
-  <si>
-    <t>FF9200FF|0C9BFFFF|FF00FEFF</t>
-  </si>
-  <si>
-    <t>1|1</t>
-  </si>
-  <si>
-    <t>Tower_name_2</t>
-  </si>
-  <si>
-    <t>步枪手</t>
-  </si>
-  <si>
-    <t>1|3</t>
-  </si>
-  <si>
-    <t>120|215|360</t>
-  </si>
-  <si>
-    <t>60|165|385</t>
-  </si>
-  <si>
-    <t>EAF74E344060D0E4F10B2FAA213EB466|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>629362DD4A7294FF649E37BDDE9F30B0</t>
-  </si>
-  <si>
-    <t>0.75|0.63|0.6</t>
-  </si>
-  <si>
-    <t>1.2|1.32|1.5</t>
-  </si>
-  <si>
-    <t>75|86.25|97.5</t>
-  </si>
-  <si>
-    <t>FFBE4EFF|317FFFFF|FF31F1FF</t>
-  </si>
-  <si>
-    <t>Tower_name_3</t>
-  </si>
-  <si>
-    <t>机枪手</t>
-  </si>
-  <si>
-    <t>180|325|540</t>
-  </si>
-  <si>
-    <t>90|250|575</t>
-  </si>
-  <si>
-    <t>6B3208A84B2AE04875E6ACB418BCF27C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>350A0E654CA7583A6D2FA987E8D51E1A</t>
-  </si>
-  <si>
-    <t>0.5|0.42|0.4</t>
-  </si>
-  <si>
-    <t>1.5|1.65|1.875</t>
-  </si>
-  <si>
-    <t>60|69|78</t>
-  </si>
-  <si>
-    <t>FFB860FF|7FA3FFFF|FF75FAFF</t>
-  </si>
-  <si>
-    <t>Tower_name_4</t>
-  </si>
-  <si>
-    <t>狙击手</t>
-  </si>
-  <si>
-    <t>1|2|3</t>
-  </si>
-  <si>
-    <t>250|450|750</t>
-  </si>
-  <si>
-    <t>125|350|800</t>
-  </si>
-  <si>
-    <t>8D1F67E84BEAFBABCA05FE8DBE470802|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>E17F27CC4B7A0FCBDA598E9D66D87007</t>
-  </si>
-  <si>
-    <t>3|2.5|2.4</t>
-  </si>
-  <si>
-    <t>3.75|4.125|4.6875</t>
-  </si>
-  <si>
-    <t>200|230|260</t>
-  </si>
-  <si>
-    <t>FFFFFFFF|33A4FFFF|FF4CF5FF</t>
-  </si>
-  <si>
-    <t>Tower_name_5</t>
-  </si>
-  <si>
-    <t>火炮手</t>
-  </si>
-  <si>
-    <t>375|675|1125</t>
-  </si>
-  <si>
-    <t>185|525|1200</t>
-  </si>
-  <si>
-    <t>6CB1EE514F4B82CBB5CA22A5FEA68B5C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>C40D8AAA48542A860728848F6CBDF8BF</t>
-  </si>
-  <si>
-    <t>2|1.67|1.6</t>
-  </si>
-  <si>
-    <t>2|2|2</t>
-  </si>
-  <si>
-    <t>3|3.3|3.75</t>
-  </si>
-  <si>
-    <t>250|287.5|325</t>
-  </si>
-  <si>
-    <t>FF944DFF|5995FFFF|FF6BF9FF</t>
-  </si>
-  <si>
-    <t>Tower_name_6</t>
-  </si>
-  <si>
-    <t>特种兵</t>
-  </si>
-  <si>
-    <t>240|430|720</t>
-  </si>
-  <si>
-    <t>120|335|765</t>
-  </si>
-  <si>
-    <t>21D4F5AF4A7AD5509FCBCD8CC10D94DC|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>653891C94FB0A366D642CEA818391DC9</t>
-  </si>
-  <si>
-    <t>80|92|104</t>
-  </si>
-  <si>
-    <t>FFAA65FF|4BAFFFFF|FFB4F4FF</t>
-  </si>
-  <si>
-    <t>Tower_name_7</t>
-  </si>
-  <si>
-    <t>爆破专家</t>
+    <t xml:space="preserve">attackDamage|attackTime|attackCount|findRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50|90|150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25|70|160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">035FE6194D5ED1833C63E8A5565B4B2A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0524CC544E1BF295C554C69AD1D8CFA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|0.83|0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2|2.1|2.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50|57.5|65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF9200FF|0C9BFFFF|FF00FEFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">步枪手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120|215|360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60|165|385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAF74E344060D0E4F10B2FAA213EB466|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">629362DD4A7294FF649E37BDDE9F30B0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75|0.63|0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2|1.32|1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75|86.25|97.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFBE4EFF|317FFFFF|FF31F1FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">机枪手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180|325|540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90|250|575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6B3208A84B2AE04875E6ACB418BCF27C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350A0E654CA7583A6D2FA987E8D51E1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5|0.42|0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5|1.65|1.875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60|69|78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFB860FF|7FA3FFFF|FF75FAFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">狙击手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|2|3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250|450|750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125|350|800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8D1F67E84BEAFBABCA05FE8DBE470802|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E17F27CC4B7A0FCBDA598E9D66D87007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3|2.5|2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75|4.125|4.6875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200|230|260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFFFFFFF|33A4FFFF|FF4CF5FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火炮手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">375|675|1125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185|525|1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6CB1EE514F4B82CBB5CA22A5FEA68B5C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C40D8AAA48542A860728848F6CBDF8BF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2|1.67|1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2|2|2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3|3.3|3.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250|287.5|325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF944DFF|5995FFFF|FF6BF9FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特种兵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240|430|720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120|335|765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21D4F5AF4A7AD5509FCBCD8CC10D94DC|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">653891C94FB0A366D642CEA818391DC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80|92|104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFAA65FF|4BAFFFFF|FFB4F4FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower_name_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">爆破专家</t>
   </si>
   <si>
     <r>
@@ -548,7 +543,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Tower_attackTags_1</t>
+      <t xml:space="preserve">Tower_attackTags_1</t>
     </r>
     <r>
       <rPr>
@@ -558,7 +553,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>|</t>
+      <t xml:space="preserve">|</t>
     </r>
     <r>
       <rPr>
@@ -568,7 +563,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Tower_attackTags_2</t>
+      <t xml:space="preserve">Tower_attackTags_2</t>
     </r>
     <r>
       <rPr>
@@ -578,7 +573,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>|</t>
+      <t xml:space="preserve">|</t>
     </r>
     <r>
       <rPr>
@@ -588,7 +583,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Tower_attackTags_5</t>
+      <t xml:space="preserve">Tower_attackTags_5</t>
     </r>
     <r>
       <rPr>
@@ -598,7 +593,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>|</t>
+      <t xml:space="preserve">|</t>
     </r>
     <r>
       <rPr>
@@ -608,35 +603,35 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Tower_attackTags_4</t>
+      <t xml:space="preserve">Tower_attackTags_4</t>
     </r>
   </si>
   <si>
-    <t>300|540|900</t>
-  </si>
-  <si>
-    <t>150|420|960</t>
-  </si>
-  <si>
-    <t>EC5DCEC54F3EA67C227D0EA95AB9E08F|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>EECF96D34B6A40D279E4418439C0FCD8</t>
-  </si>
-  <si>
-    <t>3|3|3</t>
-  </si>
-  <si>
-    <t>2|2.2|2.5</t>
-  </si>
-  <si>
-    <t>100|115|130</t>
-  </si>
-  <si>
-    <t>Tower_name_8</t>
-  </si>
-  <si>
-    <t>歼击导弹</t>
+    <t xml:space="preserve">300|540|900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150|420|960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC5DCEC54F3EA67C227D0EA95AB9E08F|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EECF96D34B6A40D279E4418439C0FCD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3|3|3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2|2.2|2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100|115|130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower_name_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">歼击导弹</t>
   </si>
   <si>
     <r>
@@ -647,7 +642,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Tower_attackTags_1</t>
+      <t xml:space="preserve">Tower_attackTags_1</t>
     </r>
     <r>
       <rPr>
@@ -657,7 +652,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>|</t>
+      <t xml:space="preserve">|</t>
     </r>
     <r>
       <rPr>
@@ -667,7 +662,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Tower_attackTags_2</t>
+      <t xml:space="preserve">Tower_attackTags_2</t>
     </r>
     <r>
       <rPr>
@@ -677,7 +672,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>|</t>
+      <t xml:space="preserve">|</t>
     </r>
     <r>
       <rPr>
@@ -687,7 +682,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Tower_attackTags_6</t>
+      <t xml:space="preserve">Tower_attackTags_6</t>
     </r>
     <r>
       <rPr>
@@ -697,7 +692,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>|</t>
+      <t xml:space="preserve">|</t>
     </r>
     <r>
       <rPr>
@@ -707,77 +702,77 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Tower_attackTags_4</t>
+      <t xml:space="preserve">Tower_attackTags_4</t>
     </r>
   </si>
   <si>
-    <t>600|1080|1800</t>
-  </si>
-  <si>
-    <t>300|840|1920</t>
-  </si>
-  <si>
-    <t>B3A884E74563F1D443673D972DE73C5A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>Tower_name_9</t>
-  </si>
-  <si>
-    <t>海豹突击手</t>
-  </si>
-  <si>
-    <t>225|405|675</t>
-  </si>
-  <si>
-    <t>115|315|720</t>
-  </si>
-  <si>
-    <t>B6770C824788E1B59A5992BEB0E58D58|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>6A0DE7F4464370FE3F343F8B8280953B</t>
-  </si>
-  <si>
-    <t>0.33|0.28|0.27</t>
-  </si>
-  <si>
-    <t>FF9E59FF|72C7FFFF|FF5CDCFF</t>
-  </si>
-  <si>
-    <t>Tower_name_10</t>
-  </si>
-  <si>
-    <t>霰弹枪兵</t>
-  </si>
-  <si>
-    <t>720|1296|2160</t>
-  </si>
-  <si>
-    <t>360|1000|2300</t>
-  </si>
-  <si>
-    <t>A017872D4179A0F6C53E2786AA756766|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>CBC7A8DF492ADDA5A3B0A0B28A3EC68B</t>
-  </si>
-  <si>
-    <t>5|5|5</t>
-  </si>
-  <si>
-    <t>1|1.1|1.25</t>
-  </si>
-  <si>
-    <t>120|138|156</t>
-  </si>
-  <si>
-    <t>FF9C6CFF|65AAFFFF|FF45FEFF</t>
-  </si>
-  <si>
-    <t>Tower_name_11</t>
-  </si>
-  <si>
-    <t>金币矿机</t>
+    <t xml:space="preserve">600|1080|1800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300|840|1920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3A884E74563F1D443673D972DE73C5A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower_name_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海豹突击手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225|405|675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115|315|720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6770C824788E1B59A5992BEB0E58D58|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6A0DE7F4464370FE3F343F8B8280953B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33|0.28|0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF9E59FF|72C7FFFF|FF5CDCFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower_name_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霰弹枪兵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">720|1296|2160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360|1000|2300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A017872D4179A0F6C53E2786AA756766|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBC7A8DF492ADDA5A3B0A0B28A3EC68B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5|5|5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|1.1|1.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120|138|156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF9C6CFF|65AAFFFF|FF45FEFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower_name_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金币矿机</t>
   </si>
   <si>
     <r>
@@ -788,7 +783,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Tower_attackTags_7</t>
+      <t xml:space="preserve">Tower_attackTags_7</t>
     </r>
     <r>
       <rPr>
@@ -798,7 +793,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>|</t>
+      <t xml:space="preserve">|</t>
     </r>
     <r>
       <rPr>
@@ -808,35 +803,35 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Tower_attackTags_8</t>
+      <t xml:space="preserve">Tower_attackTags_8</t>
     </r>
   </si>
   <si>
-    <t>attackDamage|attackTime</t>
-  </si>
-  <si>
-    <t>30|90|150</t>
-  </si>
-  <si>
-    <t>15|50|100</t>
-  </si>
-  <si>
-    <t>3F3E2CEE4DABFE0E832743B85AE2BD5B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>10|8|6</t>
-  </si>
-  <si>
-    <t>2|3|4</t>
-  </si>
-  <si>
-    <t>7|10|15</t>
-  </si>
-  <si>
-    <t>Tower_name_12</t>
-  </si>
-  <si>
-    <t>鼓舞旗帜</t>
+    <t xml:space="preserve">attackDamage|attackTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30|90|150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15|50|100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3F3E2CEE4DABFE0E832743B85AE2BD5B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10|8|6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2|3|4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7|10|15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower_name_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鼓舞旗帜</t>
   </si>
   <si>
     <r>
@@ -847,7 +842,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Tower_attackTags_9</t>
+      <t xml:space="preserve">Tower_attackTags_9</t>
     </r>
     <r>
       <rPr>
@@ -857,7 +852,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>|</t>
+      <t xml:space="preserve">|</t>
     </r>
     <r>
       <rPr>
@@ -867,299 +862,504 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Tower_attackTags_10</t>
+      <t xml:space="preserve">Tower_attackTags_10</t>
     </r>
   </si>
   <si>
-    <t>attackDamage|findRange</t>
-  </si>
-  <si>
-    <t>120|300|600</t>
-  </si>
-  <si>
-    <t>14F45E2348C0537D52B304A3C3C6B69B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>0.01|0.01|0.01</t>
-  </si>
-  <si>
-    <t>10|15|25</t>
-  </si>
-  <si>
-    <t>2001|2002|2003</t>
-  </si>
-  <si>
-    <t>光龙男1</t>
-  </si>
-  <si>
-    <t>光龙娘1</t>
-  </si>
-  <si>
-    <t>60|100|200</t>
-  </si>
-  <si>
-    <t>09E82E72488ED6F749BA99A256F1792F|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>E8DF061043359EE84F60AEAAB3D3A68A</t>
-  </si>
-  <si>
-    <t>10|5|6</t>
-  </si>
-  <si>
-    <t>0.48|0.48|0.48</t>
-  </si>
-  <si>
-    <t>58|68|78</t>
-  </si>
-  <si>
-    <t>光龙娘4</t>
-  </si>
-  <si>
-    <t>600|700|800</t>
-  </si>
-  <si>
-    <t>88A9134443C169D1D86DE4A68690D295|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>CC07D30340D3F7222F7D498025208100</t>
-  </si>
-  <si>
-    <t>3|3|2.8</t>
-  </si>
-  <si>
-    <t>1000|1250|1500</t>
-  </si>
-  <si>
-    <t>光龙娘3</t>
-  </si>
-  <si>
-    <t>550|600|650</t>
-  </si>
-  <si>
-    <t>B06787054CADB7A7F6D7119045051E1E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>D4B7264E42074A814EA43BA7906BBEE7</t>
-  </si>
-  <si>
-    <t>4|4|4</t>
-  </si>
-  <si>
-    <t>2|2.25|2.5</t>
-  </si>
-  <si>
-    <t>280|320|370</t>
-  </si>
-  <si>
-    <t>光龙男2</t>
-  </si>
-  <si>
-    <t>光龙娘2</t>
-  </si>
-  <si>
-    <t>80|120|200</t>
-  </si>
-  <si>
-    <t>AB17F0404A02BC9A002911BC7BDC0A65|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>B8042E594FB8BDA5FFE681993C5A8FB3</t>
-  </si>
-  <si>
-    <t>0.7|0.6|0.5</t>
-  </si>
-  <si>
-    <t>1|1.2|1.4</t>
-  </si>
-  <si>
-    <t>60|90|140</t>
-  </si>
-  <si>
-    <t>光龙娘6</t>
-  </si>
-  <si>
-    <t>光龙娘7</t>
-  </si>
-  <si>
-    <t>F295C0434C6D1288C0CBCD81DD5DE08B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>暖机光龙娘5</t>
-  </si>
-  <si>
-    <t>光龙娘5</t>
-  </si>
-  <si>
-    <t>200|250|300</t>
+    <t xml:space="preserve">attackDamage|findRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120|300|600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14F45E2348C0537D52B304A3C3C6B69B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01|0.01|0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10|15|25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001|2002|2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光龙男1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光龙娘1</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <rFont val="等线"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>200|250|300</t>
+      <t xml:space="preserve">Tower_attackTags_1</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>.</t>
+      <t xml:space="preserve">|</t>
     </r>
-  </si>
-  <si>
-    <t>7A8D6E2149EC964C609BEABB1CD4DB6E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>421CE1374301DC37D8FCB09C2F2321C4</t>
-  </si>
-  <si>
-    <t>1.7|1.7|1.7</t>
-  </si>
-  <si>
-    <t>增益光龙娘7</t>
-  </si>
-  <si>
-    <t>2156CCFE49B0B0F804086C96D2F8166C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>暗龙娘2</t>
-  </si>
-  <si>
-    <t>60|100|130</t>
-  </si>
-  <si>
-    <t>28D3AAC24F38644228D141AF6EE3C31F|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>45F04C6F46C61EA619AEF0B058363AC7</t>
-  </si>
-  <si>
-    <t>1.85|1.5|1.4</t>
-  </si>
-  <si>
-    <t>1|1.2|1.2</t>
-  </si>
-  <si>
-    <t>200|250|320</t>
-  </si>
-  <si>
-    <t>暗龙娘1</t>
-  </si>
-  <si>
-    <t>160|250|320</t>
-  </si>
-  <si>
-    <t>3A9D803A4C74C27DA0A11FA53B742510|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>07F582E14688F6E9C9F0D2951D0902E1</t>
-  </si>
-  <si>
-    <t>1.3|1.3|1.1</t>
-  </si>
-  <si>
-    <t>8|8|8</t>
-  </si>
-  <si>
-    <t>1|1.25|1.25</t>
-  </si>
-  <si>
-    <t>50|65|80</t>
-  </si>
-  <si>
-    <t>暗龙娘3</t>
-  </si>
-  <si>
-    <t>70|120|180</t>
-  </si>
-  <si>
-    <t>CD0581B64EAB0563BF8537BCE23878AE|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>2E34840A438C9605A8FB7C978CAFE3D9</t>
-  </si>
-  <si>
-    <t>0.6|0.6|0.4</t>
-  </si>
-  <si>
-    <t>1.5|1.6|1.6</t>
-  </si>
-  <si>
-    <t>55|80|110</t>
-  </si>
-  <si>
-    <t>暗龙娘4</t>
-  </si>
-  <si>
-    <t>9E7CB4874D5A5A99FE782A946A61E0DC|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>B2790D96472CAB1BF1D3578B3620717C</t>
-  </si>
-  <si>
-    <t>0.6|0.6|0.6</t>
-  </si>
-  <si>
-    <t>1.5|1.5|1.5</t>
-  </si>
-  <si>
-    <t>56|96|176</t>
-  </si>
-  <si>
-    <t>暗龙娘5</t>
-  </si>
-  <si>
-    <t>60|120|180</t>
-  </si>
-  <si>
-    <t>AB4D06E34849041AB9D5C084904B8036|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>15|12|9</t>
-  </si>
-  <si>
-    <t>10|20|30</t>
-  </si>
-  <si>
-    <t>暗龙娘6</t>
-  </si>
-  <si>
-    <t>2413BE794DFD89225C6BB1984BF3B39A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>40|60|80</t>
-  </si>
-  <si>
-    <t>暗龙娘7</t>
-  </si>
-  <si>
-    <t>4E3FA2424F946AAFD47668983B3506B9|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t>60|80|100</t>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Tower_attackTags_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Tower_attackTags_3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Tower_attackTags_4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">60|100|200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09E82E72488ED6F749BA99A256F1792F|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E8DF061043359EE84F60AEAAB3D3A68A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10|5|6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48|0.48|0.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58|68|78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光龙娘4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600|700|800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88A9134443C169D1D86DE4A68690D295|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC07D30340D3F7222F7D498025208100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3|3|2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000|1250|1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光龙娘3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550|600|650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B06787054CADB7A7F6D7119045051E1E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4B7264E42074A814EA43BA7906BBEE7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4|4|4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2|2.25|2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280|320|370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光龙男2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光龙娘2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80|120|200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB17F0404A02BC9A002911BC7BDC0A65|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B8042E594FB8BDA5FFE681993C5A8FB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7|0.6|0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|1.2|1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60|90|140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光龙娘6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光龙娘7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Tower_attackTags_7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Tower_attackTags_8</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">F295C0434C6D1288C0CBCD81DD5DE08B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暖机光龙娘5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光龙娘5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200|250|300</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">200|250|300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">7A8D6E2149EC964C609BEABB1CD4DB6E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">421CE1374301DC37D8FCB09C2F2321C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7|1.7|1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">增益光龙娘7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Tower_attackTags_9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Tower_attackTags_10</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2156CCFE49B0B0F804086C96D2F8166C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗龙娘2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60|100|130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28D3AAC24F38644228D141AF6EE3C31F|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45F04C6F46C61EA619AEF0B058363AC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85|1.5|1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|1.2|1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200|250|320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗龙娘1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160|250|320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3A9D803A4C74C27DA0A11FA53B742510|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07F582E14688F6E9C9F0D2951D0902E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3|1.3|1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8|8|8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|1.25|1.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50|65|80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗龙娘3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70|120|180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD0581B64EAB0563BF8537BCE23878AE|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2E34840A438C9605A8FB7C978CAFE3D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6|0.6|0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5|1.6|1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55|80|110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗龙娘4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9E7CB4874D5A5A99FE782A946A61E0DC|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2790D96472CAB1BF1D3578B3620717C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6|0.6|0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5|1.5|1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56|96|176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗龙娘5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60|120|180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB4D06E34849041AB9D5C084904B8036|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15|12|9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10|20|30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗龙娘6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2413BE794DFD89225C6BB1984BF3B39A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40|60|80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗龙娘7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4E3FA2424F946AAFD47668983B3506B9|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60|80|100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水龙娘1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400|600|900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">588EA3A049E954202CC020B7C119324A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A4B3C9846217C42C0C3C3B2371F9918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82|0.75|0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58|88|128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水龙娘2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210|320|700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2376FBE449DD94F61D9F08B9220157E7|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EF86F5344F48528C8775BCAB8A3CC651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30|45|70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水龙娘3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500|600|800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEA94B29458A224F6916409D0B5EEBD0|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A79AF731457034A4CF4D289257346D2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9|0.9|0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55|75|95</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1170,7 +1370,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -1193,14 +1393,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1225,103 +1446,187 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="31">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1380,78 +1685,62 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18A303"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369A3"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A33E03"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8E03A3"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="C99C00"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C9211E"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000EE"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551A8B"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -1504,66 +1793,67 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMQ30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="V5" activeCellId="0" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="5" width="13.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="36.625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="13.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.25" style="1" customWidth="1"/>
-    <col min="13" max="16" width="54" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.625" style="1" customWidth="1"/>
-    <col min="20" max="22" width="12.5" style="1"/>
-    <col min="23" max="27" width="18" style="1" customWidth="1"/>
-    <col min="28" max="28" width="16" style="1" customWidth="1"/>
-    <col min="29" max="29" width="18" style="1" customWidth="1"/>
-    <col min="30" max="34" width="16" style="1" customWidth="1"/>
-    <col min="35" max="35" width="27.875" style="1" customWidth="1"/>
-    <col min="36" max="36" width="117.875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="46.5" style="1" customWidth="1"/>
-    <col min="38" max="38" width="96.125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="36.25" style="1" customWidth="1"/>
-    <col min="40" max="40" width="64.25" style="1" customWidth="1"/>
-    <col min="41" max="41" width="36.625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="15.625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="22.125" style="1" customWidth="1"/>
-    <col min="44" max="44" width="27.25" style="2" customWidth="1"/>
-    <col min="45" max="45" width="34" style="1" customWidth="1"/>
-    <col min="46" max="46" width="31.75" style="2" customWidth="1"/>
-    <col min="47" max="47" width="19.875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="23.375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="16" style="1" customWidth="1"/>
-    <col min="50" max="51" width="12.5" style="1"/>
-    <col min="52" max="52" width="17" style="1" customWidth="1"/>
-    <col min="53" max="56" width="12.5" style="1"/>
-    <col min="57" max="57" width="15.75" style="1" customWidth="1"/>
-    <col min="58" max="58" width="31.25" style="1" customWidth="1"/>
-    <col min="59" max="59" width="16.75" style="1" customWidth="1"/>
-    <col min="60" max="60" width="18.75" style="1" customWidth="1"/>
-    <col min="61" max="1031" width="12.5" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="36.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="44.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="1" width="54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="21.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="20" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="23" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="30" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="27.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="117.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="46.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="96.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="36.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="64.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="36.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="2" width="27.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="2" width="31.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="23.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="51" min="50" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="56" min="53" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="31.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="18.75"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1031" min="61" style="1" width="12.51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1652,7 +1942,7 @@
         <v>3</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>4</v>
@@ -1692,7 +1982,7 @@
       <c r="BF1" s="3"/>
       <c r="BG1" s="3"/>
     </row>
-    <row r="2" spans="1:59" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1821,7 +2111,7 @@
       <c r="BF2" s="3"/>
       <c r="BG2" s="3"/>
     </row>
-    <row r="3" spans="1:59" ht="95.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -1950,13 +2240,13 @@
       <c r="BF3" s="3"/>
       <c r="BG3" s="3"/>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>1001</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1965,16 +2255,16 @@
       <c r="C5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="n">
         <v>291768</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -1995,13 +2285,13 @@
       <c r="P5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="1" t="n">
         <v>0.2</v>
       </c>
       <c r="W5" s="1" t="s">
@@ -2019,33 +2309,33 @@
       <c r="AA5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="1" t="n">
         <v>281795</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5" s="1" t="n">
         <v>81687</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AF5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AG5" s="10" t="n">
         <v>4007</v>
       </c>
-      <c r="AH5" s="8"/>
-      <c r="AR5" s="9"/>
+      <c r="AH5" s="10"/>
+      <c r="AR5" s="11"/>
       <c r="AS5" s="8"/>
-      <c r="AT5" s="9"/>
+      <c r="AT5" s="11"/>
       <c r="AW5" s="8"/>
       <c r="AZ5" s="8"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>1002</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2054,16 +2344,16 @@
       <c r="C6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="n">
         <v>360</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="12" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="12" t="n">
         <v>291769</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -2084,13 +2374,13 @@
       <c r="P6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="1" t="n">
         <v>0.2</v>
       </c>
       <c r="W6" s="1" t="s">
@@ -2108,28 +2398,28 @@
       <c r="AA6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="1" t="n">
         <v>281710</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AE6" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AF6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AR6" s="9"/>
-      <c r="AT6" s="9"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AR6" s="11"/>
+      <c r="AT6" s="11"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>1003</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2138,16 +2428,16 @@
       <c r="C7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="n">
         <v>540</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="n">
         <v>291776</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -2168,13 +2458,13 @@
       <c r="P7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="1" t="s">
@@ -2192,31 +2482,31 @@
       <c r="AA7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="1" t="n">
         <v>281710</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AF7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AR7" s="9"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AR7" s="11"/>
       <c r="AS7" s="8"/>
-      <c r="AT7" s="9"/>
+      <c r="AT7" s="11"/>
       <c r="AW7" s="8"/>
       <c r="AZ7" s="8"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>1004</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2225,16 +2515,16 @@
       <c r="C8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="n">
         <v>750</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="12" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="12" t="n">
         <v>291770</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -2255,13 +2545,13 @@
       <c r="P8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W8" s="1" t="s">
@@ -2279,28 +2569,28 @@
       <c r="AA8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="1" t="n">
         <v>20227</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8" s="1" t="n">
         <v>20279</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE8" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AF8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AR8" s="9"/>
-      <c r="AT8" s="9"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AR8" s="11"/>
+      <c r="AT8" s="11"/>
     </row>
-    <row r="9" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>1005</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2309,16 +2599,16 @@
       <c r="C9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="n">
         <v>1125</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="12" t="n">
         <v>291772</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -2345,13 +2635,13 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="8">
+      <c r="T9" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W9" s="1" t="s">
@@ -2369,26 +2659,26 @@
       <c r="AA9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="1" t="n">
         <v>20273</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9" s="1" t="n">
         <v>288430</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AE9" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF9" s="1" t="s">
+      <c r="AF9" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
     </row>
-    <row r="10" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>1006</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2397,16 +2687,16 @@
       <c r="C10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="n">
         <v>720</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="12" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="12" t="n">
         <v>291775</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -2433,13 +2723,13 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="8">
+      <c r="T10" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W10" s="1" t="s">
@@ -2457,26 +2747,26 @@
       <c r="AA10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="1" t="n">
         <v>281710</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AE10" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AF10" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
     </row>
-    <row r="11" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>1007</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2485,16 +2775,16 @@
       <c r="C11" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="n">
         <v>900</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="2" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="12" t="n">
         <v>291779</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -2521,13 +2811,13 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="8">
+      <c r="T11" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W11" s="1" t="s">
@@ -2545,26 +2835,26 @@
       <c r="AA11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB11" s="1" t="n">
         <v>35385</v>
       </c>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="1">
+      <c r="AD11" s="1" t="n">
         <v>84862</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AE11" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AF11" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8">
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="12" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>1008</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2573,16 +2863,16 @@
       <c r="C12" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="n">
         <v>1800</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="12" t="n">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="12" t="n">
         <v>291773</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -2609,13 +2899,13 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="8">
+      <c r="T12" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W12" s="1" t="s">
@@ -2633,24 +2923,24 @@
       <c r="AA12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB12" s="1" t="n">
         <v>180888</v>
       </c>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="1">
+      <c r="AD12" s="1" t="n">
         <v>86462</v>
       </c>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1" t="s">
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8">
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>1009</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -2659,16 +2949,16 @@
       <c r="C13" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="n">
         <v>675</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="12" t="n">
         <v>291780</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -2695,13 +2985,13 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="8">
+      <c r="T13" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W13" s="1" t="s">
@@ -2719,26 +3009,26 @@
       <c r="AA13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13" s="1" t="n">
         <v>281710</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AD13" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AE13" s="9" t="n">
         <v>0.3</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AF13" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
     </row>
-    <row r="14" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="14" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>1010</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -2747,16 +3037,16 @@
       <c r="C14" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="n">
         <v>2100</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="12" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="12" t="n">
         <v>291778</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -2783,13 +3073,13 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="8">
+      <c r="T14" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W14" s="1" t="s">
@@ -2807,26 +3097,26 @@
       <c r="AA14" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AB14" s="1" t="n">
         <v>281710</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AD14" s="1" t="n">
         <v>281780</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AE14" s="9" t="n">
         <v>0.25</v>
       </c>
-      <c r="AF14" s="1" t="s">
+      <c r="AF14" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>2001</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -2835,13 +3125,13 @@
       <c r="C15" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="12" t="n">
         <v>291777</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -2862,13 +3152,13 @@
       <c r="P15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W15" s="1" t="s">
@@ -2886,22 +3176,23 @@
       <c r="AA15" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB15" s="1" t="n">
         <v>180888</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD15" s="1" t="n">
         <v>97181</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AG15"/>
-      <c r="AH15" s="8"/>
-      <c r="AR15" s="9"/>
-      <c r="AT15" s="9"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="10"/>
+      <c r="AR15" s="11"/>
+      <c r="AT15" s="11"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>3001</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2910,13 +3201,13 @@
       <c r="C16" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="12" t="n">
         <v>291764</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -2935,10 +3226,10 @@
         <v>191</v>
       </c>
       <c r="T16" s="8"/>
-      <c r="U16" s="8">
+      <c r="U16" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W16" s="1" t="s">
@@ -2956,1165 +3247,1462 @@
       <c r="AA16" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AD16" s="1" t="n">
         <v>97181</v>
       </c>
-      <c r="AF16" s="1" t="s">
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AG16" s="8" t="s">
+      <c r="AG16" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AH16" s="8"/>
-      <c r="AR16" s="9"/>
-      <c r="AT16" s="9"/>
+      <c r="AH16" s="10"/>
+      <c r="AR16" s="11"/>
+      <c r="AT16" s="11"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="n">
         <v>1011</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="15" t="n">
         <v>326244</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="H17" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="L17" s="1" t="s">
+      <c r="J17" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="O17" s="1">
+      <c r="K17" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="O17" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q17" s="1">
+      <c r="P17" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="S17" s="1">
+        <v>201</v>
+      </c>
+      <c r="S17" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="10" t="n">
         <v>168944</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="10" t="n">
         <v>0.3</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W17" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="X17" s="1" t="s">
+      <c r="W17" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="X17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Y17" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="Z17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AA17" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB17" s="1">
+      <c r="AA17" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB17" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AC17" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AD17" s="9" t="n">
         <v>85959</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AE17" s="9" t="n">
         <v>0.3</v>
       </c>
-      <c r="AF17" s="1" t="s">
+      <c r="AF17" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AR17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AR17" s="11"/>
       <c r="AS17" s="8"/>
-      <c r="AT17" s="9"/>
+      <c r="AT17" s="11"/>
       <c r="AW17" s="8"/>
       <c r="AZ17" s="8"/>
     </row>
-    <row r="18" spans="1:52" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="n">
         <v>1012</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="9" t="n">
         <v>600</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="18" t="n">
         <v>326244</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="14" t="s">
+      <c r="H18" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I18" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="J18" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="K18" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="T18" s="1">
+      <c r="P18" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="T18" s="9" t="n">
         <v>153046</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W18" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="X18" s="1" t="s">
+      <c r="W18" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="X18" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Y18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="Z18" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="AA18" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB18" s="1">
+      <c r="AA18" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB18" s="9" t="n">
         <v>284848</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AC18" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AD18" s="9" t="n">
         <v>121794</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AE18" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AF18" s="1" t="s">
+      <c r="AF18" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AR18" s="9"/>
-      <c r="AT18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AR18" s="11"/>
+      <c r="AT18" s="11"/>
     </row>
-    <row r="19" spans="1:52" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="n">
         <v>1013</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="B19" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="15" t="n">
         <v>550</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="13" t="n">
         <v>326267</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="14" t="s">
+      <c r="H19" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I19" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="L19" s="1" t="s">
+      <c r="J19" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="K19" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="T19" s="1">
+      <c r="P19" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="T19" s="9" t="n">
         <v>151551</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y19" s="1" t="s">
+      <c r="X19" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y19" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="Z19" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA19" s="1" t="s">
+      <c r="Z19" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AA19" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB19" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AC19" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AD19" s="9" t="n">
         <v>20275</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AE19" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AF19" s="1" t="s">
+      <c r="AF19" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="AR19" s="9"/>
+      <c r="AR19" s="11"/>
       <c r="AS19" s="8"/>
-      <c r="AT19" s="9"/>
+      <c r="AT19" s="11"/>
       <c r="AW19" s="8"/>
       <c r="AZ19" s="8"/>
     </row>
-    <row r="20" spans="1:52" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="n">
         <v>1014</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D20" s="1">
+      <c r="C20" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="13" t="n">
         <v>150576</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="14" t="s">
+      <c r="H20" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I20" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J20" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="J20" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="K20" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="T20" s="1">
+      <c r="P20" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="T20" s="9" t="n">
         <v>200133</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z20" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA20" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB20" s="9" t="n">
+        <v>144183</v>
+      </c>
+      <c r="AC20" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD20" s="9" t="n">
+        <v>20270</v>
+      </c>
+      <c r="AE20" s="9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AR20" s="11"/>
+      <c r="AT20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="22" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E21" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13" t="n">
+        <v>130536</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y20" s="1" t="s">
+      <c r="T21" s="9" t="n">
+        <v>200133</v>
+      </c>
+      <c r="U21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="Z20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB20" s="1">
+      <c r="AA21" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB21" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AC21" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AD21" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AE21" s="9" t="n">
         <v>1.8</v>
       </c>
-      <c r="AF20" s="1" t="s">
+      <c r="AF21" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AR20" s="9"/>
-      <c r="AT20" s="9"/>
-    </row>
-    <row r="21" spans="1:52" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="16">
-        <v>1015</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21" s="10">
-        <v>100</v>
-      </c>
-      <c r="E21" s="10">
-        <v>3</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21">
-        <v>130536</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="J21" t="s">
-        <v>180</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="T21" s="1">
-        <v>200133</v>
-      </c>
-      <c r="U21" s="1">
-        <v>1</v>
-      </c>
-      <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>144183</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>20270</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AF21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AR21" s="11"/>
       <c r="AS21" s="8"/>
-      <c r="AT21" s="9"/>
+      <c r="AT21" s="11"/>
       <c r="AW21" s="8"/>
       <c r="AZ21" s="8"/>
     </row>
-    <row r="22" spans="1:52" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="16">
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="22" t="n">
         <v>1016</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="9" t="n">
         <v>200</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="13" t="n">
         <v>326241</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="14" t="s">
+      <c r="H22" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I22" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J22" t="s">
-        <v>229</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="J22" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="K22" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="T22" s="1">
+      <c r="L22" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="T22" s="9" t="n">
         <v>150929</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W22" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="X22" s="1" t="s">
+      <c r="W22" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="X22" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Y22" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="Z22" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="AA22" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB22" s="1">
+      <c r="AA22" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB22" s="9" t="n">
         <v>122546</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AC22" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AD22" s="9" t="n">
         <v>135369</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AE22" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AF22" s="1" t="s">
+      <c r="AF22" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AR22" s="9"/>
-      <c r="AT22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AR22" s="11"/>
+      <c r="AT22" s="11"/>
     </row>
-    <row r="23" spans="1:52" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="16">
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="23" t="n">
         <v>1017</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="D23" s="17">
+      <c r="B23" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18">
+      <c r="F23" s="24"/>
+      <c r="G23" s="25" t="n">
         <v>326271</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="I23" s="20" t="s">
+      <c r="H23" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="L23" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="U23" s="1">
+      <c r="L23" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="X23" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Y23" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="Z23" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AA23" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AF23" s="1" t="s">
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AG23" s="8" t="s">
+      <c r="AG23" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AR23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AR23" s="11"/>
       <c r="AS23" s="8"/>
-      <c r="AT23" s="9"/>
+      <c r="AT23" s="11"/>
       <c r="AW23" s="8"/>
       <c r="AZ23" s="8"/>
     </row>
-    <row r="24" spans="1:52" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="n">
         <v>1018</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="9" t="n">
         <v>200</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="13" t="n">
         <v>143689</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="14" t="s">
+      <c r="H24" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I24" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J24" t="s">
-        <v>237</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="T24" s="1">
+      <c r="J24" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="T24" s="9" t="n">
         <v>254300</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V24" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W24" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="X24" s="1" t="s">
+      <c r="W24" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="X24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Y24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="Z24" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB24" s="10">
+      <c r="Z24" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA24" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB24" s="15" t="n">
         <v>285370</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AC24" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AD24" s="9" t="n">
         <v>279685</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AE24" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF24" s="1" t="s">
+      <c r="AF24" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AR24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AR24" s="11"/>
       <c r="AS24" s="8"/>
-      <c r="AT24" s="9"/>
+      <c r="AT24" s="11"/>
       <c r="AW24" s="8"/>
       <c r="AZ24" s="8"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="n">
         <v>1019</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="B25" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="15" t="n">
         <v>160</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="15" t="n">
         <v>326237</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="H25" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="T25" s="1">
+      <c r="J25" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="T25" s="9" t="n">
         <v>150927</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="9" t="n">
         <v>1.3</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V25" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W25" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y25" s="1" t="s">
+      <c r="W25" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y25" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="Z25" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB25" s="1">
+      <c r="Z25" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA25" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB25" s="9" t="n">
         <v>146119</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AC25" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AD25" s="9" t="n">
         <v>279672</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AE25" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AF25" s="1" t="s">
+      <c r="AF25" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AR25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AR25" s="11"/>
       <c r="AS25" s="8"/>
-      <c r="AT25" s="9"/>
+      <c r="AT25" s="11"/>
       <c r="AW25" s="8"/>
       <c r="AZ25" s="8"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="n">
         <v>1020</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B26" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="9" t="n">
         <v>70</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="9" t="n">
         <v>326236</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="H26" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="T26" s="1">
+      <c r="J26" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="T26" s="9" t="n">
         <v>181026</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V26" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W26" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="X26" s="1" t="s">
+      <c r="W26" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="X26" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="Y26" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="Z26" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB26" s="10">
+      <c r="Z26" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA26" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB26" s="15" t="n">
         <v>144198</v>
       </c>
-      <c r="AC26" s="1" t="s">
+      <c r="AC26" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AD26" s="9" t="n">
         <v>285283</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AE26" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AF26" s="1" t="s">
+      <c r="AF26" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AR26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AR26" s="11"/>
       <c r="AS26" s="8"/>
-      <c r="AT26" s="9"/>
+      <c r="AT26" s="11"/>
       <c r="AW26" s="8"/>
       <c r="AZ26" s="8"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="n">
         <v>1021</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="B27" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="15" t="n">
         <v>80</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="15" t="n">
         <v>326245</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="H27" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="T27" s="1">
+      <c r="J27" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="T27" s="9" t="n">
         <v>151069</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U27" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="V27" s="1">
+      <c r="V27" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W27" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y27" s="1" t="s">
+      <c r="W27" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y27" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="Z27" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB27" s="1">
+      <c r="Z27" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA27" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB27" s="9" t="n">
         <v>281886</v>
       </c>
-      <c r="AC27" s="1" t="s">
+      <c r="AC27" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AD27" s="9" t="n">
         <v>281763</v>
       </c>
-      <c r="AE27" s="1">
+      <c r="AE27" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF27" s="1" t="s">
+      <c r="AF27" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AR27" s="9"/>
-      <c r="AT27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AR27" s="11"/>
+      <c r="AT27" s="11"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="n">
         <v>1022</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" s="10">
+      <c r="B28" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D28" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="10" t="n">
         <v>130536</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="H28" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="J28" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="T28" s="1">
+      <c r="J28" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="T28" s="9" t="n">
         <v>200133</v>
       </c>
-      <c r="U28" s="1">
+      <c r="U28" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V28" s="1">
+      <c r="V28" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W28" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="X28" s="1" t="s">
+      <c r="W28" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="X28" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Y28" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="Z28" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AA28" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB28" s="1">
+      <c r="AA28" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB28" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AC28" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AD28" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AE28" s="1">
+      <c r="AE28" s="9" t="n">
         <v>1.8</v>
       </c>
-      <c r="AF28" s="1" t="s">
+      <c r="AF28" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AR28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AR28" s="11"/>
       <c r="AS28" s="8"/>
-      <c r="AT28" s="9"/>
+      <c r="AT28" s="11"/>
       <c r="AW28" s="8"/>
       <c r="AZ28" s="8"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
         <v>1023</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" s="9" t="n">
         <v>150</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="G29" s="1">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="n">
         <v>129508</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="H29" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="U29" s="1">
+      <c r="L29" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="P29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V29" s="1">
+      <c r="V29" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="X29" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="Y29" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="Z29" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="AA29" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD29" s="1">
+      <c r="AA29" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AF29" s="1" t="s">
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AG29" s="8" t="s">
+      <c r="AG29" s="10" t="s">
         <v>194</v>
       </c>
+      <c r="AH29" s="9"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
         <v>1024</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B30" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="9" t="n">
         <v>250</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="G30" s="1">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="n">
         <v>319126</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="H30" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="U30" s="1">
+      <c r="L30" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="P30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V30" s="1">
+      <c r="V30" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="W30" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="X30" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Y30" s="1" t="s">
+      <c r="Y30" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="Z30" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="AA30" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD30" s="1">
+      <c r="AA30" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AF30" s="1" t="s">
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AG30" s="8" t="s">
+      <c r="AG30" s="10" t="s">
         <v>194</v>
       </c>
+      <c r="AH30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>400</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>326261</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="T31" s="9" t="n">
+        <v>151576</v>
+      </c>
+      <c r="U31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z31" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA31" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB31" s="9" t="n">
+        <v>281788</v>
+      </c>
+      <c r="AC31" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD31" s="9" t="n">
+        <v>268572</v>
+      </c>
+      <c r="AE31" s="9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>210</v>
+      </c>
+      <c r="E32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="9" t="n">
+        <v>326270</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="T32" s="9" t="n">
+        <v>168944</v>
+      </c>
+      <c r="U32" s="9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z32" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA32" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB32" s="9" t="n">
+        <v>285400</v>
+      </c>
+      <c r="AC32" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD32" s="9" t="n">
+        <v>85955</v>
+      </c>
+      <c r="AE32" s="9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF32" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>500</v>
+      </c>
+      <c r="E33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="9" t="n">
+        <v>142127</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="T33" s="9" t="n">
+        <v>99608</v>
+      </c>
+      <c r="U33" s="9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y33" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z33" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA33" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB33" s="9" t="n">
+        <v>281710</v>
+      </c>
+      <c r="AC33" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD33" s="9" t="n">
+        <v>80483</v>
+      </c>
+      <c r="AE33" s="9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF33" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="306">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -969,9 +969,6 @@
   </si>
   <si>
     <t xml:space="preserve">E8DF061043359EE84F60AEAAB3D3A68A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10|5|6</t>
   </si>
   <si>
     <t xml:space="preserve">0.48|0.48|0.48</t>
@@ -1835,10 +1832,10 @@
   </sheetPr>
   <dimension ref="A1:BG35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="Y22" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="topRight" activeCell="AF38" activeCellId="0" sqref="AF38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="O4" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topRight" activeCell="R36" activeCellId="0" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2317,6 +2314,9 @@
       <c r="P5" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="Q5" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="T5" s="8" t="n">
         <v>107535</v>
       </c>
@@ -2406,6 +2406,9 @@
       <c r="P6" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="Q6" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="T6" s="8" t="n">
         <v>107535</v>
       </c>
@@ -2489,6 +2492,9 @@
       </c>
       <c r="P7" s="1" t="s">
         <v>107</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T7" s="8" t="n">
         <v>107535</v>
@@ -2577,6 +2583,9 @@
       <c r="P8" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="Q8" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="T8" s="8" t="n">
         <v>107535</v>
       </c>
@@ -2664,7 +2673,9 @@
       <c r="P9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="8" t="n">
@@ -2752,7 +2763,9 @@
       <c r="P10" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="8" t="n">
@@ -2840,7 +2853,9 @@
       <c r="P11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="8" t="n">
@@ -2928,7 +2943,9 @@
       <c r="P12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="8" t="n">
@@ -3014,7 +3031,9 @@
       <c r="P13" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="8" t="n">
@@ -3102,7 +3121,9 @@
       <c r="P14" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="8" t="n">
@@ -3183,6 +3204,9 @@
       </c>
       <c r="P15" s="1" t="s">
         <v>107</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T15" s="8" t="n">
         <v>107535</v>
@@ -3257,6 +3281,9 @@
       <c r="L16" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="Q16" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="T16" s="8"/>
       <c r="U16" s="8" t="n">
         <v>0.8</v>
@@ -3337,10 +3364,7 @@
         <v>200</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="S17" s="1" t="n">
         <v>0.5</v>
@@ -3355,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X17" s="9" t="s">
         <v>85</v>
@@ -3367,7 +3391,7 @@
         <v>85</v>
       </c>
       <c r="AA17" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB17" s="9" t="n">
         <v>144183</v>
@@ -3397,10 +3421,10 @@
         <v>1012</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D18" s="9" t="n">
         <v>600</v>
@@ -3421,16 +3445,19 @@
         <v>79</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="L18" s="9" t="s">
+      <c r="P18" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="P18" s="9" t="s">
-        <v>207</v>
+      <c r="Q18" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T18" s="9" t="n">
         <v>153046</v>
@@ -3442,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X18" s="9" t="s">
         <v>85</v>
@@ -3454,7 +3481,7 @@
         <v>149</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AB18" s="9" t="n">
         <v>284848</v>
@@ -3481,10 +3508,10 @@
         <v>1013</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D19" s="14" t="n">
         <v>550</v>
@@ -3505,16 +3532,19 @@
         <v>79</v>
       </c>
       <c r="J19" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" s="9" t="s">
+      <c r="P19" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="P19" s="9" t="s">
-        <v>213</v>
+      <c r="Q19" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T19" s="9" t="n">
         <v>151551</v>
@@ -3529,16 +3559,16 @@
         <v>149</v>
       </c>
       <c r="X19" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y19" s="9" t="s">
         <v>86</v>
       </c>
       <c r="Z19" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA19" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="AA19" s="9" t="s">
-        <v>216</v>
       </c>
       <c r="AB19" s="9" t="n">
         <v>144183</v>
@@ -3570,10 +3600,10 @@
         <v>1014</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="D20" s="9" t="n">
         <v>80</v>
@@ -3594,16 +3624,19 @@
         <v>79</v>
       </c>
       <c r="J20" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="L20" s="9" t="s">
+      <c r="P20" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="P20" s="9" t="s">
-        <v>221</v>
+      <c r="Q20" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T20" s="9" t="n">
         <v>200133</v>
@@ -3615,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X20" s="9" t="s">
         <v>85</v>
@@ -3624,10 +3657,10 @@
         <v>86</v>
       </c>
       <c r="Z20" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA20" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="AA20" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="AB20" s="9" t="n">
         <v>144183</v>
@@ -3654,10 +3687,10 @@
         <v>1015</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="D21" s="14" t="n">
         <v>100</v>
@@ -3670,7 +3703,7 @@
         <v>130536</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>179</v>
@@ -3682,10 +3715,13 @@
         <v>181</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T21" s="9" t="n">
         <v>200133</v>
@@ -3739,10 +3775,10 @@
         <v>1016</v>
       </c>
       <c r="B22" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="D22" s="9" t="n">
         <v>200</v>
@@ -3763,16 +3799,19 @@
         <v>79</v>
       </c>
       <c r="J22" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="L22" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="P22" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="P22" s="9" t="s">
-        <v>234</v>
+      <c r="Q22" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T22" s="9" t="n">
         <v>150929</v>
@@ -3784,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X22" s="9" t="s">
         <v>85</v>
@@ -3796,7 +3835,7 @@
         <v>149</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AB22" s="9" t="n">
         <v>122546</v>
@@ -3823,10 +3862,10 @@
         <v>1017</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D23" s="23" t="n">
         <v>300</v>
@@ -3839,7 +3878,7 @@
         <v>326271</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I23" s="26" t="s">
         <v>189</v>
@@ -3851,12 +3890,15 @@
         <v>190</v>
       </c>
       <c r="L23" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
       <c r="P23" s="9"/>
+      <c r="Q23" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="T23" s="9"/>
       <c r="U23" s="9" t="n">
         <v>1</v>
@@ -3903,10 +3945,10 @@
         <v>1018</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D24" s="9" t="n">
         <v>200</v>
@@ -3927,16 +3969,19 @@
         <v>79</v>
       </c>
       <c r="J24" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="K24" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="L24" s="9" t="s">
+      <c r="P24" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="P24" s="9" t="s">
-        <v>242</v>
+      <c r="Q24" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T24" s="9" t="n">
         <v>254300</v>
@@ -3948,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="X24" s="9" t="s">
         <v>85</v>
@@ -3957,10 +4002,10 @@
         <v>86</v>
       </c>
       <c r="Z24" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA24" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="AA24" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="AB24" s="14" t="n">
         <v>285370</v>
@@ -3990,10 +4035,10 @@
         <v>1019</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D25" s="14" t="n">
         <v>160</v>
@@ -4014,16 +4059,19 @@
         <v>79</v>
       </c>
       <c r="J25" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K25" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="L25" s="9" t="s">
+      <c r="P25" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="P25" s="9" t="s">
-        <v>249</v>
+      <c r="Q25" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T25" s="9" t="n">
         <v>150927</v>
@@ -4035,19 +4083,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="X25" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="X25" s="9" t="s">
-        <v>251</v>
       </c>
       <c r="Y25" s="9" t="s">
         <v>86</v>
       </c>
       <c r="Z25" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA25" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="AA25" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="AB25" s="9" t="n">
         <v>146119</v>
@@ -4077,10 +4125,10 @@
         <v>1020</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D26" s="9" t="n">
         <v>70</v>
@@ -4101,16 +4149,19 @@
         <v>79</v>
       </c>
       <c r="J26" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="L26" s="9" t="s">
+      <c r="P26" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="P26" s="9" t="s">
-        <v>257</v>
+      <c r="Q26" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T26" s="9" t="n">
         <v>181026</v>
@@ -4122,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="X26" s="9" t="s">
         <v>85</v>
@@ -4131,10 +4182,10 @@
         <v>86</v>
       </c>
       <c r="Z26" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA26" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="AA26" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="AB26" s="14" t="n">
         <v>144198</v>
@@ -4164,10 +4215,10 @@
         <v>1021</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D27" s="14" t="n">
         <v>80</v>
@@ -4188,16 +4239,19 @@
         <v>79</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L27" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="P27" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="P27" s="9" t="s">
-        <v>263</v>
+      <c r="Q27" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T27" s="9" t="n">
         <v>151069</v>
@@ -4209,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="W27" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="X27" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="X27" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="Y27" s="9" t="s">
         <v>86</v>
       </c>
       <c r="Z27" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA27" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="AA27" s="9" t="s">
-        <v>266</v>
       </c>
       <c r="AB27" s="9" t="n">
         <v>281886</v>
@@ -4248,10 +4302,10 @@
         <v>1022</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D28" s="14" t="n">
         <v>100</v>
@@ -4266,25 +4320,28 @@
         <v>130536</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>179</v>
       </c>
       <c r="J28" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>269</v>
       </c>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T28" s="9" t="n">
         <v>200133</v>
@@ -4296,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X28" s="9" t="s">
         <v>184</v>
@@ -4308,7 +4365,7 @@
         <v>86</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB28" s="9" t="n">
         <v>144183</v>
@@ -4338,10 +4395,10 @@
         <v>1023</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D29" s="9" t="n">
         <v>150</v>
@@ -4354,7 +4411,7 @@
         <v>129508</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>189</v>
@@ -4366,9 +4423,12 @@
         <v>115</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P29" s="9"/>
+      <c r="Q29" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="T29" s="9"/>
       <c r="U29" s="9" t="n">
         <v>1</v>
@@ -4389,7 +4449,7 @@
         <v>114</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
@@ -4410,10 +4470,10 @@
         <v>1024</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D30" s="9" t="n">
         <v>250</v>
@@ -4426,7 +4486,7 @@
         <v>319126</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>189</v>
@@ -4438,9 +4498,12 @@
         <v>115</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P30" s="9"/>
+      <c r="Q30" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="T30" s="9"/>
       <c r="U30" s="9" t="n">
         <v>1</v>
@@ -4461,7 +4524,7 @@
         <v>114</v>
       </c>
       <c r="AA30" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
@@ -4482,10 +4545,10 @@
         <v>1025</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D31" s="9" t="n">
         <v>400</v>
@@ -4506,16 +4569,19 @@
         <v>79</v>
       </c>
       <c r="J31" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="L31" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="L31" s="9" t="s">
+      <c r="P31" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="P31" s="9" t="s">
-        <v>281</v>
+      <c r="Q31" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T31" s="9" t="n">
         <v>151576</v>
@@ -4527,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="X31" s="9" t="s">
         <v>130</v>
@@ -4539,7 +4605,7 @@
         <v>149</v>
       </c>
       <c r="AA31" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AB31" s="9" t="n">
         <v>281788</v>
@@ -4564,10 +4630,10 @@
         <v>1026</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D32" s="9" t="n">
         <v>210</v>
@@ -4588,16 +4654,19 @@
         <v>79</v>
       </c>
       <c r="J32" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="L32" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="L32" s="9" t="s">
+      <c r="P32" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="P32" s="9" t="s">
-        <v>287</v>
+      <c r="Q32" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T32" s="9" t="n">
         <v>168944</v>
@@ -4609,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X32" s="9" t="s">
         <v>172</v>
@@ -4618,10 +4687,10 @@
         <v>86</v>
       </c>
       <c r="Z32" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AA32" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AB32" s="9" t="n">
         <v>285400</v>
@@ -4646,10 +4715,10 @@
         <v>1027</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D33" s="9" t="n">
         <v>500</v>
@@ -4670,16 +4739,19 @@
         <v>79</v>
       </c>
       <c r="J33" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="L33" s="9" t="s">
+      <c r="P33" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="P33" s="9" t="s">
-        <v>292</v>
+      <c r="Q33" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T33" s="9" t="n">
         <v>99608</v>
@@ -4691,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X33" s="9" t="s">
         <v>172</v>
@@ -4703,7 +4775,7 @@
         <v>149</v>
       </c>
       <c r="AA33" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB33" s="9" t="n">
         <v>281710</v>
@@ -4728,10 +4800,10 @@
         <v>1028</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>270</v>
@@ -4752,16 +4824,19 @@
         <v>79</v>
       </c>
       <c r="J34" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="L34" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="K34" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="L34" s="9" t="s">
+      <c r="P34" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>298</v>
+      <c r="Q34" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T34" s="1" t="n">
         <v>288335</v>
@@ -4773,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="W34" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="X34" s="9" t="s">
         <v>299</v>
-      </c>
-      <c r="X34" s="9" t="s">
-        <v>300</v>
       </c>
       <c r="Y34" s="9" t="s">
         <v>86</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AA34" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AB34" s="1" t="n">
         <v>299561</v>
@@ -4808,10 +4883,10 @@
         <v>1029</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>550</v>
@@ -4832,16 +4907,19 @@
         <v>79</v>
       </c>
       <c r="J35" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="L35" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="K35" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="L35" s="9" t="s">
+      <c r="P35" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>305</v>
+      <c r="Q35" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="T35" s="1" t="n">
         <v>130642</v>
@@ -4865,7 +4943,7 @@
         <v>149</v>
       </c>
       <c r="AA35" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB35" s="1" t="n">
         <v>285356</v>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="311">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1361,6 +1361,21 @@
   </si>
   <si>
     <t xml:space="preserve">350|450|600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水龙男6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300|400|520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A012FACE4430191FBD317598F7684D86|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F5DBBEBC4F82864C959DB8AFDD5CF39F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600|900|1300</t>
   </si>
 </sst>
 </file>
@@ -1830,12 +1845,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BG35"/>
+  <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="O4" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="topRight" activeCell="R36" activeCellId="0" sqref="R36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="Y22" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topRight" activeCell="AG44" activeCellId="0" sqref="AG44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4961,6 +4976,89 @@
         <v>90</v>
       </c>
     </row>
+    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>130042</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="T36" s="1" t="n">
+        <v>254276</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="X36" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y36" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z36" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA36" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB36" s="1" t="n">
+        <v>20301</v>
+      </c>
+      <c r="AC36" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD36" s="1" t="n">
+        <v>285705</v>
+      </c>
+      <c r="AE36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF36" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="324">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">hitEffect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackEffectDelay</t>
   </si>
   <si>
     <t xml:space="preserve">attackTime</t>
@@ -210,11 +207,6 @@
   </si>
   <si>
     <t xml:space="preserve">受击特效的缩放</t>
-  </si>
-  <si>
-    <t xml:space="preserve">特效延迟
-播放时间
-单位秒</t>
   </si>
   <si>
     <t xml:space="preserve">攻击间隔</t>
@@ -1007,6 +999,9 @@
     <t xml:space="preserve">D4B7264E42074A814EA43BA7906BBEE7</t>
   </si>
   <si>
+    <t xml:space="preserve">2000|500</t>
+  </si>
+  <si>
     <t xml:space="preserve">4|4|4</t>
   </si>
   <si>
@@ -1014,6 +1009,9 @@
   </si>
   <si>
     <t xml:space="preserve">280|320|370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20275|281753</t>
   </si>
   <si>
     <t xml:space="preserve">光龙男2</t>
@@ -1363,6 +1361,9 @@
     <t xml:space="preserve">350|450|600</t>
   </si>
   <si>
+    <t xml:space="preserve">285517|281753</t>
+  </si>
+  <si>
     <t xml:space="preserve">水龙男6</t>
   </si>
   <si>
@@ -1375,7 +1376,43 @@
     <t xml:space="preserve">F5DBBEBC4F82864C959DB8AFDD5CF39F</t>
   </si>
   <si>
+    <t xml:space="preserve">1500|500</t>
+  </si>
+  <si>
     <t xml:space="preserve">600|900|1300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">285705|285819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火龙娘1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180|280|450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">983140204DD194704B0D219D8596E5E1|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7069F2404586016EEC5B889FE759BDD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5|1.4|1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130|210|330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火龙娘2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80|120|220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">041C24AB42F1534E083C448211B4655B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BED1185C4360D4F0220DDC94B0A0A813</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1510,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1484,6 +1521,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -1541,7 +1584,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1622,35 +1665,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1658,7 +1681,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1715,7 +1770,7 @@
       <rgbColor rgb="FFF8CBAD"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1845,12 +1900,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BG36"/>
+  <dimension ref="A1:BF38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="Y22" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="topRight" activeCell="AG44" activeCellId="0" sqref="AG44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C13" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topRight" activeCell="S36" activeCellId="0" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1867,34 +1922,35 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="21.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="20" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="23" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="30" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="27.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="117.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="46.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="96.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="36.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="64.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="36.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="22.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="2" width="27.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="2" width="31.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="23.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="51" min="50" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="56" min="53" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="15.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="31.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="16.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="18.75"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1031" min="61" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="22" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="29" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="27.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="117.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="46.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="96.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="36.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="64.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="36.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="27.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="2" width="31.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="23.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="49" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="55" min="52" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="31.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="18.75"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1030" min="60" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="10.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1941,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>1</v>
@@ -1953,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>1</v>
@@ -1962,13 +2018,13 @@
         <v>4</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>5</v>
@@ -1977,29 +2033,27 @@
         <v>5</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
@@ -2008,8 +2062,8 @@
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
       <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="3"/>
       <c r="AS1" s="3"/>
       <c r="AT1" s="3"/>
       <c r="AU1" s="3"/>
@@ -2024,7 +2078,6 @@
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -2126,9 +2179,7 @@
       <c r="AG2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
@@ -2137,8 +2188,8 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
       <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
       <c r="AU2" s="3"/>
@@ -2153,111 +2204,108 @@
       <c r="BD2" s="3"/>
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Z3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AD3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AG3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
@@ -2266,8 +2314,8 @@
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
       <c r="AU3" s="3"/>
@@ -2282,11 +2330,10 @@
       <c r="BD3" s="3"/>
       <c r="BE3" s="3"/>
       <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2294,10 +2341,10 @@
         <v>1001</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>300</v>
@@ -2306,28 +2353,28 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>291768</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="P5" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="Q5" s="1" t="n">
         <v>16</v>
@@ -2338,58 +2385,55 @@
       <c r="U5" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V5" s="1" t="n">
-        <v>0.2</v>
+      <c r="V5" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="W5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="n">
+        <v>281795</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AC5" s="1" t="n">
+        <v>81687</v>
+      </c>
+      <c r="AD5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AB5" s="1" t="n">
-        <v>281795</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD5" s="1" t="n">
-        <v>81687</v>
-      </c>
-      <c r="AE5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG5" s="10" t="n">
+      <c r="AF5" s="10" t="n">
         <v>4007</v>
       </c>
-      <c r="AH5" s="10"/>
-      <c r="AR5" s="11"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="11"/>
-      <c r="AW5" s="8"/>
-      <c r="AZ5" s="8"/>
+      <c r="AG5" s="10"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="11"/>
+      <c r="AV5" s="8"/>
+      <c r="AY5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>1002</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>360</v>
@@ -2398,28 +2442,28 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G6" s="12" t="n">
         <v>291769</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="P6" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="Q6" s="1" t="n">
         <v>16</v>
@@ -2430,53 +2474,50 @@
       <c r="U6" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V6" s="1" t="n">
-        <v>0.2</v>
+      <c r="V6" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="W6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="n">
+        <v>281710</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB6" s="1" t="n">
-        <v>281710</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD6" s="1" t="n">
+      <c r="AC6" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AE6" s="9" t="n">
+      <c r="AD6" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AF6" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AR6" s="11"/>
-      <c r="AT6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AS6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>1003</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>540</v>
@@ -2491,22 +2532,22 @@
         <v>291776</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="Q7" s="1" t="n">
         <v>16</v>
@@ -2517,56 +2558,53 @@
       <c r="U7" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V7" s="1" t="n">
-        <v>0</v>
+      <c r="V7" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="W7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="n">
+        <v>281710</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AA7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB7" s="1" t="n">
-        <v>281710</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD7" s="1" t="n">
+      <c r="AC7" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AE7" s="9" t="n">
+      <c r="AD7" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF7" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="8"/>
-      <c r="AT7" s="11"/>
-      <c r="AW7" s="8"/>
-      <c r="AZ7" s="8"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="11"/>
+      <c r="AV7" s="8"/>
+      <c r="AY7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>1004</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>750</v>
@@ -2575,28 +2613,28 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>291770</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="P8" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="Q8" s="1" t="n">
         <v>16</v>
@@ -2607,53 +2645,50 @@
       <c r="U8" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V8" s="1" t="n">
-        <v>0</v>
+      <c r="V8" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="W8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="n">
+        <v>20227</v>
+      </c>
+      <c r="AB8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB8" s="1" t="n">
-        <v>20227</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD8" s="1" t="n">
+      <c r="AC8" s="1" t="n">
         <v>20279</v>
       </c>
-      <c r="AE8" s="9" t="n">
+      <c r="AD8" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF8" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AR8" s="11"/>
-      <c r="AT8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AS8" s="11"/>
     </row>
     <row r="9" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>1005</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>1125</v>
@@ -2662,31 +2697,31 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>291772</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="1" t="n">
         <v>16</v>
@@ -2699,51 +2734,48 @@
       <c r="U9" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V9" s="1" t="n">
-        <v>0</v>
+      <c r="V9" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="W9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="n">
+        <v>20273</v>
+      </c>
+      <c r="AB9" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AA9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB9" s="1" t="n">
-        <v>20273</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD9" s="1" t="n">
+      <c r="AC9" s="1" t="n">
         <v>288430</v>
       </c>
-      <c r="AE9" s="9" t="n">
+      <c r="AD9" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF9" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
     </row>
     <row r="10" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>1006</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>720</v>
@@ -2752,31 +2784,31 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>291775</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="1" t="n">
         <v>16</v>
@@ -2789,51 +2821,48 @@
       <c r="U10" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V10" s="1" t="n">
-        <v>0</v>
+      <c r="V10" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB10" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="AA10" s="1" t="n">
         <v>281710</v>
       </c>
-      <c r="AC10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD10" s="1" t="n">
+      <c r="AB10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC10" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AE10" s="9" t="n">
+      <c r="AD10" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="AF10" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
     </row>
     <row r="11" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>1007</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>900</v>
@@ -2842,31 +2871,31 @@
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>291779</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="1" t="n">
         <v>16</v>
@@ -2879,39 +2908,36 @@
       <c r="U11" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V11" s="1" t="n">
-        <v>0</v>
+      <c r="V11" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="X11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB11" s="1" t="n">
+      <c r="AA11" s="1" t="n">
         <v>35385</v>
       </c>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1" t="n">
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1" t="n">
         <v>84862</v>
       </c>
-      <c r="AE11" s="9" t="n">
+      <c r="AD11" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF11" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10" t="n">
+      <c r="AE11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10" t="n">
         <v>200</v>
       </c>
     </row>
@@ -2920,10 +2946,10 @@
         <v>1008</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>1800</v>
@@ -2932,31 +2958,31 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>291773</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q12" s="1" t="n">
         <v>16</v>
@@ -2969,37 +2995,34 @@
       <c r="U12" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V12" s="1" t="n">
-        <v>0</v>
+      <c r="V12" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="W12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB12" s="1" t="n">
+      <c r="AA12" s="1" t="n">
         <v>180888</v>
       </c>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1" t="n">
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1" t="n">
         <v>86462</v>
       </c>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10" t="n">
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,10 +3031,10 @@
         <v>1009</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>675</v>
@@ -3026,25 +3049,25 @@
         <v>291780</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="1" t="n">
         <v>16</v>
@@ -3057,51 +3080,48 @@
       <c r="U13" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V13" s="1" t="n">
-        <v>0</v>
+      <c r="V13" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA13" s="1" t="n">
+        <v>281710</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>80483</v>
+      </c>
+      <c r="AD13" s="9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE13" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AB13" s="1" t="n">
-        <v>281710</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD13" s="1" t="n">
-        <v>80483</v>
-      </c>
-      <c r="AE13" s="9" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF13" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AF13" s="10"/>
       <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
     </row>
     <row r="14" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>1010</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>2100</v>
@@ -3110,31 +3130,31 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G14" s="12" t="n">
         <v>291778</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="1" t="n">
         <v>16</v>
@@ -3147,51 +3167,48 @@
       <c r="U14" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V14" s="1" t="n">
-        <v>0</v>
+      <c r="V14" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="X14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z14" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Y14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z14" s="1" t="s">
+      <c r="AA14" s="1" t="n">
+        <v>281710</v>
+      </c>
+      <c r="AB14" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AA14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB14" s="1" t="n">
-        <v>281710</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD14" s="1" t="n">
+      <c r="AC14" s="1" t="n">
         <v>281780</v>
       </c>
-      <c r="AE14" s="9" t="n">
+      <c r="AD14" s="9" t="n">
         <v>0.25</v>
       </c>
-      <c r="AF14" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF14" s="10"/>
       <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>2001</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>100</v>
@@ -3203,22 +3220,22 @@
         <v>291777</v>
       </c>
       <c r="H15" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="L15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="P15" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="1" t="n">
         <v>16</v>
@@ -3229,48 +3246,45 @@
       <c r="U15" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V15" s="1" t="n">
-        <v>0</v>
+      <c r="V15" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="W15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z15" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB15" s="1" t="n">
+      <c r="AA15" s="1" t="n">
         <v>180888</v>
       </c>
-      <c r="AD15" s="1" t="n">
+      <c r="AC15" s="1" t="n">
         <v>97181</v>
       </c>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="10"/>
-      <c r="AR15" s="11"/>
-      <c r="AT15" s="11"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="10"/>
+      <c r="AQ15" s="11"/>
+      <c r="AS15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>3001</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>500</v>
@@ -3282,19 +3296,19 @@
         <v>291764</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="Q16" s="1" t="n">
         <v>16</v>
@@ -3303,47 +3317,44 @@
       <c r="U16" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V16" s="1" t="n">
-        <v>0</v>
+      <c r="V16" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="W16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC16" s="1" t="n">
+        <v>97181</v>
+      </c>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF16" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD16" s="1" t="n">
-        <v>97181</v>
-      </c>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG16" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH16" s="10"/>
-      <c r="AR16" s="11"/>
-      <c r="AT16" s="11"/>
+      <c r="AG16" s="10"/>
+      <c r="AQ16" s="11"/>
+      <c r="AS16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>1011</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D17" s="14" t="n">
         <v>100</v>
@@ -3352,94 +3363,88 @@
         <v>1</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G17" s="14" t="n">
         <v>326244</v>
       </c>
       <c r="H17" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="O17" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="S17" s="1" t="n">
-        <v>0.5</v>
-      </c>
       <c r="T17" s="10" t="n">
         <v>168944</v>
       </c>
       <c r="U17" s="10" t="n">
         <v>0.3</v>
       </c>
-      <c r="V17" s="9" t="n">
-        <v>0</v>
+      <c r="V17" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Z17" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA17" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB17" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AC17" s="9" t="s">
-        <v>175</v>
+      <c r="AB17" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC17" s="9" t="n">
+        <v>85959</v>
       </c>
       <c r="AD17" s="9" t="n">
-        <v>85959</v>
-      </c>
-      <c r="AE17" s="9" t="n">
         <v>0.3</v>
       </c>
-      <c r="AF17" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="8"/>
-      <c r="AT17" s="11"/>
-      <c r="AW17" s="8"/>
-      <c r="AZ17" s="8"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="11"/>
+      <c r="AV17" s="8"/>
+      <c r="AY17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>1012</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D18" s="9" t="n">
         <v>600</v>
@@ -3448,28 +3453,28 @@
         <v>1</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="17" t="n">
         <v>326244</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="P18" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="Q18" s="1" t="n">
         <v>16</v>
@@ -3480,53 +3485,50 @@
       <c r="U18" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="V18" s="9" t="n">
-        <v>0</v>
+      <c r="V18" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="Z18" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA18" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB18" s="9" t="n">
+        <v>206</v>
+      </c>
+      <c r="AA18" s="9" t="n">
         <v>284848</v>
       </c>
-      <c r="AC18" s="9" t="s">
-        <v>175</v>
+      <c r="AB18" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC18" s="9" t="n">
+        <v>121794</v>
       </c>
       <c r="AD18" s="9" t="n">
-        <v>121794</v>
-      </c>
-      <c r="AE18" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AF18" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AR18" s="11"/>
-      <c r="AT18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AS18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="20" t="n">
         <v>1013</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>209</v>
+      <c r="B19" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D19" s="14" t="n">
         <v>550</v>
@@ -3535,80 +3537,83 @@
         <v>1</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G19" s="13" t="n">
         <v>326267</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>212</v>
       </c>
       <c r="Q19" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="S19" s="22" t="s">
+        <v>211</v>
+      </c>
       <c r="T19" s="9" t="n">
         <v>151551</v>
       </c>
       <c r="U19" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V19" s="9" t="n">
-        <v>0</v>
+      <c r="V19" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="X19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y19" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="Y19" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="Z19" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="AA19" s="9" t="s">
+      <c r="AA19" s="9" t="n">
+        <v>144183</v>
+      </c>
+      <c r="AB19" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC19" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="AB19" s="9" t="n">
-        <v>144183</v>
-      </c>
-      <c r="AC19" s="9" t="s">
-        <v>175</v>
-      </c>
       <c r="AD19" s="9" t="n">
-        <v>20275</v>
-      </c>
-      <c r="AE19" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AF19" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9" t="n">
+      <c r="AE19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="8"/>
-      <c r="AT19" s="11"/>
-      <c r="AW19" s="8"/>
-      <c r="AZ19" s="8"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="11"/>
+      <c r="AV19" s="8"/>
+      <c r="AY19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -3627,18 +3632,18 @@
         <v>1</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G20" s="13" t="n">
         <v>150576</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>218</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -3659,49 +3664,46 @@
       <c r="U20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V20" s="9" t="n">
-        <v>0</v>
+      <c r="V20" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>221</v>
+        <v>83</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y20" s="9" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA20" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AB20" s="9" t="n">
+      <c r="AA20" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AC20" s="9" t="s">
-        <v>175</v>
+      <c r="AB20" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC20" s="9" t="n">
+        <v>20270</v>
       </c>
       <c r="AD20" s="9" t="n">
-        <v>20270</v>
-      </c>
-      <c r="AE20" s="9" t="n">
         <v>1.8</v>
       </c>
-      <c r="AF20" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AR20" s="11"/>
-      <c r="AT20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AS20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="n">
+      <c r="A21" s="24" t="n">
         <v>1015</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="24" t="s">
         <v>224</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3721,13 +3723,13 @@
         <v>226</v>
       </c>
       <c r="I21" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>181</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>227</v>
@@ -3744,52 +3746,49 @@
       <c r="U21" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V21" s="9" t="n">
-        <v>0</v>
+      <c r="V21" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="W21" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z21" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="X21" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y21" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z21" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA21" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB21" s="9" t="n">
+      <c r="AA21" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AC21" s="9" t="s">
-        <v>175</v>
+      <c r="AB21" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC21" s="9" t="n">
+        <v>20270</v>
       </c>
       <c r="AD21" s="9" t="n">
-        <v>20270</v>
-      </c>
-      <c r="AE21" s="9" t="n">
         <v>1.8</v>
       </c>
-      <c r="AF21" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AR21" s="11"/>
-      <c r="AS21" s="8"/>
-      <c r="AT21" s="11"/>
-      <c r="AW21" s="8"/>
-      <c r="AZ21" s="8"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="11"/>
+      <c r="AV21" s="8"/>
+      <c r="AY21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="n">
+      <c r="A22" s="24" t="n">
         <v>1016</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="25" t="s">
         <v>228</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3802,16 +3801,16 @@
         <v>1</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G22" s="13" t="n">
         <v>326241</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>230</v>
@@ -3834,82 +3833,79 @@
       <c r="U22" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V22" s="9" t="n">
-        <v>0</v>
+      <c r="V22" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c r="X22" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y22" s="9" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA22" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="AB22" s="9" t="n">
+      <c r="AA22" s="9" t="n">
         <v>122546</v>
       </c>
-      <c r="AC22" s="9" t="s">
-        <v>175</v>
+      <c r="AB22" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC22" s="9" t="n">
+        <v>135369</v>
       </c>
       <c r="AD22" s="9" t="n">
-        <v>135369</v>
-      </c>
-      <c r="AE22" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AF22" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AR22" s="11"/>
-      <c r="AT22" s="11"/>
+      <c r="AQ22" s="11"/>
+      <c r="AS22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="n">
+      <c r="A23" s="25" t="n">
         <v>1017</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="D23" s="23" t="n">
+      <c r="D23" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="E23" s="23" t="n">
+      <c r="E23" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24" t="n">
+      <c r="F23" s="26"/>
+      <c r="G23" s="27" t="n">
         <v>326271</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="I23" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="L23" s="28" t="s">
+      <c r="I23" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="1" t="n">
         <v>16</v>
@@ -3918,42 +3914,39 @@
       <c r="U23" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V23" s="9" t="n">
-        <v>0</v>
+      <c r="V23" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="W23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z23" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9" t="n">
+        <v>20270</v>
+      </c>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF23" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="X23" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y23" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z23" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA23" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9" t="n">
-        <v>20270</v>
-      </c>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG23" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH23" s="9"/>
-      <c r="AR23" s="11"/>
-      <c r="AS23" s="8"/>
-      <c r="AT23" s="11"/>
-      <c r="AW23" s="8"/>
-      <c r="AZ23" s="8"/>
+      <c r="AG23" s="9"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="11"/>
+      <c r="AV23" s="8"/>
+      <c r="AY23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
@@ -3972,16 +3965,16 @@
         <v>1</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>143689</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>239</v>
@@ -4004,46 +3997,43 @@
       <c r="U24" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V24" s="9" t="n">
-        <v>0</v>
+      <c r="V24" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="W24" s="9" t="s">
-        <v>242</v>
+        <v>83</v>
       </c>
       <c r="X24" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y24" s="9" t="s">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c r="Z24" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA24" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="AB24" s="14" t="n">
+      <c r="AA24" s="14" t="n">
         <v>285370</v>
       </c>
-      <c r="AC24" s="9" t="s">
-        <v>175</v>
+      <c r="AB24" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC24" s="9" t="n">
+        <v>279685</v>
       </c>
       <c r="AD24" s="9" t="n">
-        <v>279685</v>
-      </c>
-      <c r="AE24" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF24" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AR24" s="11"/>
-      <c r="AS24" s="8"/>
-      <c r="AT24" s="11"/>
-      <c r="AW24" s="8"/>
-      <c r="AZ24" s="8"/>
+      <c r="AQ24" s="11"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="11"/>
+      <c r="AV24" s="8"/>
+      <c r="AY24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
@@ -4062,16 +4052,16 @@
         <v>1</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G25" s="14" t="n">
         <v>326237</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>246</v>
@@ -4094,46 +4084,43 @@
       <c r="U25" s="9" t="n">
         <v>1.3</v>
       </c>
-      <c r="V25" s="9" t="n">
-        <v>0</v>
+      <c r="V25" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="W25" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="X25" s="9" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="Y25" s="9" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="Z25" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA25" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="AB25" s="9" t="n">
+      <c r="AA25" s="9" t="n">
         <v>146119</v>
       </c>
-      <c r="AC25" s="9" t="s">
-        <v>175</v>
+      <c r="AB25" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC25" s="9" t="n">
+        <v>279672</v>
       </c>
       <c r="AD25" s="9" t="n">
-        <v>279672</v>
-      </c>
-      <c r="AE25" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AF25" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AR25" s="11"/>
-      <c r="AS25" s="8"/>
-      <c r="AT25" s="11"/>
-      <c r="AW25" s="8"/>
-      <c r="AZ25" s="8"/>
+      <c r="AQ25" s="11"/>
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="11"/>
+      <c r="AV25" s="8"/>
+      <c r="AY25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
@@ -4152,16 +4139,16 @@
         <v>1</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G26" s="9" t="n">
         <v>326236</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>254</v>
@@ -4184,46 +4171,43 @@
       <c r="U26" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V26" s="9" t="n">
-        <v>0</v>
+      <c r="V26" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="W26" s="9" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y26" s="9" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="Z26" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA26" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="AB26" s="14" t="n">
+      <c r="AA26" s="14" t="n">
         <v>144198</v>
       </c>
-      <c r="AC26" s="9" t="s">
-        <v>175</v>
+      <c r="AB26" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC26" s="9" t="n">
+        <v>285283</v>
       </c>
       <c r="AD26" s="9" t="n">
-        <v>285283</v>
-      </c>
-      <c r="AE26" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AF26" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF26" s="9"/>
       <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AR26" s="11"/>
-      <c r="AS26" s="8"/>
-      <c r="AT26" s="11"/>
-      <c r="AW26" s="8"/>
-      <c r="AZ26" s="8"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="8"/>
+      <c r="AS26" s="11"/>
+      <c r="AV26" s="8"/>
+      <c r="AY26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
@@ -4242,16 +4226,16 @@
         <v>1</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G27" s="14" t="n">
         <v>326245</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>218</v>
@@ -4274,43 +4258,40 @@
       <c r="U27" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="V27" s="9" t="n">
-        <v>0</v>
+      <c r="V27" s="9" t="s">
+        <v>263</v>
       </c>
       <c r="W27" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y27" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="Y27" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="Z27" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA27" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="AB27" s="9" t="n">
+      <c r="AA27" s="9" t="n">
         <v>281886</v>
       </c>
-      <c r="AC27" s="9" t="s">
-        <v>175</v>
+      <c r="AB27" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC27" s="9" t="n">
+        <v>281763</v>
       </c>
       <c r="AD27" s="9" t="n">
-        <v>281763</v>
-      </c>
-      <c r="AE27" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF27" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AR27" s="11"/>
-      <c r="AT27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AS27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
@@ -4329,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G28" s="10" t="n">
         <v>130536</v>
@@ -4338,7 +4319,7 @@
         <v>226</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J28" s="10" t="s">
         <v>267</v>
@@ -4364,46 +4345,43 @@
       <c r="U28" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V28" s="9" t="n">
-        <v>0</v>
+      <c r="V28" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="W28" s="9" t="s">
-        <v>269</v>
+        <v>182</v>
       </c>
       <c r="X28" s="9" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="Y28" s="9" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="Z28" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA28" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="AB28" s="9" t="n">
+      <c r="AA28" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AC28" s="9" t="s">
-        <v>175</v>
+      <c r="AB28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC28" s="9" t="n">
+        <v>20270</v>
       </c>
       <c r="AD28" s="9" t="n">
-        <v>20270</v>
-      </c>
-      <c r="AE28" s="9" t="n">
         <v>1.8</v>
       </c>
-      <c r="AF28" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF28" s="9"/>
       <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AR28" s="11"/>
-      <c r="AS28" s="8"/>
-      <c r="AT28" s="11"/>
-      <c r="AW28" s="8"/>
-      <c r="AZ28" s="8"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="8"/>
+      <c r="AS28" s="11"/>
+      <c r="AV28" s="8"/>
+      <c r="AY28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
@@ -4429,13 +4407,13 @@
         <v>236</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L29" s="9" t="s">
         <v>272</v>
@@ -4448,37 +4426,34 @@
       <c r="U29" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V29" s="9" t="n">
-        <v>0</v>
+      <c r="V29" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="W29" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z29" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9" t="n">
+        <v>20270</v>
+      </c>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF29" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="X29" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y29" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z29" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA29" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9" t="n">
-        <v>20270</v>
-      </c>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG29" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH29" s="9"/>
+      <c r="AG29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
@@ -4504,13 +4479,13 @@
         <v>236</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>275</v>
@@ -4523,37 +4498,34 @@
       <c r="U30" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V30" s="9" t="n">
-        <v>0</v>
+      <c r="V30" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="W30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X30" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y30" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z30" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9" t="n">
+        <v>20270</v>
+      </c>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF30" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="X30" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y30" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z30" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA30" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9" t="n">
-        <v>20270</v>
-      </c>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG30" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH30" s="9"/>
+      <c r="AG30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
@@ -4572,16 +4544,16 @@
         <v>1</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G31" s="9" t="n">
         <v>326261</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>278</v>
@@ -4604,41 +4576,38 @@
       <c r="U31" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="V31" s="9" t="n">
-        <v>0</v>
+      <c r="V31" s="9" t="s">
+        <v>281</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>281</v>
+        <v>128</v>
       </c>
       <c r="X31" s="9" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="Y31" s="9" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="Z31" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA31" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="AB31" s="9" t="n">
+      <c r="AA31" s="9" t="n">
         <v>281788</v>
       </c>
-      <c r="AC31" s="9" t="s">
-        <v>175</v>
+      <c r="AB31" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC31" s="9" t="n">
+        <v>268572</v>
       </c>
       <c r="AD31" s="9" t="n">
-        <v>268572</v>
-      </c>
-      <c r="AE31" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AF31" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE31" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
@@ -4657,16 +4626,16 @@
         <v>1</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G32" s="9" t="n">
         <v>326270</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>284</v>
@@ -4689,41 +4658,38 @@
       <c r="U32" s="9" t="n">
         <v>0.3</v>
       </c>
-      <c r="V32" s="9" t="n">
-        <v>0</v>
+      <c r="V32" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="X32" s="9" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="Y32" s="9" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="Z32" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA32" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="AB32" s="9" t="n">
+      <c r="AA32" s="9" t="n">
         <v>285400</v>
       </c>
-      <c r="AC32" s="9" t="s">
-        <v>175</v>
+      <c r="AB32" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC32" s="9" t="n">
+        <v>85955</v>
       </c>
       <c r="AD32" s="9" t="n">
-        <v>85955</v>
-      </c>
-      <c r="AE32" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AF32" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE32" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF32" s="9"/>
       <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
@@ -4742,16 +4708,16 @@
         <v>1</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G33" s="9" t="n">
         <v>142127</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>289</v>
@@ -4774,41 +4740,38 @@
       <c r="U33" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="V33" s="9" t="n">
-        <v>0</v>
+      <c r="V33" s="9" t="s">
+        <v>292</v>
       </c>
       <c r="W33" s="9" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="X33" s="9" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="Y33" s="9" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="Z33" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA33" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="AB33" s="9" t="n">
+      <c r="AA33" s="9" t="n">
         <v>281710</v>
       </c>
-      <c r="AC33" s="9" t="s">
-        <v>175</v>
+      <c r="AB33" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC33" s="9" t="n">
+        <v>80483</v>
       </c>
       <c r="AD33" s="9" t="n">
-        <v>80483</v>
-      </c>
-      <c r="AE33" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AF33" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE33" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -4827,16 +4790,16 @@
         <v>1</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G34" s="9" t="n">
         <v>326264</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>295</v>
@@ -4859,45 +4822,42 @@
       <c r="U34" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="V34" s="1" t="n">
-        <v>0</v>
+      <c r="V34" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="W34" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="X34" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y34" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y34" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AA34" s="9" t="s">
+      <c r="Z34" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="AB34" s="1" t="n">
+      <c r="AA34" s="1" t="n">
         <v>299561</v>
       </c>
-      <c r="AC34" s="9" t="s">
-        <v>175</v>
+      <c r="AB34" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC34" s="1" t="n">
+        <v>117367</v>
       </c>
       <c r="AD34" s="1" t="n">
-        <v>117367</v>
-      </c>
-      <c r="AE34" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="AF34" s="9" t="s">
-        <v>90</v>
+      <c r="AE34" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="22" t="n">
         <v>1029</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="22" t="s">
         <v>301</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -4910,16 +4870,16 @@
         <v>1</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>141968</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>302</v>
@@ -4936,55 +4896,55 @@
       <c r="Q35" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="S35" s="22" t="s">
+        <v>211</v>
+      </c>
       <c r="T35" s="1" t="n">
         <v>130642</v>
       </c>
       <c r="U35" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="V35" s="1" t="n">
-        <v>0</v>
+      <c r="V35" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="W35" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="X35" s="9" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="Y35" s="9" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="Z35" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA35" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="AB35" s="1" t="n">
+      <c r="AA35" s="1" t="n">
         <v>285356</v>
       </c>
-      <c r="AC35" s="9" t="s">
-        <v>175</v>
+      <c r="AB35" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC35" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="AD35" s="1" t="n">
-        <v>285517</v>
-      </c>
-      <c r="AE35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AF35" s="9" t="s">
-        <v>90</v>
+      <c r="AE35" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="22" t="n">
         <v>1030</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>306</v>
+      <c r="B36" s="22" t="s">
+        <v>307</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>300</v>
@@ -4993,70 +4953,200 @@
         <v>1</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>130042</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q36" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="S36" s="22" t="s">
+        <v>311</v>
+      </c>
       <c r="T36" s="1" t="n">
         <v>254276</v>
       </c>
       <c r="U36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V36" s="1" t="n">
-        <v>0</v>
+      <c r="V36" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="W36" s="9" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="X36" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y36" s="9" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="Z36" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA36" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="AB36" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="AA36" s="1" t="n">
         <v>20301</v>
       </c>
-      <c r="AC36" s="9" t="s">
-        <v>175</v>
+      <c r="AB36" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC36" s="22" t="s">
+        <v>313</v>
       </c>
       <c r="AD36" s="1" t="n">
-        <v>285705</v>
-      </c>
-      <c r="AE36" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AF36" s="9" t="s">
-        <v>90</v>
+      <c r="AE36" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>136878</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="T37" s="1" t="n">
+        <v>151562</v>
+      </c>
+      <c r="U37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="W37" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="X37" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y37" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z37" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA37" s="9" t="n">
+        <v>281710</v>
+      </c>
+      <c r="AB37" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC37" s="9" t="n">
+        <v>80483</v>
+      </c>
+      <c r="AD37" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AE37" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>62588</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="T38" s="1" t="n">
+        <v>271321</v>
+      </c>
+      <c r="U38" s="1" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="325">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -994,6 +994,9 @@
   </si>
   <si>
     <t xml:space="preserve">B06787054CADB7A7F6D7119045051E1E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000|500</t>
   </si>
   <si>
     <t xml:space="preserve">D4B7264E42074A814EA43BA7906BBEE7</t>
@@ -1597,6 +1600,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1635,10 +1642,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1902,10 +1905,10 @@
   </sheetPr>
   <dimension ref="A1:BF38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C13" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="topRight" activeCell="S36" activeCellId="0" sqref="S36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="O7" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topRight" activeCell="O20" activeCellId="0" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1950,386 +1953,386 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="16.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="18.75"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1030" min="60" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="10.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="3" width="10.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AF3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AG3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
@@ -2340,7 +2343,7 @@
       <c r="A5" s="2" t="n">
         <v>1001</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2358,7 +2361,7 @@
       <c r="G5" s="1" t="n">
         <v>291768</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -2379,10 +2382,10 @@
       <c r="Q5" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T5" s="8" t="n">
+      <c r="T5" s="9" t="n">
         <v>107535</v>
       </c>
-      <c r="U5" s="8" t="n">
+      <c r="U5" s="9" t="n">
         <v>0.8</v>
       </c>
       <c r="V5" s="1" t="s">
@@ -2409,27 +2412,27 @@
       <c r="AC5" s="1" t="n">
         <v>81687</v>
       </c>
-      <c r="AD5" s="9" t="n">
+      <c r="AD5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AE5" s="9" t="s">
+      <c r="AE5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF5" s="10" t="n">
+      <c r="AF5" s="11" t="n">
         <v>4007</v>
       </c>
-      <c r="AG5" s="10"/>
-      <c r="AQ5" s="11"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="11"/>
-      <c r="AV5" s="8"/>
-      <c r="AY5" s="8"/>
+      <c r="AG5" s="11"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="12"/>
+      <c r="AV5" s="9"/>
+      <c r="AY5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>1002</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2438,16 +2441,16 @@
       <c r="D6" s="2" t="n">
         <v>360</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="13" t="n">
         <v>291769</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -2468,10 +2471,10 @@
       <c r="Q6" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T6" s="8" t="n">
+      <c r="T6" s="9" t="n">
         <v>107535</v>
       </c>
-      <c r="U6" s="8" t="n">
+      <c r="U6" s="9" t="n">
         <v>0.8</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -2498,22 +2501,22 @@
       <c r="AC6" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AD6" s="9" t="n">
+      <c r="AD6" s="10" t="n">
         <v>0.1</v>
       </c>
-      <c r="AE6" s="9" t="s">
+      <c r="AE6" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AQ6" s="11"/>
-      <c r="AS6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AQ6" s="12"/>
+      <c r="AS6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>1003</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2531,7 +2534,7 @@
       <c r="G7" s="1" t="n">
         <v>291776</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -2552,10 +2555,10 @@
       <c r="Q7" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T7" s="8" t="n">
+      <c r="T7" s="9" t="n">
         <v>107535</v>
       </c>
-      <c r="U7" s="8" t="n">
+      <c r="U7" s="9" t="n">
         <v>0.8</v>
       </c>
       <c r="V7" s="1" t="s">
@@ -2582,25 +2585,25 @@
       <c r="AC7" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AD7" s="9" t="n">
+      <c r="AD7" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="AE7" s="9" t="s">
+      <c r="AE7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="8"/>
-      <c r="AS7" s="11"/>
-      <c r="AV7" s="8"/>
-      <c r="AY7" s="8"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="12"/>
+      <c r="AV7" s="9"/>
+      <c r="AY7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>1004</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2609,16 +2612,16 @@
       <c r="D8" s="2" t="n">
         <v>750</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="13" t="n">
         <v>291770</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -2639,10 +2642,10 @@
       <c r="Q8" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T8" s="8" t="n">
+      <c r="T8" s="9" t="n">
         <v>107535</v>
       </c>
-      <c r="U8" s="8" t="n">
+      <c r="U8" s="9" t="n">
         <v>0.8</v>
       </c>
       <c r="V8" s="1" t="s">
@@ -2669,22 +2672,22 @@
       <c r="AC8" s="1" t="n">
         <v>20279</v>
       </c>
-      <c r="AD8" s="9" t="n">
+      <c r="AD8" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="AE8" s="9" t="s">
+      <c r="AE8" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AQ8" s="11"/>
-      <c r="AS8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AQ8" s="12"/>
+      <c r="AS8" s="12"/>
     </row>
     <row r="9" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>1005</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2699,10 +2702,10 @@
       <c r="F9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G9" s="13" t="n">
         <v>291772</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -2728,10 +2731,10 @@
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="8" t="n">
+      <c r="T9" s="9" t="n">
         <v>107535</v>
       </c>
-      <c r="U9" s="8" t="n">
+      <c r="U9" s="9" t="n">
         <v>0.8</v>
       </c>
       <c r="V9" s="1" t="s">
@@ -2758,20 +2761,20 @@
       <c r="AC9" s="1" t="n">
         <v>288430</v>
       </c>
-      <c r="AD9" s="9" t="n">
+      <c r="AD9" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="AE9" s="9" t="s">
+      <c r="AE9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
     </row>
     <row r="10" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>1006</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2780,16 +2783,16 @@
       <c r="D10" s="2" t="n">
         <v>720</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G10" s="13" t="n">
         <v>291775</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -2815,10 +2818,10 @@
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="8" t="n">
+      <c r="T10" s="9" t="n">
         <v>107535</v>
       </c>
-      <c r="U10" s="8" t="n">
+      <c r="U10" s="9" t="n">
         <v>0.8</v>
       </c>
       <c r="V10" s="1" t="s">
@@ -2845,20 +2848,20 @@
       <c r="AC10" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AD10" s="9" t="n">
+      <c r="AD10" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="AE10" s="9" t="s">
+      <c r="AE10" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
     </row>
     <row r="11" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>1007</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2873,10 +2876,10 @@
       <c r="F11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="12" t="n">
+      <c r="G11" s="13" t="n">
         <v>291779</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>142</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -2902,10 +2905,10 @@
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="8" t="n">
+      <c r="T11" s="9" t="n">
         <v>107535</v>
       </c>
-      <c r="U11" s="8" t="n">
+      <c r="U11" s="9" t="n">
         <v>0.8</v>
       </c>
       <c r="V11" s="1" t="s">
@@ -2930,14 +2933,14 @@
       <c r="AC11" s="1" t="n">
         <v>84862</v>
       </c>
-      <c r="AD11" s="9" t="n">
+      <c r="AD11" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="AE11" s="9" t="s">
+      <c r="AE11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10" t="n">
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11" t="n">
         <v>200</v>
       </c>
     </row>
@@ -2945,7 +2948,7 @@
       <c r="A12" s="2" t="n">
         <v>1008</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2954,16 +2957,16 @@
       <c r="D12" s="2" t="n">
         <v>1800</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="E12" s="13" t="n">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="12" t="n">
+      <c r="G12" s="13" t="n">
         <v>291773</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>152</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -2989,10 +2992,10 @@
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="8" t="n">
+      <c r="T12" s="9" t="n">
         <v>107535</v>
       </c>
-      <c r="U12" s="8" t="n">
+      <c r="U12" s="9" t="n">
         <v>0.8</v>
       </c>
       <c r="V12" s="1" t="s">
@@ -3017,12 +3020,12 @@
       <c r="AC12" s="1" t="n">
         <v>86462</v>
       </c>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9" t="s">
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10" t="n">
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3030,7 +3033,7 @@
       <c r="A13" s="2" t="n">
         <v>1009</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3045,10 +3048,10 @@
       <c r="F13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="13" t="n">
         <v>291780</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -3074,10 +3077,10 @@
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="8" t="n">
+      <c r="T13" s="9" t="n">
         <v>107535</v>
       </c>
-      <c r="U13" s="8" t="n">
+      <c r="U13" s="9" t="n">
         <v>0.8</v>
       </c>
       <c r="V13" s="1" t="s">
@@ -3104,20 +3107,20 @@
       <c r="AC13" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AD13" s="9" t="n">
+      <c r="AD13" s="10" t="n">
         <v>0.3</v>
       </c>
-      <c r="AE13" s="9" t="s">
+      <c r="AE13" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
     </row>
     <row r="14" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>1010</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>164</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3126,16 +3129,16 @@
       <c r="D14" s="2" t="n">
         <v>2100</v>
       </c>
-      <c r="E14" s="12" t="n">
+      <c r="E14" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="12" t="n">
+      <c r="G14" s="13" t="n">
         <v>291778</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -3161,10 +3164,10 @@
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="8" t="n">
+      <c r="T14" s="9" t="n">
         <v>107535</v>
       </c>
-      <c r="U14" s="8" t="n">
+      <c r="U14" s="9" t="n">
         <v>0.8</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -3191,20 +3194,20 @@
       <c r="AC14" s="1" t="n">
         <v>281780</v>
       </c>
-      <c r="AD14" s="9" t="n">
+      <c r="AD14" s="10" t="n">
         <v>0.25</v>
       </c>
-      <c r="AE14" s="9" t="s">
+      <c r="AE14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>174</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3213,13 +3216,13 @@
       <c r="D15" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E15" s="12" t="n">
+      <c r="E15" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="12" t="n">
+      <c r="G15" s="13" t="n">
         <v>291777</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>176</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -3240,10 +3243,10 @@
       <c r="Q15" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T15" s="8" t="n">
+      <c r="T15" s="9" t="n">
         <v>107535</v>
       </c>
-      <c r="U15" s="8" t="n">
+      <c r="U15" s="9" t="n">
         <v>0.8</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -3267,20 +3270,20 @@
       <c r="AC15" s="1" t="n">
         <v>97181</v>
       </c>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9" t="s">
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="10"/>
-      <c r="AQ15" s="11"/>
-      <c r="AS15" s="11"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="11"/>
+      <c r="AQ15" s="12"/>
+      <c r="AS15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>3001</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3289,13 +3292,13 @@
       <c r="D16" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="12" t="n">
+      <c r="G16" s="13" t="n">
         <v>291764</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>186</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -3313,8 +3316,8 @@
       <c r="Q16" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8" t="n">
+      <c r="T16" s="9"/>
+      <c r="U16" s="9" t="n">
         <v>0.8</v>
       </c>
       <c r="V16" s="1" t="s">
@@ -3335,16 +3338,16 @@
       <c r="AC16" s="1" t="n">
         <v>97181</v>
       </c>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9" t="s">
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF16" s="10" t="s">
+      <c r="AF16" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AG16" s="10"/>
-      <c r="AQ16" s="11"/>
-      <c r="AS16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AQ16" s="12"/>
+      <c r="AS16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -3371,7 +3374,7 @@
       <c r="H17" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="10" t="s">
         <v>77</v>
       </c>
       <c r="J17" s="16" t="s">
@@ -3380,61 +3383,61 @@
       <c r="K17" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="10" t="s">
         <v>197</v>
       </c>
       <c r="O17" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="10" t="s">
         <v>198</v>
       </c>
       <c r="Q17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T17" s="10" t="n">
+      <c r="T17" s="11" t="n">
         <v>168944</v>
       </c>
-      <c r="U17" s="10" t="n">
+      <c r="U17" s="11" t="n">
         <v>0.3</v>
       </c>
-      <c r="V17" s="9" t="s">
+      <c r="V17" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="W17" s="9" t="s">
+      <c r="W17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X17" s="9" t="s">
+      <c r="X17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y17" s="9" t="s">
+      <c r="Y17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="Z17" s="9" t="s">
+      <c r="Z17" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AA17" s="9" t="n">
+      <c r="AA17" s="10" t="n">
         <v>144183</v>
       </c>
-      <c r="AB17" s="9" t="s">
+      <c r="AB17" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AC17" s="9" t="n">
+      <c r="AC17" s="10" t="n">
         <v>85959</v>
       </c>
-      <c r="AD17" s="9" t="n">
+      <c r="AD17" s="10" t="n">
         <v>0.3</v>
       </c>
-      <c r="AE17" s="9" t="s">
+      <c r="AE17" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="8"/>
-      <c r="AS17" s="11"/>
-      <c r="AV17" s="8"/>
-      <c r="AY17" s="8"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="12"/>
+      <c r="AV17" s="9"/>
+      <c r="AY17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
@@ -3446,13 +3449,13 @@
       <c r="C18" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="10" t="n">
         <v>600</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>75</v>
       </c>
       <c r="G18" s="17" t="n">
@@ -3467,58 +3470,58 @@
       <c r="J18" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="10" t="s">
         <v>204</v>
       </c>
       <c r="Q18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T18" s="9" t="n">
+      <c r="T18" s="10" t="n">
         <v>153046</v>
       </c>
-      <c r="U18" s="10" t="n">
+      <c r="U18" s="11" t="n">
         <v>1.5</v>
       </c>
-      <c r="V18" s="9" t="s">
+      <c r="V18" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="W18" s="9" t="s">
+      <c r="W18" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X18" s="9" t="s">
+      <c r="X18" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y18" s="9" t="s">
+      <c r="Y18" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="Z18" s="9" t="s">
+      <c r="Z18" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AA18" s="9" t="n">
+      <c r="AA18" s="10" t="n">
         <v>284848</v>
       </c>
-      <c r="AB18" s="9" t="s">
+      <c r="AB18" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AC18" s="9" t="n">
+      <c r="AC18" s="10" t="n">
         <v>121794</v>
       </c>
-      <c r="AD18" s="9" t="n">
+      <c r="AD18" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AE18" s="9" t="s">
+      <c r="AE18" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AQ18" s="11"/>
-      <c r="AS18" s="11"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AQ18" s="12"/>
+      <c r="AS18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="n">
@@ -3536,10 +3539,10 @@
       <c r="E19" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="13" t="n">
+      <c r="G19" s="3" t="n">
         <v>326267</v>
       </c>
       <c r="H19" s="18" t="s">
@@ -3551,90 +3554,90 @@
       <c r="J19" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="O19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" s="9" t="s">
+      <c r="O19" s="22" t="s">
         <v>210</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="Q19" s="1" t="n">
         <v>16</v>
       </c>
       <c r="S19" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="T19" s="9" t="n">
+        <v>212</v>
+      </c>
+      <c r="T19" s="10" t="n">
         <v>151551</v>
       </c>
-      <c r="U19" s="9" t="n">
+      <c r="U19" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="V19" s="9" t="s">
+      <c r="V19" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="W19" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="X19" s="9" t="s">
+      <c r="W19" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="X19" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z19" s="9" t="s">
+      <c r="Y19" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AA19" s="9" t="n">
+      <c r="Z19" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA19" s="10" t="n">
         <v>144183</v>
       </c>
-      <c r="AB19" s="9" t="s">
+      <c r="AB19" s="10" t="s">
         <v>173</v>
       </c>
       <c r="AC19" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD19" s="9" t="n">
+        <v>216</v>
+      </c>
+      <c r="AD19" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AE19" s="9" t="s">
+      <c r="AE19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9" t="n">
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="8"/>
-      <c r="AS19" s="11"/>
-      <c r="AV19" s="8"/>
-      <c r="AY19" s="8"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="12"/>
+      <c r="AV19" s="9"/>
+      <c r="AY19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>1014</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="9" t="n">
+        <v>218</v>
+      </c>
+      <c r="D20" s="10" t="n">
         <v>80</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="13" t="n">
+      <c r="G20" s="3" t="n">
         <v>150576</v>
       </c>
       <c r="H20" s="18" t="s">
@@ -3644,70 +3647,70 @@
         <v>77</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="K20" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>220</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="Q20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T20" s="9" t="n">
+      <c r="T20" s="10" t="n">
         <v>200133</v>
       </c>
-      <c r="U20" s="9" t="n">
+      <c r="U20" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="V20" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="W20" s="9" t="s">
+      <c r="V20" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="W20" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X20" s="9" t="s">
+      <c r="X20" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z20" s="9" t="s">
+      <c r="Y20" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="AA20" s="9" t="n">
+      <c r="Z20" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA20" s="10" t="n">
         <v>144183</v>
       </c>
-      <c r="AB20" s="9" t="s">
+      <c r="AB20" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AC20" s="9" t="n">
+      <c r="AC20" s="10" t="n">
         <v>20270</v>
       </c>
-      <c r="AD20" s="9" t="n">
+      <c r="AD20" s="10" t="n">
         <v>1.8</v>
       </c>
-      <c r="AE20" s="9" t="s">
+      <c r="AE20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AQ20" s="11"/>
-      <c r="AS20" s="11"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AQ20" s="12"/>
+      <c r="AS20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="n">
         <v>1015</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D21" s="14" t="n">
         <v>100</v>
@@ -3716,94 +3719,94 @@
         <v>3</v>
       </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="13" t="n">
+      <c r="G21" s="3" t="n">
         <v>130536</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="3" t="s">
         <v>178</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>220</v>
+      <c r="L21" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="Q21" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T21" s="9" t="n">
+      <c r="T21" s="10" t="n">
         <v>200133</v>
       </c>
-      <c r="U21" s="9" t="n">
+      <c r="U21" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="V21" s="9" t="s">
+      <c r="V21" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="W21" s="9" t="s">
+      <c r="W21" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="X21" s="9" t="s">
+      <c r="X21" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Y21" s="9" t="s">
+      <c r="Y21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Z21" s="9" t="s">
+      <c r="Z21" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="AA21" s="9" t="n">
+      <c r="AA21" s="10" t="n">
         <v>144183</v>
       </c>
-      <c r="AB21" s="9" t="s">
+      <c r="AB21" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AC21" s="9" t="n">
+      <c r="AC21" s="10" t="n">
         <v>20270</v>
       </c>
-      <c r="AD21" s="9" t="n">
+      <c r="AD21" s="10" t="n">
         <v>1.8</v>
       </c>
-      <c r="AE21" s="9" t="s">
+      <c r="AE21" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AQ21" s="11"/>
-      <c r="AR21" s="8"/>
-      <c r="AS21" s="11"/>
-      <c r="AV21" s="8"/>
-      <c r="AY21" s="8"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="12"/>
+      <c r="AV21" s="9"/>
+      <c r="AY21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="n">
         <v>1016</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D22" s="9" t="n">
+        <v>230</v>
+      </c>
+      <c r="D22" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="13" t="n">
+      <c r="G22" s="3" t="n">
         <v>326241</v>
       </c>
       <c r="H22" s="18" t="s">
@@ -3812,71 +3815,71 @@
       <c r="I22" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="K22" s="10" t="s">
+      <c r="J22" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="K22" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="L22" s="10" t="s">
         <v>233</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="Q22" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T22" s="9" t="n">
+      <c r="T22" s="10" t="n">
         <v>150929</v>
       </c>
-      <c r="U22" s="9" t="n">
+      <c r="U22" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="V22" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="W22" s="9" t="s">
+      <c r="V22" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="W22" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X22" s="9" t="s">
+      <c r="X22" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y22" s="9" t="s">
+      <c r="Y22" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="Z22" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA22" s="9" t="n">
+      <c r="Z22" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA22" s="10" t="n">
         <v>122546</v>
       </c>
-      <c r="AB22" s="9" t="s">
+      <c r="AB22" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AC22" s="9" t="n">
+      <c r="AC22" s="10" t="n">
         <v>135369</v>
       </c>
-      <c r="AD22" s="9" t="n">
+      <c r="AD22" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="AE22" s="9" t="s">
+      <c r="AE22" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AQ22" s="11"/>
-      <c r="AS22" s="11"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AQ22" s="12"/>
+      <c r="AS22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="n">
         <v>1017</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D23" s="26" t="n">
         <v>300</v>
@@ -3889,7 +3892,7 @@
         <v>326271</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I23" s="29" t="s">
         <v>187</v>
@@ -3901,73 +3904,73 @@
         <v>188</v>
       </c>
       <c r="L23" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
       <c r="O23" s="32"/>
-      <c r="P23" s="9"/>
+      <c r="P23" s="10"/>
       <c r="Q23" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9" t="n">
+      <c r="T23" s="10"/>
+      <c r="U23" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="V23" s="9" t="s">
+      <c r="V23" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="W23" s="9" t="s">
+      <c r="W23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X23" s="9" t="s">
+      <c r="X23" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Y23" s="9" t="s">
+      <c r="Y23" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z23" s="9" t="s">
+      <c r="Z23" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9" t="n">
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10" t="n">
         <v>20270</v>
       </c>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9" t="s">
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF23" s="10" t="s">
+      <c r="AF23" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AG23" s="9"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="8"/>
-      <c r="AS23" s="11"/>
-      <c r="AV23" s="8"/>
-      <c r="AY23" s="8"/>
+      <c r="AG23" s="10"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="12"/>
+      <c r="AV23" s="9"/>
+      <c r="AY23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>1018</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24" s="9" t="n">
+        <v>239</v>
+      </c>
+      <c r="D24" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="13" t="n">
+      <c r="G24" s="3" t="n">
         <v>143689</v>
       </c>
       <c r="H24" s="18" t="s">
@@ -3976,74 +3979,74 @@
       <c r="I24" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="J24" s="13" t="s">
-        <v>239</v>
+      <c r="J24" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="L24" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="P24" s="9" t="s">
+      <c r="L24" s="10" t="s">
         <v>241</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="Q24" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T24" s="9" t="n">
+      <c r="T24" s="10" t="n">
         <v>254300</v>
       </c>
-      <c r="U24" s="9" t="n">
+      <c r="U24" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="V24" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="W24" s="9" t="s">
+      <c r="V24" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="W24" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X24" s="9" t="s">
+      <c r="X24" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y24" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z24" s="9" t="s">
+      <c r="Y24" s="10" t="s">
         <v>244</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="AA24" s="14" t="n">
         <v>285370</v>
       </c>
-      <c r="AB24" s="9" t="s">
+      <c r="AB24" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AC24" s="9" t="n">
+      <c r="AC24" s="10" t="n">
         <v>279685</v>
       </c>
-      <c r="AD24" s="9" t="n">
+      <c r="AD24" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="AE24" s="9" t="s">
+      <c r="AE24" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AQ24" s="11"/>
-      <c r="AR24" s="8"/>
-      <c r="AS24" s="11"/>
-      <c r="AV24" s="8"/>
-      <c r="AY24" s="8"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="12"/>
+      <c r="AV24" s="9"/>
+      <c r="AY24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>1019</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D25" s="14" t="n">
         <v>160</v>
@@ -4051,7 +4054,7 @@
       <c r="E25" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>75</v>
       </c>
       <c r="G25" s="14" t="n">
@@ -4060,164 +4063,164 @@
       <c r="H25" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="10" t="s">
         <v>77</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="L25" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="K25" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="L25" s="10" t="s">
         <v>248</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="Q25" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T25" s="9" t="n">
+      <c r="T25" s="10" t="n">
         <v>150927</v>
       </c>
-      <c r="U25" s="9" t="n">
+      <c r="U25" s="10" t="n">
         <v>1.3</v>
       </c>
-      <c r="V25" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="W25" s="9" t="s">
+      <c r="V25" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="X25" s="9" t="s">
+      <c r="W25" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="X25" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y25" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z25" s="9" t="s">
+      <c r="Y25" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="AA25" s="9" t="n">
+      <c r="Z25" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA25" s="10" t="n">
         <v>146119</v>
       </c>
-      <c r="AB25" s="9" t="s">
+      <c r="AB25" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AC25" s="9" t="n">
+      <c r="AC25" s="10" t="n">
         <v>279672</v>
       </c>
-      <c r="AD25" s="9" t="n">
+      <c r="AD25" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AE25" s="9" t="s">
+      <c r="AE25" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AQ25" s="11"/>
-      <c r="AR25" s="8"/>
-      <c r="AS25" s="11"/>
-      <c r="AV25" s="8"/>
-      <c r="AY25" s="8"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="12"/>
+      <c r="AV25" s="9"/>
+      <c r="AY25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>1020</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D26" s="9" t="n">
+        <v>254</v>
+      </c>
+      <c r="D26" s="10" t="n">
         <v>70</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E26" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="9" t="n">
+      <c r="G26" s="10" t="n">
         <v>326236</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="L26" s="9" t="s">
+      <c r="J26" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="K26" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>256</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="Q26" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T26" s="9" t="n">
+      <c r="T26" s="10" t="n">
         <v>181026</v>
       </c>
-      <c r="U26" s="9" t="n">
+      <c r="U26" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="V26" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="W26" s="9" t="s">
+      <c r="V26" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="W26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X26" s="9" t="s">
+      <c r="X26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y26" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z26" s="9" t="s">
+      <c r="Y26" s="10" t="s">
         <v>259</v>
+      </c>
+      <c r="Z26" s="10" t="s">
+        <v>260</v>
       </c>
       <c r="AA26" s="14" t="n">
         <v>144198</v>
       </c>
-      <c r="AB26" s="9" t="s">
+      <c r="AB26" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AC26" s="9" t="n">
+      <c r="AC26" s="10" t="n">
         <v>285283</v>
       </c>
-      <c r="AD26" s="9" t="n">
+      <c r="AD26" s="10" t="n">
         <v>0.4</v>
       </c>
-      <c r="AE26" s="9" t="s">
+      <c r="AE26" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AQ26" s="11"/>
-      <c r="AR26" s="8"/>
-      <c r="AS26" s="11"/>
-      <c r="AV26" s="8"/>
-      <c r="AY26" s="8"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="12"/>
+      <c r="AV26" s="9"/>
+      <c r="AY26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>1021</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D27" s="14" t="n">
         <v>80</v>
@@ -4225,7 +4228,7 @@
       <c r="E27" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="10" t="s">
         <v>75</v>
       </c>
       <c r="G27" s="14" t="n">
@@ -4234,74 +4237,74 @@
       <c r="H27" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="P27" s="9" t="s">
+      <c r="J27" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" s="10" t="s">
         <v>262</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>263</v>
       </c>
       <c r="Q27" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T27" s="9" t="n">
+      <c r="T27" s="10" t="n">
         <v>151069</v>
       </c>
-      <c r="U27" s="9" t="n">
+      <c r="U27" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="V27" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="W27" s="9" t="s">
+      <c r="V27" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="X27" s="9" t="s">
+      <c r="W27" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="X27" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y27" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z27" s="9" t="s">
+      <c r="Y27" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="AA27" s="9" t="n">
+      <c r="Z27" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA27" s="10" t="n">
         <v>281886</v>
       </c>
-      <c r="AB27" s="9" t="s">
+      <c r="AB27" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AC27" s="9" t="n">
+      <c r="AC27" s="10" t="n">
         <v>281763</v>
       </c>
-      <c r="AD27" s="9" t="n">
+      <c r="AD27" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="AE27" s="9" t="s">
+      <c r="AE27" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AQ27" s="11"/>
-      <c r="AS27" s="11"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AQ27" s="12"/>
+      <c r="AS27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>1022</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D28" s="14" t="n">
         <v>100</v>
@@ -4309,509 +4312,509 @@
       <c r="E28" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="10" t="n">
+      <c r="G28" s="11" t="n">
         <v>130536</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="I28" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="I28" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="L28" s="9" t="s">
+      <c r="J28" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="9" t="s">
-        <v>220</v>
+      <c r="K28" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="Q28" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T28" s="9" t="n">
+      <c r="T28" s="10" t="n">
         <v>200133</v>
       </c>
-      <c r="U28" s="9" t="n">
+      <c r="U28" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="V28" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="W28" s="9" t="s">
+      <c r="V28" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="W28" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="X28" s="9" t="s">
+      <c r="X28" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Y28" s="9" t="s">
+      <c r="Y28" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Z28" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA28" s="9" t="n">
+      <c r="Z28" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA28" s="10" t="n">
         <v>144183</v>
       </c>
-      <c r="AB28" s="9" t="s">
+      <c r="AB28" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AC28" s="9" t="n">
+      <c r="AC28" s="10" t="n">
         <v>20270</v>
       </c>
-      <c r="AD28" s="9" t="n">
+      <c r="AD28" s="10" t="n">
         <v>1.8</v>
       </c>
-      <c r="AE28" s="9" t="s">
+      <c r="AE28" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AQ28" s="11"/>
-      <c r="AR28" s="8"/>
-      <c r="AS28" s="11"/>
-      <c r="AV28" s="8"/>
-      <c r="AY28" s="8"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="9"/>
+      <c r="AS28" s="12"/>
+      <c r="AV28" s="9"/>
+      <c r="AY28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
+      <c r="A29" s="10" t="n">
         <v>1023</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D29" s="9" t="n">
+      <c r="B29" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" s="10" t="n">
         <v>150</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9" t="n">
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="n">
         <v>129508</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="I29" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="L29" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="P29" s="9"/>
+      <c r="L29" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="P29" s="10"/>
       <c r="Q29" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9" t="n">
+      <c r="T29" s="10"/>
+      <c r="U29" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="V29" s="9" t="s">
+      <c r="V29" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="W29" s="9" t="s">
+      <c r="W29" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="X29" s="9" t="s">
+      <c r="X29" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Y29" s="9" t="s">
+      <c r="Y29" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z29" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9" t="n">
+      <c r="Z29" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10" t="n">
         <v>20270</v>
       </c>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9" t="s">
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF29" s="10" t="s">
+      <c r="AF29" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AG29" s="9"/>
+      <c r="AG29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
+      <c r="A30" s="10" t="n">
         <v>1024</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D30" s="9" t="n">
+      <c r="B30" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="10" t="n">
         <v>250</v>
       </c>
-      <c r="E30" s="9" t="n">
+      <c r="E30" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="n">
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="n">
         <v>319126</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="I30" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="P30" s="9"/>
+      <c r="L30" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="P30" s="10"/>
       <c r="Q30" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9" t="n">
+      <c r="T30" s="10"/>
+      <c r="U30" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="V30" s="9" t="s">
+      <c r="V30" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="W30" s="9" t="s">
+      <c r="W30" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X30" s="9" t="s">
+      <c r="X30" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Y30" s="9" t="s">
+      <c r="Y30" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Z30" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9" t="n">
+      <c r="Z30" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10" t="n">
         <v>20270</v>
       </c>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9" t="s">
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF30" s="10" t="s">
+      <c r="AF30" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AG30" s="9"/>
+      <c r="AG30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
+      <c r="A31" s="10" t="n">
         <v>1025</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D31" s="9" t="n">
+      <c r="B31" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D31" s="10" t="n">
         <v>400</v>
       </c>
-      <c r="E31" s="9" t="n">
+      <c r="E31" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="9" t="n">
+      <c r="G31" s="10" t="n">
         <v>326261</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="L31" s="9" t="s">
+      <c r="J31" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="P31" s="9" t="s">
+      <c r="K31" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="L31" s="10" t="s">
         <v>280</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="Q31" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T31" s="9" t="n">
+      <c r="T31" s="10" t="n">
         <v>151576</v>
       </c>
-      <c r="U31" s="9" t="n">
+      <c r="U31" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="V31" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="W31" s="9" t="s">
+      <c r="V31" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="W31" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="X31" s="9" t="s">
+      <c r="X31" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y31" s="9" t="s">
+      <c r="Y31" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="Z31" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA31" s="9" t="n">
+      <c r="Z31" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA31" s="10" t="n">
         <v>281788</v>
       </c>
-      <c r="AB31" s="9" t="s">
+      <c r="AB31" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AC31" s="9" t="n">
+      <c r="AC31" s="10" t="n">
         <v>268572</v>
       </c>
-      <c r="AD31" s="9" t="n">
+      <c r="AD31" s="10" t="n">
         <v>0.4</v>
       </c>
-      <c r="AE31" s="9" t="s">
+      <c r="AE31" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
+      <c r="A32" s="10" t="n">
         <v>1026</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D32" s="9" t="n">
+      <c r="B32" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D32" s="10" t="n">
         <v>210</v>
       </c>
-      <c r="E32" s="9" t="n">
+      <c r="E32" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="9" t="n">
+      <c r="G32" s="10" t="n">
         <v>326270</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="L32" s="9" t="s">
+      <c r="J32" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="P32" s="9" t="s">
+      <c r="K32" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="L32" s="10" t="s">
         <v>286</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="Q32" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T32" s="9" t="n">
+      <c r="T32" s="10" t="n">
         <v>168944</v>
       </c>
-      <c r="U32" s="9" t="n">
+      <c r="U32" s="10" t="n">
         <v>0.3</v>
       </c>
-      <c r="V32" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="W32" s="9" t="s">
+      <c r="V32" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="W32" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="X32" s="9" t="s">
+      <c r="X32" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y32" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z32" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA32" s="9" t="n">
+      <c r="Y32" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z32" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA32" s="10" t="n">
         <v>285400</v>
       </c>
-      <c r="AB32" s="9" t="s">
+      <c r="AB32" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AC32" s="9" t="n">
+      <c r="AC32" s="10" t="n">
         <v>85955</v>
       </c>
-      <c r="AD32" s="9" t="n">
+      <c r="AD32" s="10" t="n">
         <v>0.4</v>
       </c>
-      <c r="AE32" s="9" t="s">
+      <c r="AE32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
+      <c r="A33" s="10" t="n">
         <v>1027</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="D33" s="9" t="n">
+      <c r="B33" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D33" s="10" t="n">
         <v>500</v>
       </c>
-      <c r="E33" s="9" t="n">
+      <c r="E33" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="9" t="n">
+      <c r="G33" s="10" t="n">
         <v>142127</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="L33" s="9" t="s">
+      <c r="J33" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P33" s="9" t="s">
+      <c r="K33" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="L33" s="10" t="s">
         <v>291</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>292</v>
       </c>
       <c r="Q33" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T33" s="9" t="n">
+      <c r="T33" s="10" t="n">
         <v>99608</v>
       </c>
-      <c r="U33" s="9" t="n">
+      <c r="U33" s="10" t="n">
         <v>1.2</v>
       </c>
-      <c r="V33" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="W33" s="9" t="s">
+      <c r="V33" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="W33" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="X33" s="9" t="s">
+      <c r="X33" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y33" s="9" t="s">
+      <c r="Y33" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="Z33" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA33" s="9" t="n">
+      <c r="Z33" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA33" s="10" t="n">
         <v>281710</v>
       </c>
-      <c r="AB33" s="9" t="s">
+      <c r="AB33" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AC33" s="9" t="n">
+      <c r="AC33" s="10" t="n">
         <v>80483</v>
       </c>
-      <c r="AD33" s="9" t="n">
+      <c r="AD33" s="10" t="n">
         <v>0.4</v>
       </c>
-      <c r="AE33" s="9" t="s">
+      <c r="AE33" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>1028</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>294</v>
+      <c r="B34" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>295</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="E34" s="9" t="n">
+      <c r="E34" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="9" t="n">
+      <c r="G34" s="10" t="n">
         <v>326264</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J34" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="L34" s="9" t="s">
+      <c r="J34" s="10" t="s">
         <v>296</v>
       </c>
+      <c r="K34" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>297</v>
+      </c>
       <c r="P34" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q34" s="1" t="n">
         <v>16</v>
@@ -4822,25 +4825,25 @@
       <c r="U34" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="V34" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="W34" s="9" t="s">
+      <c r="V34" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="X34" s="9" t="s">
+      <c r="W34" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="X34" s="10" t="s">
         <v>84</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z34" s="9" t="s">
-        <v>300</v>
+        <v>265</v>
+      </c>
+      <c r="Z34" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="AA34" s="1" t="n">
         <v>299561</v>
       </c>
-      <c r="AB34" s="9" t="s">
+      <c r="AB34" s="10" t="s">
         <v>173</v>
       </c>
       <c r="AC34" s="1" t="n">
@@ -4849,7 +4852,7 @@
       <c r="AD34" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="AE34" s="9" t="s">
+      <c r="AE34" s="10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4858,10 +4861,10 @@
         <v>1029</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>550</v>
@@ -4869,7 +4872,7 @@
       <c r="E35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="10" t="s">
         <v>75</v>
       </c>
       <c r="G35" s="1" t="n">
@@ -4878,26 +4881,29 @@
       <c r="H35" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="L35" s="9" t="s">
+      <c r="J35" s="10" t="s">
         <v>303</v>
       </c>
+      <c r="K35" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="O35" s="22" t="s">
+        <v>210</v>
+      </c>
       <c r="P35" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q35" s="1" t="n">
         <v>16</v>
       </c>
       <c r="S35" s="22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T35" s="1" t="n">
         <v>130642</v>
@@ -4905,34 +4911,34 @@
       <c r="U35" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="V35" s="9" t="s">
+      <c r="V35" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="W35" s="9" t="s">
+      <c r="W35" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="X35" s="9" t="s">
+      <c r="X35" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y35" s="9" t="s">
+      <c r="Y35" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="Z35" s="9" t="s">
-        <v>305</v>
+      <c r="Z35" s="10" t="s">
+        <v>306</v>
       </c>
       <c r="AA35" s="1" t="n">
         <v>285356</v>
       </c>
-      <c r="AB35" s="9" t="s">
+      <c r="AB35" s="10" t="s">
         <v>173</v>
       </c>
       <c r="AC35" s="22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AD35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AE35" s="9" t="s">
+      <c r="AE35" s="10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4941,10 +4947,10 @@
         <v>1030</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>300</v>
@@ -4952,7 +4958,7 @@
       <c r="E36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="10" t="s">
         <v>75</v>
       </c>
       <c r="G36" s="1" t="n">
@@ -4961,26 +4967,29 @@
       <c r="H36" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J36" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="L36" s="9" t="s">
+      <c r="J36" s="10" t="s">
         <v>309</v>
       </c>
+      <c r="K36" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="O36" s="22" t="s">
+        <v>210</v>
+      </c>
       <c r="P36" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q36" s="1" t="n">
         <v>16</v>
       </c>
       <c r="S36" s="22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T36" s="1" t="n">
         <v>254276</v>
@@ -4988,34 +4997,34 @@
       <c r="U36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V36" s="9" t="s">
+      <c r="V36" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="W36" s="9" t="s">
+      <c r="W36" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X36" s="9" t="s">
+      <c r="X36" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y36" s="9" t="s">
+      <c r="Y36" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="Z36" s="9" t="s">
-        <v>312</v>
+      <c r="Z36" s="10" t="s">
+        <v>313</v>
       </c>
       <c r="AA36" s="1" t="n">
         <v>20301</v>
       </c>
-      <c r="AB36" s="9" t="s">
+      <c r="AB36" s="10" t="s">
         <v>173</v>
       </c>
       <c r="AC36" s="22" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AD36" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AE36" s="9" t="s">
+      <c r="AE36" s="10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5024,10 +5033,10 @@
         <v>1031</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>180</v>
@@ -5035,7 +5044,7 @@
       <c r="E37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="10" t="s">
         <v>75</v>
       </c>
       <c r="G37" s="1" t="n">
@@ -5044,20 +5053,20 @@
       <c r="H37" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="L37" s="9" t="s">
+      <c r="J37" s="10" t="s">
         <v>316</v>
       </c>
+      <c r="K37" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>317</v>
+      </c>
       <c r="P37" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q37" s="1" t="n">
         <v>16</v>
@@ -5068,34 +5077,34 @@
       <c r="U37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V37" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="W37" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="X37" s="9" t="s">
+      <c r="V37" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="W37" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="X37" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y37" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z37" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA37" s="9" t="n">
+      <c r="Y37" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA37" s="10" t="n">
         <v>281710</v>
       </c>
-      <c r="AB37" s="9" t="s">
+      <c r="AB37" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AC37" s="9" t="n">
+      <c r="AC37" s="10" t="n">
         <v>80483</v>
       </c>
       <c r="AD37" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="AE37" s="9" t="s">
+      <c r="AE37" s="10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5104,10 +5113,10 @@
         <v>1032</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>80</v>
@@ -5115,7 +5124,7 @@
       <c r="E38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="10" t="s">
         <v>75</v>
       </c>
       <c r="G38" s="1" t="n">
@@ -5124,20 +5133,20 @@
       <c r="H38" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="L38" s="9" t="s">
+      <c r="J38" s="10" t="s">
         <v>322</v>
       </c>
+      <c r="K38" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>323</v>
+      </c>
       <c r="P38" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q38" s="1" t="n">
         <v>16</v>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="331">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -46,6 +46,12 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">elementTy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adap</t>
+  </si>
+  <si>
     <t xml:space="preserve">nameCN</t>
   </si>
   <si>
@@ -143,6 +149,12 @@
   </si>
   <si>
     <t xml:space="preserve">塔的名字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防御塔元素（从1—6分别为光、暗、水、火、土、木）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1为物理伤害，2为法术伤害，3为产出或增益</t>
   </si>
   <si>
     <t xml:space="preserve">名字备注</t>
@@ -1416,6 +1428,12 @@
   </si>
   <si>
     <t xml:space="preserve">BED1185C4360D4F0220DDC94B0A0A813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5|1.4|1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140|220|400</t>
   </si>
 </sst>
 </file>
@@ -1600,10 +1618,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1642,6 +1656,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1903,1044 +1921,1075 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BF38"/>
+  <dimension ref="A1:BH38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="O7" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="topRight" activeCell="O20" activeCellId="0" sqref="O20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="F37" activeCellId="0" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="36.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="44.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="1" width="54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="21.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="22" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="29" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="27.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="117.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="46.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="96.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="36.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="64.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="36.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="27.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="2" width="31.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="23.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="49" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="55" min="52" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="15.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="31.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="16.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="18.75"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1030" min="60" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="3" width="10.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="36.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="44.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="15" style="1" width="54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="23.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="21.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="24" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="31" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="27.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="117.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="46.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="96.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="36.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="64.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="36.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="2" width="27.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="2" width="31.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="23.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="57" min="54" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="31.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="18.75"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1032" min="62" style="1" width="12.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="4"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
       <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="4"/>
+      <c r="AH2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
       <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="V3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="W3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="X3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="Y3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="Z3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AA3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AB3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AC3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AD3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AE3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="4"/>
+      <c r="AF3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
       <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>1001</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2" t="n">
+      <c r="B5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="G5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>291768</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="J5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="1" t="n">
+      <c r="L5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T5" s="9" t="n">
+      <c r="V5" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U5" s="9" t="n">
+      <c r="W5" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="X5" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA5" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC5" s="1" t="n">
         <v>281795</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC5" s="1" t="n">
+      <c r="AD5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE5" s="1" t="n">
         <v>81687</v>
       </c>
-      <c r="AD5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH5" s="10" t="n">
         <v>4007</v>
       </c>
-      <c r="AG5" s="11"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="12"/>
-      <c r="AV5" s="9"/>
-      <c r="AY5" s="9"/>
+      <c r="AI5" s="10"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="11"/>
+      <c r="AX5" s="8"/>
+      <c r="BA5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>1002</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="B6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>360</v>
       </c>
-      <c r="E6" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="13" t="n">
+      <c r="G6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="12" t="n">
         <v>291769</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V6" s="8" t="n">
+        <v>107535</v>
+      </c>
+      <c r="W6" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>281710</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>80483</v>
+      </c>
+      <c r="AF6" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q6" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="T6" s="9" t="n">
-        <v>107535</v>
-      </c>
-      <c r="U6" s="9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA6" s="1" t="n">
-        <v>281710</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC6" s="1" t="n">
-        <v>80483</v>
-      </c>
-      <c r="AD6" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE6" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AQ6" s="12"/>
-      <c r="AS6" s="12"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AS6" s="11"/>
+      <c r="AU6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>1003</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="2" t="n">
+      <c r="B7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>540</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="n">
+      <c r="G7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="I7" s="1" t="n">
         <v>291776</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q7" s="1" t="n">
+      <c r="J7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S7" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T7" s="9" t="n">
+      <c r="V7" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U7" s="9" t="n">
+      <c r="W7" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="X7" s="1" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA7" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC7" s="1" t="n">
         <v>281710</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC7" s="1" t="n">
+      <c r="AD7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE7" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AD7" s="10" t="n">
+      <c r="AF7" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AE7" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="12"/>
-      <c r="AV7" s="9"/>
-      <c r="AY7" s="9"/>
+      <c r="AG7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="11"/>
+      <c r="AX7" s="8"/>
+      <c r="BA7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>1004</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="2" t="n">
+      <c r="B8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>750</v>
       </c>
-      <c r="E8" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="13" t="n">
+      <c r="G8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="12" t="n">
         <v>291770</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" s="1" t="n">
+      <c r="J8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S8" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T8" s="9" t="n">
+      <c r="V8" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U8" s="9" t="n">
+      <c r="W8" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="X8" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA8" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC8" s="1" t="n">
         <v>20227</v>
       </c>
-      <c r="AB8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC8" s="1" t="n">
+      <c r="AD8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE8" s="1" t="n">
         <v>20279</v>
       </c>
-      <c r="AD8" s="10" t="n">
+      <c r="AF8" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AE8" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AQ8" s="12"/>
-      <c r="AS8" s="12"/>
+      <c r="AG8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AS8" s="11"/>
+      <c r="AU8" s="11"/>
     </row>
     <row r="9" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>1005</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="2" t="n">
+      <c r="B9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>1125</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="13" t="n">
+      <c r="G9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="12" t="n">
         <v>291772</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="J9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q9" s="1" t="n">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S9" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="9" t="n">
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U9" s="9" t="n">
+      <c r="W9" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="X9" s="1" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA9" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC9" s="1" t="n">
         <v>20273</v>
       </c>
-      <c r="AB9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC9" s="1" t="n">
+      <c r="AD9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE9" s="1" t="n">
         <v>288430</v>
       </c>
-      <c r="AD9" s="10" t="n">
+      <c r="AF9" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AE9" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
+      <c r="AG9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
     </row>
     <row r="10" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>1006</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>720</v>
+      </c>
+      <c r="G10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="12" t="n">
+        <v>291775</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="8" t="n">
+        <v>107535</v>
+      </c>
+      <c r="W10" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>720</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="13" t="n">
-        <v>291775</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q10" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="9" t="n">
-        <v>107535</v>
-      </c>
-      <c r="U10" s="9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="Z10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA10" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC10" s="1" t="n">
         <v>281710</v>
       </c>
-      <c r="AB10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC10" s="1" t="n">
+      <c r="AD10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE10" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AD10" s="10" t="n">
+      <c r="AF10" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="AE10" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
+      <c r="AG10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
     </row>
     <row r="11" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>1007</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="2" t="n">
+      <c r="B11" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>900</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="G11" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="13" t="n">
+      <c r="H11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="12" t="n">
         <v>291779</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="J11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q11" s="1" t="n">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S11" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="9" t="n">
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U11" s="9" t="n">
+      <c r="W11" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="X11" s="1" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA11" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC11" s="1" t="n">
         <v>35385</v>
       </c>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1" t="n">
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1" t="n">
         <v>84862</v>
       </c>
-      <c r="AD11" s="10" t="n">
+      <c r="AF11" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AE11" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11" t="n">
+      <c r="AG11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10" t="n">
         <v>200</v>
       </c>
     </row>
@@ -2948,84 +2997,86 @@
       <c r="A12" s="2" t="n">
         <v>1008</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G12" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="12" t="n">
+        <v>291773</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="8" t="n">
+        <v>107535</v>
+      </c>
+      <c r="W12" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>1800</v>
-      </c>
-      <c r="E12" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="13" t="n">
-        <v>291773</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q12" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="9" t="n">
-        <v>107535</v>
-      </c>
-      <c r="U12" s="9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="Z12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA12" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC12" s="1" t="n">
         <v>180888</v>
       </c>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1" t="n">
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1" t="n">
         <v>86462</v>
       </c>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11" t="n">
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3033,1827 +3084,1943 @@
       <c r="A13" s="2" t="n">
         <v>1009</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="2" t="n">
+      <c r="B13" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>675</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="n">
+      <c r="G13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="13" t="n">
+      <c r="I13" s="12" t="n">
         <v>291780</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="O13" s="1"/>
-      <c r="P13" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q13" s="1" t="n">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S13" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="9" t="n">
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U13" s="9" t="n">
+      <c r="W13" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="X13" s="1" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA13" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC13" s="1" t="n">
         <v>281710</v>
       </c>
-      <c r="AB13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC13" s="1" t="n">
+      <c r="AD13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE13" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AD13" s="10" t="n">
+      <c r="AF13" s="9" t="n">
         <v>0.3</v>
       </c>
-      <c r="AE13" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
+      <c r="AG13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
     </row>
     <row r="14" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>1010</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="2" t="n">
+      <c r="B14" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>2100</v>
       </c>
-      <c r="E14" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="13" t="n">
+      <c r="G14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="12" t="n">
         <v>291778</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q14" s="1" t="n">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S14" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="9" t="n">
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U14" s="9" t="n">
+      <c r="W14" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="X14" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA14" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC14" s="1" t="n">
         <v>281710</v>
       </c>
-      <c r="AB14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC14" s="1" t="n">
+      <c r="AD14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE14" s="1" t="n">
         <v>281780</v>
       </c>
-      <c r="AD14" s="10" t="n">
+      <c r="AF14" s="9" t="n">
         <v>0.25</v>
       </c>
-      <c r="AE14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
+      <c r="AG14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="2" t="n">
+      <c r="B15" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E15" s="13" t="n">
+      <c r="G15" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="13" t="n">
+      <c r="I15" s="12" t="n">
         <v>291777</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="J15" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="1" t="n">
+      <c r="K15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S15" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T15" s="9" t="n">
+      <c r="V15" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="U15" s="9" t="n">
+      <c r="W15" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="X15" s="1" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA15" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC15" s="1" t="n">
         <v>180888</v>
       </c>
-      <c r="AC15" s="1" t="n">
+      <c r="AE15" s="1" t="n">
         <v>97181</v>
       </c>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="11"/>
-      <c r="AQ15" s="12"/>
-      <c r="AS15" s="12"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="10"/>
+      <c r="AS15" s="11"/>
+      <c r="AU15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>3001</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="2" t="n">
+      <c r="B16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="G16" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="I16" s="12" t="n">
         <v>291764</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="J16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y16" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q16" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="Z16" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC16" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE16" s="1" t="n">
         <v>97181</v>
       </c>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF16" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG16" s="11"/>
-      <c r="AQ16" s="12"/>
-      <c r="AS16" s="12"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH16" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI16" s="10"/>
+      <c r="AS16" s="11"/>
+      <c r="AU16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>1011</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="14" t="n">
+        <v>197</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="E17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>75</v>
-      </c>
       <c r="G17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="14" t="n">
         <v>326244</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="O17" s="1" t="n">
+      <c r="J17" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q17" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="P17" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q17" s="1" t="n">
+      <c r="R17" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="S17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T17" s="11" t="n">
+      <c r="V17" s="10" t="n">
         <v>168944</v>
       </c>
-      <c r="U17" s="11" t="n">
+      <c r="W17" s="10" t="n">
         <v>0.3</v>
       </c>
-      <c r="V17" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="W17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="X17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z17" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA17" s="10" t="n">
+      <c r="X17" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC17" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AB17" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC17" s="10" t="n">
+      <c r="AD17" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE17" s="9" t="n">
         <v>85959</v>
       </c>
-      <c r="AD17" s="10" t="n">
+      <c r="AF17" s="9" t="n">
         <v>0.3</v>
       </c>
-      <c r="AE17" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="9"/>
-      <c r="AS17" s="12"/>
-      <c r="AV17" s="9"/>
-      <c r="AY17" s="9"/>
+      <c r="AG17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="11"/>
+      <c r="AX17" s="8"/>
+      <c r="BA17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>1012</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="10" t="n">
+        <v>205</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="9" t="n">
         <v>600</v>
       </c>
-      <c r="E18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="17" t="n">
+      <c r="G18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="17" t="n">
         <v>326244</v>
       </c>
-      <c r="H18" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q18" s="1" t="n">
+      <c r="J18" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="S18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T18" s="10" t="n">
+      <c r="V18" s="9" t="n">
         <v>153046</v>
       </c>
-      <c r="U18" s="11" t="n">
+      <c r="W18" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="V18" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="W18" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="X18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y18" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z18" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA18" s="10" t="n">
+      <c r="X18" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA18" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB18" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC18" s="9" t="n">
         <v>284848</v>
       </c>
-      <c r="AB18" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC18" s="10" t="n">
+      <c r="AD18" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE18" s="9" t="n">
         <v>121794</v>
       </c>
-      <c r="AD18" s="10" t="n">
+      <c r="AF18" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AE18" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AQ18" s="12"/>
-      <c r="AS18" s="12"/>
+      <c r="AG18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AS18" s="11"/>
+      <c r="AU18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="n">
         <v>1013</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="14" t="n">
+        <v>211</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="14" t="n">
         <v>550</v>
       </c>
-      <c r="E19" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="3" t="n">
+      <c r="G19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="13" t="n">
         <v>326267</v>
       </c>
-      <c r="H19" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q19" s="1" t="n">
+      <c r="J19" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="S19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="S19" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="T19" s="10" t="n">
+      <c r="U19" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="V19" s="9" t="n">
         <v>151551</v>
       </c>
-      <c r="U19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W19" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="X19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y19" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z19" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA19" s="10" t="n">
+      <c r="W19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA19" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB19" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC19" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AB19" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC19" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD19" s="10" t="n">
+      <c r="AD19" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE19" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF19" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AE19" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10" t="n">
+      <c r="AG19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="AQ19" s="12"/>
-      <c r="AR19" s="9"/>
-      <c r="AS19" s="12"/>
-      <c r="AV19" s="9"/>
-      <c r="AY19" s="9"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="11"/>
+      <c r="AX19" s="8"/>
+      <c r="BA19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>1014</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20" s="10" t="n">
+        <v>221</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="E20" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="13" t="n">
         <v>150576</v>
       </c>
-      <c r="H20" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q20" s="1" t="n">
+      <c r="J20" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="S20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T20" s="10" t="n">
+      <c r="V20" s="9" t="n">
         <v>200133</v>
       </c>
-      <c r="U20" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="W20" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="X20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y20" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z20" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA20" s="10" t="n">
+      <c r="W20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA20" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB20" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC20" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AB20" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC20" s="10" t="n">
+      <c r="AD20" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE20" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AD20" s="10" t="n">
+      <c r="AF20" s="9" t="n">
         <v>1.8</v>
       </c>
-      <c r="AE20" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AQ20" s="12"/>
-      <c r="AS20" s="12"/>
+      <c r="AG20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AS20" s="11"/>
+      <c r="AU20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="n">
         <v>1015</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13" t="n">
+        <v>130536</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="R21" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21" s="14" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="3" t="n">
-        <v>130536</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="I21" s="19" t="s">
+      <c r="S21" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V21" s="9" t="n">
+        <v>200133</v>
+      </c>
+      <c r="W21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB21" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC21" s="9" t="n">
+        <v>144183</v>
+      </c>
+      <c r="AD21" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q21" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="T21" s="10" t="n">
-        <v>200133</v>
-      </c>
-      <c r="U21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="W21" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="X21" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z21" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA21" s="10" t="n">
-        <v>144183</v>
-      </c>
-      <c r="AB21" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC21" s="10" t="n">
+      <c r="AE21" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AD21" s="10" t="n">
+      <c r="AF21" s="9" t="n">
         <v>1.8</v>
       </c>
-      <c r="AE21" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="12"/>
-      <c r="AV21" s="9"/>
-      <c r="AY21" s="9"/>
+      <c r="AG21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AS21" s="11"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="11"/>
+      <c r="AX21" s="8"/>
+      <c r="BA21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="n">
         <v>1016</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D22" s="10" t="n">
+        <v>233</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="9" t="n">
         <v>200</v>
       </c>
-      <c r="E22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="13" t="n">
         <v>326241</v>
       </c>
-      <c r="H22" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q22" s="1" t="n">
+      <c r="J22" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="S22" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T22" s="10" t="n">
+      <c r="V22" s="9" t="n">
         <v>150929</v>
       </c>
-      <c r="U22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V22" s="10" t="s">
+      <c r="W22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA22" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB22" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="W22" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA22" s="10" t="n">
+      <c r="AC22" s="9" t="n">
         <v>122546</v>
       </c>
-      <c r="AB22" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC22" s="10" t="n">
+      <c r="AD22" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE22" s="9" t="n">
         <v>135369</v>
       </c>
-      <c r="AD22" s="10" t="n">
+      <c r="AF22" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AE22" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AQ22" s="12"/>
-      <c r="AS22" s="12"/>
+      <c r="AG22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AS22" s="11"/>
+      <c r="AU22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="n">
         <v>1017</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="D23" s="26" t="n">
+        <v>230</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="E23" s="26" t="n">
+      <c r="G23" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27" t="n">
+      <c r="H23" s="26"/>
+      <c r="I23" s="27" t="n">
         <v>326271</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="K23" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
+      <c r="J23" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>242</v>
+      </c>
       <c r="O23" s="32"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="1" t="n">
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="W23" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="X23" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y23" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z23" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10" t="n">
+      <c r="V23" s="9"/>
+      <c r="W23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z23" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA23" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB23" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF23" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG23" s="10"/>
-      <c r="AQ23" s="12"/>
-      <c r="AR23" s="9"/>
-      <c r="AS23" s="12"/>
-      <c r="AV23" s="9"/>
-      <c r="AY23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH23" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI23" s="9"/>
+      <c r="AS23" s="11"/>
+      <c r="AT23" s="8"/>
+      <c r="AU23" s="11"/>
+      <c r="AX23" s="8"/>
+      <c r="BA23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>1018</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" s="10" t="n">
+        <v>243</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F24" s="9" t="n">
         <v>200</v>
       </c>
-      <c r="E24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="13" t="n">
         <v>143689</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q24" s="1" t="n">
+      <c r="J24" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="S24" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T24" s="10" t="n">
+      <c r="V24" s="9" t="n">
         <v>254300</v>
       </c>
-      <c r="U24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V24" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="W24" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="X24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y24" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z24" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA24" s="14" t="n">
+      <c r="W24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA24" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB24" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC24" s="14" t="n">
         <v>285370</v>
       </c>
-      <c r="AB24" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC24" s="10" t="n">
+      <c r="AD24" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE24" s="9" t="n">
         <v>279685</v>
       </c>
-      <c r="AD24" s="10" t="n">
+      <c r="AF24" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AE24" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AQ24" s="12"/>
-      <c r="AR24" s="9"/>
-      <c r="AS24" s="12"/>
-      <c r="AV24" s="9"/>
-      <c r="AY24" s="9"/>
+      <c r="AG24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AS24" s="11"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="11"/>
+      <c r="AX24" s="8"/>
+      <c r="BA24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>1019</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D25" s="14" t="n">
+        <v>250</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F25" s="14" t="n">
         <v>160</v>
       </c>
-      <c r="E25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="G25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="14" t="n">
         <v>326237</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q25" s="1" t="n">
+      <c r="J25" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="S25" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T25" s="10" t="n">
+      <c r="V25" s="9" t="n">
         <v>150927</v>
       </c>
-      <c r="U25" s="10" t="n">
+      <c r="W25" s="9" t="n">
         <v>1.3</v>
       </c>
-      <c r="V25" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="W25" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="X25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y25" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z25" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA25" s="10" t="n">
+      <c r="X25" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA25" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB25" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC25" s="9" t="n">
         <v>146119</v>
       </c>
-      <c r="AB25" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC25" s="10" t="n">
+      <c r="AD25" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE25" s="9" t="n">
         <v>279672</v>
       </c>
-      <c r="AD25" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AQ25" s="12"/>
-      <c r="AR25" s="9"/>
-      <c r="AS25" s="12"/>
-      <c r="AV25" s="9"/>
-      <c r="AY25" s="9"/>
+      <c r="AF25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AS25" s="11"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="11"/>
+      <c r="AX25" s="8"/>
+      <c r="BA25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>1020</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D26" s="10" t="n">
+        <v>258</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" s="9" t="n">
         <v>70</v>
       </c>
-      <c r="E26" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="10" t="n">
+      <c r="G26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="9" t="n">
         <v>326236</v>
       </c>
-      <c r="H26" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>255</v>
+      <c r="J26" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q26" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="S26" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T26" s="10" t="n">
+      <c r="V26" s="9" t="n">
         <v>181026</v>
       </c>
-      <c r="U26" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V26" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="W26" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="X26" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y26" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z26" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA26" s="14" t="n">
+      <c r="W26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA26" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB26" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC26" s="14" t="n">
         <v>144198</v>
       </c>
-      <c r="AB26" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC26" s="10" t="n">
+      <c r="AD26" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE26" s="9" t="n">
         <v>285283</v>
       </c>
-      <c r="AD26" s="10" t="n">
+      <c r="AF26" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AE26" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AQ26" s="12"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="12"/>
-      <c r="AV26" s="9"/>
-      <c r="AY26" s="9"/>
+      <c r="AG26" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AS26" s="11"/>
+      <c r="AT26" s="8"/>
+      <c r="AU26" s="11"/>
+      <c r="AX26" s="8"/>
+      <c r="BA26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>1021</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D27" s="14" t="n">
+        <v>265</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" s="14" t="n">
         <v>80</v>
       </c>
-      <c r="E27" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="G27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="14" t="n">
         <v>326245</v>
       </c>
-      <c r="H27" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>219</v>
+      <c r="J27" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q27" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="S27" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T27" s="10" t="n">
+      <c r="V27" s="9" t="n">
         <v>151069</v>
       </c>
-      <c r="U27" s="10" t="n">
+      <c r="W27" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="V27" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="W27" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="X27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y27" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z27" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA27" s="10" t="n">
+      <c r="X27" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA27" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB27" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC27" s="9" t="n">
         <v>281886</v>
       </c>
-      <c r="AB27" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC27" s="10" t="n">
+      <c r="AD27" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE27" s="9" t="n">
         <v>281763</v>
       </c>
-      <c r="AD27" s="10" t="n">
+      <c r="AF27" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AE27" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AQ27" s="12"/>
-      <c r="AS27" s="12"/>
+      <c r="AG27" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AS27" s="11"/>
+      <c r="AU27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>1022</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D28" s="14" t="n">
+        <v>271</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F28" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="E28" s="14" t="n">
+      <c r="G28" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="11" t="n">
+      <c r="H28" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="10" t="n">
         <v>130536</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="I28" s="10" t="s">
+      <c r="J28" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V28" s="9" t="n">
+        <v>200133</v>
+      </c>
+      <c r="W28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB28" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC28" s="9" t="n">
+        <v>144183</v>
+      </c>
+      <c r="AD28" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q28" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="T28" s="10" t="n">
-        <v>200133</v>
-      </c>
-      <c r="U28" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V28" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="W28" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="X28" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y28" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z28" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA28" s="10" t="n">
-        <v>144183</v>
-      </c>
-      <c r="AB28" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC28" s="10" t="n">
+      <c r="AE28" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AD28" s="10" t="n">
+      <c r="AF28" s="9" t="n">
         <v>1.8</v>
       </c>
-      <c r="AE28" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AQ28" s="12"/>
-      <c r="AR28" s="9"/>
-      <c r="AS28" s="12"/>
-      <c r="AV28" s="9"/>
-      <c r="AY28" s="9"/>
+      <c r="AG28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AS28" s="11"/>
+      <c r="AT28" s="8"/>
+      <c r="AU28" s="11"/>
+      <c r="AX28" s="8"/>
+      <c r="BA28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="n">
+      <c r="A29" s="9" t="n">
         <v>1023</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D29" s="10" t="n">
+      <c r="B29" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F29" s="9" t="n">
         <v>150</v>
       </c>
-      <c r="E29" s="10" t="n">
+      <c r="G29" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10" t="n">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="n">
         <v>129508</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>113</v>
+      <c r="J29" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="R29" s="9"/>
+      <c r="S29" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10" t="n">
+      <c r="V29" s="9"/>
+      <c r="W29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z29" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA29" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB29" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF29" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG29" s="10"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH29" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="n">
+      <c r="A30" s="9" t="n">
         <v>1024</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D30" s="10" t="n">
+      <c r="B30" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F30" s="9" t="n">
         <v>250</v>
       </c>
-      <c r="E30" s="10" t="n">
+      <c r="G30" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10" t="n">
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="n">
         <v>319126</v>
       </c>
-      <c r="H30" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>113</v>
+      <c r="J30" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="R30" s="9"/>
+      <c r="S30" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V30" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="W30" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="X30" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y30" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z30" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10" t="n">
+      <c r="V30" s="9"/>
+      <c r="W30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y30" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z30" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA30" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB30" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF30" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG30" s="10"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH30" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="n">
+      <c r="A31" s="9" t="n">
         <v>1025</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="D31" s="10" t="n">
+      <c r="B31" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F31" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="E31" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="10" t="n">
+      <c r="G31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="9" t="n">
         <v>326261</v>
       </c>
-      <c r="H31" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="P31" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q31" s="1" t="n">
+      <c r="J31" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="S31" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T31" s="10" t="n">
+      <c r="V31" s="9" t="n">
         <v>151576</v>
       </c>
-      <c r="U31" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V31" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="W31" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="X31" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y31" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z31" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA31" s="10" t="n">
+      <c r="W31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z31" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA31" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB31" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC31" s="9" t="n">
         <v>281788</v>
       </c>
-      <c r="AB31" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC31" s="10" t="n">
+      <c r="AD31" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE31" s="9" t="n">
         <v>268572</v>
       </c>
-      <c r="AD31" s="10" t="n">
+      <c r="AF31" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AE31" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
+      <c r="AG31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="n">
+      <c r="A32" s="9" t="n">
         <v>1026</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D32" s="10" t="n">
+      <c r="B32" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C32" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F32" s="9" t="n">
         <v>210</v>
       </c>
-      <c r="E32" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="10" t="n">
+      <c r="G32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="9" t="n">
         <v>326270</v>
       </c>
-      <c r="H32" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="P32" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q32" s="1" t="n">
+      <c r="J32" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="S32" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T32" s="10" t="n">
+      <c r="V32" s="9" t="n">
         <v>168944</v>
       </c>
-      <c r="U32" s="10" t="n">
+      <c r="W32" s="9" t="n">
         <v>0.3</v>
       </c>
-      <c r="V32" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="W32" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="X32" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y32" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z32" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA32" s="10" t="n">
+      <c r="X32" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y32" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z32" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA32" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB32" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC32" s="9" t="n">
         <v>285400</v>
       </c>
-      <c r="AB32" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC32" s="10" t="n">
+      <c r="AD32" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE32" s="9" t="n">
         <v>85955</v>
       </c>
-      <c r="AD32" s="10" t="n">
+      <c r="AF32" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AE32" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
+      <c r="AG32" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="n">
+      <c r="A33" s="9" t="n">
         <v>1027</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D33" s="10" t="n">
+      <c r="B33" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C33" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F33" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="E33" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="10" t="n">
+      <c r="G33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="9" t="n">
         <v>142127</v>
       </c>
-      <c r="H33" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="P33" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q33" s="1" t="n">
+      <c r="J33" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="S33" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T33" s="10" t="n">
+      <c r="V33" s="9" t="n">
         <v>99608</v>
       </c>
-      <c r="U33" s="10" t="n">
+      <c r="W33" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="V33" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="W33" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="X33" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y33" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z33" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA33" s="10" t="n">
+      <c r="X33" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y33" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z33" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA33" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB33" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC33" s="9" t="n">
         <v>281710</v>
       </c>
-      <c r="AB33" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC33" s="10" t="n">
+      <c r="AD33" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE33" s="9" t="n">
         <v>80483</v>
       </c>
-      <c r="AD33" s="10" t="n">
+      <c r="AF33" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AE33" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
+      <c r="AG33" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>1028</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D34" s="1" t="n">
+      <c r="B34" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F34" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="E34" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="10" t="n">
+      <c r="G34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="9" t="n">
         <v>326264</v>
       </c>
-      <c r="H34" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q34" s="1" t="n">
+      <c r="J34" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="S34" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T34" s="1" t="n">
+      <c r="V34" s="1" t="n">
         <v>288335</v>
       </c>
-      <c r="U34" s="1" t="n">
+      <c r="W34" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="V34" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="W34" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="X34" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z34" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA34" s="1" t="n">
+      <c r="X34" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y34" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB34" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC34" s="1" t="n">
         <v>299561</v>
       </c>
-      <c r="AB34" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC34" s="1" t="n">
+      <c r="AD34" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE34" s="1" t="n">
         <v>117367</v>
       </c>
-      <c r="AD34" s="1" t="n">
+      <c r="AF34" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="AE34" s="10" t="s">
-        <v>88</v>
+      <c r="AG34" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4861,85 +5028,91 @@
         <v>1029</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D35" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="C35" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F35" s="1" t="n">
         <v>550</v>
       </c>
-      <c r="E35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="G35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" s="1" t="n">
         <v>141968</v>
       </c>
-      <c r="H35" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="O35" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q35" s="1" t="n">
+      <c r="J35" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q35" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="S35" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="S35" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="T35" s="1" t="n">
+      <c r="U35" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="V35" s="1" t="n">
         <v>130642</v>
       </c>
-      <c r="U35" s="1" t="n">
+      <c r="W35" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="V35" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W35" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="X35" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y35" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z35" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA35" s="1" t="n">
+      <c r="X35" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y35" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z35" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA35" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB35" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC35" s="1" t="n">
         <v>285356</v>
       </c>
-      <c r="AB35" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC35" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="AD35" s="1" t="n">
+      <c r="AD35" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE35" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AE35" s="10" t="s">
-        <v>88</v>
+      <c r="AG35" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4947,85 +5120,91 @@
         <v>1030</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D36" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="C36" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F36" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="E36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="G36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="1" t="n">
         <v>130042</v>
       </c>
-      <c r="H36" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="O36" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q36" s="1" t="n">
+      <c r="J36" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q36" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="S36" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="S36" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="T36" s="1" t="n">
+      <c r="U36" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="V36" s="1" t="n">
         <v>254276</v>
       </c>
-      <c r="U36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V36" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W36" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="X36" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y36" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z36" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA36" s="1" t="n">
+      <c r="W36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X36" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y36" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA36" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB36" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC36" s="1" t="n">
         <v>20301</v>
       </c>
-      <c r="AB36" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC36" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD36" s="1" t="n">
+      <c r="AD36" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE36" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF36" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AE36" s="10" t="s">
-        <v>88</v>
+      <c r="AG36" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5033,79 +5212,85 @@
         <v>1031</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="D37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F37" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="G37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="1" t="n">
         <v>136878</v>
       </c>
-      <c r="H37" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q37" s="1" t="n">
+      <c r="J37" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="S37" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T37" s="1" t="n">
+      <c r="V37" s="1" t="n">
         <v>151562</v>
       </c>
-      <c r="U37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V37" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="W37" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="X37" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y37" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z37" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA37" s="10" t="n">
+      <c r="W37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y37" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z37" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA37" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB37" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC37" s="9" t="n">
         <v>281710</v>
       </c>
-      <c r="AB37" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC37" s="10" t="n">
+      <c r="AD37" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE37" s="9" t="n">
         <v>80483</v>
       </c>
-      <c r="AD37" s="1" t="n">
+      <c r="AF37" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="AE37" s="10" t="s">
-        <v>88</v>
+      <c r="AG37" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5113,49 +5298,70 @@
         <v>1032</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="D38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F38" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="G38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="1" t="n">
         <v>62588</v>
       </c>
-      <c r="H38" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q38" s="1" t="n">
+      <c r="J38" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="S38" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T38" s="1" t="n">
+      <c r="V38" s="1" t="n">
         <v>271321</v>
       </c>
-      <c r="U38" s="1" t="n">
+      <c r="W38" s="1" t="n">
         <v>0.8</v>
+      </c>
+      <c r="X38" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y38" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z38" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA38" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB38" s="9" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="409">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -151,7 +151,7 @@
     <t xml:space="preserve">塔的名字</t>
   </si>
   <si>
-    <t xml:space="preserve">防御塔元素（从1—6分别为光、暗、水、火、土、木）</t>
+    <t xml:space="preserve">防御塔元素（从1—6分别为光、暗、水、火、木、土）</t>
   </si>
   <si>
     <t xml:space="preserve">1为物理伤害，2为法术伤害，3为产出或增益</t>
@@ -1434,6 +1434,240 @@
   </si>
   <si>
     <t xml:space="preserve">140|220|400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火龙娘3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130|200|300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8D561C1D4BDEB35DC34957875388B3BD|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE86E2AD461A9AB225C6329AEF404C80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2|2|1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150|280|400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火龙娘4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700|900|1050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F4F3FB84ECC5CBA4112CF9121CAA1FA|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3A20A4B4593FC172CCCB0AE02D5BCC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4|3.4|3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500|2100|2700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火龙娘5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550|660|820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9ACB25334D22EDBDC22F04B4FAC43CE8|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16F273444522747F516CA88B9469B2E7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45|60|80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火龙男6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火龙娘6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6992D1454962F1D5D06B77B19228941B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木龙娘1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土龙娘1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150|240|350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFE5AFC34941975C455821BFB8EB1BE2|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA95F4BE423F0DB39D4102BC4E93DFD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35|0.35|0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32|40|60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木龙男2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土龙男2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250|350|500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0991DF7A47C82436D3BA6483EE4F886A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE8432F9463F1BFDA0DC73A6E3720AD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55|0.55|0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60|100|160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木龙男3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土龙男3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340|480|700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55BA8E6B4582A52B769877A12BBFDF6E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6F648B984ACAAA6EB60AD39B0D0689D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|0.9|0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90|120|160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木龙男4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土龙男4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160|300|460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">692660CD472CB70636DCEC8544290350|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2B668554B1057C2E3EA788780B7592D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4|0.4|0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30|60|90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木龙娘5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土龙娘5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8881D0434DA2E5FCC8E099A3BEA08F60|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">833FB1144C705CD35444A69D0B8D821E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木龙娘6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土龙娘6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00272E14699C5AAEC057C9208A9C3D4|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300|700|1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26F708C54F3D58093418F19F1DA07CB1|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138|238|298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土龙娘2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350|450|700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22A8F6A141BDEA65E78402AD6A635193|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150|250|400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土龙娘3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180|220|280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E9799482461ABE8EA4DE3C9B18665BE0|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6|2.5|2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210|260|350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土龙娘4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620|700|900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5A0F59954E3351A543A7A78A032CC19C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8|2.6|2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280|320|400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700|1100|1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8037B47F4044AA8C51D7ACAA0BC47EBD|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2|2.1|2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340|540|740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A9EDEC8F43483A421EBD97A16A7F99BD|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1839,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1736,6 +1970,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1921,12 +2159,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BH38"/>
+  <dimension ref="A1:BH54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F37" activeCellId="0" sqref="F37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C25" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topRight" activeCell="D55" activeCellId="0" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5363,6 +5601,1381 @@
       <c r="AB38" s="9" t="s">
         <v>330</v>
       </c>
+      <c r="AC38" s="1" t="n">
+        <v>281871</v>
+      </c>
+      <c r="AD38" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE38" s="1" t="n">
+        <v>268572</v>
+      </c>
+      <c r="AF38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>326250</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="S39" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V39" s="1" t="n">
+        <v>29393</v>
+      </c>
+      <c r="W39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X39" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y39" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z39" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA39" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB39" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC39" s="1" t="n">
+        <v>300932</v>
+      </c>
+      <c r="AD39" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE39" s="1" t="n">
+        <v>285208</v>
+      </c>
+      <c r="AF39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG39" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>326249</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="S40" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V40" s="1" t="n">
+        <v>107536</v>
+      </c>
+      <c r="W40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X40" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y40" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z40" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA40" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB40" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC40" s="1" t="n">
+        <v>117391</v>
+      </c>
+      <c r="AD40" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE40" s="1" t="n">
+        <v>285306</v>
+      </c>
+      <c r="AF40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG40" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>326243</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="S41" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V41" s="1" t="n">
+        <v>151568</v>
+      </c>
+      <c r="W41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y41" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z41" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA41" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB41" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC41" s="1" t="n">
+        <v>285445</v>
+      </c>
+      <c r="AD41" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE41" s="33" t="n">
+        <v>269223</v>
+      </c>
+      <c r="AF41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG41" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>150</v>
+      </c>
+      <c r="G42" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>147047</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="S42" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="W42" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X42" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y42" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z42" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA42" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB42" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE42" s="9" t="n">
+        <v>20270</v>
+      </c>
+      <c r="AG42" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH42" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F43" s="9" t="n">
+        <v>150</v>
+      </c>
+      <c r="G43" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>326256</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="S43" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V43" s="1" t="n">
+        <v>164529</v>
+      </c>
+      <c r="W43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y43" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z43" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA43" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB43" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC43" s="1" t="n">
+        <v>279765</v>
+      </c>
+      <c r="AD43" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE43" s="1" t="n">
+        <v>303167</v>
+      </c>
+      <c r="AF43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG43" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>326273</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="S44" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V44" s="1" t="n">
+        <v>86362</v>
+      </c>
+      <c r="W44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA44" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB44" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC44" s="1" t="n">
+        <v>85944</v>
+      </c>
+      <c r="AD44" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE44" s="33" t="n">
+        <v>29747</v>
+      </c>
+      <c r="AF44" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AG44" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>326255</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="S45" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V45" s="1" t="n">
+        <v>52946</v>
+      </c>
+      <c r="W45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X45" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y45" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z45" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA45" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB45" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC45" s="1" t="n">
+        <v>326802</v>
+      </c>
+      <c r="AD45" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE45" s="1" t="n">
+        <v>279742</v>
+      </c>
+      <c r="AF45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG45" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>163718</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="S46" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V46" s="1" t="n">
+        <v>85167</v>
+      </c>
+      <c r="W46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X46" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y46" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z46" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA46" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB46" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC46" s="1" t="n">
+        <v>281871</v>
+      </c>
+      <c r="AD46" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE46" s="1" t="n">
+        <v>268572</v>
+      </c>
+      <c r="AF46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>37788</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="S47" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V47" s="1" t="n">
+        <v>164528</v>
+      </c>
+      <c r="W47" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X47" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y47" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z47" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA47" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB47" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC47" s="1" t="n">
+        <v>285673</v>
+      </c>
+      <c r="AD47" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE47" s="1" t="n">
+        <v>268686</v>
+      </c>
+      <c r="AF47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG47" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F48" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G48" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" s="10" t="n">
+        <v>130536</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V48" s="9" t="n">
+        <v>200133</v>
+      </c>
+      <c r="W48" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y48" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z48" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA48" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB48" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC48" s="9" t="n">
+        <v>144183</v>
+      </c>
+      <c r="AD48" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE48" s="9" t="n">
+        <v>20270</v>
+      </c>
+      <c r="AF48" s="9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AG48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9"/>
+      <c r="AS48" s="11"/>
+      <c r="AT48" s="8"/>
+      <c r="AU48" s="11"/>
+      <c r="AX48" s="8"/>
+      <c r="BA48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>326277</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="S49" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V49" s="10" t="n">
+        <v>168944</v>
+      </c>
+      <c r="W49" s="10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X49" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y49" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z49" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA49" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB49" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC49" s="9" t="n">
+        <v>144183</v>
+      </c>
+      <c r="AD49" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE49" s="9" t="n">
+        <v>20270</v>
+      </c>
+      <c r="AF49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG49" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>326275</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="S50" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V50" s="9" t="n">
+        <v>153046</v>
+      </c>
+      <c r="W50" s="10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X50" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y50" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z50" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA50" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB50" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="AC50" s="9" t="n">
+        <v>144183</v>
+      </c>
+      <c r="AD50" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE50" s="9" t="n">
+        <v>20270</v>
+      </c>
+      <c r="AF50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG50" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>326274</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="S51" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V51" s="9" t="n">
+        <v>151551</v>
+      </c>
+      <c r="W51" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X51" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y51" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z51" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA51" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB51" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC51" s="9" t="n">
+        <v>144183</v>
+      </c>
+      <c r="AD51" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE51" s="9" t="n">
+        <v>20270</v>
+      </c>
+      <c r="AF51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>266696</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="S52" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V52" s="9" t="n">
+        <v>200133</v>
+      </c>
+      <c r="W52" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X52" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y52" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z52" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA52" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB52" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="AC52" s="9" t="n">
+        <v>144183</v>
+      </c>
+      <c r="AD52" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE52" s="9" t="n">
+        <v>20270</v>
+      </c>
+      <c r="AF52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG52" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>266696</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="S53" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V53" s="9" t="n">
+        <v>200133</v>
+      </c>
+      <c r="W53" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X53" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y53" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z53" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA53" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB53" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="AC53" s="9" t="n">
+        <v>144183</v>
+      </c>
+      <c r="AD53" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE53" s="9" t="n">
+        <v>20270</v>
+      </c>
+      <c r="AF53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG53" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH53" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F54" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>266696</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="S54" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V54" s="9" t="n">
+        <v>150929</v>
+      </c>
+      <c r="W54" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X54" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y54" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z54" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA54" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB54" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC54" s="9" t="n">
+        <v>144183</v>
+      </c>
+      <c r="AD54" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE54" s="9" t="n">
+        <v>20270</v>
+      </c>
+      <c r="AF54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG54" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH54" s="10" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="412">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1502,169 +1502,178 @@
     <t xml:space="preserve">木龙娘1</t>
   </si>
   <si>
+    <t xml:space="preserve">150|240|350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFE5AFC34941975C455821BFB8EB1BE2|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA95F4BE423F0DB39D4102BC4E93DFD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35|0.35|0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32|40|60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木龙男2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250|350|500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0991DF7A47C82436D3BA6483EE4F886A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE8432F9463F1BFDA0DC73A6E3720AD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55|0.55|0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60|100|160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木龙男3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340|480|700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55BA8E6B4582A52B769877A12BBFDF6E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6F648B984ACAAA6EB60AD39B0D0689D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|0.9|0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90|120|160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木龙男4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160|300|460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">692660CD472CB70636DCEC8544290350|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2B668554B1057C2E3EA788780B7592D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4|0.4|0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30|60|90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木龙娘5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8881D0434DA2E5FCC8E099A3BEA08F60|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">833FB1144C705CD35444A69D0B8D821E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2|2.1|2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木龙娘6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00272E14699C5AAEC057C9208A9C3D4|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10|15|20</t>
+  </si>
+  <si>
     <t xml:space="preserve">土龙娘1</t>
   </si>
   <si>
-    <t xml:space="preserve">150|240|350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFE5AFC34941975C455821BFB8EB1BE2|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA95F4BE423F0DB39D4102BC4E93DFD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35|0.35|0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32|40|60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木龙男2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土龙男2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250|350|500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0991DF7A47C82436D3BA6483EE4F886A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FE8432F9463F1BFDA0DC73A6E3720AD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55|0.55|0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60|100|160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木龙男3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土龙男3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340|480|700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55BA8E6B4582A52B769877A12BBFDF6E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6F648B984ACAAA6EB60AD39B0D0689D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|0.9|0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90|120|160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木龙男4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土龙男4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160|300|460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">692660CD472CB70636DCEC8544290350|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2B668554B1057C2E3EA788780B7592D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4|0.4|0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30|60|90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木龙娘5</t>
+    <t xml:space="preserve">300|700|1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56916B684770A63ECB303BAE1DF71C3B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A940E9B24121BF230FEAC18D34315ABF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138|238|298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土龙娘2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350|450|700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22A8F6A141BDEA65E78402AD6A635193|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7A643954302557C42B049A90B86312E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150|250|400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土龙娘3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180|220|280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E9799482461ABE8EA4DE3C9B18665BE0|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C666BFA45743B92B54F7794F779AEB8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6|2.5|2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210|260|350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土龙娘4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620|700|900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5A0F59954E3351A543A7A78A032CC19C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96AACACB4F8135625CF80FB738A9CD96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8|2.6|2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280|320|400</t>
   </si>
   <si>
     <t xml:space="preserve">土龙娘5</t>
   </si>
   <si>
-    <t xml:space="preserve">8881D0434DA2E5FCC8E099A3BEA08F60|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">833FB1144C705CD35444A69D0B8D821E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木龙娘6</t>
+    <t xml:space="preserve">700|1100|1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8037B47F4044AA8C51D7ACAA0BC47EBD|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEF3A6264248B976FC68F4B44604C8F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340|540|740</t>
   </si>
   <si>
     <t xml:space="preserve">土龙娘6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A00272E14699C5AAEC057C9208A9C3D4|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300|700|1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26F708C54F3D58093418F19F1DA07CB1|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138|238|298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土龙娘2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350|450|700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22A8F6A141BDEA65E78402AD6A635193|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150|250|400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土龙娘3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180|220|280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E9799482461ABE8EA4DE3C9B18665BE0|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6|2.5|2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210|260|350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土龙娘4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">620|700|900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5A0F59954E3351A543A7A78A032CC19C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8|2.6|2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">280|320|400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700|1100|1500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8037B47F4044AA8C51D7ACAA0BC47EBD|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2|2.1|2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340|540|740</t>
   </si>
   <si>
     <t xml:space="preserve">A9EDEC8F43483A421EBD97A16A7F99BD|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
@@ -1839,7 +1848,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1970,10 +1979,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2161,10 +2166,10 @@
   </sheetPr>
   <dimension ref="A1:BH54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C25" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="topRight" activeCell="D55" activeCellId="0" sqref="D55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C37" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="topRight" activeCell="G59" activeCellId="0" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5865,7 +5870,7 @@
       <c r="AD41" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="AE41" s="33" t="n">
+      <c r="AE41" s="21" t="n">
         <v>269223</v>
       </c>
       <c r="AF41" s="1" t="n">
@@ -5963,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F43" s="9" t="n">
         <v>150</v>
@@ -5984,16 +5989,16 @@
         <v>81</v>
       </c>
       <c r="L43" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="N43" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="M43" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="N43" s="9" t="s">
+      <c r="R43" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="S43" s="1" t="n">
         <v>16</v>
@@ -6005,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Y43" s="9" t="s">
         <v>87</v>
@@ -6017,7 +6022,7 @@
         <v>217</v>
       </c>
       <c r="AB43" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AC43" s="1" t="n">
         <v>279765</v>
@@ -6040,7 +6045,7 @@
         <v>1038</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>5</v>
@@ -6049,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>250</v>
@@ -6070,16 +6075,16 @@
         <v>81</v>
       </c>
       <c r="L44" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="R44" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="N44" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="S44" s="1" t="n">
         <v>16</v>
@@ -6091,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Y44" s="9" t="s">
         <v>87</v>
@@ -6103,7 +6108,7 @@
         <v>217</v>
       </c>
       <c r="AB44" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AC44" s="1" t="n">
         <v>85944</v>
@@ -6111,7 +6116,7 @@
       <c r="AD44" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="AE44" s="33" t="n">
+      <c r="AE44" s="21" t="n">
         <v>29747</v>
       </c>
       <c r="AF44" s="1" t="n">
@@ -6126,7 +6131,7 @@
         <v>1039</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>5</v>
@@ -6135,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>340</v>
@@ -6156,16 +6161,16 @@
         <v>81</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="S45" s="1" t="n">
         <v>16</v>
@@ -6177,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="X45" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Y45" s="9" t="s">
         <v>132</v>
@@ -6189,7 +6194,7 @@
         <v>151</v>
       </c>
       <c r="AB45" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AC45" s="1" t="n">
         <v>326802</v>
@@ -6212,7 +6217,7 @@
         <v>1040</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>5</v>
@@ -6221,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>160</v>
@@ -6242,16 +6247,16 @@
         <v>81</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="S46" s="1" t="n">
         <v>16</v>
@@ -6263,7 +6268,7 @@
         <v>1</v>
       </c>
       <c r="X46" s="9" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Y46" s="9" t="s">
         <v>217</v>
@@ -6275,7 +6280,7 @@
         <v>87</v>
       </c>
       <c r="AB46" s="9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AC46" s="1" t="n">
         <v>281871</v>
@@ -6298,7 +6303,7 @@
         <v>1041</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>5</v>
@@ -6307,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>100</v>
@@ -6328,16 +6333,16 @@
         <v>81</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="S47" s="1" t="n">
         <v>16</v>
@@ -6349,7 +6354,7 @@
         <v>0.6</v>
       </c>
       <c r="X47" s="9" t="s">
-        <v>194</v>
+        <v>379</v>
       </c>
       <c r="Y47" s="9" t="s">
         <v>87</v>
@@ -6361,7 +6366,7 @@
         <v>87</v>
       </c>
       <c r="AB47" s="9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AC47" s="1" t="n">
         <v>285673</v>
@@ -6384,7 +6389,7 @@
         <v>1042</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5</v>
@@ -6393,7 +6398,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F48" s="14" t="n">
         <v>100</v>
@@ -6414,13 +6419,13 @@
         <v>181</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
@@ -6436,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="X48" s="9" t="s">
-        <v>194</v>
+        <v>382</v>
       </c>
       <c r="Y48" s="9" t="s">
         <v>87</v>
@@ -6448,7 +6453,7 @@
         <v>87</v>
       </c>
       <c r="AB48" s="9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AC48" s="9" t="n">
         <v>144183</v>
@@ -6478,7 +6483,7 @@
         <v>1043</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>6</v>
@@ -6487,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="F49" s="9" t="n">
         <v>300</v>
@@ -6508,22 +6513,25 @@
         <v>81</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="S49" s="1" t="n">
         <v>16</v>
       </c>
       <c r="V49" s="10" t="n">
-        <v>168944</v>
+        <v>150923</v>
       </c>
       <c r="W49" s="10" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="X49" s="9" t="s">
         <v>132</v>
@@ -6538,16 +6546,16 @@
         <v>151</v>
       </c>
       <c r="AB49" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AC49" s="9" t="n">
-        <v>144183</v>
+        <v>303259</v>
       </c>
       <c r="AD49" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AE49" s="9" t="n">
-        <v>20270</v>
+        <v>303247</v>
       </c>
       <c r="AF49" s="1" t="n">
         <v>1</v>
@@ -6561,7 +6569,7 @@
         <v>1044</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>6</v>
@@ -6570,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F50" s="1" t="n">
         <v>350</v>
@@ -6591,22 +6599,25 @@
         <v>81</v>
       </c>
       <c r="L50" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="R50" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>392</v>
       </c>
       <c r="S50" s="1" t="n">
         <v>16</v>
       </c>
       <c r="V50" s="9" t="n">
-        <v>153046</v>
+        <v>130908</v>
       </c>
       <c r="W50" s="10" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X50" s="9" t="s">
         <v>132</v>
@@ -6621,16 +6632,16 @@
         <v>87</v>
       </c>
       <c r="AB50" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AC50" s="9" t="n">
-        <v>144183</v>
+        <v>305224</v>
       </c>
       <c r="AD50" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AE50" s="9" t="n">
-        <v>20270</v>
+        <v>284893</v>
       </c>
       <c r="AF50" s="1" t="n">
         <v>1</v>
@@ -6644,7 +6655,7 @@
         <v>1045</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>6</v>
@@ -6653,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>180</v>
@@ -6674,19 +6685,22 @@
         <v>81</v>
       </c>
       <c r="L51" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N51" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="M51" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="N51" s="9" t="s">
+      <c r="R51" s="1" t="s">
         <v>396</v>
       </c>
       <c r="S51" s="1" t="n">
         <v>16</v>
       </c>
       <c r="V51" s="9" t="n">
-        <v>151551</v>
+        <v>150933</v>
       </c>
       <c r="W51" s="9" t="n">
         <v>1</v>
@@ -6707,13 +6721,13 @@
         <v>398</v>
       </c>
       <c r="AC51" s="9" t="n">
-        <v>144183</v>
+        <v>269209</v>
       </c>
       <c r="AD51" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AE51" s="9" t="n">
-        <v>20270</v>
+        <v>20256</v>
       </c>
       <c r="AF51" s="1" t="n">
         <v>1</v>
@@ -6748,7 +6762,7 @@
         <v>79</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>266696</v>
+        <v>177786</v>
       </c>
       <c r="J52" s="15" t="s">
         <v>199</v>
@@ -6765,17 +6779,20 @@
       <c r="N52" s="9" t="s">
         <v>401</v>
       </c>
+      <c r="R52" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="S52" s="1" t="n">
         <v>16</v>
       </c>
       <c r="V52" s="9" t="n">
-        <v>200133</v>
+        <v>89088</v>
       </c>
       <c r="W52" s="9" t="n">
         <v>1</v>
       </c>
       <c r="X52" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Y52" s="9" t="s">
         <v>217</v>
@@ -6787,7 +6804,7 @@
         <v>151</v>
       </c>
       <c r="AB52" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AC52" s="9" t="n">
         <v>144183</v>
@@ -6796,7 +6813,7 @@
         <v>177</v>
       </c>
       <c r="AE52" s="9" t="n">
-        <v>20270</v>
+        <v>291903</v>
       </c>
       <c r="AF52" s="1" t="n">
         <v>1</v>
@@ -6810,7 +6827,7 @@
         <v>1047</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>6</v>
@@ -6819,19 +6836,19 @@
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F53" s="1" t="n">
         <v>700</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>79</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>266696</v>
+        <v>122181</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>231</v>
@@ -6840,25 +6857,28 @@
         <v>181</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="S53" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V53" s="9" t="n">
-        <v>200133</v>
+      <c r="V53" s="8" t="n">
+        <v>107535</v>
       </c>
       <c r="W53" s="9" t="n">
         <v>1</v>
       </c>
       <c r="X53" s="9" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="Y53" s="9" t="s">
         <v>151</v>
@@ -6870,16 +6890,16 @@
         <v>151</v>
       </c>
       <c r="AB53" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="AC53" s="9" t="n">
-        <v>144183</v>
+        <v>409</v>
+      </c>
+      <c r="AC53" s="1" t="n">
+        <v>281795</v>
       </c>
       <c r="AD53" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="AE53" s="9" t="n">
-        <v>20270</v>
+      <c r="AE53" s="1" t="n">
+        <v>81687</v>
       </c>
       <c r="AF53" s="1" t="n">
         <v>1</v>
@@ -6896,7 +6916,7 @@
         <v>1048</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>6</v>
@@ -6905,19 +6925,19 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F54" s="14" t="n">
         <v>100</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>79</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>266696</v>
+        <v>120753</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>231</v>
@@ -6932,13 +6952,13 @@
         <v>272</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="S54" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V54" s="9" t="n">
-        <v>150929</v>
+      <c r="V54" s="8" t="n">
+        <v>107535</v>
       </c>
       <c r="W54" s="9" t="n">
         <v>1</v>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="414">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">nameCN</t>
   </si>
   <si>
+    <t xml:space="preserve">towerStrategy[]</t>
+  </si>
+  <si>
     <t xml:space="preserve">shopPrice</t>
   </si>
   <si>
@@ -154,10 +157,13 @@
     <t xml:space="preserve">防御塔元素（从1—6分别为光、暗、水、火、木、土）</t>
   </si>
   <si>
-    <t xml:space="preserve">1为物理伤害，2为法术伤害，3为产出或增益</t>
+    <t xml:space="preserve">1为物理伤害，2为法术伤害，3为产出，4为增益</t>
   </si>
   <si>
     <t xml:space="preserve">名字备注</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WarmUp = 1, // 暖机 AntiHidden = 2, // 破隐 ArmorBreak = 3, // 破甲 StunEffect 4, // 眩晕 ArmorShred 5, // 削甲 SlowEffect 6, // 减速 MagicPenetration 7, // 法穿 AntiAir 8, // 对空增伤 MultiHit 9, // 多段伤害 PriorityAir 10, // 优先对空 </t>
   </si>
   <si>
     <t xml:space="preserve">塔的售价</t>
@@ -2164,56 +2170,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BH54"/>
+  <dimension ref="A1:BI54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C37" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
-      <selection pane="topRight" activeCell="G59" activeCellId="0" sqref="G59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="G54" activeCellId="0" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="36.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="44.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="15" style="1" width="54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="23.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="21.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="24" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="31" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="27.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="117.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="46.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="96.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="36.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="64.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="36.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="22.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="2" width="27.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="2" width="31.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="23.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="57" min="54" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="15.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="31.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="16.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="18.75"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1032" min="62" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="36.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="44.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="16" style="1" width="54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="19.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="23.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="21.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="23" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="25" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="32" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="27.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="117.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="46.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="96.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="36.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="64.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="36.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="2" width="27.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="31.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="23.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="53" min="52" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="58" min="55" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="31.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="18.75"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1033" min="63" style="1" width="12.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2239,25 +2247,25 @@
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>3</v>
@@ -2266,34 +2274,34 @@
         <v>3</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="S1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>5</v>
@@ -2302,27 +2310,29 @@
         <v>5</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AF1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="AH1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AI1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
@@ -2331,8 +2341,8 @@
       <c r="AP1" s="3"/>
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="4"/>
       <c r="AU1" s="3"/>
       <c r="AV1" s="3"/>
       <c r="AW1" s="3"/>
@@ -2347,6 +2357,7 @@
       <c r="BF1" s="3"/>
       <c r="BG1" s="3"/>
       <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -2454,7 +2465,9 @@
       <c r="AI2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="3"/>
+      <c r="AJ2" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
@@ -2463,8 +2476,8 @@
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="4"/>
       <c r="AU2" s="3"/>
       <c r="AV2" s="3"/>
       <c r="AW2" s="3"/>
@@ -2479,114 +2492,117 @@
       <c r="BF2" s="3"/>
       <c r="BG2" s="3"/>
       <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="G3" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="N3" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="O3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="AA3" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="AB3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="AE3" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="AF3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG3" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="AG3" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="AH3" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ3" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
@@ -2595,8 +2611,8 @@
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="4"/>
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
       <c r="AW3" s="3"/>
@@ -2611,10 +2627,11 @@
       <c r="BF3" s="3"/>
       <c r="BG3" s="3"/>
       <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,617 +2639,621 @@
         <v>1001</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="1" t="n">
+      <c r="H5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="1" t="n">
         <v>291768</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="K5" s="7" t="s">
         <v>82</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="M5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S5" s="1" t="n">
+      <c r="O5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V5" s="8" t="n">
+      <c r="W5" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="W5" s="8" t="n">
+      <c r="X5" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="Y5" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC5" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD5" s="1" t="n">
         <v>281795</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE5" s="1" t="n">
+      <c r="AE5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF5" s="1" t="n">
         <v>81687</v>
       </c>
-      <c r="AF5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH5" s="10" t="n">
+      <c r="AG5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI5" s="10" t="n">
         <v>4007</v>
       </c>
-      <c r="AI5" s="10"/>
-      <c r="AS5" s="11"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="11"/>
-      <c r="AX5" s="8"/>
-      <c r="BA5" s="8"/>
+      <c r="AJ5" s="10"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="11"/>
+      <c r="AY5" s="8"/>
+      <c r="BB5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>1002</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="H6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="12" t="n">
+        <v>291769</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="W6" s="8" t="n">
+        <v>107535</v>
+      </c>
+      <c r="X6" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>281710</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF6" s="1" t="n">
+        <v>80483</v>
+      </c>
+      <c r="AG6" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AH6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="G6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="12" t="n">
-        <v>291769</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="V6" s="8" t="n">
-        <v>107535</v>
-      </c>
-      <c r="W6" s="8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC6" s="1" t="n">
-        <v>281710</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE6" s="1" t="n">
-        <v>80483</v>
-      </c>
-      <c r="AF6" s="9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AG6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH6" s="10"/>
       <c r="AI6" s="10"/>
-      <c r="AS6" s="11"/>
-      <c r="AU6" s="11"/>
+      <c r="AJ6" s="10"/>
+      <c r="AT6" s="11"/>
+      <c r="AV6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>1003</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="n">
         <v>540</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="J7" s="1" t="n">
         <v>291776</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>106</v>
+      <c r="K7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="O7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T7" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V7" s="8" t="n">
+      <c r="W7" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="W7" s="8" t="n">
+      <c r="X7" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="Y7" s="1" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC7" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD7" s="1" t="n">
         <v>281710</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE7" s="1" t="n">
+      <c r="AE7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF7" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AF7" s="9" t="n">
+      <c r="AG7" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH7" s="10"/>
+      <c r="AH7" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI7" s="10"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="11"/>
-      <c r="AX7" s="8"/>
-      <c r="BA7" s="8"/>
+      <c r="AJ7" s="10"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="11"/>
+      <c r="AY7" s="8"/>
+      <c r="BB7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>1004</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="n">
         <v>750</v>
       </c>
-      <c r="G8" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="12" t="n">
+      <c r="H8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="12" t="n">
         <v>291770</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>117</v>
+      <c r="K8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="O8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T8" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V8" s="8" t="n">
+      <c r="W8" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="W8" s="8" t="n">
+      <c r="X8" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="Y8" s="1" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC8" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD8" s="1" t="n">
         <v>20227</v>
       </c>
-      <c r="AD8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE8" s="1" t="n">
+      <c r="AE8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF8" s="1" t="n">
         <v>20279</v>
       </c>
-      <c r="AF8" s="9" t="n">
+      <c r="AG8" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH8" s="10"/>
+      <c r="AH8" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI8" s="10"/>
-      <c r="AS8" s="11"/>
-      <c r="AU8" s="11"/>
+      <c r="AJ8" s="10"/>
+      <c r="AT8" s="11"/>
+      <c r="AV8" s="11"/>
     </row>
     <row r="9" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>1005</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>1125</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="12" t="n">
+      <c r="H9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="12" t="n">
         <v>291772</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>127</v>
+      <c r="K9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="N9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O9" s="1"/>
+      <c r="N9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="S9" s="1" t="n">
+      <c r="R9" s="1"/>
+      <c r="S9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T9" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="8" t="n">
+      <c r="V9" s="1"/>
+      <c r="W9" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="W9" s="8" t="n">
+      <c r="X9" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="Y9" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC9" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD9" s="1" t="n">
         <v>20273</v>
       </c>
-      <c r="AD9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE9" s="1" t="n">
+      <c r="AE9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF9" s="1" t="n">
         <v>288430</v>
       </c>
-      <c r="AF9" s="9" t="n">
+      <c r="AG9" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH9" s="10"/>
+      <c r="AH9" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
     </row>
     <row r="10" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>1006</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <v>720</v>
       </c>
-      <c r="G10" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="12" t="n">
+      <c r="H10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="12" t="n">
         <v>291775</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>138</v>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O10" s="1"/>
+      <c r="N10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="S10" s="1" t="n">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T10" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="8" t="n">
+      <c r="V10" s="1"/>
+      <c r="W10" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="W10" s="8" t="n">
+      <c r="X10" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="Y10" s="1" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC10" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD10" s="1" t="n">
         <v>281710</v>
       </c>
-      <c r="AD10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE10" s="1" t="n">
+      <c r="AE10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF10" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AF10" s="9" t="n">
+      <c r="AG10" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="AG10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH10" s="10"/>
+      <c r="AH10" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
     </row>
     <row r="11" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>1007</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="G11" s="2" t="n">
         <v>900</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="H11" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="12" t="n">
+      <c r="I11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="12" t="n">
         <v>291779</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>147</v>
+      <c r="K11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O11" s="1"/>
+      <c r="N11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="S11" s="1" t="n">
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T11" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="8" t="n">
+      <c r="V11" s="1"/>
+      <c r="W11" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="W11" s="8" t="n">
+      <c r="X11" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="Y11" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC11" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD11" s="1" t="n">
         <v>35385</v>
       </c>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1" t="n">
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1" t="n">
         <v>84862</v>
       </c>
-      <c r="AF11" s="9" t="n">
+      <c r="AG11" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG11" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10" t="n">
+      <c r="AH11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10" t="n">
         <v>200</v>
       </c>
     </row>
@@ -3241,85 +3262,85 @@
         <v>1008</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="G12" s="2" t="n">
         <v>1800</v>
       </c>
-      <c r="G12" s="12" t="n">
+      <c r="H12" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="12" t="n">
+      <c r="I12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" s="12" t="n">
         <v>291773</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>157</v>
+      <c r="K12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="N12" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O12" s="1"/>
+      <c r="N12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S12" s="1" t="n">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T12" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="8" t="n">
+      <c r="V12" s="1"/>
+      <c r="W12" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="W12" s="8" t="n">
+      <c r="X12" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="Y12" s="1" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC12" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD12" s="1" t="n">
         <v>180888</v>
       </c>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1" t="n">
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1" t="n">
         <v>86462</v>
       </c>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10" t="n">
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3328,335 +3349,337 @@
         <v>1009</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F13" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="G13" s="2" t="n">
         <v>675</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="J13" s="12" t="n">
         <v>291780</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>162</v>
+      <c r="K13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N13" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="O13" s="1"/>
+      <c r="N13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="S13" s="1" t="n">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T13" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="8" t="n">
+      <c r="V13" s="1"/>
+      <c r="W13" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="W13" s="8" t="n">
+      <c r="X13" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="Y13" s="1" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC13" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD13" s="1" t="n">
         <v>281710</v>
       </c>
-      <c r="AD13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE13" s="1" t="n">
+      <c r="AE13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF13" s="1" t="n">
         <v>80483</v>
       </c>
-      <c r="AF13" s="9" t="n">
+      <c r="AG13" s="9" t="n">
         <v>0.3</v>
       </c>
-      <c r="AG13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH13" s="10"/>
+      <c r="AH13" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
     </row>
     <row r="14" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>1010</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="G14" s="2" t="n">
         <v>2100</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="12" t="n">
+      <c r="H14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="12" t="n">
         <v>291778</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>170</v>
+      <c r="K14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N14" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="O14" s="1"/>
+      <c r="N14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="S14" s="1" t="n">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T14" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="8" t="n">
+      <c r="V14" s="1"/>
+      <c r="W14" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="W14" s="8" t="n">
+      <c r="X14" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="Y14" s="1" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC14" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD14" s="1" t="n">
         <v>281710</v>
       </c>
-      <c r="AD14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE14" s="1" t="n">
+      <c r="AE14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF14" s="1" t="n">
         <v>281780</v>
       </c>
-      <c r="AF14" s="9" t="n">
+      <c r="AG14" s="9" t="n">
         <v>0.25</v>
       </c>
-      <c r="AG14" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH14" s="10"/>
+      <c r="AH14" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>2001</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="G15" s="12" t="n">
+      <c r="H15" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="I15" s="12" t="n">
+      <c r="J15" s="12" t="n">
         <v>291777</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="L15" s="2" t="s">
+      <c r="K15" s="7" t="s">
         <v>182</v>
       </c>
+      <c r="L15" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="M15" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N15" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S15" s="1" t="n">
+      <c r="N15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T15" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V15" s="8" t="n">
+      <c r="W15" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="W15" s="8" t="n">
+      <c r="X15" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="Y15" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC15" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD15" s="1" t="n">
         <v>180888</v>
       </c>
-      <c r="AE15" s="1" t="n">
+      <c r="AF15" s="1" t="n">
         <v>97181</v>
       </c>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="10"/>
-      <c r="AS15" s="11"/>
-      <c r="AU15" s="11"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="10"/>
+      <c r="AT15" s="11"/>
+      <c r="AV15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>3001</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="G16" s="12" t="n">
+      <c r="H16" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="12" t="n">
+      <c r="J16" s="12" t="n">
         <v>291764</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>117</v>
+      <c r="K16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="S16" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T16" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8" t="n">
+      <c r="W16" s="8"/>
+      <c r="X16" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="Y16" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE16" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF16" s="1" t="n">
         <v>97181</v>
       </c>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH16" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI16" s="10"/>
-      <c r="AS16" s="11"/>
-      <c r="AU16" s="11"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI16" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ16" s="10"/>
+      <c r="AT16" s="11"/>
+      <c r="AV16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>1011</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -3665,94 +3688,95 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="14" t="n">
+        <v>200</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="G17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="14" t="n">
+      <c r="H17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="14" t="n">
         <v>326244</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>200</v>
+      <c r="K17" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q17" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="R17" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="R17" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="S17" s="1" t="n">
+      <c r="S17" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="T17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V17" s="10" t="n">
+      <c r="W17" s="10" t="n">
         <v>168944</v>
       </c>
-      <c r="W17" s="10" t="n">
+      <c r="X17" s="10" t="n">
         <v>0.3</v>
       </c>
-      <c r="X17" s="9" t="s">
-        <v>203</v>
-      </c>
       <c r="Y17" s="9" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="Z17" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA17" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB17" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC17" s="9" t="n">
+        <v>89</v>
+      </c>
+      <c r="AC17" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD17" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AD17" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE17" s="9" t="n">
+      <c r="AE17" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF17" s="9" t="n">
         <v>85959</v>
       </c>
-      <c r="AF17" s="9" t="n">
+      <c r="AG17" s="9" t="n">
         <v>0.3</v>
       </c>
-      <c r="AG17" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH17" s="9"/>
+      <c r="AH17" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI17" s="9"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="8"/>
-      <c r="AU17" s="11"/>
-      <c r="AX17" s="8"/>
-      <c r="BA17" s="8"/>
+      <c r="AJ17" s="9"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="8"/>
+      <c r="AV17" s="11"/>
+      <c r="AY17" s="8"/>
+      <c r="BB17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>1012</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -3761,88 +3785,89 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F18" s="9" t="n">
+        <v>207</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="9" t="n">
         <v>600</v>
       </c>
-      <c r="G18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="17" t="n">
+      <c r="H18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="17" t="n">
         <v>326244</v>
       </c>
-      <c r="J18" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="R18" s="9" t="s">
+      <c r="K18" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="S18" s="1" t="n">
+      <c r="N18" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="T18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V18" s="9" t="n">
+      <c r="W18" s="9" t="n">
         <v>153046</v>
       </c>
-      <c r="W18" s="10" t="n">
+      <c r="X18" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="X18" s="9" t="s">
-        <v>209</v>
-      </c>
       <c r="Y18" s="9" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="Z18" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="AB18" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC18" s="9" t="n">
+        <v>153</v>
+      </c>
+      <c r="AC18" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD18" s="9" t="n">
         <v>284848</v>
       </c>
-      <c r="AD18" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE18" s="9" t="n">
+      <c r="AE18" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF18" s="9" t="n">
         <v>121794</v>
       </c>
-      <c r="AF18" s="9" t="n">
+      <c r="AG18" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AG18" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH18" s="9"/>
+      <c r="AH18" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI18" s="9"/>
-      <c r="AS18" s="11"/>
-      <c r="AU18" s="11"/>
+      <c r="AJ18" s="9"/>
+      <c r="AT18" s="11"/>
+      <c r="AV18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="n">
         <v>1013</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -3851,99 +3876,102 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="14" t="n">
+        <v>213</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G19" s="14" t="n">
         <v>550</v>
       </c>
-      <c r="G19" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="13" t="n">
+      <c r="H19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="13" t="n">
         <v>326267</v>
       </c>
-      <c r="J19" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q19" s="22" t="s">
+      <c r="K19" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="N19" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O19" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="S19" s="1" t="n">
+      <c r="R19" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="T19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="U19" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="V19" s="9" t="n">
+      <c r="V19" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="W19" s="9" t="n">
         <v>151551</v>
       </c>
-      <c r="W19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" s="9" t="s">
-        <v>151</v>
+      <c r="X19" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y19" s="9" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="Z19" s="9" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="AA19" s="9" t="s">
-        <v>218</v>
+        <v>90</v>
       </c>
       <c r="AB19" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC19" s="9" t="n">
+        <v>220</v>
+      </c>
+      <c r="AC19" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD19" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AD19" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE19" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF19" s="9" t="n">
+      <c r="AE19" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF19" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG19" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AG19" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9" t="n">
+      <c r="AH19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="AS19" s="11"/>
-      <c r="AT19" s="8"/>
-      <c r="AU19" s="11"/>
-      <c r="AX19" s="8"/>
-      <c r="BA19" s="8"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="11"/>
+      <c r="AY19" s="8"/>
+      <c r="BB19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>1014</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -3952,88 +3980,91 @@
         <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="9" t="n">
+        <v>224</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="G20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="13" t="n">
+      <c r="H20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="13" t="n">
         <v>150576</v>
       </c>
-      <c r="J20" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="R20" s="9" t="s">
+      <c r="K20" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="S20" s="1" t="n">
+      <c r="N20" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="T20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V20" s="9" t="n">
+      <c r="W20" s="9" t="n">
         <v>200133</v>
       </c>
-      <c r="W20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X20" s="9" t="s">
-        <v>226</v>
+      <c r="X20" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y20" s="9" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA20" s="9" t="s">
-        <v>227</v>
+        <v>90</v>
       </c>
       <c r="AB20" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC20" s="9" t="n">
+        <v>229</v>
+      </c>
+      <c r="AC20" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD20" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AD20" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE20" s="9" t="n">
+      <c r="AE20" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF20" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AF20" s="9" t="n">
+      <c r="AG20" s="9" t="n">
         <v>1.8</v>
       </c>
-      <c r="AG20" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH20" s="9"/>
+      <c r="AH20" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI20" s="9"/>
-      <c r="AS20" s="11"/>
-      <c r="AU20" s="11"/>
+      <c r="AJ20" s="9"/>
+      <c r="AT20" s="11"/>
+      <c r="AV20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="n">
         <v>1015</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -4042,89 +4073,90 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F21" s="14" t="n">
+        <v>232</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="G21" s="14" t="n">
+      <c r="H21" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="13" t="n">
+      <c r="I21" s="14"/>
+      <c r="J21" s="13" t="n">
         <v>130536</v>
       </c>
-      <c r="J21" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="M21" s="16" t="s">
+      <c r="K21" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="L21" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="N21" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="S21" s="1" t="n">
+      <c r="M21" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="T21" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V21" s="9" t="n">
+      <c r="W21" s="9" t="n">
         <v>200133</v>
       </c>
-      <c r="W21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" s="9" t="s">
-        <v>185</v>
+      <c r="X21" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y21" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="AB21" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC21" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AC21" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD21" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AD21" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE21" s="9" t="n">
+      <c r="AE21" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF21" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AF21" s="9" t="n">
+      <c r="AG21" s="9" t="n">
         <v>1.8</v>
       </c>
-      <c r="AG21" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH21" s="9"/>
+      <c r="AH21" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI21" s="9"/>
-      <c r="AS21" s="11"/>
-      <c r="AT21" s="8"/>
-      <c r="AU21" s="11"/>
-      <c r="AX21" s="8"/>
-      <c r="BA21" s="8"/>
+      <c r="AJ21" s="9"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="8"/>
+      <c r="AV21" s="11"/>
+      <c r="AY21" s="8"/>
+      <c r="BB21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="n">
         <v>1016</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -4133,174 +4165,178 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F22" s="9" t="n">
+        <v>236</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9" t="n">
         <v>200</v>
       </c>
-      <c r="G22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="13" t="n">
+      <c r="H22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="13" t="n">
         <v>326241</v>
       </c>
-      <c r="J22" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="N22" s="9" t="s">
+      <c r="K22" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="N22" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="S22" s="1" t="n">
+      <c r="O22" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="T22" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V22" s="9" t="n">
+      <c r="W22" s="9" t="n">
         <v>150929</v>
       </c>
-      <c r="W22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X22" s="9" t="s">
-        <v>239</v>
+      <c r="X22" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y22" s="9" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="AB22" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC22" s="9" t="n">
+        <v>153</v>
+      </c>
+      <c r="AC22" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD22" s="9" t="n">
         <v>122546</v>
       </c>
-      <c r="AD22" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE22" s="9" t="n">
+      <c r="AE22" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF22" s="9" t="n">
         <v>135369</v>
       </c>
-      <c r="AF22" s="9" t="n">
+      <c r="AG22" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AG22" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH22" s="9"/>
+      <c r="AH22" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI22" s="9"/>
-      <c r="AS22" s="11"/>
-      <c r="AU22" s="11"/>
+      <c r="AJ22" s="9"/>
+      <c r="AT22" s="11"/>
+      <c r="AV22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="n">
         <v>1017</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="F23" s="26" t="n">
+        <v>242</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="G23" s="26" t="n">
+      <c r="H23" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27" t="n">
+      <c r="I23" s="26"/>
+      <c r="J23" s="27" t="n">
         <v>326271</v>
       </c>
-      <c r="J23" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="L23" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="M23" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="N23" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="O23" s="32"/>
+      <c r="K23" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>244</v>
+      </c>
       <c r="P23" s="32"/>
       <c r="Q23" s="32"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="1" t="n">
+      <c r="R23" s="32"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" s="9" t="s">
-        <v>194</v>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y23" s="9" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="AA23" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AB23" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC23" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="AC23" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="AD23" s="9"/>
-      <c r="AE23" s="9" t="n">
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH23" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI23" s="9"/>
-      <c r="AS23" s="11"/>
-      <c r="AT23" s="8"/>
-      <c r="AU23" s="11"/>
-      <c r="AX23" s="8"/>
-      <c r="BA23" s="8"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI23" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ23" s="9"/>
+      <c r="AT23" s="11"/>
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="11"/>
+      <c r="AY23" s="8"/>
+      <c r="BB23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>1018</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2</v>
@@ -4309,91 +4345,92 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F24" s="9" t="n">
+        <v>245</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="9" t="n">
         <v>200</v>
       </c>
-      <c r="G24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="13" t="n">
+      <c r="H24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="13" t="n">
         <v>143689</v>
       </c>
-      <c r="J24" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="R24" s="9" t="s">
+      <c r="K24" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="S24" s="1" t="n">
+      <c r="N24" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="T24" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V24" s="9" t="n">
+      <c r="W24" s="9" t="n">
         <v>254300</v>
       </c>
-      <c r="W24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X24" s="9" t="s">
-        <v>247</v>
+      <c r="X24" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y24" s="9" t="s">
-        <v>87</v>
+        <v>249</v>
       </c>
       <c r="Z24" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA24" s="9" t="s">
-        <v>248</v>
+        <v>90</v>
       </c>
       <c r="AB24" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC24" s="14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AC24" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD24" s="14" t="n">
         <v>285370</v>
       </c>
-      <c r="AD24" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE24" s="9" t="n">
+      <c r="AE24" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF24" s="9" t="n">
         <v>279685</v>
       </c>
-      <c r="AF24" s="9" t="n">
+      <c r="AG24" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG24" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH24" s="9"/>
+      <c r="AH24" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI24" s="9"/>
-      <c r="AS24" s="11"/>
-      <c r="AT24" s="8"/>
-      <c r="AU24" s="11"/>
-      <c r="AX24" s="8"/>
-      <c r="BA24" s="8"/>
+      <c r="AJ24" s="9"/>
+      <c r="AT24" s="11"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="11"/>
+      <c r="AY24" s="8"/>
+      <c r="BB24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>1019</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2</v>
@@ -4402,91 +4439,94 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F25" s="14" t="n">
+        <v>252</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G25" s="14" t="n">
         <v>160</v>
       </c>
-      <c r="G25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="14" t="n">
+      <c r="H25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="14" t="n">
         <v>326237</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="R25" s="9" t="s">
+      <c r="K25" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="S25" s="1" t="n">
+      <c r="N25" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="T25" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V25" s="9" t="n">
+      <c r="W25" s="9" t="n">
         <v>150927</v>
       </c>
-      <c r="W25" s="9" t="n">
+      <c r="X25" s="9" t="n">
         <v>1.3</v>
       </c>
-      <c r="X25" s="9" t="s">
-        <v>254</v>
-      </c>
       <c r="Y25" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z25" s="9" t="s">
-        <v>88</v>
+        <v>257</v>
       </c>
       <c r="AA25" s="9" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="AB25" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC25" s="9" t="n">
+        <v>258</v>
+      </c>
+      <c r="AC25" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD25" s="9" t="n">
         <v>146119</v>
       </c>
-      <c r="AD25" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE25" s="9" t="n">
+      <c r="AE25" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF25" s="9" t="n">
         <v>279672</v>
       </c>
-      <c r="AF25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH25" s="9"/>
+      <c r="AG25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI25" s="9"/>
-      <c r="AS25" s="11"/>
-      <c r="AT25" s="8"/>
-      <c r="AU25" s="11"/>
-      <c r="AX25" s="8"/>
-      <c r="BA25" s="8"/>
+      <c r="AJ25" s="9"/>
+      <c r="AT25" s="11"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="11"/>
+      <c r="AY25" s="8"/>
+      <c r="BB25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>1020</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2</v>
@@ -4495,91 +4535,92 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F26" s="9" t="n">
+        <v>260</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="9" t="n">
         <v>70</v>
       </c>
-      <c r="G26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="9" t="n">
+      <c r="H26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="9" t="n">
         <v>326236</v>
       </c>
-      <c r="J26" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>259</v>
+      <c r="K26" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="R26" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="S26" s="1" t="n">
+      <c r="N26" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="T26" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V26" s="9" t="n">
+      <c r="W26" s="9" t="n">
         <v>181026</v>
       </c>
-      <c r="W26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X26" s="9" t="s">
-        <v>262</v>
+      <c r="X26" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y26" s="9" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
       <c r="Z26" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="9" t="s">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c r="AB26" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC26" s="14" t="n">
+        <v>265</v>
+      </c>
+      <c r="AC26" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD26" s="14" t="n">
         <v>144198</v>
       </c>
-      <c r="AD26" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE26" s="9" t="n">
+      <c r="AE26" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF26" s="9" t="n">
         <v>285283</v>
       </c>
-      <c r="AF26" s="9" t="n">
+      <c r="AG26" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AG26" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH26" s="9"/>
+      <c r="AH26" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI26" s="9"/>
-      <c r="AS26" s="11"/>
-      <c r="AT26" s="8"/>
-      <c r="AU26" s="11"/>
-      <c r="AX26" s="8"/>
-      <c r="BA26" s="8"/>
+      <c r="AJ26" s="9"/>
+      <c r="AT26" s="11"/>
+      <c r="AU26" s="8"/>
+      <c r="AV26" s="11"/>
+      <c r="AY26" s="8"/>
+      <c r="BB26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>1021</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2</v>
@@ -4588,88 +4629,91 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F27" s="14" t="n">
+        <v>267</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" s="14" t="n">
         <v>80</v>
       </c>
-      <c r="G27" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="14" t="n">
+      <c r="H27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="14" t="n">
         <v>326245</v>
       </c>
-      <c r="J27" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>223</v>
+      <c r="K27" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="S27" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="T27" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V27" s="9" t="n">
+      <c r="W27" s="9" t="n">
         <v>151069</v>
       </c>
-      <c r="W27" s="9" t="n">
+      <c r="X27" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="X27" s="9" t="s">
-        <v>268</v>
-      </c>
       <c r="Y27" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z27" s="9" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="AB27" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC27" s="9" t="n">
+        <v>271</v>
+      </c>
+      <c r="AC27" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD27" s="9" t="n">
         <v>281886</v>
       </c>
-      <c r="AD27" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE27" s="9" t="n">
+      <c r="AE27" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF27" s="9" t="n">
         <v>281763</v>
       </c>
-      <c r="AF27" s="9" t="n">
+      <c r="AG27" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG27" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH27" s="9"/>
+      <c r="AH27" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI27" s="9"/>
-      <c r="AS27" s="11"/>
-      <c r="AU27" s="11"/>
+      <c r="AJ27" s="9"/>
+      <c r="AT27" s="11"/>
+      <c r="AV27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>1022</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2</v>
@@ -4678,250 +4722,253 @@
         <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F28" s="14" t="n">
+        <v>273</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="G28" s="14" t="n">
+      <c r="H28" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="10" t="n">
+      <c r="I28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="10" t="n">
         <v>130536</v>
       </c>
-      <c r="J28" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>272</v>
+      <c r="K28" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="O28" s="12"/>
+        <v>274</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>275</v>
+      </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
-      <c r="R28" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="S28" s="1" t="n">
+      <c r="R28" s="12"/>
+      <c r="S28" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="T28" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V28" s="9" t="n">
+      <c r="W28" s="9" t="n">
         <v>200133</v>
       </c>
-      <c r="W28" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X28" s="9" t="s">
-        <v>274</v>
+      <c r="X28" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y28" s="9" t="s">
-        <v>186</v>
+        <v>276</v>
       </c>
       <c r="Z28" s="9" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="AB28" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="AC28" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AC28" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD28" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AD28" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE28" s="9" t="n">
+      <c r="AE28" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF28" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AF28" s="9" t="n">
+      <c r="AG28" s="9" t="n">
         <v>1.8</v>
       </c>
-      <c r="AG28" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH28" s="9"/>
+      <c r="AH28" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI28" s="9"/>
-      <c r="AS28" s="11"/>
-      <c r="AT28" s="8"/>
-      <c r="AU28" s="11"/>
-      <c r="AX28" s="8"/>
-      <c r="BA28" s="8"/>
+      <c r="AJ28" s="9"/>
+      <c r="AT28" s="11"/>
+      <c r="AU28" s="8"/>
+      <c r="AV28" s="11"/>
+      <c r="AY28" s="8"/>
+      <c r="BB28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
         <v>1023</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="F29" s="9" t="n">
+        <v>278</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="n">
         <v>150</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="H29" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9" t="n">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9" t="n">
         <v>129508</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>117</v>
+      <c r="K29" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="R29" s="9"/>
-      <c r="S29" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="S29" s="9"/>
+      <c r="T29" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" s="9" t="s">
-        <v>194</v>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AB29" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC29" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="AC29" s="9" t="s">
+        <v>280</v>
+      </c>
       <c r="AD29" s="9"/>
-      <c r="AE29" s="9" t="n">
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH29" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI29" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
         <v>1024</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="F30" s="9" t="n">
+        <v>281</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="n">
         <v>250</v>
       </c>
-      <c r="G30" s="9" t="n">
+      <c r="H30" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9" t="n">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9" t="n">
         <v>319126</v>
       </c>
-      <c r="J30" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>117</v>
+      <c r="K30" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="R30" s="9"/>
-      <c r="S30" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="S30" s="9"/>
+      <c r="T30" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X30" s="9" t="s">
-        <v>194</v>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y30" s="9" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="Z30" s="9" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="AA30" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AB30" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC30" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="AC30" s="9" t="s">
+        <v>283</v>
+      </c>
       <c r="AD30" s="9"/>
-      <c r="AE30" s="9" t="n">
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH30" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI30" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
         <v>1025</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C31" s="9" t="n">
         <v>3</v>
@@ -4930,86 +4977,89 @@
         <v>2</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F31" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G31" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="G31" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="9" t="n">
+      <c r="H31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" s="9" t="n">
         <v>326261</v>
       </c>
-      <c r="J31" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>81</v>
+      <c r="K31" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>283</v>
+        <v>83</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="R31" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="S31" s="1" t="n">
+      <c r="O31" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="T31" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V31" s="9" t="n">
+      <c r="W31" s="9" t="n">
         <v>151576</v>
       </c>
-      <c r="W31" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X31" s="9" t="s">
-        <v>286</v>
+      <c r="X31" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y31" s="9" t="s">
-        <v>132</v>
+        <v>288</v>
       </c>
       <c r="Z31" s="9" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="AA31" s="9" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="AB31" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC31" s="9" t="n">
+        <v>153</v>
+      </c>
+      <c r="AC31" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD31" s="9" t="n">
         <v>281788</v>
       </c>
-      <c r="AD31" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE31" s="9" t="n">
+      <c r="AE31" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF31" s="9" t="n">
         <v>268572</v>
       </c>
-      <c r="AF31" s="9" t="n">
+      <c r="AG31" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AG31" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH31" s="9"/>
+      <c r="AH31" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
         <v>1026</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C32" s="9" t="n">
         <v>3</v>
@@ -5018,86 +5068,89 @@
         <v>2</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F32" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G32" s="9" t="n">
         <v>210</v>
       </c>
-      <c r="G32" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I32" s="9" t="n">
+      <c r="H32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" s="9" t="n">
         <v>326270</v>
       </c>
-      <c r="J32" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>81</v>
+      <c r="K32" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>289</v>
+        <v>83</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="R32" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="S32" s="1" t="n">
+      <c r="O32" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="T32" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V32" s="9" t="n">
+      <c r="W32" s="9" t="n">
         <v>168944</v>
       </c>
-      <c r="W32" s="9" t="n">
+      <c r="X32" s="9" t="n">
         <v>0.3</v>
       </c>
-      <c r="X32" s="9" t="s">
-        <v>226</v>
-      </c>
       <c r="Y32" s="9" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="Z32" s="9" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="AA32" s="9" t="s">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="AB32" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC32" s="9" t="n">
+        <v>271</v>
+      </c>
+      <c r="AC32" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD32" s="9" t="n">
         <v>285400</v>
       </c>
-      <c r="AD32" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE32" s="9" t="n">
+      <c r="AE32" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF32" s="9" t="n">
         <v>85955</v>
       </c>
-      <c r="AF32" s="9" t="n">
+      <c r="AG32" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AG32" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH32" s="9"/>
+      <c r="AH32" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI32" s="9"/>
+      <c r="AJ32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
         <v>1027</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C33" s="9" t="n">
         <v>3</v>
@@ -5106,86 +5159,89 @@
         <v>1</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F33" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="G33" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I33" s="9" t="n">
+      <c r="H33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="9" t="n">
         <v>142127</v>
       </c>
-      <c r="J33" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>81</v>
+      <c r="K33" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="R33" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="S33" s="1" t="n">
+      <c r="O33" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="T33" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V33" s="9" t="n">
+      <c r="W33" s="9" t="n">
         <v>99608</v>
       </c>
-      <c r="W33" s="9" t="n">
+      <c r="X33" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="X33" s="9" t="s">
-        <v>297</v>
-      </c>
       <c r="Y33" s="9" t="s">
-        <v>174</v>
+        <v>299</v>
       </c>
       <c r="Z33" s="9" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="AA33" s="9" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="AB33" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="AC33" s="9" t="n">
+        <v>153</v>
+      </c>
+      <c r="AC33" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD33" s="9" t="n">
         <v>281710</v>
       </c>
-      <c r="AD33" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE33" s="9" t="n">
+      <c r="AE33" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF33" s="9" t="n">
         <v>80483</v>
       </c>
-      <c r="AF33" s="9" t="n">
+      <c r="AG33" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AG33" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH33" s="9"/>
+      <c r="AH33" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>1028</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C34" s="9" t="n">
         <v>3</v>
@@ -5194,76 +5250,79 @@
         <v>2</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="F34" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="G34" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="9" t="n">
+      <c r="H34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J34" s="9" t="n">
         <v>326264</v>
       </c>
-      <c r="J34" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>81</v>
+      <c r="K34" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="R34" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="S34" s="1" t="n">
+      <c r="O34" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="T34" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V34" s="1" t="n">
+      <c r="W34" s="1" t="n">
         <v>288335</v>
       </c>
-      <c r="W34" s="1" t="n">
+      <c r="X34" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="X34" s="9" t="s">
-        <v>303</v>
-      </c>
       <c r="Y34" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB34" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC34" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="AA34" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC34" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD34" s="1" t="n">
         <v>299561</v>
       </c>
-      <c r="AD34" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE34" s="1" t="n">
+      <c r="AE34" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF34" s="1" t="n">
         <v>117367</v>
       </c>
-      <c r="AF34" s="1" t="n">
+      <c r="AG34" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="AG34" s="9" t="s">
-        <v>92</v>
+      <c r="AH34" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,7 +5330,7 @@
         <v>1029</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C35" s="9" t="n">
         <v>3</v>
@@ -5280,82 +5339,82 @@
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F35" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="G35" s="1" t="n">
         <v>550</v>
       </c>
-      <c r="G35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I35" s="1" t="n">
+      <c r="H35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J35" s="1" t="n">
         <v>141968</v>
       </c>
-      <c r="J35" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>81</v>
+      <c r="K35" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q35" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="R35" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="S35" s="1" t="n">
+      <c r="O35" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="R35" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="T35" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="U35" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="V35" s="1" t="n">
+      <c r="V35" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="W35" s="1" t="n">
         <v>130642</v>
       </c>
-      <c r="W35" s="1" t="n">
+      <c r="X35" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="X35" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="Y35" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z35" s="9" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="AA35" s="9" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="AB35" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="AC35" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="AC35" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD35" s="1" t="n">
         <v>285356</v>
       </c>
-      <c r="AD35" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE35" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="AF35" s="1" t="n">
+      <c r="AE35" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF35" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AG35" s="9" t="s">
-        <v>92</v>
+      <c r="AH35" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5363,7 +5422,7 @@
         <v>1030</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C36" s="9" t="n">
         <v>3</v>
@@ -5372,82 +5431,85 @@
         <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="G36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I36" s="1" t="n">
+      <c r="H36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J36" s="1" t="n">
         <v>130042</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>81</v>
+      <c r="K36" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>313</v>
+        <v>83</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q36" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="R36" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="S36" s="1" t="n">
+      <c r="O36" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="R36" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="T36" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="U36" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="V36" s="1" t="n">
+      <c r="V36" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="W36" s="1" t="n">
         <v>254276</v>
       </c>
-      <c r="W36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X36" s="9" t="s">
-        <v>151</v>
+      <c r="X36" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="Y36" s="9" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="Z36" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA36" s="9" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="AB36" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC36" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="AC36" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD36" s="1" t="n">
         <v>20301</v>
       </c>
-      <c r="AD36" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE36" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="AF36" s="1" t="n">
+      <c r="AE36" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF36" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG36" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AG36" s="9" t="s">
-        <v>92</v>
+      <c r="AH36" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,7 +5517,7 @@
         <v>1031</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>4</v>
@@ -5464,76 +5526,79 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F37" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G37" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="G37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="1" t="n">
+      <c r="H37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" s="1" t="n">
         <v>136878</v>
       </c>
-      <c r="J37" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>81</v>
+      <c r="K37" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>320</v>
+        <v>83</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="R37" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="S37" s="1" t="n">
+      <c r="O37" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T37" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V37" s="1" t="n">
+      <c r="W37" s="1" t="n">
         <v>151562</v>
       </c>
-      <c r="W37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X37" s="9" t="s">
-        <v>323</v>
+      <c r="X37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>87</v>
+        <v>325</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC37" s="9" t="n">
+        <v>219</v>
+      </c>
+      <c r="AC37" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD37" s="9" t="n">
         <v>281710</v>
       </c>
-      <c r="AD37" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE37" s="9" t="n">
+      <c r="AE37" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF37" s="9" t="n">
         <v>80483</v>
       </c>
-      <c r="AF37" s="1" t="n">
+      <c r="AG37" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="AG37" s="9" t="s">
-        <v>92</v>
+      <c r="AH37" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5541,7 +5606,7 @@
         <v>1032</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>4</v>
@@ -5550,76 +5615,79 @@
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="G38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I38" s="1" t="n">
+      <c r="H38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" s="1" t="n">
         <v>62588</v>
       </c>
-      <c r="J38" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>81</v>
+      <c r="K38" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>326</v>
+        <v>83</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="R38" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="S38" s="1" t="n">
+      <c r="O38" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="T38" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V38" s="1" t="n">
+      <c r="W38" s="1" t="n">
         <v>271321</v>
       </c>
-      <c r="W38" s="1" t="n">
+      <c r="X38" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="X38" s="9" t="s">
-        <v>329</v>
-      </c>
       <c r="Y38" s="9" t="s">
-        <v>87</v>
+        <v>331</v>
       </c>
       <c r="Z38" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA38" s="9" t="s">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="AB38" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="AC38" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="AC38" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD38" s="1" t="n">
         <v>281871</v>
       </c>
-      <c r="AD38" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE38" s="1" t="n">
+      <c r="AE38" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF38" s="1" t="n">
         <v>268572</v>
       </c>
-      <c r="AF38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG38" s="9" t="s">
-        <v>92</v>
+      <c r="AG38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,7 +5695,7 @@
         <v>1033</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>4</v>
@@ -5636,76 +5704,79 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F39" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="G39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" s="1" t="n">
+      <c r="H39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J39" s="1" t="n">
         <v>326250</v>
       </c>
-      <c r="J39" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>81</v>
+      <c r="K39" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>332</v>
+        <v>83</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="R39" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="S39" s="1" t="n">
+      <c r="O39" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="T39" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V39" s="1" t="n">
+      <c r="W39" s="1" t="n">
         <v>29393</v>
       </c>
-      <c r="W39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X39" s="9" t="s">
-        <v>335</v>
+      <c r="X39" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="Y39" s="9" t="s">
-        <v>87</v>
+        <v>337</v>
       </c>
       <c r="Z39" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA39" s="9" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="AB39" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="AC39" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="AC39" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD39" s="1" t="n">
         <v>300932</v>
       </c>
-      <c r="AD39" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE39" s="1" t="n">
+      <c r="AE39" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF39" s="1" t="n">
         <v>285208</v>
       </c>
-      <c r="AF39" s="1" t="n">
+      <c r="AG39" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AG39" s="9" t="s">
-        <v>92</v>
+      <c r="AH39" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5713,7 +5784,7 @@
         <v>1034</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>4</v>
@@ -5722,76 +5793,76 @@
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F40" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="G40" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="G40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="1" t="n">
+      <c r="H40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" s="1" t="n">
         <v>326249</v>
       </c>
-      <c r="J40" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>81</v>
+      <c r="K40" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>338</v>
+        <v>83</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="R40" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="S40" s="1" t="n">
+      <c r="O40" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="T40" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V40" s="1" t="n">
+      <c r="W40" s="1" t="n">
         <v>107536</v>
       </c>
-      <c r="W40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X40" s="9" t="s">
-        <v>341</v>
+      <c r="X40" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="Y40" s="9" t="s">
-        <v>87</v>
+        <v>343</v>
       </c>
       <c r="Z40" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="9" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="AB40" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="AC40" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="AC40" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD40" s="1" t="n">
         <v>117391</v>
       </c>
-      <c r="AD40" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE40" s="1" t="n">
+      <c r="AE40" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF40" s="1" t="n">
         <v>285306</v>
       </c>
-      <c r="AF40" s="1" t="n">
+      <c r="AG40" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AG40" s="9" t="s">
-        <v>92</v>
+      <c r="AH40" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5799,7 +5870,7 @@
         <v>1035</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>4</v>
@@ -5808,76 +5879,79 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G41" s="1" t="n">
         <v>550</v>
       </c>
-      <c r="G41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" s="1" t="n">
+      <c r="H41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J41" s="1" t="n">
         <v>326243</v>
       </c>
-      <c r="J41" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>81</v>
+      <c r="K41" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="R41" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="S41" s="1" t="n">
+      <c r="O41" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="T41" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V41" s="1" t="n">
+      <c r="W41" s="1" t="n">
         <v>151568</v>
       </c>
-      <c r="W41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X41" s="9" t="s">
-        <v>347</v>
+      <c r="X41" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="Y41" s="9" t="s">
-        <v>255</v>
+        <v>349</v>
       </c>
       <c r="Z41" s="9" t="s">
-        <v>88</v>
+        <v>257</v>
       </c>
       <c r="AA41" s="9" t="s">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="AB41" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC41" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="AC41" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD41" s="1" t="n">
         <v>285445</v>
       </c>
-      <c r="AD41" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE41" s="21" t="n">
+      <c r="AE41" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF41" s="21" t="n">
         <v>269223</v>
       </c>
-      <c r="AF41" s="1" t="n">
+      <c r="AG41" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AG41" s="9" t="s">
-        <v>92</v>
+      <c r="AH41" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5885,73 +5959,73 @@
         <v>1036</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F42" s="9" t="n">
+        <v>352</v>
+      </c>
+      <c r="G42" s="9" t="n">
         <v>150</v>
       </c>
-      <c r="G42" s="9" t="n">
+      <c r="H42" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I42" s="1" t="n">
+      <c r="I42" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J42" s="1" t="n">
         <v>147047</v>
       </c>
-      <c r="J42" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>117</v>
+      <c r="K42" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="S42" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="T42" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="W42" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X42" s="9" t="s">
-        <v>194</v>
+      <c r="X42" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y42" s="9" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="Z42" s="9" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="AA42" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AB42" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE42" s="9" t="n">
+        <v>118</v>
+      </c>
+      <c r="AC42" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF42" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AG42" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH42" s="10" t="s">
-        <v>196</v>
+      <c r="AH42" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI42" s="10" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5959,7 +6033,7 @@
         <v>1037</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>5</v>
@@ -5968,76 +6042,76 @@
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F43" s="9" t="n">
+        <v>354</v>
+      </c>
+      <c r="G43" s="9" t="n">
         <v>150</v>
       </c>
-      <c r="G43" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I43" s="1" t="n">
+      <c r="H43" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J43" s="1" t="n">
         <v>326256</v>
       </c>
-      <c r="J43" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>81</v>
+      <c r="K43" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>353</v>
+        <v>83</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="R43" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="S43" s="1" t="n">
+      <c r="O43" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="T43" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V43" s="1" t="n">
+      <c r="W43" s="1" t="n">
         <v>164529</v>
       </c>
-      <c r="W43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X43" s="9" t="s">
-        <v>356</v>
+      <c r="X43" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>87</v>
+        <v>358</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="AB43" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC43" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="AC43" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD43" s="1" t="n">
         <v>279765</v>
       </c>
-      <c r="AD43" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE43" s="1" t="n">
+      <c r="AE43" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF43" s="1" t="n">
         <v>303167</v>
       </c>
-      <c r="AF43" s="1" t="n">
+      <c r="AG43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AG43" s="9" t="s">
-        <v>92</v>
+      <c r="AH43" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6045,7 +6119,7 @@
         <v>1038</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>5</v>
@@ -6054,76 +6128,76 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F44" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="G44" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="G44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I44" s="1" t="n">
+      <c r="H44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J44" s="1" t="n">
         <v>326273</v>
       </c>
-      <c r="J44" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>81</v>
+      <c r="K44" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>359</v>
+        <v>83</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="R44" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="S44" s="1" t="n">
+      <c r="O44" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="T44" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V44" s="1" t="n">
+      <c r="W44" s="1" t="n">
         <v>86362</v>
       </c>
-      <c r="W44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X44" s="9" t="s">
-        <v>362</v>
+      <c r="X44" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="Y44" s="9" t="s">
-        <v>87</v>
+        <v>364</v>
       </c>
       <c r="Z44" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA44" s="9" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="AB44" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC44" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="AC44" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD44" s="1" t="n">
         <v>85944</v>
       </c>
-      <c r="AD44" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE44" s="21" t="n">
+      <c r="AE44" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF44" s="21" t="n">
         <v>29747</v>
       </c>
-      <c r="AF44" s="1" t="n">
+      <c r="AG44" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="AG44" s="9" t="s">
-        <v>92</v>
+      <c r="AH44" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6131,7 +6205,7 @@
         <v>1039</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>5</v>
@@ -6140,76 +6214,79 @@
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F45" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="G45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I45" s="1" t="n">
+      <c r="H45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J45" s="1" t="n">
         <v>326255</v>
       </c>
-      <c r="J45" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>81</v>
+      <c r="K45" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>365</v>
+        <v>83</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="R45" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="S45" s="1" t="n">
+      <c r="O45" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="T45" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V45" s="1" t="n">
+      <c r="W45" s="1" t="n">
         <v>52946</v>
       </c>
-      <c r="W45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X45" s="9" t="s">
-        <v>368</v>
+      <c r="X45" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="Y45" s="9" t="s">
-        <v>132</v>
+        <v>370</v>
       </c>
       <c r="Z45" s="9" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="AA45" s="9" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="AB45" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC45" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="AC45" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD45" s="1" t="n">
         <v>326802</v>
       </c>
-      <c r="AD45" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE45" s="1" t="n">
+      <c r="AE45" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF45" s="1" t="n">
         <v>279742</v>
       </c>
-      <c r="AF45" s="1" t="n">
+      <c r="AG45" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AG45" s="9" t="s">
-        <v>92</v>
+      <c r="AH45" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6217,7 +6294,7 @@
         <v>1040</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>5</v>
@@ -6226,76 +6303,79 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F46" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="G46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I46" s="1" t="n">
+      <c r="H46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J46" s="1" t="n">
         <v>163718</v>
       </c>
-      <c r="J46" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>81</v>
+      <c r="K46" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>371</v>
+        <v>83</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="R46" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="S46" s="1" t="n">
+      <c r="O46" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T46" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V46" s="1" t="n">
+      <c r="W46" s="1" t="n">
         <v>85167</v>
       </c>
-      <c r="W46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X46" s="9" t="s">
-        <v>374</v>
+      <c r="X46" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="Y46" s="9" t="s">
-        <v>217</v>
+        <v>376</v>
       </c>
       <c r="Z46" s="9" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="AA46" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB46" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC46" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="AC46" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD46" s="1" t="n">
         <v>281871</v>
       </c>
-      <c r="AD46" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE46" s="1" t="n">
+      <c r="AE46" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF46" s="1" t="n">
         <v>268572</v>
       </c>
-      <c r="AF46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG46" s="9" t="s">
-        <v>92</v>
+      <c r="AG46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6303,85 +6383,85 @@
         <v>1041</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F47" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="G47" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I47" s="1" t="n">
+      <c r="H47" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J47" s="1" t="n">
         <v>37788</v>
       </c>
-      <c r="J47" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>81</v>
+      <c r="K47" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>353</v>
+        <v>183</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N47" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="T47" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="W47" s="1" t="n">
+        <v>164528</v>
+      </c>
+      <c r="X47" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y47" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z47" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA47" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB47" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC47" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="R47" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="S47" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="V47" s="1" t="n">
-        <v>164528</v>
-      </c>
-      <c r="W47" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X47" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y47" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z47" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA47" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB47" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC47" s="1" t="n">
+      <c r="AD47" s="1" t="n">
         <v>285673</v>
       </c>
-      <c r="AD47" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE47" s="1" t="n">
+      <c r="AE47" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF47" s="1" t="n">
         <v>268686</v>
       </c>
-      <c r="AF47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG47" s="9" t="s">
-        <v>92</v>
+      <c r="AG47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6389,7 +6469,7 @@
         <v>1042</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5</v>
@@ -6398,92 +6478,92 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F48" s="14" t="n">
+        <v>382</v>
+      </c>
+      <c r="G48" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="G48" s="14" t="n">
+      <c r="H48" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="H48" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I48" s="10" t="n">
+      <c r="I48" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J48" s="10" t="n">
         <v>130536</v>
       </c>
-      <c r="J48" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>181</v>
+      <c r="K48" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>353</v>
+        <v>183</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="O48" s="12"/>
+        <v>355</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>383</v>
+      </c>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="1" t="n">
+      <c r="R48" s="12"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V48" s="9" t="n">
+      <c r="W48" s="9" t="n">
         <v>200133</v>
       </c>
-      <c r="W48" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X48" s="9" t="s">
-        <v>382</v>
+      <c r="X48" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y48" s="9" t="s">
-        <v>87</v>
+        <v>384</v>
       </c>
       <c r="Z48" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA48" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB48" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC48" s="9" t="n">
+        <v>89</v>
+      </c>
+      <c r="AC48" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD48" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AD48" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE48" s="9" t="n">
+      <c r="AE48" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF48" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AF48" s="9" t="n">
+      <c r="AG48" s="9" t="n">
         <v>1.8</v>
       </c>
-      <c r="AG48" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH48" s="9"/>
+      <c r="AH48" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="AI48" s="9"/>
-      <c r="AS48" s="11"/>
-      <c r="AT48" s="8"/>
-      <c r="AU48" s="11"/>
-      <c r="AX48" s="8"/>
-      <c r="BA48" s="8"/>
+      <c r="AJ48" s="9"/>
+      <c r="AT48" s="11"/>
+      <c r="AU48" s="8"/>
+      <c r="AV48" s="11"/>
+      <c r="AY48" s="8"/>
+      <c r="BB48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>1043</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>6</v>
@@ -6492,76 +6572,79 @@
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F49" s="9" t="n">
+        <v>385</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G49" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="G49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I49" s="1" t="n">
+      <c r="H49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J49" s="1" t="n">
         <v>326277</v>
       </c>
-      <c r="J49" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>81</v>
+      <c r="K49" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>384</v>
+        <v>83</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="R49" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="S49" s="1" t="n">
+      <c r="O49" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="T49" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V49" s="10" t="n">
+      <c r="W49" s="10" t="n">
         <v>150923</v>
       </c>
-      <c r="W49" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X49" s="9" t="s">
-        <v>132</v>
+      <c r="X49" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="Y49" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Z49" s="9" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="AA49" s="9" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="AB49" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="AC49" s="9" t="n">
+        <v>153</v>
+      </c>
+      <c r="AC49" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD49" s="9" t="n">
         <v>303259</v>
       </c>
-      <c r="AD49" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE49" s="9" t="n">
+      <c r="AE49" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF49" s="9" t="n">
         <v>303247</v>
       </c>
-      <c r="AF49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG49" s="9" t="s">
-        <v>92</v>
+      <c r="AG49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH49" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6569,7 +6652,7 @@
         <v>1044</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>6</v>
@@ -6578,76 +6661,76 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F50" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="G50" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="G50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I50" s="1" t="n">
+      <c r="H50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J50" s="1" t="n">
         <v>326275</v>
       </c>
-      <c r="J50" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>81</v>
+      <c r="K50" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="R50" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="S50" s="1" t="n">
+      <c r="O50" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="T50" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V50" s="9" t="n">
+      <c r="W50" s="9" t="n">
         <v>130908</v>
       </c>
-      <c r="W50" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X50" s="9" t="s">
-        <v>132</v>
+      <c r="X50" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="Y50" s="9" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="Z50" s="9" t="s">
-        <v>88</v>
+        <v>257</v>
       </c>
       <c r="AA50" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB50" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="AC50" s="9" t="n">
+        <v>89</v>
+      </c>
+      <c r="AC50" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD50" s="9" t="n">
         <v>305224</v>
       </c>
-      <c r="AD50" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE50" s="9" t="n">
+      <c r="AE50" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF50" s="9" t="n">
         <v>284893</v>
       </c>
-      <c r="AF50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG50" s="9" t="s">
-        <v>92</v>
+      <c r="AG50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6655,7 +6738,7 @@
         <v>1045</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>6</v>
@@ -6664,76 +6747,79 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F51" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="G51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I51" s="1" t="n">
+      <c r="H51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J51" s="1" t="n">
         <v>326274</v>
       </c>
-      <c r="J51" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>81</v>
+      <c r="K51" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="R51" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="S51" s="1" t="n">
+      <c r="O51" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="T51" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V51" s="9" t="n">
+      <c r="W51" s="9" t="n">
         <v>150933</v>
       </c>
-      <c r="W51" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X51" s="9" t="s">
-        <v>397</v>
+      <c r="X51" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y51" s="9" t="s">
-        <v>87</v>
+        <v>399</v>
       </c>
       <c r="Z51" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA51" s="9" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="AB51" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="AC51" s="9" t="n">
+        <v>219</v>
+      </c>
+      <c r="AC51" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD51" s="9" t="n">
         <v>269209</v>
       </c>
-      <c r="AD51" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE51" s="9" t="n">
+      <c r="AE51" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF51" s="9" t="n">
         <v>20256</v>
       </c>
-      <c r="AF51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG51" s="9" t="s">
-        <v>92</v>
+      <c r="AG51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH51" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6741,7 +6827,7 @@
         <v>1046</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>6</v>
@@ -6750,76 +6836,79 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F52" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" s="1" t="n">
         <v>620</v>
       </c>
-      <c r="G52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I52" s="1" t="n">
+      <c r="H52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J52" s="1" t="n">
         <v>177786</v>
       </c>
-      <c r="J52" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>81</v>
+      <c r="K52" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>400</v>
+        <v>83</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="R52" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="S52" s="1" t="n">
+      <c r="O52" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="T52" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V52" s="9" t="n">
+      <c r="W52" s="9" t="n">
         <v>89088</v>
       </c>
-      <c r="W52" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X52" s="9" t="s">
-        <v>403</v>
+      <c r="X52" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y52" s="9" t="s">
-        <v>217</v>
+        <v>405</v>
       </c>
       <c r="Z52" s="9" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="AA52" s="9" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="AB52" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="AC52" s="9" t="n">
+        <v>153</v>
+      </c>
+      <c r="AC52" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="AD52" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AD52" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE52" s="9" t="n">
+      <c r="AE52" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF52" s="9" t="n">
         <v>291903</v>
       </c>
-      <c r="AF52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG52" s="9" t="s">
-        <v>92</v>
+      <c r="AG52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6827,88 +6916,88 @@
         <v>1047</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>6</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F53" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="G53" s="1" t="n">
         <v>700</v>
       </c>
-      <c r="G53" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I53" s="1" t="n">
+      <c r="H53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J53" s="1" t="n">
         <v>122181</v>
       </c>
-      <c r="J53" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>181</v>
+      <c r="K53" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>406</v>
+        <v>83</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="R53" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="S53" s="1" t="n">
+      <c r="O53" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="T53" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V53" s="8" t="n">
+      <c r="W53" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="W53" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X53" s="9" t="s">
-        <v>379</v>
+      <c r="X53" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y53" s="9" t="s">
-        <v>151</v>
+        <v>381</v>
       </c>
       <c r="Z53" s="9" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="AA53" s="9" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="AB53" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="AC53" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="AC53" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD53" s="1" t="n">
         <v>281795</v>
       </c>
-      <c r="AD53" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE53" s="1" t="n">
+      <c r="AE53" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF53" s="1" t="n">
         <v>81687</v>
       </c>
-      <c r="AF53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG53" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH53" s="10" t="s">
-        <v>196</v>
+      <c r="AG53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH53" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI53" s="10" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6916,7 +7005,7 @@
         <v>1048</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>6</v>
@@ -6925,76 +7014,76 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F54" s="14" t="n">
+        <v>382</v>
+      </c>
+      <c r="G54" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="G54" s="1" t="n">
+      <c r="H54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I54" s="1" t="n">
+      <c r="I54" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J54" s="1" t="n">
         <v>120753</v>
       </c>
-      <c r="J54" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="L54" s="10" t="s">
-        <v>272</v>
+      <c r="K54" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="N54" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="S54" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="T54" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V54" s="8" t="n">
+      <c r="W54" s="8" t="n">
         <v>107535</v>
       </c>
-      <c r="W54" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X54" s="9" t="s">
-        <v>274</v>
+      <c r="X54" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="Y54" s="9" t="s">
-        <v>186</v>
+        <v>276</v>
       </c>
       <c r="Z54" s="9" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="AA54" s="9" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="AB54" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="AC54" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AC54" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD54" s="9" t="n">
         <v>144183</v>
       </c>
-      <c r="AD54" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE54" s="9" t="n">
+      <c r="AE54" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF54" s="9" t="n">
         <v>20270</v>
       </c>
-      <c r="AF54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG54" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH54" s="10" t="s">
-        <v>196</v>
+      <c r="AG54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH54" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI54" s="10" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cos\Desktop\Software\editor031\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFE9647-7E74-4F02-BE6F-B6861B4AE417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFCFEB9-D053-40A9-9E97-1CAC1DDE9270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4534" yWindow="2700" windowWidth="18163" windowHeight="15814" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="448">
   <si>
     <t>int</t>
   </si>
@@ -877,12 +877,6 @@
     <t>2001|2002|2003</t>
   </si>
   <si>
-    <t>光龙男1</t>
-  </si>
-  <si>
-    <t>光龙娘1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1018,12 +1012,6 @@
     <t>20275|281753</t>
   </si>
   <si>
-    <t>光龙男2</t>
-  </si>
-  <si>
-    <t>光龙娘2</t>
-  </si>
-  <si>
     <t>80|120|200</t>
   </si>
   <si>
@@ -1086,9 +1074,6 @@
     <t>暖机光龙娘5</t>
   </si>
   <si>
-    <t>光龙娘5</t>
-  </si>
-  <si>
     <t>200|250|300</t>
   </si>
   <si>
@@ -1121,9 +1106,6 @@
   </si>
   <si>
     <t>1.7|1.7|1.7</t>
-  </si>
-  <si>
-    <t>增益光龙娘7</t>
   </si>
   <si>
     <r>
@@ -1368,9 +1350,6 @@
     <t>285517|281753</t>
   </si>
   <si>
-    <t>水龙男6</t>
-  </si>
-  <si>
     <t>300|400|520</t>
   </si>
   <si>
@@ -1479,12 +1458,6 @@
     <t>45|60|80</t>
   </si>
   <si>
-    <t>火龙男6</t>
-  </si>
-  <si>
-    <t>火龙娘6</t>
-  </si>
-  <si>
     <t>6992D1454962F1D5D06B77B19228941B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
   </si>
   <si>
@@ -1506,9 +1479,6 @@
     <t>32|40|60</t>
   </si>
   <si>
-    <t>木龙男2</t>
-  </si>
-  <si>
     <t>250|350|500</t>
   </si>
   <si>
@@ -1524,9 +1494,6 @@
     <t>60|100|160</t>
   </si>
   <si>
-    <t>木龙男3</t>
-  </si>
-  <si>
     <t>340|480|700</t>
   </si>
   <si>
@@ -1540,9 +1507,6 @@
   </si>
   <si>
     <t>90|120|160</t>
-  </si>
-  <si>
-    <t>木龙男4</t>
   </si>
   <si>
     <t>160|300|460</t>
@@ -1698,6 +1662,141 @@
   <si>
     <t>towerStrategy</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_name_13</t>
+  </si>
+  <si>
+    <t>Tower_name_14</t>
+  </si>
+  <si>
+    <t>Tower_name_15</t>
+  </si>
+  <si>
+    <t>Tower_name_16</t>
+  </si>
+  <si>
+    <t>Tower_name_17</t>
+  </si>
+  <si>
+    <t>Tower_name_18</t>
+  </si>
+  <si>
+    <t>Tower_name_19</t>
+  </si>
+  <si>
+    <t>Tower_name_20</t>
+  </si>
+  <si>
+    <t>Tower_name_21</t>
+  </si>
+  <si>
+    <t>Tower_name_22</t>
+  </si>
+  <si>
+    <t>Tower_name_23</t>
+  </si>
+  <si>
+    <t>Tower_name_24</t>
+  </si>
+  <si>
+    <t>Tower_name_25</t>
+  </si>
+  <si>
+    <t>Tower_name_26</t>
+  </si>
+  <si>
+    <t>Tower_name_27</t>
+  </si>
+  <si>
+    <t>Tower_name_28</t>
+  </si>
+  <si>
+    <t>Tower_name_29</t>
+  </si>
+  <si>
+    <t>Tower_name_30</t>
+  </si>
+  <si>
+    <t>Tower_name_31</t>
+  </si>
+  <si>
+    <t>Tower_name_32</t>
+  </si>
+  <si>
+    <t>Tower_name_33</t>
+  </si>
+  <si>
+    <t>Tower_name_34</t>
+  </si>
+  <si>
+    <t>Tower_name_35</t>
+  </si>
+  <si>
+    <t>Tower_name_36</t>
+  </si>
+  <si>
+    <t>Tower_name_37</t>
+  </si>
+  <si>
+    <t>Tower_name_38</t>
+  </si>
+  <si>
+    <t>Tower_name_39</t>
+  </si>
+  <si>
+    <t>Tower_name_40</t>
+  </si>
+  <si>
+    <t>Tower_name_41</t>
+  </si>
+  <si>
+    <t>Tower_name_42</t>
+  </si>
+  <si>
+    <t>Tower_name_43</t>
+  </si>
+  <si>
+    <t>Tower_name_44</t>
+  </si>
+  <si>
+    <t>Tower_name_45</t>
+  </si>
+  <si>
+    <t>Tower_name_46</t>
+  </si>
+  <si>
+    <t>Tower_name_47</t>
+  </si>
+  <si>
+    <t>Tower_name_48</t>
+  </si>
+  <si>
+    <t>Tower_name_49</t>
+  </si>
+  <si>
+    <t>Tower_name_50</t>
+  </si>
+  <si>
+    <t>光龙少1</t>
+  </si>
+  <si>
+    <t>光龙少2</t>
+  </si>
+  <si>
+    <t>水龙少6</t>
+  </si>
+  <si>
+    <t>火龙少6</t>
+  </si>
+  <si>
+    <t>木龙少2</t>
+  </si>
+  <si>
+    <t>木龙少3</t>
+  </si>
+  <si>
+    <t>木龙少4</t>
   </si>
 </sst>
 </file>
@@ -2118,58 +2217,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMS54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <selection pane="topRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="16.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.4609375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="13.3828125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.23046875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13.3828125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.84375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.4609375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.53515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="36.61328125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="13.4609375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.23046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="13.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="44.25" style="1" customWidth="1"/>
     <col min="16" max="19" width="54" style="1" customWidth="1"/>
-    <col min="20" max="20" width="19.61328125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.53515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.61328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="12.53515625" style="1"/>
+    <col min="20" max="20" width="19.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="12.5" style="1"/>
     <col min="25" max="29" width="18" style="1" customWidth="1"/>
     <col min="30" max="30" width="16" style="1" customWidth="1"/>
     <col min="31" max="31" width="18" style="1" customWidth="1"/>
     <col min="32" max="36" width="16" style="1" customWidth="1"/>
-    <col min="37" max="37" width="27.84375" style="1" customWidth="1"/>
-    <col min="38" max="38" width="117.84375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="46.4609375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="96.15234375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="36.23046875" style="1" customWidth="1"/>
-    <col min="42" max="42" width="64.23046875" style="1" customWidth="1"/>
-    <col min="43" max="43" width="36.61328125" style="1" customWidth="1"/>
-    <col min="44" max="44" width="15.61328125" style="1" customWidth="1"/>
-    <col min="45" max="45" width="22.15234375" style="1" customWidth="1"/>
-    <col min="46" max="46" width="27.23046875" style="2" customWidth="1"/>
+    <col min="37" max="37" width="27.875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="117.875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="46.5" style="1" customWidth="1"/>
+    <col min="40" max="40" width="96.125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="36.25" style="1" customWidth="1"/>
+    <col min="42" max="42" width="64.25" style="1" customWidth="1"/>
+    <col min="43" max="43" width="36.625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="15.625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="22.125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="27.25" style="2" customWidth="1"/>
     <col min="47" max="47" width="34" style="1" customWidth="1"/>
-    <col min="48" max="48" width="31.765625" style="2" customWidth="1"/>
-    <col min="49" max="49" width="19.84375" style="1" customWidth="1"/>
-    <col min="50" max="50" width="23.3828125" style="1" customWidth="1"/>
+    <col min="48" max="48" width="31.75" style="2" customWidth="1"/>
+    <col min="49" max="49" width="19.875" style="1" customWidth="1"/>
+    <col min="50" max="50" width="23.375" style="1" customWidth="1"/>
     <col min="51" max="51" width="16" style="1" customWidth="1"/>
-    <col min="52" max="53" width="12.53515625" style="1"/>
+    <col min="52" max="53" width="12.5" style="1"/>
     <col min="54" max="54" width="17" style="1" customWidth="1"/>
-    <col min="55" max="58" width="12.53515625" style="1"/>
-    <col min="59" max="59" width="15.765625" style="1" customWidth="1"/>
-    <col min="60" max="60" width="31.23046875" style="1" customWidth="1"/>
-    <col min="61" max="61" width="16.765625" style="1" customWidth="1"/>
-    <col min="62" max="62" width="18.765625" style="1" customWidth="1"/>
-    <col min="63" max="1033" width="12.53515625" style="1"/>
+    <col min="55" max="58" width="12.5" style="1"/>
+    <col min="59" max="59" width="15.75" style="1" customWidth="1"/>
+    <col min="60" max="60" width="31.25" style="1" customWidth="1"/>
+    <col min="61" max="61" width="16.75" style="1" customWidth="1"/>
+    <col min="62" max="62" width="18.75" style="1" customWidth="1"/>
+    <col min="63" max="1033" width="12.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:61" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2186,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
@@ -2228,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>2</v>
@@ -2304,7 +2404,7 @@
       <c r="BH1" s="3"/>
       <c r="BI1" s="3"/>
     </row>
-    <row r="2" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2321,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>11</v>
@@ -2439,7 +2539,7 @@
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
     </row>
-    <row r="3" spans="1:61" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:61" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -2450,19 +2550,19 @@
         <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>44</v>
@@ -2574,12 +2674,12 @@
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
@@ -2671,7 +2771,7 @@
       <c r="AY5" s="8"/>
       <c r="BB5" s="8"/>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
@@ -2758,7 +2858,7 @@
       <c r="AT6" s="11"/>
       <c r="AV6" s="11"/>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
@@ -2848,7 +2948,7 @@
       <c r="AY7" s="8"/>
       <c r="BB7" s="8"/>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
@@ -2935,7 +3035,7 @@
       <c r="AT8" s="11"/>
       <c r="AV8" s="11"/>
     </row>
-    <row r="9" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
@@ -3024,7 +3124,7 @@
       <c r="AI9" s="10"/>
       <c r="AJ9" s="10"/>
     </row>
-    <row r="10" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
@@ -3113,7 +3213,7 @@
       <c r="AI10" s="10"/>
       <c r="AJ10" s="10"/>
     </row>
-    <row r="11" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
@@ -3202,7 +3302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
@@ -3289,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
@@ -3378,7 +3478,7 @@
       <c r="AI13" s="10"/>
       <c r="AJ13" s="10"/>
     </row>
-    <row r="14" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
@@ -3467,7 +3567,7 @@
       <c r="AI14" s="10"/>
       <c r="AJ14" s="10"/>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2001</v>
       </c>
@@ -3546,7 +3646,7 @@
       <c r="AT15" s="11"/>
       <c r="AV15" s="11"/>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>3001</v>
       </c>
@@ -3619,12 +3719,12 @@
       <c r="AT16" s="11"/>
       <c r="AV16" s="11"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>1011</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>193</v>
+      <c r="B17" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -3633,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>194</v>
+        <v>441</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="13">
@@ -3649,25 +3749,25 @@
         <v>326244</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R17" s="1">
         <v>0.8</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T17" s="1">
         <v>16</v>
@@ -3679,7 +3779,7 @@
         <v>0.3</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Z17" s="9" t="s">
         <v>83</v>
@@ -3691,7 +3791,7 @@
         <v>83</v>
       </c>
       <c r="AC17" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AD17" s="9">
         <v>144183</v>
@@ -3716,12 +3816,12 @@
       <c r="AY17" s="8"/>
       <c r="BB17" s="8"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:54" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>1012</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>201</v>
+      <c r="B18" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -3730,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="9">
@@ -3746,22 +3846,22 @@
         <v>326244</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>77</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="S18" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="T18" s="1">
         <v>16</v>
@@ -3773,7 +3873,7 @@
         <v>1.5</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Z18" s="9" t="s">
         <v>83</v>
@@ -3785,7 +3885,7 @@
         <v>147</v>
       </c>
       <c r="AC18" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AD18" s="9">
         <v>284848</v>
@@ -3807,12 +3907,12 @@
       <c r="AT18" s="11"/>
       <c r="AV18" s="11"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:54" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="19">
         <v>1013</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>207</v>
+      <c r="B19" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -3820,8 +3920,8 @@
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>207</v>
+      <c r="E19" s="19" t="s">
+        <v>205</v>
       </c>
       <c r="F19" s="2">
         <v>9</v>
@@ -3839,31 +3939,31 @@
         <v>326267</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>77</v>
       </c>
       <c r="M19" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="R19" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="N19" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="O19" s="9" t="s">
+      <c r="S19" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="R19" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="T19" s="1">
         <v>16</v>
       </c>
       <c r="V19" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W19" s="9">
         <v>151551</v>
@@ -3875,16 +3975,16 @@
         <v>147</v>
       </c>
       <c r="Z19" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AA19" s="9" t="s">
         <v>84</v>
       </c>
       <c r="AB19" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AC19" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AD19" s="9">
         <v>144183</v>
@@ -3893,7 +3993,7 @@
         <v>173</v>
       </c>
       <c r="AF19" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AG19" s="9">
         <v>3</v>
@@ -3911,12 +4011,12 @@
       <c r="AY19" s="8"/>
       <c r="BB19" s="8"/>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:54" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>1014</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>217</v>
+      <c r="B20" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -3925,7 +4025,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>218</v>
+        <v>442</v>
       </c>
       <c r="F20" s="2">
         <v>7</v>
@@ -3943,22 +4043,22 @@
         <v>150576</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L20" s="18" t="s">
         <v>77</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="T20" s="1">
         <v>16</v>
@@ -3970,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="Y20" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Z20" s="9" t="s">
         <v>83</v>
@@ -3979,10 +4079,10 @@
         <v>84</v>
       </c>
       <c r="AB20" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AC20" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AD20" s="9">
         <v>144183</v>
@@ -4004,12 +4104,12 @@
       <c r="AT20" s="11"/>
       <c r="AV20" s="11"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:54" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A21" s="23">
         <v>1015</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>225</v>
+      <c r="B21" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -4017,8 +4117,8 @@
       <c r="D21" s="2">
         <v>3</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>226</v>
+      <c r="E21" s="23" t="s">
+        <v>221</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="13">
@@ -4032,7 +4132,7 @@
         <v>130536</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L21" s="18" t="s">
         <v>177</v>
@@ -4044,10 +4144,10 @@
         <v>179</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="T21" s="1">
         <v>16</v>
@@ -4096,12 +4196,12 @@
       <c r="AY21" s="8"/>
       <c r="BB21" s="8"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:54" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A22" s="23">
         <v>1016</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>229</v>
+      <c r="B22" s="6" t="s">
+        <v>408</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -4109,8 +4209,8 @@
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>230</v>
+      <c r="E22" s="23" t="s">
+        <v>225</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -4128,22 +4228,22 @@
         <v>326241</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L22" s="18" t="s">
         <v>77</v>
       </c>
       <c r="M22" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="T22" s="1">
         <v>16</v>
@@ -4155,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="Y22" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Z22" s="9" t="s">
         <v>83</v>
@@ -4167,7 +4267,7 @@
         <v>147</v>
       </c>
       <c r="AC22" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AD22" s="9">
         <v>122546</v>
@@ -4189,12 +4289,12 @@
       <c r="AT22" s="11"/>
       <c r="AV22" s="11"/>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:54" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A23" s="23">
         <v>1017</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>226</v>
+      <c r="B23" s="6" t="s">
+        <v>409</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -4203,7 +4303,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="24">
@@ -4217,7 +4317,7 @@
         <v>326271</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L23" s="27" t="s">
         <v>187</v>
@@ -4229,7 +4329,7 @@
         <v>188</v>
       </c>
       <c r="O23" s="29" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
@@ -4276,12 +4376,12 @@
       <c r="AY23" s="8"/>
       <c r="BB23" s="8"/>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:54" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1018</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>239</v>
+      <c r="B24" s="6" t="s">
+        <v>410</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
@@ -4290,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="9">
@@ -4306,22 +4406,22 @@
         <v>143689</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L24" s="18" t="s">
         <v>77</v>
       </c>
       <c r="M24" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="T24" s="1">
         <v>16</v>
@@ -4333,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="Y24" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Z24" s="9" t="s">
         <v>83</v>
@@ -4342,10 +4442,10 @@
         <v>84</v>
       </c>
       <c r="AB24" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AC24" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AD24" s="13">
         <v>285370</v>
@@ -4370,12 +4470,12 @@
       <c r="AY24" s="8"/>
       <c r="BB24" s="8"/>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>1019</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>246</v>
+      <c r="B25" s="6" t="s">
+        <v>411</v>
       </c>
       <c r="C25" s="2">
         <v>2</v>
@@ -4384,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F25" s="2">
         <v>7</v>
@@ -4402,22 +4502,22 @@
         <v>326237</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L25" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="T25" s="1">
         <v>16</v>
@@ -4429,19 +4529,19 @@
         <v>1.3</v>
       </c>
       <c r="Y25" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Z25" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AA25" s="9" t="s">
         <v>84</v>
       </c>
       <c r="AB25" s="9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AC25" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AD25" s="9">
         <v>146119</v>
@@ -4466,12 +4566,12 @@
       <c r="AY25" s="8"/>
       <c r="BB25" s="8"/>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1020</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>254</v>
+      <c r="B26" s="6" t="s">
+        <v>412</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
@@ -4480,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="9">
@@ -4496,22 +4596,22 @@
         <v>326236</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="T26" s="1">
         <v>16</v>
@@ -4523,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="Y26" s="9" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Z26" s="9" t="s">
         <v>83</v>
@@ -4532,10 +4632,10 @@
         <v>84</v>
       </c>
       <c r="AB26" s="9" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AC26" s="9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AD26" s="13">
         <v>144198</v>
@@ -4560,12 +4660,12 @@
       <c r="AY26" s="8"/>
       <c r="BB26" s="8"/>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>1021</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>261</v>
+      <c r="B27" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="C27" s="2">
         <v>2</v>
@@ -4574,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F27" s="2">
         <v>3</v>
@@ -4592,22 +4692,22 @@
         <v>326245</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L27" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="T27" s="1">
         <v>16</v>
@@ -4619,19 +4719,19 @@
         <v>0.5</v>
       </c>
       <c r="Y27" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Z27" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AA27" s="9" t="s">
         <v>84</v>
       </c>
       <c r="AB27" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AC27" s="9" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AD27" s="9">
         <v>281886</v>
@@ -4653,12 +4753,12 @@
       <c r="AT27" s="11"/>
       <c r="AV27" s="11"/>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1022</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>267</v>
+      <c r="B28" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
@@ -4667,7 +4767,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="13">
@@ -4683,25 +4783,25 @@
         <v>130536</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L28" s="9" t="s">
         <v>177</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="T28" s="1">
         <v>16</v>
@@ -4713,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="Y28" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Z28" s="9" t="s">
         <v>182</v>
@@ -4725,7 +4825,7 @@
         <v>84</v>
       </c>
       <c r="AC28" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AD28" s="9">
         <v>144183</v>
@@ -4750,12 +4850,12 @@
       <c r="AY28" s="8"/>
       <c r="BB28" s="8"/>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>1023</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>272</v>
+      <c r="B29" s="6" t="s">
+        <v>415</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
@@ -4764,7 +4864,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9">
@@ -4778,7 +4878,7 @@
         <v>129508</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L29" s="9" t="s">
         <v>187</v>
@@ -4790,7 +4890,7 @@
         <v>113</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="S29" s="9"/>
       <c r="T29" s="1">
@@ -4813,7 +4913,7 @@
         <v>112</v>
       </c>
       <c r="AC29" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AD29" s="9"/>
       <c r="AE29" s="9"/>
@@ -4829,12 +4929,12 @@
       </c>
       <c r="AJ29" s="9"/>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>1024</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>275</v>
+      <c r="B30" s="6" t="s">
+        <v>416</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
@@ -4843,7 +4943,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9">
@@ -4857,7 +4957,7 @@
         <v>319126</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>187</v>
@@ -4869,7 +4969,7 @@
         <v>113</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="S30" s="9"/>
       <c r="T30" s="1">
@@ -4892,7 +4992,7 @@
         <v>112</v>
       </c>
       <c r="AC30" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AD30" s="9"/>
       <c r="AE30" s="9"/>
@@ -4908,12 +5008,12 @@
       </c>
       <c r="AJ30" s="9"/>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>1025</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>278</v>
+      <c r="B31" s="6" t="s">
+        <v>417</v>
       </c>
       <c r="C31" s="9">
         <v>3</v>
@@ -4922,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F31" s="9">
         <v>9</v>
@@ -4940,22 +5040,22 @@
         <v>326261</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="T31" s="1">
         <v>16</v>
@@ -4967,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="Y31" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Z31" s="9" t="s">
         <v>128</v>
@@ -4979,7 +5079,7 @@
         <v>147</v>
       </c>
       <c r="AC31" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AD31" s="9">
         <v>281788</v>
@@ -4999,12 +5099,12 @@
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9"/>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>1026</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>284</v>
+      <c r="B32" s="6" t="s">
+        <v>418</v>
       </c>
       <c r="C32" s="9">
         <v>3</v>
@@ -5013,7 +5113,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F32" s="9">
         <v>7</v>
@@ -5031,22 +5131,22 @@
         <v>326270</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L32" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="T32" s="1">
         <v>16</v>
@@ -5058,7 +5158,7 @@
         <v>0.3</v>
       </c>
       <c r="Y32" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Z32" s="9" t="s">
         <v>170</v>
@@ -5067,10 +5167,10 @@
         <v>84</v>
       </c>
       <c r="AB32" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AC32" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AD32" s="9">
         <v>285400</v>
@@ -5090,12 +5190,12 @@
       <c r="AI32" s="9"/>
       <c r="AJ32" s="9"/>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>1027</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>289</v>
+      <c r="B33" s="6" t="s">
+        <v>419</v>
       </c>
       <c r="C33" s="9">
         <v>3</v>
@@ -5104,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F33" s="9">
         <v>2</v>
@@ -5122,22 +5222,22 @@
         <v>142127</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L33" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="T33" s="1">
         <v>16</v>
@@ -5149,7 +5249,7 @@
         <v>1.2</v>
       </c>
       <c r="Y33" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Z33" s="9" t="s">
         <v>170</v>
@@ -5161,7 +5261,7 @@
         <v>147</v>
       </c>
       <c r="AC33" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AD33" s="9">
         <v>281710</v>
@@ -5181,12 +5281,12 @@
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1028</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>295</v>
+      <c r="B34" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="C34" s="9">
         <v>3</v>
@@ -5195,7 +5295,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F34" s="9">
         <v>4</v>
@@ -5213,22 +5313,22 @@
         <v>326264</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L34" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="T34" s="1">
         <v>16</v>
@@ -5240,19 +5340,19 @@
         <v>0.5</v>
       </c>
       <c r="Y34" s="9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AA34" s="9" t="s">
         <v>84</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AC34" s="9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AD34" s="1">
         <v>299561</v>
@@ -5270,12 +5370,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A35" s="21">
         <v>1029</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>302</v>
+      <c r="B35" s="6" t="s">
+        <v>421</v>
       </c>
       <c r="C35" s="9">
         <v>3</v>
@@ -5283,8 +5383,8 @@
       <c r="D35" s="9">
         <v>2</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>302</v>
+      <c r="E35" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="G35" s="1">
         <v>550</v>
@@ -5299,31 +5399,31 @@
         <v>141968</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L35" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="R35" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="T35" s="1">
         <v>16</v>
       </c>
       <c r="V35" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W35" s="1">
         <v>130642</v>
@@ -5344,7 +5444,7 @@
         <v>147</v>
       </c>
       <c r="AC35" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AD35" s="1">
         <v>285356</v>
@@ -5353,7 +5453,7 @@
         <v>173</v>
       </c>
       <c r="AF35" s="21" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AG35" s="1">
         <v>2</v>
@@ -5362,12 +5462,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A36" s="21">
         <v>1030</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>308</v>
+      <c r="B36" s="6" t="s">
+        <v>422</v>
       </c>
       <c r="C36" s="9">
         <v>3</v>
@@ -5375,8 +5475,8 @@
       <c r="D36" s="9">
         <v>2</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>308</v>
+      <c r="E36" s="21" t="s">
+        <v>443</v>
       </c>
       <c r="F36" s="1">
         <v>2</v>
@@ -5394,31 +5494,31 @@
         <v>130042</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L36" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="R36" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="T36" s="1">
         <v>16</v>
       </c>
       <c r="V36" s="21" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="W36" s="1">
         <v>254276</v>
@@ -5439,7 +5539,7 @@
         <v>147</v>
       </c>
       <c r="AC36" s="9" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AD36" s="1">
         <v>20301</v>
@@ -5448,7 +5548,7 @@
         <v>173</v>
       </c>
       <c r="AF36" s="21" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AG36" s="1">
         <v>3</v>
@@ -5457,12 +5557,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1031</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>315</v>
+      <c r="B37" s="6" t="s">
+        <v>423</v>
       </c>
       <c r="C37" s="1">
         <v>4</v>
@@ -5471,7 +5571,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F37" s="1">
         <v>8</v>
@@ -5489,22 +5589,22 @@
         <v>136878</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L37" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="T37" s="1">
         <v>16</v>
@@ -5516,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Z37" s="9" t="s">
         <v>83</v>
@@ -5525,10 +5625,10 @@
         <v>84</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AD37" s="9">
         <v>281710</v>
@@ -5546,12 +5646,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1032</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>321</v>
+      <c r="B38" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
@@ -5560,7 +5660,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F38" s="1">
         <v>4</v>
@@ -5578,22 +5678,22 @@
         <v>62588</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L38" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="T38" s="1">
         <v>16</v>
@@ -5605,7 +5705,7 @@
         <v>0.8</v>
       </c>
       <c r="Y38" s="9" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="Z38" s="9" t="s">
         <v>83</v>
@@ -5614,10 +5714,10 @@
         <v>84</v>
       </c>
       <c r="AB38" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AC38" s="9" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AD38" s="1">
         <v>281871</v>
@@ -5635,12 +5735,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1033</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>327</v>
+      <c r="B39" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="C39" s="1">
         <v>4</v>
@@ -5649,7 +5749,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F39" s="1">
         <v>10</v>
@@ -5667,22 +5767,22 @@
         <v>326250</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L39" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="T39" s="1">
         <v>16</v>
@@ -5694,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="Y39" s="9" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="Z39" s="9" t="s">
         <v>83</v>
@@ -5706,7 +5806,7 @@
         <v>147</v>
       </c>
       <c r="AC39" s="9" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AD39" s="1">
         <v>300932</v>
@@ -5724,12 +5824,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1034</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>333</v>
+      <c r="B40" s="6" t="s">
+        <v>426</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
@@ -5738,7 +5838,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G40" s="1">
         <v>1500</v>
@@ -5753,22 +5853,22 @@
         <v>326249</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L40" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="T40" s="1">
         <v>16</v>
@@ -5780,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="Y40" s="9" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="Z40" s="9" t="s">
         <v>83</v>
@@ -5792,7 +5892,7 @@
         <v>147</v>
       </c>
       <c r="AC40" s="9" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AD40" s="1">
         <v>117391</v>
@@ -5810,12 +5910,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1035</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>339</v>
+      <c r="B41" s="6" t="s">
+        <v>427</v>
       </c>
       <c r="C41" s="1">
         <v>4</v>
@@ -5824,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F41" s="1">
         <v>6</v>
@@ -5842,22 +5942,22 @@
         <v>326243</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L41" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="T41" s="1">
         <v>16</v>
@@ -5869,19 +5969,19 @@
         <v>1</v>
       </c>
       <c r="Y41" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Z41" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AA41" s="9" t="s">
         <v>84</v>
       </c>
       <c r="AB41" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AC41" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AD41" s="1">
         <v>285445</v>
@@ -5899,12 +5999,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1036</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>345</v>
+      <c r="B42" s="6" t="s">
+        <v>428</v>
       </c>
       <c r="C42" s="1">
         <v>4</v>
@@ -5913,7 +6013,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>346</v>
+        <v>444</v>
       </c>
       <c r="G42" s="9">
         <v>150</v>
@@ -5928,7 +6028,7 @@
         <v>147047</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L42" s="9" t="s">
         <v>187</v>
@@ -5940,7 +6040,7 @@
         <v>113</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="T42" s="1">
         <v>16</v>
@@ -5961,7 +6061,7 @@
         <v>112</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AF42" s="9">
         <v>20270</v>
@@ -5973,12 +6073,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1037</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>348</v>
+      <c r="B43" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="C43" s="1">
         <v>5</v>
@@ -5987,7 +6087,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G43" s="9">
         <v>150</v>
@@ -6002,22 +6102,22 @@
         <v>326256</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L43" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="T43" s="1">
         <v>16</v>
@@ -6029,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="Z43" s="9" t="s">
         <v>83</v>
@@ -6038,10 +6138,10 @@
         <v>84</v>
       </c>
       <c r="AB43" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AC43" s="9" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="AD43" s="1">
         <v>279765</v>
@@ -6059,12 +6159,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1038</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>354</v>
+      <c r="B44" s="6" t="s">
+        <v>430</v>
       </c>
       <c r="C44" s="1">
         <v>5</v>
@@ -6073,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>354</v>
+        <v>445</v>
       </c>
       <c r="G44" s="1">
         <v>250</v>
@@ -6088,22 +6188,22 @@
         <v>326273</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="T44" s="1">
         <v>16</v>
@@ -6115,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="9" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="Z44" s="9" t="s">
         <v>83</v>
@@ -6124,10 +6224,10 @@
         <v>84</v>
       </c>
       <c r="AB44" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AC44" s="9" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="AD44" s="1">
         <v>85944</v>
@@ -6145,12 +6245,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1039</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>360</v>
+      <c r="B45" s="6" t="s">
+        <v>431</v>
       </c>
       <c r="C45" s="1">
         <v>5</v>
@@ -6159,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>360</v>
+        <v>446</v>
       </c>
       <c r="F45" s="1">
         <v>3</v>
@@ -6177,22 +6277,22 @@
         <v>326255</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L45" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="T45" s="1">
         <v>16</v>
@@ -6204,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="Y45" s="9" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="Z45" s="9" t="s">
         <v>128</v>
@@ -6216,7 +6316,7 @@
         <v>147</v>
       </c>
       <c r="AC45" s="9" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="AD45" s="1">
         <v>326802</v>
@@ -6234,12 +6334,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1040</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>366</v>
+      <c r="B46" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="C46" s="1">
         <v>5</v>
@@ -6248,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>366</v>
+        <v>447</v>
       </c>
       <c r="F46" s="1">
         <v>6</v>
@@ -6266,22 +6366,22 @@
         <v>163718</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L46" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="T46" s="1">
         <v>16</v>
@@ -6293,10 +6393,10 @@
         <v>1</v>
       </c>
       <c r="Y46" s="9" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="Z46" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AA46" s="9" t="s">
         <v>84</v>
@@ -6305,7 +6405,7 @@
         <v>83</v>
       </c>
       <c r="AC46" s="9" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AD46" s="1">
         <v>281871</v>
@@ -6323,12 +6423,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1041</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>372</v>
+      <c r="B47" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="C47" s="1">
         <v>5</v>
@@ -6337,7 +6437,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="G47" s="1">
         <v>100</v>
@@ -6352,22 +6452,22 @@
         <v>37788</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L47" s="9" t="s">
         <v>177</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="T47" s="1">
         <v>16</v>
@@ -6379,7 +6479,7 @@
         <v>0.6</v>
       </c>
       <c r="Y47" s="9" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="Z47" s="9" t="s">
         <v>83</v>
@@ -6391,7 +6491,7 @@
         <v>83</v>
       </c>
       <c r="AC47" s="9" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AD47" s="1">
         <v>285673</v>
@@ -6409,12 +6509,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>1042</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>376</v>
+      <c r="B48" s="6" t="s">
+        <v>434</v>
       </c>
       <c r="C48" s="2">
         <v>5</v>
@@ -6423,7 +6523,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G48" s="13">
         <v>100</v>
@@ -6438,19 +6538,19 @@
         <v>130536</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L48" s="9" t="s">
         <v>177</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
@@ -6466,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="Y48" s="9" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="Z48" s="9" t="s">
         <v>83</v>
@@ -6478,7 +6578,7 @@
         <v>83</v>
       </c>
       <c r="AC48" s="9" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AD48" s="9">
         <v>144183</v>
@@ -6503,12 +6603,12 @@
       <c r="AY48" s="8"/>
       <c r="BB48" s="8"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>1043</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>379</v>
+      <c r="B49" s="6" t="s">
+        <v>435</v>
       </c>
       <c r="C49" s="1">
         <v>6</v>
@@ -6517,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F49" s="1">
         <v>5</v>
@@ -6535,22 +6635,22 @@
         <v>326277</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L49" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="T49" s="1">
         <v>16</v>
@@ -6574,7 +6674,7 @@
         <v>147</v>
       </c>
       <c r="AC49" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AD49" s="9">
         <v>303259</v>
@@ -6592,12 +6692,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>1044</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>384</v>
+      <c r="B50" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="C50" s="1">
         <v>6</v>
@@ -6606,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G50" s="1">
         <v>350</v>
@@ -6621,22 +6721,22 @@
         <v>326275</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L50" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="T50" s="1">
         <v>16</v>
@@ -6651,7 +6751,7 @@
         <v>128</v>
       </c>
       <c r="Z50" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AA50" s="9" t="s">
         <v>84</v>
@@ -6660,7 +6760,7 @@
         <v>83</v>
       </c>
       <c r="AC50" s="9" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="AD50" s="9">
         <v>305224</v>
@@ -6678,12 +6778,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>1045</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>389</v>
+      <c r="B51" s="6" t="s">
+        <v>437</v>
       </c>
       <c r="C51" s="1">
         <v>6</v>
@@ -6692,7 +6792,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F51" s="1">
         <v>3</v>
@@ -6710,22 +6810,22 @@
         <v>326274</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L51" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="T51" s="1">
         <v>16</v>
@@ -6737,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="Y51" s="9" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="Z51" s="9" t="s">
         <v>83</v>
@@ -6746,10 +6846,10 @@
         <v>84</v>
       </c>
       <c r="AB51" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AC51" s="9" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="AD51" s="9">
         <v>269209</v>
@@ -6767,12 +6867,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>1046</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>395</v>
+      <c r="B52" s="6" t="s">
+        <v>438</v>
       </c>
       <c r="C52" s="1">
         <v>6</v>
@@ -6781,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F52" s="1">
         <v>6</v>
@@ -6799,22 +6899,22 @@
         <v>177786</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L52" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="T52" s="1">
         <v>16</v>
@@ -6826,10 +6926,10 @@
         <v>1</v>
       </c>
       <c r="Y52" s="9" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="Z52" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AA52" s="9" t="s">
         <v>84</v>
@@ -6838,7 +6938,7 @@
         <v>147</v>
       </c>
       <c r="AC52" s="9" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="AD52" s="9">
         <v>144183</v>
@@ -6856,12 +6956,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>1047</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>401</v>
+      <c r="B53" s="6" t="s">
+        <v>439</v>
       </c>
       <c r="C53" s="1">
         <v>6</v>
@@ -6870,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="G53" s="1">
         <v>700</v>
@@ -6885,22 +6985,22 @@
         <v>122181</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L53" s="9" t="s">
         <v>77</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="T53" s="1">
         <v>16</v>
@@ -6912,7 +7012,7 @@
         <v>1</v>
       </c>
       <c r="Y53" s="9" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="Z53" s="9" t="s">
         <v>147</v>
@@ -6924,7 +7024,7 @@
         <v>147</v>
       </c>
       <c r="AC53" s="9" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="AD53" s="1">
         <v>281795</v>
@@ -6945,12 +7045,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>1048</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>406</v>
+      <c r="B54" s="6" t="s">
+        <v>440</v>
       </c>
       <c r="C54" s="1">
         <v>6</v>
@@ -6959,7 +7059,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="G54" s="13">
         <v>100</v>
@@ -6974,19 +7074,19 @@
         <v>120753</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L54" s="9" t="s">
         <v>177</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="T54" s="1">
         <v>16</v>
@@ -6998,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="Y54" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Z54" s="9" t="s">
         <v>182</v>
@@ -7010,7 +7110,7 @@
         <v>84</v>
       </c>
       <c r="AC54" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AD54" s="9">
         <v>144183</v>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6554E7-AF88-44FB-BB24-F70F77D7EC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11655" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -290,6 +296,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Tower_attackTags_1</t>
@@ -299,6 +306,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -308,6 +316,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Tower_attackTags_2</t>
@@ -317,6 +326,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -326,6 +336,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Tower_attackTags_3</t>
@@ -335,6 +346,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -344,6 +356,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Tower_attackTags_4</t>
@@ -550,6 +563,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Tower_attackTags_1</t>
@@ -559,6 +573,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -568,6 +583,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Tower_attackTags_2</t>
@@ -577,6 +593,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -586,6 +603,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Tower_attackTags_5</t>
@@ -595,6 +613,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -604,6 +623,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Tower_attackTags_4</t>
@@ -642,6 +662,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Tower_attackTags_1</t>
@@ -651,6 +672,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -660,6 +682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Tower_attackTags_2</t>
@@ -669,6 +692,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -678,6 +702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Tower_attackTags_6</t>
@@ -687,6 +712,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -696,6 +722,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Tower_attackTags_4</t>
@@ -776,6 +803,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Tower_attackTags_7</t>
@@ -785,6 +813,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -794,6 +823,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Tower_attackTags_8</t>
@@ -832,6 +862,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Tower_attackTags_9</t>
@@ -841,6 +872,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -850,6 +882,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Tower_attackTags_10</t>
@@ -996,6 +1029,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>200|250|300</t>
@@ -1005,6 +1039,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1629,14 +1664,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -1646,6 +1675,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1653,178 +1683,37 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DejaVu Sans"/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DejaVu Sans"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DejaVu Sans"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DejaVu Sans"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DejaVu Sans"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DejaVu Sans"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1849,194 +1738,8 @@
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2070,251 +1773,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2377,57 +1838,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -2501,6 +1915,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2558,7 +1975,7 @@
         <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2609,26 +2026,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BI54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMS54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
     <col min="3" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.875" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="2" customWidth="1"/>
@@ -2670,7 +2086,7 @@
     <col min="63" max="1033" width="12.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1" spans="1:61">
+    <row r="1" spans="1:61" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2805,7 +2221,7 @@
       <c r="BH1" s="3"/>
       <c r="BI1" s="3"/>
     </row>
-    <row r="2" ht="24.75" customHeight="1" spans="1:61">
+    <row r="2" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2940,7 +2356,7 @@
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
     </row>
-    <row r="3" ht="95.25" customHeight="1" spans="1:61">
+    <row r="3" spans="1:61" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -3075,12 +2491,12 @@
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -3172,7 +2588,7 @@
       <c r="AY5" s="16"/>
       <c r="BB5" s="16"/>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
@@ -3259,7 +2675,7 @@
       <c r="AT6" s="24"/>
       <c r="AV6" s="24"/>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
@@ -3349,7 +2765,7 @@
       <c r="AY7" s="16"/>
       <c r="BB7" s="16"/>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
@@ -3436,7 +2852,7 @@
       <c r="AT8" s="24"/>
       <c r="AV8" s="24"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:36">
+    <row r="9" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
@@ -3525,7 +2941,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:36">
+    <row r="10" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
@@ -3614,7 +3030,7 @@
       <c r="AI10" s="16"/>
       <c r="AJ10" s="16"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:36">
+    <row r="11" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
@@ -3703,7 +3119,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:36">
+    <row r="12" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
@@ -3790,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:36">
+    <row r="13" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
@@ -3879,7 +3295,7 @@
       <c r="AI13" s="16"/>
       <c r="AJ13" s="16"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:36">
+    <row r="14" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
@@ -3968,7 +3384,7 @@
       <c r="AI14" s="16"/>
       <c r="AJ14" s="16"/>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2001</v>
       </c>
@@ -4046,7 +3462,7 @@
       <c r="AT15" s="24"/>
       <c r="AV15" s="24"/>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>3001</v>
       </c>
@@ -4118,7 +3534,7 @@
       <c r="AT16" s="24"/>
       <c r="AV16" s="24"/>
     </row>
-    <row r="17" spans="1:54">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1011</v>
       </c>
@@ -4213,7 +3629,7 @@
       <c r="AY17" s="16"/>
       <c r="BB17" s="16"/>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:54" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1012</v>
       </c>
@@ -4302,7 +3718,7 @@
       <c r="AT18" s="24"/>
       <c r="AV18" s="24"/>
     </row>
-    <row r="19" spans="1:54">
+    <row r="19" spans="1:54" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>1013</v>
       </c>
@@ -4408,7 +3824,7 @@
       <c r="AY19" s="16"/>
       <c r="BB19" s="16"/>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:54" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1014</v>
       </c>
@@ -4499,7 +3915,7 @@
       <c r="AT20" s="24"/>
       <c r="AV20" s="24"/>
     </row>
-    <row r="21" spans="1:54">
+    <row r="21" spans="1:54" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>1015</v>
       </c>
@@ -4589,7 +4005,7 @@
       <c r="AY21" s="16"/>
       <c r="BB21" s="16"/>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:54" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>1016</v>
       </c>
@@ -4680,7 +4096,7 @@
       <c r="AT22" s="24"/>
       <c r="AV22" s="24"/>
     </row>
-    <row r="23" spans="1:54">
+    <row r="23" spans="1:54" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>1017</v>
       </c>
@@ -4761,7 +4177,7 @@
       <c r="AY23" s="16"/>
       <c r="BB23" s="16"/>
     </row>
-    <row r="24" spans="1:54">
+    <row r="24" spans="1:54" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1018</v>
       </c>
@@ -4853,7 +4269,7 @@
       <c r="AY24" s="16"/>
       <c r="BB24" s="16"/>
     </row>
-    <row r="25" spans="1:54">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1019</v>
       </c>
@@ -4947,7 +4363,7 @@
       <c r="AY25" s="16"/>
       <c r="BB25" s="16"/>
     </row>
-    <row r="26" spans="1:54">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1020</v>
       </c>
@@ -5039,7 +4455,7 @@
       <c r="AY26" s="16"/>
       <c r="BB26" s="16"/>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1021</v>
       </c>
@@ -5130,7 +4546,7 @@
       <c r="AT27" s="24"/>
       <c r="AV27" s="24"/>
     </row>
-    <row r="28" spans="1:54">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1022</v>
       </c>
@@ -5225,7 +4641,7 @@
       <c r="AY28" s="16"/>
       <c r="BB28" s="16"/>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1023</v>
       </c>
@@ -5296,7 +4712,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1024</v>
       </c>
@@ -5367,7 +4783,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>1025</v>
       </c>
@@ -5456,7 +4872,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>1026</v>
       </c>
@@ -5545,7 +4961,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>1027</v>
       </c>
@@ -5634,7 +5050,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>1028</v>
       </c>
@@ -5723,7 +5139,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>1029</v>
       </c>
@@ -5815,7 +5231,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>1030</v>
       </c>
@@ -5910,7 +5326,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>1031</v>
       </c>
@@ -5999,7 +5415,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>1032</v>
       </c>
@@ -6088,7 +5504,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>1033</v>
       </c>
@@ -6177,7 +5593,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>1034</v>
       </c>
@@ -6263,7 +5679,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>1035</v>
       </c>
@@ -6352,7 +5768,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>1036</v>
       </c>
@@ -6426,7 +5842,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>1037</v>
       </c>
@@ -6512,7 +5928,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>1038</v>
       </c>
@@ -6598,7 +6014,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>1039</v>
       </c>
@@ -6687,7 +6103,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>1040</v>
       </c>
@@ -6776,7 +6192,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>1041</v>
       </c>
@@ -6862,7 +6278,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:54">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1042</v>
       </c>
@@ -6953,7 +6369,7 @@
       <c r="AY48" s="16"/>
       <c r="BB48" s="16"/>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1043</v>
       </c>
@@ -7042,7 +6458,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1044</v>
       </c>
@@ -7128,7 +6544,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1045</v>
       </c>
@@ -7217,7 +6633,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1046</v>
       </c>
@@ -7306,7 +6722,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1047</v>
       </c>
@@ -7395,7 +6811,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>1048</v>
       </c>
@@ -7482,8 +6898,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="445">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -900,58 +900,61 @@
     <t xml:space="preserve">光龙少1</t>
   </si>
   <si>
+    <t xml:space="preserve">Tower_attackTags_1|Tower_attackTags_2|Tower_attackTags_3|Tower_attackTags_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">60|100|200</t>
   </si>
   <si>
     <t xml:space="preserve">09E82E72488ED6F749BA99A256F1792F</t>
   </si>
   <si>
+    <t xml:space="preserve">E8DF061043359EE84F60AEAAB3D3A68A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58|108|128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower_name_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光龙娘4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600|700|800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88A9134443C169D1D86DE4A68690D295|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC07D30340D3F7222F7D498025208100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3|3|2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000|1250|1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower_name_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光龙娘3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550|600|650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B06787054CADB7A7F6D7119045051E1E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
     <t xml:space="preserve">1000|500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E8DF061043359EE84F60AEAAB3D3A68A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48|0.48|0.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58|68|78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3|1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光龙娘4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600|700|800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88A9134443C169D1D86DE4A68690D295|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC07D30340D3F7222F7D498025208100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3|3|2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000|1250|1500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光龙娘3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">550|600|650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B06787054CADB7A7F6D7119045051E1E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
   </si>
   <si>
     <t xml:space="preserve">D4B7264E42074A814EA43BA7906BBEE7</t>
@@ -1418,9 +1421,6 @@
   </si>
   <si>
     <t xml:space="preserve">16F273444522747F516CA88B9469B2E7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5|0.5|0.5</t>
   </si>
   <si>
     <t xml:space="preserve">45|60|80</t>
@@ -1719,7 +1719,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1730,6 +1730,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
     <fill>
@@ -1793,104 +1799,152 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1927,7 +1981,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -2077,12 +2131,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BI54"/>
+  <dimension ref="A1:AMS54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="17:17"/>
+      <selection pane="topRight" activeCell="O29" activeCellId="0" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3579,198 +3633,2204 @@
       <c r="AT16" s="9"/>
       <c r="AV16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="n">
         <v>1011</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="C17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="10" t="n">
+      <c r="F17" s="11"/>
+      <c r="G17" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="H17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10" t="s">
+      <c r="H17" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="J17" s="10" t="n">
+      <c r="J17" s="13" t="n">
         <v>326244</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="1" t="s">
+      <c r="K17" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="L17" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="P17" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="15" t="n">
+        <v>200</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="T17" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="17" t="n">
+        <v>168944</v>
+      </c>
+      <c r="X17" s="17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y17" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA17" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC17" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD17" s="15" t="n">
+        <v>144183</v>
+      </c>
+      <c r="AE17" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF17" s="15" t="n">
+        <v>279719</v>
+      </c>
+      <c r="AG17" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH17" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="18"/>
+      <c r="AU17" s="17"/>
+      <c r="AV17" s="18"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="17"/>
+      <c r="AZ17" s="15"/>
+      <c r="BA17" s="15"/>
+      <c r="BB17" s="17"/>
+      <c r="BC17" s="15"/>
+      <c r="BD17" s="15"/>
+      <c r="BE17" s="15"/>
+      <c r="BF17" s="15"/>
+      <c r="BG17" s="15"/>
+      <c r="BH17" s="15"/>
+      <c r="BI17" s="15"/>
+      <c r="BJ17" s="15"/>
+      <c r="BK17" s="15"/>
+      <c r="BL17" s="15"/>
+      <c r="BM17" s="15"/>
+      <c r="BN17" s="15"/>
+      <c r="BO17" s="15"/>
+      <c r="BP17" s="15"/>
+      <c r="BQ17" s="15"/>
+      <c r="BR17" s="15"/>
+      <c r="BS17" s="15"/>
+      <c r="BT17" s="15"/>
+      <c r="BU17" s="15"/>
+      <c r="BV17" s="15"/>
+      <c r="BW17" s="15"/>
+      <c r="BX17" s="15"/>
+      <c r="BY17" s="15"/>
+      <c r="BZ17" s="15"/>
+      <c r="CA17" s="15"/>
+      <c r="CB17" s="15"/>
+      <c r="CC17" s="15"/>
+      <c r="CD17" s="15"/>
+      <c r="CE17" s="15"/>
+      <c r="CF17" s="15"/>
+      <c r="CG17" s="15"/>
+      <c r="CH17" s="15"/>
+      <c r="CI17" s="15"/>
+      <c r="CJ17" s="15"/>
+      <c r="CK17" s="15"/>
+      <c r="CL17" s="15"/>
+      <c r="CM17" s="15"/>
+      <c r="CN17" s="15"/>
+      <c r="CO17" s="15"/>
+      <c r="CP17" s="15"/>
+      <c r="CQ17" s="15"/>
+      <c r="CR17" s="15"/>
+      <c r="CS17" s="15"/>
+      <c r="CT17" s="15"/>
+      <c r="CU17" s="15"/>
+      <c r="CV17" s="15"/>
+      <c r="CW17" s="15"/>
+      <c r="CX17" s="15"/>
+      <c r="CY17" s="15"/>
+      <c r="CZ17" s="15"/>
+      <c r="DA17" s="15"/>
+      <c r="DB17" s="15"/>
+      <c r="DC17" s="15"/>
+      <c r="DD17" s="15"/>
+      <c r="DE17" s="15"/>
+      <c r="DF17" s="15"/>
+      <c r="DG17" s="15"/>
+      <c r="DH17" s="15"/>
+      <c r="DI17" s="15"/>
+      <c r="DJ17" s="15"/>
+      <c r="DK17" s="15"/>
+      <c r="DL17" s="15"/>
+      <c r="DM17" s="15"/>
+      <c r="DN17" s="15"/>
+      <c r="DO17" s="15"/>
+      <c r="DP17" s="15"/>
+      <c r="DQ17" s="15"/>
+      <c r="DR17" s="15"/>
+      <c r="DS17" s="15"/>
+      <c r="DT17" s="15"/>
+      <c r="DU17" s="15"/>
+      <c r="DV17" s="15"/>
+      <c r="DW17" s="15"/>
+      <c r="DX17" s="15"/>
+      <c r="DY17" s="15"/>
+      <c r="DZ17" s="15"/>
+      <c r="EA17" s="15"/>
+      <c r="EB17" s="15"/>
+      <c r="EC17" s="15"/>
+      <c r="ED17" s="15"/>
+      <c r="EE17" s="15"/>
+      <c r="EF17" s="15"/>
+      <c r="EG17" s="15"/>
+      <c r="EH17" s="15"/>
+      <c r="EI17" s="15"/>
+      <c r="EJ17" s="15"/>
+      <c r="EK17" s="15"/>
+      <c r="EL17" s="15"/>
+      <c r="EM17" s="15"/>
+      <c r="EN17" s="15"/>
+      <c r="EO17" s="15"/>
+      <c r="EP17" s="15"/>
+      <c r="EQ17" s="15"/>
+      <c r="ER17" s="15"/>
+      <c r="ES17" s="15"/>
+      <c r="ET17" s="15"/>
+      <c r="EU17" s="15"/>
+      <c r="EV17" s="15"/>
+      <c r="EW17" s="15"/>
+      <c r="EX17" s="15"/>
+      <c r="EY17" s="15"/>
+      <c r="EZ17" s="15"/>
+      <c r="FA17" s="15"/>
+      <c r="FB17" s="15"/>
+      <c r="FC17" s="15"/>
+      <c r="FD17" s="15"/>
+      <c r="FE17" s="15"/>
+      <c r="FF17" s="15"/>
+      <c r="FG17" s="15"/>
+      <c r="FH17" s="15"/>
+      <c r="FI17" s="15"/>
+      <c r="FJ17" s="15"/>
+      <c r="FK17" s="15"/>
+      <c r="FL17" s="15"/>
+      <c r="FM17" s="15"/>
+      <c r="FN17" s="15"/>
+      <c r="FO17" s="15"/>
+      <c r="FP17" s="15"/>
+      <c r="FQ17" s="15"/>
+      <c r="FR17" s="15"/>
+      <c r="FS17" s="15"/>
+      <c r="FT17" s="15"/>
+      <c r="FU17" s="15"/>
+      <c r="FV17" s="15"/>
+      <c r="FW17" s="15"/>
+      <c r="FX17" s="15"/>
+      <c r="FY17" s="15"/>
+      <c r="FZ17" s="15"/>
+      <c r="GA17" s="15"/>
+      <c r="GB17" s="15"/>
+      <c r="GC17" s="15"/>
+      <c r="GD17" s="15"/>
+      <c r="GE17" s="15"/>
+      <c r="GF17" s="15"/>
+      <c r="GG17" s="15"/>
+      <c r="GH17" s="15"/>
+      <c r="GI17" s="15"/>
+      <c r="GJ17" s="15"/>
+      <c r="GK17" s="15"/>
+      <c r="GL17" s="15"/>
+      <c r="GM17" s="15"/>
+      <c r="GN17" s="15"/>
+      <c r="GO17" s="15"/>
+      <c r="GP17" s="15"/>
+      <c r="GQ17" s="15"/>
+      <c r="GR17" s="15"/>
+      <c r="GS17" s="15"/>
+      <c r="GT17" s="15"/>
+      <c r="GU17" s="15"/>
+      <c r="GV17" s="15"/>
+      <c r="GW17" s="15"/>
+      <c r="GX17" s="15"/>
+      <c r="GY17" s="15"/>
+      <c r="GZ17" s="15"/>
+      <c r="HA17" s="15"/>
+      <c r="HB17" s="15"/>
+      <c r="HC17" s="15"/>
+      <c r="HD17" s="15"/>
+      <c r="HE17" s="15"/>
+      <c r="HF17" s="15"/>
+      <c r="HG17" s="15"/>
+      <c r="HH17" s="15"/>
+      <c r="HI17" s="15"/>
+      <c r="HJ17" s="15"/>
+      <c r="HK17" s="15"/>
+      <c r="HL17" s="15"/>
+      <c r="HM17" s="15"/>
+      <c r="HN17" s="15"/>
+      <c r="HO17" s="15"/>
+      <c r="HP17" s="15"/>
+      <c r="HQ17" s="15"/>
+      <c r="HR17" s="15"/>
+      <c r="HS17" s="15"/>
+      <c r="HT17" s="15"/>
+      <c r="HU17" s="15"/>
+      <c r="HV17" s="15"/>
+      <c r="HW17" s="15"/>
+      <c r="HX17" s="15"/>
+      <c r="HY17" s="15"/>
+      <c r="HZ17" s="15"/>
+      <c r="IA17" s="15"/>
+      <c r="IB17" s="15"/>
+      <c r="IC17" s="15"/>
+      <c r="ID17" s="15"/>
+      <c r="IE17" s="15"/>
+      <c r="IF17" s="15"/>
+      <c r="IG17" s="15"/>
+      <c r="IH17" s="15"/>
+      <c r="II17" s="15"/>
+      <c r="IJ17" s="15"/>
+      <c r="IK17" s="15"/>
+      <c r="IL17" s="15"/>
+      <c r="IM17" s="15"/>
+      <c r="IN17" s="15"/>
+      <c r="IO17" s="15"/>
+      <c r="IP17" s="15"/>
+      <c r="IQ17" s="15"/>
+      <c r="IR17" s="15"/>
+      <c r="IS17" s="15"/>
+      <c r="IT17" s="15"/>
+      <c r="IU17" s="15"/>
+      <c r="IV17" s="15"/>
+      <c r="IW17" s="15"/>
+      <c r="IX17" s="15"/>
+      <c r="IY17" s="15"/>
+      <c r="IZ17" s="15"/>
+      <c r="JA17" s="15"/>
+      <c r="JB17" s="15"/>
+      <c r="JC17" s="15"/>
+      <c r="JD17" s="15"/>
+      <c r="JE17" s="15"/>
+      <c r="JF17" s="15"/>
+      <c r="JG17" s="15"/>
+      <c r="JH17" s="15"/>
+      <c r="JI17" s="15"/>
+      <c r="JJ17" s="15"/>
+      <c r="JK17" s="15"/>
+      <c r="JL17" s="15"/>
+      <c r="JM17" s="15"/>
+      <c r="JN17" s="15"/>
+      <c r="JO17" s="15"/>
+      <c r="JP17" s="15"/>
+      <c r="JQ17" s="15"/>
+      <c r="JR17" s="15"/>
+      <c r="JS17" s="15"/>
+      <c r="JT17" s="15"/>
+      <c r="JU17" s="15"/>
+      <c r="JV17" s="15"/>
+      <c r="JW17" s="15"/>
+      <c r="JX17" s="15"/>
+      <c r="JY17" s="15"/>
+      <c r="JZ17" s="15"/>
+      <c r="KA17" s="15"/>
+      <c r="KB17" s="15"/>
+      <c r="KC17" s="15"/>
+      <c r="KD17" s="15"/>
+      <c r="KE17" s="15"/>
+      <c r="KF17" s="15"/>
+      <c r="KG17" s="15"/>
+      <c r="KH17" s="15"/>
+      <c r="KI17" s="15"/>
+      <c r="KJ17" s="15"/>
+      <c r="KK17" s="15"/>
+      <c r="KL17" s="15"/>
+      <c r="KM17" s="15"/>
+      <c r="KN17" s="15"/>
+      <c r="KO17" s="15"/>
+      <c r="KP17" s="15"/>
+      <c r="KQ17" s="15"/>
+      <c r="KR17" s="15"/>
+      <c r="KS17" s="15"/>
+      <c r="KT17" s="15"/>
+      <c r="KU17" s="15"/>
+      <c r="KV17" s="15"/>
+      <c r="KW17" s="15"/>
+      <c r="KX17" s="15"/>
+      <c r="KY17" s="15"/>
+      <c r="KZ17" s="15"/>
+      <c r="LA17" s="15"/>
+      <c r="LB17" s="15"/>
+      <c r="LC17" s="15"/>
+      <c r="LD17" s="15"/>
+      <c r="LE17" s="15"/>
+      <c r="LF17" s="15"/>
+      <c r="LG17" s="15"/>
+      <c r="LH17" s="15"/>
+      <c r="LI17" s="15"/>
+      <c r="LJ17" s="15"/>
+      <c r="LK17" s="15"/>
+      <c r="LL17" s="15"/>
+      <c r="LM17" s="15"/>
+      <c r="LN17" s="15"/>
+      <c r="LO17" s="15"/>
+      <c r="LP17" s="15"/>
+      <c r="LQ17" s="15"/>
+      <c r="LR17" s="15"/>
+      <c r="LS17" s="15"/>
+      <c r="LT17" s="15"/>
+      <c r="LU17" s="15"/>
+      <c r="LV17" s="15"/>
+      <c r="LW17" s="15"/>
+      <c r="LX17" s="15"/>
+      <c r="LY17" s="15"/>
+      <c r="LZ17" s="15"/>
+      <c r="MA17" s="15"/>
+      <c r="MB17" s="15"/>
+      <c r="MC17" s="15"/>
+      <c r="MD17" s="15"/>
+      <c r="ME17" s="15"/>
+      <c r="MF17" s="15"/>
+      <c r="MG17" s="15"/>
+      <c r="MH17" s="15"/>
+      <c r="MI17" s="15"/>
+      <c r="MJ17" s="15"/>
+      <c r="MK17" s="15"/>
+      <c r="ML17" s="15"/>
+      <c r="MM17" s="15"/>
+      <c r="MN17" s="15"/>
+      <c r="MO17" s="15"/>
+      <c r="MP17" s="15"/>
+      <c r="MQ17" s="15"/>
+      <c r="MR17" s="15"/>
+      <c r="MS17" s="15"/>
+      <c r="MT17" s="15"/>
+      <c r="MU17" s="15"/>
+      <c r="MV17" s="15"/>
+      <c r="MW17" s="15"/>
+      <c r="MX17" s="15"/>
+      <c r="MY17" s="15"/>
+      <c r="MZ17" s="15"/>
+      <c r="NA17" s="15"/>
+      <c r="NB17" s="15"/>
+      <c r="NC17" s="15"/>
+      <c r="ND17" s="15"/>
+      <c r="NE17" s="15"/>
+      <c r="NF17" s="15"/>
+      <c r="NG17" s="15"/>
+      <c r="NH17" s="15"/>
+      <c r="NI17" s="15"/>
+      <c r="NJ17" s="15"/>
+      <c r="NK17" s="15"/>
+      <c r="NL17" s="15"/>
+      <c r="NM17" s="15"/>
+      <c r="NN17" s="15"/>
+      <c r="NO17" s="15"/>
+      <c r="NP17" s="15"/>
+      <c r="NQ17" s="15"/>
+      <c r="NR17" s="15"/>
+      <c r="NS17" s="15"/>
+      <c r="NT17" s="15"/>
+      <c r="NU17" s="15"/>
+      <c r="NV17" s="15"/>
+      <c r="NW17" s="15"/>
+      <c r="NX17" s="15"/>
+      <c r="NY17" s="15"/>
+      <c r="NZ17" s="15"/>
+      <c r="OA17" s="15"/>
+      <c r="OB17" s="15"/>
+      <c r="OC17" s="15"/>
+      <c r="OD17" s="15"/>
+      <c r="OE17" s="15"/>
+      <c r="OF17" s="15"/>
+      <c r="OG17" s="15"/>
+      <c r="OH17" s="15"/>
+      <c r="OI17" s="15"/>
+      <c r="OJ17" s="15"/>
+      <c r="OK17" s="15"/>
+      <c r="OL17" s="15"/>
+      <c r="OM17" s="15"/>
+      <c r="ON17" s="15"/>
+      <c r="OO17" s="15"/>
+      <c r="OP17" s="15"/>
+      <c r="OQ17" s="15"/>
+      <c r="OR17" s="15"/>
+      <c r="OS17" s="15"/>
+      <c r="OT17" s="15"/>
+      <c r="OU17" s="15"/>
+      <c r="OV17" s="15"/>
+      <c r="OW17" s="15"/>
+      <c r="OX17" s="15"/>
+      <c r="OY17" s="15"/>
+      <c r="OZ17" s="15"/>
+      <c r="PA17" s="15"/>
+      <c r="PB17" s="15"/>
+      <c r="PC17" s="15"/>
+      <c r="PD17" s="15"/>
+      <c r="PE17" s="15"/>
+      <c r="PF17" s="15"/>
+      <c r="PG17" s="15"/>
+      <c r="PH17" s="15"/>
+      <c r="PI17" s="15"/>
+      <c r="PJ17" s="15"/>
+      <c r="PK17" s="15"/>
+      <c r="PL17" s="15"/>
+      <c r="PM17" s="15"/>
+      <c r="PN17" s="15"/>
+      <c r="PO17" s="15"/>
+      <c r="PP17" s="15"/>
+      <c r="PQ17" s="15"/>
+      <c r="PR17" s="15"/>
+      <c r="PS17" s="15"/>
+      <c r="PT17" s="15"/>
+      <c r="PU17" s="15"/>
+      <c r="PV17" s="15"/>
+      <c r="PW17" s="15"/>
+      <c r="PX17" s="15"/>
+      <c r="PY17" s="15"/>
+      <c r="PZ17" s="15"/>
+      <c r="QA17" s="15"/>
+      <c r="QB17" s="15"/>
+      <c r="QC17" s="15"/>
+      <c r="QD17" s="15"/>
+      <c r="QE17" s="15"/>
+      <c r="QF17" s="15"/>
+      <c r="QG17" s="15"/>
+      <c r="QH17" s="15"/>
+      <c r="QI17" s="15"/>
+      <c r="QJ17" s="15"/>
+      <c r="QK17" s="15"/>
+      <c r="QL17" s="15"/>
+      <c r="QM17" s="15"/>
+      <c r="QN17" s="15"/>
+      <c r="QO17" s="15"/>
+      <c r="QP17" s="15"/>
+      <c r="QQ17" s="15"/>
+      <c r="QR17" s="15"/>
+      <c r="QS17" s="15"/>
+      <c r="QT17" s="15"/>
+      <c r="QU17" s="15"/>
+      <c r="QV17" s="15"/>
+      <c r="QW17" s="15"/>
+      <c r="QX17" s="15"/>
+      <c r="QY17" s="15"/>
+      <c r="QZ17" s="15"/>
+      <c r="RA17" s="15"/>
+      <c r="RB17" s="15"/>
+      <c r="RC17" s="15"/>
+      <c r="RD17" s="15"/>
+      <c r="RE17" s="15"/>
+      <c r="RF17" s="15"/>
+      <c r="RG17" s="15"/>
+      <c r="RH17" s="15"/>
+      <c r="RI17" s="15"/>
+      <c r="RJ17" s="15"/>
+      <c r="RK17" s="15"/>
+      <c r="RL17" s="15"/>
+      <c r="RM17" s="15"/>
+      <c r="RN17" s="15"/>
+      <c r="RO17" s="15"/>
+      <c r="RP17" s="15"/>
+      <c r="RQ17" s="15"/>
+      <c r="RR17" s="15"/>
+      <c r="RS17" s="15"/>
+      <c r="RT17" s="15"/>
+      <c r="RU17" s="15"/>
+      <c r="RV17" s="15"/>
+      <c r="RW17" s="15"/>
+      <c r="RX17" s="15"/>
+      <c r="RY17" s="15"/>
+      <c r="RZ17" s="15"/>
+      <c r="SA17" s="15"/>
+      <c r="SB17" s="15"/>
+      <c r="SC17" s="15"/>
+      <c r="SD17" s="15"/>
+      <c r="SE17" s="15"/>
+      <c r="SF17" s="15"/>
+      <c r="SG17" s="15"/>
+      <c r="SH17" s="15"/>
+      <c r="SI17" s="15"/>
+      <c r="SJ17" s="15"/>
+      <c r="SK17" s="15"/>
+      <c r="SL17" s="15"/>
+      <c r="SM17" s="15"/>
+      <c r="SN17" s="15"/>
+      <c r="SO17" s="15"/>
+      <c r="SP17" s="15"/>
+      <c r="SQ17" s="15"/>
+      <c r="SR17" s="15"/>
+      <c r="SS17" s="15"/>
+      <c r="ST17" s="15"/>
+      <c r="SU17" s="15"/>
+      <c r="SV17" s="15"/>
+      <c r="SW17" s="15"/>
+      <c r="SX17" s="15"/>
+      <c r="SY17" s="15"/>
+      <c r="SZ17" s="15"/>
+      <c r="TA17" s="15"/>
+      <c r="TB17" s="15"/>
+      <c r="TC17" s="15"/>
+      <c r="TD17" s="15"/>
+      <c r="TE17" s="15"/>
+      <c r="TF17" s="15"/>
+      <c r="TG17" s="15"/>
+      <c r="TH17" s="15"/>
+      <c r="TI17" s="15"/>
+      <c r="TJ17" s="15"/>
+      <c r="TK17" s="15"/>
+      <c r="TL17" s="15"/>
+      <c r="TM17" s="15"/>
+      <c r="TN17" s="15"/>
+      <c r="TO17" s="15"/>
+      <c r="TP17" s="15"/>
+      <c r="TQ17" s="15"/>
+      <c r="TR17" s="15"/>
+      <c r="TS17" s="15"/>
+      <c r="TT17" s="15"/>
+      <c r="TU17" s="15"/>
+      <c r="TV17" s="15"/>
+      <c r="TW17" s="15"/>
+      <c r="TX17" s="15"/>
+      <c r="TY17" s="15"/>
+      <c r="TZ17" s="15"/>
+      <c r="UA17" s="15"/>
+      <c r="UB17" s="15"/>
+      <c r="UC17" s="15"/>
+      <c r="UD17" s="15"/>
+      <c r="UE17" s="15"/>
+      <c r="UF17" s="15"/>
+      <c r="UG17" s="15"/>
+      <c r="UH17" s="15"/>
+      <c r="UI17" s="15"/>
+      <c r="UJ17" s="15"/>
+      <c r="UK17" s="15"/>
+      <c r="UL17" s="15"/>
+      <c r="UM17" s="15"/>
+      <c r="UN17" s="15"/>
+      <c r="UO17" s="15"/>
+      <c r="UP17" s="15"/>
+      <c r="UQ17" s="15"/>
+      <c r="UR17" s="15"/>
+      <c r="US17" s="15"/>
+      <c r="UT17" s="15"/>
+      <c r="UU17" s="15"/>
+      <c r="UV17" s="15"/>
+      <c r="UW17" s="15"/>
+      <c r="UX17" s="15"/>
+      <c r="UY17" s="15"/>
+      <c r="UZ17" s="15"/>
+      <c r="VA17" s="15"/>
+      <c r="VB17" s="15"/>
+      <c r="VC17" s="15"/>
+      <c r="VD17" s="15"/>
+      <c r="VE17" s="15"/>
+      <c r="VF17" s="15"/>
+      <c r="VG17" s="15"/>
+      <c r="VH17" s="15"/>
+      <c r="VI17" s="15"/>
+      <c r="VJ17" s="15"/>
+      <c r="VK17" s="15"/>
+      <c r="VL17" s="15"/>
+      <c r="VM17" s="15"/>
+      <c r="VN17" s="15"/>
+      <c r="VO17" s="15"/>
+      <c r="VP17" s="15"/>
+      <c r="VQ17" s="15"/>
+      <c r="VR17" s="15"/>
+      <c r="VS17" s="15"/>
+      <c r="VT17" s="15"/>
+      <c r="VU17" s="15"/>
+      <c r="VV17" s="15"/>
+      <c r="VW17" s="15"/>
+      <c r="VX17" s="15"/>
+      <c r="VY17" s="15"/>
+      <c r="VZ17" s="15"/>
+      <c r="WA17" s="15"/>
+      <c r="WB17" s="15"/>
+      <c r="WC17" s="15"/>
+      <c r="WD17" s="15"/>
+      <c r="WE17" s="15"/>
+      <c r="WF17" s="15"/>
+      <c r="WG17" s="15"/>
+      <c r="WH17" s="15"/>
+      <c r="WI17" s="15"/>
+      <c r="WJ17" s="15"/>
+      <c r="WK17" s="15"/>
+      <c r="WL17" s="15"/>
+      <c r="WM17" s="15"/>
+      <c r="WN17" s="15"/>
+      <c r="WO17" s="15"/>
+      <c r="WP17" s="15"/>
+      <c r="WQ17" s="15"/>
+      <c r="WR17" s="15"/>
+      <c r="WS17" s="15"/>
+      <c r="WT17" s="15"/>
+      <c r="WU17" s="15"/>
+      <c r="WV17" s="15"/>
+      <c r="WW17" s="15"/>
+      <c r="WX17" s="15"/>
+      <c r="WY17" s="15"/>
+      <c r="WZ17" s="15"/>
+      <c r="XA17" s="15"/>
+      <c r="XB17" s="15"/>
+      <c r="XC17" s="15"/>
+      <c r="XD17" s="15"/>
+      <c r="XE17" s="15"/>
+      <c r="XF17" s="15"/>
+      <c r="XG17" s="15"/>
+      <c r="XH17" s="15"/>
+      <c r="XI17" s="15"/>
+      <c r="XJ17" s="15"/>
+      <c r="XK17" s="15"/>
+      <c r="XL17" s="15"/>
+      <c r="XM17" s="15"/>
+      <c r="XN17" s="15"/>
+      <c r="XO17" s="15"/>
+      <c r="XP17" s="15"/>
+      <c r="XQ17" s="15"/>
+      <c r="XR17" s="15"/>
+      <c r="XS17" s="15"/>
+      <c r="XT17" s="15"/>
+      <c r="XU17" s="15"/>
+      <c r="XV17" s="15"/>
+      <c r="XW17" s="15"/>
+      <c r="XX17" s="15"/>
+      <c r="XY17" s="15"/>
+      <c r="XZ17" s="15"/>
+      <c r="YA17" s="15"/>
+      <c r="YB17" s="15"/>
+      <c r="YC17" s="15"/>
+      <c r="YD17" s="15"/>
+      <c r="YE17" s="15"/>
+      <c r="YF17" s="15"/>
+      <c r="YG17" s="15"/>
+      <c r="YH17" s="15"/>
+      <c r="YI17" s="15"/>
+      <c r="YJ17" s="15"/>
+      <c r="YK17" s="15"/>
+      <c r="YL17" s="15"/>
+      <c r="YM17" s="15"/>
+      <c r="YN17" s="15"/>
+      <c r="YO17" s="15"/>
+      <c r="YP17" s="15"/>
+      <c r="YQ17" s="15"/>
+      <c r="YR17" s="15"/>
+      <c r="YS17" s="15"/>
+      <c r="YT17" s="15"/>
+      <c r="YU17" s="15"/>
+      <c r="YV17" s="15"/>
+      <c r="YW17" s="15"/>
+      <c r="YX17" s="15"/>
+      <c r="YY17" s="15"/>
+      <c r="YZ17" s="15"/>
+      <c r="ZA17" s="15"/>
+      <c r="ZB17" s="15"/>
+      <c r="ZC17" s="15"/>
+      <c r="ZD17" s="15"/>
+      <c r="ZE17" s="15"/>
+      <c r="ZF17" s="15"/>
+      <c r="ZG17" s="15"/>
+      <c r="ZH17" s="15"/>
+      <c r="ZI17" s="15"/>
+      <c r="ZJ17" s="15"/>
+      <c r="ZK17" s="15"/>
+      <c r="ZL17" s="15"/>
+      <c r="ZM17" s="15"/>
+      <c r="ZN17" s="15"/>
+      <c r="ZO17" s="15"/>
+      <c r="ZP17" s="15"/>
+      <c r="ZQ17" s="15"/>
+      <c r="ZR17" s="15"/>
+      <c r="ZS17" s="15"/>
+      <c r="ZT17" s="15"/>
+      <c r="ZU17" s="15"/>
+      <c r="ZV17" s="15"/>
+      <c r="ZW17" s="15"/>
+      <c r="ZX17" s="15"/>
+      <c r="ZY17" s="15"/>
+      <c r="ZZ17" s="15"/>
+      <c r="AAA17" s="15"/>
+      <c r="AAB17" s="15"/>
+      <c r="AAC17" s="15"/>
+      <c r="AAD17" s="15"/>
+      <c r="AAE17" s="15"/>
+      <c r="AAF17" s="15"/>
+      <c r="AAG17" s="15"/>
+      <c r="AAH17" s="15"/>
+      <c r="AAI17" s="15"/>
+      <c r="AAJ17" s="15"/>
+      <c r="AAK17" s="15"/>
+      <c r="AAL17" s="15"/>
+      <c r="AAM17" s="15"/>
+      <c r="AAN17" s="15"/>
+      <c r="AAO17" s="15"/>
+      <c r="AAP17" s="15"/>
+      <c r="AAQ17" s="15"/>
+      <c r="AAR17" s="15"/>
+      <c r="AAS17" s="15"/>
+      <c r="AAT17" s="15"/>
+      <c r="AAU17" s="15"/>
+      <c r="AAV17" s="15"/>
+      <c r="AAW17" s="15"/>
+      <c r="AAX17" s="15"/>
+      <c r="AAY17" s="15"/>
+      <c r="AAZ17" s="15"/>
+      <c r="ABA17" s="15"/>
+      <c r="ABB17" s="15"/>
+      <c r="ABC17" s="15"/>
+      <c r="ABD17" s="15"/>
+      <c r="ABE17" s="15"/>
+      <c r="ABF17" s="15"/>
+      <c r="ABG17" s="15"/>
+      <c r="ABH17" s="15"/>
+      <c r="ABI17" s="15"/>
+      <c r="ABJ17" s="15"/>
+      <c r="ABK17" s="15"/>
+      <c r="ABL17" s="15"/>
+      <c r="ABM17" s="15"/>
+      <c r="ABN17" s="15"/>
+      <c r="ABO17" s="15"/>
+      <c r="ABP17" s="15"/>
+      <c r="ABQ17" s="15"/>
+      <c r="ABR17" s="15"/>
+      <c r="ABS17" s="15"/>
+      <c r="ABT17" s="15"/>
+      <c r="ABU17" s="15"/>
+      <c r="ABV17" s="15"/>
+      <c r="ABW17" s="15"/>
+      <c r="ABX17" s="15"/>
+      <c r="ABY17" s="15"/>
+      <c r="ABZ17" s="15"/>
+      <c r="ACA17" s="15"/>
+      <c r="ACB17" s="15"/>
+      <c r="ACC17" s="15"/>
+      <c r="ACD17" s="15"/>
+      <c r="ACE17" s="15"/>
+      <c r="ACF17" s="15"/>
+      <c r="ACG17" s="15"/>
+      <c r="ACH17" s="15"/>
+      <c r="ACI17" s="15"/>
+      <c r="ACJ17" s="15"/>
+      <c r="ACK17" s="15"/>
+      <c r="ACL17" s="15"/>
+      <c r="ACM17" s="15"/>
+      <c r="ACN17" s="15"/>
+      <c r="ACO17" s="15"/>
+      <c r="ACP17" s="15"/>
+      <c r="ACQ17" s="15"/>
+      <c r="ACR17" s="15"/>
+      <c r="ACS17" s="15"/>
+      <c r="ACT17" s="15"/>
+      <c r="ACU17" s="15"/>
+      <c r="ACV17" s="15"/>
+      <c r="ACW17" s="15"/>
+      <c r="ACX17" s="15"/>
+      <c r="ACY17" s="15"/>
+      <c r="ACZ17" s="15"/>
+      <c r="ADA17" s="15"/>
+      <c r="ADB17" s="15"/>
+      <c r="ADC17" s="15"/>
+      <c r="ADD17" s="15"/>
+      <c r="ADE17" s="15"/>
+      <c r="ADF17" s="15"/>
+      <c r="ADG17" s="15"/>
+      <c r="ADH17" s="15"/>
+      <c r="ADI17" s="15"/>
+      <c r="ADJ17" s="15"/>
+      <c r="ADK17" s="15"/>
+      <c r="ADL17" s="15"/>
+      <c r="ADM17" s="15"/>
+      <c r="ADN17" s="15"/>
+      <c r="ADO17" s="15"/>
+      <c r="ADP17" s="15"/>
+      <c r="ADQ17" s="15"/>
+      <c r="ADR17" s="15"/>
+      <c r="ADS17" s="15"/>
+      <c r="ADT17" s="15"/>
+      <c r="ADU17" s="15"/>
+      <c r="ADV17" s="15"/>
+      <c r="ADW17" s="15"/>
+      <c r="ADX17" s="15"/>
+      <c r="ADY17" s="15"/>
+      <c r="ADZ17" s="15"/>
+      <c r="AEA17" s="15"/>
+      <c r="AEB17" s="15"/>
+      <c r="AEC17" s="15"/>
+      <c r="AED17" s="15"/>
+      <c r="AEE17" s="15"/>
+      <c r="AEF17" s="15"/>
+      <c r="AEG17" s="15"/>
+      <c r="AEH17" s="15"/>
+      <c r="AEI17" s="15"/>
+      <c r="AEJ17" s="15"/>
+      <c r="AEK17" s="15"/>
+      <c r="AEL17" s="15"/>
+      <c r="AEM17" s="15"/>
+      <c r="AEN17" s="15"/>
+      <c r="AEO17" s="15"/>
+      <c r="AEP17" s="15"/>
+      <c r="AEQ17" s="15"/>
+      <c r="AER17" s="15"/>
+      <c r="AES17" s="15"/>
+      <c r="AET17" s="15"/>
+      <c r="AEU17" s="15"/>
+      <c r="AEV17" s="15"/>
+      <c r="AEW17" s="15"/>
+      <c r="AEX17" s="15"/>
+      <c r="AEY17" s="15"/>
+      <c r="AEZ17" s="15"/>
+      <c r="AFA17" s="15"/>
+      <c r="AFB17" s="15"/>
+      <c r="AFC17" s="15"/>
+      <c r="AFD17" s="15"/>
+      <c r="AFE17" s="15"/>
+      <c r="AFF17" s="15"/>
+      <c r="AFG17" s="15"/>
+      <c r="AFH17" s="15"/>
+      <c r="AFI17" s="15"/>
+      <c r="AFJ17" s="15"/>
+      <c r="AFK17" s="15"/>
+      <c r="AFL17" s="15"/>
+      <c r="AFM17" s="15"/>
+      <c r="AFN17" s="15"/>
+      <c r="AFO17" s="15"/>
+      <c r="AFP17" s="15"/>
+      <c r="AFQ17" s="15"/>
+      <c r="AFR17" s="15"/>
+      <c r="AFS17" s="15"/>
+      <c r="AFT17" s="15"/>
+      <c r="AFU17" s="15"/>
+      <c r="AFV17" s="15"/>
+      <c r="AFW17" s="15"/>
+      <c r="AFX17" s="15"/>
+      <c r="AFY17" s="15"/>
+      <c r="AFZ17" s="15"/>
+      <c r="AGA17" s="15"/>
+      <c r="AGB17" s="15"/>
+      <c r="AGC17" s="15"/>
+      <c r="AGD17" s="15"/>
+      <c r="AGE17" s="15"/>
+      <c r="AGF17" s="15"/>
+      <c r="AGG17" s="15"/>
+      <c r="AGH17" s="15"/>
+      <c r="AGI17" s="15"/>
+      <c r="AGJ17" s="15"/>
+      <c r="AGK17" s="15"/>
+      <c r="AGL17" s="15"/>
+      <c r="AGM17" s="15"/>
+      <c r="AGN17" s="15"/>
+      <c r="AGO17" s="15"/>
+      <c r="AGP17" s="15"/>
+      <c r="AGQ17" s="15"/>
+      <c r="AGR17" s="15"/>
+      <c r="AGS17" s="15"/>
+      <c r="AGT17" s="15"/>
+      <c r="AGU17" s="15"/>
+      <c r="AGV17" s="15"/>
+      <c r="AGW17" s="15"/>
+      <c r="AGX17" s="15"/>
+      <c r="AGY17" s="15"/>
+      <c r="AGZ17" s="15"/>
+      <c r="AHA17" s="15"/>
+      <c r="AHB17" s="15"/>
+      <c r="AHC17" s="15"/>
+      <c r="AHD17" s="15"/>
+      <c r="AHE17" s="15"/>
+      <c r="AHF17" s="15"/>
+      <c r="AHG17" s="15"/>
+      <c r="AHH17" s="15"/>
+      <c r="AHI17" s="15"/>
+      <c r="AHJ17" s="15"/>
+      <c r="AHK17" s="15"/>
+      <c r="AHL17" s="15"/>
+      <c r="AHM17" s="15"/>
+      <c r="AHN17" s="15"/>
+      <c r="AHO17" s="15"/>
+      <c r="AHP17" s="15"/>
+      <c r="AHQ17" s="15"/>
+      <c r="AHR17" s="15"/>
+      <c r="AHS17" s="15"/>
+      <c r="AHT17" s="15"/>
+      <c r="AHU17" s="15"/>
+      <c r="AHV17" s="15"/>
+      <c r="AHW17" s="15"/>
+      <c r="AHX17" s="15"/>
+      <c r="AHY17" s="15"/>
+      <c r="AHZ17" s="15"/>
+      <c r="AIA17" s="15"/>
+      <c r="AIB17" s="15"/>
+      <c r="AIC17" s="15"/>
+      <c r="AID17" s="15"/>
+      <c r="AIE17" s="15"/>
+      <c r="AIF17" s="15"/>
+      <c r="AIG17" s="15"/>
+      <c r="AIH17" s="15"/>
+      <c r="AII17" s="15"/>
+      <c r="AIJ17" s="15"/>
+      <c r="AIK17" s="15"/>
+      <c r="AIL17" s="15"/>
+      <c r="AIM17" s="15"/>
+      <c r="AIN17" s="15"/>
+      <c r="AIO17" s="15"/>
+      <c r="AIP17" s="15"/>
+      <c r="AIQ17" s="15"/>
+      <c r="AIR17" s="15"/>
+      <c r="AIS17" s="15"/>
+      <c r="AIT17" s="15"/>
+      <c r="AIU17" s="15"/>
+      <c r="AIV17" s="15"/>
+      <c r="AIW17" s="15"/>
+      <c r="AIX17" s="15"/>
+      <c r="AIY17" s="15"/>
+      <c r="AIZ17" s="15"/>
+      <c r="AJA17" s="15"/>
+      <c r="AJB17" s="15"/>
+      <c r="AJC17" s="15"/>
+      <c r="AJD17" s="15"/>
+      <c r="AJE17" s="15"/>
+      <c r="AJF17" s="15"/>
+      <c r="AJG17" s="15"/>
+      <c r="AJH17" s="15"/>
+      <c r="AJI17" s="15"/>
+      <c r="AJJ17" s="15"/>
+      <c r="AJK17" s="15"/>
+      <c r="AJL17" s="15"/>
+      <c r="AJM17" s="15"/>
+      <c r="AJN17" s="15"/>
+      <c r="AJO17" s="15"/>
+      <c r="AJP17" s="15"/>
+      <c r="AJQ17" s="15"/>
+      <c r="AJR17" s="15"/>
+      <c r="AJS17" s="15"/>
+      <c r="AJT17" s="15"/>
+      <c r="AJU17" s="15"/>
+      <c r="AJV17" s="15"/>
+      <c r="AJW17" s="15"/>
+      <c r="AJX17" s="15"/>
+      <c r="AJY17" s="15"/>
+      <c r="AJZ17" s="15"/>
+      <c r="AKA17" s="15"/>
+      <c r="AKB17" s="15"/>
+      <c r="AKC17" s="15"/>
+      <c r="AKD17" s="15"/>
+      <c r="AKE17" s="15"/>
+      <c r="AKF17" s="15"/>
+      <c r="AKG17" s="15"/>
+      <c r="AKH17" s="15"/>
+      <c r="AKI17" s="15"/>
+      <c r="AKJ17" s="15"/>
+      <c r="AKK17" s="15"/>
+      <c r="AKL17" s="15"/>
+      <c r="AKM17" s="15"/>
+      <c r="AKN17" s="15"/>
+      <c r="AKO17" s="15"/>
+      <c r="AKP17" s="15"/>
+      <c r="AKQ17" s="15"/>
+      <c r="AKR17" s="15"/>
+      <c r="AKS17" s="15"/>
+      <c r="AKT17" s="15"/>
+      <c r="AKU17" s="15"/>
+      <c r="AKV17" s="15"/>
+      <c r="AKW17" s="15"/>
+      <c r="AKX17" s="15"/>
+      <c r="AKY17" s="15"/>
+      <c r="AKZ17" s="15"/>
+      <c r="ALA17" s="15"/>
+      <c r="ALB17" s="15"/>
+      <c r="ALC17" s="15"/>
+      <c r="ALD17" s="15"/>
+      <c r="ALE17" s="15"/>
+      <c r="ALF17" s="15"/>
+      <c r="ALG17" s="15"/>
+      <c r="ALH17" s="15"/>
+      <c r="ALI17" s="15"/>
+      <c r="ALJ17" s="15"/>
+      <c r="ALK17" s="15"/>
+      <c r="ALL17" s="15"/>
+      <c r="ALM17" s="15"/>
+      <c r="ALN17" s="15"/>
+      <c r="ALO17" s="15"/>
+      <c r="ALP17" s="15"/>
+      <c r="ALQ17" s="15"/>
+      <c r="ALR17" s="15"/>
+      <c r="ALS17" s="15"/>
+      <c r="ALT17" s="15"/>
+      <c r="ALU17" s="15"/>
+      <c r="ALV17" s="15"/>
+      <c r="ALW17" s="15"/>
+      <c r="ALX17" s="15"/>
+      <c r="ALY17" s="15"/>
+      <c r="ALZ17" s="15"/>
+      <c r="AMA17" s="15"/>
+      <c r="AMB17" s="15"/>
+      <c r="AMC17" s="15"/>
+      <c r="AMD17" s="15"/>
+      <c r="AME17" s="15"/>
+      <c r="AMF17" s="15"/>
+      <c r="AMG17" s="15"/>
+      <c r="AMH17" s="15"/>
+      <c r="AMI17" s="15"/>
+      <c r="AMJ17" s="15"/>
+      <c r="AMK17" s="15"/>
+      <c r="AML17" s="15"/>
+      <c r="AMM17" s="15"/>
+      <c r="AMN17" s="15"/>
+      <c r="AMO17" s="15"/>
+      <c r="AMP17" s="15"/>
+      <c r="AMQ17" s="15"/>
+      <c r="AMR17" s="15"/>
+      <c r="AMS17" s="15"/>
+    </row>
+    <row r="18" s="23" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="15" t="n">
+        <v>600</v>
+      </c>
+      <c r="H18" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="20" t="n">
+        <v>326244</v>
+      </c>
+      <c r="K18" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="N17" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="T17" s="1" t="n">
+      <c r="L18" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="P18" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" s="15" t="n">
+        <v>300</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="T18" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="W17" s="8" t="n">
-        <v>168944</v>
-      </c>
-      <c r="X17" s="8" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z17" s="1" t="s">
+      <c r="U18" s="15"/>
+      <c r="V18" s="15" t="n">
+        <v>800</v>
+      </c>
+      <c r="W18" s="15" t="n">
+        <v>153046</v>
+      </c>
+      <c r="X18" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y18" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z18" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AA18" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AB17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD17" s="1" t="n">
-        <v>144183</v>
-      </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AB18" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC18" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD18" s="15" t="n">
+        <v>284848</v>
+      </c>
+      <c r="AE18" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="AF17" s="1" t="n">
-        <v>279719</v>
-      </c>
-      <c r="AG17" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AH17" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AT17" s="9"/>
-      <c r="AU17" s="8"/>
-      <c r="AV17" s="9"/>
-      <c r="AY17" s="8"/>
-      <c r="BB17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="12" t="n">
-        <v>326244</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="T18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="W18" s="1" t="n">
-        <v>153046</v>
-      </c>
-      <c r="X18" s="8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD18" s="1" t="n">
-        <v>284848</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF18" s="1" t="n">
+      <c r="AF18" s="15" t="n">
         <v>121794</v>
       </c>
-      <c r="AG18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH18" s="1" t="s">
+      <c r="AG18" s="15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH18" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AT18" s="9"/>
-      <c r="AV18" s="9"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="18"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="15"/>
+      <c r="AZ18" s="15"/>
+      <c r="BA18" s="15"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="15"/>
+      <c r="BD18" s="15"/>
+      <c r="BE18" s="15"/>
+      <c r="BF18" s="15"/>
+      <c r="BG18" s="15"/>
+      <c r="BH18" s="15"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="15"/>
+      <c r="BK18" s="15"/>
+      <c r="BL18" s="15"/>
+      <c r="BM18" s="15"/>
+      <c r="BN18" s="15"/>
+      <c r="BO18" s="15"/>
+      <c r="BP18" s="15"/>
+      <c r="BQ18" s="15"/>
+      <c r="BR18" s="15"/>
+      <c r="BS18" s="15"/>
+      <c r="BT18" s="15"/>
+      <c r="BU18" s="15"/>
+      <c r="BV18" s="15"/>
+      <c r="BW18" s="15"/>
+      <c r="BX18" s="15"/>
+      <c r="BY18" s="15"/>
+      <c r="BZ18" s="15"/>
+      <c r="CA18" s="15"/>
+      <c r="CB18" s="15"/>
+      <c r="CC18" s="15"/>
+      <c r="CD18" s="15"/>
+      <c r="CE18" s="15"/>
+      <c r="CF18" s="15"/>
+      <c r="CG18" s="15"/>
+      <c r="CH18" s="15"/>
+      <c r="CI18" s="15"/>
+      <c r="CJ18" s="15"/>
+      <c r="CK18" s="15"/>
+      <c r="CL18" s="15"/>
+      <c r="CM18" s="15"/>
+      <c r="CN18" s="15"/>
+      <c r="CO18" s="15"/>
+      <c r="CP18" s="15"/>
+      <c r="CQ18" s="15"/>
+      <c r="CR18" s="15"/>
+      <c r="CS18" s="15"/>
+      <c r="CT18" s="15"/>
+      <c r="CU18" s="15"/>
+      <c r="CV18" s="15"/>
+      <c r="CW18" s="15"/>
+      <c r="CX18" s="15"/>
+      <c r="CY18" s="15"/>
+      <c r="CZ18" s="15"/>
+      <c r="DA18" s="15"/>
+      <c r="DB18" s="15"/>
+      <c r="DC18" s="15"/>
+      <c r="DD18" s="15"/>
+      <c r="DE18" s="15"/>
+      <c r="DF18" s="15"/>
+      <c r="DG18" s="15"/>
+      <c r="DH18" s="15"/>
+      <c r="DI18" s="15"/>
+      <c r="DJ18" s="15"/>
+      <c r="DK18" s="15"/>
+      <c r="DL18" s="15"/>
+      <c r="DM18" s="15"/>
+      <c r="DN18" s="15"/>
+      <c r="DO18" s="15"/>
+      <c r="DP18" s="15"/>
+      <c r="DQ18" s="15"/>
+      <c r="DR18" s="15"/>
+      <c r="DS18" s="15"/>
+      <c r="DT18" s="15"/>
+      <c r="DU18" s="15"/>
+      <c r="DV18" s="15"/>
+      <c r="DW18" s="15"/>
+      <c r="DX18" s="15"/>
+      <c r="DY18" s="15"/>
+      <c r="DZ18" s="15"/>
+      <c r="EA18" s="15"/>
+      <c r="EB18" s="15"/>
+      <c r="EC18" s="15"/>
+      <c r="ED18" s="15"/>
+      <c r="EE18" s="15"/>
+      <c r="EF18" s="15"/>
+      <c r="EG18" s="15"/>
+      <c r="EH18" s="15"/>
+      <c r="EI18" s="15"/>
+      <c r="EJ18" s="15"/>
+      <c r="EK18" s="15"/>
+      <c r="EL18" s="15"/>
+      <c r="EM18" s="15"/>
+      <c r="EN18" s="15"/>
+      <c r="EO18" s="15"/>
+      <c r="EP18" s="15"/>
+      <c r="EQ18" s="15"/>
+      <c r="ER18" s="15"/>
+      <c r="ES18" s="15"/>
+      <c r="ET18" s="15"/>
+      <c r="EU18" s="15"/>
+      <c r="EV18" s="15"/>
+      <c r="EW18" s="15"/>
+      <c r="EX18" s="15"/>
+      <c r="EY18" s="15"/>
+      <c r="EZ18" s="15"/>
+      <c r="FA18" s="15"/>
+      <c r="FB18" s="15"/>
+      <c r="FC18" s="15"/>
+      <c r="FD18" s="15"/>
+      <c r="FE18" s="15"/>
+      <c r="FF18" s="15"/>
+      <c r="FG18" s="15"/>
+      <c r="FH18" s="15"/>
+      <c r="FI18" s="15"/>
+      <c r="FJ18" s="15"/>
+      <c r="FK18" s="15"/>
+      <c r="FL18" s="15"/>
+      <c r="FM18" s="15"/>
+      <c r="FN18" s="15"/>
+      <c r="FO18" s="15"/>
+      <c r="FP18" s="15"/>
+      <c r="FQ18" s="15"/>
+      <c r="FR18" s="15"/>
+      <c r="FS18" s="15"/>
+      <c r="FT18" s="15"/>
+      <c r="FU18" s="15"/>
+      <c r="FV18" s="15"/>
+      <c r="FW18" s="15"/>
+      <c r="FX18" s="15"/>
+      <c r="FY18" s="15"/>
+      <c r="FZ18" s="15"/>
+      <c r="GA18" s="15"/>
+      <c r="GB18" s="15"/>
+      <c r="GC18" s="15"/>
+      <c r="GD18" s="15"/>
+      <c r="GE18" s="15"/>
+      <c r="GF18" s="15"/>
+      <c r="GG18" s="15"/>
+      <c r="GH18" s="15"/>
+      <c r="GI18" s="15"/>
+      <c r="GJ18" s="15"/>
+      <c r="GK18" s="15"/>
+      <c r="GL18" s="15"/>
+      <c r="GM18" s="15"/>
+      <c r="GN18" s="15"/>
+      <c r="GO18" s="15"/>
+      <c r="GP18" s="15"/>
+      <c r="GQ18" s="15"/>
+      <c r="GR18" s="15"/>
+      <c r="GS18" s="15"/>
+      <c r="GT18" s="15"/>
+      <c r="GU18" s="15"/>
+      <c r="GV18" s="15"/>
+      <c r="GW18" s="15"/>
+      <c r="GX18" s="15"/>
+      <c r="GY18" s="15"/>
+      <c r="GZ18" s="15"/>
+      <c r="HA18" s="15"/>
+      <c r="HB18" s="15"/>
+      <c r="HC18" s="15"/>
+      <c r="HD18" s="15"/>
+      <c r="HE18" s="15"/>
+      <c r="HF18" s="15"/>
+      <c r="HG18" s="15"/>
+      <c r="HH18" s="15"/>
+      <c r="HI18" s="15"/>
+      <c r="HJ18" s="15"/>
+      <c r="HK18" s="15"/>
+      <c r="HL18" s="15"/>
+      <c r="HM18" s="15"/>
+      <c r="HN18" s="15"/>
+      <c r="HO18" s="15"/>
+      <c r="HP18" s="15"/>
+      <c r="HQ18" s="15"/>
+      <c r="HR18" s="15"/>
+      <c r="HS18" s="15"/>
+      <c r="HT18" s="15"/>
+      <c r="HU18" s="15"/>
+      <c r="HV18" s="15"/>
+      <c r="HW18" s="15"/>
+      <c r="HX18" s="15"/>
+      <c r="HY18" s="15"/>
+      <c r="HZ18" s="15"/>
+      <c r="IA18" s="15"/>
+      <c r="IB18" s="15"/>
+      <c r="IC18" s="15"/>
+      <c r="ID18" s="15"/>
+      <c r="IE18" s="15"/>
+      <c r="IF18" s="15"/>
+      <c r="IG18" s="15"/>
+      <c r="IH18" s="15"/>
+      <c r="II18" s="15"/>
+      <c r="IJ18" s="15"/>
+      <c r="IK18" s="15"/>
+      <c r="IL18" s="15"/>
+      <c r="IM18" s="15"/>
+      <c r="IN18" s="15"/>
+      <c r="IO18" s="15"/>
+      <c r="IP18" s="15"/>
+      <c r="IQ18" s="15"/>
+      <c r="IR18" s="15"/>
+      <c r="IS18" s="15"/>
+      <c r="IT18" s="15"/>
+      <c r="IU18" s="15"/>
+      <c r="IV18" s="15"/>
+      <c r="IW18" s="15"/>
+      <c r="IX18" s="15"/>
+      <c r="IY18" s="15"/>
+      <c r="IZ18" s="15"/>
+      <c r="JA18" s="15"/>
+      <c r="JB18" s="15"/>
+      <c r="JC18" s="15"/>
+      <c r="JD18" s="15"/>
+      <c r="JE18" s="15"/>
+      <c r="JF18" s="15"/>
+      <c r="JG18" s="15"/>
+      <c r="JH18" s="15"/>
+      <c r="JI18" s="15"/>
+      <c r="JJ18" s="15"/>
+      <c r="JK18" s="15"/>
+      <c r="JL18" s="15"/>
+      <c r="JM18" s="15"/>
+      <c r="JN18" s="15"/>
+      <c r="JO18" s="15"/>
+      <c r="JP18" s="15"/>
+      <c r="JQ18" s="15"/>
+      <c r="JR18" s="15"/>
+      <c r="JS18" s="15"/>
+      <c r="JT18" s="15"/>
+      <c r="JU18" s="15"/>
+      <c r="JV18" s="15"/>
+      <c r="JW18" s="15"/>
+      <c r="JX18" s="15"/>
+      <c r="JY18" s="15"/>
+      <c r="JZ18" s="15"/>
+      <c r="KA18" s="15"/>
+      <c r="KB18" s="15"/>
+      <c r="KC18" s="15"/>
+      <c r="KD18" s="15"/>
+      <c r="KE18" s="15"/>
+      <c r="KF18" s="15"/>
+      <c r="KG18" s="15"/>
+      <c r="KH18" s="15"/>
+      <c r="KI18" s="15"/>
+      <c r="KJ18" s="15"/>
+      <c r="KK18" s="15"/>
+      <c r="KL18" s="15"/>
+      <c r="KM18" s="15"/>
+      <c r="KN18" s="15"/>
+      <c r="KO18" s="15"/>
+      <c r="KP18" s="15"/>
+      <c r="KQ18" s="15"/>
+      <c r="KR18" s="15"/>
+      <c r="KS18" s="15"/>
+      <c r="KT18" s="15"/>
+      <c r="KU18" s="15"/>
+      <c r="KV18" s="15"/>
+      <c r="KW18" s="15"/>
+      <c r="KX18" s="15"/>
+      <c r="KY18" s="15"/>
+      <c r="KZ18" s="15"/>
+      <c r="LA18" s="15"/>
+      <c r="LB18" s="15"/>
+      <c r="LC18" s="15"/>
+      <c r="LD18" s="15"/>
+      <c r="LE18" s="15"/>
+      <c r="LF18" s="15"/>
+      <c r="LG18" s="15"/>
+      <c r="LH18" s="15"/>
+      <c r="LI18" s="15"/>
+      <c r="LJ18" s="15"/>
+      <c r="LK18" s="15"/>
+      <c r="LL18" s="15"/>
+      <c r="LM18" s="15"/>
+      <c r="LN18" s="15"/>
+      <c r="LO18" s="15"/>
+      <c r="LP18" s="15"/>
+      <c r="LQ18" s="15"/>
+      <c r="LR18" s="15"/>
+      <c r="LS18" s="15"/>
+      <c r="LT18" s="15"/>
+      <c r="LU18" s="15"/>
+      <c r="LV18" s="15"/>
+      <c r="LW18" s="15"/>
+      <c r="LX18" s="15"/>
+      <c r="LY18" s="15"/>
+      <c r="LZ18" s="15"/>
+      <c r="MA18" s="15"/>
+      <c r="MB18" s="15"/>
+      <c r="MC18" s="15"/>
+      <c r="MD18" s="15"/>
+      <c r="ME18" s="15"/>
+      <c r="MF18" s="15"/>
+      <c r="MG18" s="15"/>
+      <c r="MH18" s="15"/>
+      <c r="MI18" s="15"/>
+      <c r="MJ18" s="15"/>
+      <c r="MK18" s="15"/>
+      <c r="ML18" s="15"/>
+      <c r="MM18" s="15"/>
+      <c r="MN18" s="15"/>
+      <c r="MO18" s="15"/>
+      <c r="MP18" s="15"/>
+      <c r="MQ18" s="15"/>
+      <c r="MR18" s="15"/>
+      <c r="MS18" s="15"/>
+      <c r="MT18" s="15"/>
+      <c r="MU18" s="15"/>
+      <c r="MV18" s="15"/>
+      <c r="MW18" s="15"/>
+      <c r="MX18" s="15"/>
+      <c r="MY18" s="15"/>
+      <c r="MZ18" s="15"/>
+      <c r="NA18" s="15"/>
+      <c r="NB18" s="15"/>
+      <c r="NC18" s="15"/>
+      <c r="ND18" s="15"/>
+      <c r="NE18" s="15"/>
+      <c r="NF18" s="15"/>
+      <c r="NG18" s="15"/>
+      <c r="NH18" s="15"/>
+      <c r="NI18" s="15"/>
+      <c r="NJ18" s="15"/>
+      <c r="NK18" s="15"/>
+      <c r="NL18" s="15"/>
+      <c r="NM18" s="15"/>
+      <c r="NN18" s="15"/>
+      <c r="NO18" s="15"/>
+      <c r="NP18" s="15"/>
+      <c r="NQ18" s="15"/>
+      <c r="NR18" s="15"/>
+      <c r="NS18" s="15"/>
+      <c r="NT18" s="15"/>
+      <c r="NU18" s="15"/>
+      <c r="NV18" s="15"/>
+      <c r="NW18" s="15"/>
+      <c r="NX18" s="15"/>
+      <c r="NY18" s="15"/>
+      <c r="NZ18" s="15"/>
+      <c r="OA18" s="15"/>
+      <c r="OB18" s="15"/>
+      <c r="OC18" s="15"/>
+      <c r="OD18" s="15"/>
+      <c r="OE18" s="15"/>
+      <c r="OF18" s="15"/>
+      <c r="OG18" s="15"/>
+      <c r="OH18" s="15"/>
+      <c r="OI18" s="15"/>
+      <c r="OJ18" s="15"/>
+      <c r="OK18" s="15"/>
+      <c r="OL18" s="15"/>
+      <c r="OM18" s="15"/>
+      <c r="ON18" s="15"/>
+      <c r="OO18" s="15"/>
+      <c r="OP18" s="15"/>
+      <c r="OQ18" s="15"/>
+      <c r="OR18" s="15"/>
+      <c r="OS18" s="15"/>
+      <c r="OT18" s="15"/>
+      <c r="OU18" s="15"/>
+      <c r="OV18" s="15"/>
+      <c r="OW18" s="15"/>
+      <c r="OX18" s="15"/>
+      <c r="OY18" s="15"/>
+      <c r="OZ18" s="15"/>
+      <c r="PA18" s="15"/>
+      <c r="PB18" s="15"/>
+      <c r="PC18" s="15"/>
+      <c r="PD18" s="15"/>
+      <c r="PE18" s="15"/>
+      <c r="PF18" s="15"/>
+      <c r="PG18" s="15"/>
+      <c r="PH18" s="15"/>
+      <c r="PI18" s="15"/>
+      <c r="PJ18" s="15"/>
+      <c r="PK18" s="15"/>
+      <c r="PL18" s="15"/>
+      <c r="PM18" s="15"/>
+      <c r="PN18" s="15"/>
+      <c r="PO18" s="15"/>
+      <c r="PP18" s="15"/>
+      <c r="PQ18" s="15"/>
+      <c r="PR18" s="15"/>
+      <c r="PS18" s="15"/>
+      <c r="PT18" s="15"/>
+      <c r="PU18" s="15"/>
+      <c r="PV18" s="15"/>
+      <c r="PW18" s="15"/>
+      <c r="PX18" s="15"/>
+      <c r="PY18" s="15"/>
+      <c r="PZ18" s="15"/>
+      <c r="QA18" s="15"/>
+      <c r="QB18" s="15"/>
+      <c r="QC18" s="15"/>
+      <c r="QD18" s="15"/>
+      <c r="QE18" s="15"/>
+      <c r="QF18" s="15"/>
+      <c r="QG18" s="15"/>
+      <c r="QH18" s="15"/>
+      <c r="QI18" s="15"/>
+      <c r="QJ18" s="15"/>
+      <c r="QK18" s="15"/>
+      <c r="QL18" s="15"/>
+      <c r="QM18" s="15"/>
+      <c r="QN18" s="15"/>
+      <c r="QO18" s="15"/>
+      <c r="QP18" s="15"/>
+      <c r="QQ18" s="15"/>
+      <c r="QR18" s="15"/>
+      <c r="QS18" s="15"/>
+      <c r="QT18" s="15"/>
+      <c r="QU18" s="15"/>
+      <c r="QV18" s="15"/>
+      <c r="QW18" s="15"/>
+      <c r="QX18" s="15"/>
+      <c r="QY18" s="15"/>
+      <c r="QZ18" s="15"/>
+      <c r="RA18" s="15"/>
+      <c r="RB18" s="15"/>
+      <c r="RC18" s="15"/>
+      <c r="RD18" s="15"/>
+      <c r="RE18" s="15"/>
+      <c r="RF18" s="15"/>
+      <c r="RG18" s="15"/>
+      <c r="RH18" s="15"/>
+      <c r="RI18" s="15"/>
+      <c r="RJ18" s="15"/>
+      <c r="RK18" s="15"/>
+      <c r="RL18" s="15"/>
+      <c r="RM18" s="15"/>
+      <c r="RN18" s="15"/>
+      <c r="RO18" s="15"/>
+      <c r="RP18" s="15"/>
+      <c r="RQ18" s="15"/>
+      <c r="RR18" s="15"/>
+      <c r="RS18" s="15"/>
+      <c r="RT18" s="15"/>
+      <c r="RU18" s="15"/>
+      <c r="RV18" s="15"/>
+      <c r="RW18" s="15"/>
+      <c r="RX18" s="15"/>
+      <c r="RY18" s="15"/>
+      <c r="RZ18" s="15"/>
+      <c r="SA18" s="15"/>
+      <c r="SB18" s="15"/>
+      <c r="SC18" s="15"/>
+      <c r="SD18" s="15"/>
+      <c r="SE18" s="15"/>
+      <c r="SF18" s="15"/>
+      <c r="SG18" s="15"/>
+      <c r="SH18" s="15"/>
+      <c r="SI18" s="15"/>
+      <c r="SJ18" s="15"/>
+      <c r="SK18" s="15"/>
+      <c r="SL18" s="15"/>
+      <c r="SM18" s="15"/>
+      <c r="SN18" s="15"/>
+      <c r="SO18" s="15"/>
+      <c r="SP18" s="15"/>
+      <c r="SQ18" s="15"/>
+      <c r="SR18" s="15"/>
+      <c r="SS18" s="15"/>
+      <c r="ST18" s="15"/>
+      <c r="SU18" s="15"/>
+      <c r="SV18" s="15"/>
+      <c r="SW18" s="15"/>
+      <c r="SX18" s="15"/>
+      <c r="SY18" s="15"/>
+      <c r="SZ18" s="15"/>
+      <c r="TA18" s="15"/>
+      <c r="TB18" s="15"/>
+      <c r="TC18" s="15"/>
+      <c r="TD18" s="15"/>
+      <c r="TE18" s="15"/>
+      <c r="TF18" s="15"/>
+      <c r="TG18" s="15"/>
+      <c r="TH18" s="15"/>
+      <c r="TI18" s="15"/>
+      <c r="TJ18" s="15"/>
+      <c r="TK18" s="15"/>
+      <c r="TL18" s="15"/>
+      <c r="TM18" s="15"/>
+      <c r="TN18" s="15"/>
+      <c r="TO18" s="15"/>
+      <c r="TP18" s="15"/>
+      <c r="TQ18" s="15"/>
+      <c r="TR18" s="15"/>
+      <c r="TS18" s="15"/>
+      <c r="TT18" s="15"/>
+      <c r="TU18" s="15"/>
+      <c r="TV18" s="15"/>
+      <c r="TW18" s="15"/>
+      <c r="TX18" s="15"/>
+      <c r="TY18" s="15"/>
+      <c r="TZ18" s="15"/>
+      <c r="UA18" s="15"/>
+      <c r="UB18" s="15"/>
+      <c r="UC18" s="15"/>
+      <c r="UD18" s="15"/>
+      <c r="UE18" s="15"/>
+      <c r="UF18" s="15"/>
+      <c r="UG18" s="15"/>
+      <c r="UH18" s="15"/>
+      <c r="UI18" s="15"/>
+      <c r="UJ18" s="15"/>
+      <c r="UK18" s="15"/>
+      <c r="UL18" s="15"/>
+      <c r="UM18" s="15"/>
+      <c r="UN18" s="15"/>
+      <c r="UO18" s="15"/>
+      <c r="UP18" s="15"/>
+      <c r="UQ18" s="15"/>
+      <c r="UR18" s="15"/>
+      <c r="US18" s="15"/>
+      <c r="UT18" s="15"/>
+      <c r="UU18" s="15"/>
+      <c r="UV18" s="15"/>
+      <c r="UW18" s="15"/>
+      <c r="UX18" s="15"/>
+      <c r="UY18" s="15"/>
+      <c r="UZ18" s="15"/>
+      <c r="VA18" s="15"/>
+      <c r="VB18" s="15"/>
+      <c r="VC18" s="15"/>
+      <c r="VD18" s="15"/>
+      <c r="VE18" s="15"/>
+      <c r="VF18" s="15"/>
+      <c r="VG18" s="15"/>
+      <c r="VH18" s="15"/>
+      <c r="VI18" s="15"/>
+      <c r="VJ18" s="15"/>
+      <c r="VK18" s="15"/>
+      <c r="VL18" s="15"/>
+      <c r="VM18" s="15"/>
+      <c r="VN18" s="15"/>
+      <c r="VO18" s="15"/>
+      <c r="VP18" s="15"/>
+      <c r="VQ18" s="15"/>
+      <c r="VR18" s="15"/>
+      <c r="VS18" s="15"/>
+      <c r="VT18" s="15"/>
+      <c r="VU18" s="15"/>
+      <c r="VV18" s="15"/>
+      <c r="VW18" s="15"/>
+      <c r="VX18" s="15"/>
+      <c r="VY18" s="15"/>
+      <c r="VZ18" s="15"/>
+      <c r="WA18" s="15"/>
+      <c r="WB18" s="15"/>
+      <c r="WC18" s="15"/>
+      <c r="WD18" s="15"/>
+      <c r="WE18" s="15"/>
+      <c r="WF18" s="15"/>
+      <c r="WG18" s="15"/>
+      <c r="WH18" s="15"/>
+      <c r="WI18" s="15"/>
+      <c r="WJ18" s="15"/>
+      <c r="WK18" s="15"/>
+      <c r="WL18" s="15"/>
+      <c r="WM18" s="15"/>
+      <c r="WN18" s="15"/>
+      <c r="WO18" s="15"/>
+      <c r="WP18" s="15"/>
+      <c r="WQ18" s="15"/>
+      <c r="WR18" s="15"/>
+      <c r="WS18" s="15"/>
+      <c r="WT18" s="15"/>
+      <c r="WU18" s="15"/>
+      <c r="WV18" s="15"/>
+      <c r="WW18" s="15"/>
+      <c r="WX18" s="15"/>
+      <c r="WY18" s="15"/>
+      <c r="WZ18" s="15"/>
+      <c r="XA18" s="15"/>
+      <c r="XB18" s="15"/>
+      <c r="XC18" s="15"/>
+      <c r="XD18" s="15"/>
+      <c r="XE18" s="15"/>
+      <c r="XF18" s="15"/>
+      <c r="XG18" s="15"/>
+      <c r="XH18" s="15"/>
+      <c r="XI18" s="15"/>
+      <c r="XJ18" s="15"/>
+      <c r="XK18" s="15"/>
+      <c r="XL18" s="15"/>
+      <c r="XM18" s="15"/>
+      <c r="XN18" s="15"/>
+      <c r="XO18" s="15"/>
+      <c r="XP18" s="15"/>
+      <c r="XQ18" s="15"/>
+      <c r="XR18" s="15"/>
+      <c r="XS18" s="15"/>
+      <c r="XT18" s="15"/>
+      <c r="XU18" s="15"/>
+      <c r="XV18" s="15"/>
+      <c r="XW18" s="15"/>
+      <c r="XX18" s="15"/>
+      <c r="XY18" s="15"/>
+      <c r="XZ18" s="15"/>
+      <c r="YA18" s="15"/>
+      <c r="YB18" s="15"/>
+      <c r="YC18" s="15"/>
+      <c r="YD18" s="15"/>
+      <c r="YE18" s="15"/>
+      <c r="YF18" s="15"/>
+      <c r="YG18" s="15"/>
+      <c r="YH18" s="15"/>
+      <c r="YI18" s="15"/>
+      <c r="YJ18" s="15"/>
+      <c r="YK18" s="15"/>
+      <c r="YL18" s="15"/>
+      <c r="YM18" s="15"/>
+      <c r="YN18" s="15"/>
+      <c r="YO18" s="15"/>
+      <c r="YP18" s="15"/>
+      <c r="YQ18" s="15"/>
+      <c r="YR18" s="15"/>
+      <c r="YS18" s="15"/>
+      <c r="YT18" s="15"/>
+      <c r="YU18" s="15"/>
+      <c r="YV18" s="15"/>
+      <c r="YW18" s="15"/>
+      <c r="YX18" s="15"/>
+      <c r="YY18" s="15"/>
+      <c r="YZ18" s="15"/>
+      <c r="ZA18" s="15"/>
+      <c r="ZB18" s="15"/>
+      <c r="ZC18" s="15"/>
+      <c r="ZD18" s="15"/>
+      <c r="ZE18" s="15"/>
+      <c r="ZF18" s="15"/>
+      <c r="ZG18" s="15"/>
+      <c r="ZH18" s="15"/>
+      <c r="ZI18" s="15"/>
+      <c r="ZJ18" s="15"/>
+      <c r="ZK18" s="15"/>
+      <c r="ZL18" s="15"/>
+      <c r="ZM18" s="15"/>
+      <c r="ZN18" s="15"/>
+      <c r="ZO18" s="15"/>
+      <c r="ZP18" s="15"/>
+      <c r="ZQ18" s="15"/>
+      <c r="ZR18" s="15"/>
+      <c r="ZS18" s="15"/>
+      <c r="ZT18" s="15"/>
+      <c r="ZU18" s="15"/>
+      <c r="ZV18" s="15"/>
+      <c r="ZW18" s="15"/>
+      <c r="ZX18" s="15"/>
+      <c r="ZY18" s="15"/>
+      <c r="ZZ18" s="15"/>
+      <c r="AAA18" s="15"/>
+      <c r="AAB18" s="15"/>
+      <c r="AAC18" s="15"/>
+      <c r="AAD18" s="15"/>
+      <c r="AAE18" s="15"/>
+      <c r="AAF18" s="15"/>
+      <c r="AAG18" s="15"/>
+      <c r="AAH18" s="15"/>
+      <c r="AAI18" s="15"/>
+      <c r="AAJ18" s="15"/>
+      <c r="AAK18" s="15"/>
+      <c r="AAL18" s="15"/>
+      <c r="AAM18" s="15"/>
+      <c r="AAN18" s="15"/>
+      <c r="AAO18" s="15"/>
+      <c r="AAP18" s="15"/>
+      <c r="AAQ18" s="15"/>
+      <c r="AAR18" s="15"/>
+      <c r="AAS18" s="15"/>
+      <c r="AAT18" s="15"/>
+      <c r="AAU18" s="15"/>
+      <c r="AAV18" s="15"/>
+      <c r="AAW18" s="15"/>
+      <c r="AAX18" s="15"/>
+      <c r="AAY18" s="15"/>
+      <c r="AAZ18" s="15"/>
+      <c r="ABA18" s="15"/>
+      <c r="ABB18" s="15"/>
+      <c r="ABC18" s="15"/>
+      <c r="ABD18" s="15"/>
+      <c r="ABE18" s="15"/>
+      <c r="ABF18" s="15"/>
+      <c r="ABG18" s="15"/>
+      <c r="ABH18" s="15"/>
+      <c r="ABI18" s="15"/>
+      <c r="ABJ18" s="15"/>
+      <c r="ABK18" s="15"/>
+      <c r="ABL18" s="15"/>
+      <c r="ABM18" s="15"/>
+      <c r="ABN18" s="15"/>
+      <c r="ABO18" s="15"/>
+      <c r="ABP18" s="15"/>
+      <c r="ABQ18" s="15"/>
+      <c r="ABR18" s="15"/>
+      <c r="ABS18" s="15"/>
+      <c r="ABT18" s="15"/>
+      <c r="ABU18" s="15"/>
+      <c r="ABV18" s="15"/>
+      <c r="ABW18" s="15"/>
+      <c r="ABX18" s="15"/>
+      <c r="ABY18" s="15"/>
+      <c r="ABZ18" s="15"/>
+      <c r="ACA18" s="15"/>
+      <c r="ACB18" s="15"/>
+      <c r="ACC18" s="15"/>
+      <c r="ACD18" s="15"/>
+      <c r="ACE18" s="15"/>
+      <c r="ACF18" s="15"/>
+      <c r="ACG18" s="15"/>
+      <c r="ACH18" s="15"/>
+      <c r="ACI18" s="15"/>
+      <c r="ACJ18" s="15"/>
+      <c r="ACK18" s="15"/>
+      <c r="ACL18" s="15"/>
+      <c r="ACM18" s="15"/>
+      <c r="ACN18" s="15"/>
+      <c r="ACO18" s="15"/>
+      <c r="ACP18" s="15"/>
+      <c r="ACQ18" s="15"/>
+      <c r="ACR18" s="15"/>
+      <c r="ACS18" s="15"/>
+      <c r="ACT18" s="15"/>
+      <c r="ACU18" s="15"/>
+      <c r="ACV18" s="15"/>
+      <c r="ACW18" s="15"/>
+      <c r="ACX18" s="15"/>
+      <c r="ACY18" s="15"/>
+      <c r="ACZ18" s="15"/>
+      <c r="ADA18" s="15"/>
+      <c r="ADB18" s="15"/>
+      <c r="ADC18" s="15"/>
+      <c r="ADD18" s="15"/>
+      <c r="ADE18" s="15"/>
+      <c r="ADF18" s="15"/>
+      <c r="ADG18" s="15"/>
+      <c r="ADH18" s="15"/>
+      <c r="ADI18" s="15"/>
+      <c r="ADJ18" s="15"/>
+      <c r="ADK18" s="15"/>
+      <c r="ADL18" s="15"/>
+      <c r="ADM18" s="15"/>
+      <c r="ADN18" s="15"/>
+      <c r="ADO18" s="15"/>
+      <c r="ADP18" s="15"/>
+      <c r="ADQ18" s="15"/>
+      <c r="ADR18" s="15"/>
+      <c r="ADS18" s="15"/>
+      <c r="ADT18" s="15"/>
+      <c r="ADU18" s="15"/>
+      <c r="ADV18" s="15"/>
+      <c r="ADW18" s="15"/>
+      <c r="ADX18" s="15"/>
+      <c r="ADY18" s="15"/>
+      <c r="ADZ18" s="15"/>
+      <c r="AEA18" s="15"/>
+      <c r="AEB18" s="15"/>
+      <c r="AEC18" s="15"/>
+      <c r="AED18" s="15"/>
+      <c r="AEE18" s="15"/>
+      <c r="AEF18" s="15"/>
+      <c r="AEG18" s="15"/>
+      <c r="AEH18" s="15"/>
+      <c r="AEI18" s="15"/>
+      <c r="AEJ18" s="15"/>
+      <c r="AEK18" s="15"/>
+      <c r="AEL18" s="15"/>
+      <c r="AEM18" s="15"/>
+      <c r="AEN18" s="15"/>
+      <c r="AEO18" s="15"/>
+      <c r="AEP18" s="15"/>
+      <c r="AEQ18" s="15"/>
+      <c r="AER18" s="15"/>
+      <c r="AES18" s="15"/>
+      <c r="AET18" s="15"/>
+      <c r="AEU18" s="15"/>
+      <c r="AEV18" s="15"/>
+      <c r="AEW18" s="15"/>
+      <c r="AEX18" s="15"/>
+      <c r="AEY18" s="15"/>
+      <c r="AEZ18" s="15"/>
+      <c r="AFA18" s="15"/>
+      <c r="AFB18" s="15"/>
+      <c r="AFC18" s="15"/>
+      <c r="AFD18" s="15"/>
+      <c r="AFE18" s="15"/>
+      <c r="AFF18" s="15"/>
+      <c r="AFG18" s="15"/>
+      <c r="AFH18" s="15"/>
+      <c r="AFI18" s="15"/>
+      <c r="AFJ18" s="15"/>
+      <c r="AFK18" s="15"/>
+      <c r="AFL18" s="15"/>
+      <c r="AFM18" s="15"/>
+      <c r="AFN18" s="15"/>
+      <c r="AFO18" s="15"/>
+      <c r="AFP18" s="15"/>
+      <c r="AFQ18" s="15"/>
+      <c r="AFR18" s="15"/>
+      <c r="AFS18" s="15"/>
+      <c r="AFT18" s="15"/>
+      <c r="AFU18" s="15"/>
+      <c r="AFV18" s="15"/>
+      <c r="AFW18" s="15"/>
+      <c r="AFX18" s="15"/>
+      <c r="AFY18" s="15"/>
+      <c r="AFZ18" s="15"/>
+      <c r="AGA18" s="15"/>
+      <c r="AGB18" s="15"/>
+      <c r="AGC18" s="15"/>
+      <c r="AGD18" s="15"/>
+      <c r="AGE18" s="15"/>
+      <c r="AGF18" s="15"/>
+      <c r="AGG18" s="15"/>
+      <c r="AGH18" s="15"/>
+      <c r="AGI18" s="15"/>
+      <c r="AGJ18" s="15"/>
+      <c r="AGK18" s="15"/>
+      <c r="AGL18" s="15"/>
+      <c r="AGM18" s="15"/>
+      <c r="AGN18" s="15"/>
+      <c r="AGO18" s="15"/>
+      <c r="AGP18" s="15"/>
+      <c r="AGQ18" s="15"/>
+      <c r="AGR18" s="15"/>
+      <c r="AGS18" s="15"/>
+      <c r="AGT18" s="15"/>
+      <c r="AGU18" s="15"/>
+      <c r="AGV18" s="15"/>
+      <c r="AGW18" s="15"/>
+      <c r="AGX18" s="15"/>
+      <c r="AGY18" s="15"/>
+      <c r="AGZ18" s="15"/>
+      <c r="AHA18" s="15"/>
+      <c r="AHB18" s="15"/>
+      <c r="AHC18" s="15"/>
+      <c r="AHD18" s="15"/>
+      <c r="AHE18" s="15"/>
+      <c r="AHF18" s="15"/>
+      <c r="AHG18" s="15"/>
+      <c r="AHH18" s="15"/>
+      <c r="AHI18" s="15"/>
+      <c r="AHJ18" s="15"/>
+      <c r="AHK18" s="15"/>
+      <c r="AHL18" s="15"/>
+      <c r="AHM18" s="15"/>
+      <c r="AHN18" s="15"/>
+      <c r="AHO18" s="15"/>
+      <c r="AHP18" s="15"/>
+      <c r="AHQ18" s="15"/>
+      <c r="AHR18" s="15"/>
+      <c r="AHS18" s="15"/>
+      <c r="AHT18" s="15"/>
+      <c r="AHU18" s="15"/>
+      <c r="AHV18" s="15"/>
+      <c r="AHW18" s="15"/>
+      <c r="AHX18" s="15"/>
+      <c r="AHY18" s="15"/>
+      <c r="AHZ18" s="15"/>
+      <c r="AIA18" s="15"/>
+      <c r="AIB18" s="15"/>
+      <c r="AIC18" s="15"/>
+      <c r="AID18" s="15"/>
+      <c r="AIE18" s="15"/>
+      <c r="AIF18" s="15"/>
+      <c r="AIG18" s="15"/>
+      <c r="AIH18" s="15"/>
+      <c r="AII18" s="15"/>
+      <c r="AIJ18" s="15"/>
+      <c r="AIK18" s="15"/>
+      <c r="AIL18" s="15"/>
+      <c r="AIM18" s="15"/>
+      <c r="AIN18" s="15"/>
+      <c r="AIO18" s="15"/>
+      <c r="AIP18" s="15"/>
+      <c r="AIQ18" s="15"/>
+      <c r="AIR18" s="15"/>
+      <c r="AIS18" s="15"/>
+      <c r="AIT18" s="15"/>
+      <c r="AIU18" s="15"/>
+      <c r="AIV18" s="15"/>
+      <c r="AIW18" s="15"/>
+      <c r="AIX18" s="15"/>
+      <c r="AIY18" s="15"/>
+      <c r="AIZ18" s="15"/>
+      <c r="AJA18" s="15"/>
+      <c r="AJB18" s="15"/>
+      <c r="AJC18" s="15"/>
+      <c r="AJD18" s="15"/>
+      <c r="AJE18" s="15"/>
+      <c r="AJF18" s="15"/>
+      <c r="AJG18" s="15"/>
+      <c r="AJH18" s="15"/>
+      <c r="AJI18" s="15"/>
+      <c r="AJJ18" s="15"/>
+      <c r="AJK18" s="15"/>
+      <c r="AJL18" s="15"/>
+      <c r="AJM18" s="15"/>
+      <c r="AJN18" s="15"/>
+      <c r="AJO18" s="15"/>
+      <c r="AJP18" s="15"/>
+      <c r="AJQ18" s="15"/>
+      <c r="AJR18" s="15"/>
+      <c r="AJS18" s="15"/>
+      <c r="AJT18" s="15"/>
+      <c r="AJU18" s="15"/>
+      <c r="AJV18" s="15"/>
+      <c r="AJW18" s="15"/>
+      <c r="AJX18" s="15"/>
+      <c r="AJY18" s="15"/>
+      <c r="AJZ18" s="15"/>
+      <c r="AKA18" s="15"/>
+      <c r="AKB18" s="15"/>
+      <c r="AKC18" s="15"/>
+      <c r="AKD18" s="15"/>
+      <c r="AKE18" s="15"/>
+      <c r="AKF18" s="15"/>
+      <c r="AKG18" s="15"/>
+      <c r="AKH18" s="15"/>
+      <c r="AKI18" s="15"/>
+      <c r="AKJ18" s="15"/>
+      <c r="AKK18" s="15"/>
+      <c r="AKL18" s="15"/>
+      <c r="AKM18" s="15"/>
+      <c r="AKN18" s="15"/>
+      <c r="AKO18" s="15"/>
+      <c r="AKP18" s="15"/>
+      <c r="AKQ18" s="15"/>
+      <c r="AKR18" s="15"/>
+      <c r="AKS18" s="15"/>
+      <c r="AKT18" s="15"/>
+      <c r="AKU18" s="15"/>
+      <c r="AKV18" s="15"/>
+      <c r="AKW18" s="15"/>
+      <c r="AKX18" s="15"/>
+      <c r="AKY18" s="15"/>
+      <c r="AKZ18" s="15"/>
+      <c r="ALA18" s="15"/>
+      <c r="ALB18" s="15"/>
+      <c r="ALC18" s="15"/>
+      <c r="ALD18" s="15"/>
+      <c r="ALE18" s="15"/>
+      <c r="ALF18" s="15"/>
+      <c r="ALG18" s="15"/>
+      <c r="ALH18" s="15"/>
+      <c r="ALI18" s="15"/>
+      <c r="ALJ18" s="15"/>
+      <c r="ALK18" s="15"/>
+      <c r="ALL18" s="15"/>
+      <c r="ALM18" s="15"/>
+      <c r="ALN18" s="15"/>
+      <c r="ALO18" s="15"/>
+      <c r="ALP18" s="15"/>
+      <c r="ALQ18" s="15"/>
+      <c r="ALR18" s="15"/>
+      <c r="ALS18" s="15"/>
+      <c r="ALT18" s="15"/>
+      <c r="ALU18" s="15"/>
+      <c r="ALV18" s="15"/>
+      <c r="ALW18" s="15"/>
+      <c r="ALX18" s="15"/>
+      <c r="ALY18" s="15"/>
+      <c r="ALZ18" s="15"/>
+      <c r="AMA18" s="15"/>
+      <c r="AMB18" s="15"/>
+      <c r="AMC18" s="15"/>
+      <c r="AMD18" s="15"/>
+      <c r="AME18" s="15"/>
+      <c r="AMF18" s="15"/>
+      <c r="AMG18" s="15"/>
+      <c r="AMH18" s="15"/>
+      <c r="AMI18" s="15"/>
+      <c r="AMJ18" s="15"/>
+      <c r="AMK18" s="15"/>
+      <c r="AML18" s="15"/>
+      <c r="AMM18" s="15"/>
+      <c r="AMN18" s="15"/>
+      <c r="AMO18" s="15"/>
+      <c r="AMP18" s="15"/>
+      <c r="AMQ18" s="15"/>
+      <c r="AMR18" s="15"/>
+      <c r="AMS18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="n">
+      <c r="A19" s="24" t="n">
         <v>1013</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3782,7 +5842,7 @@
       <c r="D19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="24" t="s">
         <v>216</v>
       </c>
       <c r="F19" s="2" t="n">
@@ -3800,13 +5860,13 @@
       <c r="J19" s="1" t="n">
         <v>326267</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="27" t="s">
         <v>217</v>
       </c>
       <c r="N19" s="8" t="s">
@@ -3818,17 +5878,17 @@
       <c r="P19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R19" s="17" t="s">
-        <v>203</v>
+      <c r="R19" s="28" t="s">
+        <v>219</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="T19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V19" s="17" t="s">
-        <v>220</v>
+      <c r="V19" s="28" t="s">
+        <v>221</v>
       </c>
       <c r="W19" s="1" t="n">
         <v>151551</v>
@@ -3840,16 +5900,16 @@
         <v>153</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA19" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AD19" s="1" t="n">
         <v>144183</v>
@@ -3857,8 +5917,8 @@
       <c r="AE19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF19" s="17" t="s">
-        <v>224</v>
+      <c r="AF19" s="28" t="s">
+        <v>225</v>
       </c>
       <c r="AG19" s="1" t="n">
         <v>3</v>
@@ -3880,7 +5940,7 @@
         <v>1014</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -3889,7 +5949,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>7</v>
@@ -3906,23 +5966,23 @@
       <c r="J20" s="1" t="n">
         <v>150576</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="M20" s="16" t="s">
-        <v>227</v>
+      <c r="M20" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T20" s="1" t="n">
         <v>16</v>
@@ -3934,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>89</v>
@@ -3943,10 +6003,10 @@
         <v>90</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AD20" s="1" t="n">
         <v>144183</v>
@@ -3967,11 +6027,11 @@
       <c r="AV20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="n">
+      <c r="A21" s="29" t="n">
         <v>1015</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -3979,8 +6039,8 @@
       <c r="D21" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>234</v>
+      <c r="E21" s="29" t="s">
+        <v>235</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="10" t="n">
@@ -3993,23 +6053,23 @@
       <c r="J21" s="1" t="n">
         <v>130536</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="26" t="s">
         <v>183</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="30" t="s">
         <v>185</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T21" s="1" t="n">
         <v>16</v>
@@ -4057,11 +6117,11 @@
       <c r="BB21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="n">
+      <c r="A22" s="29" t="n">
         <v>1016</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -4069,8 +6129,8 @@
       <c r="D22" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>237</v>
+      <c r="E22" s="29" t="s">
+        <v>238</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>1</v>
@@ -4087,23 +6147,23 @@
       <c r="J22" s="1" t="n">
         <v>326241</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="26" t="s">
         <v>83</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T22" s="1" t="n">
         <v>16</v>
@@ -4115,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>89</v>
@@ -4127,7 +6187,7 @@
         <v>153</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AD22" s="1" t="n">
         <v>122546</v>
@@ -4148,11 +6208,11 @@
       <c r="AV22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="n">
+      <c r="A23" s="29" t="n">
         <v>1017</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -4160,38 +6220,38 @@
       <c r="D23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19" t="n">
+      <c r="E23" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="31" t="n">
         <v>300</v>
       </c>
-      <c r="H23" s="19" t="n">
+      <c r="H23" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20" t="n">
+      <c r="I23" s="31"/>
+      <c r="J23" s="32" t="n">
         <v>326271</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L23" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="N23" s="23" t="s">
+      <c r="N23" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="O23" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
+      <c r="O23" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
       <c r="T23" s="1" t="n">
         <v>16</v>
       </c>
@@ -4233,7 +6293,7 @@
         <v>1018</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2</v>
@@ -4242,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1" t="n">
@@ -4257,23 +6317,23 @@
       <c r="J24" s="1" t="n">
         <v>143689</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="26" t="s">
         <v>83</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>249</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T24" s="1" t="n">
         <v>16</v>
@@ -4285,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>89</v>
@@ -4294,10 +6354,10 @@
         <v>90</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD24" s="10" t="n">
         <v>285370</v>
@@ -4325,7 +6385,7 @@
         <v>1019</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2</v>
@@ -4334,7 +6394,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>7</v>
@@ -4357,17 +6417,17 @@
       <c r="L25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M25" s="11" t="s">
-        <v>256</v>
+      <c r="M25" s="30" t="s">
+        <v>257</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="T25" s="1" t="n">
         <v>16</v>
@@ -4379,19 +6439,19 @@
         <v>1.3</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA25" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AD25" s="1" t="n">
         <v>146119</v>
@@ -4419,7 +6479,7 @@
         <v>1020</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2</v>
@@ -4428,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1" t="n">
@@ -4450,16 +6510,16 @@
         <v>83</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="T26" s="1" t="n">
         <v>16</v>
@@ -4471,7 +6531,7 @@
         <v>1</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>89</v>
@@ -4480,10 +6540,10 @@
         <v>90</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD26" s="10" t="n">
         <v>144198</v>
@@ -4511,7 +6571,7 @@
         <v>1021</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2</v>
@@ -4520,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>3</v>
@@ -4544,16 +6604,16 @@
         <v>83</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="T27" s="1" t="n">
         <v>16</v>
@@ -4565,19 +6625,19 @@
         <v>0.5</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD27" s="1" t="n">
         <v>281886</v>
@@ -4602,7 +6662,7 @@
         <v>1022</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2</v>
@@ -4611,7 +6671,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="10" t="n">
@@ -4633,19 +6693,19 @@
         <v>183</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
       <c r="S28" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T28" s="1" t="n">
         <v>16</v>
@@ -4657,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>188</v>
@@ -4669,7 +6729,7 @@
         <v>90</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AD28" s="1" t="n">
         <v>144183</v>
@@ -4697,7 +6757,7 @@
         <v>1023</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2</v>
@@ -4706,7 +6766,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>150</v>
@@ -4730,7 +6790,7 @@
         <v>119</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="T29" s="1" t="n">
         <v>16</v>
@@ -4751,7 +6811,7 @@
         <v>118</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF29" s="1" t="n">
         <v>20270</v>
@@ -4768,7 +6828,7 @@
         <v>1024</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2</v>
@@ -4777,7 +6837,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>250</v>
@@ -4801,7 +6861,7 @@
         <v>119</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="T30" s="1" t="n">
         <v>16</v>
@@ -4822,7 +6882,7 @@
         <v>118</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF30" s="1" t="n">
         <v>20270</v>
@@ -4839,7 +6899,7 @@
         <v>1025</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>3</v>
@@ -4848,7 +6908,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>9</v>
@@ -4872,16 +6932,16 @@
         <v>83</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T31" s="1" t="n">
         <v>16</v>
@@ -4893,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>134</v>
@@ -4905,7 +6965,7 @@
         <v>153</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AD31" s="1" t="n">
         <v>281788</v>
@@ -4928,7 +6988,7 @@
         <v>1026</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>3</v>
@@ -4937,7 +6997,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>7</v>
@@ -4961,16 +7021,16 @@
         <v>83</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T32" s="1" t="n">
         <v>16</v>
@@ -4982,7 +7042,7 @@
         <v>0.3</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>176</v>
@@ -4991,10 +7051,10 @@
         <v>90</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AD32" s="1" t="n">
         <v>285400</v>
@@ -5017,7 +7077,7 @@
         <v>1027</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>3</v>
@@ -5026,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>2</v>
@@ -5050,16 +7110,16 @@
         <v>83</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T33" s="1" t="n">
         <v>16</v>
@@ -5071,7 +7131,7 @@
         <v>1.2</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>176</v>
@@ -5083,7 +7143,7 @@
         <v>153</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AD33" s="1" t="n">
         <v>281710</v>
@@ -5106,7 +7166,7 @@
         <v>1028</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>3</v>
@@ -5115,7 +7175,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>4</v>
@@ -5139,16 +7199,16 @@
         <v>83</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="T34" s="1" t="n">
         <v>16</v>
@@ -5160,19 +7220,19 @@
         <v>0.5</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA34" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AD34" s="1" t="n">
         <v>299561</v>
@@ -5191,11 +7251,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="n">
+      <c r="A35" s="28" t="n">
         <v>1029</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>3</v>
@@ -5203,8 +7263,8 @@
       <c r="D35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>321</v>
+      <c r="E35" s="28" t="s">
+        <v>322</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>550</v>
@@ -5225,25 +7285,25 @@
         <v>83</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="R35" s="17" t="s">
-        <v>203</v>
+        <v>324</v>
+      </c>
+      <c r="R35" s="28" t="s">
+        <v>219</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T35" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V35" s="17" t="s">
-        <v>220</v>
+      <c r="V35" s="28" t="s">
+        <v>221</v>
       </c>
       <c r="W35" s="1" t="n">
         <v>130642</v>
@@ -5264,7 +7324,7 @@
         <v>153</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AD35" s="1" t="n">
         <v>285356</v>
@@ -5272,8 +7332,8 @@
       <c r="AE35" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF35" s="17" t="s">
-        <v>326</v>
+      <c r="AF35" s="28" t="s">
+        <v>327</v>
       </c>
       <c r="AG35" s="1" t="n">
         <v>2</v>
@@ -5283,11 +7343,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="n">
+      <c r="A36" s="28" t="n">
         <v>1030</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>3</v>
@@ -5295,8 +7355,8 @@
       <c r="D36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>328</v>
+      <c r="E36" s="28" t="s">
+        <v>329</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>2</v>
@@ -5320,25 +7380,25 @@
         <v>83</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="R36" s="17" t="s">
-        <v>203</v>
+        <v>331</v>
+      </c>
+      <c r="R36" s="28" t="s">
+        <v>219</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T36" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V36" s="17" t="s">
-        <v>332</v>
+      <c r="V36" s="28" t="s">
+        <v>333</v>
       </c>
       <c r="W36" s="1" t="n">
         <v>254276</v>
@@ -5359,7 +7419,7 @@
         <v>153</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AD36" s="1" t="n">
         <v>20301</v>
@@ -5367,8 +7427,8 @@
       <c r="AE36" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF36" s="17" t="s">
-        <v>334</v>
+      <c r="AF36" s="28" t="s">
+        <v>335</v>
       </c>
       <c r="AG36" s="1" t="n">
         <v>3</v>
@@ -5382,7 +7442,7 @@
         <v>1031</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>4</v>
@@ -5391,7 +7451,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>8</v>
@@ -5415,16 +7475,16 @@
         <v>83</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T37" s="1" t="n">
         <v>16</v>
@@ -5436,7 +7496,7 @@
         <v>1</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>89</v>
@@ -5445,10 +7505,10 @@
         <v>90</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AD37" s="1" t="n">
         <v>281710</v>
@@ -5471,7 +7531,7 @@
         <v>1032</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>4</v>
@@ -5480,7 +7540,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>4</v>
@@ -5504,16 +7564,16 @@
         <v>83</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="T38" s="1" t="n">
         <v>16</v>
@@ -5525,7 +7585,7 @@
         <v>0.8</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>89</v>
@@ -5534,10 +7594,10 @@
         <v>90</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AD38" s="1" t="n">
         <v>281871</v>
@@ -5560,7 +7620,7 @@
         <v>1033</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>4</v>
@@ -5569,7 +7629,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>10</v>
@@ -5593,16 +7653,16 @@
         <v>83</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T39" s="1" t="n">
         <v>16</v>
@@ -5614,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>89</v>
@@ -5626,7 +7686,7 @@
         <v>153</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AD39" s="1" t="n">
         <v>300932</v>
@@ -5649,7 +7709,7 @@
         <v>1034</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>4</v>
@@ -5658,7 +7718,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1500</v>
@@ -5679,16 +7739,16 @@
         <v>83</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="T40" s="1" t="n">
         <v>16</v>
@@ -5700,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>89</v>
@@ -5712,7 +7772,7 @@
         <v>153</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD40" s="1" t="n">
         <v>117391</v>
@@ -5735,7 +7795,7 @@
         <v>1035</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>4</v>
@@ -5744,7 +7804,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>6</v>
@@ -5768,16 +7828,16 @@
         <v>83</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="T41" s="1" t="n">
         <v>16</v>
@@ -5789,16 +7849,16 @@
         <v>1</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA41" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>369</v>
@@ -5809,7 +7869,7 @@
       <c r="AE41" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF41" s="16" t="n">
+      <c r="AF41" s="27" t="n">
         <v>269223</v>
       </c>
       <c r="AG41" s="1" t="n">
@@ -5881,7 +7941,7 @@
         <v>118</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF42" s="1" t="n">
         <v>20270</v>
@@ -5958,7 +8018,7 @@
         <v>90</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>379</v>
@@ -6044,7 +8104,7 @@
         <v>90</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AC44" s="1" t="s">
         <v>386</v>
@@ -6055,7 +8115,7 @@
       <c r="AE44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF44" s="16" t="n">
+      <c r="AF44" s="27" t="n">
         <v>29747</v>
       </c>
       <c r="AG44" s="1" t="n">
@@ -6216,7 +8276,7 @@
         <v>399</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA46" s="1" t="s">
         <v>90</v>
@@ -6568,7 +8628,7 @@
         <v>134</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA50" s="1" t="s">
         <v>90</v>
@@ -6663,7 +8723,7 @@
         <v>90</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>428</v>
@@ -6746,7 +8806,7 @@
         <v>434</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA52" s="1" t="s">
         <v>90</v>
@@ -6897,10 +8957,10 @@
         <v>183</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>444</v>
@@ -6915,7 +8975,7 @@
         <v>1</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z54" s="1" t="s">
         <v>188</v>
@@ -6927,7 +8987,7 @@
         <v>90</v>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AD54" s="1" t="n">
         <v>144183</v>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="446">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -930,7 +930,7 @@
     <t xml:space="preserve">600|700|800</t>
   </si>
   <si>
-    <t xml:space="preserve">88A9134443C169D1D86DE4A68690D295|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+    <t xml:space="preserve">88A9134443C169D1D86DE4A68690D295</t>
   </si>
   <si>
     <t xml:space="preserve">CC07D30340D3F7222F7D498025208100</t>
@@ -954,22 +954,22 @@
     <t xml:space="preserve">B06787054CADB7A7F6D7119045051E1E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
   </si>
   <si>
+    <t xml:space="preserve">6|7</t>
+  </si>
+  <si>
     <t xml:space="preserve">1000|500</t>
   </si>
   <si>
     <t xml:space="preserve">D4B7264E42074A814EA43BA7906BBEE7</t>
   </si>
   <si>
-    <t xml:space="preserve">2000|500</t>
-  </si>
-  <si>
     <t xml:space="preserve">4|4|4</t>
   </si>
   <si>
-    <t xml:space="preserve">2|2.25|2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">280|320|370</t>
+    <t xml:space="preserve">2|2|2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280|350|350</t>
   </si>
   <si>
     <t xml:space="preserve">20275|281753</t>
@@ -1292,6 +1292,9 @@
   </si>
   <si>
     <t xml:space="preserve">4FF20A6343EE57735D83EE9B9EFB6981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000|500</t>
   </si>
   <si>
     <t xml:space="preserve">350|450|600</t>
@@ -1740,14 +1743,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -1892,12 +1895,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1912,11 +1915,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1924,23 +1923,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2136,7 +2139,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O29" activeCellId="0" sqref="O29"/>
+      <selection pane="topRight" activeCell="Q21" activeCellId="0" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4730,7 +4733,7 @@
       <c r="AMR17" s="15"/>
       <c r="AMS17" s="15"/>
     </row>
-    <row r="18" s="23" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
         <v>1012</v>
       </c>
@@ -5829,111 +5832,1106 @@
       <c r="AMR18" s="15"/>
       <c r="AMS18" s="15"/>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="n">
+    <row r="19" s="24" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="n">
         <v>1013</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="24" t="s">
+      <c r="C19" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F19" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="G19" s="10" t="n">
+      <c r="F19" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" s="13" t="n">
         <v>550</v>
       </c>
-      <c r="H19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="H19" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="1" t="n">
+      <c r="J19" s="15" t="n">
         <v>326267</v>
       </c>
-      <c r="K19" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="26" t="s">
+      <c r="K19" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="M19" s="27" t="s">
+      <c r="M19" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="P19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="28" t="s">
+      <c r="P19" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="R19" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="T19" s="1" t="n">
+      <c r="S19" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="T19" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="V19" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="W19" s="1" t="n">
+      <c r="U19" s="15"/>
+      <c r="V19" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="W19" s="15" t="n">
         <v>151551</v>
       </c>
-      <c r="X19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="1" t="s">
+      <c r="X19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="Z19" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="AA19" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AB19" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AC19" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="AD19" s="1" t="n">
+      <c r="AD19" s="15" t="n">
         <v>144183</v>
       </c>
-      <c r="AE19" s="1" t="s">
+      <c r="AE19" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="AF19" s="28" t="s">
+      <c r="AF19" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="AG19" s="1" t="n">
+      <c r="AG19" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="AH19" s="1" t="s">
+      <c r="AH19" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AJ19" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="AT19" s="9"/>
-      <c r="AU19" s="8"/>
-      <c r="AV19" s="9"/>
-      <c r="AY19" s="8"/>
-      <c r="BB19" s="8"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="18"/>
+      <c r="AU19" s="17"/>
+      <c r="AV19" s="18"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="17"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="17"/>
+      <c r="BC19" s="15"/>
+      <c r="BD19" s="15"/>
+      <c r="BE19" s="15"/>
+      <c r="BF19" s="15"/>
+      <c r="BG19" s="15"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="15"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="15"/>
+      <c r="BL19" s="15"/>
+      <c r="BM19" s="15"/>
+      <c r="BN19" s="15"/>
+      <c r="BO19" s="15"/>
+      <c r="BP19" s="15"/>
+      <c r="BQ19" s="15"/>
+      <c r="BR19" s="15"/>
+      <c r="BS19" s="15"/>
+      <c r="BT19" s="15"/>
+      <c r="BU19" s="15"/>
+      <c r="BV19" s="15"/>
+      <c r="BW19" s="15"/>
+      <c r="BX19" s="15"/>
+      <c r="BY19" s="15"/>
+      <c r="BZ19" s="15"/>
+      <c r="CA19" s="15"/>
+      <c r="CB19" s="15"/>
+      <c r="CC19" s="15"/>
+      <c r="CD19" s="15"/>
+      <c r="CE19" s="15"/>
+      <c r="CF19" s="15"/>
+      <c r="CG19" s="15"/>
+      <c r="CH19" s="15"/>
+      <c r="CI19" s="15"/>
+      <c r="CJ19" s="15"/>
+      <c r="CK19" s="15"/>
+      <c r="CL19" s="15"/>
+      <c r="CM19" s="15"/>
+      <c r="CN19" s="15"/>
+      <c r="CO19" s="15"/>
+      <c r="CP19" s="15"/>
+      <c r="CQ19" s="15"/>
+      <c r="CR19" s="15"/>
+      <c r="CS19" s="15"/>
+      <c r="CT19" s="15"/>
+      <c r="CU19" s="15"/>
+      <c r="CV19" s="15"/>
+      <c r="CW19" s="15"/>
+      <c r="CX19" s="15"/>
+      <c r="CY19" s="15"/>
+      <c r="CZ19" s="15"/>
+      <c r="DA19" s="15"/>
+      <c r="DB19" s="15"/>
+      <c r="DC19" s="15"/>
+      <c r="DD19" s="15"/>
+      <c r="DE19" s="15"/>
+      <c r="DF19" s="15"/>
+      <c r="DG19" s="15"/>
+      <c r="DH19" s="15"/>
+      <c r="DI19" s="15"/>
+      <c r="DJ19" s="15"/>
+      <c r="DK19" s="15"/>
+      <c r="DL19" s="15"/>
+      <c r="DM19" s="15"/>
+      <c r="DN19" s="15"/>
+      <c r="DO19" s="15"/>
+      <c r="DP19" s="15"/>
+      <c r="DQ19" s="15"/>
+      <c r="DR19" s="15"/>
+      <c r="DS19" s="15"/>
+      <c r="DT19" s="15"/>
+      <c r="DU19" s="15"/>
+      <c r="DV19" s="15"/>
+      <c r="DW19" s="15"/>
+      <c r="DX19" s="15"/>
+      <c r="DY19" s="15"/>
+      <c r="DZ19" s="15"/>
+      <c r="EA19" s="15"/>
+      <c r="EB19" s="15"/>
+      <c r="EC19" s="15"/>
+      <c r="ED19" s="15"/>
+      <c r="EE19" s="15"/>
+      <c r="EF19" s="15"/>
+      <c r="EG19" s="15"/>
+      <c r="EH19" s="15"/>
+      <c r="EI19" s="15"/>
+      <c r="EJ19" s="15"/>
+      <c r="EK19" s="15"/>
+      <c r="EL19" s="15"/>
+      <c r="EM19" s="15"/>
+      <c r="EN19" s="15"/>
+      <c r="EO19" s="15"/>
+      <c r="EP19" s="15"/>
+      <c r="EQ19" s="15"/>
+      <c r="ER19" s="15"/>
+      <c r="ES19" s="15"/>
+      <c r="ET19" s="15"/>
+      <c r="EU19" s="15"/>
+      <c r="EV19" s="15"/>
+      <c r="EW19" s="15"/>
+      <c r="EX19" s="15"/>
+      <c r="EY19" s="15"/>
+      <c r="EZ19" s="15"/>
+      <c r="FA19" s="15"/>
+      <c r="FB19" s="15"/>
+      <c r="FC19" s="15"/>
+      <c r="FD19" s="15"/>
+      <c r="FE19" s="15"/>
+      <c r="FF19" s="15"/>
+      <c r="FG19" s="15"/>
+      <c r="FH19" s="15"/>
+      <c r="FI19" s="15"/>
+      <c r="FJ19" s="15"/>
+      <c r="FK19" s="15"/>
+      <c r="FL19" s="15"/>
+      <c r="FM19" s="15"/>
+      <c r="FN19" s="15"/>
+      <c r="FO19" s="15"/>
+      <c r="FP19" s="15"/>
+      <c r="FQ19" s="15"/>
+      <c r="FR19" s="15"/>
+      <c r="FS19" s="15"/>
+      <c r="FT19" s="15"/>
+      <c r="FU19" s="15"/>
+      <c r="FV19" s="15"/>
+      <c r="FW19" s="15"/>
+      <c r="FX19" s="15"/>
+      <c r="FY19" s="15"/>
+      <c r="FZ19" s="15"/>
+      <c r="GA19" s="15"/>
+      <c r="GB19" s="15"/>
+      <c r="GC19" s="15"/>
+      <c r="GD19" s="15"/>
+      <c r="GE19" s="15"/>
+      <c r="GF19" s="15"/>
+      <c r="GG19" s="15"/>
+      <c r="GH19" s="15"/>
+      <c r="GI19" s="15"/>
+      <c r="GJ19" s="15"/>
+      <c r="GK19" s="15"/>
+      <c r="GL19" s="15"/>
+      <c r="GM19" s="15"/>
+      <c r="GN19" s="15"/>
+      <c r="GO19" s="15"/>
+      <c r="GP19" s="15"/>
+      <c r="GQ19" s="15"/>
+      <c r="GR19" s="15"/>
+      <c r="GS19" s="15"/>
+      <c r="GT19" s="15"/>
+      <c r="GU19" s="15"/>
+      <c r="GV19" s="15"/>
+      <c r="GW19" s="15"/>
+      <c r="GX19" s="15"/>
+      <c r="GY19" s="15"/>
+      <c r="GZ19" s="15"/>
+      <c r="HA19" s="15"/>
+      <c r="HB19" s="15"/>
+      <c r="HC19" s="15"/>
+      <c r="HD19" s="15"/>
+      <c r="HE19" s="15"/>
+      <c r="HF19" s="15"/>
+      <c r="HG19" s="15"/>
+      <c r="HH19" s="15"/>
+      <c r="HI19" s="15"/>
+      <c r="HJ19" s="15"/>
+      <c r="HK19" s="15"/>
+      <c r="HL19" s="15"/>
+      <c r="HM19" s="15"/>
+      <c r="HN19" s="15"/>
+      <c r="HO19" s="15"/>
+      <c r="HP19" s="15"/>
+      <c r="HQ19" s="15"/>
+      <c r="HR19" s="15"/>
+      <c r="HS19" s="15"/>
+      <c r="HT19" s="15"/>
+      <c r="HU19" s="15"/>
+      <c r="HV19" s="15"/>
+      <c r="HW19" s="15"/>
+      <c r="HX19" s="15"/>
+      <c r="HY19" s="15"/>
+      <c r="HZ19" s="15"/>
+      <c r="IA19" s="15"/>
+      <c r="IB19" s="15"/>
+      <c r="IC19" s="15"/>
+      <c r="ID19" s="15"/>
+      <c r="IE19" s="15"/>
+      <c r="IF19" s="15"/>
+      <c r="IG19" s="15"/>
+      <c r="IH19" s="15"/>
+      <c r="II19" s="15"/>
+      <c r="IJ19" s="15"/>
+      <c r="IK19" s="15"/>
+      <c r="IL19" s="15"/>
+      <c r="IM19" s="15"/>
+      <c r="IN19" s="15"/>
+      <c r="IO19" s="15"/>
+      <c r="IP19" s="15"/>
+      <c r="IQ19" s="15"/>
+      <c r="IR19" s="15"/>
+      <c r="IS19" s="15"/>
+      <c r="IT19" s="15"/>
+      <c r="IU19" s="15"/>
+      <c r="IV19" s="15"/>
+      <c r="IW19" s="15"/>
+      <c r="IX19" s="15"/>
+      <c r="IY19" s="15"/>
+      <c r="IZ19" s="15"/>
+      <c r="JA19" s="15"/>
+      <c r="JB19" s="15"/>
+      <c r="JC19" s="15"/>
+      <c r="JD19" s="15"/>
+      <c r="JE19" s="15"/>
+      <c r="JF19" s="15"/>
+      <c r="JG19" s="15"/>
+      <c r="JH19" s="15"/>
+      <c r="JI19" s="15"/>
+      <c r="JJ19" s="15"/>
+      <c r="JK19" s="15"/>
+      <c r="JL19" s="15"/>
+      <c r="JM19" s="15"/>
+      <c r="JN19" s="15"/>
+      <c r="JO19" s="15"/>
+      <c r="JP19" s="15"/>
+      <c r="JQ19" s="15"/>
+      <c r="JR19" s="15"/>
+      <c r="JS19" s="15"/>
+      <c r="JT19" s="15"/>
+      <c r="JU19" s="15"/>
+      <c r="JV19" s="15"/>
+      <c r="JW19" s="15"/>
+      <c r="JX19" s="15"/>
+      <c r="JY19" s="15"/>
+      <c r="JZ19" s="15"/>
+      <c r="KA19" s="15"/>
+      <c r="KB19" s="15"/>
+      <c r="KC19" s="15"/>
+      <c r="KD19" s="15"/>
+      <c r="KE19" s="15"/>
+      <c r="KF19" s="15"/>
+      <c r="KG19" s="15"/>
+      <c r="KH19" s="15"/>
+      <c r="KI19" s="15"/>
+      <c r="KJ19" s="15"/>
+      <c r="KK19" s="15"/>
+      <c r="KL19" s="15"/>
+      <c r="KM19" s="15"/>
+      <c r="KN19" s="15"/>
+      <c r="KO19" s="15"/>
+      <c r="KP19" s="15"/>
+      <c r="KQ19" s="15"/>
+      <c r="KR19" s="15"/>
+      <c r="KS19" s="15"/>
+      <c r="KT19" s="15"/>
+      <c r="KU19" s="15"/>
+      <c r="KV19" s="15"/>
+      <c r="KW19" s="15"/>
+      <c r="KX19" s="15"/>
+      <c r="KY19" s="15"/>
+      <c r="KZ19" s="15"/>
+      <c r="LA19" s="15"/>
+      <c r="LB19" s="15"/>
+      <c r="LC19" s="15"/>
+      <c r="LD19" s="15"/>
+      <c r="LE19" s="15"/>
+      <c r="LF19" s="15"/>
+      <c r="LG19" s="15"/>
+      <c r="LH19" s="15"/>
+      <c r="LI19" s="15"/>
+      <c r="LJ19" s="15"/>
+      <c r="LK19" s="15"/>
+      <c r="LL19" s="15"/>
+      <c r="LM19" s="15"/>
+      <c r="LN19" s="15"/>
+      <c r="LO19" s="15"/>
+      <c r="LP19" s="15"/>
+      <c r="LQ19" s="15"/>
+      <c r="LR19" s="15"/>
+      <c r="LS19" s="15"/>
+      <c r="LT19" s="15"/>
+      <c r="LU19" s="15"/>
+      <c r="LV19" s="15"/>
+      <c r="LW19" s="15"/>
+      <c r="LX19" s="15"/>
+      <c r="LY19" s="15"/>
+      <c r="LZ19" s="15"/>
+      <c r="MA19" s="15"/>
+      <c r="MB19" s="15"/>
+      <c r="MC19" s="15"/>
+      <c r="MD19" s="15"/>
+      <c r="ME19" s="15"/>
+      <c r="MF19" s="15"/>
+      <c r="MG19" s="15"/>
+      <c r="MH19" s="15"/>
+      <c r="MI19" s="15"/>
+      <c r="MJ19" s="15"/>
+      <c r="MK19" s="15"/>
+      <c r="ML19" s="15"/>
+      <c r="MM19" s="15"/>
+      <c r="MN19" s="15"/>
+      <c r="MO19" s="15"/>
+      <c r="MP19" s="15"/>
+      <c r="MQ19" s="15"/>
+      <c r="MR19" s="15"/>
+      <c r="MS19" s="15"/>
+      <c r="MT19" s="15"/>
+      <c r="MU19" s="15"/>
+      <c r="MV19" s="15"/>
+      <c r="MW19" s="15"/>
+      <c r="MX19" s="15"/>
+      <c r="MY19" s="15"/>
+      <c r="MZ19" s="15"/>
+      <c r="NA19" s="15"/>
+      <c r="NB19" s="15"/>
+      <c r="NC19" s="15"/>
+      <c r="ND19" s="15"/>
+      <c r="NE19" s="15"/>
+      <c r="NF19" s="15"/>
+      <c r="NG19" s="15"/>
+      <c r="NH19" s="15"/>
+      <c r="NI19" s="15"/>
+      <c r="NJ19" s="15"/>
+      <c r="NK19" s="15"/>
+      <c r="NL19" s="15"/>
+      <c r="NM19" s="15"/>
+      <c r="NN19" s="15"/>
+      <c r="NO19" s="15"/>
+      <c r="NP19" s="15"/>
+      <c r="NQ19" s="15"/>
+      <c r="NR19" s="15"/>
+      <c r="NS19" s="15"/>
+      <c r="NT19" s="15"/>
+      <c r="NU19" s="15"/>
+      <c r="NV19" s="15"/>
+      <c r="NW19" s="15"/>
+      <c r="NX19" s="15"/>
+      <c r="NY19" s="15"/>
+      <c r="NZ19" s="15"/>
+      <c r="OA19" s="15"/>
+      <c r="OB19" s="15"/>
+      <c r="OC19" s="15"/>
+      <c r="OD19" s="15"/>
+      <c r="OE19" s="15"/>
+      <c r="OF19" s="15"/>
+      <c r="OG19" s="15"/>
+      <c r="OH19" s="15"/>
+      <c r="OI19" s="15"/>
+      <c r="OJ19" s="15"/>
+      <c r="OK19" s="15"/>
+      <c r="OL19" s="15"/>
+      <c r="OM19" s="15"/>
+      <c r="ON19" s="15"/>
+      <c r="OO19" s="15"/>
+      <c r="OP19" s="15"/>
+      <c r="OQ19" s="15"/>
+      <c r="OR19" s="15"/>
+      <c r="OS19" s="15"/>
+      <c r="OT19" s="15"/>
+      <c r="OU19" s="15"/>
+      <c r="OV19" s="15"/>
+      <c r="OW19" s="15"/>
+      <c r="OX19" s="15"/>
+      <c r="OY19" s="15"/>
+      <c r="OZ19" s="15"/>
+      <c r="PA19" s="15"/>
+      <c r="PB19" s="15"/>
+      <c r="PC19" s="15"/>
+      <c r="PD19" s="15"/>
+      <c r="PE19" s="15"/>
+      <c r="PF19" s="15"/>
+      <c r="PG19" s="15"/>
+      <c r="PH19" s="15"/>
+      <c r="PI19" s="15"/>
+      <c r="PJ19" s="15"/>
+      <c r="PK19" s="15"/>
+      <c r="PL19" s="15"/>
+      <c r="PM19" s="15"/>
+      <c r="PN19" s="15"/>
+      <c r="PO19" s="15"/>
+      <c r="PP19" s="15"/>
+      <c r="PQ19" s="15"/>
+      <c r="PR19" s="15"/>
+      <c r="PS19" s="15"/>
+      <c r="PT19" s="15"/>
+      <c r="PU19" s="15"/>
+      <c r="PV19" s="15"/>
+      <c r="PW19" s="15"/>
+      <c r="PX19" s="15"/>
+      <c r="PY19" s="15"/>
+      <c r="PZ19" s="15"/>
+      <c r="QA19" s="15"/>
+      <c r="QB19" s="15"/>
+      <c r="QC19" s="15"/>
+      <c r="QD19" s="15"/>
+      <c r="QE19" s="15"/>
+      <c r="QF19" s="15"/>
+      <c r="QG19" s="15"/>
+      <c r="QH19" s="15"/>
+      <c r="QI19" s="15"/>
+      <c r="QJ19" s="15"/>
+      <c r="QK19" s="15"/>
+      <c r="QL19" s="15"/>
+      <c r="QM19" s="15"/>
+      <c r="QN19" s="15"/>
+      <c r="QO19" s="15"/>
+      <c r="QP19" s="15"/>
+      <c r="QQ19" s="15"/>
+      <c r="QR19" s="15"/>
+      <c r="QS19" s="15"/>
+      <c r="QT19" s="15"/>
+      <c r="QU19" s="15"/>
+      <c r="QV19" s="15"/>
+      <c r="QW19" s="15"/>
+      <c r="QX19" s="15"/>
+      <c r="QY19" s="15"/>
+      <c r="QZ19" s="15"/>
+      <c r="RA19" s="15"/>
+      <c r="RB19" s="15"/>
+      <c r="RC19" s="15"/>
+      <c r="RD19" s="15"/>
+      <c r="RE19" s="15"/>
+      <c r="RF19" s="15"/>
+      <c r="RG19" s="15"/>
+      <c r="RH19" s="15"/>
+      <c r="RI19" s="15"/>
+      <c r="RJ19" s="15"/>
+      <c r="RK19" s="15"/>
+      <c r="RL19" s="15"/>
+      <c r="RM19" s="15"/>
+      <c r="RN19" s="15"/>
+      <c r="RO19" s="15"/>
+      <c r="RP19" s="15"/>
+      <c r="RQ19" s="15"/>
+      <c r="RR19" s="15"/>
+      <c r="RS19" s="15"/>
+      <c r="RT19" s="15"/>
+      <c r="RU19" s="15"/>
+      <c r="RV19" s="15"/>
+      <c r="RW19" s="15"/>
+      <c r="RX19" s="15"/>
+      <c r="RY19" s="15"/>
+      <c r="RZ19" s="15"/>
+      <c r="SA19" s="15"/>
+      <c r="SB19" s="15"/>
+      <c r="SC19" s="15"/>
+      <c r="SD19" s="15"/>
+      <c r="SE19" s="15"/>
+      <c r="SF19" s="15"/>
+      <c r="SG19" s="15"/>
+      <c r="SH19" s="15"/>
+      <c r="SI19" s="15"/>
+      <c r="SJ19" s="15"/>
+      <c r="SK19" s="15"/>
+      <c r="SL19" s="15"/>
+      <c r="SM19" s="15"/>
+      <c r="SN19" s="15"/>
+      <c r="SO19" s="15"/>
+      <c r="SP19" s="15"/>
+      <c r="SQ19" s="15"/>
+      <c r="SR19" s="15"/>
+      <c r="SS19" s="15"/>
+      <c r="ST19" s="15"/>
+      <c r="SU19" s="15"/>
+      <c r="SV19" s="15"/>
+      <c r="SW19" s="15"/>
+      <c r="SX19" s="15"/>
+      <c r="SY19" s="15"/>
+      <c r="SZ19" s="15"/>
+      <c r="TA19" s="15"/>
+      <c r="TB19" s="15"/>
+      <c r="TC19" s="15"/>
+      <c r="TD19" s="15"/>
+      <c r="TE19" s="15"/>
+      <c r="TF19" s="15"/>
+      <c r="TG19" s="15"/>
+      <c r="TH19" s="15"/>
+      <c r="TI19" s="15"/>
+      <c r="TJ19" s="15"/>
+      <c r="TK19" s="15"/>
+      <c r="TL19" s="15"/>
+      <c r="TM19" s="15"/>
+      <c r="TN19" s="15"/>
+      <c r="TO19" s="15"/>
+      <c r="TP19" s="15"/>
+      <c r="TQ19" s="15"/>
+      <c r="TR19" s="15"/>
+      <c r="TS19" s="15"/>
+      <c r="TT19" s="15"/>
+      <c r="TU19" s="15"/>
+      <c r="TV19" s="15"/>
+      <c r="TW19" s="15"/>
+      <c r="TX19" s="15"/>
+      <c r="TY19" s="15"/>
+      <c r="TZ19" s="15"/>
+      <c r="UA19" s="15"/>
+      <c r="UB19" s="15"/>
+      <c r="UC19" s="15"/>
+      <c r="UD19" s="15"/>
+      <c r="UE19" s="15"/>
+      <c r="UF19" s="15"/>
+      <c r="UG19" s="15"/>
+      <c r="UH19" s="15"/>
+      <c r="UI19" s="15"/>
+      <c r="UJ19" s="15"/>
+      <c r="UK19" s="15"/>
+      <c r="UL19" s="15"/>
+      <c r="UM19" s="15"/>
+      <c r="UN19" s="15"/>
+      <c r="UO19" s="15"/>
+      <c r="UP19" s="15"/>
+      <c r="UQ19" s="15"/>
+      <c r="UR19" s="15"/>
+      <c r="US19" s="15"/>
+      <c r="UT19" s="15"/>
+      <c r="UU19" s="15"/>
+      <c r="UV19" s="15"/>
+      <c r="UW19" s="15"/>
+      <c r="UX19" s="15"/>
+      <c r="UY19" s="15"/>
+      <c r="UZ19" s="15"/>
+      <c r="VA19" s="15"/>
+      <c r="VB19" s="15"/>
+      <c r="VC19" s="15"/>
+      <c r="VD19" s="15"/>
+      <c r="VE19" s="15"/>
+      <c r="VF19" s="15"/>
+      <c r="VG19" s="15"/>
+      <c r="VH19" s="15"/>
+      <c r="VI19" s="15"/>
+      <c r="VJ19" s="15"/>
+      <c r="VK19" s="15"/>
+      <c r="VL19" s="15"/>
+      <c r="VM19" s="15"/>
+      <c r="VN19" s="15"/>
+      <c r="VO19" s="15"/>
+      <c r="VP19" s="15"/>
+      <c r="VQ19" s="15"/>
+      <c r="VR19" s="15"/>
+      <c r="VS19" s="15"/>
+      <c r="VT19" s="15"/>
+      <c r="VU19" s="15"/>
+      <c r="VV19" s="15"/>
+      <c r="VW19" s="15"/>
+      <c r="VX19" s="15"/>
+      <c r="VY19" s="15"/>
+      <c r="VZ19" s="15"/>
+      <c r="WA19" s="15"/>
+      <c r="WB19" s="15"/>
+      <c r="WC19" s="15"/>
+      <c r="WD19" s="15"/>
+      <c r="WE19" s="15"/>
+      <c r="WF19" s="15"/>
+      <c r="WG19" s="15"/>
+      <c r="WH19" s="15"/>
+      <c r="WI19" s="15"/>
+      <c r="WJ19" s="15"/>
+      <c r="WK19" s="15"/>
+      <c r="WL19" s="15"/>
+      <c r="WM19" s="15"/>
+      <c r="WN19" s="15"/>
+      <c r="WO19" s="15"/>
+      <c r="WP19" s="15"/>
+      <c r="WQ19" s="15"/>
+      <c r="WR19" s="15"/>
+      <c r="WS19" s="15"/>
+      <c r="WT19" s="15"/>
+      <c r="WU19" s="15"/>
+      <c r="WV19" s="15"/>
+      <c r="WW19" s="15"/>
+      <c r="WX19" s="15"/>
+      <c r="WY19" s="15"/>
+      <c r="WZ19" s="15"/>
+      <c r="XA19" s="15"/>
+      <c r="XB19" s="15"/>
+      <c r="XC19" s="15"/>
+      <c r="XD19" s="15"/>
+      <c r="XE19" s="15"/>
+      <c r="XF19" s="15"/>
+      <c r="XG19" s="15"/>
+      <c r="XH19" s="15"/>
+      <c r="XI19" s="15"/>
+      <c r="XJ19" s="15"/>
+      <c r="XK19" s="15"/>
+      <c r="XL19" s="15"/>
+      <c r="XM19" s="15"/>
+      <c r="XN19" s="15"/>
+      <c r="XO19" s="15"/>
+      <c r="XP19" s="15"/>
+      <c r="XQ19" s="15"/>
+      <c r="XR19" s="15"/>
+      <c r="XS19" s="15"/>
+      <c r="XT19" s="15"/>
+      <c r="XU19" s="15"/>
+      <c r="XV19" s="15"/>
+      <c r="XW19" s="15"/>
+      <c r="XX19" s="15"/>
+      <c r="XY19" s="15"/>
+      <c r="XZ19" s="15"/>
+      <c r="YA19" s="15"/>
+      <c r="YB19" s="15"/>
+      <c r="YC19" s="15"/>
+      <c r="YD19" s="15"/>
+      <c r="YE19" s="15"/>
+      <c r="YF19" s="15"/>
+      <c r="YG19" s="15"/>
+      <c r="YH19" s="15"/>
+      <c r="YI19" s="15"/>
+      <c r="YJ19" s="15"/>
+      <c r="YK19" s="15"/>
+      <c r="YL19" s="15"/>
+      <c r="YM19" s="15"/>
+      <c r="YN19" s="15"/>
+      <c r="YO19" s="15"/>
+      <c r="YP19" s="15"/>
+      <c r="YQ19" s="15"/>
+      <c r="YR19" s="15"/>
+      <c r="YS19" s="15"/>
+      <c r="YT19" s="15"/>
+      <c r="YU19" s="15"/>
+      <c r="YV19" s="15"/>
+      <c r="YW19" s="15"/>
+      <c r="YX19" s="15"/>
+      <c r="YY19" s="15"/>
+      <c r="YZ19" s="15"/>
+      <c r="ZA19" s="15"/>
+      <c r="ZB19" s="15"/>
+      <c r="ZC19" s="15"/>
+      <c r="ZD19" s="15"/>
+      <c r="ZE19" s="15"/>
+      <c r="ZF19" s="15"/>
+      <c r="ZG19" s="15"/>
+      <c r="ZH19" s="15"/>
+      <c r="ZI19" s="15"/>
+      <c r="ZJ19" s="15"/>
+      <c r="ZK19" s="15"/>
+      <c r="ZL19" s="15"/>
+      <c r="ZM19" s="15"/>
+      <c r="ZN19" s="15"/>
+      <c r="ZO19" s="15"/>
+      <c r="ZP19" s="15"/>
+      <c r="ZQ19" s="15"/>
+      <c r="ZR19" s="15"/>
+      <c r="ZS19" s="15"/>
+      <c r="ZT19" s="15"/>
+      <c r="ZU19" s="15"/>
+      <c r="ZV19" s="15"/>
+      <c r="ZW19" s="15"/>
+      <c r="ZX19" s="15"/>
+      <c r="ZY19" s="15"/>
+      <c r="ZZ19" s="15"/>
+      <c r="AAA19" s="15"/>
+      <c r="AAB19" s="15"/>
+      <c r="AAC19" s="15"/>
+      <c r="AAD19" s="15"/>
+      <c r="AAE19" s="15"/>
+      <c r="AAF19" s="15"/>
+      <c r="AAG19" s="15"/>
+      <c r="AAH19" s="15"/>
+      <c r="AAI19" s="15"/>
+      <c r="AAJ19" s="15"/>
+      <c r="AAK19" s="15"/>
+      <c r="AAL19" s="15"/>
+      <c r="AAM19" s="15"/>
+      <c r="AAN19" s="15"/>
+      <c r="AAO19" s="15"/>
+      <c r="AAP19" s="15"/>
+      <c r="AAQ19" s="15"/>
+      <c r="AAR19" s="15"/>
+      <c r="AAS19" s="15"/>
+      <c r="AAT19" s="15"/>
+      <c r="AAU19" s="15"/>
+      <c r="AAV19" s="15"/>
+      <c r="AAW19" s="15"/>
+      <c r="AAX19" s="15"/>
+      <c r="AAY19" s="15"/>
+      <c r="AAZ19" s="15"/>
+      <c r="ABA19" s="15"/>
+      <c r="ABB19" s="15"/>
+      <c r="ABC19" s="15"/>
+      <c r="ABD19" s="15"/>
+      <c r="ABE19" s="15"/>
+      <c r="ABF19" s="15"/>
+      <c r="ABG19" s="15"/>
+      <c r="ABH19" s="15"/>
+      <c r="ABI19" s="15"/>
+      <c r="ABJ19" s="15"/>
+      <c r="ABK19" s="15"/>
+      <c r="ABL19" s="15"/>
+      <c r="ABM19" s="15"/>
+      <c r="ABN19" s="15"/>
+      <c r="ABO19" s="15"/>
+      <c r="ABP19" s="15"/>
+      <c r="ABQ19" s="15"/>
+      <c r="ABR19" s="15"/>
+      <c r="ABS19" s="15"/>
+      <c r="ABT19" s="15"/>
+      <c r="ABU19" s="15"/>
+      <c r="ABV19" s="15"/>
+      <c r="ABW19" s="15"/>
+      <c r="ABX19" s="15"/>
+      <c r="ABY19" s="15"/>
+      <c r="ABZ19" s="15"/>
+      <c r="ACA19" s="15"/>
+      <c r="ACB19" s="15"/>
+      <c r="ACC19" s="15"/>
+      <c r="ACD19" s="15"/>
+      <c r="ACE19" s="15"/>
+      <c r="ACF19" s="15"/>
+      <c r="ACG19" s="15"/>
+      <c r="ACH19" s="15"/>
+      <c r="ACI19" s="15"/>
+      <c r="ACJ19" s="15"/>
+      <c r="ACK19" s="15"/>
+      <c r="ACL19" s="15"/>
+      <c r="ACM19" s="15"/>
+      <c r="ACN19" s="15"/>
+      <c r="ACO19" s="15"/>
+      <c r="ACP19" s="15"/>
+      <c r="ACQ19" s="15"/>
+      <c r="ACR19" s="15"/>
+      <c r="ACS19" s="15"/>
+      <c r="ACT19" s="15"/>
+      <c r="ACU19" s="15"/>
+      <c r="ACV19" s="15"/>
+      <c r="ACW19" s="15"/>
+      <c r="ACX19" s="15"/>
+      <c r="ACY19" s="15"/>
+      <c r="ACZ19" s="15"/>
+      <c r="ADA19" s="15"/>
+      <c r="ADB19" s="15"/>
+      <c r="ADC19" s="15"/>
+      <c r="ADD19" s="15"/>
+      <c r="ADE19" s="15"/>
+      <c r="ADF19" s="15"/>
+      <c r="ADG19" s="15"/>
+      <c r="ADH19" s="15"/>
+      <c r="ADI19" s="15"/>
+      <c r="ADJ19" s="15"/>
+      <c r="ADK19" s="15"/>
+      <c r="ADL19" s="15"/>
+      <c r="ADM19" s="15"/>
+      <c r="ADN19" s="15"/>
+      <c r="ADO19" s="15"/>
+      <c r="ADP19" s="15"/>
+      <c r="ADQ19" s="15"/>
+      <c r="ADR19" s="15"/>
+      <c r="ADS19" s="15"/>
+      <c r="ADT19" s="15"/>
+      <c r="ADU19" s="15"/>
+      <c r="ADV19" s="15"/>
+      <c r="ADW19" s="15"/>
+      <c r="ADX19" s="15"/>
+      <c r="ADY19" s="15"/>
+      <c r="ADZ19" s="15"/>
+      <c r="AEA19" s="15"/>
+      <c r="AEB19" s="15"/>
+      <c r="AEC19" s="15"/>
+      <c r="AED19" s="15"/>
+      <c r="AEE19" s="15"/>
+      <c r="AEF19" s="15"/>
+      <c r="AEG19" s="15"/>
+      <c r="AEH19" s="15"/>
+      <c r="AEI19" s="15"/>
+      <c r="AEJ19" s="15"/>
+      <c r="AEK19" s="15"/>
+      <c r="AEL19" s="15"/>
+      <c r="AEM19" s="15"/>
+      <c r="AEN19" s="15"/>
+      <c r="AEO19" s="15"/>
+      <c r="AEP19" s="15"/>
+      <c r="AEQ19" s="15"/>
+      <c r="AER19" s="15"/>
+      <c r="AES19" s="15"/>
+      <c r="AET19" s="15"/>
+      <c r="AEU19" s="15"/>
+      <c r="AEV19" s="15"/>
+      <c r="AEW19" s="15"/>
+      <c r="AEX19" s="15"/>
+      <c r="AEY19" s="15"/>
+      <c r="AEZ19" s="15"/>
+      <c r="AFA19" s="15"/>
+      <c r="AFB19" s="15"/>
+      <c r="AFC19" s="15"/>
+      <c r="AFD19" s="15"/>
+      <c r="AFE19" s="15"/>
+      <c r="AFF19" s="15"/>
+      <c r="AFG19" s="15"/>
+      <c r="AFH19" s="15"/>
+      <c r="AFI19" s="15"/>
+      <c r="AFJ19" s="15"/>
+      <c r="AFK19" s="15"/>
+      <c r="AFL19" s="15"/>
+      <c r="AFM19" s="15"/>
+      <c r="AFN19" s="15"/>
+      <c r="AFO19" s="15"/>
+      <c r="AFP19" s="15"/>
+      <c r="AFQ19" s="15"/>
+      <c r="AFR19" s="15"/>
+      <c r="AFS19" s="15"/>
+      <c r="AFT19" s="15"/>
+      <c r="AFU19" s="15"/>
+      <c r="AFV19" s="15"/>
+      <c r="AFW19" s="15"/>
+      <c r="AFX19" s="15"/>
+      <c r="AFY19" s="15"/>
+      <c r="AFZ19" s="15"/>
+      <c r="AGA19" s="15"/>
+      <c r="AGB19" s="15"/>
+      <c r="AGC19" s="15"/>
+      <c r="AGD19" s="15"/>
+      <c r="AGE19" s="15"/>
+      <c r="AGF19" s="15"/>
+      <c r="AGG19" s="15"/>
+      <c r="AGH19" s="15"/>
+      <c r="AGI19" s="15"/>
+      <c r="AGJ19" s="15"/>
+      <c r="AGK19" s="15"/>
+      <c r="AGL19" s="15"/>
+      <c r="AGM19" s="15"/>
+      <c r="AGN19" s="15"/>
+      <c r="AGO19" s="15"/>
+      <c r="AGP19" s="15"/>
+      <c r="AGQ19" s="15"/>
+      <c r="AGR19" s="15"/>
+      <c r="AGS19" s="15"/>
+      <c r="AGT19" s="15"/>
+      <c r="AGU19" s="15"/>
+      <c r="AGV19" s="15"/>
+      <c r="AGW19" s="15"/>
+      <c r="AGX19" s="15"/>
+      <c r="AGY19" s="15"/>
+      <c r="AGZ19" s="15"/>
+      <c r="AHA19" s="15"/>
+      <c r="AHB19" s="15"/>
+      <c r="AHC19" s="15"/>
+      <c r="AHD19" s="15"/>
+      <c r="AHE19" s="15"/>
+      <c r="AHF19" s="15"/>
+      <c r="AHG19" s="15"/>
+      <c r="AHH19" s="15"/>
+      <c r="AHI19" s="15"/>
+      <c r="AHJ19" s="15"/>
+      <c r="AHK19" s="15"/>
+      <c r="AHL19" s="15"/>
+      <c r="AHM19" s="15"/>
+      <c r="AHN19" s="15"/>
+      <c r="AHO19" s="15"/>
+      <c r="AHP19" s="15"/>
+      <c r="AHQ19" s="15"/>
+      <c r="AHR19" s="15"/>
+      <c r="AHS19" s="15"/>
+      <c r="AHT19" s="15"/>
+      <c r="AHU19" s="15"/>
+      <c r="AHV19" s="15"/>
+      <c r="AHW19" s="15"/>
+      <c r="AHX19" s="15"/>
+      <c r="AHY19" s="15"/>
+      <c r="AHZ19" s="15"/>
+      <c r="AIA19" s="15"/>
+      <c r="AIB19" s="15"/>
+      <c r="AIC19" s="15"/>
+      <c r="AID19" s="15"/>
+      <c r="AIE19" s="15"/>
+      <c r="AIF19" s="15"/>
+      <c r="AIG19" s="15"/>
+      <c r="AIH19" s="15"/>
+      <c r="AII19" s="15"/>
+      <c r="AIJ19" s="15"/>
+      <c r="AIK19" s="15"/>
+      <c r="AIL19" s="15"/>
+      <c r="AIM19" s="15"/>
+      <c r="AIN19" s="15"/>
+      <c r="AIO19" s="15"/>
+      <c r="AIP19" s="15"/>
+      <c r="AIQ19" s="15"/>
+      <c r="AIR19" s="15"/>
+      <c r="AIS19" s="15"/>
+      <c r="AIT19" s="15"/>
+      <c r="AIU19" s="15"/>
+      <c r="AIV19" s="15"/>
+      <c r="AIW19" s="15"/>
+      <c r="AIX19" s="15"/>
+      <c r="AIY19" s="15"/>
+      <c r="AIZ19" s="15"/>
+      <c r="AJA19" s="15"/>
+      <c r="AJB19" s="15"/>
+      <c r="AJC19" s="15"/>
+      <c r="AJD19" s="15"/>
+      <c r="AJE19" s="15"/>
+      <c r="AJF19" s="15"/>
+      <c r="AJG19" s="15"/>
+      <c r="AJH19" s="15"/>
+      <c r="AJI19" s="15"/>
+      <c r="AJJ19" s="15"/>
+      <c r="AJK19" s="15"/>
+      <c r="AJL19" s="15"/>
+      <c r="AJM19" s="15"/>
+      <c r="AJN19" s="15"/>
+      <c r="AJO19" s="15"/>
+      <c r="AJP19" s="15"/>
+      <c r="AJQ19" s="15"/>
+      <c r="AJR19" s="15"/>
+      <c r="AJS19" s="15"/>
+      <c r="AJT19" s="15"/>
+      <c r="AJU19" s="15"/>
+      <c r="AJV19" s="15"/>
+      <c r="AJW19" s="15"/>
+      <c r="AJX19" s="15"/>
+      <c r="AJY19" s="15"/>
+      <c r="AJZ19" s="15"/>
+      <c r="AKA19" s="15"/>
+      <c r="AKB19" s="15"/>
+      <c r="AKC19" s="15"/>
+      <c r="AKD19" s="15"/>
+      <c r="AKE19" s="15"/>
+      <c r="AKF19" s="15"/>
+      <c r="AKG19" s="15"/>
+      <c r="AKH19" s="15"/>
+      <c r="AKI19" s="15"/>
+      <c r="AKJ19" s="15"/>
+      <c r="AKK19" s="15"/>
+      <c r="AKL19" s="15"/>
+      <c r="AKM19" s="15"/>
+      <c r="AKN19" s="15"/>
+      <c r="AKO19" s="15"/>
+      <c r="AKP19" s="15"/>
+      <c r="AKQ19" s="15"/>
+      <c r="AKR19" s="15"/>
+      <c r="AKS19" s="15"/>
+      <c r="AKT19" s="15"/>
+      <c r="AKU19" s="15"/>
+      <c r="AKV19" s="15"/>
+      <c r="AKW19" s="15"/>
+      <c r="AKX19" s="15"/>
+      <c r="AKY19" s="15"/>
+      <c r="AKZ19" s="15"/>
+      <c r="ALA19" s="15"/>
+      <c r="ALB19" s="15"/>
+      <c r="ALC19" s="15"/>
+      <c r="ALD19" s="15"/>
+      <c r="ALE19" s="15"/>
+      <c r="ALF19" s="15"/>
+      <c r="ALG19" s="15"/>
+      <c r="ALH19" s="15"/>
+      <c r="ALI19" s="15"/>
+      <c r="ALJ19" s="15"/>
+      <c r="ALK19" s="15"/>
+      <c r="ALL19" s="15"/>
+      <c r="ALM19" s="15"/>
+      <c r="ALN19" s="15"/>
+      <c r="ALO19" s="15"/>
+      <c r="ALP19" s="15"/>
+      <c r="ALQ19" s="15"/>
+      <c r="ALR19" s="15"/>
+      <c r="ALS19" s="15"/>
+      <c r="ALT19" s="15"/>
+      <c r="ALU19" s="15"/>
+      <c r="ALV19" s="15"/>
+      <c r="ALW19" s="15"/>
+      <c r="ALX19" s="15"/>
+      <c r="ALY19" s="15"/>
+      <c r="ALZ19" s="15"/>
+      <c r="AMA19" s="15"/>
+      <c r="AMB19" s="15"/>
+      <c r="AMC19" s="15"/>
+      <c r="AMD19" s="15"/>
+      <c r="AME19" s="15"/>
+      <c r="AMF19" s="15"/>
+      <c r="AMG19" s="15"/>
+      <c r="AMH19" s="15"/>
+      <c r="AMI19" s="15"/>
+      <c r="AMJ19" s="15"/>
+      <c r="AMK19" s="15"/>
+      <c r="AML19" s="15"/>
+      <c r="AMM19" s="15"/>
+      <c r="AMN19" s="15"/>
+      <c r="AMO19" s="15"/>
+      <c r="AMP19" s="15"/>
+      <c r="AMQ19" s="15"/>
+      <c r="AMR19" s="15"/>
+      <c r="AMS19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -6027,7 +7025,7 @@
       <c r="AV20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="n">
+      <c r="A21" s="28" t="n">
         <v>1015</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -6039,7 +7037,7 @@
       <c r="D21" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="28" t="s">
         <v>235</v>
       </c>
       <c r="F21" s="2"/>
@@ -6062,7 +7060,7 @@
       <c r="M21" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="N21" s="30" t="s">
+      <c r="N21" s="29" t="s">
         <v>185</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -6117,7 +7115,7 @@
       <c r="BB21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29" t="n">
+      <c r="A22" s="28" t="n">
         <v>1016</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6129,7 +7127,7 @@
       <c r="D22" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="28" t="s">
         <v>238</v>
       </c>
       <c r="F22" s="2" t="n">
@@ -6208,7 +7206,7 @@
       <c r="AV22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29" t="n">
+      <c r="A23" s="28" t="n">
         <v>1017</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -6220,38 +7218,38 @@
       <c r="D23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="31" t="n">
+      <c r="F23" s="28"/>
+      <c r="G23" s="30" t="n">
         <v>300</v>
       </c>
-      <c r="H23" s="31" t="n">
+      <c r="H23" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32" t="n">
+      <c r="I23" s="30"/>
+      <c r="J23" s="31" t="n">
         <v>326271</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="K23" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="M23" s="32" t="s">
+      <c r="M23" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="N23" s="35" t="s">
+      <c r="N23" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="O23" s="36" t="s">
+      <c r="O23" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
       <c r="T23" s="1" t="n">
         <v>16</v>
       </c>
@@ -6326,7 +7324,7 @@
       <c r="M24" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="N24" s="30" t="s">
+      <c r="N24" s="29" t="s">
         <v>249</v>
       </c>
       <c r="O24" s="1" t="s">
@@ -6417,7 +7415,7 @@
       <c r="L25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M25" s="30" t="s">
+      <c r="M25" s="29" t="s">
         <v>257</v>
       </c>
       <c r="N25" s="8" t="s">
@@ -7251,7 +8249,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28" t="n">
+      <c r="A35" s="36" t="n">
         <v>1029</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -7263,7 +8261,7 @@
       <c r="D35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="36" t="s">
         <v>322</v>
       </c>
       <c r="G35" s="1" t="n">
@@ -7293,8 +8291,8 @@
       <c r="O35" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="R35" s="28" t="s">
-        <v>219</v>
+      <c r="R35" s="36" t="s">
+        <v>220</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>325</v>
@@ -7302,8 +8300,8 @@
       <c r="T35" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V35" s="28" t="s">
-        <v>221</v>
+      <c r="V35" s="36" t="s">
+        <v>326</v>
       </c>
       <c r="W35" s="1" t="n">
         <v>130642</v>
@@ -7324,7 +8322,7 @@
         <v>153</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AD35" s="1" t="n">
         <v>285356</v>
@@ -7332,8 +8330,8 @@
       <c r="AE35" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF35" s="28" t="s">
-        <v>327</v>
+      <c r="AF35" s="36" t="s">
+        <v>328</v>
       </c>
       <c r="AG35" s="1" t="n">
         <v>2</v>
@@ -7343,11 +8341,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28" t="n">
+      <c r="A36" s="36" t="n">
         <v>1030</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>3</v>
@@ -7355,8 +8353,8 @@
       <c r="D36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E36" s="28" t="s">
-        <v>329</v>
+      <c r="E36" s="36" t="s">
+        <v>330</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>2</v>
@@ -7380,25 +8378,25 @@
         <v>83</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="R36" s="28" t="s">
-        <v>219</v>
+        <v>332</v>
+      </c>
+      <c r="R36" s="36" t="s">
+        <v>220</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T36" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V36" s="28" t="s">
-        <v>333</v>
+      <c r="V36" s="36" t="s">
+        <v>334</v>
       </c>
       <c r="W36" s="1" t="n">
         <v>254276</v>
@@ -7419,7 +8417,7 @@
         <v>153</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AD36" s="1" t="n">
         <v>20301</v>
@@ -7427,8 +8425,8 @@
       <c r="AE36" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF36" s="28" t="s">
-        <v>335</v>
+      <c r="AF36" s="36" t="s">
+        <v>336</v>
       </c>
       <c r="AG36" s="1" t="n">
         <v>3</v>
@@ -7442,7 +8440,7 @@
         <v>1031</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>4</v>
@@ -7451,7 +8449,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>8</v>
@@ -7475,16 +8473,16 @@
         <v>83</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T37" s="1" t="n">
         <v>16</v>
@@ -7496,7 +8494,7 @@
         <v>1</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>89</v>
@@ -7508,7 +8506,7 @@
         <v>222</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AD37" s="1" t="n">
         <v>281710</v>
@@ -7531,7 +8529,7 @@
         <v>1032</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>4</v>
@@ -7540,7 +8538,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>4</v>
@@ -7564,16 +8562,16 @@
         <v>83</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="T38" s="1" t="n">
         <v>16</v>
@@ -7585,7 +8583,7 @@
         <v>0.8</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>89</v>
@@ -7597,7 +8595,7 @@
         <v>277</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AD38" s="1" t="n">
         <v>281871</v>
@@ -7620,7 +8618,7 @@
         <v>1033</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>4</v>
@@ -7629,7 +8627,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>10</v>
@@ -7653,16 +8651,16 @@
         <v>83</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="T39" s="1" t="n">
         <v>16</v>
@@ -7674,7 +8672,7 @@
         <v>1</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>89</v>
@@ -7686,7 +8684,7 @@
         <v>153</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AD39" s="1" t="n">
         <v>300932</v>
@@ -7709,7 +8707,7 @@
         <v>1034</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>4</v>
@@ -7718,7 +8716,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1500</v>
@@ -7739,16 +8737,16 @@
         <v>83</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T40" s="1" t="n">
         <v>16</v>
@@ -7760,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>89</v>
@@ -7772,7 +8770,7 @@
         <v>153</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD40" s="1" t="n">
         <v>117391</v>
@@ -7795,7 +8793,7 @@
         <v>1035</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>4</v>
@@ -7804,7 +8802,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>6</v>
@@ -7828,16 +8826,16 @@
         <v>83</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T41" s="1" t="n">
         <v>16</v>
@@ -7861,7 +8859,7 @@
         <v>277</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AD41" s="1" t="n">
         <v>285445</v>
@@ -7884,7 +8882,7 @@
         <v>1036</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>4</v>
@@ -7893,7 +8891,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>150</v>
@@ -7920,7 +8918,7 @@
         <v>119</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="T42" s="1" t="n">
         <v>16</v>
@@ -7958,7 +8956,7 @@
         <v>1037</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>5</v>
@@ -7967,7 +8965,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>150</v>
@@ -7988,16 +8986,16 @@
         <v>83</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="T43" s="1" t="n">
         <v>16</v>
@@ -8009,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z43" s="1" t="s">
         <v>89</v>
@@ -8021,7 +9019,7 @@
         <v>222</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AD43" s="1" t="n">
         <v>279765</v>
@@ -8044,7 +9042,7 @@
         <v>1038</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>5</v>
@@ -8053,7 +9051,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>250</v>
@@ -8074,16 +9072,16 @@
         <v>83</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T44" s="1" t="n">
         <v>16</v>
@@ -8095,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z44" s="1" t="s">
         <v>89</v>
@@ -8107,7 +9105,7 @@
         <v>222</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AD44" s="1" t="n">
         <v>85944</v>
@@ -8130,7 +9128,7 @@
         <v>1039</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>5</v>
@@ -8139,7 +9137,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>3</v>
@@ -8163,16 +9161,16 @@
         <v>83</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="T45" s="1" t="n">
         <v>16</v>
@@ -8184,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z45" s="1" t="s">
         <v>134</v>
@@ -8196,7 +9194,7 @@
         <v>153</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AD45" s="1" t="n">
         <v>326802</v>
@@ -8219,7 +9217,7 @@
         <v>1040</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>5</v>
@@ -8228,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>6</v>
@@ -8252,16 +9250,16 @@
         <v>83</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="T46" s="1" t="n">
         <v>16</v>
@@ -8273,7 +9271,7 @@
         <v>1</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>222</v>
@@ -8285,7 +9283,7 @@
         <v>89</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AD46" s="1" t="n">
         <v>281871</v>
@@ -8308,7 +9306,7 @@
         <v>1041</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>5</v>
@@ -8317,7 +9315,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>100</v>
@@ -8338,16 +9336,16 @@
         <v>183</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="T47" s="1" t="n">
         <v>16</v>
@@ -8359,7 +9357,7 @@
         <v>0.6</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z47" s="1" t="s">
         <v>89</v>
@@ -8371,7 +9369,7 @@
         <v>89</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AD47" s="1" t="n">
         <v>285673</v>
@@ -8394,7 +9392,7 @@
         <v>1042</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5</v>
@@ -8403,7 +9401,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G48" s="10" t="n">
         <v>100</v>
@@ -8424,13 +9422,13 @@
         <v>183</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
@@ -8445,7 +9443,7 @@
         <v>1</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z48" s="1" t="s">
         <v>89</v>
@@ -8457,7 +9455,7 @@
         <v>89</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AD48" s="1" t="n">
         <v>144183</v>
@@ -8485,7 +9483,7 @@
         <v>1043</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>6</v>
@@ -8494,7 +9492,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>5</v>
@@ -8518,16 +9516,16 @@
         <v>83</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="T49" s="1" t="n">
         <v>16</v>
@@ -8551,7 +9549,7 @@
         <v>153</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AD49" s="1" t="n">
         <v>303259</v>
@@ -8574,7 +9572,7 @@
         <v>1044</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>6</v>
@@ -8583,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>350</v>
@@ -8604,16 +9602,16 @@
         <v>83</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="T50" s="1" t="n">
         <v>16</v>
@@ -8637,7 +9635,7 @@
         <v>89</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AD50" s="1" t="n">
         <v>305224</v>
@@ -8660,7 +9658,7 @@
         <v>1045</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>6</v>
@@ -8669,7 +9667,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>3</v>
@@ -8693,16 +9691,16 @@
         <v>83</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="T51" s="1" t="n">
         <v>16</v>
@@ -8714,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z51" s="1" t="s">
         <v>89</v>
@@ -8726,7 +9724,7 @@
         <v>222</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AD51" s="1" t="n">
         <v>269209</v>
@@ -8749,7 +9747,7 @@
         <v>1046</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>6</v>
@@ -8758,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>6</v>
@@ -8782,16 +9780,16 @@
         <v>83</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T52" s="1" t="n">
         <v>16</v>
@@ -8803,7 +9801,7 @@
         <v>1</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z52" s="1" t="s">
         <v>222</v>
@@ -8815,7 +9813,7 @@
         <v>153</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AD52" s="1" t="n">
         <v>144183</v>
@@ -8838,7 +9836,7 @@
         <v>1047</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>6</v>
@@ -8847,7 +9845,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>700</v>
@@ -8868,16 +9866,16 @@
         <v>83</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="T53" s="1" t="n">
         <v>16</v>
@@ -8889,7 +9887,7 @@
         <v>1</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z53" s="1" t="s">
         <v>153</v>
@@ -8901,7 +9899,7 @@
         <v>153</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD53" s="1" t="n">
         <v>281795</v>
@@ -8927,7 +9925,7 @@
         <v>1048</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>6</v>
@@ -8936,7 +9934,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G54" s="10" t="n">
         <v>100</v>
@@ -8963,7 +9961,7 @@
         <v>281</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T54" s="1" t="n">
         <v>16</v>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="450">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -981,28 +981,37 @@
     <t xml:space="preserve">光龙少2</t>
   </si>
   <si>
-    <t xml:space="preserve">80|120|200</t>
+    <t xml:space="preserve">80|120|260</t>
   </si>
   <si>
     <t xml:space="preserve">AB17F0404A02BC9A002911BC7BDC0A65|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
   </si>
   <si>
+    <t xml:space="preserve">500|500</t>
+  </si>
+  <si>
     <t xml:space="preserve">B8042E594FB8BDA5FFE681993C5A8FB3</t>
   </si>
   <si>
     <t xml:space="preserve">0.7|0.6|0.5</t>
   </si>
   <si>
-    <t xml:space="preserve">1|1.2|1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60|90|140</t>
+    <t xml:space="preserve">1|1|1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFB53FFF|FFB53FFF|FFB53FFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20270|285799</t>
   </si>
   <si>
     <t xml:space="preserve">Tower_name_17</t>
   </si>
   <si>
     <t xml:space="preserve">光龙娘6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower_attackTags_7|Tower_attackTags_8</t>
   </si>
   <si>
     <t xml:space="preserve">F295C0434C6D1288C0CBCD81DD5DE08B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
@@ -1136,6 +1145,9 @@
   </si>
   <si>
     <t xml:space="preserve">暗龙娘4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80|120|200</t>
   </si>
   <si>
     <t xml:space="preserve">9E7CB4874D5A5A99FE782A946A61E0DC|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
@@ -1802,7 +1814,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1903,32 +1915,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1939,16 +1939,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2136,10 +2164,10 @@
   </sheetPr>
   <dimension ref="A1:AMS54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q21" activeCellId="0" sqref="Q21"/>
+      <selection pane="topRight" activeCell="Q23" activeCellId="0" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5832,7 +5860,7 @@
       <c r="AMR18" s="15"/>
       <c r="AMS18" s="15"/>
     </row>
-    <row r="19" s="24" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="n">
         <v>1013</v>
       </c>
@@ -5933,7 +5961,9 @@
       <c r="AH19" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AI19" s="15"/>
+      <c r="AI19" s="15" t="n">
+        <v>4008</v>
+      </c>
       <c r="AJ19" s="15"/>
       <c r="AK19" s="15"/>
       <c r="AL19" s="15"/>
@@ -6933,284 +6963,3309 @@
       <c r="AMR19" s="15"/>
       <c r="AMS19" s="15"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" s="24" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="n">
         <v>1014</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="15" t="n">
         <v>80</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="1" t="n">
+      <c r="J20" s="15" t="n">
         <v>150576</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P20" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="S20" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="T20" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="W20" s="15" t="n">
+        <v>200133</v>
+      </c>
+      <c r="X20" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB20" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC20" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD20" s="15" t="n">
+        <v>144183</v>
+      </c>
+      <c r="AE20" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF20" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG20" s="15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI20" s="15" t="n">
+        <v>4002</v>
+      </c>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="18"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="15"/>
+      <c r="BE20" s="15"/>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="15"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="15"/>
+      <c r="BL20" s="15"/>
+      <c r="BM20" s="15"/>
+      <c r="BN20" s="15"/>
+      <c r="BO20" s="15"/>
+      <c r="BP20" s="15"/>
+      <c r="BQ20" s="15"/>
+      <c r="BR20" s="15"/>
+      <c r="BS20" s="15"/>
+      <c r="BT20" s="15"/>
+      <c r="BU20" s="15"/>
+      <c r="BV20" s="15"/>
+      <c r="BW20" s="15"/>
+      <c r="BX20" s="15"/>
+      <c r="BY20" s="15"/>
+      <c r="BZ20" s="15"/>
+      <c r="CA20" s="15"/>
+      <c r="CB20" s="15"/>
+      <c r="CC20" s="15"/>
+      <c r="CD20" s="15"/>
+      <c r="CE20" s="15"/>
+      <c r="CF20" s="15"/>
+      <c r="CG20" s="15"/>
+      <c r="CH20" s="15"/>
+      <c r="CI20" s="15"/>
+      <c r="CJ20" s="15"/>
+      <c r="CK20" s="15"/>
+      <c r="CL20" s="15"/>
+      <c r="CM20" s="15"/>
+      <c r="CN20" s="15"/>
+      <c r="CO20" s="15"/>
+      <c r="CP20" s="15"/>
+      <c r="CQ20" s="15"/>
+      <c r="CR20" s="15"/>
+      <c r="CS20" s="15"/>
+      <c r="CT20" s="15"/>
+      <c r="CU20" s="15"/>
+      <c r="CV20" s="15"/>
+      <c r="CW20" s="15"/>
+      <c r="CX20" s="15"/>
+      <c r="CY20" s="15"/>
+      <c r="CZ20" s="15"/>
+      <c r="DA20" s="15"/>
+      <c r="DB20" s="15"/>
+      <c r="DC20" s="15"/>
+      <c r="DD20" s="15"/>
+      <c r="DE20" s="15"/>
+      <c r="DF20" s="15"/>
+      <c r="DG20" s="15"/>
+      <c r="DH20" s="15"/>
+      <c r="DI20" s="15"/>
+      <c r="DJ20" s="15"/>
+      <c r="DK20" s="15"/>
+      <c r="DL20" s="15"/>
+      <c r="DM20" s="15"/>
+      <c r="DN20" s="15"/>
+      <c r="DO20" s="15"/>
+      <c r="DP20" s="15"/>
+      <c r="DQ20" s="15"/>
+      <c r="DR20" s="15"/>
+      <c r="DS20" s="15"/>
+      <c r="DT20" s="15"/>
+      <c r="DU20" s="15"/>
+      <c r="DV20" s="15"/>
+      <c r="DW20" s="15"/>
+      <c r="DX20" s="15"/>
+      <c r="DY20" s="15"/>
+      <c r="DZ20" s="15"/>
+      <c r="EA20" s="15"/>
+      <c r="EB20" s="15"/>
+      <c r="EC20" s="15"/>
+      <c r="ED20" s="15"/>
+      <c r="EE20" s="15"/>
+      <c r="EF20" s="15"/>
+      <c r="EG20" s="15"/>
+      <c r="EH20" s="15"/>
+      <c r="EI20" s="15"/>
+      <c r="EJ20" s="15"/>
+      <c r="EK20" s="15"/>
+      <c r="EL20" s="15"/>
+      <c r="EM20" s="15"/>
+      <c r="EN20" s="15"/>
+      <c r="EO20" s="15"/>
+      <c r="EP20" s="15"/>
+      <c r="EQ20" s="15"/>
+      <c r="ER20" s="15"/>
+      <c r="ES20" s="15"/>
+      <c r="ET20" s="15"/>
+      <c r="EU20" s="15"/>
+      <c r="EV20" s="15"/>
+      <c r="EW20" s="15"/>
+      <c r="EX20" s="15"/>
+      <c r="EY20" s="15"/>
+      <c r="EZ20" s="15"/>
+      <c r="FA20" s="15"/>
+      <c r="FB20" s="15"/>
+      <c r="FC20" s="15"/>
+      <c r="FD20" s="15"/>
+      <c r="FE20" s="15"/>
+      <c r="FF20" s="15"/>
+      <c r="FG20" s="15"/>
+      <c r="FH20" s="15"/>
+      <c r="FI20" s="15"/>
+      <c r="FJ20" s="15"/>
+      <c r="FK20" s="15"/>
+      <c r="FL20" s="15"/>
+      <c r="FM20" s="15"/>
+      <c r="FN20" s="15"/>
+      <c r="FO20" s="15"/>
+      <c r="FP20" s="15"/>
+      <c r="FQ20" s="15"/>
+      <c r="FR20" s="15"/>
+      <c r="FS20" s="15"/>
+      <c r="FT20" s="15"/>
+      <c r="FU20" s="15"/>
+      <c r="FV20" s="15"/>
+      <c r="FW20" s="15"/>
+      <c r="FX20" s="15"/>
+      <c r="FY20" s="15"/>
+      <c r="FZ20" s="15"/>
+      <c r="GA20" s="15"/>
+      <c r="GB20" s="15"/>
+      <c r="GC20" s="15"/>
+      <c r="GD20" s="15"/>
+      <c r="GE20" s="15"/>
+      <c r="GF20" s="15"/>
+      <c r="GG20" s="15"/>
+      <c r="GH20" s="15"/>
+      <c r="GI20" s="15"/>
+      <c r="GJ20" s="15"/>
+      <c r="GK20" s="15"/>
+      <c r="GL20" s="15"/>
+      <c r="GM20" s="15"/>
+      <c r="GN20" s="15"/>
+      <c r="GO20" s="15"/>
+      <c r="GP20" s="15"/>
+      <c r="GQ20" s="15"/>
+      <c r="GR20" s="15"/>
+      <c r="GS20" s="15"/>
+      <c r="GT20" s="15"/>
+      <c r="GU20" s="15"/>
+      <c r="GV20" s="15"/>
+      <c r="GW20" s="15"/>
+      <c r="GX20" s="15"/>
+      <c r="GY20" s="15"/>
+      <c r="GZ20" s="15"/>
+      <c r="HA20" s="15"/>
+      <c r="HB20" s="15"/>
+      <c r="HC20" s="15"/>
+      <c r="HD20" s="15"/>
+      <c r="HE20" s="15"/>
+      <c r="HF20" s="15"/>
+      <c r="HG20" s="15"/>
+      <c r="HH20" s="15"/>
+      <c r="HI20" s="15"/>
+      <c r="HJ20" s="15"/>
+      <c r="HK20" s="15"/>
+      <c r="HL20" s="15"/>
+      <c r="HM20" s="15"/>
+      <c r="HN20" s="15"/>
+      <c r="HO20" s="15"/>
+      <c r="HP20" s="15"/>
+      <c r="HQ20" s="15"/>
+      <c r="HR20" s="15"/>
+      <c r="HS20" s="15"/>
+      <c r="HT20" s="15"/>
+      <c r="HU20" s="15"/>
+      <c r="HV20" s="15"/>
+      <c r="HW20" s="15"/>
+      <c r="HX20" s="15"/>
+      <c r="HY20" s="15"/>
+      <c r="HZ20" s="15"/>
+      <c r="IA20" s="15"/>
+      <c r="IB20" s="15"/>
+      <c r="IC20" s="15"/>
+      <c r="ID20" s="15"/>
+      <c r="IE20" s="15"/>
+      <c r="IF20" s="15"/>
+      <c r="IG20" s="15"/>
+      <c r="IH20" s="15"/>
+      <c r="II20" s="15"/>
+      <c r="IJ20" s="15"/>
+      <c r="IK20" s="15"/>
+      <c r="IL20" s="15"/>
+      <c r="IM20" s="15"/>
+      <c r="IN20" s="15"/>
+      <c r="IO20" s="15"/>
+      <c r="IP20" s="15"/>
+      <c r="IQ20" s="15"/>
+      <c r="IR20" s="15"/>
+      <c r="IS20" s="15"/>
+      <c r="IT20" s="15"/>
+      <c r="IU20" s="15"/>
+      <c r="IV20" s="15"/>
+      <c r="IW20" s="15"/>
+      <c r="IX20" s="15"/>
+      <c r="IY20" s="15"/>
+      <c r="IZ20" s="15"/>
+      <c r="JA20" s="15"/>
+      <c r="JB20" s="15"/>
+      <c r="JC20" s="15"/>
+      <c r="JD20" s="15"/>
+      <c r="JE20" s="15"/>
+      <c r="JF20" s="15"/>
+      <c r="JG20" s="15"/>
+      <c r="JH20" s="15"/>
+      <c r="JI20" s="15"/>
+      <c r="JJ20" s="15"/>
+      <c r="JK20" s="15"/>
+      <c r="JL20" s="15"/>
+      <c r="JM20" s="15"/>
+      <c r="JN20" s="15"/>
+      <c r="JO20" s="15"/>
+      <c r="JP20" s="15"/>
+      <c r="JQ20" s="15"/>
+      <c r="JR20" s="15"/>
+      <c r="JS20" s="15"/>
+      <c r="JT20" s="15"/>
+      <c r="JU20" s="15"/>
+      <c r="JV20" s="15"/>
+      <c r="JW20" s="15"/>
+      <c r="JX20" s="15"/>
+      <c r="JY20" s="15"/>
+      <c r="JZ20" s="15"/>
+      <c r="KA20" s="15"/>
+      <c r="KB20" s="15"/>
+      <c r="KC20" s="15"/>
+      <c r="KD20" s="15"/>
+      <c r="KE20" s="15"/>
+      <c r="KF20" s="15"/>
+      <c r="KG20" s="15"/>
+      <c r="KH20" s="15"/>
+      <c r="KI20" s="15"/>
+      <c r="KJ20" s="15"/>
+      <c r="KK20" s="15"/>
+      <c r="KL20" s="15"/>
+      <c r="KM20" s="15"/>
+      <c r="KN20" s="15"/>
+      <c r="KO20" s="15"/>
+      <c r="KP20" s="15"/>
+      <c r="KQ20" s="15"/>
+      <c r="KR20" s="15"/>
+      <c r="KS20" s="15"/>
+      <c r="KT20" s="15"/>
+      <c r="KU20" s="15"/>
+      <c r="KV20" s="15"/>
+      <c r="KW20" s="15"/>
+      <c r="KX20" s="15"/>
+      <c r="KY20" s="15"/>
+      <c r="KZ20" s="15"/>
+      <c r="LA20" s="15"/>
+      <c r="LB20" s="15"/>
+      <c r="LC20" s="15"/>
+      <c r="LD20" s="15"/>
+      <c r="LE20" s="15"/>
+      <c r="LF20" s="15"/>
+      <c r="LG20" s="15"/>
+      <c r="LH20" s="15"/>
+      <c r="LI20" s="15"/>
+      <c r="LJ20" s="15"/>
+      <c r="LK20" s="15"/>
+      <c r="LL20" s="15"/>
+      <c r="LM20" s="15"/>
+      <c r="LN20" s="15"/>
+      <c r="LO20" s="15"/>
+      <c r="LP20" s="15"/>
+      <c r="LQ20" s="15"/>
+      <c r="LR20" s="15"/>
+      <c r="LS20" s="15"/>
+      <c r="LT20" s="15"/>
+      <c r="LU20" s="15"/>
+      <c r="LV20" s="15"/>
+      <c r="LW20" s="15"/>
+      <c r="LX20" s="15"/>
+      <c r="LY20" s="15"/>
+      <c r="LZ20" s="15"/>
+      <c r="MA20" s="15"/>
+      <c r="MB20" s="15"/>
+      <c r="MC20" s="15"/>
+      <c r="MD20" s="15"/>
+      <c r="ME20" s="15"/>
+      <c r="MF20" s="15"/>
+      <c r="MG20" s="15"/>
+      <c r="MH20" s="15"/>
+      <c r="MI20" s="15"/>
+      <c r="MJ20" s="15"/>
+      <c r="MK20" s="15"/>
+      <c r="ML20" s="15"/>
+      <c r="MM20" s="15"/>
+      <c r="MN20" s="15"/>
+      <c r="MO20" s="15"/>
+      <c r="MP20" s="15"/>
+      <c r="MQ20" s="15"/>
+      <c r="MR20" s="15"/>
+      <c r="MS20" s="15"/>
+      <c r="MT20" s="15"/>
+      <c r="MU20" s="15"/>
+      <c r="MV20" s="15"/>
+      <c r="MW20" s="15"/>
+      <c r="MX20" s="15"/>
+      <c r="MY20" s="15"/>
+      <c r="MZ20" s="15"/>
+      <c r="NA20" s="15"/>
+      <c r="NB20" s="15"/>
+      <c r="NC20" s="15"/>
+      <c r="ND20" s="15"/>
+      <c r="NE20" s="15"/>
+      <c r="NF20" s="15"/>
+      <c r="NG20" s="15"/>
+      <c r="NH20" s="15"/>
+      <c r="NI20" s="15"/>
+      <c r="NJ20" s="15"/>
+      <c r="NK20" s="15"/>
+      <c r="NL20" s="15"/>
+      <c r="NM20" s="15"/>
+      <c r="NN20" s="15"/>
+      <c r="NO20" s="15"/>
+      <c r="NP20" s="15"/>
+      <c r="NQ20" s="15"/>
+      <c r="NR20" s="15"/>
+      <c r="NS20" s="15"/>
+      <c r="NT20" s="15"/>
+      <c r="NU20" s="15"/>
+      <c r="NV20" s="15"/>
+      <c r="NW20" s="15"/>
+      <c r="NX20" s="15"/>
+      <c r="NY20" s="15"/>
+      <c r="NZ20" s="15"/>
+      <c r="OA20" s="15"/>
+      <c r="OB20" s="15"/>
+      <c r="OC20" s="15"/>
+      <c r="OD20" s="15"/>
+      <c r="OE20" s="15"/>
+      <c r="OF20" s="15"/>
+      <c r="OG20" s="15"/>
+      <c r="OH20" s="15"/>
+      <c r="OI20" s="15"/>
+      <c r="OJ20" s="15"/>
+      <c r="OK20" s="15"/>
+      <c r="OL20" s="15"/>
+      <c r="OM20" s="15"/>
+      <c r="ON20" s="15"/>
+      <c r="OO20" s="15"/>
+      <c r="OP20" s="15"/>
+      <c r="OQ20" s="15"/>
+      <c r="OR20" s="15"/>
+      <c r="OS20" s="15"/>
+      <c r="OT20" s="15"/>
+      <c r="OU20" s="15"/>
+      <c r="OV20" s="15"/>
+      <c r="OW20" s="15"/>
+      <c r="OX20" s="15"/>
+      <c r="OY20" s="15"/>
+      <c r="OZ20" s="15"/>
+      <c r="PA20" s="15"/>
+      <c r="PB20" s="15"/>
+      <c r="PC20" s="15"/>
+      <c r="PD20" s="15"/>
+      <c r="PE20" s="15"/>
+      <c r="PF20" s="15"/>
+      <c r="PG20" s="15"/>
+      <c r="PH20" s="15"/>
+      <c r="PI20" s="15"/>
+      <c r="PJ20" s="15"/>
+      <c r="PK20" s="15"/>
+      <c r="PL20" s="15"/>
+      <c r="PM20" s="15"/>
+      <c r="PN20" s="15"/>
+      <c r="PO20" s="15"/>
+      <c r="PP20" s="15"/>
+      <c r="PQ20" s="15"/>
+      <c r="PR20" s="15"/>
+      <c r="PS20" s="15"/>
+      <c r="PT20" s="15"/>
+      <c r="PU20" s="15"/>
+      <c r="PV20" s="15"/>
+      <c r="PW20" s="15"/>
+      <c r="PX20" s="15"/>
+      <c r="PY20" s="15"/>
+      <c r="PZ20" s="15"/>
+      <c r="QA20" s="15"/>
+      <c r="QB20" s="15"/>
+      <c r="QC20" s="15"/>
+      <c r="QD20" s="15"/>
+      <c r="QE20" s="15"/>
+      <c r="QF20" s="15"/>
+      <c r="QG20" s="15"/>
+      <c r="QH20" s="15"/>
+      <c r="QI20" s="15"/>
+      <c r="QJ20" s="15"/>
+      <c r="QK20" s="15"/>
+      <c r="QL20" s="15"/>
+      <c r="QM20" s="15"/>
+      <c r="QN20" s="15"/>
+      <c r="QO20" s="15"/>
+      <c r="QP20" s="15"/>
+      <c r="QQ20" s="15"/>
+      <c r="QR20" s="15"/>
+      <c r="QS20" s="15"/>
+      <c r="QT20" s="15"/>
+      <c r="QU20" s="15"/>
+      <c r="QV20" s="15"/>
+      <c r="QW20" s="15"/>
+      <c r="QX20" s="15"/>
+      <c r="QY20" s="15"/>
+      <c r="QZ20" s="15"/>
+      <c r="RA20" s="15"/>
+      <c r="RB20" s="15"/>
+      <c r="RC20" s="15"/>
+      <c r="RD20" s="15"/>
+      <c r="RE20" s="15"/>
+      <c r="RF20" s="15"/>
+      <c r="RG20" s="15"/>
+      <c r="RH20" s="15"/>
+      <c r="RI20" s="15"/>
+      <c r="RJ20" s="15"/>
+      <c r="RK20" s="15"/>
+      <c r="RL20" s="15"/>
+      <c r="RM20" s="15"/>
+      <c r="RN20" s="15"/>
+      <c r="RO20" s="15"/>
+      <c r="RP20" s="15"/>
+      <c r="RQ20" s="15"/>
+      <c r="RR20" s="15"/>
+      <c r="RS20" s="15"/>
+      <c r="RT20" s="15"/>
+      <c r="RU20" s="15"/>
+      <c r="RV20" s="15"/>
+      <c r="RW20" s="15"/>
+      <c r="RX20" s="15"/>
+      <c r="RY20" s="15"/>
+      <c r="RZ20" s="15"/>
+      <c r="SA20" s="15"/>
+      <c r="SB20" s="15"/>
+      <c r="SC20" s="15"/>
+      <c r="SD20" s="15"/>
+      <c r="SE20" s="15"/>
+      <c r="SF20" s="15"/>
+      <c r="SG20" s="15"/>
+      <c r="SH20" s="15"/>
+      <c r="SI20" s="15"/>
+      <c r="SJ20" s="15"/>
+      <c r="SK20" s="15"/>
+      <c r="SL20" s="15"/>
+      <c r="SM20" s="15"/>
+      <c r="SN20" s="15"/>
+      <c r="SO20" s="15"/>
+      <c r="SP20" s="15"/>
+      <c r="SQ20" s="15"/>
+      <c r="SR20" s="15"/>
+      <c r="SS20" s="15"/>
+      <c r="ST20" s="15"/>
+      <c r="SU20" s="15"/>
+      <c r="SV20" s="15"/>
+      <c r="SW20" s="15"/>
+      <c r="SX20" s="15"/>
+      <c r="SY20" s="15"/>
+      <c r="SZ20" s="15"/>
+      <c r="TA20" s="15"/>
+      <c r="TB20" s="15"/>
+      <c r="TC20" s="15"/>
+      <c r="TD20" s="15"/>
+      <c r="TE20" s="15"/>
+      <c r="TF20" s="15"/>
+      <c r="TG20" s="15"/>
+      <c r="TH20" s="15"/>
+      <c r="TI20" s="15"/>
+      <c r="TJ20" s="15"/>
+      <c r="TK20" s="15"/>
+      <c r="TL20" s="15"/>
+      <c r="TM20" s="15"/>
+      <c r="TN20" s="15"/>
+      <c r="TO20" s="15"/>
+      <c r="TP20" s="15"/>
+      <c r="TQ20" s="15"/>
+      <c r="TR20" s="15"/>
+      <c r="TS20" s="15"/>
+      <c r="TT20" s="15"/>
+      <c r="TU20" s="15"/>
+      <c r="TV20" s="15"/>
+      <c r="TW20" s="15"/>
+      <c r="TX20" s="15"/>
+      <c r="TY20" s="15"/>
+      <c r="TZ20" s="15"/>
+      <c r="UA20" s="15"/>
+      <c r="UB20" s="15"/>
+      <c r="UC20" s="15"/>
+      <c r="UD20" s="15"/>
+      <c r="UE20" s="15"/>
+      <c r="UF20" s="15"/>
+      <c r="UG20" s="15"/>
+      <c r="UH20" s="15"/>
+      <c r="UI20" s="15"/>
+      <c r="UJ20" s="15"/>
+      <c r="UK20" s="15"/>
+      <c r="UL20" s="15"/>
+      <c r="UM20" s="15"/>
+      <c r="UN20" s="15"/>
+      <c r="UO20" s="15"/>
+      <c r="UP20" s="15"/>
+      <c r="UQ20" s="15"/>
+      <c r="UR20" s="15"/>
+      <c r="US20" s="15"/>
+      <c r="UT20" s="15"/>
+      <c r="UU20" s="15"/>
+      <c r="UV20" s="15"/>
+      <c r="UW20" s="15"/>
+      <c r="UX20" s="15"/>
+      <c r="UY20" s="15"/>
+      <c r="UZ20" s="15"/>
+      <c r="VA20" s="15"/>
+      <c r="VB20" s="15"/>
+      <c r="VC20" s="15"/>
+      <c r="VD20" s="15"/>
+      <c r="VE20" s="15"/>
+      <c r="VF20" s="15"/>
+      <c r="VG20" s="15"/>
+      <c r="VH20" s="15"/>
+      <c r="VI20" s="15"/>
+      <c r="VJ20" s="15"/>
+      <c r="VK20" s="15"/>
+      <c r="VL20" s="15"/>
+      <c r="VM20" s="15"/>
+      <c r="VN20" s="15"/>
+      <c r="VO20" s="15"/>
+      <c r="VP20" s="15"/>
+      <c r="VQ20" s="15"/>
+      <c r="VR20" s="15"/>
+      <c r="VS20" s="15"/>
+      <c r="VT20" s="15"/>
+      <c r="VU20" s="15"/>
+      <c r="VV20" s="15"/>
+      <c r="VW20" s="15"/>
+      <c r="VX20" s="15"/>
+      <c r="VY20" s="15"/>
+      <c r="VZ20" s="15"/>
+      <c r="WA20" s="15"/>
+      <c r="WB20" s="15"/>
+      <c r="WC20" s="15"/>
+      <c r="WD20" s="15"/>
+      <c r="WE20" s="15"/>
+      <c r="WF20" s="15"/>
+      <c r="WG20" s="15"/>
+      <c r="WH20" s="15"/>
+      <c r="WI20" s="15"/>
+      <c r="WJ20" s="15"/>
+      <c r="WK20" s="15"/>
+      <c r="WL20" s="15"/>
+      <c r="WM20" s="15"/>
+      <c r="WN20" s="15"/>
+      <c r="WO20" s="15"/>
+      <c r="WP20" s="15"/>
+      <c r="WQ20" s="15"/>
+      <c r="WR20" s="15"/>
+      <c r="WS20" s="15"/>
+      <c r="WT20" s="15"/>
+      <c r="WU20" s="15"/>
+      <c r="WV20" s="15"/>
+      <c r="WW20" s="15"/>
+      <c r="WX20" s="15"/>
+      <c r="WY20" s="15"/>
+      <c r="WZ20" s="15"/>
+      <c r="XA20" s="15"/>
+      <c r="XB20" s="15"/>
+      <c r="XC20" s="15"/>
+      <c r="XD20" s="15"/>
+      <c r="XE20" s="15"/>
+      <c r="XF20" s="15"/>
+      <c r="XG20" s="15"/>
+      <c r="XH20" s="15"/>
+      <c r="XI20" s="15"/>
+      <c r="XJ20" s="15"/>
+      <c r="XK20" s="15"/>
+      <c r="XL20" s="15"/>
+      <c r="XM20" s="15"/>
+      <c r="XN20" s="15"/>
+      <c r="XO20" s="15"/>
+      <c r="XP20" s="15"/>
+      <c r="XQ20" s="15"/>
+      <c r="XR20" s="15"/>
+      <c r="XS20" s="15"/>
+      <c r="XT20" s="15"/>
+      <c r="XU20" s="15"/>
+      <c r="XV20" s="15"/>
+      <c r="XW20" s="15"/>
+      <c r="XX20" s="15"/>
+      <c r="XY20" s="15"/>
+      <c r="XZ20" s="15"/>
+      <c r="YA20" s="15"/>
+      <c r="YB20" s="15"/>
+      <c r="YC20" s="15"/>
+      <c r="YD20" s="15"/>
+      <c r="YE20" s="15"/>
+      <c r="YF20" s="15"/>
+      <c r="YG20" s="15"/>
+      <c r="YH20" s="15"/>
+      <c r="YI20" s="15"/>
+      <c r="YJ20" s="15"/>
+      <c r="YK20" s="15"/>
+      <c r="YL20" s="15"/>
+      <c r="YM20" s="15"/>
+      <c r="YN20" s="15"/>
+      <c r="YO20" s="15"/>
+      <c r="YP20" s="15"/>
+      <c r="YQ20" s="15"/>
+      <c r="YR20" s="15"/>
+      <c r="YS20" s="15"/>
+      <c r="YT20" s="15"/>
+      <c r="YU20" s="15"/>
+      <c r="YV20" s="15"/>
+      <c r="YW20" s="15"/>
+      <c r="YX20" s="15"/>
+      <c r="YY20" s="15"/>
+      <c r="YZ20" s="15"/>
+      <c r="ZA20" s="15"/>
+      <c r="ZB20" s="15"/>
+      <c r="ZC20" s="15"/>
+      <c r="ZD20" s="15"/>
+      <c r="ZE20" s="15"/>
+      <c r="ZF20" s="15"/>
+      <c r="ZG20" s="15"/>
+      <c r="ZH20" s="15"/>
+      <c r="ZI20" s="15"/>
+      <c r="ZJ20" s="15"/>
+      <c r="ZK20" s="15"/>
+      <c r="ZL20" s="15"/>
+      <c r="ZM20" s="15"/>
+      <c r="ZN20" s="15"/>
+      <c r="ZO20" s="15"/>
+      <c r="ZP20" s="15"/>
+      <c r="ZQ20" s="15"/>
+      <c r="ZR20" s="15"/>
+      <c r="ZS20" s="15"/>
+      <c r="ZT20" s="15"/>
+      <c r="ZU20" s="15"/>
+      <c r="ZV20" s="15"/>
+      <c r="ZW20" s="15"/>
+      <c r="ZX20" s="15"/>
+      <c r="ZY20" s="15"/>
+      <c r="ZZ20" s="15"/>
+      <c r="AAA20" s="15"/>
+      <c r="AAB20" s="15"/>
+      <c r="AAC20" s="15"/>
+      <c r="AAD20" s="15"/>
+      <c r="AAE20" s="15"/>
+      <c r="AAF20" s="15"/>
+      <c r="AAG20" s="15"/>
+      <c r="AAH20" s="15"/>
+      <c r="AAI20" s="15"/>
+      <c r="AAJ20" s="15"/>
+      <c r="AAK20" s="15"/>
+      <c r="AAL20" s="15"/>
+      <c r="AAM20" s="15"/>
+      <c r="AAN20" s="15"/>
+      <c r="AAO20" s="15"/>
+      <c r="AAP20" s="15"/>
+      <c r="AAQ20" s="15"/>
+      <c r="AAR20" s="15"/>
+      <c r="AAS20" s="15"/>
+      <c r="AAT20" s="15"/>
+      <c r="AAU20" s="15"/>
+      <c r="AAV20" s="15"/>
+      <c r="AAW20" s="15"/>
+      <c r="AAX20" s="15"/>
+      <c r="AAY20" s="15"/>
+      <c r="AAZ20" s="15"/>
+      <c r="ABA20" s="15"/>
+      <c r="ABB20" s="15"/>
+      <c r="ABC20" s="15"/>
+      <c r="ABD20" s="15"/>
+      <c r="ABE20" s="15"/>
+      <c r="ABF20" s="15"/>
+      <c r="ABG20" s="15"/>
+      <c r="ABH20" s="15"/>
+      <c r="ABI20" s="15"/>
+      <c r="ABJ20" s="15"/>
+      <c r="ABK20" s="15"/>
+      <c r="ABL20" s="15"/>
+      <c r="ABM20" s="15"/>
+      <c r="ABN20" s="15"/>
+      <c r="ABO20" s="15"/>
+      <c r="ABP20" s="15"/>
+      <c r="ABQ20" s="15"/>
+      <c r="ABR20" s="15"/>
+      <c r="ABS20" s="15"/>
+      <c r="ABT20" s="15"/>
+      <c r="ABU20" s="15"/>
+      <c r="ABV20" s="15"/>
+      <c r="ABW20" s="15"/>
+      <c r="ABX20" s="15"/>
+      <c r="ABY20" s="15"/>
+      <c r="ABZ20" s="15"/>
+      <c r="ACA20" s="15"/>
+      <c r="ACB20" s="15"/>
+      <c r="ACC20" s="15"/>
+      <c r="ACD20" s="15"/>
+      <c r="ACE20" s="15"/>
+      <c r="ACF20" s="15"/>
+      <c r="ACG20" s="15"/>
+      <c r="ACH20" s="15"/>
+      <c r="ACI20" s="15"/>
+      <c r="ACJ20" s="15"/>
+      <c r="ACK20" s="15"/>
+      <c r="ACL20" s="15"/>
+      <c r="ACM20" s="15"/>
+      <c r="ACN20" s="15"/>
+      <c r="ACO20" s="15"/>
+      <c r="ACP20" s="15"/>
+      <c r="ACQ20" s="15"/>
+      <c r="ACR20" s="15"/>
+      <c r="ACS20" s="15"/>
+      <c r="ACT20" s="15"/>
+      <c r="ACU20" s="15"/>
+      <c r="ACV20" s="15"/>
+      <c r="ACW20" s="15"/>
+      <c r="ACX20" s="15"/>
+      <c r="ACY20" s="15"/>
+      <c r="ACZ20" s="15"/>
+      <c r="ADA20" s="15"/>
+      <c r="ADB20" s="15"/>
+      <c r="ADC20" s="15"/>
+      <c r="ADD20" s="15"/>
+      <c r="ADE20" s="15"/>
+      <c r="ADF20" s="15"/>
+      <c r="ADG20" s="15"/>
+      <c r="ADH20" s="15"/>
+      <c r="ADI20" s="15"/>
+      <c r="ADJ20" s="15"/>
+      <c r="ADK20" s="15"/>
+      <c r="ADL20" s="15"/>
+      <c r="ADM20" s="15"/>
+      <c r="ADN20" s="15"/>
+      <c r="ADO20" s="15"/>
+      <c r="ADP20" s="15"/>
+      <c r="ADQ20" s="15"/>
+      <c r="ADR20" s="15"/>
+      <c r="ADS20" s="15"/>
+      <c r="ADT20" s="15"/>
+      <c r="ADU20" s="15"/>
+      <c r="ADV20" s="15"/>
+      <c r="ADW20" s="15"/>
+      <c r="ADX20" s="15"/>
+      <c r="ADY20" s="15"/>
+      <c r="ADZ20" s="15"/>
+      <c r="AEA20" s="15"/>
+      <c r="AEB20" s="15"/>
+      <c r="AEC20" s="15"/>
+      <c r="AED20" s="15"/>
+      <c r="AEE20" s="15"/>
+      <c r="AEF20" s="15"/>
+      <c r="AEG20" s="15"/>
+      <c r="AEH20" s="15"/>
+      <c r="AEI20" s="15"/>
+      <c r="AEJ20" s="15"/>
+      <c r="AEK20" s="15"/>
+      <c r="AEL20" s="15"/>
+      <c r="AEM20" s="15"/>
+      <c r="AEN20" s="15"/>
+      <c r="AEO20" s="15"/>
+      <c r="AEP20" s="15"/>
+      <c r="AEQ20" s="15"/>
+      <c r="AER20" s="15"/>
+      <c r="AES20" s="15"/>
+      <c r="AET20" s="15"/>
+      <c r="AEU20" s="15"/>
+      <c r="AEV20" s="15"/>
+      <c r="AEW20" s="15"/>
+      <c r="AEX20" s="15"/>
+      <c r="AEY20" s="15"/>
+      <c r="AEZ20" s="15"/>
+      <c r="AFA20" s="15"/>
+      <c r="AFB20" s="15"/>
+      <c r="AFC20" s="15"/>
+      <c r="AFD20" s="15"/>
+      <c r="AFE20" s="15"/>
+      <c r="AFF20" s="15"/>
+      <c r="AFG20" s="15"/>
+      <c r="AFH20" s="15"/>
+      <c r="AFI20" s="15"/>
+      <c r="AFJ20" s="15"/>
+      <c r="AFK20" s="15"/>
+      <c r="AFL20" s="15"/>
+      <c r="AFM20" s="15"/>
+      <c r="AFN20" s="15"/>
+      <c r="AFO20" s="15"/>
+      <c r="AFP20" s="15"/>
+      <c r="AFQ20" s="15"/>
+      <c r="AFR20" s="15"/>
+      <c r="AFS20" s="15"/>
+      <c r="AFT20" s="15"/>
+      <c r="AFU20" s="15"/>
+      <c r="AFV20" s="15"/>
+      <c r="AFW20" s="15"/>
+      <c r="AFX20" s="15"/>
+      <c r="AFY20" s="15"/>
+      <c r="AFZ20" s="15"/>
+      <c r="AGA20" s="15"/>
+      <c r="AGB20" s="15"/>
+      <c r="AGC20" s="15"/>
+      <c r="AGD20" s="15"/>
+      <c r="AGE20" s="15"/>
+      <c r="AGF20" s="15"/>
+      <c r="AGG20" s="15"/>
+      <c r="AGH20" s="15"/>
+      <c r="AGI20" s="15"/>
+      <c r="AGJ20" s="15"/>
+      <c r="AGK20" s="15"/>
+      <c r="AGL20" s="15"/>
+      <c r="AGM20" s="15"/>
+      <c r="AGN20" s="15"/>
+      <c r="AGO20" s="15"/>
+      <c r="AGP20" s="15"/>
+      <c r="AGQ20" s="15"/>
+      <c r="AGR20" s="15"/>
+      <c r="AGS20" s="15"/>
+      <c r="AGT20" s="15"/>
+      <c r="AGU20" s="15"/>
+      <c r="AGV20" s="15"/>
+      <c r="AGW20" s="15"/>
+      <c r="AGX20" s="15"/>
+      <c r="AGY20" s="15"/>
+      <c r="AGZ20" s="15"/>
+      <c r="AHA20" s="15"/>
+      <c r="AHB20" s="15"/>
+      <c r="AHC20" s="15"/>
+      <c r="AHD20" s="15"/>
+      <c r="AHE20" s="15"/>
+      <c r="AHF20" s="15"/>
+      <c r="AHG20" s="15"/>
+      <c r="AHH20" s="15"/>
+      <c r="AHI20" s="15"/>
+      <c r="AHJ20" s="15"/>
+      <c r="AHK20" s="15"/>
+      <c r="AHL20" s="15"/>
+      <c r="AHM20" s="15"/>
+      <c r="AHN20" s="15"/>
+      <c r="AHO20" s="15"/>
+      <c r="AHP20" s="15"/>
+      <c r="AHQ20" s="15"/>
+      <c r="AHR20" s="15"/>
+      <c r="AHS20" s="15"/>
+      <c r="AHT20" s="15"/>
+      <c r="AHU20" s="15"/>
+      <c r="AHV20" s="15"/>
+      <c r="AHW20" s="15"/>
+      <c r="AHX20" s="15"/>
+      <c r="AHY20" s="15"/>
+      <c r="AHZ20" s="15"/>
+      <c r="AIA20" s="15"/>
+      <c r="AIB20" s="15"/>
+      <c r="AIC20" s="15"/>
+      <c r="AID20" s="15"/>
+      <c r="AIE20" s="15"/>
+      <c r="AIF20" s="15"/>
+      <c r="AIG20" s="15"/>
+      <c r="AIH20" s="15"/>
+      <c r="AII20" s="15"/>
+      <c r="AIJ20" s="15"/>
+      <c r="AIK20" s="15"/>
+      <c r="AIL20" s="15"/>
+      <c r="AIM20" s="15"/>
+      <c r="AIN20" s="15"/>
+      <c r="AIO20" s="15"/>
+      <c r="AIP20" s="15"/>
+      <c r="AIQ20" s="15"/>
+      <c r="AIR20" s="15"/>
+      <c r="AIS20" s="15"/>
+      <c r="AIT20" s="15"/>
+      <c r="AIU20" s="15"/>
+      <c r="AIV20" s="15"/>
+      <c r="AIW20" s="15"/>
+      <c r="AIX20" s="15"/>
+      <c r="AIY20" s="15"/>
+      <c r="AIZ20" s="15"/>
+      <c r="AJA20" s="15"/>
+      <c r="AJB20" s="15"/>
+      <c r="AJC20" s="15"/>
+      <c r="AJD20" s="15"/>
+      <c r="AJE20" s="15"/>
+      <c r="AJF20" s="15"/>
+      <c r="AJG20" s="15"/>
+      <c r="AJH20" s="15"/>
+      <c r="AJI20" s="15"/>
+      <c r="AJJ20" s="15"/>
+      <c r="AJK20" s="15"/>
+      <c r="AJL20" s="15"/>
+      <c r="AJM20" s="15"/>
+      <c r="AJN20" s="15"/>
+      <c r="AJO20" s="15"/>
+      <c r="AJP20" s="15"/>
+      <c r="AJQ20" s="15"/>
+      <c r="AJR20" s="15"/>
+      <c r="AJS20" s="15"/>
+      <c r="AJT20" s="15"/>
+      <c r="AJU20" s="15"/>
+      <c r="AJV20" s="15"/>
+      <c r="AJW20" s="15"/>
+      <c r="AJX20" s="15"/>
+      <c r="AJY20" s="15"/>
+      <c r="AJZ20" s="15"/>
+      <c r="AKA20" s="15"/>
+      <c r="AKB20" s="15"/>
+      <c r="AKC20" s="15"/>
+      <c r="AKD20" s="15"/>
+      <c r="AKE20" s="15"/>
+      <c r="AKF20" s="15"/>
+      <c r="AKG20" s="15"/>
+      <c r="AKH20" s="15"/>
+      <c r="AKI20" s="15"/>
+      <c r="AKJ20" s="15"/>
+      <c r="AKK20" s="15"/>
+      <c r="AKL20" s="15"/>
+      <c r="AKM20" s="15"/>
+      <c r="AKN20" s="15"/>
+      <c r="AKO20" s="15"/>
+      <c r="AKP20" s="15"/>
+      <c r="AKQ20" s="15"/>
+      <c r="AKR20" s="15"/>
+      <c r="AKS20" s="15"/>
+      <c r="AKT20" s="15"/>
+      <c r="AKU20" s="15"/>
+      <c r="AKV20" s="15"/>
+      <c r="AKW20" s="15"/>
+      <c r="AKX20" s="15"/>
+      <c r="AKY20" s="15"/>
+      <c r="AKZ20" s="15"/>
+      <c r="ALA20" s="15"/>
+      <c r="ALB20" s="15"/>
+      <c r="ALC20" s="15"/>
+      <c r="ALD20" s="15"/>
+      <c r="ALE20" s="15"/>
+      <c r="ALF20" s="15"/>
+      <c r="ALG20" s="15"/>
+      <c r="ALH20" s="15"/>
+      <c r="ALI20" s="15"/>
+      <c r="ALJ20" s="15"/>
+      <c r="ALK20" s="15"/>
+      <c r="ALL20" s="15"/>
+      <c r="ALM20" s="15"/>
+      <c r="ALN20" s="15"/>
+      <c r="ALO20" s="15"/>
+      <c r="ALP20" s="15"/>
+      <c r="ALQ20" s="15"/>
+      <c r="ALR20" s="15"/>
+      <c r="ALS20" s="15"/>
+      <c r="ALT20" s="15"/>
+      <c r="ALU20" s="15"/>
+      <c r="ALV20" s="15"/>
+      <c r="ALW20" s="15"/>
+      <c r="ALX20" s="15"/>
+      <c r="ALY20" s="15"/>
+      <c r="ALZ20" s="15"/>
+      <c r="AMA20" s="15"/>
+      <c r="AMB20" s="15"/>
+      <c r="AMC20" s="15"/>
+      <c r="AMD20" s="15"/>
+      <c r="AME20" s="15"/>
+      <c r="AMF20" s="15"/>
+      <c r="AMG20" s="15"/>
+      <c r="AMH20" s="15"/>
+      <c r="AMI20" s="15"/>
+      <c r="AMJ20" s="15"/>
+      <c r="AMK20" s="15"/>
+      <c r="AML20" s="15"/>
+      <c r="AMM20" s="15"/>
+      <c r="AMN20" s="15"/>
+      <c r="AMO20" s="15"/>
+      <c r="AMP20" s="15"/>
+      <c r="AMQ20" s="15"/>
+      <c r="AMR20" s="15"/>
+      <c r="AMS20" s="15"/>
+    </row>
+    <row r="21" s="34" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="25" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="27" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28" t="n">
+        <v>130536</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="P21" s="28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="28" t="n">
+        <v>11</v>
+      </c>
+      <c r="R21" s="28" t="n">
+        <v>300</v>
+      </c>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28" t="n">
+        <v>16</v>
+      </c>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28" t="n">
+        <v>200133</v>
+      </c>
+      <c r="X21" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z21" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA21" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB21" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC21" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD21" s="28" t="n">
+        <v>144183</v>
+      </c>
+      <c r="AE21" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF21" s="28" t="n">
+        <v>281056</v>
+      </c>
+      <c r="AG21" s="28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH21" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="28"/>
+      <c r="AQ21" s="28"/>
+      <c r="AR21" s="28"/>
+      <c r="AS21" s="28"/>
+      <c r="AT21" s="32"/>
+      <c r="AU21" s="33"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="28"/>
+      <c r="AX21" s="28"/>
+      <c r="AY21" s="33"/>
+      <c r="AZ21" s="28"/>
+      <c r="BA21" s="28"/>
+      <c r="BB21" s="33"/>
+      <c r="BC21" s="28"/>
+      <c r="BD21" s="28"/>
+      <c r="BE21" s="28"/>
+      <c r="BF21" s="28"/>
+      <c r="BG21" s="28"/>
+      <c r="BH21" s="28"/>
+      <c r="BI21" s="28"/>
+      <c r="BJ21" s="28"/>
+      <c r="BK21" s="28"/>
+      <c r="BL21" s="28"/>
+      <c r="BM21" s="28"/>
+      <c r="BN21" s="28"/>
+      <c r="BO21" s="28"/>
+      <c r="BP21" s="28"/>
+      <c r="BQ21" s="28"/>
+      <c r="BR21" s="28"/>
+      <c r="BS21" s="28"/>
+      <c r="BT21" s="28"/>
+      <c r="BU21" s="28"/>
+      <c r="BV21" s="28"/>
+      <c r="BW21" s="28"/>
+      <c r="BX21" s="28"/>
+      <c r="BY21" s="28"/>
+      <c r="BZ21" s="28"/>
+      <c r="CA21" s="28"/>
+      <c r="CB21" s="28"/>
+      <c r="CC21" s="28"/>
+      <c r="CD21" s="28"/>
+      <c r="CE21" s="28"/>
+      <c r="CF21" s="28"/>
+      <c r="CG21" s="28"/>
+      <c r="CH21" s="28"/>
+      <c r="CI21" s="28"/>
+      <c r="CJ21" s="28"/>
+      <c r="CK21" s="28"/>
+      <c r="CL21" s="28"/>
+      <c r="CM21" s="28"/>
+      <c r="CN21" s="28"/>
+      <c r="CO21" s="28"/>
+      <c r="CP21" s="28"/>
+      <c r="CQ21" s="28"/>
+      <c r="CR21" s="28"/>
+      <c r="CS21" s="28"/>
+      <c r="CT21" s="28"/>
+      <c r="CU21" s="28"/>
+      <c r="CV21" s="28"/>
+      <c r="CW21" s="28"/>
+      <c r="CX21" s="28"/>
+      <c r="CY21" s="28"/>
+      <c r="CZ21" s="28"/>
+      <c r="DA21" s="28"/>
+      <c r="DB21" s="28"/>
+      <c r="DC21" s="28"/>
+      <c r="DD21" s="28"/>
+      <c r="DE21" s="28"/>
+      <c r="DF21" s="28"/>
+      <c r="DG21" s="28"/>
+      <c r="DH21" s="28"/>
+      <c r="DI21" s="28"/>
+      <c r="DJ21" s="28"/>
+      <c r="DK21" s="28"/>
+      <c r="DL21" s="28"/>
+      <c r="DM21" s="28"/>
+      <c r="DN21" s="28"/>
+      <c r="DO21" s="28"/>
+      <c r="DP21" s="28"/>
+      <c r="DQ21" s="28"/>
+      <c r="DR21" s="28"/>
+      <c r="DS21" s="28"/>
+      <c r="DT21" s="28"/>
+      <c r="DU21" s="28"/>
+      <c r="DV21" s="28"/>
+      <c r="DW21" s="28"/>
+      <c r="DX21" s="28"/>
+      <c r="DY21" s="28"/>
+      <c r="DZ21" s="28"/>
+      <c r="EA21" s="28"/>
+      <c r="EB21" s="28"/>
+      <c r="EC21" s="28"/>
+      <c r="ED21" s="28"/>
+      <c r="EE21" s="28"/>
+      <c r="EF21" s="28"/>
+      <c r="EG21" s="28"/>
+      <c r="EH21" s="28"/>
+      <c r="EI21" s="28"/>
+      <c r="EJ21" s="28"/>
+      <c r="EK21" s="28"/>
+      <c r="EL21" s="28"/>
+      <c r="EM21" s="28"/>
+      <c r="EN21" s="28"/>
+      <c r="EO21" s="28"/>
+      <c r="EP21" s="28"/>
+      <c r="EQ21" s="28"/>
+      <c r="ER21" s="28"/>
+      <c r="ES21" s="28"/>
+      <c r="ET21" s="28"/>
+      <c r="EU21" s="28"/>
+      <c r="EV21" s="28"/>
+      <c r="EW21" s="28"/>
+      <c r="EX21" s="28"/>
+      <c r="EY21" s="28"/>
+      <c r="EZ21" s="28"/>
+      <c r="FA21" s="28"/>
+      <c r="FB21" s="28"/>
+      <c r="FC21" s="28"/>
+      <c r="FD21" s="28"/>
+      <c r="FE21" s="28"/>
+      <c r="FF21" s="28"/>
+      <c r="FG21" s="28"/>
+      <c r="FH21" s="28"/>
+      <c r="FI21" s="28"/>
+      <c r="FJ21" s="28"/>
+      <c r="FK21" s="28"/>
+      <c r="FL21" s="28"/>
+      <c r="FM21" s="28"/>
+      <c r="FN21" s="28"/>
+      <c r="FO21" s="28"/>
+      <c r="FP21" s="28"/>
+      <c r="FQ21" s="28"/>
+      <c r="FR21" s="28"/>
+      <c r="FS21" s="28"/>
+      <c r="FT21" s="28"/>
+      <c r="FU21" s="28"/>
+      <c r="FV21" s="28"/>
+      <c r="FW21" s="28"/>
+      <c r="FX21" s="28"/>
+      <c r="FY21" s="28"/>
+      <c r="FZ21" s="28"/>
+      <c r="GA21" s="28"/>
+      <c r="GB21" s="28"/>
+      <c r="GC21" s="28"/>
+      <c r="GD21" s="28"/>
+      <c r="GE21" s="28"/>
+      <c r="GF21" s="28"/>
+      <c r="GG21" s="28"/>
+      <c r="GH21" s="28"/>
+      <c r="GI21" s="28"/>
+      <c r="GJ21" s="28"/>
+      <c r="GK21" s="28"/>
+      <c r="GL21" s="28"/>
+      <c r="GM21" s="28"/>
+      <c r="GN21" s="28"/>
+      <c r="GO21" s="28"/>
+      <c r="GP21" s="28"/>
+      <c r="GQ21" s="28"/>
+      <c r="GR21" s="28"/>
+      <c r="GS21" s="28"/>
+      <c r="GT21" s="28"/>
+      <c r="GU21" s="28"/>
+      <c r="GV21" s="28"/>
+      <c r="GW21" s="28"/>
+      <c r="GX21" s="28"/>
+      <c r="GY21" s="28"/>
+      <c r="GZ21" s="28"/>
+      <c r="HA21" s="28"/>
+      <c r="HB21" s="28"/>
+      <c r="HC21" s="28"/>
+      <c r="HD21" s="28"/>
+      <c r="HE21" s="28"/>
+      <c r="HF21" s="28"/>
+      <c r="HG21" s="28"/>
+      <c r="HH21" s="28"/>
+      <c r="HI21" s="28"/>
+      <c r="HJ21" s="28"/>
+      <c r="HK21" s="28"/>
+      <c r="HL21" s="28"/>
+      <c r="HM21" s="28"/>
+      <c r="HN21" s="28"/>
+      <c r="HO21" s="28"/>
+      <c r="HP21" s="28"/>
+      <c r="HQ21" s="28"/>
+      <c r="HR21" s="28"/>
+      <c r="HS21" s="28"/>
+      <c r="HT21" s="28"/>
+      <c r="HU21" s="28"/>
+      <c r="HV21" s="28"/>
+      <c r="HW21" s="28"/>
+      <c r="HX21" s="28"/>
+      <c r="HY21" s="28"/>
+      <c r="HZ21" s="28"/>
+      <c r="IA21" s="28"/>
+      <c r="IB21" s="28"/>
+      <c r="IC21" s="28"/>
+      <c r="ID21" s="28"/>
+      <c r="IE21" s="28"/>
+      <c r="IF21" s="28"/>
+      <c r="IG21" s="28"/>
+      <c r="IH21" s="28"/>
+      <c r="II21" s="28"/>
+      <c r="IJ21" s="28"/>
+      <c r="IK21" s="28"/>
+      <c r="IL21" s="28"/>
+      <c r="IM21" s="28"/>
+      <c r="IN21" s="28"/>
+      <c r="IO21" s="28"/>
+      <c r="IP21" s="28"/>
+      <c r="IQ21" s="28"/>
+      <c r="IR21" s="28"/>
+      <c r="IS21" s="28"/>
+      <c r="IT21" s="28"/>
+      <c r="IU21" s="28"/>
+      <c r="IV21" s="28"/>
+      <c r="IW21" s="28"/>
+      <c r="IX21" s="28"/>
+      <c r="IY21" s="28"/>
+      <c r="IZ21" s="28"/>
+      <c r="JA21" s="28"/>
+      <c r="JB21" s="28"/>
+      <c r="JC21" s="28"/>
+      <c r="JD21" s="28"/>
+      <c r="JE21" s="28"/>
+      <c r="JF21" s="28"/>
+      <c r="JG21" s="28"/>
+      <c r="JH21" s="28"/>
+      <c r="JI21" s="28"/>
+      <c r="JJ21" s="28"/>
+      <c r="JK21" s="28"/>
+      <c r="JL21" s="28"/>
+      <c r="JM21" s="28"/>
+      <c r="JN21" s="28"/>
+      <c r="JO21" s="28"/>
+      <c r="JP21" s="28"/>
+      <c r="JQ21" s="28"/>
+      <c r="JR21" s="28"/>
+      <c r="JS21" s="28"/>
+      <c r="JT21" s="28"/>
+      <c r="JU21" s="28"/>
+      <c r="JV21" s="28"/>
+      <c r="JW21" s="28"/>
+      <c r="JX21" s="28"/>
+      <c r="JY21" s="28"/>
+      <c r="JZ21" s="28"/>
+      <c r="KA21" s="28"/>
+      <c r="KB21" s="28"/>
+      <c r="KC21" s="28"/>
+      <c r="KD21" s="28"/>
+      <c r="KE21" s="28"/>
+      <c r="KF21" s="28"/>
+      <c r="KG21" s="28"/>
+      <c r="KH21" s="28"/>
+      <c r="KI21" s="28"/>
+      <c r="KJ21" s="28"/>
+      <c r="KK21" s="28"/>
+      <c r="KL21" s="28"/>
+      <c r="KM21" s="28"/>
+      <c r="KN21" s="28"/>
+      <c r="KO21" s="28"/>
+      <c r="KP21" s="28"/>
+      <c r="KQ21" s="28"/>
+      <c r="KR21" s="28"/>
+      <c r="KS21" s="28"/>
+      <c r="KT21" s="28"/>
+      <c r="KU21" s="28"/>
+      <c r="KV21" s="28"/>
+      <c r="KW21" s="28"/>
+      <c r="KX21" s="28"/>
+      <c r="KY21" s="28"/>
+      <c r="KZ21" s="28"/>
+      <c r="LA21" s="28"/>
+      <c r="LB21" s="28"/>
+      <c r="LC21" s="28"/>
+      <c r="LD21" s="28"/>
+      <c r="LE21" s="28"/>
+      <c r="LF21" s="28"/>
+      <c r="LG21" s="28"/>
+      <c r="LH21" s="28"/>
+      <c r="LI21" s="28"/>
+      <c r="LJ21" s="28"/>
+      <c r="LK21" s="28"/>
+      <c r="LL21" s="28"/>
+      <c r="LM21" s="28"/>
+      <c r="LN21" s="28"/>
+      <c r="LO21" s="28"/>
+      <c r="LP21" s="28"/>
+      <c r="LQ21" s="28"/>
+      <c r="LR21" s="28"/>
+      <c r="LS21" s="28"/>
+      <c r="LT21" s="28"/>
+      <c r="LU21" s="28"/>
+      <c r="LV21" s="28"/>
+      <c r="LW21" s="28"/>
+      <c r="LX21" s="28"/>
+      <c r="LY21" s="28"/>
+      <c r="LZ21" s="28"/>
+      <c r="MA21" s="28"/>
+      <c r="MB21" s="28"/>
+      <c r="MC21" s="28"/>
+      <c r="MD21" s="28"/>
+      <c r="ME21" s="28"/>
+      <c r="MF21" s="28"/>
+      <c r="MG21" s="28"/>
+      <c r="MH21" s="28"/>
+      <c r="MI21" s="28"/>
+      <c r="MJ21" s="28"/>
+      <c r="MK21" s="28"/>
+      <c r="ML21" s="28"/>
+      <c r="MM21" s="28"/>
+      <c r="MN21" s="28"/>
+      <c r="MO21" s="28"/>
+      <c r="MP21" s="28"/>
+      <c r="MQ21" s="28"/>
+      <c r="MR21" s="28"/>
+      <c r="MS21" s="28"/>
+      <c r="MT21" s="28"/>
+      <c r="MU21" s="28"/>
+      <c r="MV21" s="28"/>
+      <c r="MW21" s="28"/>
+      <c r="MX21" s="28"/>
+      <c r="MY21" s="28"/>
+      <c r="MZ21" s="28"/>
+      <c r="NA21" s="28"/>
+      <c r="NB21" s="28"/>
+      <c r="NC21" s="28"/>
+      <c r="ND21" s="28"/>
+      <c r="NE21" s="28"/>
+      <c r="NF21" s="28"/>
+      <c r="NG21" s="28"/>
+      <c r="NH21" s="28"/>
+      <c r="NI21" s="28"/>
+      <c r="NJ21" s="28"/>
+      <c r="NK21" s="28"/>
+      <c r="NL21" s="28"/>
+      <c r="NM21" s="28"/>
+      <c r="NN21" s="28"/>
+      <c r="NO21" s="28"/>
+      <c r="NP21" s="28"/>
+      <c r="NQ21" s="28"/>
+      <c r="NR21" s="28"/>
+      <c r="NS21" s="28"/>
+      <c r="NT21" s="28"/>
+      <c r="NU21" s="28"/>
+      <c r="NV21" s="28"/>
+      <c r="NW21" s="28"/>
+      <c r="NX21" s="28"/>
+      <c r="NY21" s="28"/>
+      <c r="NZ21" s="28"/>
+      <c r="OA21" s="28"/>
+      <c r="OB21" s="28"/>
+      <c r="OC21" s="28"/>
+      <c r="OD21" s="28"/>
+      <c r="OE21" s="28"/>
+      <c r="OF21" s="28"/>
+      <c r="OG21" s="28"/>
+      <c r="OH21" s="28"/>
+      <c r="OI21" s="28"/>
+      <c r="OJ21" s="28"/>
+      <c r="OK21" s="28"/>
+      <c r="OL21" s="28"/>
+      <c r="OM21" s="28"/>
+      <c r="ON21" s="28"/>
+      <c r="OO21" s="28"/>
+      <c r="OP21" s="28"/>
+      <c r="OQ21" s="28"/>
+      <c r="OR21" s="28"/>
+      <c r="OS21" s="28"/>
+      <c r="OT21" s="28"/>
+      <c r="OU21" s="28"/>
+      <c r="OV21" s="28"/>
+      <c r="OW21" s="28"/>
+      <c r="OX21" s="28"/>
+      <c r="OY21" s="28"/>
+      <c r="OZ21" s="28"/>
+      <c r="PA21" s="28"/>
+      <c r="PB21" s="28"/>
+      <c r="PC21" s="28"/>
+      <c r="PD21" s="28"/>
+      <c r="PE21" s="28"/>
+      <c r="PF21" s="28"/>
+      <c r="PG21" s="28"/>
+      <c r="PH21" s="28"/>
+      <c r="PI21" s="28"/>
+      <c r="PJ21" s="28"/>
+      <c r="PK21" s="28"/>
+      <c r="PL21" s="28"/>
+      <c r="PM21" s="28"/>
+      <c r="PN21" s="28"/>
+      <c r="PO21" s="28"/>
+      <c r="PP21" s="28"/>
+      <c r="PQ21" s="28"/>
+      <c r="PR21" s="28"/>
+      <c r="PS21" s="28"/>
+      <c r="PT21" s="28"/>
+      <c r="PU21" s="28"/>
+      <c r="PV21" s="28"/>
+      <c r="PW21" s="28"/>
+      <c r="PX21" s="28"/>
+      <c r="PY21" s="28"/>
+      <c r="PZ21" s="28"/>
+      <c r="QA21" s="28"/>
+      <c r="QB21" s="28"/>
+      <c r="QC21" s="28"/>
+      <c r="QD21" s="28"/>
+      <c r="QE21" s="28"/>
+      <c r="QF21" s="28"/>
+      <c r="QG21" s="28"/>
+      <c r="QH21" s="28"/>
+      <c r="QI21" s="28"/>
+      <c r="QJ21" s="28"/>
+      <c r="QK21" s="28"/>
+      <c r="QL21" s="28"/>
+      <c r="QM21" s="28"/>
+      <c r="QN21" s="28"/>
+      <c r="QO21" s="28"/>
+      <c r="QP21" s="28"/>
+      <c r="QQ21" s="28"/>
+      <c r="QR21" s="28"/>
+      <c r="QS21" s="28"/>
+      <c r="QT21" s="28"/>
+      <c r="QU21" s="28"/>
+      <c r="QV21" s="28"/>
+      <c r="QW21" s="28"/>
+      <c r="QX21" s="28"/>
+      <c r="QY21" s="28"/>
+      <c r="QZ21" s="28"/>
+      <c r="RA21" s="28"/>
+      <c r="RB21" s="28"/>
+      <c r="RC21" s="28"/>
+      <c r="RD21" s="28"/>
+      <c r="RE21" s="28"/>
+      <c r="RF21" s="28"/>
+      <c r="RG21" s="28"/>
+      <c r="RH21" s="28"/>
+      <c r="RI21" s="28"/>
+      <c r="RJ21" s="28"/>
+      <c r="RK21" s="28"/>
+      <c r="RL21" s="28"/>
+      <c r="RM21" s="28"/>
+      <c r="RN21" s="28"/>
+      <c r="RO21" s="28"/>
+      <c r="RP21" s="28"/>
+      <c r="RQ21" s="28"/>
+      <c r="RR21" s="28"/>
+      <c r="RS21" s="28"/>
+      <c r="RT21" s="28"/>
+      <c r="RU21" s="28"/>
+      <c r="RV21" s="28"/>
+      <c r="RW21" s="28"/>
+      <c r="RX21" s="28"/>
+      <c r="RY21" s="28"/>
+      <c r="RZ21" s="28"/>
+      <c r="SA21" s="28"/>
+      <c r="SB21" s="28"/>
+      <c r="SC21" s="28"/>
+      <c r="SD21" s="28"/>
+      <c r="SE21" s="28"/>
+      <c r="SF21" s="28"/>
+      <c r="SG21" s="28"/>
+      <c r="SH21" s="28"/>
+      <c r="SI21" s="28"/>
+      <c r="SJ21" s="28"/>
+      <c r="SK21" s="28"/>
+      <c r="SL21" s="28"/>
+      <c r="SM21" s="28"/>
+      <c r="SN21" s="28"/>
+      <c r="SO21" s="28"/>
+      <c r="SP21" s="28"/>
+      <c r="SQ21" s="28"/>
+      <c r="SR21" s="28"/>
+      <c r="SS21" s="28"/>
+      <c r="ST21" s="28"/>
+      <c r="SU21" s="28"/>
+      <c r="SV21" s="28"/>
+      <c r="SW21" s="28"/>
+      <c r="SX21" s="28"/>
+      <c r="SY21" s="28"/>
+      <c r="SZ21" s="28"/>
+      <c r="TA21" s="28"/>
+      <c r="TB21" s="28"/>
+      <c r="TC21" s="28"/>
+      <c r="TD21" s="28"/>
+      <c r="TE21" s="28"/>
+      <c r="TF21" s="28"/>
+      <c r="TG21" s="28"/>
+      <c r="TH21" s="28"/>
+      <c r="TI21" s="28"/>
+      <c r="TJ21" s="28"/>
+      <c r="TK21" s="28"/>
+      <c r="TL21" s="28"/>
+      <c r="TM21" s="28"/>
+      <c r="TN21" s="28"/>
+      <c r="TO21" s="28"/>
+      <c r="TP21" s="28"/>
+      <c r="TQ21" s="28"/>
+      <c r="TR21" s="28"/>
+      <c r="TS21" s="28"/>
+      <c r="TT21" s="28"/>
+      <c r="TU21" s="28"/>
+      <c r="TV21" s="28"/>
+      <c r="TW21" s="28"/>
+      <c r="TX21" s="28"/>
+      <c r="TY21" s="28"/>
+      <c r="TZ21" s="28"/>
+      <c r="UA21" s="28"/>
+      <c r="UB21" s="28"/>
+      <c r="UC21" s="28"/>
+      <c r="UD21" s="28"/>
+      <c r="UE21" s="28"/>
+      <c r="UF21" s="28"/>
+      <c r="UG21" s="28"/>
+      <c r="UH21" s="28"/>
+      <c r="UI21" s="28"/>
+      <c r="UJ21" s="28"/>
+      <c r="UK21" s="28"/>
+      <c r="UL21" s="28"/>
+      <c r="UM21" s="28"/>
+      <c r="UN21" s="28"/>
+      <c r="UO21" s="28"/>
+      <c r="UP21" s="28"/>
+      <c r="UQ21" s="28"/>
+      <c r="UR21" s="28"/>
+      <c r="US21" s="28"/>
+      <c r="UT21" s="28"/>
+      <c r="UU21" s="28"/>
+      <c r="UV21" s="28"/>
+      <c r="UW21" s="28"/>
+      <c r="UX21" s="28"/>
+      <c r="UY21" s="28"/>
+      <c r="UZ21" s="28"/>
+      <c r="VA21" s="28"/>
+      <c r="VB21" s="28"/>
+      <c r="VC21" s="28"/>
+      <c r="VD21" s="28"/>
+      <c r="VE21" s="28"/>
+      <c r="VF21" s="28"/>
+      <c r="VG21" s="28"/>
+      <c r="VH21" s="28"/>
+      <c r="VI21" s="28"/>
+      <c r="VJ21" s="28"/>
+      <c r="VK21" s="28"/>
+      <c r="VL21" s="28"/>
+      <c r="VM21" s="28"/>
+      <c r="VN21" s="28"/>
+      <c r="VO21" s="28"/>
+      <c r="VP21" s="28"/>
+      <c r="VQ21" s="28"/>
+      <c r="VR21" s="28"/>
+      <c r="VS21" s="28"/>
+      <c r="VT21" s="28"/>
+      <c r="VU21" s="28"/>
+      <c r="VV21" s="28"/>
+      <c r="VW21" s="28"/>
+      <c r="VX21" s="28"/>
+      <c r="VY21" s="28"/>
+      <c r="VZ21" s="28"/>
+      <c r="WA21" s="28"/>
+      <c r="WB21" s="28"/>
+      <c r="WC21" s="28"/>
+      <c r="WD21" s="28"/>
+      <c r="WE21" s="28"/>
+      <c r="WF21" s="28"/>
+      <c r="WG21" s="28"/>
+      <c r="WH21" s="28"/>
+      <c r="WI21" s="28"/>
+      <c r="WJ21" s="28"/>
+      <c r="WK21" s="28"/>
+      <c r="WL21" s="28"/>
+      <c r="WM21" s="28"/>
+      <c r="WN21" s="28"/>
+      <c r="WO21" s="28"/>
+      <c r="WP21" s="28"/>
+      <c r="WQ21" s="28"/>
+      <c r="WR21" s="28"/>
+      <c r="WS21" s="28"/>
+      <c r="WT21" s="28"/>
+      <c r="WU21" s="28"/>
+      <c r="WV21" s="28"/>
+      <c r="WW21" s="28"/>
+      <c r="WX21" s="28"/>
+      <c r="WY21" s="28"/>
+      <c r="WZ21" s="28"/>
+      <c r="XA21" s="28"/>
+      <c r="XB21" s="28"/>
+      <c r="XC21" s="28"/>
+      <c r="XD21" s="28"/>
+      <c r="XE21" s="28"/>
+      <c r="XF21" s="28"/>
+      <c r="XG21" s="28"/>
+      <c r="XH21" s="28"/>
+      <c r="XI21" s="28"/>
+      <c r="XJ21" s="28"/>
+      <c r="XK21" s="28"/>
+      <c r="XL21" s="28"/>
+      <c r="XM21" s="28"/>
+      <c r="XN21" s="28"/>
+      <c r="XO21" s="28"/>
+      <c r="XP21" s="28"/>
+      <c r="XQ21" s="28"/>
+      <c r="XR21" s="28"/>
+      <c r="XS21" s="28"/>
+      <c r="XT21" s="28"/>
+      <c r="XU21" s="28"/>
+      <c r="XV21" s="28"/>
+      <c r="XW21" s="28"/>
+      <c r="XX21" s="28"/>
+      <c r="XY21" s="28"/>
+      <c r="XZ21" s="28"/>
+      <c r="YA21" s="28"/>
+      <c r="YB21" s="28"/>
+      <c r="YC21" s="28"/>
+      <c r="YD21" s="28"/>
+      <c r="YE21" s="28"/>
+      <c r="YF21" s="28"/>
+      <c r="YG21" s="28"/>
+      <c r="YH21" s="28"/>
+      <c r="YI21" s="28"/>
+      <c r="YJ21" s="28"/>
+      <c r="YK21" s="28"/>
+      <c r="YL21" s="28"/>
+      <c r="YM21" s="28"/>
+      <c r="YN21" s="28"/>
+      <c r="YO21" s="28"/>
+      <c r="YP21" s="28"/>
+      <c r="YQ21" s="28"/>
+      <c r="YR21" s="28"/>
+      <c r="YS21" s="28"/>
+      <c r="YT21" s="28"/>
+      <c r="YU21" s="28"/>
+      <c r="YV21" s="28"/>
+      <c r="YW21" s="28"/>
+      <c r="YX21" s="28"/>
+      <c r="YY21" s="28"/>
+      <c r="YZ21" s="28"/>
+      <c r="ZA21" s="28"/>
+      <c r="ZB21" s="28"/>
+      <c r="ZC21" s="28"/>
+      <c r="ZD21" s="28"/>
+      <c r="ZE21" s="28"/>
+      <c r="ZF21" s="28"/>
+      <c r="ZG21" s="28"/>
+      <c r="ZH21" s="28"/>
+      <c r="ZI21" s="28"/>
+      <c r="ZJ21" s="28"/>
+      <c r="ZK21" s="28"/>
+      <c r="ZL21" s="28"/>
+      <c r="ZM21" s="28"/>
+      <c r="ZN21" s="28"/>
+      <c r="ZO21" s="28"/>
+      <c r="ZP21" s="28"/>
+      <c r="ZQ21" s="28"/>
+      <c r="ZR21" s="28"/>
+      <c r="ZS21" s="28"/>
+      <c r="ZT21" s="28"/>
+      <c r="ZU21" s="28"/>
+      <c r="ZV21" s="28"/>
+      <c r="ZW21" s="28"/>
+      <c r="ZX21" s="28"/>
+      <c r="ZY21" s="28"/>
+      <c r="ZZ21" s="28"/>
+      <c r="AAA21" s="28"/>
+      <c r="AAB21" s="28"/>
+      <c r="AAC21" s="28"/>
+      <c r="AAD21" s="28"/>
+      <c r="AAE21" s="28"/>
+      <c r="AAF21" s="28"/>
+      <c r="AAG21" s="28"/>
+      <c r="AAH21" s="28"/>
+      <c r="AAI21" s="28"/>
+      <c r="AAJ21" s="28"/>
+      <c r="AAK21" s="28"/>
+      <c r="AAL21" s="28"/>
+      <c r="AAM21" s="28"/>
+      <c r="AAN21" s="28"/>
+      <c r="AAO21" s="28"/>
+      <c r="AAP21" s="28"/>
+      <c r="AAQ21" s="28"/>
+      <c r="AAR21" s="28"/>
+      <c r="AAS21" s="28"/>
+      <c r="AAT21" s="28"/>
+      <c r="AAU21" s="28"/>
+      <c r="AAV21" s="28"/>
+      <c r="AAW21" s="28"/>
+      <c r="AAX21" s="28"/>
+      <c r="AAY21" s="28"/>
+      <c r="AAZ21" s="28"/>
+      <c r="ABA21" s="28"/>
+      <c r="ABB21" s="28"/>
+      <c r="ABC21" s="28"/>
+      <c r="ABD21" s="28"/>
+      <c r="ABE21" s="28"/>
+      <c r="ABF21" s="28"/>
+      <c r="ABG21" s="28"/>
+      <c r="ABH21" s="28"/>
+      <c r="ABI21" s="28"/>
+      <c r="ABJ21" s="28"/>
+      <c r="ABK21" s="28"/>
+      <c r="ABL21" s="28"/>
+      <c r="ABM21" s="28"/>
+      <c r="ABN21" s="28"/>
+      <c r="ABO21" s="28"/>
+      <c r="ABP21" s="28"/>
+      <c r="ABQ21" s="28"/>
+      <c r="ABR21" s="28"/>
+      <c r="ABS21" s="28"/>
+      <c r="ABT21" s="28"/>
+      <c r="ABU21" s="28"/>
+      <c r="ABV21" s="28"/>
+      <c r="ABW21" s="28"/>
+      <c r="ABX21" s="28"/>
+      <c r="ABY21" s="28"/>
+      <c r="ABZ21" s="28"/>
+      <c r="ACA21" s="28"/>
+      <c r="ACB21" s="28"/>
+      <c r="ACC21" s="28"/>
+      <c r="ACD21" s="28"/>
+      <c r="ACE21" s="28"/>
+      <c r="ACF21" s="28"/>
+      <c r="ACG21" s="28"/>
+      <c r="ACH21" s="28"/>
+      <c r="ACI21" s="28"/>
+      <c r="ACJ21" s="28"/>
+      <c r="ACK21" s="28"/>
+      <c r="ACL21" s="28"/>
+      <c r="ACM21" s="28"/>
+      <c r="ACN21" s="28"/>
+      <c r="ACO21" s="28"/>
+      <c r="ACP21" s="28"/>
+      <c r="ACQ21" s="28"/>
+      <c r="ACR21" s="28"/>
+      <c r="ACS21" s="28"/>
+      <c r="ACT21" s="28"/>
+      <c r="ACU21" s="28"/>
+      <c r="ACV21" s="28"/>
+      <c r="ACW21" s="28"/>
+      <c r="ACX21" s="28"/>
+      <c r="ACY21" s="28"/>
+      <c r="ACZ21" s="28"/>
+      <c r="ADA21" s="28"/>
+      <c r="ADB21" s="28"/>
+      <c r="ADC21" s="28"/>
+      <c r="ADD21" s="28"/>
+      <c r="ADE21" s="28"/>
+      <c r="ADF21" s="28"/>
+      <c r="ADG21" s="28"/>
+      <c r="ADH21" s="28"/>
+      <c r="ADI21" s="28"/>
+      <c r="ADJ21" s="28"/>
+      <c r="ADK21" s="28"/>
+      <c r="ADL21" s="28"/>
+      <c r="ADM21" s="28"/>
+      <c r="ADN21" s="28"/>
+      <c r="ADO21" s="28"/>
+      <c r="ADP21" s="28"/>
+      <c r="ADQ21" s="28"/>
+      <c r="ADR21" s="28"/>
+      <c r="ADS21" s="28"/>
+      <c r="ADT21" s="28"/>
+      <c r="ADU21" s="28"/>
+      <c r="ADV21" s="28"/>
+      <c r="ADW21" s="28"/>
+      <c r="ADX21" s="28"/>
+      <c r="ADY21" s="28"/>
+      <c r="ADZ21" s="28"/>
+      <c r="AEA21" s="28"/>
+      <c r="AEB21" s="28"/>
+      <c r="AEC21" s="28"/>
+      <c r="AED21" s="28"/>
+      <c r="AEE21" s="28"/>
+      <c r="AEF21" s="28"/>
+      <c r="AEG21" s="28"/>
+      <c r="AEH21" s="28"/>
+      <c r="AEI21" s="28"/>
+      <c r="AEJ21" s="28"/>
+      <c r="AEK21" s="28"/>
+      <c r="AEL21" s="28"/>
+      <c r="AEM21" s="28"/>
+      <c r="AEN21" s="28"/>
+      <c r="AEO21" s="28"/>
+      <c r="AEP21" s="28"/>
+      <c r="AEQ21" s="28"/>
+      <c r="AER21" s="28"/>
+      <c r="AES21" s="28"/>
+      <c r="AET21" s="28"/>
+      <c r="AEU21" s="28"/>
+      <c r="AEV21" s="28"/>
+      <c r="AEW21" s="28"/>
+      <c r="AEX21" s="28"/>
+      <c r="AEY21" s="28"/>
+      <c r="AEZ21" s="28"/>
+      <c r="AFA21" s="28"/>
+      <c r="AFB21" s="28"/>
+      <c r="AFC21" s="28"/>
+      <c r="AFD21" s="28"/>
+      <c r="AFE21" s="28"/>
+      <c r="AFF21" s="28"/>
+      <c r="AFG21" s="28"/>
+      <c r="AFH21" s="28"/>
+      <c r="AFI21" s="28"/>
+      <c r="AFJ21" s="28"/>
+      <c r="AFK21" s="28"/>
+      <c r="AFL21" s="28"/>
+      <c r="AFM21" s="28"/>
+      <c r="AFN21" s="28"/>
+      <c r="AFO21" s="28"/>
+      <c r="AFP21" s="28"/>
+      <c r="AFQ21" s="28"/>
+      <c r="AFR21" s="28"/>
+      <c r="AFS21" s="28"/>
+      <c r="AFT21" s="28"/>
+      <c r="AFU21" s="28"/>
+      <c r="AFV21" s="28"/>
+      <c r="AFW21" s="28"/>
+      <c r="AFX21" s="28"/>
+      <c r="AFY21" s="28"/>
+      <c r="AFZ21" s="28"/>
+      <c r="AGA21" s="28"/>
+      <c r="AGB21" s="28"/>
+      <c r="AGC21" s="28"/>
+      <c r="AGD21" s="28"/>
+      <c r="AGE21" s="28"/>
+      <c r="AGF21" s="28"/>
+      <c r="AGG21" s="28"/>
+      <c r="AGH21" s="28"/>
+      <c r="AGI21" s="28"/>
+      <c r="AGJ21" s="28"/>
+      <c r="AGK21" s="28"/>
+      <c r="AGL21" s="28"/>
+      <c r="AGM21" s="28"/>
+      <c r="AGN21" s="28"/>
+      <c r="AGO21" s="28"/>
+      <c r="AGP21" s="28"/>
+      <c r="AGQ21" s="28"/>
+      <c r="AGR21" s="28"/>
+      <c r="AGS21" s="28"/>
+      <c r="AGT21" s="28"/>
+      <c r="AGU21" s="28"/>
+      <c r="AGV21" s="28"/>
+      <c r="AGW21" s="28"/>
+      <c r="AGX21" s="28"/>
+      <c r="AGY21" s="28"/>
+      <c r="AGZ21" s="28"/>
+      <c r="AHA21" s="28"/>
+      <c r="AHB21" s="28"/>
+      <c r="AHC21" s="28"/>
+      <c r="AHD21" s="28"/>
+      <c r="AHE21" s="28"/>
+      <c r="AHF21" s="28"/>
+      <c r="AHG21" s="28"/>
+      <c r="AHH21" s="28"/>
+      <c r="AHI21" s="28"/>
+      <c r="AHJ21" s="28"/>
+      <c r="AHK21" s="28"/>
+      <c r="AHL21" s="28"/>
+      <c r="AHM21" s="28"/>
+      <c r="AHN21" s="28"/>
+      <c r="AHO21" s="28"/>
+      <c r="AHP21" s="28"/>
+      <c r="AHQ21" s="28"/>
+      <c r="AHR21" s="28"/>
+      <c r="AHS21" s="28"/>
+      <c r="AHT21" s="28"/>
+      <c r="AHU21" s="28"/>
+      <c r="AHV21" s="28"/>
+      <c r="AHW21" s="28"/>
+      <c r="AHX21" s="28"/>
+      <c r="AHY21" s="28"/>
+      <c r="AHZ21" s="28"/>
+      <c r="AIA21" s="28"/>
+      <c r="AIB21" s="28"/>
+      <c r="AIC21" s="28"/>
+      <c r="AID21" s="28"/>
+      <c r="AIE21" s="28"/>
+      <c r="AIF21" s="28"/>
+      <c r="AIG21" s="28"/>
+      <c r="AIH21" s="28"/>
+      <c r="AII21" s="28"/>
+      <c r="AIJ21" s="28"/>
+      <c r="AIK21" s="28"/>
+      <c r="AIL21" s="28"/>
+      <c r="AIM21" s="28"/>
+      <c r="AIN21" s="28"/>
+      <c r="AIO21" s="28"/>
+      <c r="AIP21" s="28"/>
+      <c r="AIQ21" s="28"/>
+      <c r="AIR21" s="28"/>
+      <c r="AIS21" s="28"/>
+      <c r="AIT21" s="28"/>
+      <c r="AIU21" s="28"/>
+      <c r="AIV21" s="28"/>
+      <c r="AIW21" s="28"/>
+      <c r="AIX21" s="28"/>
+      <c r="AIY21" s="28"/>
+      <c r="AIZ21" s="28"/>
+      <c r="AJA21" s="28"/>
+      <c r="AJB21" s="28"/>
+      <c r="AJC21" s="28"/>
+      <c r="AJD21" s="28"/>
+      <c r="AJE21" s="28"/>
+      <c r="AJF21" s="28"/>
+      <c r="AJG21" s="28"/>
+      <c r="AJH21" s="28"/>
+      <c r="AJI21" s="28"/>
+      <c r="AJJ21" s="28"/>
+      <c r="AJK21" s="28"/>
+      <c r="AJL21" s="28"/>
+      <c r="AJM21" s="28"/>
+      <c r="AJN21" s="28"/>
+      <c r="AJO21" s="28"/>
+      <c r="AJP21" s="28"/>
+      <c r="AJQ21" s="28"/>
+      <c r="AJR21" s="28"/>
+      <c r="AJS21" s="28"/>
+      <c r="AJT21" s="28"/>
+      <c r="AJU21" s="28"/>
+      <c r="AJV21" s="28"/>
+      <c r="AJW21" s="28"/>
+      <c r="AJX21" s="28"/>
+      <c r="AJY21" s="28"/>
+      <c r="AJZ21" s="28"/>
+      <c r="AKA21" s="28"/>
+      <c r="AKB21" s="28"/>
+      <c r="AKC21" s="28"/>
+      <c r="AKD21" s="28"/>
+      <c r="AKE21" s="28"/>
+      <c r="AKF21" s="28"/>
+      <c r="AKG21" s="28"/>
+      <c r="AKH21" s="28"/>
+      <c r="AKI21" s="28"/>
+      <c r="AKJ21" s="28"/>
+      <c r="AKK21" s="28"/>
+      <c r="AKL21" s="28"/>
+      <c r="AKM21" s="28"/>
+      <c r="AKN21" s="28"/>
+      <c r="AKO21" s="28"/>
+      <c r="AKP21" s="28"/>
+      <c r="AKQ21" s="28"/>
+      <c r="AKR21" s="28"/>
+      <c r="AKS21" s="28"/>
+      <c r="AKT21" s="28"/>
+      <c r="AKU21" s="28"/>
+      <c r="AKV21" s="28"/>
+      <c r="AKW21" s="28"/>
+      <c r="AKX21" s="28"/>
+      <c r="AKY21" s="28"/>
+      <c r="AKZ21" s="28"/>
+      <c r="ALA21" s="28"/>
+      <c r="ALB21" s="28"/>
+      <c r="ALC21" s="28"/>
+      <c r="ALD21" s="28"/>
+      <c r="ALE21" s="28"/>
+      <c r="ALF21" s="28"/>
+      <c r="ALG21" s="28"/>
+      <c r="ALH21" s="28"/>
+      <c r="ALI21" s="28"/>
+      <c r="ALJ21" s="28"/>
+      <c r="ALK21" s="28"/>
+      <c r="ALL21" s="28"/>
+      <c r="ALM21" s="28"/>
+      <c r="ALN21" s="28"/>
+      <c r="ALO21" s="28"/>
+      <c r="ALP21" s="28"/>
+      <c r="ALQ21" s="28"/>
+      <c r="ALR21" s="28"/>
+      <c r="ALS21" s="28"/>
+      <c r="ALT21" s="28"/>
+      <c r="ALU21" s="28"/>
+      <c r="ALV21" s="28"/>
+      <c r="ALW21" s="28"/>
+      <c r="ALX21" s="28"/>
+      <c r="ALY21" s="28"/>
+      <c r="ALZ21" s="28"/>
+      <c r="AMA21" s="28"/>
+      <c r="AMB21" s="28"/>
+      <c r="AMC21" s="28"/>
+      <c r="AMD21" s="28"/>
+      <c r="AME21" s="28"/>
+      <c r="AMF21" s="28"/>
+      <c r="AMG21" s="28"/>
+      <c r="AMH21" s="28"/>
+      <c r="AMI21" s="28"/>
+      <c r="AMJ21" s="28"/>
+      <c r="AMK21" s="28"/>
+      <c r="AML21" s="28"/>
+      <c r="AMM21" s="28"/>
+      <c r="AMN21" s="28"/>
+      <c r="AMO21" s="28"/>
+      <c r="AMP21" s="28"/>
+      <c r="AMQ21" s="28"/>
+      <c r="AMR21" s="28"/>
+      <c r="AMS21" s="28"/>
+    </row>
+    <row r="22" s="24" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="15" t="n">
+        <v>200</v>
+      </c>
+      <c r="H22" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="15" t="n">
+        <v>326241</v>
+      </c>
+      <c r="K22" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="L20" s="26" t="s">
+      <c r="L22" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="M20" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="T20" s="1" t="n">
+      <c r="M22" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="P22" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="T22" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="W20" s="1" t="n">
-        <v>200133</v>
-      </c>
-      <c r="X20" s="1" t="n">
+      <c r="U22" s="15"/>
+      <c r="V22" s="15" t="n">
+        <v>600</v>
+      </c>
+      <c r="W22" s="15" t="n">
+        <v>150929</v>
+      </c>
+      <c r="X22" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="Y20" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z20" s="1" t="s">
+      <c r="Y22" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z22" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AA22" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AB20" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD20" s="1" t="n">
-        <v>144183</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF20" s="1" t="n">
-        <v>20270</v>
-      </c>
-      <c r="AG20" s="1" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AH20" s="1" t="s">
+      <c r="AB22" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC22" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD22" s="15" t="n">
+        <v>122546</v>
+      </c>
+      <c r="AE22" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF22" s="15" t="n">
+        <v>135369</v>
+      </c>
+      <c r="AG22" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH22" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AT20" s="9"/>
-      <c r="AV20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="n">
-        <v>1015</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="H21" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="1" t="n">
-        <v>130536</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="L21" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="N21" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="T21" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="W21" s="1" t="n">
-        <v>200133</v>
-      </c>
-      <c r="X21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD21" s="1" t="n">
-        <v>144183</v>
-      </c>
-      <c r="AE21" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF21" s="1" t="n">
-        <v>20270</v>
-      </c>
-      <c r="AG21" s="1" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AH21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT21" s="9"/>
-      <c r="AU21" s="8"/>
-      <c r="AV21" s="9"/>
-      <c r="AY21" s="8"/>
-      <c r="BB21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="n">
-        <v>1016</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>326241</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="T22" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="W22" s="1" t="n">
-        <v>150929</v>
-      </c>
-      <c r="X22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD22" s="1" t="n">
-        <v>122546</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF22" s="1" t="n">
-        <v>135369</v>
-      </c>
-      <c r="AG22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT22" s="9"/>
-      <c r="AV22" s="9"/>
+      <c r="AI22" s="15" t="n">
+        <v>4009</v>
+      </c>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15"/>
+      <c r="AT22" s="18"/>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="18"/>
+      <c r="AW22" s="15"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="15"/>
+      <c r="AZ22" s="15"/>
+      <c r="BA22" s="15"/>
+      <c r="BB22" s="15"/>
+      <c r="BC22" s="15"/>
+      <c r="BD22" s="15"/>
+      <c r="BE22" s="15"/>
+      <c r="BF22" s="15"/>
+      <c r="BG22" s="15"/>
+      <c r="BH22" s="15"/>
+      <c r="BI22" s="15"/>
+      <c r="BJ22" s="15"/>
+      <c r="BK22" s="15"/>
+      <c r="BL22" s="15"/>
+      <c r="BM22" s="15"/>
+      <c r="BN22" s="15"/>
+      <c r="BO22" s="15"/>
+      <c r="BP22" s="15"/>
+      <c r="BQ22" s="15"/>
+      <c r="BR22" s="15"/>
+      <c r="BS22" s="15"/>
+      <c r="BT22" s="15"/>
+      <c r="BU22" s="15"/>
+      <c r="BV22" s="15"/>
+      <c r="BW22" s="15"/>
+      <c r="BX22" s="15"/>
+      <c r="BY22" s="15"/>
+      <c r="BZ22" s="15"/>
+      <c r="CA22" s="15"/>
+      <c r="CB22" s="15"/>
+      <c r="CC22" s="15"/>
+      <c r="CD22" s="15"/>
+      <c r="CE22" s="15"/>
+      <c r="CF22" s="15"/>
+      <c r="CG22" s="15"/>
+      <c r="CH22" s="15"/>
+      <c r="CI22" s="15"/>
+      <c r="CJ22" s="15"/>
+      <c r="CK22" s="15"/>
+      <c r="CL22" s="15"/>
+      <c r="CM22" s="15"/>
+      <c r="CN22" s="15"/>
+      <c r="CO22" s="15"/>
+      <c r="CP22" s="15"/>
+      <c r="CQ22" s="15"/>
+      <c r="CR22" s="15"/>
+      <c r="CS22" s="15"/>
+      <c r="CT22" s="15"/>
+      <c r="CU22" s="15"/>
+      <c r="CV22" s="15"/>
+      <c r="CW22" s="15"/>
+      <c r="CX22" s="15"/>
+      <c r="CY22" s="15"/>
+      <c r="CZ22" s="15"/>
+      <c r="DA22" s="15"/>
+      <c r="DB22" s="15"/>
+      <c r="DC22" s="15"/>
+      <c r="DD22" s="15"/>
+      <c r="DE22" s="15"/>
+      <c r="DF22" s="15"/>
+      <c r="DG22" s="15"/>
+      <c r="DH22" s="15"/>
+      <c r="DI22" s="15"/>
+      <c r="DJ22" s="15"/>
+      <c r="DK22" s="15"/>
+      <c r="DL22" s="15"/>
+      <c r="DM22" s="15"/>
+      <c r="DN22" s="15"/>
+      <c r="DO22" s="15"/>
+      <c r="DP22" s="15"/>
+      <c r="DQ22" s="15"/>
+      <c r="DR22" s="15"/>
+      <c r="DS22" s="15"/>
+      <c r="DT22" s="15"/>
+      <c r="DU22" s="15"/>
+      <c r="DV22" s="15"/>
+      <c r="DW22" s="15"/>
+      <c r="DX22" s="15"/>
+      <c r="DY22" s="15"/>
+      <c r="DZ22" s="15"/>
+      <c r="EA22" s="15"/>
+      <c r="EB22" s="15"/>
+      <c r="EC22" s="15"/>
+      <c r="ED22" s="15"/>
+      <c r="EE22" s="15"/>
+      <c r="EF22" s="15"/>
+      <c r="EG22" s="15"/>
+      <c r="EH22" s="15"/>
+      <c r="EI22" s="15"/>
+      <c r="EJ22" s="15"/>
+      <c r="EK22" s="15"/>
+      <c r="EL22" s="15"/>
+      <c r="EM22" s="15"/>
+      <c r="EN22" s="15"/>
+      <c r="EO22" s="15"/>
+      <c r="EP22" s="15"/>
+      <c r="EQ22" s="15"/>
+      <c r="ER22" s="15"/>
+      <c r="ES22" s="15"/>
+      <c r="ET22" s="15"/>
+      <c r="EU22" s="15"/>
+      <c r="EV22" s="15"/>
+      <c r="EW22" s="15"/>
+      <c r="EX22" s="15"/>
+      <c r="EY22" s="15"/>
+      <c r="EZ22" s="15"/>
+      <c r="FA22" s="15"/>
+      <c r="FB22" s="15"/>
+      <c r="FC22" s="15"/>
+      <c r="FD22" s="15"/>
+      <c r="FE22" s="15"/>
+      <c r="FF22" s="15"/>
+      <c r="FG22" s="15"/>
+      <c r="FH22" s="15"/>
+      <c r="FI22" s="15"/>
+      <c r="FJ22" s="15"/>
+      <c r="FK22" s="15"/>
+      <c r="FL22" s="15"/>
+      <c r="FM22" s="15"/>
+      <c r="FN22" s="15"/>
+      <c r="FO22" s="15"/>
+      <c r="FP22" s="15"/>
+      <c r="FQ22" s="15"/>
+      <c r="FR22" s="15"/>
+      <c r="FS22" s="15"/>
+      <c r="FT22" s="15"/>
+      <c r="FU22" s="15"/>
+      <c r="FV22" s="15"/>
+      <c r="FW22" s="15"/>
+      <c r="FX22" s="15"/>
+      <c r="FY22" s="15"/>
+      <c r="FZ22" s="15"/>
+      <c r="GA22" s="15"/>
+      <c r="GB22" s="15"/>
+      <c r="GC22" s="15"/>
+      <c r="GD22" s="15"/>
+      <c r="GE22" s="15"/>
+      <c r="GF22" s="15"/>
+      <c r="GG22" s="15"/>
+      <c r="GH22" s="15"/>
+      <c r="GI22" s="15"/>
+      <c r="GJ22" s="15"/>
+      <c r="GK22" s="15"/>
+      <c r="GL22" s="15"/>
+      <c r="GM22" s="15"/>
+      <c r="GN22" s="15"/>
+      <c r="GO22" s="15"/>
+      <c r="GP22" s="15"/>
+      <c r="GQ22" s="15"/>
+      <c r="GR22" s="15"/>
+      <c r="GS22" s="15"/>
+      <c r="GT22" s="15"/>
+      <c r="GU22" s="15"/>
+      <c r="GV22" s="15"/>
+      <c r="GW22" s="15"/>
+      <c r="GX22" s="15"/>
+      <c r="GY22" s="15"/>
+      <c r="GZ22" s="15"/>
+      <c r="HA22" s="15"/>
+      <c r="HB22" s="15"/>
+      <c r="HC22" s="15"/>
+      <c r="HD22" s="15"/>
+      <c r="HE22" s="15"/>
+      <c r="HF22" s="15"/>
+      <c r="HG22" s="15"/>
+      <c r="HH22" s="15"/>
+      <c r="HI22" s="15"/>
+      <c r="HJ22" s="15"/>
+      <c r="HK22" s="15"/>
+      <c r="HL22" s="15"/>
+      <c r="HM22" s="15"/>
+      <c r="HN22" s="15"/>
+      <c r="HO22" s="15"/>
+      <c r="HP22" s="15"/>
+      <c r="HQ22" s="15"/>
+      <c r="HR22" s="15"/>
+      <c r="HS22" s="15"/>
+      <c r="HT22" s="15"/>
+      <c r="HU22" s="15"/>
+      <c r="HV22" s="15"/>
+      <c r="HW22" s="15"/>
+      <c r="HX22" s="15"/>
+      <c r="HY22" s="15"/>
+      <c r="HZ22" s="15"/>
+      <c r="IA22" s="15"/>
+      <c r="IB22" s="15"/>
+      <c r="IC22" s="15"/>
+      <c r="ID22" s="15"/>
+      <c r="IE22" s="15"/>
+      <c r="IF22" s="15"/>
+      <c r="IG22" s="15"/>
+      <c r="IH22" s="15"/>
+      <c r="II22" s="15"/>
+      <c r="IJ22" s="15"/>
+      <c r="IK22" s="15"/>
+      <c r="IL22" s="15"/>
+      <c r="IM22" s="15"/>
+      <c r="IN22" s="15"/>
+      <c r="IO22" s="15"/>
+      <c r="IP22" s="15"/>
+      <c r="IQ22" s="15"/>
+      <c r="IR22" s="15"/>
+      <c r="IS22" s="15"/>
+      <c r="IT22" s="15"/>
+      <c r="IU22" s="15"/>
+      <c r="IV22" s="15"/>
+      <c r="IW22" s="15"/>
+      <c r="IX22" s="15"/>
+      <c r="IY22" s="15"/>
+      <c r="IZ22" s="15"/>
+      <c r="JA22" s="15"/>
+      <c r="JB22" s="15"/>
+      <c r="JC22" s="15"/>
+      <c r="JD22" s="15"/>
+      <c r="JE22" s="15"/>
+      <c r="JF22" s="15"/>
+      <c r="JG22" s="15"/>
+      <c r="JH22" s="15"/>
+      <c r="JI22" s="15"/>
+      <c r="JJ22" s="15"/>
+      <c r="JK22" s="15"/>
+      <c r="JL22" s="15"/>
+      <c r="JM22" s="15"/>
+      <c r="JN22" s="15"/>
+      <c r="JO22" s="15"/>
+      <c r="JP22" s="15"/>
+      <c r="JQ22" s="15"/>
+      <c r="JR22" s="15"/>
+      <c r="JS22" s="15"/>
+      <c r="JT22" s="15"/>
+      <c r="JU22" s="15"/>
+      <c r="JV22" s="15"/>
+      <c r="JW22" s="15"/>
+      <c r="JX22" s="15"/>
+      <c r="JY22" s="15"/>
+      <c r="JZ22" s="15"/>
+      <c r="KA22" s="15"/>
+      <c r="KB22" s="15"/>
+      <c r="KC22" s="15"/>
+      <c r="KD22" s="15"/>
+      <c r="KE22" s="15"/>
+      <c r="KF22" s="15"/>
+      <c r="KG22" s="15"/>
+      <c r="KH22" s="15"/>
+      <c r="KI22" s="15"/>
+      <c r="KJ22" s="15"/>
+      <c r="KK22" s="15"/>
+      <c r="KL22" s="15"/>
+      <c r="KM22" s="15"/>
+      <c r="KN22" s="15"/>
+      <c r="KO22" s="15"/>
+      <c r="KP22" s="15"/>
+      <c r="KQ22" s="15"/>
+      <c r="KR22" s="15"/>
+      <c r="KS22" s="15"/>
+      <c r="KT22" s="15"/>
+      <c r="KU22" s="15"/>
+      <c r="KV22" s="15"/>
+      <c r="KW22" s="15"/>
+      <c r="KX22" s="15"/>
+      <c r="KY22" s="15"/>
+      <c r="KZ22" s="15"/>
+      <c r="LA22" s="15"/>
+      <c r="LB22" s="15"/>
+      <c r="LC22" s="15"/>
+      <c r="LD22" s="15"/>
+      <c r="LE22" s="15"/>
+      <c r="LF22" s="15"/>
+      <c r="LG22" s="15"/>
+      <c r="LH22" s="15"/>
+      <c r="LI22" s="15"/>
+      <c r="LJ22" s="15"/>
+      <c r="LK22" s="15"/>
+      <c r="LL22" s="15"/>
+      <c r="LM22" s="15"/>
+      <c r="LN22" s="15"/>
+      <c r="LO22" s="15"/>
+      <c r="LP22" s="15"/>
+      <c r="LQ22" s="15"/>
+      <c r="LR22" s="15"/>
+      <c r="LS22" s="15"/>
+      <c r="LT22" s="15"/>
+      <c r="LU22" s="15"/>
+      <c r="LV22" s="15"/>
+      <c r="LW22" s="15"/>
+      <c r="LX22" s="15"/>
+      <c r="LY22" s="15"/>
+      <c r="LZ22" s="15"/>
+      <c r="MA22" s="15"/>
+      <c r="MB22" s="15"/>
+      <c r="MC22" s="15"/>
+      <c r="MD22" s="15"/>
+      <c r="ME22" s="15"/>
+      <c r="MF22" s="15"/>
+      <c r="MG22" s="15"/>
+      <c r="MH22" s="15"/>
+      <c r="MI22" s="15"/>
+      <c r="MJ22" s="15"/>
+      <c r="MK22" s="15"/>
+      <c r="ML22" s="15"/>
+      <c r="MM22" s="15"/>
+      <c r="MN22" s="15"/>
+      <c r="MO22" s="15"/>
+      <c r="MP22" s="15"/>
+      <c r="MQ22" s="15"/>
+      <c r="MR22" s="15"/>
+      <c r="MS22" s="15"/>
+      <c r="MT22" s="15"/>
+      <c r="MU22" s="15"/>
+      <c r="MV22" s="15"/>
+      <c r="MW22" s="15"/>
+      <c r="MX22" s="15"/>
+      <c r="MY22" s="15"/>
+      <c r="MZ22" s="15"/>
+      <c r="NA22" s="15"/>
+      <c r="NB22" s="15"/>
+      <c r="NC22" s="15"/>
+      <c r="ND22" s="15"/>
+      <c r="NE22" s="15"/>
+      <c r="NF22" s="15"/>
+      <c r="NG22" s="15"/>
+      <c r="NH22" s="15"/>
+      <c r="NI22" s="15"/>
+      <c r="NJ22" s="15"/>
+      <c r="NK22" s="15"/>
+      <c r="NL22" s="15"/>
+      <c r="NM22" s="15"/>
+      <c r="NN22" s="15"/>
+      <c r="NO22" s="15"/>
+      <c r="NP22" s="15"/>
+      <c r="NQ22" s="15"/>
+      <c r="NR22" s="15"/>
+      <c r="NS22" s="15"/>
+      <c r="NT22" s="15"/>
+      <c r="NU22" s="15"/>
+      <c r="NV22" s="15"/>
+      <c r="NW22" s="15"/>
+      <c r="NX22" s="15"/>
+      <c r="NY22" s="15"/>
+      <c r="NZ22" s="15"/>
+      <c r="OA22" s="15"/>
+      <c r="OB22" s="15"/>
+      <c r="OC22" s="15"/>
+      <c r="OD22" s="15"/>
+      <c r="OE22" s="15"/>
+      <c r="OF22" s="15"/>
+      <c r="OG22" s="15"/>
+      <c r="OH22" s="15"/>
+      <c r="OI22" s="15"/>
+      <c r="OJ22" s="15"/>
+      <c r="OK22" s="15"/>
+      <c r="OL22" s="15"/>
+      <c r="OM22" s="15"/>
+      <c r="ON22" s="15"/>
+      <c r="OO22" s="15"/>
+      <c r="OP22" s="15"/>
+      <c r="OQ22" s="15"/>
+      <c r="OR22" s="15"/>
+      <c r="OS22" s="15"/>
+      <c r="OT22" s="15"/>
+      <c r="OU22" s="15"/>
+      <c r="OV22" s="15"/>
+      <c r="OW22" s="15"/>
+      <c r="OX22" s="15"/>
+      <c r="OY22" s="15"/>
+      <c r="OZ22" s="15"/>
+      <c r="PA22" s="15"/>
+      <c r="PB22" s="15"/>
+      <c r="PC22" s="15"/>
+      <c r="PD22" s="15"/>
+      <c r="PE22" s="15"/>
+      <c r="PF22" s="15"/>
+      <c r="PG22" s="15"/>
+      <c r="PH22" s="15"/>
+      <c r="PI22" s="15"/>
+      <c r="PJ22" s="15"/>
+      <c r="PK22" s="15"/>
+      <c r="PL22" s="15"/>
+      <c r="PM22" s="15"/>
+      <c r="PN22" s="15"/>
+      <c r="PO22" s="15"/>
+      <c r="PP22" s="15"/>
+      <c r="PQ22" s="15"/>
+      <c r="PR22" s="15"/>
+      <c r="PS22" s="15"/>
+      <c r="PT22" s="15"/>
+      <c r="PU22" s="15"/>
+      <c r="PV22" s="15"/>
+      <c r="PW22" s="15"/>
+      <c r="PX22" s="15"/>
+      <c r="PY22" s="15"/>
+      <c r="PZ22" s="15"/>
+      <c r="QA22" s="15"/>
+      <c r="QB22" s="15"/>
+      <c r="QC22" s="15"/>
+      <c r="QD22" s="15"/>
+      <c r="QE22" s="15"/>
+      <c r="QF22" s="15"/>
+      <c r="QG22" s="15"/>
+      <c r="QH22" s="15"/>
+      <c r="QI22" s="15"/>
+      <c r="QJ22" s="15"/>
+      <c r="QK22" s="15"/>
+      <c r="QL22" s="15"/>
+      <c r="QM22" s="15"/>
+      <c r="QN22" s="15"/>
+      <c r="QO22" s="15"/>
+      <c r="QP22" s="15"/>
+      <c r="QQ22" s="15"/>
+      <c r="QR22" s="15"/>
+      <c r="QS22" s="15"/>
+      <c r="QT22" s="15"/>
+      <c r="QU22" s="15"/>
+      <c r="QV22" s="15"/>
+      <c r="QW22" s="15"/>
+      <c r="QX22" s="15"/>
+      <c r="QY22" s="15"/>
+      <c r="QZ22" s="15"/>
+      <c r="RA22" s="15"/>
+      <c r="RB22" s="15"/>
+      <c r="RC22" s="15"/>
+      <c r="RD22" s="15"/>
+      <c r="RE22" s="15"/>
+      <c r="RF22" s="15"/>
+      <c r="RG22" s="15"/>
+      <c r="RH22" s="15"/>
+      <c r="RI22" s="15"/>
+      <c r="RJ22" s="15"/>
+      <c r="RK22" s="15"/>
+      <c r="RL22" s="15"/>
+      <c r="RM22" s="15"/>
+      <c r="RN22" s="15"/>
+      <c r="RO22" s="15"/>
+      <c r="RP22" s="15"/>
+      <c r="RQ22" s="15"/>
+      <c r="RR22" s="15"/>
+      <c r="RS22" s="15"/>
+      <c r="RT22" s="15"/>
+      <c r="RU22" s="15"/>
+      <c r="RV22" s="15"/>
+      <c r="RW22" s="15"/>
+      <c r="RX22" s="15"/>
+      <c r="RY22" s="15"/>
+      <c r="RZ22" s="15"/>
+      <c r="SA22" s="15"/>
+      <c r="SB22" s="15"/>
+      <c r="SC22" s="15"/>
+      <c r="SD22" s="15"/>
+      <c r="SE22" s="15"/>
+      <c r="SF22" s="15"/>
+      <c r="SG22" s="15"/>
+      <c r="SH22" s="15"/>
+      <c r="SI22" s="15"/>
+      <c r="SJ22" s="15"/>
+      <c r="SK22" s="15"/>
+      <c r="SL22" s="15"/>
+      <c r="SM22" s="15"/>
+      <c r="SN22" s="15"/>
+      <c r="SO22" s="15"/>
+      <c r="SP22" s="15"/>
+      <c r="SQ22" s="15"/>
+      <c r="SR22" s="15"/>
+      <c r="SS22" s="15"/>
+      <c r="ST22" s="15"/>
+      <c r="SU22" s="15"/>
+      <c r="SV22" s="15"/>
+      <c r="SW22" s="15"/>
+      <c r="SX22" s="15"/>
+      <c r="SY22" s="15"/>
+      <c r="SZ22" s="15"/>
+      <c r="TA22" s="15"/>
+      <c r="TB22" s="15"/>
+      <c r="TC22" s="15"/>
+      <c r="TD22" s="15"/>
+      <c r="TE22" s="15"/>
+      <c r="TF22" s="15"/>
+      <c r="TG22" s="15"/>
+      <c r="TH22" s="15"/>
+      <c r="TI22" s="15"/>
+      <c r="TJ22" s="15"/>
+      <c r="TK22" s="15"/>
+      <c r="TL22" s="15"/>
+      <c r="TM22" s="15"/>
+      <c r="TN22" s="15"/>
+      <c r="TO22" s="15"/>
+      <c r="TP22" s="15"/>
+      <c r="TQ22" s="15"/>
+      <c r="TR22" s="15"/>
+      <c r="TS22" s="15"/>
+      <c r="TT22" s="15"/>
+      <c r="TU22" s="15"/>
+      <c r="TV22" s="15"/>
+      <c r="TW22" s="15"/>
+      <c r="TX22" s="15"/>
+      <c r="TY22" s="15"/>
+      <c r="TZ22" s="15"/>
+      <c r="UA22" s="15"/>
+      <c r="UB22" s="15"/>
+      <c r="UC22" s="15"/>
+      <c r="UD22" s="15"/>
+      <c r="UE22" s="15"/>
+      <c r="UF22" s="15"/>
+      <c r="UG22" s="15"/>
+      <c r="UH22" s="15"/>
+      <c r="UI22" s="15"/>
+      <c r="UJ22" s="15"/>
+      <c r="UK22" s="15"/>
+      <c r="UL22" s="15"/>
+      <c r="UM22" s="15"/>
+      <c r="UN22" s="15"/>
+      <c r="UO22" s="15"/>
+      <c r="UP22" s="15"/>
+      <c r="UQ22" s="15"/>
+      <c r="UR22" s="15"/>
+      <c r="US22" s="15"/>
+      <c r="UT22" s="15"/>
+      <c r="UU22" s="15"/>
+      <c r="UV22" s="15"/>
+      <c r="UW22" s="15"/>
+      <c r="UX22" s="15"/>
+      <c r="UY22" s="15"/>
+      <c r="UZ22" s="15"/>
+      <c r="VA22" s="15"/>
+      <c r="VB22" s="15"/>
+      <c r="VC22" s="15"/>
+      <c r="VD22" s="15"/>
+      <c r="VE22" s="15"/>
+      <c r="VF22" s="15"/>
+      <c r="VG22" s="15"/>
+      <c r="VH22" s="15"/>
+      <c r="VI22" s="15"/>
+      <c r="VJ22" s="15"/>
+      <c r="VK22" s="15"/>
+      <c r="VL22" s="15"/>
+      <c r="VM22" s="15"/>
+      <c r="VN22" s="15"/>
+      <c r="VO22" s="15"/>
+      <c r="VP22" s="15"/>
+      <c r="VQ22" s="15"/>
+      <c r="VR22" s="15"/>
+      <c r="VS22" s="15"/>
+      <c r="VT22" s="15"/>
+      <c r="VU22" s="15"/>
+      <c r="VV22" s="15"/>
+      <c r="VW22" s="15"/>
+      <c r="VX22" s="15"/>
+      <c r="VY22" s="15"/>
+      <c r="VZ22" s="15"/>
+      <c r="WA22" s="15"/>
+      <c r="WB22" s="15"/>
+      <c r="WC22" s="15"/>
+      <c r="WD22" s="15"/>
+      <c r="WE22" s="15"/>
+      <c r="WF22" s="15"/>
+      <c r="WG22" s="15"/>
+      <c r="WH22" s="15"/>
+      <c r="WI22" s="15"/>
+      <c r="WJ22" s="15"/>
+      <c r="WK22" s="15"/>
+      <c r="WL22" s="15"/>
+      <c r="WM22" s="15"/>
+      <c r="WN22" s="15"/>
+      <c r="WO22" s="15"/>
+      <c r="WP22" s="15"/>
+      <c r="WQ22" s="15"/>
+      <c r="WR22" s="15"/>
+      <c r="WS22" s="15"/>
+      <c r="WT22" s="15"/>
+      <c r="WU22" s="15"/>
+      <c r="WV22" s="15"/>
+      <c r="WW22" s="15"/>
+      <c r="WX22" s="15"/>
+      <c r="WY22" s="15"/>
+      <c r="WZ22" s="15"/>
+      <c r="XA22" s="15"/>
+      <c r="XB22" s="15"/>
+      <c r="XC22" s="15"/>
+      <c r="XD22" s="15"/>
+      <c r="XE22" s="15"/>
+      <c r="XF22" s="15"/>
+      <c r="XG22" s="15"/>
+      <c r="XH22" s="15"/>
+      <c r="XI22" s="15"/>
+      <c r="XJ22" s="15"/>
+      <c r="XK22" s="15"/>
+      <c r="XL22" s="15"/>
+      <c r="XM22" s="15"/>
+      <c r="XN22" s="15"/>
+      <c r="XO22" s="15"/>
+      <c r="XP22" s="15"/>
+      <c r="XQ22" s="15"/>
+      <c r="XR22" s="15"/>
+      <c r="XS22" s="15"/>
+      <c r="XT22" s="15"/>
+      <c r="XU22" s="15"/>
+      <c r="XV22" s="15"/>
+      <c r="XW22" s="15"/>
+      <c r="XX22" s="15"/>
+      <c r="XY22" s="15"/>
+      <c r="XZ22" s="15"/>
+      <c r="YA22" s="15"/>
+      <c r="YB22" s="15"/>
+      <c r="YC22" s="15"/>
+      <c r="YD22" s="15"/>
+      <c r="YE22" s="15"/>
+      <c r="YF22" s="15"/>
+      <c r="YG22" s="15"/>
+      <c r="YH22" s="15"/>
+      <c r="YI22" s="15"/>
+      <c r="YJ22" s="15"/>
+      <c r="YK22" s="15"/>
+      <c r="YL22" s="15"/>
+      <c r="YM22" s="15"/>
+      <c r="YN22" s="15"/>
+      <c r="YO22" s="15"/>
+      <c r="YP22" s="15"/>
+      <c r="YQ22" s="15"/>
+      <c r="YR22" s="15"/>
+      <c r="YS22" s="15"/>
+      <c r="YT22" s="15"/>
+      <c r="YU22" s="15"/>
+      <c r="YV22" s="15"/>
+      <c r="YW22" s="15"/>
+      <c r="YX22" s="15"/>
+      <c r="YY22" s="15"/>
+      <c r="YZ22" s="15"/>
+      <c r="ZA22" s="15"/>
+      <c r="ZB22" s="15"/>
+      <c r="ZC22" s="15"/>
+      <c r="ZD22" s="15"/>
+      <c r="ZE22" s="15"/>
+      <c r="ZF22" s="15"/>
+      <c r="ZG22" s="15"/>
+      <c r="ZH22" s="15"/>
+      <c r="ZI22" s="15"/>
+      <c r="ZJ22" s="15"/>
+      <c r="ZK22" s="15"/>
+      <c r="ZL22" s="15"/>
+      <c r="ZM22" s="15"/>
+      <c r="ZN22" s="15"/>
+      <c r="ZO22" s="15"/>
+      <c r="ZP22" s="15"/>
+      <c r="ZQ22" s="15"/>
+      <c r="ZR22" s="15"/>
+      <c r="ZS22" s="15"/>
+      <c r="ZT22" s="15"/>
+      <c r="ZU22" s="15"/>
+      <c r="ZV22" s="15"/>
+      <c r="ZW22" s="15"/>
+      <c r="ZX22" s="15"/>
+      <c r="ZY22" s="15"/>
+      <c r="ZZ22" s="15"/>
+      <c r="AAA22" s="15"/>
+      <c r="AAB22" s="15"/>
+      <c r="AAC22" s="15"/>
+      <c r="AAD22" s="15"/>
+      <c r="AAE22" s="15"/>
+      <c r="AAF22" s="15"/>
+      <c r="AAG22" s="15"/>
+      <c r="AAH22" s="15"/>
+      <c r="AAI22" s="15"/>
+      <c r="AAJ22" s="15"/>
+      <c r="AAK22" s="15"/>
+      <c r="AAL22" s="15"/>
+      <c r="AAM22" s="15"/>
+      <c r="AAN22" s="15"/>
+      <c r="AAO22" s="15"/>
+      <c r="AAP22" s="15"/>
+      <c r="AAQ22" s="15"/>
+      <c r="AAR22" s="15"/>
+      <c r="AAS22" s="15"/>
+      <c r="AAT22" s="15"/>
+      <c r="AAU22" s="15"/>
+      <c r="AAV22" s="15"/>
+      <c r="AAW22" s="15"/>
+      <c r="AAX22" s="15"/>
+      <c r="AAY22" s="15"/>
+      <c r="AAZ22" s="15"/>
+      <c r="ABA22" s="15"/>
+      <c r="ABB22" s="15"/>
+      <c r="ABC22" s="15"/>
+      <c r="ABD22" s="15"/>
+      <c r="ABE22" s="15"/>
+      <c r="ABF22" s="15"/>
+      <c r="ABG22" s="15"/>
+      <c r="ABH22" s="15"/>
+      <c r="ABI22" s="15"/>
+      <c r="ABJ22" s="15"/>
+      <c r="ABK22" s="15"/>
+      <c r="ABL22" s="15"/>
+      <c r="ABM22" s="15"/>
+      <c r="ABN22" s="15"/>
+      <c r="ABO22" s="15"/>
+      <c r="ABP22" s="15"/>
+      <c r="ABQ22" s="15"/>
+      <c r="ABR22" s="15"/>
+      <c r="ABS22" s="15"/>
+      <c r="ABT22" s="15"/>
+      <c r="ABU22" s="15"/>
+      <c r="ABV22" s="15"/>
+      <c r="ABW22" s="15"/>
+      <c r="ABX22" s="15"/>
+      <c r="ABY22" s="15"/>
+      <c r="ABZ22" s="15"/>
+      <c r="ACA22" s="15"/>
+      <c r="ACB22" s="15"/>
+      <c r="ACC22" s="15"/>
+      <c r="ACD22" s="15"/>
+      <c r="ACE22" s="15"/>
+      <c r="ACF22" s="15"/>
+      <c r="ACG22" s="15"/>
+      <c r="ACH22" s="15"/>
+      <c r="ACI22" s="15"/>
+      <c r="ACJ22" s="15"/>
+      <c r="ACK22" s="15"/>
+      <c r="ACL22" s="15"/>
+      <c r="ACM22" s="15"/>
+      <c r="ACN22" s="15"/>
+      <c r="ACO22" s="15"/>
+      <c r="ACP22" s="15"/>
+      <c r="ACQ22" s="15"/>
+      <c r="ACR22" s="15"/>
+      <c r="ACS22" s="15"/>
+      <c r="ACT22" s="15"/>
+      <c r="ACU22" s="15"/>
+      <c r="ACV22" s="15"/>
+      <c r="ACW22" s="15"/>
+      <c r="ACX22" s="15"/>
+      <c r="ACY22" s="15"/>
+      <c r="ACZ22" s="15"/>
+      <c r="ADA22" s="15"/>
+      <c r="ADB22" s="15"/>
+      <c r="ADC22" s="15"/>
+      <c r="ADD22" s="15"/>
+      <c r="ADE22" s="15"/>
+      <c r="ADF22" s="15"/>
+      <c r="ADG22" s="15"/>
+      <c r="ADH22" s="15"/>
+      <c r="ADI22" s="15"/>
+      <c r="ADJ22" s="15"/>
+      <c r="ADK22" s="15"/>
+      <c r="ADL22" s="15"/>
+      <c r="ADM22" s="15"/>
+      <c r="ADN22" s="15"/>
+      <c r="ADO22" s="15"/>
+      <c r="ADP22" s="15"/>
+      <c r="ADQ22" s="15"/>
+      <c r="ADR22" s="15"/>
+      <c r="ADS22" s="15"/>
+      <c r="ADT22" s="15"/>
+      <c r="ADU22" s="15"/>
+      <c r="ADV22" s="15"/>
+      <c r="ADW22" s="15"/>
+      <c r="ADX22" s="15"/>
+      <c r="ADY22" s="15"/>
+      <c r="ADZ22" s="15"/>
+      <c r="AEA22" s="15"/>
+      <c r="AEB22" s="15"/>
+      <c r="AEC22" s="15"/>
+      <c r="AED22" s="15"/>
+      <c r="AEE22" s="15"/>
+      <c r="AEF22" s="15"/>
+      <c r="AEG22" s="15"/>
+      <c r="AEH22" s="15"/>
+      <c r="AEI22" s="15"/>
+      <c r="AEJ22" s="15"/>
+      <c r="AEK22" s="15"/>
+      <c r="AEL22" s="15"/>
+      <c r="AEM22" s="15"/>
+      <c r="AEN22" s="15"/>
+      <c r="AEO22" s="15"/>
+      <c r="AEP22" s="15"/>
+      <c r="AEQ22" s="15"/>
+      <c r="AER22" s="15"/>
+      <c r="AES22" s="15"/>
+      <c r="AET22" s="15"/>
+      <c r="AEU22" s="15"/>
+      <c r="AEV22" s="15"/>
+      <c r="AEW22" s="15"/>
+      <c r="AEX22" s="15"/>
+      <c r="AEY22" s="15"/>
+      <c r="AEZ22" s="15"/>
+      <c r="AFA22" s="15"/>
+      <c r="AFB22" s="15"/>
+      <c r="AFC22" s="15"/>
+      <c r="AFD22" s="15"/>
+      <c r="AFE22" s="15"/>
+      <c r="AFF22" s="15"/>
+      <c r="AFG22" s="15"/>
+      <c r="AFH22" s="15"/>
+      <c r="AFI22" s="15"/>
+      <c r="AFJ22" s="15"/>
+      <c r="AFK22" s="15"/>
+      <c r="AFL22" s="15"/>
+      <c r="AFM22" s="15"/>
+      <c r="AFN22" s="15"/>
+      <c r="AFO22" s="15"/>
+      <c r="AFP22" s="15"/>
+      <c r="AFQ22" s="15"/>
+      <c r="AFR22" s="15"/>
+      <c r="AFS22" s="15"/>
+      <c r="AFT22" s="15"/>
+      <c r="AFU22" s="15"/>
+      <c r="AFV22" s="15"/>
+      <c r="AFW22" s="15"/>
+      <c r="AFX22" s="15"/>
+      <c r="AFY22" s="15"/>
+      <c r="AFZ22" s="15"/>
+      <c r="AGA22" s="15"/>
+      <c r="AGB22" s="15"/>
+      <c r="AGC22" s="15"/>
+      <c r="AGD22" s="15"/>
+      <c r="AGE22" s="15"/>
+      <c r="AGF22" s="15"/>
+      <c r="AGG22" s="15"/>
+      <c r="AGH22" s="15"/>
+      <c r="AGI22" s="15"/>
+      <c r="AGJ22" s="15"/>
+      <c r="AGK22" s="15"/>
+      <c r="AGL22" s="15"/>
+      <c r="AGM22" s="15"/>
+      <c r="AGN22" s="15"/>
+      <c r="AGO22" s="15"/>
+      <c r="AGP22" s="15"/>
+      <c r="AGQ22" s="15"/>
+      <c r="AGR22" s="15"/>
+      <c r="AGS22" s="15"/>
+      <c r="AGT22" s="15"/>
+      <c r="AGU22" s="15"/>
+      <c r="AGV22" s="15"/>
+      <c r="AGW22" s="15"/>
+      <c r="AGX22" s="15"/>
+      <c r="AGY22" s="15"/>
+      <c r="AGZ22" s="15"/>
+      <c r="AHA22" s="15"/>
+      <c r="AHB22" s="15"/>
+      <c r="AHC22" s="15"/>
+      <c r="AHD22" s="15"/>
+      <c r="AHE22" s="15"/>
+      <c r="AHF22" s="15"/>
+      <c r="AHG22" s="15"/>
+      <c r="AHH22" s="15"/>
+      <c r="AHI22" s="15"/>
+      <c r="AHJ22" s="15"/>
+      <c r="AHK22" s="15"/>
+      <c r="AHL22" s="15"/>
+      <c r="AHM22" s="15"/>
+      <c r="AHN22" s="15"/>
+      <c r="AHO22" s="15"/>
+      <c r="AHP22" s="15"/>
+      <c r="AHQ22" s="15"/>
+      <c r="AHR22" s="15"/>
+      <c r="AHS22" s="15"/>
+      <c r="AHT22" s="15"/>
+      <c r="AHU22" s="15"/>
+      <c r="AHV22" s="15"/>
+      <c r="AHW22" s="15"/>
+      <c r="AHX22" s="15"/>
+      <c r="AHY22" s="15"/>
+      <c r="AHZ22" s="15"/>
+      <c r="AIA22" s="15"/>
+      <c r="AIB22" s="15"/>
+      <c r="AIC22" s="15"/>
+      <c r="AID22" s="15"/>
+      <c r="AIE22" s="15"/>
+      <c r="AIF22" s="15"/>
+      <c r="AIG22" s="15"/>
+      <c r="AIH22" s="15"/>
+      <c r="AII22" s="15"/>
+      <c r="AIJ22" s="15"/>
+      <c r="AIK22" s="15"/>
+      <c r="AIL22" s="15"/>
+      <c r="AIM22" s="15"/>
+      <c r="AIN22" s="15"/>
+      <c r="AIO22" s="15"/>
+      <c r="AIP22" s="15"/>
+      <c r="AIQ22" s="15"/>
+      <c r="AIR22" s="15"/>
+      <c r="AIS22" s="15"/>
+      <c r="AIT22" s="15"/>
+      <c r="AIU22" s="15"/>
+      <c r="AIV22" s="15"/>
+      <c r="AIW22" s="15"/>
+      <c r="AIX22" s="15"/>
+      <c r="AIY22" s="15"/>
+      <c r="AIZ22" s="15"/>
+      <c r="AJA22" s="15"/>
+      <c r="AJB22" s="15"/>
+      <c r="AJC22" s="15"/>
+      <c r="AJD22" s="15"/>
+      <c r="AJE22" s="15"/>
+      <c r="AJF22" s="15"/>
+      <c r="AJG22" s="15"/>
+      <c r="AJH22" s="15"/>
+      <c r="AJI22" s="15"/>
+      <c r="AJJ22" s="15"/>
+      <c r="AJK22" s="15"/>
+      <c r="AJL22" s="15"/>
+      <c r="AJM22" s="15"/>
+      <c r="AJN22" s="15"/>
+      <c r="AJO22" s="15"/>
+      <c r="AJP22" s="15"/>
+      <c r="AJQ22" s="15"/>
+      <c r="AJR22" s="15"/>
+      <c r="AJS22" s="15"/>
+      <c r="AJT22" s="15"/>
+      <c r="AJU22" s="15"/>
+      <c r="AJV22" s="15"/>
+      <c r="AJW22" s="15"/>
+      <c r="AJX22" s="15"/>
+      <c r="AJY22" s="15"/>
+      <c r="AJZ22" s="15"/>
+      <c r="AKA22" s="15"/>
+      <c r="AKB22" s="15"/>
+      <c r="AKC22" s="15"/>
+      <c r="AKD22" s="15"/>
+      <c r="AKE22" s="15"/>
+      <c r="AKF22" s="15"/>
+      <c r="AKG22" s="15"/>
+      <c r="AKH22" s="15"/>
+      <c r="AKI22" s="15"/>
+      <c r="AKJ22" s="15"/>
+      <c r="AKK22" s="15"/>
+      <c r="AKL22" s="15"/>
+      <c r="AKM22" s="15"/>
+      <c r="AKN22" s="15"/>
+      <c r="AKO22" s="15"/>
+      <c r="AKP22" s="15"/>
+      <c r="AKQ22" s="15"/>
+      <c r="AKR22" s="15"/>
+      <c r="AKS22" s="15"/>
+      <c r="AKT22" s="15"/>
+      <c r="AKU22" s="15"/>
+      <c r="AKV22" s="15"/>
+      <c r="AKW22" s="15"/>
+      <c r="AKX22" s="15"/>
+      <c r="AKY22" s="15"/>
+      <c r="AKZ22" s="15"/>
+      <c r="ALA22" s="15"/>
+      <c r="ALB22" s="15"/>
+      <c r="ALC22" s="15"/>
+      <c r="ALD22" s="15"/>
+      <c r="ALE22" s="15"/>
+      <c r="ALF22" s="15"/>
+      <c r="ALG22" s="15"/>
+      <c r="ALH22" s="15"/>
+      <c r="ALI22" s="15"/>
+      <c r="ALJ22" s="15"/>
+      <c r="ALK22" s="15"/>
+      <c r="ALL22" s="15"/>
+      <c r="ALM22" s="15"/>
+      <c r="ALN22" s="15"/>
+      <c r="ALO22" s="15"/>
+      <c r="ALP22" s="15"/>
+      <c r="ALQ22" s="15"/>
+      <c r="ALR22" s="15"/>
+      <c r="ALS22" s="15"/>
+      <c r="ALT22" s="15"/>
+      <c r="ALU22" s="15"/>
+      <c r="ALV22" s="15"/>
+      <c r="ALW22" s="15"/>
+      <c r="ALX22" s="15"/>
+      <c r="ALY22" s="15"/>
+      <c r="ALZ22" s="15"/>
+      <c r="AMA22" s="15"/>
+      <c r="AMB22" s="15"/>
+      <c r="AMC22" s="15"/>
+      <c r="AMD22" s="15"/>
+      <c r="AME22" s="15"/>
+      <c r="AMF22" s="15"/>
+      <c r="AMG22" s="15"/>
+      <c r="AMH22" s="15"/>
+      <c r="AMI22" s="15"/>
+      <c r="AMJ22" s="15"/>
+      <c r="AMK22" s="15"/>
+      <c r="AML22" s="15"/>
+      <c r="AMM22" s="15"/>
+      <c r="AMN22" s="15"/>
+      <c r="AMO22" s="15"/>
+      <c r="AMP22" s="15"/>
+      <c r="AMQ22" s="15"/>
+      <c r="AMR22" s="15"/>
+      <c r="AMS22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="n">
+      <c r="A23" s="25" t="n">
         <v>1017</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -7218,38 +10273,38 @@
       <c r="D23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="30" t="n">
+      <c r="E23" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="27" t="n">
         <v>300</v>
       </c>
-      <c r="H23" s="30" t="n">
+      <c r="H23" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31" t="n">
+      <c r="I23" s="27"/>
+      <c r="J23" s="35" t="n">
         <v>326271</v>
       </c>
-      <c r="K23" s="32" t="s">
+      <c r="K23" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="33" t="s">
+      <c r="L23" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="M23" s="31" t="s">
+      <c r="M23" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="N23" s="34" t="s">
+      <c r="N23" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="O23" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
+      <c r="O23" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
       <c r="T23" s="1" t="n">
         <v>16</v>
       </c>
@@ -7291,7 +10346,7 @@
         <v>1018</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2</v>
@@ -7300,7 +10355,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1" t="n">
@@ -7315,23 +10370,23 @@
       <c r="J24" s="1" t="n">
         <v>143689</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="26" t="s">
+      <c r="L24" s="37" t="s">
         <v>83</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N24" s="29" t="s">
-        <v>249</v>
+        <v>252</v>
+      </c>
+      <c r="N24" s="38" t="s">
+        <v>252</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="T24" s="1" t="n">
         <v>16</v>
@@ -7343,7 +10398,7 @@
         <v>1</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>89</v>
@@ -7352,10 +10407,10 @@
         <v>90</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AD24" s="10" t="n">
         <v>285370</v>
@@ -7383,7 +10438,7 @@
         <v>1019</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2</v>
@@ -7392,7 +10447,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>7</v>
@@ -7415,17 +10470,17 @@
       <c r="L25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M25" s="29" t="s">
-        <v>257</v>
+      <c r="M25" s="38" t="s">
+        <v>260</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="T25" s="1" t="n">
         <v>16</v>
@@ -7437,19 +10492,19 @@
         <v>1.3</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AA25" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AD25" s="1" t="n">
         <v>146119</v>
@@ -7477,7 +10532,7 @@
         <v>1020</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2</v>
@@ -7486,7 +10541,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1" t="n">
@@ -7508,16 +10563,16 @@
         <v>83</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="T26" s="1" t="n">
         <v>16</v>
@@ -7529,7 +10584,7 @@
         <v>1</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>89</v>
@@ -7538,10 +10593,10 @@
         <v>90</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AD26" s="10" t="n">
         <v>144198</v>
@@ -7569,7 +10624,7 @@
         <v>1021</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2</v>
@@ -7578,7 +10633,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>3</v>
@@ -7602,16 +10657,16 @@
         <v>83</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="T27" s="1" t="n">
         <v>16</v>
@@ -7623,19 +10678,19 @@
         <v>0.5</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AD27" s="1" t="n">
         <v>281886</v>
@@ -7660,7 +10715,7 @@
         <v>1022</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2</v>
@@ -7669,7 +10724,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="10" t="n">
@@ -7691,19 +10746,19 @@
         <v>183</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
       <c r="S28" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T28" s="1" t="n">
         <v>16</v>
@@ -7715,7 +10770,7 @@
         <v>1</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>188</v>
@@ -7727,7 +10782,7 @@
         <v>90</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AD28" s="1" t="n">
         <v>144183</v>
@@ -7755,7 +10810,7 @@
         <v>1023</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2</v>
@@ -7764,7 +10819,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>150</v>
@@ -7788,7 +10843,7 @@
         <v>119</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="T29" s="1" t="n">
         <v>16</v>
@@ -7809,7 +10864,7 @@
         <v>118</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AF29" s="1" t="n">
         <v>20270</v>
@@ -7826,7 +10881,7 @@
         <v>1024</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2</v>
@@ -7835,7 +10890,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>250</v>
@@ -7859,7 +10914,7 @@
         <v>119</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="T30" s="1" t="n">
         <v>16</v>
@@ -7880,7 +10935,7 @@
         <v>118</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AF30" s="1" t="n">
         <v>20270</v>
@@ -7897,7 +10952,7 @@
         <v>1025</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>3</v>
@@ -7906,7 +10961,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>9</v>
@@ -7930,16 +10985,16 @@
         <v>83</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="T31" s="1" t="n">
         <v>16</v>
@@ -7951,7 +11006,7 @@
         <v>1</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>134</v>
@@ -7963,7 +11018,7 @@
         <v>153</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AD31" s="1" t="n">
         <v>281788</v>
@@ -7986,7 +11041,7 @@
         <v>1026</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>3</v>
@@ -7995,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>7</v>
@@ -8019,16 +11074,16 @@
         <v>83</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="T32" s="1" t="n">
         <v>16</v>
@@ -8040,7 +11095,7 @@
         <v>0.3</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>176</v>
@@ -8049,10 +11104,10 @@
         <v>90</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AD32" s="1" t="n">
         <v>285400</v>
@@ -8075,7 +11130,7 @@
         <v>1027</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>3</v>
@@ -8084,7 +11139,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>2</v>
@@ -8108,16 +11163,16 @@
         <v>83</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="T33" s="1" t="n">
         <v>16</v>
@@ -8129,7 +11184,7 @@
         <v>1.2</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>176</v>
@@ -8141,7 +11196,7 @@
         <v>153</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AD33" s="1" t="n">
         <v>281710</v>
@@ -8164,7 +11219,7 @@
         <v>1028</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>3</v>
@@ -8173,7 +11228,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>4</v>
@@ -8197,16 +11252,16 @@
         <v>83</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="T34" s="1" t="n">
         <v>16</v>
@@ -8218,19 +11273,19 @@
         <v>0.5</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA34" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AD34" s="1" t="n">
         <v>299561</v>
@@ -8249,11 +11304,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="36" t="n">
+      <c r="A35" s="39" t="n">
         <v>1029</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>3</v>
@@ -8261,8 +11316,8 @@
       <c r="D35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E35" s="36" t="s">
-        <v>322</v>
+      <c r="E35" s="39" t="s">
+        <v>326</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>550</v>
@@ -8283,25 +11338,25 @@
         <v>83</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="R35" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="R35" s="39" t="s">
         <v>220</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="T35" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V35" s="36" t="s">
-        <v>326</v>
+      <c r="V35" s="39" t="s">
+        <v>330</v>
       </c>
       <c r="W35" s="1" t="n">
         <v>130642</v>
@@ -8322,7 +11377,7 @@
         <v>153</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AD35" s="1" t="n">
         <v>285356</v>
@@ -8330,8 +11385,8 @@
       <c r="AE35" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF35" s="36" t="s">
-        <v>328</v>
+      <c r="AF35" s="39" t="s">
+        <v>332</v>
       </c>
       <c r="AG35" s="1" t="n">
         <v>2</v>
@@ -8341,11 +11396,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="36" t="n">
+      <c r="A36" s="39" t="n">
         <v>1030</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>3</v>
@@ -8353,8 +11408,8 @@
       <c r="D36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E36" s="36" t="s">
-        <v>330</v>
+      <c r="E36" s="39" t="s">
+        <v>334</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>2</v>
@@ -8378,25 +11433,25 @@
         <v>83</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="R36" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="R36" s="39" t="s">
         <v>220</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="T36" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V36" s="36" t="s">
-        <v>334</v>
+      <c r="V36" s="39" t="s">
+        <v>338</v>
       </c>
       <c r="W36" s="1" t="n">
         <v>254276</v>
@@ -8417,7 +11472,7 @@
         <v>153</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AD36" s="1" t="n">
         <v>20301</v>
@@ -8425,8 +11480,8 @@
       <c r="AE36" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF36" s="36" t="s">
-        <v>336</v>
+      <c r="AF36" s="39" t="s">
+        <v>340</v>
       </c>
       <c r="AG36" s="1" t="n">
         <v>3</v>
@@ -8440,7 +11495,7 @@
         <v>1031</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>4</v>
@@ -8449,7 +11504,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>8</v>
@@ -8473,16 +11528,16 @@
         <v>83</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="T37" s="1" t="n">
         <v>16</v>
@@ -8494,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>89</v>
@@ -8506,7 +11561,7 @@
         <v>222</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AD37" s="1" t="n">
         <v>281710</v>
@@ -8529,7 +11584,7 @@
         <v>1032</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>4</v>
@@ -8538,7 +11593,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>4</v>
@@ -8562,16 +11617,16 @@
         <v>83</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="T38" s="1" t="n">
         <v>16</v>
@@ -8583,7 +11638,7 @@
         <v>0.8</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>89</v>
@@ -8592,10 +11647,10 @@
         <v>90</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AD38" s="1" t="n">
         <v>281871</v>
@@ -8618,7 +11673,7 @@
         <v>1033</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>4</v>
@@ -8627,7 +11682,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>10</v>
@@ -8651,16 +11706,16 @@
         <v>83</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="T39" s="1" t="n">
         <v>16</v>
@@ -8672,7 +11727,7 @@
         <v>1</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>89</v>
@@ -8684,7 +11739,7 @@
         <v>153</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AD39" s="1" t="n">
         <v>300932</v>
@@ -8707,7 +11762,7 @@
         <v>1034</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>4</v>
@@ -8716,7 +11771,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1500</v>
@@ -8737,16 +11792,16 @@
         <v>83</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="T40" s="1" t="n">
         <v>16</v>
@@ -8758,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>89</v>
@@ -8770,7 +11825,7 @@
         <v>153</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AD40" s="1" t="n">
         <v>117391</v>
@@ -8793,7 +11848,7 @@
         <v>1035</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>4</v>
@@ -8802,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>6</v>
@@ -8826,16 +11881,16 @@
         <v>83</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="T41" s="1" t="n">
         <v>16</v>
@@ -8850,16 +11905,16 @@
         <v>205</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AA41" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AD41" s="1" t="n">
         <v>285445</v>
@@ -8867,7 +11922,7 @@
       <c r="AE41" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF41" s="27" t="n">
+      <c r="AF41" s="40" t="n">
         <v>269223</v>
       </c>
       <c r="AG41" s="1" t="n">
@@ -8882,7 +11937,7 @@
         <v>1036</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>4</v>
@@ -8891,7 +11946,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>150</v>
@@ -8918,7 +11973,7 @@
         <v>119</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="T42" s="1" t="n">
         <v>16</v>
@@ -8939,7 +11994,7 @@
         <v>118</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AF42" s="1" t="n">
         <v>20270</v>
@@ -8956,7 +12011,7 @@
         <v>1037</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>5</v>
@@ -8965,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>150</v>
@@ -8986,16 +12041,16 @@
         <v>83</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="T43" s="1" t="n">
         <v>16</v>
@@ -9007,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Z43" s="1" t="s">
         <v>89</v>
@@ -9019,7 +12074,7 @@
         <v>222</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AD43" s="1" t="n">
         <v>279765</v>
@@ -9042,7 +12097,7 @@
         <v>1038</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>5</v>
@@ -9051,7 +12106,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>250</v>
@@ -9072,16 +12127,16 @@
         <v>83</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="T44" s="1" t="n">
         <v>16</v>
@@ -9093,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Z44" s="1" t="s">
         <v>89</v>
@@ -9105,7 +12160,7 @@
         <v>222</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AD44" s="1" t="n">
         <v>85944</v>
@@ -9113,7 +12168,7 @@
       <c r="AE44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF44" s="27" t="n">
+      <c r="AF44" s="40" t="n">
         <v>29747</v>
       </c>
       <c r="AG44" s="1" t="n">
@@ -9128,7 +12183,7 @@
         <v>1039</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>5</v>
@@ -9137,7 +12192,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>3</v>
@@ -9161,16 +12216,16 @@
         <v>83</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="T45" s="1" t="n">
         <v>16</v>
@@ -9182,7 +12237,7 @@
         <v>1</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Z45" s="1" t="s">
         <v>134</v>
@@ -9194,7 +12249,7 @@
         <v>153</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AD45" s="1" t="n">
         <v>326802</v>
@@ -9217,7 +12272,7 @@
         <v>1040</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>5</v>
@@ -9226,7 +12281,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>6</v>
@@ -9250,16 +12305,16 @@
         <v>83</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="T46" s="1" t="n">
         <v>16</v>
@@ -9271,7 +12326,7 @@
         <v>1</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>222</v>
@@ -9283,7 +12338,7 @@
         <v>89</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AD46" s="1" t="n">
         <v>281871</v>
@@ -9306,7 +12361,7 @@
         <v>1041</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>5</v>
@@ -9315,7 +12370,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>100</v>
@@ -9336,16 +12391,16 @@
         <v>183</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="T47" s="1" t="n">
         <v>16</v>
@@ -9357,7 +12412,7 @@
         <v>0.6</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Z47" s="1" t="s">
         <v>89</v>
@@ -9369,7 +12424,7 @@
         <v>89</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AD47" s="1" t="n">
         <v>285673</v>
@@ -9392,7 +12447,7 @@
         <v>1042</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5</v>
@@ -9401,7 +12456,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G48" s="10" t="n">
         <v>100</v>
@@ -9422,13 +12477,13 @@
         <v>183</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
@@ -9443,7 +12498,7 @@
         <v>1</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Z48" s="1" t="s">
         <v>89</v>
@@ -9455,7 +12510,7 @@
         <v>89</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AD48" s="1" t="n">
         <v>144183</v>
@@ -9483,7 +12538,7 @@
         <v>1043</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>6</v>
@@ -9492,7 +12547,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>5</v>
@@ -9516,16 +12571,16 @@
         <v>83</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="T49" s="1" t="n">
         <v>16</v>
@@ -9549,7 +12604,7 @@
         <v>153</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AD49" s="1" t="n">
         <v>303259</v>
@@ -9572,7 +12627,7 @@
         <v>1044</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>6</v>
@@ -9581,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>350</v>
@@ -9602,16 +12657,16 @@
         <v>83</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="T50" s="1" t="n">
         <v>16</v>
@@ -9626,7 +12681,7 @@
         <v>134</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AA50" s="1" t="s">
         <v>90</v>
@@ -9635,7 +12690,7 @@
         <v>89</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AD50" s="1" t="n">
         <v>305224</v>
@@ -9658,7 +12713,7 @@
         <v>1045</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>6</v>
@@ -9667,7 +12722,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>3</v>
@@ -9691,16 +12746,16 @@
         <v>83</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="T51" s="1" t="n">
         <v>16</v>
@@ -9712,7 +12767,7 @@
         <v>1</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Z51" s="1" t="s">
         <v>89</v>
@@ -9724,7 +12779,7 @@
         <v>222</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AD51" s="1" t="n">
         <v>269209</v>
@@ -9747,7 +12802,7 @@
         <v>1046</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>6</v>
@@ -9756,7 +12811,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>6</v>
@@ -9780,16 +12835,16 @@
         <v>83</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="T52" s="1" t="n">
         <v>16</v>
@@ -9801,7 +12856,7 @@
         <v>1</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Z52" s="1" t="s">
         <v>222</v>
@@ -9813,7 +12868,7 @@
         <v>153</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AD52" s="1" t="n">
         <v>144183</v>
@@ -9836,7 +12891,7 @@
         <v>1047</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>6</v>
@@ -9845,7 +12900,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>700</v>
@@ -9866,16 +12921,16 @@
         <v>83</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="T53" s="1" t="n">
         <v>16</v>
@@ -9887,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Z53" s="1" t="s">
         <v>153</v>
@@ -9899,7 +12954,7 @@
         <v>153</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AD53" s="1" t="n">
         <v>281795</v>
@@ -9925,7 +12980,7 @@
         <v>1048</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>6</v>
@@ -9934,7 +12989,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G54" s="10" t="n">
         <v>100</v>
@@ -9955,13 +13010,13 @@
         <v>183</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="T54" s="1" t="n">
         <v>16</v>
@@ -9973,7 +13028,7 @@
         <v>1</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Z54" s="1" t="s">
         <v>188</v>
@@ -9985,7 +13040,7 @@
         <v>90</v>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AD54" s="1" t="n">
         <v>144183</v>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="451">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1064,6 +1064,9 @@
   </si>
   <si>
     <t xml:space="preserve">2156CCFE49B0B0F804086C96D2F8166C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100|150|250</t>
   </si>
   <si>
     <t xml:space="preserve">Tower_name_20</t>
@@ -1814,7 +1817,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1911,10 +1914,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1951,11 +1950,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2165,9 +2164,9 @@
   <dimension ref="A1:AMS54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q23" activeCellId="0" sqref="Q23"/>
+      <selection pane="topRight" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6963,7 +6962,7 @@
       <c r="AMR19" s="15"/>
       <c r="AMS19" s="15"/>
     </row>
-    <row r="20" s="24" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
         <v>1014</v>
       </c>
@@ -8066,1100 +8065,1100 @@
       <c r="AMR20" s="15"/>
       <c r="AMS20" s="15"/>
     </row>
-    <row r="21" s="34" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="n">
+    <row r="21" s="33" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="24" t="n">
         <v>1015</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="25" t="n">
+      <c r="C21" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="25" t="n">
+      <c r="D21" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="27" t="n">
+      <c r="F21" s="24"/>
+      <c r="G21" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="H21" s="27" t="n">
+      <c r="H21" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28" t="n">
+      <c r="I21" s="26"/>
+      <c r="J21" s="27" t="n">
         <v>130536</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="N21" s="31" t="s">
+      <c r="N21" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="O21" s="28" t="s">
+      <c r="O21" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="P21" s="28" t="n">
+      <c r="P21" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="Q21" s="28" t="n">
+      <c r="Q21" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="R21" s="28" t="n">
+      <c r="R21" s="27" t="n">
         <v>300</v>
       </c>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28" t="n">
+      <c r="S21" s="27"/>
+      <c r="T21" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28" t="n">
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27" t="n">
         <v>200133</v>
       </c>
-      <c r="X21" s="28" t="n">
+      <c r="X21" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="Y21" s="28" t="s">
+      <c r="Y21" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="Z21" s="28" t="s">
+      <c r="Z21" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="AA21" s="28" t="s">
+      <c r="AA21" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="AB21" s="28" t="s">
+      <c r="AB21" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="AC21" s="28" t="s">
+      <c r="AC21" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="AD21" s="28" t="n">
-        <v>144183</v>
-      </c>
-      <c r="AE21" s="28" t="s">
+      <c r="AD21" s="27" t="n">
+        <v>279748</v>
+      </c>
+      <c r="AE21" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="AF21" s="28" t="n">
+      <c r="AF21" s="27" t="n">
         <v>281056</v>
       </c>
-      <c r="AG21" s="28" t="n">
+      <c r="AG21" s="27" t="n">
         <v>1.8</v>
       </c>
-      <c r="AH21" s="28" t="s">
+      <c r="AH21" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
-      <c r="AP21" s="28"/>
-      <c r="AQ21" s="28"/>
-      <c r="AR21" s="28"/>
-      <c r="AS21" s="28"/>
-      <c r="AT21" s="32"/>
-      <c r="AU21" s="33"/>
-      <c r="AV21" s="32"/>
-      <c r="AW21" s="28"/>
-      <c r="AX21" s="28"/>
-      <c r="AY21" s="33"/>
-      <c r="AZ21" s="28"/>
-      <c r="BA21" s="28"/>
-      <c r="BB21" s="33"/>
-      <c r="BC21" s="28"/>
-      <c r="BD21" s="28"/>
-      <c r="BE21" s="28"/>
-      <c r="BF21" s="28"/>
-      <c r="BG21" s="28"/>
-      <c r="BH21" s="28"/>
-      <c r="BI21" s="28"/>
-      <c r="BJ21" s="28"/>
-      <c r="BK21" s="28"/>
-      <c r="BL21" s="28"/>
-      <c r="BM21" s="28"/>
-      <c r="BN21" s="28"/>
-      <c r="BO21" s="28"/>
-      <c r="BP21" s="28"/>
-      <c r="BQ21" s="28"/>
-      <c r="BR21" s="28"/>
-      <c r="BS21" s="28"/>
-      <c r="BT21" s="28"/>
-      <c r="BU21" s="28"/>
-      <c r="BV21" s="28"/>
-      <c r="BW21" s="28"/>
-      <c r="BX21" s="28"/>
-      <c r="BY21" s="28"/>
-      <c r="BZ21" s="28"/>
-      <c r="CA21" s="28"/>
-      <c r="CB21" s="28"/>
-      <c r="CC21" s="28"/>
-      <c r="CD21" s="28"/>
-      <c r="CE21" s="28"/>
-      <c r="CF21" s="28"/>
-      <c r="CG21" s="28"/>
-      <c r="CH21" s="28"/>
-      <c r="CI21" s="28"/>
-      <c r="CJ21" s="28"/>
-      <c r="CK21" s="28"/>
-      <c r="CL21" s="28"/>
-      <c r="CM21" s="28"/>
-      <c r="CN21" s="28"/>
-      <c r="CO21" s="28"/>
-      <c r="CP21" s="28"/>
-      <c r="CQ21" s="28"/>
-      <c r="CR21" s="28"/>
-      <c r="CS21" s="28"/>
-      <c r="CT21" s="28"/>
-      <c r="CU21" s="28"/>
-      <c r="CV21" s="28"/>
-      <c r="CW21" s="28"/>
-      <c r="CX21" s="28"/>
-      <c r="CY21" s="28"/>
-      <c r="CZ21" s="28"/>
-      <c r="DA21" s="28"/>
-      <c r="DB21" s="28"/>
-      <c r="DC21" s="28"/>
-      <c r="DD21" s="28"/>
-      <c r="DE21" s="28"/>
-      <c r="DF21" s="28"/>
-      <c r="DG21" s="28"/>
-      <c r="DH21" s="28"/>
-      <c r="DI21" s="28"/>
-      <c r="DJ21" s="28"/>
-      <c r="DK21" s="28"/>
-      <c r="DL21" s="28"/>
-      <c r="DM21" s="28"/>
-      <c r="DN21" s="28"/>
-      <c r="DO21" s="28"/>
-      <c r="DP21" s="28"/>
-      <c r="DQ21" s="28"/>
-      <c r="DR21" s="28"/>
-      <c r="DS21" s="28"/>
-      <c r="DT21" s="28"/>
-      <c r="DU21" s="28"/>
-      <c r="DV21" s="28"/>
-      <c r="DW21" s="28"/>
-      <c r="DX21" s="28"/>
-      <c r="DY21" s="28"/>
-      <c r="DZ21" s="28"/>
-      <c r="EA21" s="28"/>
-      <c r="EB21" s="28"/>
-      <c r="EC21" s="28"/>
-      <c r="ED21" s="28"/>
-      <c r="EE21" s="28"/>
-      <c r="EF21" s="28"/>
-      <c r="EG21" s="28"/>
-      <c r="EH21" s="28"/>
-      <c r="EI21" s="28"/>
-      <c r="EJ21" s="28"/>
-      <c r="EK21" s="28"/>
-      <c r="EL21" s="28"/>
-      <c r="EM21" s="28"/>
-      <c r="EN21" s="28"/>
-      <c r="EO21" s="28"/>
-      <c r="EP21" s="28"/>
-      <c r="EQ21" s="28"/>
-      <c r="ER21" s="28"/>
-      <c r="ES21" s="28"/>
-      <c r="ET21" s="28"/>
-      <c r="EU21" s="28"/>
-      <c r="EV21" s="28"/>
-      <c r="EW21" s="28"/>
-      <c r="EX21" s="28"/>
-      <c r="EY21" s="28"/>
-      <c r="EZ21" s="28"/>
-      <c r="FA21" s="28"/>
-      <c r="FB21" s="28"/>
-      <c r="FC21" s="28"/>
-      <c r="FD21" s="28"/>
-      <c r="FE21" s="28"/>
-      <c r="FF21" s="28"/>
-      <c r="FG21" s="28"/>
-      <c r="FH21" s="28"/>
-      <c r="FI21" s="28"/>
-      <c r="FJ21" s="28"/>
-      <c r="FK21" s="28"/>
-      <c r="FL21" s="28"/>
-      <c r="FM21" s="28"/>
-      <c r="FN21" s="28"/>
-      <c r="FO21" s="28"/>
-      <c r="FP21" s="28"/>
-      <c r="FQ21" s="28"/>
-      <c r="FR21" s="28"/>
-      <c r="FS21" s="28"/>
-      <c r="FT21" s="28"/>
-      <c r="FU21" s="28"/>
-      <c r="FV21" s="28"/>
-      <c r="FW21" s="28"/>
-      <c r="FX21" s="28"/>
-      <c r="FY21" s="28"/>
-      <c r="FZ21" s="28"/>
-      <c r="GA21" s="28"/>
-      <c r="GB21" s="28"/>
-      <c r="GC21" s="28"/>
-      <c r="GD21" s="28"/>
-      <c r="GE21" s="28"/>
-      <c r="GF21" s="28"/>
-      <c r="GG21" s="28"/>
-      <c r="GH21" s="28"/>
-      <c r="GI21" s="28"/>
-      <c r="GJ21" s="28"/>
-      <c r="GK21" s="28"/>
-      <c r="GL21" s="28"/>
-      <c r="GM21" s="28"/>
-      <c r="GN21" s="28"/>
-      <c r="GO21" s="28"/>
-      <c r="GP21" s="28"/>
-      <c r="GQ21" s="28"/>
-      <c r="GR21" s="28"/>
-      <c r="GS21" s="28"/>
-      <c r="GT21" s="28"/>
-      <c r="GU21" s="28"/>
-      <c r="GV21" s="28"/>
-      <c r="GW21" s="28"/>
-      <c r="GX21" s="28"/>
-      <c r="GY21" s="28"/>
-      <c r="GZ21" s="28"/>
-      <c r="HA21" s="28"/>
-      <c r="HB21" s="28"/>
-      <c r="HC21" s="28"/>
-      <c r="HD21" s="28"/>
-      <c r="HE21" s="28"/>
-      <c r="HF21" s="28"/>
-      <c r="HG21" s="28"/>
-      <c r="HH21" s="28"/>
-      <c r="HI21" s="28"/>
-      <c r="HJ21" s="28"/>
-      <c r="HK21" s="28"/>
-      <c r="HL21" s="28"/>
-      <c r="HM21" s="28"/>
-      <c r="HN21" s="28"/>
-      <c r="HO21" s="28"/>
-      <c r="HP21" s="28"/>
-      <c r="HQ21" s="28"/>
-      <c r="HR21" s="28"/>
-      <c r="HS21" s="28"/>
-      <c r="HT21" s="28"/>
-      <c r="HU21" s="28"/>
-      <c r="HV21" s="28"/>
-      <c r="HW21" s="28"/>
-      <c r="HX21" s="28"/>
-      <c r="HY21" s="28"/>
-      <c r="HZ21" s="28"/>
-      <c r="IA21" s="28"/>
-      <c r="IB21" s="28"/>
-      <c r="IC21" s="28"/>
-      <c r="ID21" s="28"/>
-      <c r="IE21" s="28"/>
-      <c r="IF21" s="28"/>
-      <c r="IG21" s="28"/>
-      <c r="IH21" s="28"/>
-      <c r="II21" s="28"/>
-      <c r="IJ21" s="28"/>
-      <c r="IK21" s="28"/>
-      <c r="IL21" s="28"/>
-      <c r="IM21" s="28"/>
-      <c r="IN21" s="28"/>
-      <c r="IO21" s="28"/>
-      <c r="IP21" s="28"/>
-      <c r="IQ21" s="28"/>
-      <c r="IR21" s="28"/>
-      <c r="IS21" s="28"/>
-      <c r="IT21" s="28"/>
-      <c r="IU21" s="28"/>
-      <c r="IV21" s="28"/>
-      <c r="IW21" s="28"/>
-      <c r="IX21" s="28"/>
-      <c r="IY21" s="28"/>
-      <c r="IZ21" s="28"/>
-      <c r="JA21" s="28"/>
-      <c r="JB21" s="28"/>
-      <c r="JC21" s="28"/>
-      <c r="JD21" s="28"/>
-      <c r="JE21" s="28"/>
-      <c r="JF21" s="28"/>
-      <c r="JG21" s="28"/>
-      <c r="JH21" s="28"/>
-      <c r="JI21" s="28"/>
-      <c r="JJ21" s="28"/>
-      <c r="JK21" s="28"/>
-      <c r="JL21" s="28"/>
-      <c r="JM21" s="28"/>
-      <c r="JN21" s="28"/>
-      <c r="JO21" s="28"/>
-      <c r="JP21" s="28"/>
-      <c r="JQ21" s="28"/>
-      <c r="JR21" s="28"/>
-      <c r="JS21" s="28"/>
-      <c r="JT21" s="28"/>
-      <c r="JU21" s="28"/>
-      <c r="JV21" s="28"/>
-      <c r="JW21" s="28"/>
-      <c r="JX21" s="28"/>
-      <c r="JY21" s="28"/>
-      <c r="JZ21" s="28"/>
-      <c r="KA21" s="28"/>
-      <c r="KB21" s="28"/>
-      <c r="KC21" s="28"/>
-      <c r="KD21" s="28"/>
-      <c r="KE21" s="28"/>
-      <c r="KF21" s="28"/>
-      <c r="KG21" s="28"/>
-      <c r="KH21" s="28"/>
-      <c r="KI21" s="28"/>
-      <c r="KJ21" s="28"/>
-      <c r="KK21" s="28"/>
-      <c r="KL21" s="28"/>
-      <c r="KM21" s="28"/>
-      <c r="KN21" s="28"/>
-      <c r="KO21" s="28"/>
-      <c r="KP21" s="28"/>
-      <c r="KQ21" s="28"/>
-      <c r="KR21" s="28"/>
-      <c r="KS21" s="28"/>
-      <c r="KT21" s="28"/>
-      <c r="KU21" s="28"/>
-      <c r="KV21" s="28"/>
-      <c r="KW21" s="28"/>
-      <c r="KX21" s="28"/>
-      <c r="KY21" s="28"/>
-      <c r="KZ21" s="28"/>
-      <c r="LA21" s="28"/>
-      <c r="LB21" s="28"/>
-      <c r="LC21" s="28"/>
-      <c r="LD21" s="28"/>
-      <c r="LE21" s="28"/>
-      <c r="LF21" s="28"/>
-      <c r="LG21" s="28"/>
-      <c r="LH21" s="28"/>
-      <c r="LI21" s="28"/>
-      <c r="LJ21" s="28"/>
-      <c r="LK21" s="28"/>
-      <c r="LL21" s="28"/>
-      <c r="LM21" s="28"/>
-      <c r="LN21" s="28"/>
-      <c r="LO21" s="28"/>
-      <c r="LP21" s="28"/>
-      <c r="LQ21" s="28"/>
-      <c r="LR21" s="28"/>
-      <c r="LS21" s="28"/>
-      <c r="LT21" s="28"/>
-      <c r="LU21" s="28"/>
-      <c r="LV21" s="28"/>
-      <c r="LW21" s="28"/>
-      <c r="LX21" s="28"/>
-      <c r="LY21" s="28"/>
-      <c r="LZ21" s="28"/>
-      <c r="MA21" s="28"/>
-      <c r="MB21" s="28"/>
-      <c r="MC21" s="28"/>
-      <c r="MD21" s="28"/>
-      <c r="ME21" s="28"/>
-      <c r="MF21" s="28"/>
-      <c r="MG21" s="28"/>
-      <c r="MH21" s="28"/>
-      <c r="MI21" s="28"/>
-      <c r="MJ21" s="28"/>
-      <c r="MK21" s="28"/>
-      <c r="ML21" s="28"/>
-      <c r="MM21" s="28"/>
-      <c r="MN21" s="28"/>
-      <c r="MO21" s="28"/>
-      <c r="MP21" s="28"/>
-      <c r="MQ21" s="28"/>
-      <c r="MR21" s="28"/>
-      <c r="MS21" s="28"/>
-      <c r="MT21" s="28"/>
-      <c r="MU21" s="28"/>
-      <c r="MV21" s="28"/>
-      <c r="MW21" s="28"/>
-      <c r="MX21" s="28"/>
-      <c r="MY21" s="28"/>
-      <c r="MZ21" s="28"/>
-      <c r="NA21" s="28"/>
-      <c r="NB21" s="28"/>
-      <c r="NC21" s="28"/>
-      <c r="ND21" s="28"/>
-      <c r="NE21" s="28"/>
-      <c r="NF21" s="28"/>
-      <c r="NG21" s="28"/>
-      <c r="NH21" s="28"/>
-      <c r="NI21" s="28"/>
-      <c r="NJ21" s="28"/>
-      <c r="NK21" s="28"/>
-      <c r="NL21" s="28"/>
-      <c r="NM21" s="28"/>
-      <c r="NN21" s="28"/>
-      <c r="NO21" s="28"/>
-      <c r="NP21" s="28"/>
-      <c r="NQ21" s="28"/>
-      <c r="NR21" s="28"/>
-      <c r="NS21" s="28"/>
-      <c r="NT21" s="28"/>
-      <c r="NU21" s="28"/>
-      <c r="NV21" s="28"/>
-      <c r="NW21" s="28"/>
-      <c r="NX21" s="28"/>
-      <c r="NY21" s="28"/>
-      <c r="NZ21" s="28"/>
-      <c r="OA21" s="28"/>
-      <c r="OB21" s="28"/>
-      <c r="OC21" s="28"/>
-      <c r="OD21" s="28"/>
-      <c r="OE21" s="28"/>
-      <c r="OF21" s="28"/>
-      <c r="OG21" s="28"/>
-      <c r="OH21" s="28"/>
-      <c r="OI21" s="28"/>
-      <c r="OJ21" s="28"/>
-      <c r="OK21" s="28"/>
-      <c r="OL21" s="28"/>
-      <c r="OM21" s="28"/>
-      <c r="ON21" s="28"/>
-      <c r="OO21" s="28"/>
-      <c r="OP21" s="28"/>
-      <c r="OQ21" s="28"/>
-      <c r="OR21" s="28"/>
-      <c r="OS21" s="28"/>
-      <c r="OT21" s="28"/>
-      <c r="OU21" s="28"/>
-      <c r="OV21" s="28"/>
-      <c r="OW21" s="28"/>
-      <c r="OX21" s="28"/>
-      <c r="OY21" s="28"/>
-      <c r="OZ21" s="28"/>
-      <c r="PA21" s="28"/>
-      <c r="PB21" s="28"/>
-      <c r="PC21" s="28"/>
-      <c r="PD21" s="28"/>
-      <c r="PE21" s="28"/>
-      <c r="PF21" s="28"/>
-      <c r="PG21" s="28"/>
-      <c r="PH21" s="28"/>
-      <c r="PI21" s="28"/>
-      <c r="PJ21" s="28"/>
-      <c r="PK21" s="28"/>
-      <c r="PL21" s="28"/>
-      <c r="PM21" s="28"/>
-      <c r="PN21" s="28"/>
-      <c r="PO21" s="28"/>
-      <c r="PP21" s="28"/>
-      <c r="PQ21" s="28"/>
-      <c r="PR21" s="28"/>
-      <c r="PS21" s="28"/>
-      <c r="PT21" s="28"/>
-      <c r="PU21" s="28"/>
-      <c r="PV21" s="28"/>
-      <c r="PW21" s="28"/>
-      <c r="PX21" s="28"/>
-      <c r="PY21" s="28"/>
-      <c r="PZ21" s="28"/>
-      <c r="QA21" s="28"/>
-      <c r="QB21" s="28"/>
-      <c r="QC21" s="28"/>
-      <c r="QD21" s="28"/>
-      <c r="QE21" s="28"/>
-      <c r="QF21" s="28"/>
-      <c r="QG21" s="28"/>
-      <c r="QH21" s="28"/>
-      <c r="QI21" s="28"/>
-      <c r="QJ21" s="28"/>
-      <c r="QK21" s="28"/>
-      <c r="QL21" s="28"/>
-      <c r="QM21" s="28"/>
-      <c r="QN21" s="28"/>
-      <c r="QO21" s="28"/>
-      <c r="QP21" s="28"/>
-      <c r="QQ21" s="28"/>
-      <c r="QR21" s="28"/>
-      <c r="QS21" s="28"/>
-      <c r="QT21" s="28"/>
-      <c r="QU21" s="28"/>
-      <c r="QV21" s="28"/>
-      <c r="QW21" s="28"/>
-      <c r="QX21" s="28"/>
-      <c r="QY21" s="28"/>
-      <c r="QZ21" s="28"/>
-      <c r="RA21" s="28"/>
-      <c r="RB21" s="28"/>
-      <c r="RC21" s="28"/>
-      <c r="RD21" s="28"/>
-      <c r="RE21" s="28"/>
-      <c r="RF21" s="28"/>
-      <c r="RG21" s="28"/>
-      <c r="RH21" s="28"/>
-      <c r="RI21" s="28"/>
-      <c r="RJ21" s="28"/>
-      <c r="RK21" s="28"/>
-      <c r="RL21" s="28"/>
-      <c r="RM21" s="28"/>
-      <c r="RN21" s="28"/>
-      <c r="RO21" s="28"/>
-      <c r="RP21" s="28"/>
-      <c r="RQ21" s="28"/>
-      <c r="RR21" s="28"/>
-      <c r="RS21" s="28"/>
-      <c r="RT21" s="28"/>
-      <c r="RU21" s="28"/>
-      <c r="RV21" s="28"/>
-      <c r="RW21" s="28"/>
-      <c r="RX21" s="28"/>
-      <c r="RY21" s="28"/>
-      <c r="RZ21" s="28"/>
-      <c r="SA21" s="28"/>
-      <c r="SB21" s="28"/>
-      <c r="SC21" s="28"/>
-      <c r="SD21" s="28"/>
-      <c r="SE21" s="28"/>
-      <c r="SF21" s="28"/>
-      <c r="SG21" s="28"/>
-      <c r="SH21" s="28"/>
-      <c r="SI21" s="28"/>
-      <c r="SJ21" s="28"/>
-      <c r="SK21" s="28"/>
-      <c r="SL21" s="28"/>
-      <c r="SM21" s="28"/>
-      <c r="SN21" s="28"/>
-      <c r="SO21" s="28"/>
-      <c r="SP21" s="28"/>
-      <c r="SQ21" s="28"/>
-      <c r="SR21" s="28"/>
-      <c r="SS21" s="28"/>
-      <c r="ST21" s="28"/>
-      <c r="SU21" s="28"/>
-      <c r="SV21" s="28"/>
-      <c r="SW21" s="28"/>
-      <c r="SX21" s="28"/>
-      <c r="SY21" s="28"/>
-      <c r="SZ21" s="28"/>
-      <c r="TA21" s="28"/>
-      <c r="TB21" s="28"/>
-      <c r="TC21" s="28"/>
-      <c r="TD21" s="28"/>
-      <c r="TE21" s="28"/>
-      <c r="TF21" s="28"/>
-      <c r="TG21" s="28"/>
-      <c r="TH21" s="28"/>
-      <c r="TI21" s="28"/>
-      <c r="TJ21" s="28"/>
-      <c r="TK21" s="28"/>
-      <c r="TL21" s="28"/>
-      <c r="TM21" s="28"/>
-      <c r="TN21" s="28"/>
-      <c r="TO21" s="28"/>
-      <c r="TP21" s="28"/>
-      <c r="TQ21" s="28"/>
-      <c r="TR21" s="28"/>
-      <c r="TS21" s="28"/>
-      <c r="TT21" s="28"/>
-      <c r="TU21" s="28"/>
-      <c r="TV21" s="28"/>
-      <c r="TW21" s="28"/>
-      <c r="TX21" s="28"/>
-      <c r="TY21" s="28"/>
-      <c r="TZ21" s="28"/>
-      <c r="UA21" s="28"/>
-      <c r="UB21" s="28"/>
-      <c r="UC21" s="28"/>
-      <c r="UD21" s="28"/>
-      <c r="UE21" s="28"/>
-      <c r="UF21" s="28"/>
-      <c r="UG21" s="28"/>
-      <c r="UH21" s="28"/>
-      <c r="UI21" s="28"/>
-      <c r="UJ21" s="28"/>
-      <c r="UK21" s="28"/>
-      <c r="UL21" s="28"/>
-      <c r="UM21" s="28"/>
-      <c r="UN21" s="28"/>
-      <c r="UO21" s="28"/>
-      <c r="UP21" s="28"/>
-      <c r="UQ21" s="28"/>
-      <c r="UR21" s="28"/>
-      <c r="US21" s="28"/>
-      <c r="UT21" s="28"/>
-      <c r="UU21" s="28"/>
-      <c r="UV21" s="28"/>
-      <c r="UW21" s="28"/>
-      <c r="UX21" s="28"/>
-      <c r="UY21" s="28"/>
-      <c r="UZ21" s="28"/>
-      <c r="VA21" s="28"/>
-      <c r="VB21" s="28"/>
-      <c r="VC21" s="28"/>
-      <c r="VD21" s="28"/>
-      <c r="VE21" s="28"/>
-      <c r="VF21" s="28"/>
-      <c r="VG21" s="28"/>
-      <c r="VH21" s="28"/>
-      <c r="VI21" s="28"/>
-      <c r="VJ21" s="28"/>
-      <c r="VK21" s="28"/>
-      <c r="VL21" s="28"/>
-      <c r="VM21" s="28"/>
-      <c r="VN21" s="28"/>
-      <c r="VO21" s="28"/>
-      <c r="VP21" s="28"/>
-      <c r="VQ21" s="28"/>
-      <c r="VR21" s="28"/>
-      <c r="VS21" s="28"/>
-      <c r="VT21" s="28"/>
-      <c r="VU21" s="28"/>
-      <c r="VV21" s="28"/>
-      <c r="VW21" s="28"/>
-      <c r="VX21" s="28"/>
-      <c r="VY21" s="28"/>
-      <c r="VZ21" s="28"/>
-      <c r="WA21" s="28"/>
-      <c r="WB21" s="28"/>
-      <c r="WC21" s="28"/>
-      <c r="WD21" s="28"/>
-      <c r="WE21" s="28"/>
-      <c r="WF21" s="28"/>
-      <c r="WG21" s="28"/>
-      <c r="WH21" s="28"/>
-      <c r="WI21" s="28"/>
-      <c r="WJ21" s="28"/>
-      <c r="WK21" s="28"/>
-      <c r="WL21" s="28"/>
-      <c r="WM21" s="28"/>
-      <c r="WN21" s="28"/>
-      <c r="WO21" s="28"/>
-      <c r="WP21" s="28"/>
-      <c r="WQ21" s="28"/>
-      <c r="WR21" s="28"/>
-      <c r="WS21" s="28"/>
-      <c r="WT21" s="28"/>
-      <c r="WU21" s="28"/>
-      <c r="WV21" s="28"/>
-      <c r="WW21" s="28"/>
-      <c r="WX21" s="28"/>
-      <c r="WY21" s="28"/>
-      <c r="WZ21" s="28"/>
-      <c r="XA21" s="28"/>
-      <c r="XB21" s="28"/>
-      <c r="XC21" s="28"/>
-      <c r="XD21" s="28"/>
-      <c r="XE21" s="28"/>
-      <c r="XF21" s="28"/>
-      <c r="XG21" s="28"/>
-      <c r="XH21" s="28"/>
-      <c r="XI21" s="28"/>
-      <c r="XJ21" s="28"/>
-      <c r="XK21" s="28"/>
-      <c r="XL21" s="28"/>
-      <c r="XM21" s="28"/>
-      <c r="XN21" s="28"/>
-      <c r="XO21" s="28"/>
-      <c r="XP21" s="28"/>
-      <c r="XQ21" s="28"/>
-      <c r="XR21" s="28"/>
-      <c r="XS21" s="28"/>
-      <c r="XT21" s="28"/>
-      <c r="XU21" s="28"/>
-      <c r="XV21" s="28"/>
-      <c r="XW21" s="28"/>
-      <c r="XX21" s="28"/>
-      <c r="XY21" s="28"/>
-      <c r="XZ21" s="28"/>
-      <c r="YA21" s="28"/>
-      <c r="YB21" s="28"/>
-      <c r="YC21" s="28"/>
-      <c r="YD21" s="28"/>
-      <c r="YE21" s="28"/>
-      <c r="YF21" s="28"/>
-      <c r="YG21" s="28"/>
-      <c r="YH21" s="28"/>
-      <c r="YI21" s="28"/>
-      <c r="YJ21" s="28"/>
-      <c r="YK21" s="28"/>
-      <c r="YL21" s="28"/>
-      <c r="YM21" s="28"/>
-      <c r="YN21" s="28"/>
-      <c r="YO21" s="28"/>
-      <c r="YP21" s="28"/>
-      <c r="YQ21" s="28"/>
-      <c r="YR21" s="28"/>
-      <c r="YS21" s="28"/>
-      <c r="YT21" s="28"/>
-      <c r="YU21" s="28"/>
-      <c r="YV21" s="28"/>
-      <c r="YW21" s="28"/>
-      <c r="YX21" s="28"/>
-      <c r="YY21" s="28"/>
-      <c r="YZ21" s="28"/>
-      <c r="ZA21" s="28"/>
-      <c r="ZB21" s="28"/>
-      <c r="ZC21" s="28"/>
-      <c r="ZD21" s="28"/>
-      <c r="ZE21" s="28"/>
-      <c r="ZF21" s="28"/>
-      <c r="ZG21" s="28"/>
-      <c r="ZH21" s="28"/>
-      <c r="ZI21" s="28"/>
-      <c r="ZJ21" s="28"/>
-      <c r="ZK21" s="28"/>
-      <c r="ZL21" s="28"/>
-      <c r="ZM21" s="28"/>
-      <c r="ZN21" s="28"/>
-      <c r="ZO21" s="28"/>
-      <c r="ZP21" s="28"/>
-      <c r="ZQ21" s="28"/>
-      <c r="ZR21" s="28"/>
-      <c r="ZS21" s="28"/>
-      <c r="ZT21" s="28"/>
-      <c r="ZU21" s="28"/>
-      <c r="ZV21" s="28"/>
-      <c r="ZW21" s="28"/>
-      <c r="ZX21" s="28"/>
-      <c r="ZY21" s="28"/>
-      <c r="ZZ21" s="28"/>
-      <c r="AAA21" s="28"/>
-      <c r="AAB21" s="28"/>
-      <c r="AAC21" s="28"/>
-      <c r="AAD21" s="28"/>
-      <c r="AAE21" s="28"/>
-      <c r="AAF21" s="28"/>
-      <c r="AAG21" s="28"/>
-      <c r="AAH21" s="28"/>
-      <c r="AAI21" s="28"/>
-      <c r="AAJ21" s="28"/>
-      <c r="AAK21" s="28"/>
-      <c r="AAL21" s="28"/>
-      <c r="AAM21" s="28"/>
-      <c r="AAN21" s="28"/>
-      <c r="AAO21" s="28"/>
-      <c r="AAP21" s="28"/>
-      <c r="AAQ21" s="28"/>
-      <c r="AAR21" s="28"/>
-      <c r="AAS21" s="28"/>
-      <c r="AAT21" s="28"/>
-      <c r="AAU21" s="28"/>
-      <c r="AAV21" s="28"/>
-      <c r="AAW21" s="28"/>
-      <c r="AAX21" s="28"/>
-      <c r="AAY21" s="28"/>
-      <c r="AAZ21" s="28"/>
-      <c r="ABA21" s="28"/>
-      <c r="ABB21" s="28"/>
-      <c r="ABC21" s="28"/>
-      <c r="ABD21" s="28"/>
-      <c r="ABE21" s="28"/>
-      <c r="ABF21" s="28"/>
-      <c r="ABG21" s="28"/>
-      <c r="ABH21" s="28"/>
-      <c r="ABI21" s="28"/>
-      <c r="ABJ21" s="28"/>
-      <c r="ABK21" s="28"/>
-      <c r="ABL21" s="28"/>
-      <c r="ABM21" s="28"/>
-      <c r="ABN21" s="28"/>
-      <c r="ABO21" s="28"/>
-      <c r="ABP21" s="28"/>
-      <c r="ABQ21" s="28"/>
-      <c r="ABR21" s="28"/>
-      <c r="ABS21" s="28"/>
-      <c r="ABT21" s="28"/>
-      <c r="ABU21" s="28"/>
-      <c r="ABV21" s="28"/>
-      <c r="ABW21" s="28"/>
-      <c r="ABX21" s="28"/>
-      <c r="ABY21" s="28"/>
-      <c r="ABZ21" s="28"/>
-      <c r="ACA21" s="28"/>
-      <c r="ACB21" s="28"/>
-      <c r="ACC21" s="28"/>
-      <c r="ACD21" s="28"/>
-      <c r="ACE21" s="28"/>
-      <c r="ACF21" s="28"/>
-      <c r="ACG21" s="28"/>
-      <c r="ACH21" s="28"/>
-      <c r="ACI21" s="28"/>
-      <c r="ACJ21" s="28"/>
-      <c r="ACK21" s="28"/>
-      <c r="ACL21" s="28"/>
-      <c r="ACM21" s="28"/>
-      <c r="ACN21" s="28"/>
-      <c r="ACO21" s="28"/>
-      <c r="ACP21" s="28"/>
-      <c r="ACQ21" s="28"/>
-      <c r="ACR21" s="28"/>
-      <c r="ACS21" s="28"/>
-      <c r="ACT21" s="28"/>
-      <c r="ACU21" s="28"/>
-      <c r="ACV21" s="28"/>
-      <c r="ACW21" s="28"/>
-      <c r="ACX21" s="28"/>
-      <c r="ACY21" s="28"/>
-      <c r="ACZ21" s="28"/>
-      <c r="ADA21" s="28"/>
-      <c r="ADB21" s="28"/>
-      <c r="ADC21" s="28"/>
-      <c r="ADD21" s="28"/>
-      <c r="ADE21" s="28"/>
-      <c r="ADF21" s="28"/>
-      <c r="ADG21" s="28"/>
-      <c r="ADH21" s="28"/>
-      <c r="ADI21" s="28"/>
-      <c r="ADJ21" s="28"/>
-      <c r="ADK21" s="28"/>
-      <c r="ADL21" s="28"/>
-      <c r="ADM21" s="28"/>
-      <c r="ADN21" s="28"/>
-      <c r="ADO21" s="28"/>
-      <c r="ADP21" s="28"/>
-      <c r="ADQ21" s="28"/>
-      <c r="ADR21" s="28"/>
-      <c r="ADS21" s="28"/>
-      <c r="ADT21" s="28"/>
-      <c r="ADU21" s="28"/>
-      <c r="ADV21" s="28"/>
-      <c r="ADW21" s="28"/>
-      <c r="ADX21" s="28"/>
-      <c r="ADY21" s="28"/>
-      <c r="ADZ21" s="28"/>
-      <c r="AEA21" s="28"/>
-      <c r="AEB21" s="28"/>
-      <c r="AEC21" s="28"/>
-      <c r="AED21" s="28"/>
-      <c r="AEE21" s="28"/>
-      <c r="AEF21" s="28"/>
-      <c r="AEG21" s="28"/>
-      <c r="AEH21" s="28"/>
-      <c r="AEI21" s="28"/>
-      <c r="AEJ21" s="28"/>
-      <c r="AEK21" s="28"/>
-      <c r="AEL21" s="28"/>
-      <c r="AEM21" s="28"/>
-      <c r="AEN21" s="28"/>
-      <c r="AEO21" s="28"/>
-      <c r="AEP21" s="28"/>
-      <c r="AEQ21" s="28"/>
-      <c r="AER21" s="28"/>
-      <c r="AES21" s="28"/>
-      <c r="AET21" s="28"/>
-      <c r="AEU21" s="28"/>
-      <c r="AEV21" s="28"/>
-      <c r="AEW21" s="28"/>
-      <c r="AEX21" s="28"/>
-      <c r="AEY21" s="28"/>
-      <c r="AEZ21" s="28"/>
-      <c r="AFA21" s="28"/>
-      <c r="AFB21" s="28"/>
-      <c r="AFC21" s="28"/>
-      <c r="AFD21" s="28"/>
-      <c r="AFE21" s="28"/>
-      <c r="AFF21" s="28"/>
-      <c r="AFG21" s="28"/>
-      <c r="AFH21" s="28"/>
-      <c r="AFI21" s="28"/>
-      <c r="AFJ21" s="28"/>
-      <c r="AFK21" s="28"/>
-      <c r="AFL21" s="28"/>
-      <c r="AFM21" s="28"/>
-      <c r="AFN21" s="28"/>
-      <c r="AFO21" s="28"/>
-      <c r="AFP21" s="28"/>
-      <c r="AFQ21" s="28"/>
-      <c r="AFR21" s="28"/>
-      <c r="AFS21" s="28"/>
-      <c r="AFT21" s="28"/>
-      <c r="AFU21" s="28"/>
-      <c r="AFV21" s="28"/>
-      <c r="AFW21" s="28"/>
-      <c r="AFX21" s="28"/>
-      <c r="AFY21" s="28"/>
-      <c r="AFZ21" s="28"/>
-      <c r="AGA21" s="28"/>
-      <c r="AGB21" s="28"/>
-      <c r="AGC21" s="28"/>
-      <c r="AGD21" s="28"/>
-      <c r="AGE21" s="28"/>
-      <c r="AGF21" s="28"/>
-      <c r="AGG21" s="28"/>
-      <c r="AGH21" s="28"/>
-      <c r="AGI21" s="28"/>
-      <c r="AGJ21" s="28"/>
-      <c r="AGK21" s="28"/>
-      <c r="AGL21" s="28"/>
-      <c r="AGM21" s="28"/>
-      <c r="AGN21" s="28"/>
-      <c r="AGO21" s="28"/>
-      <c r="AGP21" s="28"/>
-      <c r="AGQ21" s="28"/>
-      <c r="AGR21" s="28"/>
-      <c r="AGS21" s="28"/>
-      <c r="AGT21" s="28"/>
-      <c r="AGU21" s="28"/>
-      <c r="AGV21" s="28"/>
-      <c r="AGW21" s="28"/>
-      <c r="AGX21" s="28"/>
-      <c r="AGY21" s="28"/>
-      <c r="AGZ21" s="28"/>
-      <c r="AHA21" s="28"/>
-      <c r="AHB21" s="28"/>
-      <c r="AHC21" s="28"/>
-      <c r="AHD21" s="28"/>
-      <c r="AHE21" s="28"/>
-      <c r="AHF21" s="28"/>
-      <c r="AHG21" s="28"/>
-      <c r="AHH21" s="28"/>
-      <c r="AHI21" s="28"/>
-      <c r="AHJ21" s="28"/>
-      <c r="AHK21" s="28"/>
-      <c r="AHL21" s="28"/>
-      <c r="AHM21" s="28"/>
-      <c r="AHN21" s="28"/>
-      <c r="AHO21" s="28"/>
-      <c r="AHP21" s="28"/>
-      <c r="AHQ21" s="28"/>
-      <c r="AHR21" s="28"/>
-      <c r="AHS21" s="28"/>
-      <c r="AHT21" s="28"/>
-      <c r="AHU21" s="28"/>
-      <c r="AHV21" s="28"/>
-      <c r="AHW21" s="28"/>
-      <c r="AHX21" s="28"/>
-      <c r="AHY21" s="28"/>
-      <c r="AHZ21" s="28"/>
-      <c r="AIA21" s="28"/>
-      <c r="AIB21" s="28"/>
-      <c r="AIC21" s="28"/>
-      <c r="AID21" s="28"/>
-      <c r="AIE21" s="28"/>
-      <c r="AIF21" s="28"/>
-      <c r="AIG21" s="28"/>
-      <c r="AIH21" s="28"/>
-      <c r="AII21" s="28"/>
-      <c r="AIJ21" s="28"/>
-      <c r="AIK21" s="28"/>
-      <c r="AIL21" s="28"/>
-      <c r="AIM21" s="28"/>
-      <c r="AIN21" s="28"/>
-      <c r="AIO21" s="28"/>
-      <c r="AIP21" s="28"/>
-      <c r="AIQ21" s="28"/>
-      <c r="AIR21" s="28"/>
-      <c r="AIS21" s="28"/>
-      <c r="AIT21" s="28"/>
-      <c r="AIU21" s="28"/>
-      <c r="AIV21" s="28"/>
-      <c r="AIW21" s="28"/>
-      <c r="AIX21" s="28"/>
-      <c r="AIY21" s="28"/>
-      <c r="AIZ21" s="28"/>
-      <c r="AJA21" s="28"/>
-      <c r="AJB21" s="28"/>
-      <c r="AJC21" s="28"/>
-      <c r="AJD21" s="28"/>
-      <c r="AJE21" s="28"/>
-      <c r="AJF21" s="28"/>
-      <c r="AJG21" s="28"/>
-      <c r="AJH21" s="28"/>
-      <c r="AJI21" s="28"/>
-      <c r="AJJ21" s="28"/>
-      <c r="AJK21" s="28"/>
-      <c r="AJL21" s="28"/>
-      <c r="AJM21" s="28"/>
-      <c r="AJN21" s="28"/>
-      <c r="AJO21" s="28"/>
-      <c r="AJP21" s="28"/>
-      <c r="AJQ21" s="28"/>
-      <c r="AJR21" s="28"/>
-      <c r="AJS21" s="28"/>
-      <c r="AJT21" s="28"/>
-      <c r="AJU21" s="28"/>
-      <c r="AJV21" s="28"/>
-      <c r="AJW21" s="28"/>
-      <c r="AJX21" s="28"/>
-      <c r="AJY21" s="28"/>
-      <c r="AJZ21" s="28"/>
-      <c r="AKA21" s="28"/>
-      <c r="AKB21" s="28"/>
-      <c r="AKC21" s="28"/>
-      <c r="AKD21" s="28"/>
-      <c r="AKE21" s="28"/>
-      <c r="AKF21" s="28"/>
-      <c r="AKG21" s="28"/>
-      <c r="AKH21" s="28"/>
-      <c r="AKI21" s="28"/>
-      <c r="AKJ21" s="28"/>
-      <c r="AKK21" s="28"/>
-      <c r="AKL21" s="28"/>
-      <c r="AKM21" s="28"/>
-      <c r="AKN21" s="28"/>
-      <c r="AKO21" s="28"/>
-      <c r="AKP21" s="28"/>
-      <c r="AKQ21" s="28"/>
-      <c r="AKR21" s="28"/>
-      <c r="AKS21" s="28"/>
-      <c r="AKT21" s="28"/>
-      <c r="AKU21" s="28"/>
-      <c r="AKV21" s="28"/>
-      <c r="AKW21" s="28"/>
-      <c r="AKX21" s="28"/>
-      <c r="AKY21" s="28"/>
-      <c r="AKZ21" s="28"/>
-      <c r="ALA21" s="28"/>
-      <c r="ALB21" s="28"/>
-      <c r="ALC21" s="28"/>
-      <c r="ALD21" s="28"/>
-      <c r="ALE21" s="28"/>
-      <c r="ALF21" s="28"/>
-      <c r="ALG21" s="28"/>
-      <c r="ALH21" s="28"/>
-      <c r="ALI21" s="28"/>
-      <c r="ALJ21" s="28"/>
-      <c r="ALK21" s="28"/>
-      <c r="ALL21" s="28"/>
-      <c r="ALM21" s="28"/>
-      <c r="ALN21" s="28"/>
-      <c r="ALO21" s="28"/>
-      <c r="ALP21" s="28"/>
-      <c r="ALQ21" s="28"/>
-      <c r="ALR21" s="28"/>
-      <c r="ALS21" s="28"/>
-      <c r="ALT21" s="28"/>
-      <c r="ALU21" s="28"/>
-      <c r="ALV21" s="28"/>
-      <c r="ALW21" s="28"/>
-      <c r="ALX21" s="28"/>
-      <c r="ALY21" s="28"/>
-      <c r="ALZ21" s="28"/>
-      <c r="AMA21" s="28"/>
-      <c r="AMB21" s="28"/>
-      <c r="AMC21" s="28"/>
-      <c r="AMD21" s="28"/>
-      <c r="AME21" s="28"/>
-      <c r="AMF21" s="28"/>
-      <c r="AMG21" s="28"/>
-      <c r="AMH21" s="28"/>
-      <c r="AMI21" s="28"/>
-      <c r="AMJ21" s="28"/>
-      <c r="AMK21" s="28"/>
-      <c r="AML21" s="28"/>
-      <c r="AMM21" s="28"/>
-      <c r="AMN21" s="28"/>
-      <c r="AMO21" s="28"/>
-      <c r="AMP21" s="28"/>
-      <c r="AMQ21" s="28"/>
-      <c r="AMR21" s="28"/>
-      <c r="AMS21" s="28"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="27"/>
+      <c r="AS21" s="27"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="32"/>
+      <c r="AV21" s="31"/>
+      <c r="AW21" s="27"/>
+      <c r="AX21" s="27"/>
+      <c r="AY21" s="32"/>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="27"/>
+      <c r="BB21" s="32"/>
+      <c r="BC21" s="27"/>
+      <c r="BD21" s="27"/>
+      <c r="BE21" s="27"/>
+      <c r="BF21" s="27"/>
+      <c r="BG21" s="27"/>
+      <c r="BH21" s="27"/>
+      <c r="BI21" s="27"/>
+      <c r="BJ21" s="27"/>
+      <c r="BK21" s="27"/>
+      <c r="BL21" s="27"/>
+      <c r="BM21" s="27"/>
+      <c r="BN21" s="27"/>
+      <c r="BO21" s="27"/>
+      <c r="BP21" s="27"/>
+      <c r="BQ21" s="27"/>
+      <c r="BR21" s="27"/>
+      <c r="BS21" s="27"/>
+      <c r="BT21" s="27"/>
+      <c r="BU21" s="27"/>
+      <c r="BV21" s="27"/>
+      <c r="BW21" s="27"/>
+      <c r="BX21" s="27"/>
+      <c r="BY21" s="27"/>
+      <c r="BZ21" s="27"/>
+      <c r="CA21" s="27"/>
+      <c r="CB21" s="27"/>
+      <c r="CC21" s="27"/>
+      <c r="CD21" s="27"/>
+      <c r="CE21" s="27"/>
+      <c r="CF21" s="27"/>
+      <c r="CG21" s="27"/>
+      <c r="CH21" s="27"/>
+      <c r="CI21" s="27"/>
+      <c r="CJ21" s="27"/>
+      <c r="CK21" s="27"/>
+      <c r="CL21" s="27"/>
+      <c r="CM21" s="27"/>
+      <c r="CN21" s="27"/>
+      <c r="CO21" s="27"/>
+      <c r="CP21" s="27"/>
+      <c r="CQ21" s="27"/>
+      <c r="CR21" s="27"/>
+      <c r="CS21" s="27"/>
+      <c r="CT21" s="27"/>
+      <c r="CU21" s="27"/>
+      <c r="CV21" s="27"/>
+      <c r="CW21" s="27"/>
+      <c r="CX21" s="27"/>
+      <c r="CY21" s="27"/>
+      <c r="CZ21" s="27"/>
+      <c r="DA21" s="27"/>
+      <c r="DB21" s="27"/>
+      <c r="DC21" s="27"/>
+      <c r="DD21" s="27"/>
+      <c r="DE21" s="27"/>
+      <c r="DF21" s="27"/>
+      <c r="DG21" s="27"/>
+      <c r="DH21" s="27"/>
+      <c r="DI21" s="27"/>
+      <c r="DJ21" s="27"/>
+      <c r="DK21" s="27"/>
+      <c r="DL21" s="27"/>
+      <c r="DM21" s="27"/>
+      <c r="DN21" s="27"/>
+      <c r="DO21" s="27"/>
+      <c r="DP21" s="27"/>
+      <c r="DQ21" s="27"/>
+      <c r="DR21" s="27"/>
+      <c r="DS21" s="27"/>
+      <c r="DT21" s="27"/>
+      <c r="DU21" s="27"/>
+      <c r="DV21" s="27"/>
+      <c r="DW21" s="27"/>
+      <c r="DX21" s="27"/>
+      <c r="DY21" s="27"/>
+      <c r="DZ21" s="27"/>
+      <c r="EA21" s="27"/>
+      <c r="EB21" s="27"/>
+      <c r="EC21" s="27"/>
+      <c r="ED21" s="27"/>
+      <c r="EE21" s="27"/>
+      <c r="EF21" s="27"/>
+      <c r="EG21" s="27"/>
+      <c r="EH21" s="27"/>
+      <c r="EI21" s="27"/>
+      <c r="EJ21" s="27"/>
+      <c r="EK21" s="27"/>
+      <c r="EL21" s="27"/>
+      <c r="EM21" s="27"/>
+      <c r="EN21" s="27"/>
+      <c r="EO21" s="27"/>
+      <c r="EP21" s="27"/>
+      <c r="EQ21" s="27"/>
+      <c r="ER21" s="27"/>
+      <c r="ES21" s="27"/>
+      <c r="ET21" s="27"/>
+      <c r="EU21" s="27"/>
+      <c r="EV21" s="27"/>
+      <c r="EW21" s="27"/>
+      <c r="EX21" s="27"/>
+      <c r="EY21" s="27"/>
+      <c r="EZ21" s="27"/>
+      <c r="FA21" s="27"/>
+      <c r="FB21" s="27"/>
+      <c r="FC21" s="27"/>
+      <c r="FD21" s="27"/>
+      <c r="FE21" s="27"/>
+      <c r="FF21" s="27"/>
+      <c r="FG21" s="27"/>
+      <c r="FH21" s="27"/>
+      <c r="FI21" s="27"/>
+      <c r="FJ21" s="27"/>
+      <c r="FK21" s="27"/>
+      <c r="FL21" s="27"/>
+      <c r="FM21" s="27"/>
+      <c r="FN21" s="27"/>
+      <c r="FO21" s="27"/>
+      <c r="FP21" s="27"/>
+      <c r="FQ21" s="27"/>
+      <c r="FR21" s="27"/>
+      <c r="FS21" s="27"/>
+      <c r="FT21" s="27"/>
+      <c r="FU21" s="27"/>
+      <c r="FV21" s="27"/>
+      <c r="FW21" s="27"/>
+      <c r="FX21" s="27"/>
+      <c r="FY21" s="27"/>
+      <c r="FZ21" s="27"/>
+      <c r="GA21" s="27"/>
+      <c r="GB21" s="27"/>
+      <c r="GC21" s="27"/>
+      <c r="GD21" s="27"/>
+      <c r="GE21" s="27"/>
+      <c r="GF21" s="27"/>
+      <c r="GG21" s="27"/>
+      <c r="GH21" s="27"/>
+      <c r="GI21" s="27"/>
+      <c r="GJ21" s="27"/>
+      <c r="GK21" s="27"/>
+      <c r="GL21" s="27"/>
+      <c r="GM21" s="27"/>
+      <c r="GN21" s="27"/>
+      <c r="GO21" s="27"/>
+      <c r="GP21" s="27"/>
+      <c r="GQ21" s="27"/>
+      <c r="GR21" s="27"/>
+      <c r="GS21" s="27"/>
+      <c r="GT21" s="27"/>
+      <c r="GU21" s="27"/>
+      <c r="GV21" s="27"/>
+      <c r="GW21" s="27"/>
+      <c r="GX21" s="27"/>
+      <c r="GY21" s="27"/>
+      <c r="GZ21" s="27"/>
+      <c r="HA21" s="27"/>
+      <c r="HB21" s="27"/>
+      <c r="HC21" s="27"/>
+      <c r="HD21" s="27"/>
+      <c r="HE21" s="27"/>
+      <c r="HF21" s="27"/>
+      <c r="HG21" s="27"/>
+      <c r="HH21" s="27"/>
+      <c r="HI21" s="27"/>
+      <c r="HJ21" s="27"/>
+      <c r="HK21" s="27"/>
+      <c r="HL21" s="27"/>
+      <c r="HM21" s="27"/>
+      <c r="HN21" s="27"/>
+      <c r="HO21" s="27"/>
+      <c r="HP21" s="27"/>
+      <c r="HQ21" s="27"/>
+      <c r="HR21" s="27"/>
+      <c r="HS21" s="27"/>
+      <c r="HT21" s="27"/>
+      <c r="HU21" s="27"/>
+      <c r="HV21" s="27"/>
+      <c r="HW21" s="27"/>
+      <c r="HX21" s="27"/>
+      <c r="HY21" s="27"/>
+      <c r="HZ21" s="27"/>
+      <c r="IA21" s="27"/>
+      <c r="IB21" s="27"/>
+      <c r="IC21" s="27"/>
+      <c r="ID21" s="27"/>
+      <c r="IE21" s="27"/>
+      <c r="IF21" s="27"/>
+      <c r="IG21" s="27"/>
+      <c r="IH21" s="27"/>
+      <c r="II21" s="27"/>
+      <c r="IJ21" s="27"/>
+      <c r="IK21" s="27"/>
+      <c r="IL21" s="27"/>
+      <c r="IM21" s="27"/>
+      <c r="IN21" s="27"/>
+      <c r="IO21" s="27"/>
+      <c r="IP21" s="27"/>
+      <c r="IQ21" s="27"/>
+      <c r="IR21" s="27"/>
+      <c r="IS21" s="27"/>
+      <c r="IT21" s="27"/>
+      <c r="IU21" s="27"/>
+      <c r="IV21" s="27"/>
+      <c r="IW21" s="27"/>
+      <c r="IX21" s="27"/>
+      <c r="IY21" s="27"/>
+      <c r="IZ21" s="27"/>
+      <c r="JA21" s="27"/>
+      <c r="JB21" s="27"/>
+      <c r="JC21" s="27"/>
+      <c r="JD21" s="27"/>
+      <c r="JE21" s="27"/>
+      <c r="JF21" s="27"/>
+      <c r="JG21" s="27"/>
+      <c r="JH21" s="27"/>
+      <c r="JI21" s="27"/>
+      <c r="JJ21" s="27"/>
+      <c r="JK21" s="27"/>
+      <c r="JL21" s="27"/>
+      <c r="JM21" s="27"/>
+      <c r="JN21" s="27"/>
+      <c r="JO21" s="27"/>
+      <c r="JP21" s="27"/>
+      <c r="JQ21" s="27"/>
+      <c r="JR21" s="27"/>
+      <c r="JS21" s="27"/>
+      <c r="JT21" s="27"/>
+      <c r="JU21" s="27"/>
+      <c r="JV21" s="27"/>
+      <c r="JW21" s="27"/>
+      <c r="JX21" s="27"/>
+      <c r="JY21" s="27"/>
+      <c r="JZ21" s="27"/>
+      <c r="KA21" s="27"/>
+      <c r="KB21" s="27"/>
+      <c r="KC21" s="27"/>
+      <c r="KD21" s="27"/>
+      <c r="KE21" s="27"/>
+      <c r="KF21" s="27"/>
+      <c r="KG21" s="27"/>
+      <c r="KH21" s="27"/>
+      <c r="KI21" s="27"/>
+      <c r="KJ21" s="27"/>
+      <c r="KK21" s="27"/>
+      <c r="KL21" s="27"/>
+      <c r="KM21" s="27"/>
+      <c r="KN21" s="27"/>
+      <c r="KO21" s="27"/>
+      <c r="KP21" s="27"/>
+      <c r="KQ21" s="27"/>
+      <c r="KR21" s="27"/>
+      <c r="KS21" s="27"/>
+      <c r="KT21" s="27"/>
+      <c r="KU21" s="27"/>
+      <c r="KV21" s="27"/>
+      <c r="KW21" s="27"/>
+      <c r="KX21" s="27"/>
+      <c r="KY21" s="27"/>
+      <c r="KZ21" s="27"/>
+      <c r="LA21" s="27"/>
+      <c r="LB21" s="27"/>
+      <c r="LC21" s="27"/>
+      <c r="LD21" s="27"/>
+      <c r="LE21" s="27"/>
+      <c r="LF21" s="27"/>
+      <c r="LG21" s="27"/>
+      <c r="LH21" s="27"/>
+      <c r="LI21" s="27"/>
+      <c r="LJ21" s="27"/>
+      <c r="LK21" s="27"/>
+      <c r="LL21" s="27"/>
+      <c r="LM21" s="27"/>
+      <c r="LN21" s="27"/>
+      <c r="LO21" s="27"/>
+      <c r="LP21" s="27"/>
+      <c r="LQ21" s="27"/>
+      <c r="LR21" s="27"/>
+      <c r="LS21" s="27"/>
+      <c r="LT21" s="27"/>
+      <c r="LU21" s="27"/>
+      <c r="LV21" s="27"/>
+      <c r="LW21" s="27"/>
+      <c r="LX21" s="27"/>
+      <c r="LY21" s="27"/>
+      <c r="LZ21" s="27"/>
+      <c r="MA21" s="27"/>
+      <c r="MB21" s="27"/>
+      <c r="MC21" s="27"/>
+      <c r="MD21" s="27"/>
+      <c r="ME21" s="27"/>
+      <c r="MF21" s="27"/>
+      <c r="MG21" s="27"/>
+      <c r="MH21" s="27"/>
+      <c r="MI21" s="27"/>
+      <c r="MJ21" s="27"/>
+      <c r="MK21" s="27"/>
+      <c r="ML21" s="27"/>
+      <c r="MM21" s="27"/>
+      <c r="MN21" s="27"/>
+      <c r="MO21" s="27"/>
+      <c r="MP21" s="27"/>
+      <c r="MQ21" s="27"/>
+      <c r="MR21" s="27"/>
+      <c r="MS21" s="27"/>
+      <c r="MT21" s="27"/>
+      <c r="MU21" s="27"/>
+      <c r="MV21" s="27"/>
+      <c r="MW21" s="27"/>
+      <c r="MX21" s="27"/>
+      <c r="MY21" s="27"/>
+      <c r="MZ21" s="27"/>
+      <c r="NA21" s="27"/>
+      <c r="NB21" s="27"/>
+      <c r="NC21" s="27"/>
+      <c r="ND21" s="27"/>
+      <c r="NE21" s="27"/>
+      <c r="NF21" s="27"/>
+      <c r="NG21" s="27"/>
+      <c r="NH21" s="27"/>
+      <c r="NI21" s="27"/>
+      <c r="NJ21" s="27"/>
+      <c r="NK21" s="27"/>
+      <c r="NL21" s="27"/>
+      <c r="NM21" s="27"/>
+      <c r="NN21" s="27"/>
+      <c r="NO21" s="27"/>
+      <c r="NP21" s="27"/>
+      <c r="NQ21" s="27"/>
+      <c r="NR21" s="27"/>
+      <c r="NS21" s="27"/>
+      <c r="NT21" s="27"/>
+      <c r="NU21" s="27"/>
+      <c r="NV21" s="27"/>
+      <c r="NW21" s="27"/>
+      <c r="NX21" s="27"/>
+      <c r="NY21" s="27"/>
+      <c r="NZ21" s="27"/>
+      <c r="OA21" s="27"/>
+      <c r="OB21" s="27"/>
+      <c r="OC21" s="27"/>
+      <c r="OD21" s="27"/>
+      <c r="OE21" s="27"/>
+      <c r="OF21" s="27"/>
+      <c r="OG21" s="27"/>
+      <c r="OH21" s="27"/>
+      <c r="OI21" s="27"/>
+      <c r="OJ21" s="27"/>
+      <c r="OK21" s="27"/>
+      <c r="OL21" s="27"/>
+      <c r="OM21" s="27"/>
+      <c r="ON21" s="27"/>
+      <c r="OO21" s="27"/>
+      <c r="OP21" s="27"/>
+      <c r="OQ21" s="27"/>
+      <c r="OR21" s="27"/>
+      <c r="OS21" s="27"/>
+      <c r="OT21" s="27"/>
+      <c r="OU21" s="27"/>
+      <c r="OV21" s="27"/>
+      <c r="OW21" s="27"/>
+      <c r="OX21" s="27"/>
+      <c r="OY21" s="27"/>
+      <c r="OZ21" s="27"/>
+      <c r="PA21" s="27"/>
+      <c r="PB21" s="27"/>
+      <c r="PC21" s="27"/>
+      <c r="PD21" s="27"/>
+      <c r="PE21" s="27"/>
+      <c r="PF21" s="27"/>
+      <c r="PG21" s="27"/>
+      <c r="PH21" s="27"/>
+      <c r="PI21" s="27"/>
+      <c r="PJ21" s="27"/>
+      <c r="PK21" s="27"/>
+      <c r="PL21" s="27"/>
+      <c r="PM21" s="27"/>
+      <c r="PN21" s="27"/>
+      <c r="PO21" s="27"/>
+      <c r="PP21" s="27"/>
+      <c r="PQ21" s="27"/>
+      <c r="PR21" s="27"/>
+      <c r="PS21" s="27"/>
+      <c r="PT21" s="27"/>
+      <c r="PU21" s="27"/>
+      <c r="PV21" s="27"/>
+      <c r="PW21" s="27"/>
+      <c r="PX21" s="27"/>
+      <c r="PY21" s="27"/>
+      <c r="PZ21" s="27"/>
+      <c r="QA21" s="27"/>
+      <c r="QB21" s="27"/>
+      <c r="QC21" s="27"/>
+      <c r="QD21" s="27"/>
+      <c r="QE21" s="27"/>
+      <c r="QF21" s="27"/>
+      <c r="QG21" s="27"/>
+      <c r="QH21" s="27"/>
+      <c r="QI21" s="27"/>
+      <c r="QJ21" s="27"/>
+      <c r="QK21" s="27"/>
+      <c r="QL21" s="27"/>
+      <c r="QM21" s="27"/>
+      <c r="QN21" s="27"/>
+      <c r="QO21" s="27"/>
+      <c r="QP21" s="27"/>
+      <c r="QQ21" s="27"/>
+      <c r="QR21" s="27"/>
+      <c r="QS21" s="27"/>
+      <c r="QT21" s="27"/>
+      <c r="QU21" s="27"/>
+      <c r="QV21" s="27"/>
+      <c r="QW21" s="27"/>
+      <c r="QX21" s="27"/>
+      <c r="QY21" s="27"/>
+      <c r="QZ21" s="27"/>
+      <c r="RA21" s="27"/>
+      <c r="RB21" s="27"/>
+      <c r="RC21" s="27"/>
+      <c r="RD21" s="27"/>
+      <c r="RE21" s="27"/>
+      <c r="RF21" s="27"/>
+      <c r="RG21" s="27"/>
+      <c r="RH21" s="27"/>
+      <c r="RI21" s="27"/>
+      <c r="RJ21" s="27"/>
+      <c r="RK21" s="27"/>
+      <c r="RL21" s="27"/>
+      <c r="RM21" s="27"/>
+      <c r="RN21" s="27"/>
+      <c r="RO21" s="27"/>
+      <c r="RP21" s="27"/>
+      <c r="RQ21" s="27"/>
+      <c r="RR21" s="27"/>
+      <c r="RS21" s="27"/>
+      <c r="RT21" s="27"/>
+      <c r="RU21" s="27"/>
+      <c r="RV21" s="27"/>
+      <c r="RW21" s="27"/>
+      <c r="RX21" s="27"/>
+      <c r="RY21" s="27"/>
+      <c r="RZ21" s="27"/>
+      <c r="SA21" s="27"/>
+      <c r="SB21" s="27"/>
+      <c r="SC21" s="27"/>
+      <c r="SD21" s="27"/>
+      <c r="SE21" s="27"/>
+      <c r="SF21" s="27"/>
+      <c r="SG21" s="27"/>
+      <c r="SH21" s="27"/>
+      <c r="SI21" s="27"/>
+      <c r="SJ21" s="27"/>
+      <c r="SK21" s="27"/>
+      <c r="SL21" s="27"/>
+      <c r="SM21" s="27"/>
+      <c r="SN21" s="27"/>
+      <c r="SO21" s="27"/>
+      <c r="SP21" s="27"/>
+      <c r="SQ21" s="27"/>
+      <c r="SR21" s="27"/>
+      <c r="SS21" s="27"/>
+      <c r="ST21" s="27"/>
+      <c r="SU21" s="27"/>
+      <c r="SV21" s="27"/>
+      <c r="SW21" s="27"/>
+      <c r="SX21" s="27"/>
+      <c r="SY21" s="27"/>
+      <c r="SZ21" s="27"/>
+      <c r="TA21" s="27"/>
+      <c r="TB21" s="27"/>
+      <c r="TC21" s="27"/>
+      <c r="TD21" s="27"/>
+      <c r="TE21" s="27"/>
+      <c r="TF21" s="27"/>
+      <c r="TG21" s="27"/>
+      <c r="TH21" s="27"/>
+      <c r="TI21" s="27"/>
+      <c r="TJ21" s="27"/>
+      <c r="TK21" s="27"/>
+      <c r="TL21" s="27"/>
+      <c r="TM21" s="27"/>
+      <c r="TN21" s="27"/>
+      <c r="TO21" s="27"/>
+      <c r="TP21" s="27"/>
+      <c r="TQ21" s="27"/>
+      <c r="TR21" s="27"/>
+      <c r="TS21" s="27"/>
+      <c r="TT21" s="27"/>
+      <c r="TU21" s="27"/>
+      <c r="TV21" s="27"/>
+      <c r="TW21" s="27"/>
+      <c r="TX21" s="27"/>
+      <c r="TY21" s="27"/>
+      <c r="TZ21" s="27"/>
+      <c r="UA21" s="27"/>
+      <c r="UB21" s="27"/>
+      <c r="UC21" s="27"/>
+      <c r="UD21" s="27"/>
+      <c r="UE21" s="27"/>
+      <c r="UF21" s="27"/>
+      <c r="UG21" s="27"/>
+      <c r="UH21" s="27"/>
+      <c r="UI21" s="27"/>
+      <c r="UJ21" s="27"/>
+      <c r="UK21" s="27"/>
+      <c r="UL21" s="27"/>
+      <c r="UM21" s="27"/>
+      <c r="UN21" s="27"/>
+      <c r="UO21" s="27"/>
+      <c r="UP21" s="27"/>
+      <c r="UQ21" s="27"/>
+      <c r="UR21" s="27"/>
+      <c r="US21" s="27"/>
+      <c r="UT21" s="27"/>
+      <c r="UU21" s="27"/>
+      <c r="UV21" s="27"/>
+      <c r="UW21" s="27"/>
+      <c r="UX21" s="27"/>
+      <c r="UY21" s="27"/>
+      <c r="UZ21" s="27"/>
+      <c r="VA21" s="27"/>
+      <c r="VB21" s="27"/>
+      <c r="VC21" s="27"/>
+      <c r="VD21" s="27"/>
+      <c r="VE21" s="27"/>
+      <c r="VF21" s="27"/>
+      <c r="VG21" s="27"/>
+      <c r="VH21" s="27"/>
+      <c r="VI21" s="27"/>
+      <c r="VJ21" s="27"/>
+      <c r="VK21" s="27"/>
+      <c r="VL21" s="27"/>
+      <c r="VM21" s="27"/>
+      <c r="VN21" s="27"/>
+      <c r="VO21" s="27"/>
+      <c r="VP21" s="27"/>
+      <c r="VQ21" s="27"/>
+      <c r="VR21" s="27"/>
+      <c r="VS21" s="27"/>
+      <c r="VT21" s="27"/>
+      <c r="VU21" s="27"/>
+      <c r="VV21" s="27"/>
+      <c r="VW21" s="27"/>
+      <c r="VX21" s="27"/>
+      <c r="VY21" s="27"/>
+      <c r="VZ21" s="27"/>
+      <c r="WA21" s="27"/>
+      <c r="WB21" s="27"/>
+      <c r="WC21" s="27"/>
+      <c r="WD21" s="27"/>
+      <c r="WE21" s="27"/>
+      <c r="WF21" s="27"/>
+      <c r="WG21" s="27"/>
+      <c r="WH21" s="27"/>
+      <c r="WI21" s="27"/>
+      <c r="WJ21" s="27"/>
+      <c r="WK21" s="27"/>
+      <c r="WL21" s="27"/>
+      <c r="WM21" s="27"/>
+      <c r="WN21" s="27"/>
+      <c r="WO21" s="27"/>
+      <c r="WP21" s="27"/>
+      <c r="WQ21" s="27"/>
+      <c r="WR21" s="27"/>
+      <c r="WS21" s="27"/>
+      <c r="WT21" s="27"/>
+      <c r="WU21" s="27"/>
+      <c r="WV21" s="27"/>
+      <c r="WW21" s="27"/>
+      <c r="WX21" s="27"/>
+      <c r="WY21" s="27"/>
+      <c r="WZ21" s="27"/>
+      <c r="XA21" s="27"/>
+      <c r="XB21" s="27"/>
+      <c r="XC21" s="27"/>
+      <c r="XD21" s="27"/>
+      <c r="XE21" s="27"/>
+      <c r="XF21" s="27"/>
+      <c r="XG21" s="27"/>
+      <c r="XH21" s="27"/>
+      <c r="XI21" s="27"/>
+      <c r="XJ21" s="27"/>
+      <c r="XK21" s="27"/>
+      <c r="XL21" s="27"/>
+      <c r="XM21" s="27"/>
+      <c r="XN21" s="27"/>
+      <c r="XO21" s="27"/>
+      <c r="XP21" s="27"/>
+      <c r="XQ21" s="27"/>
+      <c r="XR21" s="27"/>
+      <c r="XS21" s="27"/>
+      <c r="XT21" s="27"/>
+      <c r="XU21" s="27"/>
+      <c r="XV21" s="27"/>
+      <c r="XW21" s="27"/>
+      <c r="XX21" s="27"/>
+      <c r="XY21" s="27"/>
+      <c r="XZ21" s="27"/>
+      <c r="YA21" s="27"/>
+      <c r="YB21" s="27"/>
+      <c r="YC21" s="27"/>
+      <c r="YD21" s="27"/>
+      <c r="YE21" s="27"/>
+      <c r="YF21" s="27"/>
+      <c r="YG21" s="27"/>
+      <c r="YH21" s="27"/>
+      <c r="YI21" s="27"/>
+      <c r="YJ21" s="27"/>
+      <c r="YK21" s="27"/>
+      <c r="YL21" s="27"/>
+      <c r="YM21" s="27"/>
+      <c r="YN21" s="27"/>
+      <c r="YO21" s="27"/>
+      <c r="YP21" s="27"/>
+      <c r="YQ21" s="27"/>
+      <c r="YR21" s="27"/>
+      <c r="YS21" s="27"/>
+      <c r="YT21" s="27"/>
+      <c r="YU21" s="27"/>
+      <c r="YV21" s="27"/>
+      <c r="YW21" s="27"/>
+      <c r="YX21" s="27"/>
+      <c r="YY21" s="27"/>
+      <c r="YZ21" s="27"/>
+      <c r="ZA21" s="27"/>
+      <c r="ZB21" s="27"/>
+      <c r="ZC21" s="27"/>
+      <c r="ZD21" s="27"/>
+      <c r="ZE21" s="27"/>
+      <c r="ZF21" s="27"/>
+      <c r="ZG21" s="27"/>
+      <c r="ZH21" s="27"/>
+      <c r="ZI21" s="27"/>
+      <c r="ZJ21" s="27"/>
+      <c r="ZK21" s="27"/>
+      <c r="ZL21" s="27"/>
+      <c r="ZM21" s="27"/>
+      <c r="ZN21" s="27"/>
+      <c r="ZO21" s="27"/>
+      <c r="ZP21" s="27"/>
+      <c r="ZQ21" s="27"/>
+      <c r="ZR21" s="27"/>
+      <c r="ZS21" s="27"/>
+      <c r="ZT21" s="27"/>
+      <c r="ZU21" s="27"/>
+      <c r="ZV21" s="27"/>
+      <c r="ZW21" s="27"/>
+      <c r="ZX21" s="27"/>
+      <c r="ZY21" s="27"/>
+      <c r="ZZ21" s="27"/>
+      <c r="AAA21" s="27"/>
+      <c r="AAB21" s="27"/>
+      <c r="AAC21" s="27"/>
+      <c r="AAD21" s="27"/>
+      <c r="AAE21" s="27"/>
+      <c r="AAF21" s="27"/>
+      <c r="AAG21" s="27"/>
+      <c r="AAH21" s="27"/>
+      <c r="AAI21" s="27"/>
+      <c r="AAJ21" s="27"/>
+      <c r="AAK21" s="27"/>
+      <c r="AAL21" s="27"/>
+      <c r="AAM21" s="27"/>
+      <c r="AAN21" s="27"/>
+      <c r="AAO21" s="27"/>
+      <c r="AAP21" s="27"/>
+      <c r="AAQ21" s="27"/>
+      <c r="AAR21" s="27"/>
+      <c r="AAS21" s="27"/>
+      <c r="AAT21" s="27"/>
+      <c r="AAU21" s="27"/>
+      <c r="AAV21" s="27"/>
+      <c r="AAW21" s="27"/>
+      <c r="AAX21" s="27"/>
+      <c r="AAY21" s="27"/>
+      <c r="AAZ21" s="27"/>
+      <c r="ABA21" s="27"/>
+      <c r="ABB21" s="27"/>
+      <c r="ABC21" s="27"/>
+      <c r="ABD21" s="27"/>
+      <c r="ABE21" s="27"/>
+      <c r="ABF21" s="27"/>
+      <c r="ABG21" s="27"/>
+      <c r="ABH21" s="27"/>
+      <c r="ABI21" s="27"/>
+      <c r="ABJ21" s="27"/>
+      <c r="ABK21" s="27"/>
+      <c r="ABL21" s="27"/>
+      <c r="ABM21" s="27"/>
+      <c r="ABN21" s="27"/>
+      <c r="ABO21" s="27"/>
+      <c r="ABP21" s="27"/>
+      <c r="ABQ21" s="27"/>
+      <c r="ABR21" s="27"/>
+      <c r="ABS21" s="27"/>
+      <c r="ABT21" s="27"/>
+      <c r="ABU21" s="27"/>
+      <c r="ABV21" s="27"/>
+      <c r="ABW21" s="27"/>
+      <c r="ABX21" s="27"/>
+      <c r="ABY21" s="27"/>
+      <c r="ABZ21" s="27"/>
+      <c r="ACA21" s="27"/>
+      <c r="ACB21" s="27"/>
+      <c r="ACC21" s="27"/>
+      <c r="ACD21" s="27"/>
+      <c r="ACE21" s="27"/>
+      <c r="ACF21" s="27"/>
+      <c r="ACG21" s="27"/>
+      <c r="ACH21" s="27"/>
+      <c r="ACI21" s="27"/>
+      <c r="ACJ21" s="27"/>
+      <c r="ACK21" s="27"/>
+      <c r="ACL21" s="27"/>
+      <c r="ACM21" s="27"/>
+      <c r="ACN21" s="27"/>
+      <c r="ACO21" s="27"/>
+      <c r="ACP21" s="27"/>
+      <c r="ACQ21" s="27"/>
+      <c r="ACR21" s="27"/>
+      <c r="ACS21" s="27"/>
+      <c r="ACT21" s="27"/>
+      <c r="ACU21" s="27"/>
+      <c r="ACV21" s="27"/>
+      <c r="ACW21" s="27"/>
+      <c r="ACX21" s="27"/>
+      <c r="ACY21" s="27"/>
+      <c r="ACZ21" s="27"/>
+      <c r="ADA21" s="27"/>
+      <c r="ADB21" s="27"/>
+      <c r="ADC21" s="27"/>
+      <c r="ADD21" s="27"/>
+      <c r="ADE21" s="27"/>
+      <c r="ADF21" s="27"/>
+      <c r="ADG21" s="27"/>
+      <c r="ADH21" s="27"/>
+      <c r="ADI21" s="27"/>
+      <c r="ADJ21" s="27"/>
+      <c r="ADK21" s="27"/>
+      <c r="ADL21" s="27"/>
+      <c r="ADM21" s="27"/>
+      <c r="ADN21" s="27"/>
+      <c r="ADO21" s="27"/>
+      <c r="ADP21" s="27"/>
+      <c r="ADQ21" s="27"/>
+      <c r="ADR21" s="27"/>
+      <c r="ADS21" s="27"/>
+      <c r="ADT21" s="27"/>
+      <c r="ADU21" s="27"/>
+      <c r="ADV21" s="27"/>
+      <c r="ADW21" s="27"/>
+      <c r="ADX21" s="27"/>
+      <c r="ADY21" s="27"/>
+      <c r="ADZ21" s="27"/>
+      <c r="AEA21" s="27"/>
+      <c r="AEB21" s="27"/>
+      <c r="AEC21" s="27"/>
+      <c r="AED21" s="27"/>
+      <c r="AEE21" s="27"/>
+      <c r="AEF21" s="27"/>
+      <c r="AEG21" s="27"/>
+      <c r="AEH21" s="27"/>
+      <c r="AEI21" s="27"/>
+      <c r="AEJ21" s="27"/>
+      <c r="AEK21" s="27"/>
+      <c r="AEL21" s="27"/>
+      <c r="AEM21" s="27"/>
+      <c r="AEN21" s="27"/>
+      <c r="AEO21" s="27"/>
+      <c r="AEP21" s="27"/>
+      <c r="AEQ21" s="27"/>
+      <c r="AER21" s="27"/>
+      <c r="AES21" s="27"/>
+      <c r="AET21" s="27"/>
+      <c r="AEU21" s="27"/>
+      <c r="AEV21" s="27"/>
+      <c r="AEW21" s="27"/>
+      <c r="AEX21" s="27"/>
+      <c r="AEY21" s="27"/>
+      <c r="AEZ21" s="27"/>
+      <c r="AFA21" s="27"/>
+      <c r="AFB21" s="27"/>
+      <c r="AFC21" s="27"/>
+      <c r="AFD21" s="27"/>
+      <c r="AFE21" s="27"/>
+      <c r="AFF21" s="27"/>
+      <c r="AFG21" s="27"/>
+      <c r="AFH21" s="27"/>
+      <c r="AFI21" s="27"/>
+      <c r="AFJ21" s="27"/>
+      <c r="AFK21" s="27"/>
+      <c r="AFL21" s="27"/>
+      <c r="AFM21" s="27"/>
+      <c r="AFN21" s="27"/>
+      <c r="AFO21" s="27"/>
+      <c r="AFP21" s="27"/>
+      <c r="AFQ21" s="27"/>
+      <c r="AFR21" s="27"/>
+      <c r="AFS21" s="27"/>
+      <c r="AFT21" s="27"/>
+      <c r="AFU21" s="27"/>
+      <c r="AFV21" s="27"/>
+      <c r="AFW21" s="27"/>
+      <c r="AFX21" s="27"/>
+      <c r="AFY21" s="27"/>
+      <c r="AFZ21" s="27"/>
+      <c r="AGA21" s="27"/>
+      <c r="AGB21" s="27"/>
+      <c r="AGC21" s="27"/>
+      <c r="AGD21" s="27"/>
+      <c r="AGE21" s="27"/>
+      <c r="AGF21" s="27"/>
+      <c r="AGG21" s="27"/>
+      <c r="AGH21" s="27"/>
+      <c r="AGI21" s="27"/>
+      <c r="AGJ21" s="27"/>
+      <c r="AGK21" s="27"/>
+      <c r="AGL21" s="27"/>
+      <c r="AGM21" s="27"/>
+      <c r="AGN21" s="27"/>
+      <c r="AGO21" s="27"/>
+      <c r="AGP21" s="27"/>
+      <c r="AGQ21" s="27"/>
+      <c r="AGR21" s="27"/>
+      <c r="AGS21" s="27"/>
+      <c r="AGT21" s="27"/>
+      <c r="AGU21" s="27"/>
+      <c r="AGV21" s="27"/>
+      <c r="AGW21" s="27"/>
+      <c r="AGX21" s="27"/>
+      <c r="AGY21" s="27"/>
+      <c r="AGZ21" s="27"/>
+      <c r="AHA21" s="27"/>
+      <c r="AHB21" s="27"/>
+      <c r="AHC21" s="27"/>
+      <c r="AHD21" s="27"/>
+      <c r="AHE21" s="27"/>
+      <c r="AHF21" s="27"/>
+      <c r="AHG21" s="27"/>
+      <c r="AHH21" s="27"/>
+      <c r="AHI21" s="27"/>
+      <c r="AHJ21" s="27"/>
+      <c r="AHK21" s="27"/>
+      <c r="AHL21" s="27"/>
+      <c r="AHM21" s="27"/>
+      <c r="AHN21" s="27"/>
+      <c r="AHO21" s="27"/>
+      <c r="AHP21" s="27"/>
+      <c r="AHQ21" s="27"/>
+      <c r="AHR21" s="27"/>
+      <c r="AHS21" s="27"/>
+      <c r="AHT21" s="27"/>
+      <c r="AHU21" s="27"/>
+      <c r="AHV21" s="27"/>
+      <c r="AHW21" s="27"/>
+      <c r="AHX21" s="27"/>
+      <c r="AHY21" s="27"/>
+      <c r="AHZ21" s="27"/>
+      <c r="AIA21" s="27"/>
+      <c r="AIB21" s="27"/>
+      <c r="AIC21" s="27"/>
+      <c r="AID21" s="27"/>
+      <c r="AIE21" s="27"/>
+      <c r="AIF21" s="27"/>
+      <c r="AIG21" s="27"/>
+      <c r="AIH21" s="27"/>
+      <c r="AII21" s="27"/>
+      <c r="AIJ21" s="27"/>
+      <c r="AIK21" s="27"/>
+      <c r="AIL21" s="27"/>
+      <c r="AIM21" s="27"/>
+      <c r="AIN21" s="27"/>
+      <c r="AIO21" s="27"/>
+      <c r="AIP21" s="27"/>
+      <c r="AIQ21" s="27"/>
+      <c r="AIR21" s="27"/>
+      <c r="AIS21" s="27"/>
+      <c r="AIT21" s="27"/>
+      <c r="AIU21" s="27"/>
+      <c r="AIV21" s="27"/>
+      <c r="AIW21" s="27"/>
+      <c r="AIX21" s="27"/>
+      <c r="AIY21" s="27"/>
+      <c r="AIZ21" s="27"/>
+      <c r="AJA21" s="27"/>
+      <c r="AJB21" s="27"/>
+      <c r="AJC21" s="27"/>
+      <c r="AJD21" s="27"/>
+      <c r="AJE21" s="27"/>
+      <c r="AJF21" s="27"/>
+      <c r="AJG21" s="27"/>
+      <c r="AJH21" s="27"/>
+      <c r="AJI21" s="27"/>
+      <c r="AJJ21" s="27"/>
+      <c r="AJK21" s="27"/>
+      <c r="AJL21" s="27"/>
+      <c r="AJM21" s="27"/>
+      <c r="AJN21" s="27"/>
+      <c r="AJO21" s="27"/>
+      <c r="AJP21" s="27"/>
+      <c r="AJQ21" s="27"/>
+      <c r="AJR21" s="27"/>
+      <c r="AJS21" s="27"/>
+      <c r="AJT21" s="27"/>
+      <c r="AJU21" s="27"/>
+      <c r="AJV21" s="27"/>
+      <c r="AJW21" s="27"/>
+      <c r="AJX21" s="27"/>
+      <c r="AJY21" s="27"/>
+      <c r="AJZ21" s="27"/>
+      <c r="AKA21" s="27"/>
+      <c r="AKB21" s="27"/>
+      <c r="AKC21" s="27"/>
+      <c r="AKD21" s="27"/>
+      <c r="AKE21" s="27"/>
+      <c r="AKF21" s="27"/>
+      <c r="AKG21" s="27"/>
+      <c r="AKH21" s="27"/>
+      <c r="AKI21" s="27"/>
+      <c r="AKJ21" s="27"/>
+      <c r="AKK21" s="27"/>
+      <c r="AKL21" s="27"/>
+      <c r="AKM21" s="27"/>
+      <c r="AKN21" s="27"/>
+      <c r="AKO21" s="27"/>
+      <c r="AKP21" s="27"/>
+      <c r="AKQ21" s="27"/>
+      <c r="AKR21" s="27"/>
+      <c r="AKS21" s="27"/>
+      <c r="AKT21" s="27"/>
+      <c r="AKU21" s="27"/>
+      <c r="AKV21" s="27"/>
+      <c r="AKW21" s="27"/>
+      <c r="AKX21" s="27"/>
+      <c r="AKY21" s="27"/>
+      <c r="AKZ21" s="27"/>
+      <c r="ALA21" s="27"/>
+      <c r="ALB21" s="27"/>
+      <c r="ALC21" s="27"/>
+      <c r="ALD21" s="27"/>
+      <c r="ALE21" s="27"/>
+      <c r="ALF21" s="27"/>
+      <c r="ALG21" s="27"/>
+      <c r="ALH21" s="27"/>
+      <c r="ALI21" s="27"/>
+      <c r="ALJ21" s="27"/>
+      <c r="ALK21" s="27"/>
+      <c r="ALL21" s="27"/>
+      <c r="ALM21" s="27"/>
+      <c r="ALN21" s="27"/>
+      <c r="ALO21" s="27"/>
+      <c r="ALP21" s="27"/>
+      <c r="ALQ21" s="27"/>
+      <c r="ALR21" s="27"/>
+      <c r="ALS21" s="27"/>
+      <c r="ALT21" s="27"/>
+      <c r="ALU21" s="27"/>
+      <c r="ALV21" s="27"/>
+      <c r="ALW21" s="27"/>
+      <c r="ALX21" s="27"/>
+      <c r="ALY21" s="27"/>
+      <c r="ALZ21" s="27"/>
+      <c r="AMA21" s="27"/>
+      <c r="AMB21" s="27"/>
+      <c r="AMC21" s="27"/>
+      <c r="AMD21" s="27"/>
+      <c r="AME21" s="27"/>
+      <c r="AMF21" s="27"/>
+      <c r="AMG21" s="27"/>
+      <c r="AMH21" s="27"/>
+      <c r="AMI21" s="27"/>
+      <c r="AMJ21" s="27"/>
+      <c r="AMK21" s="27"/>
+      <c r="AML21" s="27"/>
+      <c r="AMM21" s="27"/>
+      <c r="AMN21" s="27"/>
+      <c r="AMO21" s="27"/>
+      <c r="AMP21" s="27"/>
+      <c r="AMQ21" s="27"/>
+      <c r="AMR21" s="27"/>
+      <c r="AMS21" s="27"/>
     </row>
-    <row r="22" s="24" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="n">
         <v>1016</v>
       </c>
@@ -10260,93 +10259,1101 @@
       <c r="AMR22" s="15"/>
       <c r="AMS22" s="15"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="n">
+    <row r="23" s="34" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="24" t="n">
         <v>1017</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="27" t="n">
+      <c r="F23" s="24"/>
+      <c r="G23" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="H23" s="27" t="n">
+      <c r="H23" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="35" t="n">
+      <c r="I23" s="26"/>
+      <c r="J23" s="33" t="n">
         <v>326271</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="M23" s="35" t="s">
+      <c r="M23" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="N23" s="33" t="s">
+      <c r="N23" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="O23" s="28" t="s">
+      <c r="O23" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="T23" s="1" t="n">
+      <c r="P23" s="27" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="27" t="n">
+        <v>15</v>
+      </c>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="X23" s="1" t="n">
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27" t="n">
+        <v>200133</v>
+      </c>
+      <c r="X23" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Y23" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="Z23" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AA23" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="AB23" s="1" t="s">
+      <c r="AB23" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="AC23" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF23" s="1" t="n">
-        <v>20270</v>
-      </c>
-      <c r="AH23" s="1" t="s">
+      <c r="AC23" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD23" s="27" t="n">
+        <v>279748</v>
+      </c>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27" t="n">
+        <v>122228</v>
+      </c>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="AI23" s="8" t="s">
+      <c r="AI23" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AT23" s="9"/>
-      <c r="AU23" s="8"/>
-      <c r="AV23" s="9"/>
-      <c r="AY23" s="8"/>
-      <c r="BB23" s="8"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="27"/>
+      <c r="AT23" s="31"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="31"/>
+      <c r="AW23" s="27"/>
+      <c r="AX23" s="27"/>
+      <c r="AY23" s="32"/>
+      <c r="AZ23" s="27"/>
+      <c r="BA23" s="27"/>
+      <c r="BB23" s="32"/>
+      <c r="BC23" s="27"/>
+      <c r="BD23" s="27"/>
+      <c r="BE23" s="27"/>
+      <c r="BF23" s="27"/>
+      <c r="BG23" s="27"/>
+      <c r="BH23" s="27"/>
+      <c r="BI23" s="27"/>
+      <c r="BJ23" s="27"/>
+      <c r="BK23" s="27"/>
+      <c r="BL23" s="27"/>
+      <c r="BM23" s="27"/>
+      <c r="BN23" s="27"/>
+      <c r="BO23" s="27"/>
+      <c r="BP23" s="27"/>
+      <c r="BQ23" s="27"/>
+      <c r="BR23" s="27"/>
+      <c r="BS23" s="27"/>
+      <c r="BT23" s="27"/>
+      <c r="BU23" s="27"/>
+      <c r="BV23" s="27"/>
+      <c r="BW23" s="27"/>
+      <c r="BX23" s="27"/>
+      <c r="BY23" s="27"/>
+      <c r="BZ23" s="27"/>
+      <c r="CA23" s="27"/>
+      <c r="CB23" s="27"/>
+      <c r="CC23" s="27"/>
+      <c r="CD23" s="27"/>
+      <c r="CE23" s="27"/>
+      <c r="CF23" s="27"/>
+      <c r="CG23" s="27"/>
+      <c r="CH23" s="27"/>
+      <c r="CI23" s="27"/>
+      <c r="CJ23" s="27"/>
+      <c r="CK23" s="27"/>
+      <c r="CL23" s="27"/>
+      <c r="CM23" s="27"/>
+      <c r="CN23" s="27"/>
+      <c r="CO23" s="27"/>
+      <c r="CP23" s="27"/>
+      <c r="CQ23" s="27"/>
+      <c r="CR23" s="27"/>
+      <c r="CS23" s="27"/>
+      <c r="CT23" s="27"/>
+      <c r="CU23" s="27"/>
+      <c r="CV23" s="27"/>
+      <c r="CW23" s="27"/>
+      <c r="CX23" s="27"/>
+      <c r="CY23" s="27"/>
+      <c r="CZ23" s="27"/>
+      <c r="DA23" s="27"/>
+      <c r="DB23" s="27"/>
+      <c r="DC23" s="27"/>
+      <c r="DD23" s="27"/>
+      <c r="DE23" s="27"/>
+      <c r="DF23" s="27"/>
+      <c r="DG23" s="27"/>
+      <c r="DH23" s="27"/>
+      <c r="DI23" s="27"/>
+      <c r="DJ23" s="27"/>
+      <c r="DK23" s="27"/>
+      <c r="DL23" s="27"/>
+      <c r="DM23" s="27"/>
+      <c r="DN23" s="27"/>
+      <c r="DO23" s="27"/>
+      <c r="DP23" s="27"/>
+      <c r="DQ23" s="27"/>
+      <c r="DR23" s="27"/>
+      <c r="DS23" s="27"/>
+      <c r="DT23" s="27"/>
+      <c r="DU23" s="27"/>
+      <c r="DV23" s="27"/>
+      <c r="DW23" s="27"/>
+      <c r="DX23" s="27"/>
+      <c r="DY23" s="27"/>
+      <c r="DZ23" s="27"/>
+      <c r="EA23" s="27"/>
+      <c r="EB23" s="27"/>
+      <c r="EC23" s="27"/>
+      <c r="ED23" s="27"/>
+      <c r="EE23" s="27"/>
+      <c r="EF23" s="27"/>
+      <c r="EG23" s="27"/>
+      <c r="EH23" s="27"/>
+      <c r="EI23" s="27"/>
+      <c r="EJ23" s="27"/>
+      <c r="EK23" s="27"/>
+      <c r="EL23" s="27"/>
+      <c r="EM23" s="27"/>
+      <c r="EN23" s="27"/>
+      <c r="EO23" s="27"/>
+      <c r="EP23" s="27"/>
+      <c r="EQ23" s="27"/>
+      <c r="ER23" s="27"/>
+      <c r="ES23" s="27"/>
+      <c r="ET23" s="27"/>
+      <c r="EU23" s="27"/>
+      <c r="EV23" s="27"/>
+      <c r="EW23" s="27"/>
+      <c r="EX23" s="27"/>
+      <c r="EY23" s="27"/>
+      <c r="EZ23" s="27"/>
+      <c r="FA23" s="27"/>
+      <c r="FB23" s="27"/>
+      <c r="FC23" s="27"/>
+      <c r="FD23" s="27"/>
+      <c r="FE23" s="27"/>
+      <c r="FF23" s="27"/>
+      <c r="FG23" s="27"/>
+      <c r="FH23" s="27"/>
+      <c r="FI23" s="27"/>
+      <c r="FJ23" s="27"/>
+      <c r="FK23" s="27"/>
+      <c r="FL23" s="27"/>
+      <c r="FM23" s="27"/>
+      <c r="FN23" s="27"/>
+      <c r="FO23" s="27"/>
+      <c r="FP23" s="27"/>
+      <c r="FQ23" s="27"/>
+      <c r="FR23" s="27"/>
+      <c r="FS23" s="27"/>
+      <c r="FT23" s="27"/>
+      <c r="FU23" s="27"/>
+      <c r="FV23" s="27"/>
+      <c r="FW23" s="27"/>
+      <c r="FX23" s="27"/>
+      <c r="FY23" s="27"/>
+      <c r="FZ23" s="27"/>
+      <c r="GA23" s="27"/>
+      <c r="GB23" s="27"/>
+      <c r="GC23" s="27"/>
+      <c r="GD23" s="27"/>
+      <c r="GE23" s="27"/>
+      <c r="GF23" s="27"/>
+      <c r="GG23" s="27"/>
+      <c r="GH23" s="27"/>
+      <c r="GI23" s="27"/>
+      <c r="GJ23" s="27"/>
+      <c r="GK23" s="27"/>
+      <c r="GL23" s="27"/>
+      <c r="GM23" s="27"/>
+      <c r="GN23" s="27"/>
+      <c r="GO23" s="27"/>
+      <c r="GP23" s="27"/>
+      <c r="GQ23" s="27"/>
+      <c r="GR23" s="27"/>
+      <c r="GS23" s="27"/>
+      <c r="GT23" s="27"/>
+      <c r="GU23" s="27"/>
+      <c r="GV23" s="27"/>
+      <c r="GW23" s="27"/>
+      <c r="GX23" s="27"/>
+      <c r="GY23" s="27"/>
+      <c r="GZ23" s="27"/>
+      <c r="HA23" s="27"/>
+      <c r="HB23" s="27"/>
+      <c r="HC23" s="27"/>
+      <c r="HD23" s="27"/>
+      <c r="HE23" s="27"/>
+      <c r="HF23" s="27"/>
+      <c r="HG23" s="27"/>
+      <c r="HH23" s="27"/>
+      <c r="HI23" s="27"/>
+      <c r="HJ23" s="27"/>
+      <c r="HK23" s="27"/>
+      <c r="HL23" s="27"/>
+      <c r="HM23" s="27"/>
+      <c r="HN23" s="27"/>
+      <c r="HO23" s="27"/>
+      <c r="HP23" s="27"/>
+      <c r="HQ23" s="27"/>
+      <c r="HR23" s="27"/>
+      <c r="HS23" s="27"/>
+      <c r="HT23" s="27"/>
+      <c r="HU23" s="27"/>
+      <c r="HV23" s="27"/>
+      <c r="HW23" s="27"/>
+      <c r="HX23" s="27"/>
+      <c r="HY23" s="27"/>
+      <c r="HZ23" s="27"/>
+      <c r="IA23" s="27"/>
+      <c r="IB23" s="27"/>
+      <c r="IC23" s="27"/>
+      <c r="ID23" s="27"/>
+      <c r="IE23" s="27"/>
+      <c r="IF23" s="27"/>
+      <c r="IG23" s="27"/>
+      <c r="IH23" s="27"/>
+      <c r="II23" s="27"/>
+      <c r="IJ23" s="27"/>
+      <c r="IK23" s="27"/>
+      <c r="IL23" s="27"/>
+      <c r="IM23" s="27"/>
+      <c r="IN23" s="27"/>
+      <c r="IO23" s="27"/>
+      <c r="IP23" s="27"/>
+      <c r="IQ23" s="27"/>
+      <c r="IR23" s="27"/>
+      <c r="IS23" s="27"/>
+      <c r="IT23" s="27"/>
+      <c r="IU23" s="27"/>
+      <c r="IV23" s="27"/>
+      <c r="IW23" s="27"/>
+      <c r="IX23" s="27"/>
+      <c r="IY23" s="27"/>
+      <c r="IZ23" s="27"/>
+      <c r="JA23" s="27"/>
+      <c r="JB23" s="27"/>
+      <c r="JC23" s="27"/>
+      <c r="JD23" s="27"/>
+      <c r="JE23" s="27"/>
+      <c r="JF23" s="27"/>
+      <c r="JG23" s="27"/>
+      <c r="JH23" s="27"/>
+      <c r="JI23" s="27"/>
+      <c r="JJ23" s="27"/>
+      <c r="JK23" s="27"/>
+      <c r="JL23" s="27"/>
+      <c r="JM23" s="27"/>
+      <c r="JN23" s="27"/>
+      <c r="JO23" s="27"/>
+      <c r="JP23" s="27"/>
+      <c r="JQ23" s="27"/>
+      <c r="JR23" s="27"/>
+      <c r="JS23" s="27"/>
+      <c r="JT23" s="27"/>
+      <c r="JU23" s="27"/>
+      <c r="JV23" s="27"/>
+      <c r="JW23" s="27"/>
+      <c r="JX23" s="27"/>
+      <c r="JY23" s="27"/>
+      <c r="JZ23" s="27"/>
+      <c r="KA23" s="27"/>
+      <c r="KB23" s="27"/>
+      <c r="KC23" s="27"/>
+      <c r="KD23" s="27"/>
+      <c r="KE23" s="27"/>
+      <c r="KF23" s="27"/>
+      <c r="KG23" s="27"/>
+      <c r="KH23" s="27"/>
+      <c r="KI23" s="27"/>
+      <c r="KJ23" s="27"/>
+      <c r="KK23" s="27"/>
+      <c r="KL23" s="27"/>
+      <c r="KM23" s="27"/>
+      <c r="KN23" s="27"/>
+      <c r="KO23" s="27"/>
+      <c r="KP23" s="27"/>
+      <c r="KQ23" s="27"/>
+      <c r="KR23" s="27"/>
+      <c r="KS23" s="27"/>
+      <c r="KT23" s="27"/>
+      <c r="KU23" s="27"/>
+      <c r="KV23" s="27"/>
+      <c r="KW23" s="27"/>
+      <c r="KX23" s="27"/>
+      <c r="KY23" s="27"/>
+      <c r="KZ23" s="27"/>
+      <c r="LA23" s="27"/>
+      <c r="LB23" s="27"/>
+      <c r="LC23" s="27"/>
+      <c r="LD23" s="27"/>
+      <c r="LE23" s="27"/>
+      <c r="LF23" s="27"/>
+      <c r="LG23" s="27"/>
+      <c r="LH23" s="27"/>
+      <c r="LI23" s="27"/>
+      <c r="LJ23" s="27"/>
+      <c r="LK23" s="27"/>
+      <c r="LL23" s="27"/>
+      <c r="LM23" s="27"/>
+      <c r="LN23" s="27"/>
+      <c r="LO23" s="27"/>
+      <c r="LP23" s="27"/>
+      <c r="LQ23" s="27"/>
+      <c r="LR23" s="27"/>
+      <c r="LS23" s="27"/>
+      <c r="LT23" s="27"/>
+      <c r="LU23" s="27"/>
+      <c r="LV23" s="27"/>
+      <c r="LW23" s="27"/>
+      <c r="LX23" s="27"/>
+      <c r="LY23" s="27"/>
+      <c r="LZ23" s="27"/>
+      <c r="MA23" s="27"/>
+      <c r="MB23" s="27"/>
+      <c r="MC23" s="27"/>
+      <c r="MD23" s="27"/>
+      <c r="ME23" s="27"/>
+      <c r="MF23" s="27"/>
+      <c r="MG23" s="27"/>
+      <c r="MH23" s="27"/>
+      <c r="MI23" s="27"/>
+      <c r="MJ23" s="27"/>
+      <c r="MK23" s="27"/>
+      <c r="ML23" s="27"/>
+      <c r="MM23" s="27"/>
+      <c r="MN23" s="27"/>
+      <c r="MO23" s="27"/>
+      <c r="MP23" s="27"/>
+      <c r="MQ23" s="27"/>
+      <c r="MR23" s="27"/>
+      <c r="MS23" s="27"/>
+      <c r="MT23" s="27"/>
+      <c r="MU23" s="27"/>
+      <c r="MV23" s="27"/>
+      <c r="MW23" s="27"/>
+      <c r="MX23" s="27"/>
+      <c r="MY23" s="27"/>
+      <c r="MZ23" s="27"/>
+      <c r="NA23" s="27"/>
+      <c r="NB23" s="27"/>
+      <c r="NC23" s="27"/>
+      <c r="ND23" s="27"/>
+      <c r="NE23" s="27"/>
+      <c r="NF23" s="27"/>
+      <c r="NG23" s="27"/>
+      <c r="NH23" s="27"/>
+      <c r="NI23" s="27"/>
+      <c r="NJ23" s="27"/>
+      <c r="NK23" s="27"/>
+      <c r="NL23" s="27"/>
+      <c r="NM23" s="27"/>
+      <c r="NN23" s="27"/>
+      <c r="NO23" s="27"/>
+      <c r="NP23" s="27"/>
+      <c r="NQ23" s="27"/>
+      <c r="NR23" s="27"/>
+      <c r="NS23" s="27"/>
+      <c r="NT23" s="27"/>
+      <c r="NU23" s="27"/>
+      <c r="NV23" s="27"/>
+      <c r="NW23" s="27"/>
+      <c r="NX23" s="27"/>
+      <c r="NY23" s="27"/>
+      <c r="NZ23" s="27"/>
+      <c r="OA23" s="27"/>
+      <c r="OB23" s="27"/>
+      <c r="OC23" s="27"/>
+      <c r="OD23" s="27"/>
+      <c r="OE23" s="27"/>
+      <c r="OF23" s="27"/>
+      <c r="OG23" s="27"/>
+      <c r="OH23" s="27"/>
+      <c r="OI23" s="27"/>
+      <c r="OJ23" s="27"/>
+      <c r="OK23" s="27"/>
+      <c r="OL23" s="27"/>
+      <c r="OM23" s="27"/>
+      <c r="ON23" s="27"/>
+      <c r="OO23" s="27"/>
+      <c r="OP23" s="27"/>
+      <c r="OQ23" s="27"/>
+      <c r="OR23" s="27"/>
+      <c r="OS23" s="27"/>
+      <c r="OT23" s="27"/>
+      <c r="OU23" s="27"/>
+      <c r="OV23" s="27"/>
+      <c r="OW23" s="27"/>
+      <c r="OX23" s="27"/>
+      <c r="OY23" s="27"/>
+      <c r="OZ23" s="27"/>
+      <c r="PA23" s="27"/>
+      <c r="PB23" s="27"/>
+      <c r="PC23" s="27"/>
+      <c r="PD23" s="27"/>
+      <c r="PE23" s="27"/>
+      <c r="PF23" s="27"/>
+      <c r="PG23" s="27"/>
+      <c r="PH23" s="27"/>
+      <c r="PI23" s="27"/>
+      <c r="PJ23" s="27"/>
+      <c r="PK23" s="27"/>
+      <c r="PL23" s="27"/>
+      <c r="PM23" s="27"/>
+      <c r="PN23" s="27"/>
+      <c r="PO23" s="27"/>
+      <c r="PP23" s="27"/>
+      <c r="PQ23" s="27"/>
+      <c r="PR23" s="27"/>
+      <c r="PS23" s="27"/>
+      <c r="PT23" s="27"/>
+      <c r="PU23" s="27"/>
+      <c r="PV23" s="27"/>
+      <c r="PW23" s="27"/>
+      <c r="PX23" s="27"/>
+      <c r="PY23" s="27"/>
+      <c r="PZ23" s="27"/>
+      <c r="QA23" s="27"/>
+      <c r="QB23" s="27"/>
+      <c r="QC23" s="27"/>
+      <c r="QD23" s="27"/>
+      <c r="QE23" s="27"/>
+      <c r="QF23" s="27"/>
+      <c r="QG23" s="27"/>
+      <c r="QH23" s="27"/>
+      <c r="QI23" s="27"/>
+      <c r="QJ23" s="27"/>
+      <c r="QK23" s="27"/>
+      <c r="QL23" s="27"/>
+      <c r="QM23" s="27"/>
+      <c r="QN23" s="27"/>
+      <c r="QO23" s="27"/>
+      <c r="QP23" s="27"/>
+      <c r="QQ23" s="27"/>
+      <c r="QR23" s="27"/>
+      <c r="QS23" s="27"/>
+      <c r="QT23" s="27"/>
+      <c r="QU23" s="27"/>
+      <c r="QV23" s="27"/>
+      <c r="QW23" s="27"/>
+      <c r="QX23" s="27"/>
+      <c r="QY23" s="27"/>
+      <c r="QZ23" s="27"/>
+      <c r="RA23" s="27"/>
+      <c r="RB23" s="27"/>
+      <c r="RC23" s="27"/>
+      <c r="RD23" s="27"/>
+      <c r="RE23" s="27"/>
+      <c r="RF23" s="27"/>
+      <c r="RG23" s="27"/>
+      <c r="RH23" s="27"/>
+      <c r="RI23" s="27"/>
+      <c r="RJ23" s="27"/>
+      <c r="RK23" s="27"/>
+      <c r="RL23" s="27"/>
+      <c r="RM23" s="27"/>
+      <c r="RN23" s="27"/>
+      <c r="RO23" s="27"/>
+      <c r="RP23" s="27"/>
+      <c r="RQ23" s="27"/>
+      <c r="RR23" s="27"/>
+      <c r="RS23" s="27"/>
+      <c r="RT23" s="27"/>
+      <c r="RU23" s="27"/>
+      <c r="RV23" s="27"/>
+      <c r="RW23" s="27"/>
+      <c r="RX23" s="27"/>
+      <c r="RY23" s="27"/>
+      <c r="RZ23" s="27"/>
+      <c r="SA23" s="27"/>
+      <c r="SB23" s="27"/>
+      <c r="SC23" s="27"/>
+      <c r="SD23" s="27"/>
+      <c r="SE23" s="27"/>
+      <c r="SF23" s="27"/>
+      <c r="SG23" s="27"/>
+      <c r="SH23" s="27"/>
+      <c r="SI23" s="27"/>
+      <c r="SJ23" s="27"/>
+      <c r="SK23" s="27"/>
+      <c r="SL23" s="27"/>
+      <c r="SM23" s="27"/>
+      <c r="SN23" s="27"/>
+      <c r="SO23" s="27"/>
+      <c r="SP23" s="27"/>
+      <c r="SQ23" s="27"/>
+      <c r="SR23" s="27"/>
+      <c r="SS23" s="27"/>
+      <c r="ST23" s="27"/>
+      <c r="SU23" s="27"/>
+      <c r="SV23" s="27"/>
+      <c r="SW23" s="27"/>
+      <c r="SX23" s="27"/>
+      <c r="SY23" s="27"/>
+      <c r="SZ23" s="27"/>
+      <c r="TA23" s="27"/>
+      <c r="TB23" s="27"/>
+      <c r="TC23" s="27"/>
+      <c r="TD23" s="27"/>
+      <c r="TE23" s="27"/>
+      <c r="TF23" s="27"/>
+      <c r="TG23" s="27"/>
+      <c r="TH23" s="27"/>
+      <c r="TI23" s="27"/>
+      <c r="TJ23" s="27"/>
+      <c r="TK23" s="27"/>
+      <c r="TL23" s="27"/>
+      <c r="TM23" s="27"/>
+      <c r="TN23" s="27"/>
+      <c r="TO23" s="27"/>
+      <c r="TP23" s="27"/>
+      <c r="TQ23" s="27"/>
+      <c r="TR23" s="27"/>
+      <c r="TS23" s="27"/>
+      <c r="TT23" s="27"/>
+      <c r="TU23" s="27"/>
+      <c r="TV23" s="27"/>
+      <c r="TW23" s="27"/>
+      <c r="TX23" s="27"/>
+      <c r="TY23" s="27"/>
+      <c r="TZ23" s="27"/>
+      <c r="UA23" s="27"/>
+      <c r="UB23" s="27"/>
+      <c r="UC23" s="27"/>
+      <c r="UD23" s="27"/>
+      <c r="UE23" s="27"/>
+      <c r="UF23" s="27"/>
+      <c r="UG23" s="27"/>
+      <c r="UH23" s="27"/>
+      <c r="UI23" s="27"/>
+      <c r="UJ23" s="27"/>
+      <c r="UK23" s="27"/>
+      <c r="UL23" s="27"/>
+      <c r="UM23" s="27"/>
+      <c r="UN23" s="27"/>
+      <c r="UO23" s="27"/>
+      <c r="UP23" s="27"/>
+      <c r="UQ23" s="27"/>
+      <c r="UR23" s="27"/>
+      <c r="US23" s="27"/>
+      <c r="UT23" s="27"/>
+      <c r="UU23" s="27"/>
+      <c r="UV23" s="27"/>
+      <c r="UW23" s="27"/>
+      <c r="UX23" s="27"/>
+      <c r="UY23" s="27"/>
+      <c r="UZ23" s="27"/>
+      <c r="VA23" s="27"/>
+      <c r="VB23" s="27"/>
+      <c r="VC23" s="27"/>
+      <c r="VD23" s="27"/>
+      <c r="VE23" s="27"/>
+      <c r="VF23" s="27"/>
+      <c r="VG23" s="27"/>
+      <c r="VH23" s="27"/>
+      <c r="VI23" s="27"/>
+      <c r="VJ23" s="27"/>
+      <c r="VK23" s="27"/>
+      <c r="VL23" s="27"/>
+      <c r="VM23" s="27"/>
+      <c r="VN23" s="27"/>
+      <c r="VO23" s="27"/>
+      <c r="VP23" s="27"/>
+      <c r="VQ23" s="27"/>
+      <c r="VR23" s="27"/>
+      <c r="VS23" s="27"/>
+      <c r="VT23" s="27"/>
+      <c r="VU23" s="27"/>
+      <c r="VV23" s="27"/>
+      <c r="VW23" s="27"/>
+      <c r="VX23" s="27"/>
+      <c r="VY23" s="27"/>
+      <c r="VZ23" s="27"/>
+      <c r="WA23" s="27"/>
+      <c r="WB23" s="27"/>
+      <c r="WC23" s="27"/>
+      <c r="WD23" s="27"/>
+      <c r="WE23" s="27"/>
+      <c r="WF23" s="27"/>
+      <c r="WG23" s="27"/>
+      <c r="WH23" s="27"/>
+      <c r="WI23" s="27"/>
+      <c r="WJ23" s="27"/>
+      <c r="WK23" s="27"/>
+      <c r="WL23" s="27"/>
+      <c r="WM23" s="27"/>
+      <c r="WN23" s="27"/>
+      <c r="WO23" s="27"/>
+      <c r="WP23" s="27"/>
+      <c r="WQ23" s="27"/>
+      <c r="WR23" s="27"/>
+      <c r="WS23" s="27"/>
+      <c r="WT23" s="27"/>
+      <c r="WU23" s="27"/>
+      <c r="WV23" s="27"/>
+      <c r="WW23" s="27"/>
+      <c r="WX23" s="27"/>
+      <c r="WY23" s="27"/>
+      <c r="WZ23" s="27"/>
+      <c r="XA23" s="27"/>
+      <c r="XB23" s="27"/>
+      <c r="XC23" s="27"/>
+      <c r="XD23" s="27"/>
+      <c r="XE23" s="27"/>
+      <c r="XF23" s="27"/>
+      <c r="XG23" s="27"/>
+      <c r="XH23" s="27"/>
+      <c r="XI23" s="27"/>
+      <c r="XJ23" s="27"/>
+      <c r="XK23" s="27"/>
+      <c r="XL23" s="27"/>
+      <c r="XM23" s="27"/>
+      <c r="XN23" s="27"/>
+      <c r="XO23" s="27"/>
+      <c r="XP23" s="27"/>
+      <c r="XQ23" s="27"/>
+      <c r="XR23" s="27"/>
+      <c r="XS23" s="27"/>
+      <c r="XT23" s="27"/>
+      <c r="XU23" s="27"/>
+      <c r="XV23" s="27"/>
+      <c r="XW23" s="27"/>
+      <c r="XX23" s="27"/>
+      <c r="XY23" s="27"/>
+      <c r="XZ23" s="27"/>
+      <c r="YA23" s="27"/>
+      <c r="YB23" s="27"/>
+      <c r="YC23" s="27"/>
+      <c r="YD23" s="27"/>
+      <c r="YE23" s="27"/>
+      <c r="YF23" s="27"/>
+      <c r="YG23" s="27"/>
+      <c r="YH23" s="27"/>
+      <c r="YI23" s="27"/>
+      <c r="YJ23" s="27"/>
+      <c r="YK23" s="27"/>
+      <c r="YL23" s="27"/>
+      <c r="YM23" s="27"/>
+      <c r="YN23" s="27"/>
+      <c r="YO23" s="27"/>
+      <c r="YP23" s="27"/>
+      <c r="YQ23" s="27"/>
+      <c r="YR23" s="27"/>
+      <c r="YS23" s="27"/>
+      <c r="YT23" s="27"/>
+      <c r="YU23" s="27"/>
+      <c r="YV23" s="27"/>
+      <c r="YW23" s="27"/>
+      <c r="YX23" s="27"/>
+      <c r="YY23" s="27"/>
+      <c r="YZ23" s="27"/>
+      <c r="ZA23" s="27"/>
+      <c r="ZB23" s="27"/>
+      <c r="ZC23" s="27"/>
+      <c r="ZD23" s="27"/>
+      <c r="ZE23" s="27"/>
+      <c r="ZF23" s="27"/>
+      <c r="ZG23" s="27"/>
+      <c r="ZH23" s="27"/>
+      <c r="ZI23" s="27"/>
+      <c r="ZJ23" s="27"/>
+      <c r="ZK23" s="27"/>
+      <c r="ZL23" s="27"/>
+      <c r="ZM23" s="27"/>
+      <c r="ZN23" s="27"/>
+      <c r="ZO23" s="27"/>
+      <c r="ZP23" s="27"/>
+      <c r="ZQ23" s="27"/>
+      <c r="ZR23" s="27"/>
+      <c r="ZS23" s="27"/>
+      <c r="ZT23" s="27"/>
+      <c r="ZU23" s="27"/>
+      <c r="ZV23" s="27"/>
+      <c r="ZW23" s="27"/>
+      <c r="ZX23" s="27"/>
+      <c r="ZY23" s="27"/>
+      <c r="ZZ23" s="27"/>
+      <c r="AAA23" s="27"/>
+      <c r="AAB23" s="27"/>
+      <c r="AAC23" s="27"/>
+      <c r="AAD23" s="27"/>
+      <c r="AAE23" s="27"/>
+      <c r="AAF23" s="27"/>
+      <c r="AAG23" s="27"/>
+      <c r="AAH23" s="27"/>
+      <c r="AAI23" s="27"/>
+      <c r="AAJ23" s="27"/>
+      <c r="AAK23" s="27"/>
+      <c r="AAL23" s="27"/>
+      <c r="AAM23" s="27"/>
+      <c r="AAN23" s="27"/>
+      <c r="AAO23" s="27"/>
+      <c r="AAP23" s="27"/>
+      <c r="AAQ23" s="27"/>
+      <c r="AAR23" s="27"/>
+      <c r="AAS23" s="27"/>
+      <c r="AAT23" s="27"/>
+      <c r="AAU23" s="27"/>
+      <c r="AAV23" s="27"/>
+      <c r="AAW23" s="27"/>
+      <c r="AAX23" s="27"/>
+      <c r="AAY23" s="27"/>
+      <c r="AAZ23" s="27"/>
+      <c r="ABA23" s="27"/>
+      <c r="ABB23" s="27"/>
+      <c r="ABC23" s="27"/>
+      <c r="ABD23" s="27"/>
+      <c r="ABE23" s="27"/>
+      <c r="ABF23" s="27"/>
+      <c r="ABG23" s="27"/>
+      <c r="ABH23" s="27"/>
+      <c r="ABI23" s="27"/>
+      <c r="ABJ23" s="27"/>
+      <c r="ABK23" s="27"/>
+      <c r="ABL23" s="27"/>
+      <c r="ABM23" s="27"/>
+      <c r="ABN23" s="27"/>
+      <c r="ABO23" s="27"/>
+      <c r="ABP23" s="27"/>
+      <c r="ABQ23" s="27"/>
+      <c r="ABR23" s="27"/>
+      <c r="ABS23" s="27"/>
+      <c r="ABT23" s="27"/>
+      <c r="ABU23" s="27"/>
+      <c r="ABV23" s="27"/>
+      <c r="ABW23" s="27"/>
+      <c r="ABX23" s="27"/>
+      <c r="ABY23" s="27"/>
+      <c r="ABZ23" s="27"/>
+      <c r="ACA23" s="27"/>
+      <c r="ACB23" s="27"/>
+      <c r="ACC23" s="27"/>
+      <c r="ACD23" s="27"/>
+      <c r="ACE23" s="27"/>
+      <c r="ACF23" s="27"/>
+      <c r="ACG23" s="27"/>
+      <c r="ACH23" s="27"/>
+      <c r="ACI23" s="27"/>
+      <c r="ACJ23" s="27"/>
+      <c r="ACK23" s="27"/>
+      <c r="ACL23" s="27"/>
+      <c r="ACM23" s="27"/>
+      <c r="ACN23" s="27"/>
+      <c r="ACO23" s="27"/>
+      <c r="ACP23" s="27"/>
+      <c r="ACQ23" s="27"/>
+      <c r="ACR23" s="27"/>
+      <c r="ACS23" s="27"/>
+      <c r="ACT23" s="27"/>
+      <c r="ACU23" s="27"/>
+      <c r="ACV23" s="27"/>
+      <c r="ACW23" s="27"/>
+      <c r="ACX23" s="27"/>
+      <c r="ACY23" s="27"/>
+      <c r="ACZ23" s="27"/>
+      <c r="ADA23" s="27"/>
+      <c r="ADB23" s="27"/>
+      <c r="ADC23" s="27"/>
+      <c r="ADD23" s="27"/>
+      <c r="ADE23" s="27"/>
+      <c r="ADF23" s="27"/>
+      <c r="ADG23" s="27"/>
+      <c r="ADH23" s="27"/>
+      <c r="ADI23" s="27"/>
+      <c r="ADJ23" s="27"/>
+      <c r="ADK23" s="27"/>
+      <c r="ADL23" s="27"/>
+      <c r="ADM23" s="27"/>
+      <c r="ADN23" s="27"/>
+      <c r="ADO23" s="27"/>
+      <c r="ADP23" s="27"/>
+      <c r="ADQ23" s="27"/>
+      <c r="ADR23" s="27"/>
+      <c r="ADS23" s="27"/>
+      <c r="ADT23" s="27"/>
+      <c r="ADU23" s="27"/>
+      <c r="ADV23" s="27"/>
+      <c r="ADW23" s="27"/>
+      <c r="ADX23" s="27"/>
+      <c r="ADY23" s="27"/>
+      <c r="ADZ23" s="27"/>
+      <c r="AEA23" s="27"/>
+      <c r="AEB23" s="27"/>
+      <c r="AEC23" s="27"/>
+      <c r="AED23" s="27"/>
+      <c r="AEE23" s="27"/>
+      <c r="AEF23" s="27"/>
+      <c r="AEG23" s="27"/>
+      <c r="AEH23" s="27"/>
+      <c r="AEI23" s="27"/>
+      <c r="AEJ23" s="27"/>
+      <c r="AEK23" s="27"/>
+      <c r="AEL23" s="27"/>
+      <c r="AEM23" s="27"/>
+      <c r="AEN23" s="27"/>
+      <c r="AEO23" s="27"/>
+      <c r="AEP23" s="27"/>
+      <c r="AEQ23" s="27"/>
+      <c r="AER23" s="27"/>
+      <c r="AES23" s="27"/>
+      <c r="AET23" s="27"/>
+      <c r="AEU23" s="27"/>
+      <c r="AEV23" s="27"/>
+      <c r="AEW23" s="27"/>
+      <c r="AEX23" s="27"/>
+      <c r="AEY23" s="27"/>
+      <c r="AEZ23" s="27"/>
+      <c r="AFA23" s="27"/>
+      <c r="AFB23" s="27"/>
+      <c r="AFC23" s="27"/>
+      <c r="AFD23" s="27"/>
+      <c r="AFE23" s="27"/>
+      <c r="AFF23" s="27"/>
+      <c r="AFG23" s="27"/>
+      <c r="AFH23" s="27"/>
+      <c r="AFI23" s="27"/>
+      <c r="AFJ23" s="27"/>
+      <c r="AFK23" s="27"/>
+      <c r="AFL23" s="27"/>
+      <c r="AFM23" s="27"/>
+      <c r="AFN23" s="27"/>
+      <c r="AFO23" s="27"/>
+      <c r="AFP23" s="27"/>
+      <c r="AFQ23" s="27"/>
+      <c r="AFR23" s="27"/>
+      <c r="AFS23" s="27"/>
+      <c r="AFT23" s="27"/>
+      <c r="AFU23" s="27"/>
+      <c r="AFV23" s="27"/>
+      <c r="AFW23" s="27"/>
+      <c r="AFX23" s="27"/>
+      <c r="AFY23" s="27"/>
+      <c r="AFZ23" s="27"/>
+      <c r="AGA23" s="27"/>
+      <c r="AGB23" s="27"/>
+      <c r="AGC23" s="27"/>
+      <c r="AGD23" s="27"/>
+      <c r="AGE23" s="27"/>
+      <c r="AGF23" s="27"/>
+      <c r="AGG23" s="27"/>
+      <c r="AGH23" s="27"/>
+      <c r="AGI23" s="27"/>
+      <c r="AGJ23" s="27"/>
+      <c r="AGK23" s="27"/>
+      <c r="AGL23" s="27"/>
+      <c r="AGM23" s="27"/>
+      <c r="AGN23" s="27"/>
+      <c r="AGO23" s="27"/>
+      <c r="AGP23" s="27"/>
+      <c r="AGQ23" s="27"/>
+      <c r="AGR23" s="27"/>
+      <c r="AGS23" s="27"/>
+      <c r="AGT23" s="27"/>
+      <c r="AGU23" s="27"/>
+      <c r="AGV23" s="27"/>
+      <c r="AGW23" s="27"/>
+      <c r="AGX23" s="27"/>
+      <c r="AGY23" s="27"/>
+      <c r="AGZ23" s="27"/>
+      <c r="AHA23" s="27"/>
+      <c r="AHB23" s="27"/>
+      <c r="AHC23" s="27"/>
+      <c r="AHD23" s="27"/>
+      <c r="AHE23" s="27"/>
+      <c r="AHF23" s="27"/>
+      <c r="AHG23" s="27"/>
+      <c r="AHH23" s="27"/>
+      <c r="AHI23" s="27"/>
+      <c r="AHJ23" s="27"/>
+      <c r="AHK23" s="27"/>
+      <c r="AHL23" s="27"/>
+      <c r="AHM23" s="27"/>
+      <c r="AHN23" s="27"/>
+      <c r="AHO23" s="27"/>
+      <c r="AHP23" s="27"/>
+      <c r="AHQ23" s="27"/>
+      <c r="AHR23" s="27"/>
+      <c r="AHS23" s="27"/>
+      <c r="AHT23" s="27"/>
+      <c r="AHU23" s="27"/>
+      <c r="AHV23" s="27"/>
+      <c r="AHW23" s="27"/>
+      <c r="AHX23" s="27"/>
+      <c r="AHY23" s="27"/>
+      <c r="AHZ23" s="27"/>
+      <c r="AIA23" s="27"/>
+      <c r="AIB23" s="27"/>
+      <c r="AIC23" s="27"/>
+      <c r="AID23" s="27"/>
+      <c r="AIE23" s="27"/>
+      <c r="AIF23" s="27"/>
+      <c r="AIG23" s="27"/>
+      <c r="AIH23" s="27"/>
+      <c r="AII23" s="27"/>
+      <c r="AIJ23" s="27"/>
+      <c r="AIK23" s="27"/>
+      <c r="AIL23" s="27"/>
+      <c r="AIM23" s="27"/>
+      <c r="AIN23" s="27"/>
+      <c r="AIO23" s="27"/>
+      <c r="AIP23" s="27"/>
+      <c r="AIQ23" s="27"/>
+      <c r="AIR23" s="27"/>
+      <c r="AIS23" s="27"/>
+      <c r="AIT23" s="27"/>
+      <c r="AIU23" s="27"/>
+      <c r="AIV23" s="27"/>
+      <c r="AIW23" s="27"/>
+      <c r="AIX23" s="27"/>
+      <c r="AIY23" s="27"/>
+      <c r="AIZ23" s="27"/>
+      <c r="AJA23" s="27"/>
+      <c r="AJB23" s="27"/>
+      <c r="AJC23" s="27"/>
+      <c r="AJD23" s="27"/>
+      <c r="AJE23" s="27"/>
+      <c r="AJF23" s="27"/>
+      <c r="AJG23" s="27"/>
+      <c r="AJH23" s="27"/>
+      <c r="AJI23" s="27"/>
+      <c r="AJJ23" s="27"/>
+      <c r="AJK23" s="27"/>
+      <c r="AJL23" s="27"/>
+      <c r="AJM23" s="27"/>
+      <c r="AJN23" s="27"/>
+      <c r="AJO23" s="27"/>
+      <c r="AJP23" s="27"/>
+      <c r="AJQ23" s="27"/>
+      <c r="AJR23" s="27"/>
+      <c r="AJS23" s="27"/>
+      <c r="AJT23" s="27"/>
+      <c r="AJU23" s="27"/>
+      <c r="AJV23" s="27"/>
+      <c r="AJW23" s="27"/>
+      <c r="AJX23" s="27"/>
+      <c r="AJY23" s="27"/>
+      <c r="AJZ23" s="27"/>
+      <c r="AKA23" s="27"/>
+      <c r="AKB23" s="27"/>
+      <c r="AKC23" s="27"/>
+      <c r="AKD23" s="27"/>
+      <c r="AKE23" s="27"/>
+      <c r="AKF23" s="27"/>
+      <c r="AKG23" s="27"/>
+      <c r="AKH23" s="27"/>
+      <c r="AKI23" s="27"/>
+      <c r="AKJ23" s="27"/>
+      <c r="AKK23" s="27"/>
+      <c r="AKL23" s="27"/>
+      <c r="AKM23" s="27"/>
+      <c r="AKN23" s="27"/>
+      <c r="AKO23" s="27"/>
+      <c r="AKP23" s="27"/>
+      <c r="AKQ23" s="27"/>
+      <c r="AKR23" s="27"/>
+      <c r="AKS23" s="27"/>
+      <c r="AKT23" s="27"/>
+      <c r="AKU23" s="27"/>
+      <c r="AKV23" s="27"/>
+      <c r="AKW23" s="27"/>
+      <c r="AKX23" s="27"/>
+      <c r="AKY23" s="27"/>
+      <c r="AKZ23" s="27"/>
+      <c r="ALA23" s="27"/>
+      <c r="ALB23" s="27"/>
+      <c r="ALC23" s="27"/>
+      <c r="ALD23" s="27"/>
+      <c r="ALE23" s="27"/>
+      <c r="ALF23" s="27"/>
+      <c r="ALG23" s="27"/>
+      <c r="ALH23" s="27"/>
+      <c r="ALI23" s="27"/>
+      <c r="ALJ23" s="27"/>
+      <c r="ALK23" s="27"/>
+      <c r="ALL23" s="27"/>
+      <c r="ALM23" s="27"/>
+      <c r="ALN23" s="27"/>
+      <c r="ALO23" s="27"/>
+      <c r="ALP23" s="27"/>
+      <c r="ALQ23" s="27"/>
+      <c r="ALR23" s="27"/>
+      <c r="ALS23" s="27"/>
+      <c r="ALT23" s="27"/>
+      <c r="ALU23" s="27"/>
+      <c r="ALV23" s="27"/>
+      <c r="ALW23" s="27"/>
+      <c r="ALX23" s="27"/>
+      <c r="ALY23" s="27"/>
+      <c r="ALZ23" s="27"/>
+      <c r="AMA23" s="27"/>
+      <c r="AMB23" s="27"/>
+      <c r="AMC23" s="27"/>
+      <c r="AMD23" s="27"/>
+      <c r="AME23" s="27"/>
+      <c r="AMF23" s="27"/>
+      <c r="AMG23" s="27"/>
+      <c r="AMH23" s="27"/>
+      <c r="AMI23" s="27"/>
+      <c r="AMJ23" s="27"/>
+      <c r="AMK23" s="27"/>
+      <c r="AML23" s="27"/>
+      <c r="AMM23" s="27"/>
+      <c r="AMN23" s="27"/>
+      <c r="AMO23" s="27"/>
+      <c r="AMP23" s="27"/>
+      <c r="AMQ23" s="27"/>
+      <c r="AMR23" s="27"/>
+      <c r="AMS23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>1018</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2</v>
@@ -10355,7 +11362,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1" t="n">
@@ -10370,23 +11377,23 @@
       <c r="J24" s="1" t="n">
         <v>143689</v>
       </c>
-      <c r="K24" s="36" t="s">
+      <c r="K24" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="37" t="s">
+      <c r="L24" s="36" t="s">
         <v>83</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="N24" s="38" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>253</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T24" s="1" t="n">
         <v>16</v>
@@ -10398,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>89</v>
@@ -10407,10 +11414,10 @@
         <v>90</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AD24" s="10" t="n">
         <v>285370</v>
@@ -10438,7 +11445,7 @@
         <v>1019</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2</v>
@@ -10447,7 +11454,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>7</v>
@@ -10470,17 +11477,17 @@
       <c r="L25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M25" s="38" t="s">
-        <v>260</v>
+      <c r="M25" s="37" t="s">
+        <v>261</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="T25" s="1" t="n">
         <v>16</v>
@@ -10492,19 +11499,19 @@
         <v>1.3</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA25" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD25" s="1" t="n">
         <v>146119</v>
@@ -10532,7 +11539,7 @@
         <v>1020</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2</v>
@@ -10541,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1" t="n">
@@ -10563,16 +11570,16 @@
         <v>83</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T26" s="1" t="n">
         <v>16</v>
@@ -10584,7 +11591,7 @@
         <v>1</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>89</v>
@@ -10593,10 +11600,10 @@
         <v>90</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD26" s="10" t="n">
         <v>144198</v>
@@ -10624,7 +11631,7 @@
         <v>1021</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2</v>
@@ -10633,7 +11640,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>3</v>
@@ -10657,16 +11664,16 @@
         <v>83</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="T27" s="1" t="n">
         <v>16</v>
@@ -10678,19 +11685,19 @@
         <v>0.5</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AD27" s="1" t="n">
         <v>281886</v>
@@ -10715,7 +11722,7 @@
         <v>1022</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2</v>
@@ -10724,7 +11731,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="10" t="n">
@@ -10746,13 +11753,13 @@
         <v>183</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
@@ -10770,7 +11777,7 @@
         <v>1</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>188</v>
@@ -10782,7 +11789,7 @@
         <v>90</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AD28" s="1" t="n">
         <v>144183</v>
@@ -10810,7 +11817,7 @@
         <v>1023</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2</v>
@@ -10819,7 +11826,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>150</v>
@@ -10843,7 +11850,7 @@
         <v>119</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T29" s="1" t="n">
         <v>16</v>
@@ -10864,7 +11871,7 @@
         <v>118</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF29" s="1" t="n">
         <v>20270</v>
@@ -10881,7 +11888,7 @@
         <v>1024</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2</v>
@@ -10890,7 +11897,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>250</v>
@@ -10914,7 +11921,7 @@
         <v>119</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T30" s="1" t="n">
         <v>16</v>
@@ -10935,7 +11942,7 @@
         <v>118</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF30" s="1" t="n">
         <v>20270</v>
@@ -10952,7 +11959,7 @@
         <v>1025</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>3</v>
@@ -10961,7 +11968,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>9</v>
@@ -10985,16 +11992,16 @@
         <v>83</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="T31" s="1" t="n">
         <v>16</v>
@@ -11006,7 +12013,7 @@
         <v>1</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>134</v>
@@ -11018,7 +12025,7 @@
         <v>153</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AD31" s="1" t="n">
         <v>281788</v>
@@ -11041,7 +12048,7 @@
         <v>1026</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>3</v>
@@ -11050,7 +12057,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>7</v>
@@ -11074,16 +12081,16 @@
         <v>83</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T32" s="1" t="n">
         <v>16</v>
@@ -11104,10 +12111,10 @@
         <v>90</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AD32" s="1" t="n">
         <v>285400</v>
@@ -11130,7 +12137,7 @@
         <v>1027</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>3</v>
@@ -11139,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>2</v>
@@ -11163,16 +12170,16 @@
         <v>83</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="T33" s="1" t="n">
         <v>16</v>
@@ -11184,7 +12191,7 @@
         <v>1.2</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>176</v>
@@ -11196,7 +12203,7 @@
         <v>153</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AD33" s="1" t="n">
         <v>281710</v>
@@ -11219,7 +12226,7 @@
         <v>1028</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>3</v>
@@ -11228,7 +12235,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>4</v>
@@ -11252,16 +12259,16 @@
         <v>83</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T34" s="1" t="n">
         <v>16</v>
@@ -11273,19 +12280,19 @@
         <v>0.5</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA34" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AD34" s="1" t="n">
         <v>299561</v>
@@ -11304,11 +12311,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="39" t="n">
+      <c r="A35" s="38" t="n">
         <v>1029</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>3</v>
@@ -11316,8 +12323,8 @@
       <c r="D35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E35" s="39" t="s">
-        <v>326</v>
+      <c r="E35" s="38" t="s">
+        <v>327</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>550</v>
@@ -11338,25 +12345,25 @@
         <v>83</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="R35" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="R35" s="38" t="s">
         <v>220</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T35" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V35" s="39" t="s">
-        <v>330</v>
+      <c r="V35" s="38" t="s">
+        <v>331</v>
       </c>
       <c r="W35" s="1" t="n">
         <v>130642</v>
@@ -11377,7 +12384,7 @@
         <v>153</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AD35" s="1" t="n">
         <v>285356</v>
@@ -11385,8 +12392,8 @@
       <c r="AE35" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF35" s="39" t="s">
-        <v>332</v>
+      <c r="AF35" s="38" t="s">
+        <v>333</v>
       </c>
       <c r="AG35" s="1" t="n">
         <v>2</v>
@@ -11396,11 +12403,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="39" t="n">
+      <c r="A36" s="38" t="n">
         <v>1030</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>3</v>
@@ -11408,8 +12415,8 @@
       <c r="D36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E36" s="39" t="s">
-        <v>334</v>
+      <c r="E36" s="38" t="s">
+        <v>335</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>2</v>
@@ -11433,25 +12440,25 @@
         <v>83</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="R36" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="R36" s="38" t="s">
         <v>220</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T36" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V36" s="39" t="s">
-        <v>338</v>
+      <c r="V36" s="38" t="s">
+        <v>339</v>
       </c>
       <c r="W36" s="1" t="n">
         <v>254276</v>
@@ -11472,7 +12479,7 @@
         <v>153</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD36" s="1" t="n">
         <v>20301</v>
@@ -11480,8 +12487,8 @@
       <c r="AE36" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF36" s="39" t="s">
-        <v>340</v>
+      <c r="AF36" s="38" t="s">
+        <v>341</v>
       </c>
       <c r="AG36" s="1" t="n">
         <v>3</v>
@@ -11495,7 +12502,7 @@
         <v>1031</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>4</v>
@@ -11504,7 +12511,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>8</v>
@@ -11528,16 +12535,16 @@
         <v>83</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="T37" s="1" t="n">
         <v>16</v>
@@ -11549,7 +12556,7 @@
         <v>1</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>89</v>
@@ -11561,7 +12568,7 @@
         <v>222</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AD37" s="1" t="n">
         <v>281710</v>
@@ -11584,7 +12591,7 @@
         <v>1032</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>4</v>
@@ -11593,7 +12600,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>4</v>
@@ -11617,16 +12624,16 @@
         <v>83</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="T38" s="1" t="n">
         <v>16</v>
@@ -11638,7 +12645,7 @@
         <v>0.8</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>89</v>
@@ -11647,10 +12654,10 @@
         <v>90</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AD38" s="1" t="n">
         <v>281871</v>
@@ -11673,7 +12680,7 @@
         <v>1033</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>4</v>
@@ -11682,7 +12689,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>10</v>
@@ -11706,16 +12713,16 @@
         <v>83</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="T39" s="1" t="n">
         <v>16</v>
@@ -11727,7 +12734,7 @@
         <v>1</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>89</v>
@@ -11739,7 +12746,7 @@
         <v>153</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD39" s="1" t="n">
         <v>300932</v>
@@ -11762,7 +12769,7 @@
         <v>1034</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>4</v>
@@ -11771,7 +12778,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1500</v>
@@ -11792,16 +12799,16 @@
         <v>83</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="T40" s="1" t="n">
         <v>16</v>
@@ -11813,7 +12820,7 @@
         <v>1</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>89</v>
@@ -11825,7 +12832,7 @@
         <v>153</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD40" s="1" t="n">
         <v>117391</v>
@@ -11848,7 +12855,7 @@
         <v>1035</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>4</v>
@@ -11857,7 +12864,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>6</v>
@@ -11881,16 +12888,16 @@
         <v>83</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="T41" s="1" t="n">
         <v>16</v>
@@ -11905,16 +12912,16 @@
         <v>205</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA41" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD41" s="1" t="n">
         <v>285445</v>
@@ -11922,7 +12929,7 @@
       <c r="AE41" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF41" s="40" t="n">
+      <c r="AF41" s="39" t="n">
         <v>269223</v>
       </c>
       <c r="AG41" s="1" t="n">
@@ -11937,7 +12944,7 @@
         <v>1036</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>4</v>
@@ -11946,7 +12953,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>150</v>
@@ -11973,7 +12980,7 @@
         <v>119</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="T42" s="1" t="n">
         <v>16</v>
@@ -11994,7 +13001,7 @@
         <v>118</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF42" s="1" t="n">
         <v>20270</v>
@@ -12011,7 +13018,7 @@
         <v>1037</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>5</v>
@@ -12020,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>150</v>
@@ -12041,16 +13048,16 @@
         <v>83</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="T43" s="1" t="n">
         <v>16</v>
@@ -12062,7 +13069,7 @@
         <v>1</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z43" s="1" t="s">
         <v>89</v>
@@ -12074,7 +13081,7 @@
         <v>222</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AD43" s="1" t="n">
         <v>279765</v>
@@ -12097,7 +13104,7 @@
         <v>1038</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>5</v>
@@ -12106,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>250</v>
@@ -12127,16 +13134,16 @@
         <v>83</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="T44" s="1" t="n">
         <v>16</v>
@@ -12148,7 +13155,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z44" s="1" t="s">
         <v>89</v>
@@ -12160,7 +13167,7 @@
         <v>222</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AD44" s="1" t="n">
         <v>85944</v>
@@ -12168,7 +13175,7 @@
       <c r="AE44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF44" s="40" t="n">
+      <c r="AF44" s="39" t="n">
         <v>29747</v>
       </c>
       <c r="AG44" s="1" t="n">
@@ -12183,7 +13190,7 @@
         <v>1039</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>5</v>
@@ -12192,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>3</v>
@@ -12216,16 +13223,16 @@
         <v>83</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T45" s="1" t="n">
         <v>16</v>
@@ -12237,7 +13244,7 @@
         <v>1</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z45" s="1" t="s">
         <v>134</v>
@@ -12249,7 +13256,7 @@
         <v>153</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AD45" s="1" t="n">
         <v>326802</v>
@@ -12272,7 +13279,7 @@
         <v>1040</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>5</v>
@@ -12281,7 +13288,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>6</v>
@@ -12305,16 +13312,16 @@
         <v>83</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="T46" s="1" t="n">
         <v>16</v>
@@ -12326,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>222</v>
@@ -12338,7 +13345,7 @@
         <v>89</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AD46" s="1" t="n">
         <v>281871</v>
@@ -12361,7 +13368,7 @@
         <v>1041</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>5</v>
@@ -12370,7 +13377,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>100</v>
@@ -12391,16 +13398,16 @@
         <v>183</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="T47" s="1" t="n">
         <v>16</v>
@@ -12412,7 +13419,7 @@
         <v>0.6</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z47" s="1" t="s">
         <v>89</v>
@@ -12424,7 +13431,7 @@
         <v>89</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AD47" s="1" t="n">
         <v>285673</v>
@@ -12447,7 +13454,7 @@
         <v>1042</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5</v>
@@ -12456,7 +13463,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G48" s="10" t="n">
         <v>100</v>
@@ -12477,13 +13484,13 @@
         <v>183</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
@@ -12498,7 +13505,7 @@
         <v>1</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z48" s="1" t="s">
         <v>89</v>
@@ -12510,7 +13517,7 @@
         <v>89</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AD48" s="1" t="n">
         <v>144183</v>
@@ -12538,7 +13545,7 @@
         <v>1043</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>6</v>
@@ -12547,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>5</v>
@@ -12571,16 +13578,16 @@
         <v>83</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="T49" s="1" t="n">
         <v>16</v>
@@ -12604,7 +13611,7 @@
         <v>153</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AD49" s="1" t="n">
         <v>303259</v>
@@ -12627,7 +13634,7 @@
         <v>1044</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>6</v>
@@ -12636,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>350</v>
@@ -12657,16 +13664,16 @@
         <v>83</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="T50" s="1" t="n">
         <v>16</v>
@@ -12681,7 +13688,7 @@
         <v>134</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA50" s="1" t="s">
         <v>90</v>
@@ -12690,7 +13697,7 @@
         <v>89</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AD50" s="1" t="n">
         <v>305224</v>
@@ -12713,7 +13720,7 @@
         <v>1045</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>6</v>
@@ -12722,7 +13729,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>3</v>
@@ -12746,16 +13753,16 @@
         <v>83</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="T51" s="1" t="n">
         <v>16</v>
@@ -12767,7 +13774,7 @@
         <v>1</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z51" s="1" t="s">
         <v>89</v>
@@ -12779,7 +13786,7 @@
         <v>222</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AD51" s="1" t="n">
         <v>269209</v>
@@ -12802,7 +13809,7 @@
         <v>1046</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>6</v>
@@ -12811,7 +13818,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>6</v>
@@ -12835,16 +13842,16 @@
         <v>83</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="T52" s="1" t="n">
         <v>16</v>
@@ -12856,7 +13863,7 @@
         <v>1</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z52" s="1" t="s">
         <v>222</v>
@@ -12868,7 +13875,7 @@
         <v>153</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AD52" s="1" t="n">
         <v>144183</v>
@@ -12891,7 +13898,7 @@
         <v>1047</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>6</v>
@@ -12900,7 +13907,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>700</v>
@@ -12921,16 +13928,16 @@
         <v>83</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T53" s="1" t="n">
         <v>16</v>
@@ -12942,7 +13949,7 @@
         <v>1</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z53" s="1" t="s">
         <v>153</v>
@@ -12954,7 +13961,7 @@
         <v>153</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AD53" s="1" t="n">
         <v>281795</v>
@@ -12980,7 +13987,7 @@
         <v>1048</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>6</v>
@@ -12989,7 +13996,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G54" s="10" t="n">
         <v>100</v>
@@ -13010,13 +14017,13 @@
         <v>183</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="T54" s="1" t="n">
         <v>16</v>
@@ -13028,7 +14035,7 @@
         <v>1</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z54" s="1" t="s">
         <v>188</v>
@@ -13040,7 +14047,7 @@
         <v>90</v>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AD54" s="1" t="n">
         <v>144183</v>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="450">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1084,13 +1084,13 @@
     <t xml:space="preserve">45F04C6F46C61EA619AEF0B058363AC7</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85|1.5|1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|1.2|1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200|250|320</t>
+    <t xml:space="preserve">1.8|1.7|1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200|300|350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">279685|279595</t>
   </si>
   <si>
     <t xml:space="preserve">Tower_name_21</t>
@@ -1108,16 +1108,16 @@
     <t xml:space="preserve">07F582E14688F6E9C9F0D2951D0902E1</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3|1.3|1.1</t>
+    <t xml:space="preserve">1.5|1.5|1.5</t>
   </si>
   <si>
     <t xml:space="preserve">8|8|8</t>
   </si>
   <si>
-    <t xml:space="preserve">1|1.25|1.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50|65|80</t>
+    <t xml:space="preserve">1|1.5|2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50|60|70</t>
   </si>
   <si>
     <t xml:space="preserve">Tower_name_22</t>
@@ -1160,9 +1160,6 @@
   </si>
   <si>
     <t xml:space="preserve">0.6|0.6|0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5|1.5|1.5</t>
   </si>
   <si>
     <t xml:space="preserve">56|96|176</t>
@@ -1817,7 +1814,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1954,15 +1951,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2163,10 +2152,10 @@
   </sheetPr>
   <dimension ref="A1:AMS54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C7" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topRight" activeCell="AG26" activeCellId="0" sqref="AG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10259,7 +10248,7 @@
       <c r="AMR22" s="15"/>
       <c r="AMS22" s="15"/>
     </row>
-    <row r="23" s="34" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="33" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="n">
         <v>1017</v>
       </c>
@@ -11348,97 +11337,1104 @@
       <c r="AMR23" s="27"/>
       <c r="AMS23" s="27"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" s="34" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="n">
         <v>1018</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1" t="n">
+      <c r="F24" s="11"/>
+      <c r="G24" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="H24" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="J24" s="1" t="n">
+      <c r="J24" s="15" t="n">
         <v>143689</v>
       </c>
-      <c r="K24" s="35" t="s">
+      <c r="K24" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="36" t="s">
+      <c r="L24" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="N24" s="37" t="s">
+      <c r="N24" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="P24" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="R24" s="15" t="n">
+        <v>600</v>
+      </c>
+      <c r="S24" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="T24" s="1" t="n">
+      <c r="T24" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="W24" s="1" t="n">
+      <c r="U24" s="15"/>
+      <c r="V24" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="W24" s="15" t="n">
         <v>254300</v>
       </c>
-      <c r="X24" s="1" t="n">
+      <c r="X24" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Y24" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="Z24" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AA24" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AB24" s="1" t="s">
+      <c r="AB24" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC24" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AD24" s="13" t="n">
+        <v>285370</v>
+      </c>
+      <c r="AE24" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF24" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="AD24" s="10" t="n">
-        <v>285370</v>
-      </c>
-      <c r="AE24" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF24" s="1" t="n">
-        <v>279685</v>
-      </c>
-      <c r="AG24" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH24" s="1" t="s">
+      <c r="AG24" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH24" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AT24" s="9"/>
-      <c r="AU24" s="8"/>
-      <c r="AV24" s="9"/>
-      <c r="AY24" s="8"/>
-      <c r="BB24" s="8"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="15"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="18"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="18"/>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="15"/>
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="15"/>
+      <c r="BD24" s="15"/>
+      <c r="BE24" s="15"/>
+      <c r="BF24" s="15"/>
+      <c r="BG24" s="15"/>
+      <c r="BH24" s="15"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="15"/>
+      <c r="BK24" s="15"/>
+      <c r="BL24" s="15"/>
+      <c r="BM24" s="15"/>
+      <c r="BN24" s="15"/>
+      <c r="BO24" s="15"/>
+      <c r="BP24" s="15"/>
+      <c r="BQ24" s="15"/>
+      <c r="BR24" s="15"/>
+      <c r="BS24" s="15"/>
+      <c r="BT24" s="15"/>
+      <c r="BU24" s="15"/>
+      <c r="BV24" s="15"/>
+      <c r="BW24" s="15"/>
+      <c r="BX24" s="15"/>
+      <c r="BY24" s="15"/>
+      <c r="BZ24" s="15"/>
+      <c r="CA24" s="15"/>
+      <c r="CB24" s="15"/>
+      <c r="CC24" s="15"/>
+      <c r="CD24" s="15"/>
+      <c r="CE24" s="15"/>
+      <c r="CF24" s="15"/>
+      <c r="CG24" s="15"/>
+      <c r="CH24" s="15"/>
+      <c r="CI24" s="15"/>
+      <c r="CJ24" s="15"/>
+      <c r="CK24" s="15"/>
+      <c r="CL24" s="15"/>
+      <c r="CM24" s="15"/>
+      <c r="CN24" s="15"/>
+      <c r="CO24" s="15"/>
+      <c r="CP24" s="15"/>
+      <c r="CQ24" s="15"/>
+      <c r="CR24" s="15"/>
+      <c r="CS24" s="15"/>
+      <c r="CT24" s="15"/>
+      <c r="CU24" s="15"/>
+      <c r="CV24" s="15"/>
+      <c r="CW24" s="15"/>
+      <c r="CX24" s="15"/>
+      <c r="CY24" s="15"/>
+      <c r="CZ24" s="15"/>
+      <c r="DA24" s="15"/>
+      <c r="DB24" s="15"/>
+      <c r="DC24" s="15"/>
+      <c r="DD24" s="15"/>
+      <c r="DE24" s="15"/>
+      <c r="DF24" s="15"/>
+      <c r="DG24" s="15"/>
+      <c r="DH24" s="15"/>
+      <c r="DI24" s="15"/>
+      <c r="DJ24" s="15"/>
+      <c r="DK24" s="15"/>
+      <c r="DL24" s="15"/>
+      <c r="DM24" s="15"/>
+      <c r="DN24" s="15"/>
+      <c r="DO24" s="15"/>
+      <c r="DP24" s="15"/>
+      <c r="DQ24" s="15"/>
+      <c r="DR24" s="15"/>
+      <c r="DS24" s="15"/>
+      <c r="DT24" s="15"/>
+      <c r="DU24" s="15"/>
+      <c r="DV24" s="15"/>
+      <c r="DW24" s="15"/>
+      <c r="DX24" s="15"/>
+      <c r="DY24" s="15"/>
+      <c r="DZ24" s="15"/>
+      <c r="EA24" s="15"/>
+      <c r="EB24" s="15"/>
+      <c r="EC24" s="15"/>
+      <c r="ED24" s="15"/>
+      <c r="EE24" s="15"/>
+      <c r="EF24" s="15"/>
+      <c r="EG24" s="15"/>
+      <c r="EH24" s="15"/>
+      <c r="EI24" s="15"/>
+      <c r="EJ24" s="15"/>
+      <c r="EK24" s="15"/>
+      <c r="EL24" s="15"/>
+      <c r="EM24" s="15"/>
+      <c r="EN24" s="15"/>
+      <c r="EO24" s="15"/>
+      <c r="EP24" s="15"/>
+      <c r="EQ24" s="15"/>
+      <c r="ER24" s="15"/>
+      <c r="ES24" s="15"/>
+      <c r="ET24" s="15"/>
+      <c r="EU24" s="15"/>
+      <c r="EV24" s="15"/>
+      <c r="EW24" s="15"/>
+      <c r="EX24" s="15"/>
+      <c r="EY24" s="15"/>
+      <c r="EZ24" s="15"/>
+      <c r="FA24" s="15"/>
+      <c r="FB24" s="15"/>
+      <c r="FC24" s="15"/>
+      <c r="FD24" s="15"/>
+      <c r="FE24" s="15"/>
+      <c r="FF24" s="15"/>
+      <c r="FG24" s="15"/>
+      <c r="FH24" s="15"/>
+      <c r="FI24" s="15"/>
+      <c r="FJ24" s="15"/>
+      <c r="FK24" s="15"/>
+      <c r="FL24" s="15"/>
+      <c r="FM24" s="15"/>
+      <c r="FN24" s="15"/>
+      <c r="FO24" s="15"/>
+      <c r="FP24" s="15"/>
+      <c r="FQ24" s="15"/>
+      <c r="FR24" s="15"/>
+      <c r="FS24" s="15"/>
+      <c r="FT24" s="15"/>
+      <c r="FU24" s="15"/>
+      <c r="FV24" s="15"/>
+      <c r="FW24" s="15"/>
+      <c r="FX24" s="15"/>
+      <c r="FY24" s="15"/>
+      <c r="FZ24" s="15"/>
+      <c r="GA24" s="15"/>
+      <c r="GB24" s="15"/>
+      <c r="GC24" s="15"/>
+      <c r="GD24" s="15"/>
+      <c r="GE24" s="15"/>
+      <c r="GF24" s="15"/>
+      <c r="GG24" s="15"/>
+      <c r="GH24" s="15"/>
+      <c r="GI24" s="15"/>
+      <c r="GJ24" s="15"/>
+      <c r="GK24" s="15"/>
+      <c r="GL24" s="15"/>
+      <c r="GM24" s="15"/>
+      <c r="GN24" s="15"/>
+      <c r="GO24" s="15"/>
+      <c r="GP24" s="15"/>
+      <c r="GQ24" s="15"/>
+      <c r="GR24" s="15"/>
+      <c r="GS24" s="15"/>
+      <c r="GT24" s="15"/>
+      <c r="GU24" s="15"/>
+      <c r="GV24" s="15"/>
+      <c r="GW24" s="15"/>
+      <c r="GX24" s="15"/>
+      <c r="GY24" s="15"/>
+      <c r="GZ24" s="15"/>
+      <c r="HA24" s="15"/>
+      <c r="HB24" s="15"/>
+      <c r="HC24" s="15"/>
+      <c r="HD24" s="15"/>
+      <c r="HE24" s="15"/>
+      <c r="HF24" s="15"/>
+      <c r="HG24" s="15"/>
+      <c r="HH24" s="15"/>
+      <c r="HI24" s="15"/>
+      <c r="HJ24" s="15"/>
+      <c r="HK24" s="15"/>
+      <c r="HL24" s="15"/>
+      <c r="HM24" s="15"/>
+      <c r="HN24" s="15"/>
+      <c r="HO24" s="15"/>
+      <c r="HP24" s="15"/>
+      <c r="HQ24" s="15"/>
+      <c r="HR24" s="15"/>
+      <c r="HS24" s="15"/>
+      <c r="HT24" s="15"/>
+      <c r="HU24" s="15"/>
+      <c r="HV24" s="15"/>
+      <c r="HW24" s="15"/>
+      <c r="HX24" s="15"/>
+      <c r="HY24" s="15"/>
+      <c r="HZ24" s="15"/>
+      <c r="IA24" s="15"/>
+      <c r="IB24" s="15"/>
+      <c r="IC24" s="15"/>
+      <c r="ID24" s="15"/>
+      <c r="IE24" s="15"/>
+      <c r="IF24" s="15"/>
+      <c r="IG24" s="15"/>
+      <c r="IH24" s="15"/>
+      <c r="II24" s="15"/>
+      <c r="IJ24" s="15"/>
+      <c r="IK24" s="15"/>
+      <c r="IL24" s="15"/>
+      <c r="IM24" s="15"/>
+      <c r="IN24" s="15"/>
+      <c r="IO24" s="15"/>
+      <c r="IP24" s="15"/>
+      <c r="IQ24" s="15"/>
+      <c r="IR24" s="15"/>
+      <c r="IS24" s="15"/>
+      <c r="IT24" s="15"/>
+      <c r="IU24" s="15"/>
+      <c r="IV24" s="15"/>
+      <c r="IW24" s="15"/>
+      <c r="IX24" s="15"/>
+      <c r="IY24" s="15"/>
+      <c r="IZ24" s="15"/>
+      <c r="JA24" s="15"/>
+      <c r="JB24" s="15"/>
+      <c r="JC24" s="15"/>
+      <c r="JD24" s="15"/>
+      <c r="JE24" s="15"/>
+      <c r="JF24" s="15"/>
+      <c r="JG24" s="15"/>
+      <c r="JH24" s="15"/>
+      <c r="JI24" s="15"/>
+      <c r="JJ24" s="15"/>
+      <c r="JK24" s="15"/>
+      <c r="JL24" s="15"/>
+      <c r="JM24" s="15"/>
+      <c r="JN24" s="15"/>
+      <c r="JO24" s="15"/>
+      <c r="JP24" s="15"/>
+      <c r="JQ24" s="15"/>
+      <c r="JR24" s="15"/>
+      <c r="JS24" s="15"/>
+      <c r="JT24" s="15"/>
+      <c r="JU24" s="15"/>
+      <c r="JV24" s="15"/>
+      <c r="JW24" s="15"/>
+      <c r="JX24" s="15"/>
+      <c r="JY24" s="15"/>
+      <c r="JZ24" s="15"/>
+      <c r="KA24" s="15"/>
+      <c r="KB24" s="15"/>
+      <c r="KC24" s="15"/>
+      <c r="KD24" s="15"/>
+      <c r="KE24" s="15"/>
+      <c r="KF24" s="15"/>
+      <c r="KG24" s="15"/>
+      <c r="KH24" s="15"/>
+      <c r="KI24" s="15"/>
+      <c r="KJ24" s="15"/>
+      <c r="KK24" s="15"/>
+      <c r="KL24" s="15"/>
+      <c r="KM24" s="15"/>
+      <c r="KN24" s="15"/>
+      <c r="KO24" s="15"/>
+      <c r="KP24" s="15"/>
+      <c r="KQ24" s="15"/>
+      <c r="KR24" s="15"/>
+      <c r="KS24" s="15"/>
+      <c r="KT24" s="15"/>
+      <c r="KU24" s="15"/>
+      <c r="KV24" s="15"/>
+      <c r="KW24" s="15"/>
+      <c r="KX24" s="15"/>
+      <c r="KY24" s="15"/>
+      <c r="KZ24" s="15"/>
+      <c r="LA24" s="15"/>
+      <c r="LB24" s="15"/>
+      <c r="LC24" s="15"/>
+      <c r="LD24" s="15"/>
+      <c r="LE24" s="15"/>
+      <c r="LF24" s="15"/>
+      <c r="LG24" s="15"/>
+      <c r="LH24" s="15"/>
+      <c r="LI24" s="15"/>
+      <c r="LJ24" s="15"/>
+      <c r="LK24" s="15"/>
+      <c r="LL24" s="15"/>
+      <c r="LM24" s="15"/>
+      <c r="LN24" s="15"/>
+      <c r="LO24" s="15"/>
+      <c r="LP24" s="15"/>
+      <c r="LQ24" s="15"/>
+      <c r="LR24" s="15"/>
+      <c r="LS24" s="15"/>
+      <c r="LT24" s="15"/>
+      <c r="LU24" s="15"/>
+      <c r="LV24" s="15"/>
+      <c r="LW24" s="15"/>
+      <c r="LX24" s="15"/>
+      <c r="LY24" s="15"/>
+      <c r="LZ24" s="15"/>
+      <c r="MA24" s="15"/>
+      <c r="MB24" s="15"/>
+      <c r="MC24" s="15"/>
+      <c r="MD24" s="15"/>
+      <c r="ME24" s="15"/>
+      <c r="MF24" s="15"/>
+      <c r="MG24" s="15"/>
+      <c r="MH24" s="15"/>
+      <c r="MI24" s="15"/>
+      <c r="MJ24" s="15"/>
+      <c r="MK24" s="15"/>
+      <c r="ML24" s="15"/>
+      <c r="MM24" s="15"/>
+      <c r="MN24" s="15"/>
+      <c r="MO24" s="15"/>
+      <c r="MP24" s="15"/>
+      <c r="MQ24" s="15"/>
+      <c r="MR24" s="15"/>
+      <c r="MS24" s="15"/>
+      <c r="MT24" s="15"/>
+      <c r="MU24" s="15"/>
+      <c r="MV24" s="15"/>
+      <c r="MW24" s="15"/>
+      <c r="MX24" s="15"/>
+      <c r="MY24" s="15"/>
+      <c r="MZ24" s="15"/>
+      <c r="NA24" s="15"/>
+      <c r="NB24" s="15"/>
+      <c r="NC24" s="15"/>
+      <c r="ND24" s="15"/>
+      <c r="NE24" s="15"/>
+      <c r="NF24" s="15"/>
+      <c r="NG24" s="15"/>
+      <c r="NH24" s="15"/>
+      <c r="NI24" s="15"/>
+      <c r="NJ24" s="15"/>
+      <c r="NK24" s="15"/>
+      <c r="NL24" s="15"/>
+      <c r="NM24" s="15"/>
+      <c r="NN24" s="15"/>
+      <c r="NO24" s="15"/>
+      <c r="NP24" s="15"/>
+      <c r="NQ24" s="15"/>
+      <c r="NR24" s="15"/>
+      <c r="NS24" s="15"/>
+      <c r="NT24" s="15"/>
+      <c r="NU24" s="15"/>
+      <c r="NV24" s="15"/>
+      <c r="NW24" s="15"/>
+      <c r="NX24" s="15"/>
+      <c r="NY24" s="15"/>
+      <c r="NZ24" s="15"/>
+      <c r="OA24" s="15"/>
+      <c r="OB24" s="15"/>
+      <c r="OC24" s="15"/>
+      <c r="OD24" s="15"/>
+      <c r="OE24" s="15"/>
+      <c r="OF24" s="15"/>
+      <c r="OG24" s="15"/>
+      <c r="OH24" s="15"/>
+      <c r="OI24" s="15"/>
+      <c r="OJ24" s="15"/>
+      <c r="OK24" s="15"/>
+      <c r="OL24" s="15"/>
+      <c r="OM24" s="15"/>
+      <c r="ON24" s="15"/>
+      <c r="OO24" s="15"/>
+      <c r="OP24" s="15"/>
+      <c r="OQ24" s="15"/>
+      <c r="OR24" s="15"/>
+      <c r="OS24" s="15"/>
+      <c r="OT24" s="15"/>
+      <c r="OU24" s="15"/>
+      <c r="OV24" s="15"/>
+      <c r="OW24" s="15"/>
+      <c r="OX24" s="15"/>
+      <c r="OY24" s="15"/>
+      <c r="OZ24" s="15"/>
+      <c r="PA24" s="15"/>
+      <c r="PB24" s="15"/>
+      <c r="PC24" s="15"/>
+      <c r="PD24" s="15"/>
+      <c r="PE24" s="15"/>
+      <c r="PF24" s="15"/>
+      <c r="PG24" s="15"/>
+      <c r="PH24" s="15"/>
+      <c r="PI24" s="15"/>
+      <c r="PJ24" s="15"/>
+      <c r="PK24" s="15"/>
+      <c r="PL24" s="15"/>
+      <c r="PM24" s="15"/>
+      <c r="PN24" s="15"/>
+      <c r="PO24" s="15"/>
+      <c r="PP24" s="15"/>
+      <c r="PQ24" s="15"/>
+      <c r="PR24" s="15"/>
+      <c r="PS24" s="15"/>
+      <c r="PT24" s="15"/>
+      <c r="PU24" s="15"/>
+      <c r="PV24" s="15"/>
+      <c r="PW24" s="15"/>
+      <c r="PX24" s="15"/>
+      <c r="PY24" s="15"/>
+      <c r="PZ24" s="15"/>
+      <c r="QA24" s="15"/>
+      <c r="QB24" s="15"/>
+      <c r="QC24" s="15"/>
+      <c r="QD24" s="15"/>
+      <c r="QE24" s="15"/>
+      <c r="QF24" s="15"/>
+      <c r="QG24" s="15"/>
+      <c r="QH24" s="15"/>
+      <c r="QI24" s="15"/>
+      <c r="QJ24" s="15"/>
+      <c r="QK24" s="15"/>
+      <c r="QL24" s="15"/>
+      <c r="QM24" s="15"/>
+      <c r="QN24" s="15"/>
+      <c r="QO24" s="15"/>
+      <c r="QP24" s="15"/>
+      <c r="QQ24" s="15"/>
+      <c r="QR24" s="15"/>
+      <c r="QS24" s="15"/>
+      <c r="QT24" s="15"/>
+      <c r="QU24" s="15"/>
+      <c r="QV24" s="15"/>
+      <c r="QW24" s="15"/>
+      <c r="QX24" s="15"/>
+      <c r="QY24" s="15"/>
+      <c r="QZ24" s="15"/>
+      <c r="RA24" s="15"/>
+      <c r="RB24" s="15"/>
+      <c r="RC24" s="15"/>
+      <c r="RD24" s="15"/>
+      <c r="RE24" s="15"/>
+      <c r="RF24" s="15"/>
+      <c r="RG24" s="15"/>
+      <c r="RH24" s="15"/>
+      <c r="RI24" s="15"/>
+      <c r="RJ24" s="15"/>
+      <c r="RK24" s="15"/>
+      <c r="RL24" s="15"/>
+      <c r="RM24" s="15"/>
+      <c r="RN24" s="15"/>
+      <c r="RO24" s="15"/>
+      <c r="RP24" s="15"/>
+      <c r="RQ24" s="15"/>
+      <c r="RR24" s="15"/>
+      <c r="RS24" s="15"/>
+      <c r="RT24" s="15"/>
+      <c r="RU24" s="15"/>
+      <c r="RV24" s="15"/>
+      <c r="RW24" s="15"/>
+      <c r="RX24" s="15"/>
+      <c r="RY24" s="15"/>
+      <c r="RZ24" s="15"/>
+      <c r="SA24" s="15"/>
+      <c r="SB24" s="15"/>
+      <c r="SC24" s="15"/>
+      <c r="SD24" s="15"/>
+      <c r="SE24" s="15"/>
+      <c r="SF24" s="15"/>
+      <c r="SG24" s="15"/>
+      <c r="SH24" s="15"/>
+      <c r="SI24" s="15"/>
+      <c r="SJ24" s="15"/>
+      <c r="SK24" s="15"/>
+      <c r="SL24" s="15"/>
+      <c r="SM24" s="15"/>
+      <c r="SN24" s="15"/>
+      <c r="SO24" s="15"/>
+      <c r="SP24" s="15"/>
+      <c r="SQ24" s="15"/>
+      <c r="SR24" s="15"/>
+      <c r="SS24" s="15"/>
+      <c r="ST24" s="15"/>
+      <c r="SU24" s="15"/>
+      <c r="SV24" s="15"/>
+      <c r="SW24" s="15"/>
+      <c r="SX24" s="15"/>
+      <c r="SY24" s="15"/>
+      <c r="SZ24" s="15"/>
+      <c r="TA24" s="15"/>
+      <c r="TB24" s="15"/>
+      <c r="TC24" s="15"/>
+      <c r="TD24" s="15"/>
+      <c r="TE24" s="15"/>
+      <c r="TF24" s="15"/>
+      <c r="TG24" s="15"/>
+      <c r="TH24" s="15"/>
+      <c r="TI24" s="15"/>
+      <c r="TJ24" s="15"/>
+      <c r="TK24" s="15"/>
+      <c r="TL24" s="15"/>
+      <c r="TM24" s="15"/>
+      <c r="TN24" s="15"/>
+      <c r="TO24" s="15"/>
+      <c r="TP24" s="15"/>
+      <c r="TQ24" s="15"/>
+      <c r="TR24" s="15"/>
+      <c r="TS24" s="15"/>
+      <c r="TT24" s="15"/>
+      <c r="TU24" s="15"/>
+      <c r="TV24" s="15"/>
+      <c r="TW24" s="15"/>
+      <c r="TX24" s="15"/>
+      <c r="TY24" s="15"/>
+      <c r="TZ24" s="15"/>
+      <c r="UA24" s="15"/>
+      <c r="UB24" s="15"/>
+      <c r="UC24" s="15"/>
+      <c r="UD24" s="15"/>
+      <c r="UE24" s="15"/>
+      <c r="UF24" s="15"/>
+      <c r="UG24" s="15"/>
+      <c r="UH24" s="15"/>
+      <c r="UI24" s="15"/>
+      <c r="UJ24" s="15"/>
+      <c r="UK24" s="15"/>
+      <c r="UL24" s="15"/>
+      <c r="UM24" s="15"/>
+      <c r="UN24" s="15"/>
+      <c r="UO24" s="15"/>
+      <c r="UP24" s="15"/>
+      <c r="UQ24" s="15"/>
+      <c r="UR24" s="15"/>
+      <c r="US24" s="15"/>
+      <c r="UT24" s="15"/>
+      <c r="UU24" s="15"/>
+      <c r="UV24" s="15"/>
+      <c r="UW24" s="15"/>
+      <c r="UX24" s="15"/>
+      <c r="UY24" s="15"/>
+      <c r="UZ24" s="15"/>
+      <c r="VA24" s="15"/>
+      <c r="VB24" s="15"/>
+      <c r="VC24" s="15"/>
+      <c r="VD24" s="15"/>
+      <c r="VE24" s="15"/>
+      <c r="VF24" s="15"/>
+      <c r="VG24" s="15"/>
+      <c r="VH24" s="15"/>
+      <c r="VI24" s="15"/>
+      <c r="VJ24" s="15"/>
+      <c r="VK24" s="15"/>
+      <c r="VL24" s="15"/>
+      <c r="VM24" s="15"/>
+      <c r="VN24" s="15"/>
+      <c r="VO24" s="15"/>
+      <c r="VP24" s="15"/>
+      <c r="VQ24" s="15"/>
+      <c r="VR24" s="15"/>
+      <c r="VS24" s="15"/>
+      <c r="VT24" s="15"/>
+      <c r="VU24" s="15"/>
+      <c r="VV24" s="15"/>
+      <c r="VW24" s="15"/>
+      <c r="VX24" s="15"/>
+      <c r="VY24" s="15"/>
+      <c r="VZ24" s="15"/>
+      <c r="WA24" s="15"/>
+      <c r="WB24" s="15"/>
+      <c r="WC24" s="15"/>
+      <c r="WD24" s="15"/>
+      <c r="WE24" s="15"/>
+      <c r="WF24" s="15"/>
+      <c r="WG24" s="15"/>
+      <c r="WH24" s="15"/>
+      <c r="WI24" s="15"/>
+      <c r="WJ24" s="15"/>
+      <c r="WK24" s="15"/>
+      <c r="WL24" s="15"/>
+      <c r="WM24" s="15"/>
+      <c r="WN24" s="15"/>
+      <c r="WO24" s="15"/>
+      <c r="WP24" s="15"/>
+      <c r="WQ24" s="15"/>
+      <c r="WR24" s="15"/>
+      <c r="WS24" s="15"/>
+      <c r="WT24" s="15"/>
+      <c r="WU24" s="15"/>
+      <c r="WV24" s="15"/>
+      <c r="WW24" s="15"/>
+      <c r="WX24" s="15"/>
+      <c r="WY24" s="15"/>
+      <c r="WZ24" s="15"/>
+      <c r="XA24" s="15"/>
+      <c r="XB24" s="15"/>
+      <c r="XC24" s="15"/>
+      <c r="XD24" s="15"/>
+      <c r="XE24" s="15"/>
+      <c r="XF24" s="15"/>
+      <c r="XG24" s="15"/>
+      <c r="XH24" s="15"/>
+      <c r="XI24" s="15"/>
+      <c r="XJ24" s="15"/>
+      <c r="XK24" s="15"/>
+      <c r="XL24" s="15"/>
+      <c r="XM24" s="15"/>
+      <c r="XN24" s="15"/>
+      <c r="XO24" s="15"/>
+      <c r="XP24" s="15"/>
+      <c r="XQ24" s="15"/>
+      <c r="XR24" s="15"/>
+      <c r="XS24" s="15"/>
+      <c r="XT24" s="15"/>
+      <c r="XU24" s="15"/>
+      <c r="XV24" s="15"/>
+      <c r="XW24" s="15"/>
+      <c r="XX24" s="15"/>
+      <c r="XY24" s="15"/>
+      <c r="XZ24" s="15"/>
+      <c r="YA24" s="15"/>
+      <c r="YB24" s="15"/>
+      <c r="YC24" s="15"/>
+      <c r="YD24" s="15"/>
+      <c r="YE24" s="15"/>
+      <c r="YF24" s="15"/>
+      <c r="YG24" s="15"/>
+      <c r="YH24" s="15"/>
+      <c r="YI24" s="15"/>
+      <c r="YJ24" s="15"/>
+      <c r="YK24" s="15"/>
+      <c r="YL24" s="15"/>
+      <c r="YM24" s="15"/>
+      <c r="YN24" s="15"/>
+      <c r="YO24" s="15"/>
+      <c r="YP24" s="15"/>
+      <c r="YQ24" s="15"/>
+      <c r="YR24" s="15"/>
+      <c r="YS24" s="15"/>
+      <c r="YT24" s="15"/>
+      <c r="YU24" s="15"/>
+      <c r="YV24" s="15"/>
+      <c r="YW24" s="15"/>
+      <c r="YX24" s="15"/>
+      <c r="YY24" s="15"/>
+      <c r="YZ24" s="15"/>
+      <c r="ZA24" s="15"/>
+      <c r="ZB24" s="15"/>
+      <c r="ZC24" s="15"/>
+      <c r="ZD24" s="15"/>
+      <c r="ZE24" s="15"/>
+      <c r="ZF24" s="15"/>
+      <c r="ZG24" s="15"/>
+      <c r="ZH24" s="15"/>
+      <c r="ZI24" s="15"/>
+      <c r="ZJ24" s="15"/>
+      <c r="ZK24" s="15"/>
+      <c r="ZL24" s="15"/>
+      <c r="ZM24" s="15"/>
+      <c r="ZN24" s="15"/>
+      <c r="ZO24" s="15"/>
+      <c r="ZP24" s="15"/>
+      <c r="ZQ24" s="15"/>
+      <c r="ZR24" s="15"/>
+      <c r="ZS24" s="15"/>
+      <c r="ZT24" s="15"/>
+      <c r="ZU24" s="15"/>
+      <c r="ZV24" s="15"/>
+      <c r="ZW24" s="15"/>
+      <c r="ZX24" s="15"/>
+      <c r="ZY24" s="15"/>
+      <c r="ZZ24" s="15"/>
+      <c r="AAA24" s="15"/>
+      <c r="AAB24" s="15"/>
+      <c r="AAC24" s="15"/>
+      <c r="AAD24" s="15"/>
+      <c r="AAE24" s="15"/>
+      <c r="AAF24" s="15"/>
+      <c r="AAG24" s="15"/>
+      <c r="AAH24" s="15"/>
+      <c r="AAI24" s="15"/>
+      <c r="AAJ24" s="15"/>
+      <c r="AAK24" s="15"/>
+      <c r="AAL24" s="15"/>
+      <c r="AAM24" s="15"/>
+      <c r="AAN24" s="15"/>
+      <c r="AAO24" s="15"/>
+      <c r="AAP24" s="15"/>
+      <c r="AAQ24" s="15"/>
+      <c r="AAR24" s="15"/>
+      <c r="AAS24" s="15"/>
+      <c r="AAT24" s="15"/>
+      <c r="AAU24" s="15"/>
+      <c r="AAV24" s="15"/>
+      <c r="AAW24" s="15"/>
+      <c r="AAX24" s="15"/>
+      <c r="AAY24" s="15"/>
+      <c r="AAZ24" s="15"/>
+      <c r="ABA24" s="15"/>
+      <c r="ABB24" s="15"/>
+      <c r="ABC24" s="15"/>
+      <c r="ABD24" s="15"/>
+      <c r="ABE24" s="15"/>
+      <c r="ABF24" s="15"/>
+      <c r="ABG24" s="15"/>
+      <c r="ABH24" s="15"/>
+      <c r="ABI24" s="15"/>
+      <c r="ABJ24" s="15"/>
+      <c r="ABK24" s="15"/>
+      <c r="ABL24" s="15"/>
+      <c r="ABM24" s="15"/>
+      <c r="ABN24" s="15"/>
+      <c r="ABO24" s="15"/>
+      <c r="ABP24" s="15"/>
+      <c r="ABQ24" s="15"/>
+      <c r="ABR24" s="15"/>
+      <c r="ABS24" s="15"/>
+      <c r="ABT24" s="15"/>
+      <c r="ABU24" s="15"/>
+      <c r="ABV24" s="15"/>
+      <c r="ABW24" s="15"/>
+      <c r="ABX24" s="15"/>
+      <c r="ABY24" s="15"/>
+      <c r="ABZ24" s="15"/>
+      <c r="ACA24" s="15"/>
+      <c r="ACB24" s="15"/>
+      <c r="ACC24" s="15"/>
+      <c r="ACD24" s="15"/>
+      <c r="ACE24" s="15"/>
+      <c r="ACF24" s="15"/>
+      <c r="ACG24" s="15"/>
+      <c r="ACH24" s="15"/>
+      <c r="ACI24" s="15"/>
+      <c r="ACJ24" s="15"/>
+      <c r="ACK24" s="15"/>
+      <c r="ACL24" s="15"/>
+      <c r="ACM24" s="15"/>
+      <c r="ACN24" s="15"/>
+      <c r="ACO24" s="15"/>
+      <c r="ACP24" s="15"/>
+      <c r="ACQ24" s="15"/>
+      <c r="ACR24" s="15"/>
+      <c r="ACS24" s="15"/>
+      <c r="ACT24" s="15"/>
+      <c r="ACU24" s="15"/>
+      <c r="ACV24" s="15"/>
+      <c r="ACW24" s="15"/>
+      <c r="ACX24" s="15"/>
+      <c r="ACY24" s="15"/>
+      <c r="ACZ24" s="15"/>
+      <c r="ADA24" s="15"/>
+      <c r="ADB24" s="15"/>
+      <c r="ADC24" s="15"/>
+      <c r="ADD24" s="15"/>
+      <c r="ADE24" s="15"/>
+      <c r="ADF24" s="15"/>
+      <c r="ADG24" s="15"/>
+      <c r="ADH24" s="15"/>
+      <c r="ADI24" s="15"/>
+      <c r="ADJ24" s="15"/>
+      <c r="ADK24" s="15"/>
+      <c r="ADL24" s="15"/>
+      <c r="ADM24" s="15"/>
+      <c r="ADN24" s="15"/>
+      <c r="ADO24" s="15"/>
+      <c r="ADP24" s="15"/>
+      <c r="ADQ24" s="15"/>
+      <c r="ADR24" s="15"/>
+      <c r="ADS24" s="15"/>
+      <c r="ADT24" s="15"/>
+      <c r="ADU24" s="15"/>
+      <c r="ADV24" s="15"/>
+      <c r="ADW24" s="15"/>
+      <c r="ADX24" s="15"/>
+      <c r="ADY24" s="15"/>
+      <c r="ADZ24" s="15"/>
+      <c r="AEA24" s="15"/>
+      <c r="AEB24" s="15"/>
+      <c r="AEC24" s="15"/>
+      <c r="AED24" s="15"/>
+      <c r="AEE24" s="15"/>
+      <c r="AEF24" s="15"/>
+      <c r="AEG24" s="15"/>
+      <c r="AEH24" s="15"/>
+      <c r="AEI24" s="15"/>
+      <c r="AEJ24" s="15"/>
+      <c r="AEK24" s="15"/>
+      <c r="AEL24" s="15"/>
+      <c r="AEM24" s="15"/>
+      <c r="AEN24" s="15"/>
+      <c r="AEO24" s="15"/>
+      <c r="AEP24" s="15"/>
+      <c r="AEQ24" s="15"/>
+      <c r="AER24" s="15"/>
+      <c r="AES24" s="15"/>
+      <c r="AET24" s="15"/>
+      <c r="AEU24" s="15"/>
+      <c r="AEV24" s="15"/>
+      <c r="AEW24" s="15"/>
+      <c r="AEX24" s="15"/>
+      <c r="AEY24" s="15"/>
+      <c r="AEZ24" s="15"/>
+      <c r="AFA24" s="15"/>
+      <c r="AFB24" s="15"/>
+      <c r="AFC24" s="15"/>
+      <c r="AFD24" s="15"/>
+      <c r="AFE24" s="15"/>
+      <c r="AFF24" s="15"/>
+      <c r="AFG24" s="15"/>
+      <c r="AFH24" s="15"/>
+      <c r="AFI24" s="15"/>
+      <c r="AFJ24" s="15"/>
+      <c r="AFK24" s="15"/>
+      <c r="AFL24" s="15"/>
+      <c r="AFM24" s="15"/>
+      <c r="AFN24" s="15"/>
+      <c r="AFO24" s="15"/>
+      <c r="AFP24" s="15"/>
+      <c r="AFQ24" s="15"/>
+      <c r="AFR24" s="15"/>
+      <c r="AFS24" s="15"/>
+      <c r="AFT24" s="15"/>
+      <c r="AFU24" s="15"/>
+      <c r="AFV24" s="15"/>
+      <c r="AFW24" s="15"/>
+      <c r="AFX24" s="15"/>
+      <c r="AFY24" s="15"/>
+      <c r="AFZ24" s="15"/>
+      <c r="AGA24" s="15"/>
+      <c r="AGB24" s="15"/>
+      <c r="AGC24" s="15"/>
+      <c r="AGD24" s="15"/>
+      <c r="AGE24" s="15"/>
+      <c r="AGF24" s="15"/>
+      <c r="AGG24" s="15"/>
+      <c r="AGH24" s="15"/>
+      <c r="AGI24" s="15"/>
+      <c r="AGJ24" s="15"/>
+      <c r="AGK24" s="15"/>
+      <c r="AGL24" s="15"/>
+      <c r="AGM24" s="15"/>
+      <c r="AGN24" s="15"/>
+      <c r="AGO24" s="15"/>
+      <c r="AGP24" s="15"/>
+      <c r="AGQ24" s="15"/>
+      <c r="AGR24" s="15"/>
+      <c r="AGS24" s="15"/>
+      <c r="AGT24" s="15"/>
+      <c r="AGU24" s="15"/>
+      <c r="AGV24" s="15"/>
+      <c r="AGW24" s="15"/>
+      <c r="AGX24" s="15"/>
+      <c r="AGY24" s="15"/>
+      <c r="AGZ24" s="15"/>
+      <c r="AHA24" s="15"/>
+      <c r="AHB24" s="15"/>
+      <c r="AHC24" s="15"/>
+      <c r="AHD24" s="15"/>
+      <c r="AHE24" s="15"/>
+      <c r="AHF24" s="15"/>
+      <c r="AHG24" s="15"/>
+      <c r="AHH24" s="15"/>
+      <c r="AHI24" s="15"/>
+      <c r="AHJ24" s="15"/>
+      <c r="AHK24" s="15"/>
+      <c r="AHL24" s="15"/>
+      <c r="AHM24" s="15"/>
+      <c r="AHN24" s="15"/>
+      <c r="AHO24" s="15"/>
+      <c r="AHP24" s="15"/>
+      <c r="AHQ24" s="15"/>
+      <c r="AHR24" s="15"/>
+      <c r="AHS24" s="15"/>
+      <c r="AHT24" s="15"/>
+      <c r="AHU24" s="15"/>
+      <c r="AHV24" s="15"/>
+      <c r="AHW24" s="15"/>
+      <c r="AHX24" s="15"/>
+      <c r="AHY24" s="15"/>
+      <c r="AHZ24" s="15"/>
+      <c r="AIA24" s="15"/>
+      <c r="AIB24" s="15"/>
+      <c r="AIC24" s="15"/>
+      <c r="AID24" s="15"/>
+      <c r="AIE24" s="15"/>
+      <c r="AIF24" s="15"/>
+      <c r="AIG24" s="15"/>
+      <c r="AIH24" s="15"/>
+      <c r="AII24" s="15"/>
+      <c r="AIJ24" s="15"/>
+      <c r="AIK24" s="15"/>
+      <c r="AIL24" s="15"/>
+      <c r="AIM24" s="15"/>
+      <c r="AIN24" s="15"/>
+      <c r="AIO24" s="15"/>
+      <c r="AIP24" s="15"/>
+      <c r="AIQ24" s="15"/>
+      <c r="AIR24" s="15"/>
+      <c r="AIS24" s="15"/>
+      <c r="AIT24" s="15"/>
+      <c r="AIU24" s="15"/>
+      <c r="AIV24" s="15"/>
+      <c r="AIW24" s="15"/>
+      <c r="AIX24" s="15"/>
+      <c r="AIY24" s="15"/>
+      <c r="AIZ24" s="15"/>
+      <c r="AJA24" s="15"/>
+      <c r="AJB24" s="15"/>
+      <c r="AJC24" s="15"/>
+      <c r="AJD24" s="15"/>
+      <c r="AJE24" s="15"/>
+      <c r="AJF24" s="15"/>
+      <c r="AJG24" s="15"/>
+      <c r="AJH24" s="15"/>
+      <c r="AJI24" s="15"/>
+      <c r="AJJ24" s="15"/>
+      <c r="AJK24" s="15"/>
+      <c r="AJL24" s="15"/>
+      <c r="AJM24" s="15"/>
+      <c r="AJN24" s="15"/>
+      <c r="AJO24" s="15"/>
+      <c r="AJP24" s="15"/>
+      <c r="AJQ24" s="15"/>
+      <c r="AJR24" s="15"/>
+      <c r="AJS24" s="15"/>
+      <c r="AJT24" s="15"/>
+      <c r="AJU24" s="15"/>
+      <c r="AJV24" s="15"/>
+      <c r="AJW24" s="15"/>
+      <c r="AJX24" s="15"/>
+      <c r="AJY24" s="15"/>
+      <c r="AJZ24" s="15"/>
+      <c r="AKA24" s="15"/>
+      <c r="AKB24" s="15"/>
+      <c r="AKC24" s="15"/>
+      <c r="AKD24" s="15"/>
+      <c r="AKE24" s="15"/>
+      <c r="AKF24" s="15"/>
+      <c r="AKG24" s="15"/>
+      <c r="AKH24" s="15"/>
+      <c r="AKI24" s="15"/>
+      <c r="AKJ24" s="15"/>
+      <c r="AKK24" s="15"/>
+      <c r="AKL24" s="15"/>
+      <c r="AKM24" s="15"/>
+      <c r="AKN24" s="15"/>
+      <c r="AKO24" s="15"/>
+      <c r="AKP24" s="15"/>
+      <c r="AKQ24" s="15"/>
+      <c r="AKR24" s="15"/>
+      <c r="AKS24" s="15"/>
+      <c r="AKT24" s="15"/>
+      <c r="AKU24" s="15"/>
+      <c r="AKV24" s="15"/>
+      <c r="AKW24" s="15"/>
+      <c r="AKX24" s="15"/>
+      <c r="AKY24" s="15"/>
+      <c r="AKZ24" s="15"/>
+      <c r="ALA24" s="15"/>
+      <c r="ALB24" s="15"/>
+      <c r="ALC24" s="15"/>
+      <c r="ALD24" s="15"/>
+      <c r="ALE24" s="15"/>
+      <c r="ALF24" s="15"/>
+      <c r="ALG24" s="15"/>
+      <c r="ALH24" s="15"/>
+      <c r="ALI24" s="15"/>
+      <c r="ALJ24" s="15"/>
+      <c r="ALK24" s="15"/>
+      <c r="ALL24" s="15"/>
+      <c r="ALM24" s="15"/>
+      <c r="ALN24" s="15"/>
+      <c r="ALO24" s="15"/>
+      <c r="ALP24" s="15"/>
+      <c r="ALQ24" s="15"/>
+      <c r="ALR24" s="15"/>
+      <c r="ALS24" s="15"/>
+      <c r="ALT24" s="15"/>
+      <c r="ALU24" s="15"/>
+      <c r="ALV24" s="15"/>
+      <c r="ALW24" s="15"/>
+      <c r="ALX24" s="15"/>
+      <c r="ALY24" s="15"/>
+      <c r="ALZ24" s="15"/>
+      <c r="AMA24" s="15"/>
+      <c r="AMB24" s="15"/>
+      <c r="AMC24" s="15"/>
+      <c r="AMD24" s="15"/>
+      <c r="AME24" s="15"/>
+      <c r="AMF24" s="15"/>
+      <c r="AMG24" s="15"/>
+      <c r="AMH24" s="15"/>
+      <c r="AMI24" s="15"/>
+      <c r="AMJ24" s="15"/>
+      <c r="AMK24" s="15"/>
+      <c r="AML24" s="15"/>
+      <c r="AMM24" s="15"/>
+      <c r="AMN24" s="15"/>
+      <c r="AMO24" s="15"/>
+      <c r="AMP24" s="15"/>
+      <c r="AMQ24" s="15"/>
+      <c r="AMR24" s="15"/>
+      <c r="AMS24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
@@ -11477,7 +12473,7 @@
       <c r="L25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M25" s="37" t="s">
+      <c r="M25" s="35" t="s">
         <v>261</v>
       </c>
       <c r="N25" s="8" t="s">
@@ -11688,16 +12684,16 @@
         <v>281</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AB27" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC27" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="AD27" s="1" t="n">
         <v>281886</v>
@@ -11722,7 +12718,7 @@
         <v>1022</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2</v>
@@ -11731,7 +12727,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="10" t="n">
@@ -11753,13 +12749,13 @@
         <v>183</v>
       </c>
       <c r="M28" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
@@ -11777,7 +12773,7 @@
         <v>1</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>188</v>
@@ -11789,7 +12785,7 @@
         <v>90</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AD28" s="1" t="n">
         <v>144183</v>
@@ -11817,7 +12813,7 @@
         <v>1023</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2</v>
@@ -11826,7 +12822,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>150</v>
@@ -11850,7 +12846,7 @@
         <v>119</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T29" s="1" t="n">
         <v>16</v>
@@ -11871,7 +12867,7 @@
         <v>118</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF29" s="1" t="n">
         <v>20270</v>
@@ -11888,7 +12884,7 @@
         <v>1024</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2</v>
@@ -11897,7 +12893,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>250</v>
@@ -11921,7 +12917,7 @@
         <v>119</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T30" s="1" t="n">
         <v>16</v>
@@ -11942,7 +12938,7 @@
         <v>118</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF30" s="1" t="n">
         <v>20270</v>
@@ -11959,7 +12955,7 @@
         <v>1025</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>3</v>
@@ -11968,7 +12964,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>9</v>
@@ -11992,16 +12988,16 @@
         <v>83</v>
       </c>
       <c r="M31" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="O31" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="T31" s="1" t="n">
         <v>16</v>
@@ -12013,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>134</v>
@@ -12025,7 +13021,7 @@
         <v>153</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AD31" s="1" t="n">
         <v>281788</v>
@@ -12048,7 +13044,7 @@
         <v>1026</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>3</v>
@@ -12057,7 +13053,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>7</v>
@@ -12081,16 +13077,16 @@
         <v>83</v>
       </c>
       <c r="M32" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="O32" s="1" t="s">
+      <c r="S32" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="T32" s="1" t="n">
         <v>16</v>
@@ -12111,10 +13107,10 @@
         <v>90</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AD32" s="1" t="n">
         <v>285400</v>
@@ -12137,7 +13133,7 @@
         <v>1027</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>3</v>
@@ -12146,7 +13142,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>2</v>
@@ -12170,16 +13166,16 @@
         <v>83</v>
       </c>
       <c r="M33" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="O33" s="1" t="s">
+      <c r="S33" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="T33" s="1" t="n">
         <v>16</v>
@@ -12191,7 +13187,7 @@
         <v>1.2</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>176</v>
@@ -12203,7 +13199,7 @@
         <v>153</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AD33" s="1" t="n">
         <v>281710</v>
@@ -12226,7 +13222,7 @@
         <v>1028</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>3</v>
@@ -12235,7 +13231,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>4</v>
@@ -12259,16 +13255,16 @@
         <v>83</v>
       </c>
       <c r="M34" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="O34" s="1" t="s">
+      <c r="S34" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="T34" s="1" t="n">
         <v>16</v>
@@ -12280,19 +13276,19 @@
         <v>0.5</v>
       </c>
       <c r="Y34" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z34" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="AA34" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD34" s="1" t="n">
         <v>299561</v>
@@ -12311,11 +13307,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38" t="n">
+      <c r="A35" s="36" t="n">
         <v>1029</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>3</v>
@@ -12323,8 +13319,8 @@
       <c r="D35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E35" s="38" t="s">
-        <v>327</v>
+      <c r="E35" s="36" t="s">
+        <v>326</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>550</v>
@@ -12345,25 +13341,25 @@
         <v>83</v>
       </c>
       <c r="M35" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="O35" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="O35" s="1" t="s">
+      <c r="R35" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="R35" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="T35" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V35" s="38" t="s">
-        <v>331</v>
+      <c r="V35" s="36" t="s">
+        <v>330</v>
       </c>
       <c r="W35" s="1" t="n">
         <v>130642</v>
@@ -12384,7 +13380,7 @@
         <v>153</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AD35" s="1" t="n">
         <v>285356</v>
@@ -12392,8 +13388,8 @@
       <c r="AE35" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF35" s="38" t="s">
-        <v>333</v>
+      <c r="AF35" s="36" t="s">
+        <v>332</v>
       </c>
       <c r="AG35" s="1" t="n">
         <v>2</v>
@@ -12403,11 +13399,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="38" t="n">
+      <c r="A36" s="36" t="n">
         <v>1030</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>3</v>
@@ -12415,8 +13411,8 @@
       <c r="D36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E36" s="38" t="s">
-        <v>335</v>
+      <c r="E36" s="36" t="s">
+        <v>334</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>2</v>
@@ -12440,25 +13436,25 @@
         <v>83</v>
       </c>
       <c r="M36" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="O36" s="1" t="s">
+      <c r="R36" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="R36" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="T36" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V36" s="38" t="s">
-        <v>339</v>
+      <c r="V36" s="36" t="s">
+        <v>338</v>
       </c>
       <c r="W36" s="1" t="n">
         <v>254276</v>
@@ -12479,7 +13475,7 @@
         <v>153</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AD36" s="1" t="n">
         <v>20301</v>
@@ -12487,8 +13483,8 @@
       <c r="AE36" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF36" s="38" t="s">
-        <v>341</v>
+      <c r="AF36" s="36" t="s">
+        <v>340</v>
       </c>
       <c r="AG36" s="1" t="n">
         <v>3</v>
@@ -12502,7 +13498,7 @@
         <v>1031</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>4</v>
@@ -12511,7 +13507,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>8</v>
@@ -12535,16 +13531,16 @@
         <v>83</v>
       </c>
       <c r="M37" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="O37" s="1" t="s">
+      <c r="S37" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="T37" s="1" t="n">
         <v>16</v>
@@ -12556,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>89</v>
@@ -12568,7 +13564,7 @@
         <v>222</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD37" s="1" t="n">
         <v>281710</v>
@@ -12591,7 +13587,7 @@
         <v>1032</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>4</v>
@@ -12600,7 +13596,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>4</v>
@@ -12624,16 +13620,16 @@
         <v>83</v>
       </c>
       <c r="M38" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="O38" s="1" t="s">
+      <c r="S38" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="T38" s="1" t="n">
         <v>16</v>
@@ -12645,7 +13641,7 @@
         <v>0.8</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>89</v>
@@ -12654,10 +13650,10 @@
         <v>90</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AD38" s="1" t="n">
         <v>281871</v>
@@ -12680,7 +13676,7 @@
         <v>1033</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>4</v>
@@ -12689,7 +13685,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>10</v>
@@ -12713,16 +13709,16 @@
         <v>83</v>
       </c>
       <c r="M39" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="O39" s="1" t="s">
+      <c r="S39" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="T39" s="1" t="n">
         <v>16</v>
@@ -12734,7 +13730,7 @@
         <v>1</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>89</v>
@@ -12746,7 +13742,7 @@
         <v>153</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AD39" s="1" t="n">
         <v>300932</v>
@@ -12769,7 +13765,7 @@
         <v>1034</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>4</v>
@@ -12778,7 +13774,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1500</v>
@@ -12799,16 +13795,16 @@
         <v>83</v>
       </c>
       <c r="M40" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="O40" s="1" t="s">
+      <c r="S40" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="T40" s="1" t="n">
         <v>16</v>
@@ -12820,7 +13816,7 @@
         <v>1</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>89</v>
@@ -12832,7 +13828,7 @@
         <v>153</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AD40" s="1" t="n">
         <v>117391</v>
@@ -12855,7 +13851,7 @@
         <v>1035</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>4</v>
@@ -12864,7 +13860,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>6</v>
@@ -12888,16 +13884,16 @@
         <v>83</v>
       </c>
       <c r="M41" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="O41" s="1" t="s">
+      <c r="S41" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="T41" s="1" t="n">
         <v>16</v>
@@ -12918,10 +13914,10 @@
         <v>90</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AD41" s="1" t="n">
         <v>285445</v>
@@ -12929,7 +13925,7 @@
       <c r="AE41" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF41" s="39" t="n">
+      <c r="AF41" s="37" t="n">
         <v>269223</v>
       </c>
       <c r="AG41" s="1" t="n">
@@ -12944,7 +13940,7 @@
         <v>1036</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>4</v>
@@ -12953,7 +13949,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>150</v>
@@ -12980,7 +13976,7 @@
         <v>119</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T42" s="1" t="n">
         <v>16</v>
@@ -13001,7 +13997,7 @@
         <v>118</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF42" s="1" t="n">
         <v>20270</v>
@@ -13018,7 +14014,7 @@
         <v>1037</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>5</v>
@@ -13027,7 +14023,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>150</v>
@@ -13048,16 +14044,16 @@
         <v>83</v>
       </c>
       <c r="M43" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="O43" s="1" t="s">
+      <c r="S43" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="T43" s="1" t="n">
         <v>16</v>
@@ -13069,7 +14065,7 @@
         <v>1</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Z43" s="1" t="s">
         <v>89</v>
@@ -13081,7 +14077,7 @@
         <v>222</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AD43" s="1" t="n">
         <v>279765</v>
@@ -13104,7 +14100,7 @@
         <v>1038</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>5</v>
@@ -13113,7 +14109,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>250</v>
@@ -13134,16 +14130,16 @@
         <v>83</v>
       </c>
       <c r="M44" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="O44" s="1" t="s">
+      <c r="S44" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="T44" s="1" t="n">
         <v>16</v>
@@ -13155,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z44" s="1" t="s">
         <v>89</v>
@@ -13167,7 +14163,7 @@
         <v>222</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AD44" s="1" t="n">
         <v>85944</v>
@@ -13175,7 +14171,7 @@
       <c r="AE44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AF44" s="39" t="n">
+      <c r="AF44" s="37" t="n">
         <v>29747</v>
       </c>
       <c r="AG44" s="1" t="n">
@@ -13190,7 +14186,7 @@
         <v>1039</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>5</v>
@@ -13199,7 +14195,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>3</v>
@@ -13223,16 +14219,16 @@
         <v>83</v>
       </c>
       <c r="M45" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="O45" s="1" t="s">
+      <c r="S45" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="T45" s="1" t="n">
         <v>16</v>
@@ -13244,7 +14240,7 @@
         <v>1</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Z45" s="1" t="s">
         <v>134</v>
@@ -13256,7 +14252,7 @@
         <v>153</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AD45" s="1" t="n">
         <v>326802</v>
@@ -13279,7 +14275,7 @@
         <v>1040</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>5</v>
@@ -13288,7 +14284,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>6</v>
@@ -13312,16 +14308,16 @@
         <v>83</v>
       </c>
       <c r="M46" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="N46" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="O46" s="1" t="s">
+      <c r="S46" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="T46" s="1" t="n">
         <v>16</v>
@@ -13333,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>222</v>
@@ -13345,7 +14341,7 @@
         <v>89</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AD46" s="1" t="n">
         <v>281871</v>
@@ -13368,7 +14364,7 @@
         <v>1041</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>5</v>
@@ -13377,7 +14373,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>100</v>
@@ -13398,16 +14394,16 @@
         <v>183</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O47" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="S47" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="T47" s="1" t="n">
         <v>16</v>
@@ -13419,7 +14415,7 @@
         <v>0.6</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Z47" s="1" t="s">
         <v>89</v>
@@ -13431,7 +14427,7 @@
         <v>89</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AD47" s="1" t="n">
         <v>285673</v>
@@ -13454,7 +14450,7 @@
         <v>1042</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5</v>
@@ -13463,7 +14459,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G48" s="10" t="n">
         <v>100</v>
@@ -13484,13 +14480,13 @@
         <v>183</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
@@ -13505,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Z48" s="1" t="s">
         <v>89</v>
@@ -13517,7 +14513,7 @@
         <v>89</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AD48" s="1" t="n">
         <v>144183</v>
@@ -13545,7 +14541,7 @@
         <v>1043</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>6</v>
@@ -13554,7 +14550,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>5</v>
@@ -13578,16 +14574,16 @@
         <v>83</v>
       </c>
       <c r="M49" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O49" s="1" t="s">
+      <c r="S49" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="T49" s="1" t="n">
         <v>16</v>
@@ -13611,7 +14607,7 @@
         <v>153</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AD49" s="1" t="n">
         <v>303259</v>
@@ -13634,7 +14630,7 @@
         <v>1044</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>6</v>
@@ -13643,7 +14639,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>350</v>
@@ -13664,16 +14660,16 @@
         <v>83</v>
       </c>
       <c r="M50" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="N50" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O50" s="1" t="s">
+      <c r="S50" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="T50" s="1" t="n">
         <v>16</v>
@@ -13697,7 +14693,7 @@
         <v>89</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AD50" s="1" t="n">
         <v>305224</v>
@@ -13720,7 +14716,7 @@
         <v>1045</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>6</v>
@@ -13729,7 +14725,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>3</v>
@@ -13753,16 +14749,16 @@
         <v>83</v>
       </c>
       <c r="M51" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="N51" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="O51" s="1" t="s">
+      <c r="S51" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="T51" s="1" t="n">
         <v>16</v>
@@ -13774,7 +14770,7 @@
         <v>1</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Z51" s="1" t="s">
         <v>89</v>
@@ -13786,7 +14782,7 @@
         <v>222</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AD51" s="1" t="n">
         <v>269209</v>
@@ -13809,7 +14805,7 @@
         <v>1046</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>6</v>
@@ -13818,7 +14814,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>6</v>
@@ -13842,16 +14838,16 @@
         <v>83</v>
       </c>
       <c r="M52" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="O52" s="1" t="s">
+      <c r="S52" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="T52" s="1" t="n">
         <v>16</v>
@@ -13863,7 +14859,7 @@
         <v>1</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Z52" s="1" t="s">
         <v>222</v>
@@ -13875,7 +14871,7 @@
         <v>153</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AD52" s="1" t="n">
         <v>144183</v>
@@ -13898,7 +14894,7 @@
         <v>1047</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>6</v>
@@ -13907,7 +14903,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>700</v>
@@ -13928,16 +14924,16 @@
         <v>83</v>
       </c>
       <c r="M53" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="N53" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="O53" s="1" t="s">
+      <c r="S53" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="T53" s="1" t="n">
         <v>16</v>
@@ -13949,7 +14945,7 @@
         <v>1</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Z53" s="1" t="s">
         <v>153</v>
@@ -13961,7 +14957,7 @@
         <v>153</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AD53" s="1" t="n">
         <v>281795</v>
@@ -13987,7 +14983,7 @@
         <v>1048</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>6</v>
@@ -13996,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G54" s="10" t="n">
         <v>100</v>
@@ -14017,13 +15013,13 @@
         <v>183</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="T54" s="1" t="n">
         <v>16</v>
@@ -14035,7 +15031,7 @@
         <v>1</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z54" s="1" t="s">
         <v>188</v>
@@ -14047,7 +15043,7 @@
         <v>90</v>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AD54" s="1" t="n">
         <v>144183</v>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="452">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1166,7 +1166,10 @@
     <t xml:space="preserve">0.6|0.6|0.6</t>
   </si>
   <si>
-    <t xml:space="preserve">56|96|176</t>
+    <t xml:space="preserve">56|86|156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4015||4016||4017</t>
   </si>
   <si>
     <t xml:space="preserve">Tower_name_24</t>
@@ -1738,7 +1741,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1754,13 +1757,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2A6099"/>
-        <bgColor rgb="FF666699"/>
+        <bgColor rgb="FF3465A4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3465A4"/>
+        <bgColor rgb="FF2A6099"/>
       </patternFill>
     </fill>
     <fill>
@@ -1818,7 +1827,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1955,11 +1964,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2024,7 +2061,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -2153,9 +2190,9 @@
   <dimension ref="A1:AMS54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="M10" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="Y10" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="topRight" activeCell="O28" activeCellId="0" sqref="O28"/>
+      <selection pane="topRight" activeCell="AG27" activeCellId="0" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11329,7 +11366,7 @@
       <c r="AMR23" s="27"/>
       <c r="AMS23" s="27"/>
     </row>
-    <row r="24" s="34" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
         <v>1018</v>
       </c>
@@ -12426,7 +12463,7 @@
       <c r="AMR24" s="15"/>
       <c r="AMS24" s="15"/>
     </row>
-    <row r="25" s="34" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
         <v>1019</v>
       </c>
@@ -13527,7 +13564,7 @@
       <c r="AMR25" s="15"/>
       <c r="AMS25" s="15"/>
     </row>
-    <row r="26" s="34" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
         <v>1020</v>
       </c>
@@ -14626,103 +14663,1115 @@
       <c r="AMR26" s="15"/>
       <c r="AMS26" s="15"/>
     </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" s="41" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="34" t="n">
         <v>1021</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="G27" s="10" t="n">
+      <c r="G27" s="36" t="n">
         <v>80</v>
       </c>
-      <c r="H27" s="10" t="n">
+      <c r="H27" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="J27" s="10" t="n">
+      <c r="J27" s="36" t="n">
         <v>326245</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L27" s="1" t="s">
+      <c r="K27" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L27" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="M27" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N27" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="P27" s="37" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="37" t="n">
+        <v>19</v>
+      </c>
+      <c r="R27" s="37" t="n">
+        <v>500</v>
+      </c>
+      <c r="S27" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="T27" s="1" t="n">
+      <c r="T27" s="37" t="n">
         <v>16</v>
       </c>
-      <c r="W27" s="1" t="n">
+      <c r="U27" s="37"/>
+      <c r="V27" s="37" t="n">
+        <v>500</v>
+      </c>
+      <c r="W27" s="37" t="n">
         <v>151069</v>
       </c>
-      <c r="X27" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y27" s="1" t="s">
+      <c r="X27" s="37" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y27" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="Z27" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="AA27" s="1" t="s">
+      <c r="AA27" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="AB27" s="1" t="s">
+      <c r="AB27" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="AC27" s="1" t="s">
+      <c r="AC27" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="AD27" s="1" t="n">
+      <c r="AD27" s="37" t="n">
         <v>281886</v>
       </c>
-      <c r="AE27" s="1" t="s">
+      <c r="AE27" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="AF27" s="1" t="n">
+      <c r="AF27" s="37" t="n">
         <v>281763</v>
       </c>
-      <c r="AG27" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH27" s="1" t="s">
+      <c r="AG27" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH27" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="AT27" s="9"/>
-      <c r="AV27" s="9"/>
+      <c r="AI27" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="37"/>
+      <c r="AM27" s="37"/>
+      <c r="AN27" s="37"/>
+      <c r="AO27" s="37"/>
+      <c r="AP27" s="37"/>
+      <c r="AQ27" s="37"/>
+      <c r="AR27" s="37"/>
+      <c r="AS27" s="37"/>
+      <c r="AT27" s="40"/>
+      <c r="AU27" s="37"/>
+      <c r="AV27" s="40"/>
+      <c r="AW27" s="37"/>
+      <c r="AX27" s="37"/>
+      <c r="AY27" s="37"/>
+      <c r="AZ27" s="37"/>
+      <c r="BA27" s="37"/>
+      <c r="BB27" s="37"/>
+      <c r="BC27" s="37"/>
+      <c r="BD27" s="37"/>
+      <c r="BE27" s="37"/>
+      <c r="BF27" s="37"/>
+      <c r="BG27" s="37"/>
+      <c r="BH27" s="37"/>
+      <c r="BI27" s="37"/>
+      <c r="BJ27" s="37"/>
+      <c r="BK27" s="37"/>
+      <c r="BL27" s="37"/>
+      <c r="BM27" s="37"/>
+      <c r="BN27" s="37"/>
+      <c r="BO27" s="37"/>
+      <c r="BP27" s="37"/>
+      <c r="BQ27" s="37"/>
+      <c r="BR27" s="37"/>
+      <c r="BS27" s="37"/>
+      <c r="BT27" s="37"/>
+      <c r="BU27" s="37"/>
+      <c r="BV27" s="37"/>
+      <c r="BW27" s="37"/>
+      <c r="BX27" s="37"/>
+      <c r="BY27" s="37"/>
+      <c r="BZ27" s="37"/>
+      <c r="CA27" s="37"/>
+      <c r="CB27" s="37"/>
+      <c r="CC27" s="37"/>
+      <c r="CD27" s="37"/>
+      <c r="CE27" s="37"/>
+      <c r="CF27" s="37"/>
+      <c r="CG27" s="37"/>
+      <c r="CH27" s="37"/>
+      <c r="CI27" s="37"/>
+      <c r="CJ27" s="37"/>
+      <c r="CK27" s="37"/>
+      <c r="CL27" s="37"/>
+      <c r="CM27" s="37"/>
+      <c r="CN27" s="37"/>
+      <c r="CO27" s="37"/>
+      <c r="CP27" s="37"/>
+      <c r="CQ27" s="37"/>
+      <c r="CR27" s="37"/>
+      <c r="CS27" s="37"/>
+      <c r="CT27" s="37"/>
+      <c r="CU27" s="37"/>
+      <c r="CV27" s="37"/>
+      <c r="CW27" s="37"/>
+      <c r="CX27" s="37"/>
+      <c r="CY27" s="37"/>
+      <c r="CZ27" s="37"/>
+      <c r="DA27" s="37"/>
+      <c r="DB27" s="37"/>
+      <c r="DC27" s="37"/>
+      <c r="DD27" s="37"/>
+      <c r="DE27" s="37"/>
+      <c r="DF27" s="37"/>
+      <c r="DG27" s="37"/>
+      <c r="DH27" s="37"/>
+      <c r="DI27" s="37"/>
+      <c r="DJ27" s="37"/>
+      <c r="DK27" s="37"/>
+      <c r="DL27" s="37"/>
+      <c r="DM27" s="37"/>
+      <c r="DN27" s="37"/>
+      <c r="DO27" s="37"/>
+      <c r="DP27" s="37"/>
+      <c r="DQ27" s="37"/>
+      <c r="DR27" s="37"/>
+      <c r="DS27" s="37"/>
+      <c r="DT27" s="37"/>
+      <c r="DU27" s="37"/>
+      <c r="DV27" s="37"/>
+      <c r="DW27" s="37"/>
+      <c r="DX27" s="37"/>
+      <c r="DY27" s="37"/>
+      <c r="DZ27" s="37"/>
+      <c r="EA27" s="37"/>
+      <c r="EB27" s="37"/>
+      <c r="EC27" s="37"/>
+      <c r="ED27" s="37"/>
+      <c r="EE27" s="37"/>
+      <c r="EF27" s="37"/>
+      <c r="EG27" s="37"/>
+      <c r="EH27" s="37"/>
+      <c r="EI27" s="37"/>
+      <c r="EJ27" s="37"/>
+      <c r="EK27" s="37"/>
+      <c r="EL27" s="37"/>
+      <c r="EM27" s="37"/>
+      <c r="EN27" s="37"/>
+      <c r="EO27" s="37"/>
+      <c r="EP27" s="37"/>
+      <c r="EQ27" s="37"/>
+      <c r="ER27" s="37"/>
+      <c r="ES27" s="37"/>
+      <c r="ET27" s="37"/>
+      <c r="EU27" s="37"/>
+      <c r="EV27" s="37"/>
+      <c r="EW27" s="37"/>
+      <c r="EX27" s="37"/>
+      <c r="EY27" s="37"/>
+      <c r="EZ27" s="37"/>
+      <c r="FA27" s="37"/>
+      <c r="FB27" s="37"/>
+      <c r="FC27" s="37"/>
+      <c r="FD27" s="37"/>
+      <c r="FE27" s="37"/>
+      <c r="FF27" s="37"/>
+      <c r="FG27" s="37"/>
+      <c r="FH27" s="37"/>
+      <c r="FI27" s="37"/>
+      <c r="FJ27" s="37"/>
+      <c r="FK27" s="37"/>
+      <c r="FL27" s="37"/>
+      <c r="FM27" s="37"/>
+      <c r="FN27" s="37"/>
+      <c r="FO27" s="37"/>
+      <c r="FP27" s="37"/>
+      <c r="FQ27" s="37"/>
+      <c r="FR27" s="37"/>
+      <c r="FS27" s="37"/>
+      <c r="FT27" s="37"/>
+      <c r="FU27" s="37"/>
+      <c r="FV27" s="37"/>
+      <c r="FW27" s="37"/>
+      <c r="FX27" s="37"/>
+      <c r="FY27" s="37"/>
+      <c r="FZ27" s="37"/>
+      <c r="GA27" s="37"/>
+      <c r="GB27" s="37"/>
+      <c r="GC27" s="37"/>
+      <c r="GD27" s="37"/>
+      <c r="GE27" s="37"/>
+      <c r="GF27" s="37"/>
+      <c r="GG27" s="37"/>
+      <c r="GH27" s="37"/>
+      <c r="GI27" s="37"/>
+      <c r="GJ27" s="37"/>
+      <c r="GK27" s="37"/>
+      <c r="GL27" s="37"/>
+      <c r="GM27" s="37"/>
+      <c r="GN27" s="37"/>
+      <c r="GO27" s="37"/>
+      <c r="GP27" s="37"/>
+      <c r="GQ27" s="37"/>
+      <c r="GR27" s="37"/>
+      <c r="GS27" s="37"/>
+      <c r="GT27" s="37"/>
+      <c r="GU27" s="37"/>
+      <c r="GV27" s="37"/>
+      <c r="GW27" s="37"/>
+      <c r="GX27" s="37"/>
+      <c r="GY27" s="37"/>
+      <c r="GZ27" s="37"/>
+      <c r="HA27" s="37"/>
+      <c r="HB27" s="37"/>
+      <c r="HC27" s="37"/>
+      <c r="HD27" s="37"/>
+      <c r="HE27" s="37"/>
+      <c r="HF27" s="37"/>
+      <c r="HG27" s="37"/>
+      <c r="HH27" s="37"/>
+      <c r="HI27" s="37"/>
+      <c r="HJ27" s="37"/>
+      <c r="HK27" s="37"/>
+      <c r="HL27" s="37"/>
+      <c r="HM27" s="37"/>
+      <c r="HN27" s="37"/>
+      <c r="HO27" s="37"/>
+      <c r="HP27" s="37"/>
+      <c r="HQ27" s="37"/>
+      <c r="HR27" s="37"/>
+      <c r="HS27" s="37"/>
+      <c r="HT27" s="37"/>
+      <c r="HU27" s="37"/>
+      <c r="HV27" s="37"/>
+      <c r="HW27" s="37"/>
+      <c r="HX27" s="37"/>
+      <c r="HY27" s="37"/>
+      <c r="HZ27" s="37"/>
+      <c r="IA27" s="37"/>
+      <c r="IB27" s="37"/>
+      <c r="IC27" s="37"/>
+      <c r="ID27" s="37"/>
+      <c r="IE27" s="37"/>
+      <c r="IF27" s="37"/>
+      <c r="IG27" s="37"/>
+      <c r="IH27" s="37"/>
+      <c r="II27" s="37"/>
+      <c r="IJ27" s="37"/>
+      <c r="IK27" s="37"/>
+      <c r="IL27" s="37"/>
+      <c r="IM27" s="37"/>
+      <c r="IN27" s="37"/>
+      <c r="IO27" s="37"/>
+      <c r="IP27" s="37"/>
+      <c r="IQ27" s="37"/>
+      <c r="IR27" s="37"/>
+      <c r="IS27" s="37"/>
+      <c r="IT27" s="37"/>
+      <c r="IU27" s="37"/>
+      <c r="IV27" s="37"/>
+      <c r="IW27" s="37"/>
+      <c r="IX27" s="37"/>
+      <c r="IY27" s="37"/>
+      <c r="IZ27" s="37"/>
+      <c r="JA27" s="37"/>
+      <c r="JB27" s="37"/>
+      <c r="JC27" s="37"/>
+      <c r="JD27" s="37"/>
+      <c r="JE27" s="37"/>
+      <c r="JF27" s="37"/>
+      <c r="JG27" s="37"/>
+      <c r="JH27" s="37"/>
+      <c r="JI27" s="37"/>
+      <c r="JJ27" s="37"/>
+      <c r="JK27" s="37"/>
+      <c r="JL27" s="37"/>
+      <c r="JM27" s="37"/>
+      <c r="JN27" s="37"/>
+      <c r="JO27" s="37"/>
+      <c r="JP27" s="37"/>
+      <c r="JQ27" s="37"/>
+      <c r="JR27" s="37"/>
+      <c r="JS27" s="37"/>
+      <c r="JT27" s="37"/>
+      <c r="JU27" s="37"/>
+      <c r="JV27" s="37"/>
+      <c r="JW27" s="37"/>
+      <c r="JX27" s="37"/>
+      <c r="JY27" s="37"/>
+      <c r="JZ27" s="37"/>
+      <c r="KA27" s="37"/>
+      <c r="KB27" s="37"/>
+      <c r="KC27" s="37"/>
+      <c r="KD27" s="37"/>
+      <c r="KE27" s="37"/>
+      <c r="KF27" s="37"/>
+      <c r="KG27" s="37"/>
+      <c r="KH27" s="37"/>
+      <c r="KI27" s="37"/>
+      <c r="KJ27" s="37"/>
+      <c r="KK27" s="37"/>
+      <c r="KL27" s="37"/>
+      <c r="KM27" s="37"/>
+      <c r="KN27" s="37"/>
+      <c r="KO27" s="37"/>
+      <c r="KP27" s="37"/>
+      <c r="KQ27" s="37"/>
+      <c r="KR27" s="37"/>
+      <c r="KS27" s="37"/>
+      <c r="KT27" s="37"/>
+      <c r="KU27" s="37"/>
+      <c r="KV27" s="37"/>
+      <c r="KW27" s="37"/>
+      <c r="KX27" s="37"/>
+      <c r="KY27" s="37"/>
+      <c r="KZ27" s="37"/>
+      <c r="LA27" s="37"/>
+      <c r="LB27" s="37"/>
+      <c r="LC27" s="37"/>
+      <c r="LD27" s="37"/>
+      <c r="LE27" s="37"/>
+      <c r="LF27" s="37"/>
+      <c r="LG27" s="37"/>
+      <c r="LH27" s="37"/>
+      <c r="LI27" s="37"/>
+      <c r="LJ27" s="37"/>
+      <c r="LK27" s="37"/>
+      <c r="LL27" s="37"/>
+      <c r="LM27" s="37"/>
+      <c r="LN27" s="37"/>
+      <c r="LO27" s="37"/>
+      <c r="LP27" s="37"/>
+      <c r="LQ27" s="37"/>
+      <c r="LR27" s="37"/>
+      <c r="LS27" s="37"/>
+      <c r="LT27" s="37"/>
+      <c r="LU27" s="37"/>
+      <c r="LV27" s="37"/>
+      <c r="LW27" s="37"/>
+      <c r="LX27" s="37"/>
+      <c r="LY27" s="37"/>
+      <c r="LZ27" s="37"/>
+      <c r="MA27" s="37"/>
+      <c r="MB27" s="37"/>
+      <c r="MC27" s="37"/>
+      <c r="MD27" s="37"/>
+      <c r="ME27" s="37"/>
+      <c r="MF27" s="37"/>
+      <c r="MG27" s="37"/>
+      <c r="MH27" s="37"/>
+      <c r="MI27" s="37"/>
+      <c r="MJ27" s="37"/>
+      <c r="MK27" s="37"/>
+      <c r="ML27" s="37"/>
+      <c r="MM27" s="37"/>
+      <c r="MN27" s="37"/>
+      <c r="MO27" s="37"/>
+      <c r="MP27" s="37"/>
+      <c r="MQ27" s="37"/>
+      <c r="MR27" s="37"/>
+      <c r="MS27" s="37"/>
+      <c r="MT27" s="37"/>
+      <c r="MU27" s="37"/>
+      <c r="MV27" s="37"/>
+      <c r="MW27" s="37"/>
+      <c r="MX27" s="37"/>
+      <c r="MY27" s="37"/>
+      <c r="MZ27" s="37"/>
+      <c r="NA27" s="37"/>
+      <c r="NB27" s="37"/>
+      <c r="NC27" s="37"/>
+      <c r="ND27" s="37"/>
+      <c r="NE27" s="37"/>
+      <c r="NF27" s="37"/>
+      <c r="NG27" s="37"/>
+      <c r="NH27" s="37"/>
+      <c r="NI27" s="37"/>
+      <c r="NJ27" s="37"/>
+      <c r="NK27" s="37"/>
+      <c r="NL27" s="37"/>
+      <c r="NM27" s="37"/>
+      <c r="NN27" s="37"/>
+      <c r="NO27" s="37"/>
+      <c r="NP27" s="37"/>
+      <c r="NQ27" s="37"/>
+      <c r="NR27" s="37"/>
+      <c r="NS27" s="37"/>
+      <c r="NT27" s="37"/>
+      <c r="NU27" s="37"/>
+      <c r="NV27" s="37"/>
+      <c r="NW27" s="37"/>
+      <c r="NX27" s="37"/>
+      <c r="NY27" s="37"/>
+      <c r="NZ27" s="37"/>
+      <c r="OA27" s="37"/>
+      <c r="OB27" s="37"/>
+      <c r="OC27" s="37"/>
+      <c r="OD27" s="37"/>
+      <c r="OE27" s="37"/>
+      <c r="OF27" s="37"/>
+      <c r="OG27" s="37"/>
+      <c r="OH27" s="37"/>
+      <c r="OI27" s="37"/>
+      <c r="OJ27" s="37"/>
+      <c r="OK27" s="37"/>
+      <c r="OL27" s="37"/>
+      <c r="OM27" s="37"/>
+      <c r="ON27" s="37"/>
+      <c r="OO27" s="37"/>
+      <c r="OP27" s="37"/>
+      <c r="OQ27" s="37"/>
+      <c r="OR27" s="37"/>
+      <c r="OS27" s="37"/>
+      <c r="OT27" s="37"/>
+      <c r="OU27" s="37"/>
+      <c r="OV27" s="37"/>
+      <c r="OW27" s="37"/>
+      <c r="OX27" s="37"/>
+      <c r="OY27" s="37"/>
+      <c r="OZ27" s="37"/>
+      <c r="PA27" s="37"/>
+      <c r="PB27" s="37"/>
+      <c r="PC27" s="37"/>
+      <c r="PD27" s="37"/>
+      <c r="PE27" s="37"/>
+      <c r="PF27" s="37"/>
+      <c r="PG27" s="37"/>
+      <c r="PH27" s="37"/>
+      <c r="PI27" s="37"/>
+      <c r="PJ27" s="37"/>
+      <c r="PK27" s="37"/>
+      <c r="PL27" s="37"/>
+      <c r="PM27" s="37"/>
+      <c r="PN27" s="37"/>
+      <c r="PO27" s="37"/>
+      <c r="PP27" s="37"/>
+      <c r="PQ27" s="37"/>
+      <c r="PR27" s="37"/>
+      <c r="PS27" s="37"/>
+      <c r="PT27" s="37"/>
+      <c r="PU27" s="37"/>
+      <c r="PV27" s="37"/>
+      <c r="PW27" s="37"/>
+      <c r="PX27" s="37"/>
+      <c r="PY27" s="37"/>
+      <c r="PZ27" s="37"/>
+      <c r="QA27" s="37"/>
+      <c r="QB27" s="37"/>
+      <c r="QC27" s="37"/>
+      <c r="QD27" s="37"/>
+      <c r="QE27" s="37"/>
+      <c r="QF27" s="37"/>
+      <c r="QG27" s="37"/>
+      <c r="QH27" s="37"/>
+      <c r="QI27" s="37"/>
+      <c r="QJ27" s="37"/>
+      <c r="QK27" s="37"/>
+      <c r="QL27" s="37"/>
+      <c r="QM27" s="37"/>
+      <c r="QN27" s="37"/>
+      <c r="QO27" s="37"/>
+      <c r="QP27" s="37"/>
+      <c r="QQ27" s="37"/>
+      <c r="QR27" s="37"/>
+      <c r="QS27" s="37"/>
+      <c r="QT27" s="37"/>
+      <c r="QU27" s="37"/>
+      <c r="QV27" s="37"/>
+      <c r="QW27" s="37"/>
+      <c r="QX27" s="37"/>
+      <c r="QY27" s="37"/>
+      <c r="QZ27" s="37"/>
+      <c r="RA27" s="37"/>
+      <c r="RB27" s="37"/>
+      <c r="RC27" s="37"/>
+      <c r="RD27" s="37"/>
+      <c r="RE27" s="37"/>
+      <c r="RF27" s="37"/>
+      <c r="RG27" s="37"/>
+      <c r="RH27" s="37"/>
+      <c r="RI27" s="37"/>
+      <c r="RJ27" s="37"/>
+      <c r="RK27" s="37"/>
+      <c r="RL27" s="37"/>
+      <c r="RM27" s="37"/>
+      <c r="RN27" s="37"/>
+      <c r="RO27" s="37"/>
+      <c r="RP27" s="37"/>
+      <c r="RQ27" s="37"/>
+      <c r="RR27" s="37"/>
+      <c r="RS27" s="37"/>
+      <c r="RT27" s="37"/>
+      <c r="RU27" s="37"/>
+      <c r="RV27" s="37"/>
+      <c r="RW27" s="37"/>
+      <c r="RX27" s="37"/>
+      <c r="RY27" s="37"/>
+      <c r="RZ27" s="37"/>
+      <c r="SA27" s="37"/>
+      <c r="SB27" s="37"/>
+      <c r="SC27" s="37"/>
+      <c r="SD27" s="37"/>
+      <c r="SE27" s="37"/>
+      <c r="SF27" s="37"/>
+      <c r="SG27" s="37"/>
+      <c r="SH27" s="37"/>
+      <c r="SI27" s="37"/>
+      <c r="SJ27" s="37"/>
+      <c r="SK27" s="37"/>
+      <c r="SL27" s="37"/>
+      <c r="SM27" s="37"/>
+      <c r="SN27" s="37"/>
+      <c r="SO27" s="37"/>
+      <c r="SP27" s="37"/>
+      <c r="SQ27" s="37"/>
+      <c r="SR27" s="37"/>
+      <c r="SS27" s="37"/>
+      <c r="ST27" s="37"/>
+      <c r="SU27" s="37"/>
+      <c r="SV27" s="37"/>
+      <c r="SW27" s="37"/>
+      <c r="SX27" s="37"/>
+      <c r="SY27" s="37"/>
+      <c r="SZ27" s="37"/>
+      <c r="TA27" s="37"/>
+      <c r="TB27" s="37"/>
+      <c r="TC27" s="37"/>
+      <c r="TD27" s="37"/>
+      <c r="TE27" s="37"/>
+      <c r="TF27" s="37"/>
+      <c r="TG27" s="37"/>
+      <c r="TH27" s="37"/>
+      <c r="TI27" s="37"/>
+      <c r="TJ27" s="37"/>
+      <c r="TK27" s="37"/>
+      <c r="TL27" s="37"/>
+      <c r="TM27" s="37"/>
+      <c r="TN27" s="37"/>
+      <c r="TO27" s="37"/>
+      <c r="TP27" s="37"/>
+      <c r="TQ27" s="37"/>
+      <c r="TR27" s="37"/>
+      <c r="TS27" s="37"/>
+      <c r="TT27" s="37"/>
+      <c r="TU27" s="37"/>
+      <c r="TV27" s="37"/>
+      <c r="TW27" s="37"/>
+      <c r="TX27" s="37"/>
+      <c r="TY27" s="37"/>
+      <c r="TZ27" s="37"/>
+      <c r="UA27" s="37"/>
+      <c r="UB27" s="37"/>
+      <c r="UC27" s="37"/>
+      <c r="UD27" s="37"/>
+      <c r="UE27" s="37"/>
+      <c r="UF27" s="37"/>
+      <c r="UG27" s="37"/>
+      <c r="UH27" s="37"/>
+      <c r="UI27" s="37"/>
+      <c r="UJ27" s="37"/>
+      <c r="UK27" s="37"/>
+      <c r="UL27" s="37"/>
+      <c r="UM27" s="37"/>
+      <c r="UN27" s="37"/>
+      <c r="UO27" s="37"/>
+      <c r="UP27" s="37"/>
+      <c r="UQ27" s="37"/>
+      <c r="UR27" s="37"/>
+      <c r="US27" s="37"/>
+      <c r="UT27" s="37"/>
+      <c r="UU27" s="37"/>
+      <c r="UV27" s="37"/>
+      <c r="UW27" s="37"/>
+      <c r="UX27" s="37"/>
+      <c r="UY27" s="37"/>
+      <c r="UZ27" s="37"/>
+      <c r="VA27" s="37"/>
+      <c r="VB27" s="37"/>
+      <c r="VC27" s="37"/>
+      <c r="VD27" s="37"/>
+      <c r="VE27" s="37"/>
+      <c r="VF27" s="37"/>
+      <c r="VG27" s="37"/>
+      <c r="VH27" s="37"/>
+      <c r="VI27" s="37"/>
+      <c r="VJ27" s="37"/>
+      <c r="VK27" s="37"/>
+      <c r="VL27" s="37"/>
+      <c r="VM27" s="37"/>
+      <c r="VN27" s="37"/>
+      <c r="VO27" s="37"/>
+      <c r="VP27" s="37"/>
+      <c r="VQ27" s="37"/>
+      <c r="VR27" s="37"/>
+      <c r="VS27" s="37"/>
+      <c r="VT27" s="37"/>
+      <c r="VU27" s="37"/>
+      <c r="VV27" s="37"/>
+      <c r="VW27" s="37"/>
+      <c r="VX27" s="37"/>
+      <c r="VY27" s="37"/>
+      <c r="VZ27" s="37"/>
+      <c r="WA27" s="37"/>
+      <c r="WB27" s="37"/>
+      <c r="WC27" s="37"/>
+      <c r="WD27" s="37"/>
+      <c r="WE27" s="37"/>
+      <c r="WF27" s="37"/>
+      <c r="WG27" s="37"/>
+      <c r="WH27" s="37"/>
+      <c r="WI27" s="37"/>
+      <c r="WJ27" s="37"/>
+      <c r="WK27" s="37"/>
+      <c r="WL27" s="37"/>
+      <c r="WM27" s="37"/>
+      <c r="WN27" s="37"/>
+      <c r="WO27" s="37"/>
+      <c r="WP27" s="37"/>
+      <c r="WQ27" s="37"/>
+      <c r="WR27" s="37"/>
+      <c r="WS27" s="37"/>
+      <c r="WT27" s="37"/>
+      <c r="WU27" s="37"/>
+      <c r="WV27" s="37"/>
+      <c r="WW27" s="37"/>
+      <c r="WX27" s="37"/>
+      <c r="WY27" s="37"/>
+      <c r="WZ27" s="37"/>
+      <c r="XA27" s="37"/>
+      <c r="XB27" s="37"/>
+      <c r="XC27" s="37"/>
+      <c r="XD27" s="37"/>
+      <c r="XE27" s="37"/>
+      <c r="XF27" s="37"/>
+      <c r="XG27" s="37"/>
+      <c r="XH27" s="37"/>
+      <c r="XI27" s="37"/>
+      <c r="XJ27" s="37"/>
+      <c r="XK27" s="37"/>
+      <c r="XL27" s="37"/>
+      <c r="XM27" s="37"/>
+      <c r="XN27" s="37"/>
+      <c r="XO27" s="37"/>
+      <c r="XP27" s="37"/>
+      <c r="XQ27" s="37"/>
+      <c r="XR27" s="37"/>
+      <c r="XS27" s="37"/>
+      <c r="XT27" s="37"/>
+      <c r="XU27" s="37"/>
+      <c r="XV27" s="37"/>
+      <c r="XW27" s="37"/>
+      <c r="XX27" s="37"/>
+      <c r="XY27" s="37"/>
+      <c r="XZ27" s="37"/>
+      <c r="YA27" s="37"/>
+      <c r="YB27" s="37"/>
+      <c r="YC27" s="37"/>
+      <c r="YD27" s="37"/>
+      <c r="YE27" s="37"/>
+      <c r="YF27" s="37"/>
+      <c r="YG27" s="37"/>
+      <c r="YH27" s="37"/>
+      <c r="YI27" s="37"/>
+      <c r="YJ27" s="37"/>
+      <c r="YK27" s="37"/>
+      <c r="YL27" s="37"/>
+      <c r="YM27" s="37"/>
+      <c r="YN27" s="37"/>
+      <c r="YO27" s="37"/>
+      <c r="YP27" s="37"/>
+      <c r="YQ27" s="37"/>
+      <c r="YR27" s="37"/>
+      <c r="YS27" s="37"/>
+      <c r="YT27" s="37"/>
+      <c r="YU27" s="37"/>
+      <c r="YV27" s="37"/>
+      <c r="YW27" s="37"/>
+      <c r="YX27" s="37"/>
+      <c r="YY27" s="37"/>
+      <c r="YZ27" s="37"/>
+      <c r="ZA27" s="37"/>
+      <c r="ZB27" s="37"/>
+      <c r="ZC27" s="37"/>
+      <c r="ZD27" s="37"/>
+      <c r="ZE27" s="37"/>
+      <c r="ZF27" s="37"/>
+      <c r="ZG27" s="37"/>
+      <c r="ZH27" s="37"/>
+      <c r="ZI27" s="37"/>
+      <c r="ZJ27" s="37"/>
+      <c r="ZK27" s="37"/>
+      <c r="ZL27" s="37"/>
+      <c r="ZM27" s="37"/>
+      <c r="ZN27" s="37"/>
+      <c r="ZO27" s="37"/>
+      <c r="ZP27" s="37"/>
+      <c r="ZQ27" s="37"/>
+      <c r="ZR27" s="37"/>
+      <c r="ZS27" s="37"/>
+      <c r="ZT27" s="37"/>
+      <c r="ZU27" s="37"/>
+      <c r="ZV27" s="37"/>
+      <c r="ZW27" s="37"/>
+      <c r="ZX27" s="37"/>
+      <c r="ZY27" s="37"/>
+      <c r="ZZ27" s="37"/>
+      <c r="AAA27" s="37"/>
+      <c r="AAB27" s="37"/>
+      <c r="AAC27" s="37"/>
+      <c r="AAD27" s="37"/>
+      <c r="AAE27" s="37"/>
+      <c r="AAF27" s="37"/>
+      <c r="AAG27" s="37"/>
+      <c r="AAH27" s="37"/>
+      <c r="AAI27" s="37"/>
+      <c r="AAJ27" s="37"/>
+      <c r="AAK27" s="37"/>
+      <c r="AAL27" s="37"/>
+      <c r="AAM27" s="37"/>
+      <c r="AAN27" s="37"/>
+      <c r="AAO27" s="37"/>
+      <c r="AAP27" s="37"/>
+      <c r="AAQ27" s="37"/>
+      <c r="AAR27" s="37"/>
+      <c r="AAS27" s="37"/>
+      <c r="AAT27" s="37"/>
+      <c r="AAU27" s="37"/>
+      <c r="AAV27" s="37"/>
+      <c r="AAW27" s="37"/>
+      <c r="AAX27" s="37"/>
+      <c r="AAY27" s="37"/>
+      <c r="AAZ27" s="37"/>
+      <c r="ABA27" s="37"/>
+      <c r="ABB27" s="37"/>
+      <c r="ABC27" s="37"/>
+      <c r="ABD27" s="37"/>
+      <c r="ABE27" s="37"/>
+      <c r="ABF27" s="37"/>
+      <c r="ABG27" s="37"/>
+      <c r="ABH27" s="37"/>
+      <c r="ABI27" s="37"/>
+      <c r="ABJ27" s="37"/>
+      <c r="ABK27" s="37"/>
+      <c r="ABL27" s="37"/>
+      <c r="ABM27" s="37"/>
+      <c r="ABN27" s="37"/>
+      <c r="ABO27" s="37"/>
+      <c r="ABP27" s="37"/>
+      <c r="ABQ27" s="37"/>
+      <c r="ABR27" s="37"/>
+      <c r="ABS27" s="37"/>
+      <c r="ABT27" s="37"/>
+      <c r="ABU27" s="37"/>
+      <c r="ABV27" s="37"/>
+      <c r="ABW27" s="37"/>
+      <c r="ABX27" s="37"/>
+      <c r="ABY27" s="37"/>
+      <c r="ABZ27" s="37"/>
+      <c r="ACA27" s="37"/>
+      <c r="ACB27" s="37"/>
+      <c r="ACC27" s="37"/>
+      <c r="ACD27" s="37"/>
+      <c r="ACE27" s="37"/>
+      <c r="ACF27" s="37"/>
+      <c r="ACG27" s="37"/>
+      <c r="ACH27" s="37"/>
+      <c r="ACI27" s="37"/>
+      <c r="ACJ27" s="37"/>
+      <c r="ACK27" s="37"/>
+      <c r="ACL27" s="37"/>
+      <c r="ACM27" s="37"/>
+      <c r="ACN27" s="37"/>
+      <c r="ACO27" s="37"/>
+      <c r="ACP27" s="37"/>
+      <c r="ACQ27" s="37"/>
+      <c r="ACR27" s="37"/>
+      <c r="ACS27" s="37"/>
+      <c r="ACT27" s="37"/>
+      <c r="ACU27" s="37"/>
+      <c r="ACV27" s="37"/>
+      <c r="ACW27" s="37"/>
+      <c r="ACX27" s="37"/>
+      <c r="ACY27" s="37"/>
+      <c r="ACZ27" s="37"/>
+      <c r="ADA27" s="37"/>
+      <c r="ADB27" s="37"/>
+      <c r="ADC27" s="37"/>
+      <c r="ADD27" s="37"/>
+      <c r="ADE27" s="37"/>
+      <c r="ADF27" s="37"/>
+      <c r="ADG27" s="37"/>
+      <c r="ADH27" s="37"/>
+      <c r="ADI27" s="37"/>
+      <c r="ADJ27" s="37"/>
+      <c r="ADK27" s="37"/>
+      <c r="ADL27" s="37"/>
+      <c r="ADM27" s="37"/>
+      <c r="ADN27" s="37"/>
+      <c r="ADO27" s="37"/>
+      <c r="ADP27" s="37"/>
+      <c r="ADQ27" s="37"/>
+      <c r="ADR27" s="37"/>
+      <c r="ADS27" s="37"/>
+      <c r="ADT27" s="37"/>
+      <c r="ADU27" s="37"/>
+      <c r="ADV27" s="37"/>
+      <c r="ADW27" s="37"/>
+      <c r="ADX27" s="37"/>
+      <c r="ADY27" s="37"/>
+      <c r="ADZ27" s="37"/>
+      <c r="AEA27" s="37"/>
+      <c r="AEB27" s="37"/>
+      <c r="AEC27" s="37"/>
+      <c r="AED27" s="37"/>
+      <c r="AEE27" s="37"/>
+      <c r="AEF27" s="37"/>
+      <c r="AEG27" s="37"/>
+      <c r="AEH27" s="37"/>
+      <c r="AEI27" s="37"/>
+      <c r="AEJ27" s="37"/>
+      <c r="AEK27" s="37"/>
+      <c r="AEL27" s="37"/>
+      <c r="AEM27" s="37"/>
+      <c r="AEN27" s="37"/>
+      <c r="AEO27" s="37"/>
+      <c r="AEP27" s="37"/>
+      <c r="AEQ27" s="37"/>
+      <c r="AER27" s="37"/>
+      <c r="AES27" s="37"/>
+      <c r="AET27" s="37"/>
+      <c r="AEU27" s="37"/>
+      <c r="AEV27" s="37"/>
+      <c r="AEW27" s="37"/>
+      <c r="AEX27" s="37"/>
+      <c r="AEY27" s="37"/>
+      <c r="AEZ27" s="37"/>
+      <c r="AFA27" s="37"/>
+      <c r="AFB27" s="37"/>
+      <c r="AFC27" s="37"/>
+      <c r="AFD27" s="37"/>
+      <c r="AFE27" s="37"/>
+      <c r="AFF27" s="37"/>
+      <c r="AFG27" s="37"/>
+      <c r="AFH27" s="37"/>
+      <c r="AFI27" s="37"/>
+      <c r="AFJ27" s="37"/>
+      <c r="AFK27" s="37"/>
+      <c r="AFL27" s="37"/>
+      <c r="AFM27" s="37"/>
+      <c r="AFN27" s="37"/>
+      <c r="AFO27" s="37"/>
+      <c r="AFP27" s="37"/>
+      <c r="AFQ27" s="37"/>
+      <c r="AFR27" s="37"/>
+      <c r="AFS27" s="37"/>
+      <c r="AFT27" s="37"/>
+      <c r="AFU27" s="37"/>
+      <c r="AFV27" s="37"/>
+      <c r="AFW27" s="37"/>
+      <c r="AFX27" s="37"/>
+      <c r="AFY27" s="37"/>
+      <c r="AFZ27" s="37"/>
+      <c r="AGA27" s="37"/>
+      <c r="AGB27" s="37"/>
+      <c r="AGC27" s="37"/>
+      <c r="AGD27" s="37"/>
+      <c r="AGE27" s="37"/>
+      <c r="AGF27" s="37"/>
+      <c r="AGG27" s="37"/>
+      <c r="AGH27" s="37"/>
+      <c r="AGI27" s="37"/>
+      <c r="AGJ27" s="37"/>
+      <c r="AGK27" s="37"/>
+      <c r="AGL27" s="37"/>
+      <c r="AGM27" s="37"/>
+      <c r="AGN27" s="37"/>
+      <c r="AGO27" s="37"/>
+      <c r="AGP27" s="37"/>
+      <c r="AGQ27" s="37"/>
+      <c r="AGR27" s="37"/>
+      <c r="AGS27" s="37"/>
+      <c r="AGT27" s="37"/>
+      <c r="AGU27" s="37"/>
+      <c r="AGV27" s="37"/>
+      <c r="AGW27" s="37"/>
+      <c r="AGX27" s="37"/>
+      <c r="AGY27" s="37"/>
+      <c r="AGZ27" s="37"/>
+      <c r="AHA27" s="37"/>
+      <c r="AHB27" s="37"/>
+      <c r="AHC27" s="37"/>
+      <c r="AHD27" s="37"/>
+      <c r="AHE27" s="37"/>
+      <c r="AHF27" s="37"/>
+      <c r="AHG27" s="37"/>
+      <c r="AHH27" s="37"/>
+      <c r="AHI27" s="37"/>
+      <c r="AHJ27" s="37"/>
+      <c r="AHK27" s="37"/>
+      <c r="AHL27" s="37"/>
+      <c r="AHM27" s="37"/>
+      <c r="AHN27" s="37"/>
+      <c r="AHO27" s="37"/>
+      <c r="AHP27" s="37"/>
+      <c r="AHQ27" s="37"/>
+      <c r="AHR27" s="37"/>
+      <c r="AHS27" s="37"/>
+      <c r="AHT27" s="37"/>
+      <c r="AHU27" s="37"/>
+      <c r="AHV27" s="37"/>
+      <c r="AHW27" s="37"/>
+      <c r="AHX27" s="37"/>
+      <c r="AHY27" s="37"/>
+      <c r="AHZ27" s="37"/>
+      <c r="AIA27" s="37"/>
+      <c r="AIB27" s="37"/>
+      <c r="AIC27" s="37"/>
+      <c r="AID27" s="37"/>
+      <c r="AIE27" s="37"/>
+      <c r="AIF27" s="37"/>
+      <c r="AIG27" s="37"/>
+      <c r="AIH27" s="37"/>
+      <c r="AII27" s="37"/>
+      <c r="AIJ27" s="37"/>
+      <c r="AIK27" s="37"/>
+      <c r="AIL27" s="37"/>
+      <c r="AIM27" s="37"/>
+      <c r="AIN27" s="37"/>
+      <c r="AIO27" s="37"/>
+      <c r="AIP27" s="37"/>
+      <c r="AIQ27" s="37"/>
+      <c r="AIR27" s="37"/>
+      <c r="AIS27" s="37"/>
+      <c r="AIT27" s="37"/>
+      <c r="AIU27" s="37"/>
+      <c r="AIV27" s="37"/>
+      <c r="AIW27" s="37"/>
+      <c r="AIX27" s="37"/>
+      <c r="AIY27" s="37"/>
+      <c r="AIZ27" s="37"/>
+      <c r="AJA27" s="37"/>
+      <c r="AJB27" s="37"/>
+      <c r="AJC27" s="37"/>
+      <c r="AJD27" s="37"/>
+      <c r="AJE27" s="37"/>
+      <c r="AJF27" s="37"/>
+      <c r="AJG27" s="37"/>
+      <c r="AJH27" s="37"/>
+      <c r="AJI27" s="37"/>
+      <c r="AJJ27" s="37"/>
+      <c r="AJK27" s="37"/>
+      <c r="AJL27" s="37"/>
+      <c r="AJM27" s="37"/>
+      <c r="AJN27" s="37"/>
+      <c r="AJO27" s="37"/>
+      <c r="AJP27" s="37"/>
+      <c r="AJQ27" s="37"/>
+      <c r="AJR27" s="37"/>
+      <c r="AJS27" s="37"/>
+      <c r="AJT27" s="37"/>
+      <c r="AJU27" s="37"/>
+      <c r="AJV27" s="37"/>
+      <c r="AJW27" s="37"/>
+      <c r="AJX27" s="37"/>
+      <c r="AJY27" s="37"/>
+      <c r="AJZ27" s="37"/>
+      <c r="AKA27" s="37"/>
+      <c r="AKB27" s="37"/>
+      <c r="AKC27" s="37"/>
+      <c r="AKD27" s="37"/>
+      <c r="AKE27" s="37"/>
+      <c r="AKF27" s="37"/>
+      <c r="AKG27" s="37"/>
+      <c r="AKH27" s="37"/>
+      <c r="AKI27" s="37"/>
+      <c r="AKJ27" s="37"/>
+      <c r="AKK27" s="37"/>
+      <c r="AKL27" s="37"/>
+      <c r="AKM27" s="37"/>
+      <c r="AKN27" s="37"/>
+      <c r="AKO27" s="37"/>
+      <c r="AKP27" s="37"/>
+      <c r="AKQ27" s="37"/>
+      <c r="AKR27" s="37"/>
+      <c r="AKS27" s="37"/>
+      <c r="AKT27" s="37"/>
+      <c r="AKU27" s="37"/>
+      <c r="AKV27" s="37"/>
+      <c r="AKW27" s="37"/>
+      <c r="AKX27" s="37"/>
+      <c r="AKY27" s="37"/>
+      <c r="AKZ27" s="37"/>
+      <c r="ALA27" s="37"/>
+      <c r="ALB27" s="37"/>
+      <c r="ALC27" s="37"/>
+      <c r="ALD27" s="37"/>
+      <c r="ALE27" s="37"/>
+      <c r="ALF27" s="37"/>
+      <c r="ALG27" s="37"/>
+      <c r="ALH27" s="37"/>
+      <c r="ALI27" s="37"/>
+      <c r="ALJ27" s="37"/>
+      <c r="ALK27" s="37"/>
+      <c r="ALL27" s="37"/>
+      <c r="ALM27" s="37"/>
+      <c r="ALN27" s="37"/>
+      <c r="ALO27" s="37"/>
+      <c r="ALP27" s="37"/>
+      <c r="ALQ27" s="37"/>
+      <c r="ALR27" s="37"/>
+      <c r="ALS27" s="37"/>
+      <c r="ALT27" s="37"/>
+      <c r="ALU27" s="37"/>
+      <c r="ALV27" s="37"/>
+      <c r="ALW27" s="37"/>
+      <c r="ALX27" s="37"/>
+      <c r="ALY27" s="37"/>
+      <c r="ALZ27" s="37"/>
+      <c r="AMA27" s="37"/>
+      <c r="AMB27" s="37"/>
+      <c r="AMC27" s="37"/>
+      <c r="AMD27" s="37"/>
+      <c r="AME27" s="37"/>
+      <c r="AMF27" s="37"/>
+      <c r="AMG27" s="37"/>
+      <c r="AMH27" s="37"/>
+      <c r="AMI27" s="37"/>
+      <c r="AMJ27" s="37"/>
+      <c r="AMK27" s="37"/>
+      <c r="AML27" s="37"/>
+      <c r="AMM27" s="37"/>
+      <c r="AMN27" s="37"/>
+      <c r="AMO27" s="37"/>
+      <c r="AMP27" s="37"/>
+      <c r="AMQ27" s="37"/>
+      <c r="AMR27" s="37"/>
+      <c r="AMS27" s="37"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>1022</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2</v>
@@ -14731,7 +15780,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="10" t="n">
@@ -14753,13 +15802,13 @@
         <v>184</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
@@ -14777,7 +15826,7 @@
         <v>1</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>189</v>
@@ -14789,7 +15838,7 @@
         <v>91</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AD28" s="1" t="n">
         <v>144183</v>
@@ -14817,7 +15866,7 @@
         <v>1023</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2</v>
@@ -14826,7 +15875,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>150</v>
@@ -14850,7 +15899,7 @@
         <v>120</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T29" s="1" t="n">
         <v>16</v>
@@ -14871,7 +15920,7 @@
         <v>119</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF29" s="1" t="n">
         <v>20270</v>
@@ -14888,7 +15937,7 @@
         <v>1024</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2</v>
@@ -14897,7 +15946,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>250</v>
@@ -14921,7 +15970,7 @@
         <v>120</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T30" s="1" t="n">
         <v>16</v>
@@ -14942,7 +15991,7 @@
         <v>119</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF30" s="1" t="n">
         <v>20270</v>
@@ -14959,7 +16008,7 @@
         <v>1025</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>3</v>
@@ -14968,7 +16017,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>9</v>
@@ -14992,16 +16041,16 @@
         <v>84</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T31" s="1" t="n">
         <v>16</v>
@@ -15013,7 +16062,7 @@
         <v>1</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>135</v>
@@ -15025,7 +16074,7 @@
         <v>154</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AD31" s="1" t="n">
         <v>281788</v>
@@ -15048,7 +16097,7 @@
         <v>1026</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>3</v>
@@ -15057,7 +16106,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>7</v>
@@ -15081,16 +16130,16 @@
         <v>84</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T32" s="1" t="n">
         <v>16</v>
@@ -15114,7 +16163,7 @@
         <v>265</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AD32" s="1" t="n">
         <v>285400</v>
@@ -15137,7 +16186,7 @@
         <v>1027</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>3</v>
@@ -15146,7 +16195,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>2</v>
@@ -15170,16 +16219,16 @@
         <v>84</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T33" s="1" t="n">
         <v>16</v>
@@ -15191,7 +16240,7 @@
         <v>1.2</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>177</v>
@@ -15203,7 +16252,7 @@
         <v>154</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AD33" s="1" t="n">
         <v>281710</v>
@@ -15226,7 +16275,7 @@
         <v>1028</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>3</v>
@@ -15235,7 +16284,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>4</v>
@@ -15259,16 +16308,16 @@
         <v>84</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T34" s="1" t="n">
         <v>16</v>
@@ -15280,10 +16329,10 @@
         <v>0.5</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA34" s="1" t="s">
         <v>91</v>
@@ -15292,7 +16341,7 @@
         <v>265</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AD34" s="1" t="n">
         <v>299561</v>
@@ -15311,11 +16360,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="35" t="n">
+      <c r="A35" s="42" t="n">
         <v>1029</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>3</v>
@@ -15323,8 +16372,8 @@
       <c r="D35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E35" s="35" t="s">
-        <v>327</v>
+      <c r="E35" s="42" t="s">
+        <v>328</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>550</v>
@@ -15345,25 +16394,25 @@
         <v>84</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="R35" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="R35" s="42" t="s">
         <v>221</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="T35" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V35" s="35" t="s">
-        <v>331</v>
+      <c r="V35" s="42" t="s">
+        <v>332</v>
       </c>
       <c r="W35" s="1" t="n">
         <v>130642</v>
@@ -15384,7 +16433,7 @@
         <v>154</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AD35" s="1" t="n">
         <v>285356</v>
@@ -15392,8 +16441,8 @@
       <c r="AE35" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF35" s="35" t="s">
-        <v>333</v>
+      <c r="AF35" s="42" t="s">
+        <v>334</v>
       </c>
       <c r="AG35" s="1" t="n">
         <v>2</v>
@@ -15403,11 +16452,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="35" t="n">
+      <c r="A36" s="42" t="n">
         <v>1030</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>3</v>
@@ -15415,8 +16464,8 @@
       <c r="D36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E36" s="35" t="s">
-        <v>335</v>
+      <c r="E36" s="42" t="s">
+        <v>336</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>2</v>
@@ -15440,25 +16489,25 @@
         <v>84</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="R36" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="R36" s="42" t="s">
         <v>221</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T36" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V36" s="35" t="s">
-        <v>339</v>
+      <c r="V36" s="42" t="s">
+        <v>340</v>
       </c>
       <c r="W36" s="1" t="n">
         <v>254276</v>
@@ -15479,7 +16528,7 @@
         <v>154</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AD36" s="1" t="n">
         <v>20301</v>
@@ -15487,8 +16536,8 @@
       <c r="AE36" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF36" s="35" t="s">
-        <v>341</v>
+      <c r="AF36" s="42" t="s">
+        <v>342</v>
       </c>
       <c r="AG36" s="1" t="n">
         <v>3</v>
@@ -15502,7 +16551,7 @@
         <v>1031</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>4</v>
@@ -15511,7 +16560,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>8</v>
@@ -15535,16 +16584,16 @@
         <v>84</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="T37" s="1" t="n">
         <v>16</v>
@@ -15556,7 +16605,7 @@
         <v>1</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>90</v>
@@ -15568,7 +16617,7 @@
         <v>223</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AD37" s="1" t="n">
         <v>281710</v>
@@ -15591,7 +16640,7 @@
         <v>1032</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>4</v>
@@ -15600,7 +16649,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>4</v>
@@ -15624,16 +16673,16 @@
         <v>84</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T38" s="1" t="n">
         <v>16</v>
@@ -15645,7 +16694,7 @@
         <v>0.8</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>90</v>
@@ -15657,7 +16706,7 @@
         <v>265</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AD38" s="1" t="n">
         <v>281871</v>
@@ -15680,7 +16729,7 @@
         <v>1033</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>4</v>
@@ -15689,7 +16738,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>10</v>
@@ -15713,16 +16762,16 @@
         <v>84</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="T39" s="1" t="n">
         <v>16</v>
@@ -15734,7 +16783,7 @@
         <v>1</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>90</v>
@@ -15746,7 +16795,7 @@
         <v>154</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD39" s="1" t="n">
         <v>300932</v>
@@ -15769,7 +16818,7 @@
         <v>1034</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>4</v>
@@ -15778,7 +16827,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1500</v>
@@ -15799,16 +16848,16 @@
         <v>84</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="T40" s="1" t="n">
         <v>16</v>
@@ -15820,7 +16869,7 @@
         <v>1</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>90</v>
@@ -15832,7 +16881,7 @@
         <v>154</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AD40" s="1" t="n">
         <v>117391</v>
@@ -15855,7 +16904,7 @@
         <v>1035</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>4</v>
@@ -15864,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>6</v>
@@ -15888,16 +16937,16 @@
         <v>84</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="T41" s="1" t="n">
         <v>16</v>
@@ -15921,7 +16970,7 @@
         <v>265</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD41" s="1" t="n">
         <v>285445</v>
@@ -15929,7 +16978,7 @@
       <c r="AE41" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF41" s="36" t="n">
+      <c r="AF41" s="43" t="n">
         <v>269223</v>
       </c>
       <c r="AG41" s="1" t="n">
@@ -15944,7 +16993,7 @@
         <v>1036</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>4</v>
@@ -15953,7 +17002,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>150</v>
@@ -15980,7 +17029,7 @@
         <v>120</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T42" s="1" t="n">
         <v>16</v>
@@ -16001,7 +17050,7 @@
         <v>119</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF42" s="1" t="n">
         <v>20270</v>
@@ -16018,7 +17067,7 @@
         <v>1037</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>5</v>
@@ -16027,7 +17076,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>150</v>
@@ -16048,16 +17097,16 @@
         <v>84</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T43" s="1" t="n">
         <v>16</v>
@@ -16069,7 +17118,7 @@
         <v>1</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z43" s="1" t="s">
         <v>90</v>
@@ -16081,7 +17130,7 @@
         <v>223</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AD43" s="1" t="n">
         <v>279765</v>
@@ -16104,7 +17153,7 @@
         <v>1038</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>5</v>
@@ -16113,7 +17162,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>250</v>
@@ -16134,16 +17183,16 @@
         <v>84</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="T44" s="1" t="n">
         <v>16</v>
@@ -16155,7 +17204,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z44" s="1" t="s">
         <v>90</v>
@@ -16167,7 +17216,7 @@
         <v>223</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AD44" s="1" t="n">
         <v>85944</v>
@@ -16175,7 +17224,7 @@
       <c r="AE44" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF44" s="36" t="n">
+      <c r="AF44" s="43" t="n">
         <v>29747</v>
       </c>
       <c r="AG44" s="1" t="n">
@@ -16190,7 +17239,7 @@
         <v>1039</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>5</v>
@@ -16199,7 +17248,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>3</v>
@@ -16223,16 +17272,16 @@
         <v>84</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T45" s="1" t="n">
         <v>16</v>
@@ -16244,7 +17293,7 @@
         <v>1</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z45" s="1" t="s">
         <v>135</v>
@@ -16256,7 +17305,7 @@
         <v>154</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AD45" s="1" t="n">
         <v>326802</v>
@@ -16279,7 +17328,7 @@
         <v>1040</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>5</v>
@@ -16288,7 +17337,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>6</v>
@@ -16312,16 +17361,16 @@
         <v>84</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="T46" s="1" t="n">
         <v>16</v>
@@ -16333,7 +17382,7 @@
         <v>1</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>223</v>
@@ -16345,7 +17394,7 @@
         <v>90</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AD46" s="1" t="n">
         <v>281871</v>
@@ -16368,7 +17417,7 @@
         <v>1041</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>5</v>
@@ -16377,7 +17426,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>100</v>
@@ -16398,16 +17447,16 @@
         <v>184</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="T47" s="1" t="n">
         <v>16</v>
@@ -16419,7 +17468,7 @@
         <v>0.6</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z47" s="1" t="s">
         <v>90</v>
@@ -16431,7 +17480,7 @@
         <v>90</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AD47" s="1" t="n">
         <v>285673</v>
@@ -16454,7 +17503,7 @@
         <v>1042</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5</v>
@@ -16463,7 +17512,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G48" s="10" t="n">
         <v>100</v>
@@ -16484,13 +17533,13 @@
         <v>184</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
@@ -16505,7 +17554,7 @@
         <v>1</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z48" s="1" t="s">
         <v>90</v>
@@ -16517,7 +17566,7 @@
         <v>90</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AD48" s="1" t="n">
         <v>144183</v>
@@ -16545,7 +17594,7 @@
         <v>1043</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>6</v>
@@ -16554,7 +17603,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>5</v>
@@ -16578,16 +17627,16 @@
         <v>84</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="T49" s="1" t="n">
         <v>16</v>
@@ -16611,7 +17660,7 @@
         <v>154</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AD49" s="1" t="n">
         <v>303259</v>
@@ -16634,7 +17683,7 @@
         <v>1044</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>6</v>
@@ -16643,7 +17692,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>350</v>
@@ -16664,16 +17713,16 @@
         <v>84</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="T50" s="1" t="n">
         <v>16</v>
@@ -16697,7 +17746,7 @@
         <v>90</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AD50" s="1" t="n">
         <v>305224</v>
@@ -16720,7 +17769,7 @@
         <v>1045</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>6</v>
@@ -16729,7 +17778,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>3</v>
@@ -16753,16 +17802,16 @@
         <v>84</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="T51" s="1" t="n">
         <v>16</v>
@@ -16774,7 +17823,7 @@
         <v>1</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z51" s="1" t="s">
         <v>90</v>
@@ -16786,7 +17835,7 @@
         <v>223</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AD51" s="1" t="n">
         <v>269209</v>
@@ -16809,7 +17858,7 @@
         <v>1046</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>6</v>
@@ -16818,7 +17867,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>6</v>
@@ -16842,16 +17891,16 @@
         <v>84</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="T52" s="1" t="n">
         <v>16</v>
@@ -16863,7 +17912,7 @@
         <v>1</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z52" s="1" t="s">
         <v>223</v>
@@ -16875,7 +17924,7 @@
         <v>154</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD52" s="1" t="n">
         <v>144183</v>
@@ -16898,7 +17947,7 @@
         <v>1047</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>6</v>
@@ -16907,7 +17956,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>700</v>
@@ -16928,16 +17977,16 @@
         <v>84</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="T53" s="1" t="n">
         <v>16</v>
@@ -16949,7 +17998,7 @@
         <v>1</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z53" s="1" t="s">
         <v>154</v>
@@ -16961,7 +18010,7 @@
         <v>154</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AD53" s="1" t="n">
         <v>281795</v>
@@ -16987,7 +18036,7 @@
         <v>1048</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>6</v>
@@ -16996,7 +18045,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G54" s="10" t="n">
         <v>100</v>
@@ -17017,13 +18066,13 @@
         <v>184</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="T54" s="1" t="n">
         <v>16</v>
@@ -17035,7 +18084,7 @@
         <v>1</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z54" s="1" t="s">
         <v>189</v>
@@ -17047,7 +18096,7 @@
         <v>91</v>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AD54" s="1" t="n">
         <v>144183</v>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="453">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1194,6 +1194,9 @@
   </si>
   <si>
     <t xml:space="preserve">暗龙娘6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower_attackTags_9|Tower_attackTags_10</t>
   </si>
   <si>
     <t xml:space="preserve">2413BE794DFD89225C6BB1984BF3B39A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
@@ -1827,7 +1830,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1992,7 +1995,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2189,10 +2200,10 @@
   </sheetPr>
   <dimension ref="A1:AMS54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="Y10" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="topRight" activeCell="AG27" activeCellId="0" sqref="AG27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C13" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topRight" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14688,9 +14699,7 @@
       <c r="H27" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="37" t="s">
-        <v>82</v>
-      </c>
+      <c r="I27" s="37"/>
       <c r="J27" s="36" t="n">
         <v>326245</v>
       </c>
@@ -15766,249 +15775,3271 @@
       <c r="AMR27" s="37"/>
       <c r="AMS27" s="37"/>
     </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" s="43" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24" t="n">
         <v>1022</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="10" t="n">
+      <c r="F28" s="24"/>
+      <c r="G28" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="H28" s="10" t="n">
+      <c r="H28" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J28" s="8" t="n">
+      <c r="I28" s="27"/>
+      <c r="J28" s="32" t="n">
         <v>130536</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L28" s="1" t="s">
+      <c r="K28" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="M28" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="N28" s="8" t="s">
+      <c r="N28" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="1" t="s">
+      <c r="P28" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="26" t="n">
+        <v>21</v>
+      </c>
+      <c r="R28" s="26" t="n">
+        <v>600</v>
+      </c>
+      <c r="S28" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="T28" s="1" t="n">
+      <c r="T28" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="W28" s="1" t="n">
+      <c r="U28" s="27"/>
+      <c r="V28" s="27" t="n">
+        <v>600</v>
+      </c>
+      <c r="W28" s="27" t="n">
         <v>200133</v>
       </c>
-      <c r="X28" s="1" t="n">
+      <c r="X28" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Y28" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="Z28" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="AA28" s="1" t="s">
+      <c r="AA28" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AB28" s="1" t="s">
+      <c r="AB28" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AC28" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="AD28" s="1" t="n">
+      <c r="AD28" s="27" t="n">
         <v>144183</v>
       </c>
-      <c r="AE28" s="1" t="s">
+      <c r="AE28" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="AF28" s="1" t="n">
+      <c r="AF28" s="27" t="n">
+        <v>279686</v>
+      </c>
+      <c r="AG28" s="27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH28" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="27"/>
+      <c r="AP28" s="27"/>
+      <c r="AQ28" s="27"/>
+      <c r="AR28" s="27"/>
+      <c r="AS28" s="27"/>
+      <c r="AT28" s="31"/>
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="31"/>
+      <c r="AW28" s="27"/>
+      <c r="AX28" s="27"/>
+      <c r="AY28" s="32"/>
+      <c r="AZ28" s="27"/>
+      <c r="BA28" s="27"/>
+      <c r="BB28" s="32"/>
+      <c r="BC28" s="27"/>
+      <c r="BD28" s="27"/>
+      <c r="BE28" s="27"/>
+      <c r="BF28" s="27"/>
+      <c r="BG28" s="27"/>
+      <c r="BH28" s="27"/>
+      <c r="BI28" s="27"/>
+      <c r="BJ28" s="27"/>
+      <c r="BK28" s="27"/>
+      <c r="BL28" s="27"/>
+      <c r="BM28" s="27"/>
+      <c r="BN28" s="27"/>
+      <c r="BO28" s="27"/>
+      <c r="BP28" s="27"/>
+      <c r="BQ28" s="27"/>
+      <c r="BR28" s="27"/>
+      <c r="BS28" s="27"/>
+      <c r="BT28" s="27"/>
+      <c r="BU28" s="27"/>
+      <c r="BV28" s="27"/>
+      <c r="BW28" s="27"/>
+      <c r="BX28" s="27"/>
+      <c r="BY28" s="27"/>
+      <c r="BZ28" s="27"/>
+      <c r="CA28" s="27"/>
+      <c r="CB28" s="27"/>
+      <c r="CC28" s="27"/>
+      <c r="CD28" s="27"/>
+      <c r="CE28" s="27"/>
+      <c r="CF28" s="27"/>
+      <c r="CG28" s="27"/>
+      <c r="CH28" s="27"/>
+      <c r="CI28" s="27"/>
+      <c r="CJ28" s="27"/>
+      <c r="CK28" s="27"/>
+      <c r="CL28" s="27"/>
+      <c r="CM28" s="27"/>
+      <c r="CN28" s="27"/>
+      <c r="CO28" s="27"/>
+      <c r="CP28" s="27"/>
+      <c r="CQ28" s="27"/>
+      <c r="CR28" s="27"/>
+      <c r="CS28" s="27"/>
+      <c r="CT28" s="27"/>
+      <c r="CU28" s="27"/>
+      <c r="CV28" s="27"/>
+      <c r="CW28" s="27"/>
+      <c r="CX28" s="27"/>
+      <c r="CY28" s="27"/>
+      <c r="CZ28" s="27"/>
+      <c r="DA28" s="27"/>
+      <c r="DB28" s="27"/>
+      <c r="DC28" s="27"/>
+      <c r="DD28" s="27"/>
+      <c r="DE28" s="27"/>
+      <c r="DF28" s="27"/>
+      <c r="DG28" s="27"/>
+      <c r="DH28" s="27"/>
+      <c r="DI28" s="27"/>
+      <c r="DJ28" s="27"/>
+      <c r="DK28" s="27"/>
+      <c r="DL28" s="27"/>
+      <c r="DM28" s="27"/>
+      <c r="DN28" s="27"/>
+      <c r="DO28" s="27"/>
+      <c r="DP28" s="27"/>
+      <c r="DQ28" s="27"/>
+      <c r="DR28" s="27"/>
+      <c r="DS28" s="27"/>
+      <c r="DT28" s="27"/>
+      <c r="DU28" s="27"/>
+      <c r="DV28" s="27"/>
+      <c r="DW28" s="27"/>
+      <c r="DX28" s="27"/>
+      <c r="DY28" s="27"/>
+      <c r="DZ28" s="27"/>
+      <c r="EA28" s="27"/>
+      <c r="EB28" s="27"/>
+      <c r="EC28" s="27"/>
+      <c r="ED28" s="27"/>
+      <c r="EE28" s="27"/>
+      <c r="EF28" s="27"/>
+      <c r="EG28" s="27"/>
+      <c r="EH28" s="27"/>
+      <c r="EI28" s="27"/>
+      <c r="EJ28" s="27"/>
+      <c r="EK28" s="27"/>
+      <c r="EL28" s="27"/>
+      <c r="EM28" s="27"/>
+      <c r="EN28" s="27"/>
+      <c r="EO28" s="27"/>
+      <c r="EP28" s="27"/>
+      <c r="EQ28" s="27"/>
+      <c r="ER28" s="27"/>
+      <c r="ES28" s="27"/>
+      <c r="ET28" s="27"/>
+      <c r="EU28" s="27"/>
+      <c r="EV28" s="27"/>
+      <c r="EW28" s="27"/>
+      <c r="EX28" s="27"/>
+      <c r="EY28" s="27"/>
+      <c r="EZ28" s="27"/>
+      <c r="FA28" s="27"/>
+      <c r="FB28" s="27"/>
+      <c r="FC28" s="27"/>
+      <c r="FD28" s="27"/>
+      <c r="FE28" s="27"/>
+      <c r="FF28" s="27"/>
+      <c r="FG28" s="27"/>
+      <c r="FH28" s="27"/>
+      <c r="FI28" s="27"/>
+      <c r="FJ28" s="27"/>
+      <c r="FK28" s="27"/>
+      <c r="FL28" s="27"/>
+      <c r="FM28" s="27"/>
+      <c r="FN28" s="27"/>
+      <c r="FO28" s="27"/>
+      <c r="FP28" s="27"/>
+      <c r="FQ28" s="27"/>
+      <c r="FR28" s="27"/>
+      <c r="FS28" s="27"/>
+      <c r="FT28" s="27"/>
+      <c r="FU28" s="27"/>
+      <c r="FV28" s="27"/>
+      <c r="FW28" s="27"/>
+      <c r="FX28" s="27"/>
+      <c r="FY28" s="27"/>
+      <c r="FZ28" s="27"/>
+      <c r="GA28" s="27"/>
+      <c r="GB28" s="27"/>
+      <c r="GC28" s="27"/>
+      <c r="GD28" s="27"/>
+      <c r="GE28" s="27"/>
+      <c r="GF28" s="27"/>
+      <c r="GG28" s="27"/>
+      <c r="GH28" s="27"/>
+      <c r="GI28" s="27"/>
+      <c r="GJ28" s="27"/>
+      <c r="GK28" s="27"/>
+      <c r="GL28" s="27"/>
+      <c r="GM28" s="27"/>
+      <c r="GN28" s="27"/>
+      <c r="GO28" s="27"/>
+      <c r="GP28" s="27"/>
+      <c r="GQ28" s="27"/>
+      <c r="GR28" s="27"/>
+      <c r="GS28" s="27"/>
+      <c r="GT28" s="27"/>
+      <c r="GU28" s="27"/>
+      <c r="GV28" s="27"/>
+      <c r="GW28" s="27"/>
+      <c r="GX28" s="27"/>
+      <c r="GY28" s="27"/>
+      <c r="GZ28" s="27"/>
+      <c r="HA28" s="27"/>
+      <c r="HB28" s="27"/>
+      <c r="HC28" s="27"/>
+      <c r="HD28" s="27"/>
+      <c r="HE28" s="27"/>
+      <c r="HF28" s="27"/>
+      <c r="HG28" s="27"/>
+      <c r="HH28" s="27"/>
+      <c r="HI28" s="27"/>
+      <c r="HJ28" s="27"/>
+      <c r="HK28" s="27"/>
+      <c r="HL28" s="27"/>
+      <c r="HM28" s="27"/>
+      <c r="HN28" s="27"/>
+      <c r="HO28" s="27"/>
+      <c r="HP28" s="27"/>
+      <c r="HQ28" s="27"/>
+      <c r="HR28" s="27"/>
+      <c r="HS28" s="27"/>
+      <c r="HT28" s="27"/>
+      <c r="HU28" s="27"/>
+      <c r="HV28" s="27"/>
+      <c r="HW28" s="27"/>
+      <c r="HX28" s="27"/>
+      <c r="HY28" s="27"/>
+      <c r="HZ28" s="27"/>
+      <c r="IA28" s="27"/>
+      <c r="IB28" s="27"/>
+      <c r="IC28" s="27"/>
+      <c r="ID28" s="27"/>
+      <c r="IE28" s="27"/>
+      <c r="IF28" s="27"/>
+      <c r="IG28" s="27"/>
+      <c r="IH28" s="27"/>
+      <c r="II28" s="27"/>
+      <c r="IJ28" s="27"/>
+      <c r="IK28" s="27"/>
+      <c r="IL28" s="27"/>
+      <c r="IM28" s="27"/>
+      <c r="IN28" s="27"/>
+      <c r="IO28" s="27"/>
+      <c r="IP28" s="27"/>
+      <c r="IQ28" s="27"/>
+      <c r="IR28" s="27"/>
+      <c r="IS28" s="27"/>
+      <c r="IT28" s="27"/>
+      <c r="IU28" s="27"/>
+      <c r="IV28" s="27"/>
+      <c r="IW28" s="27"/>
+      <c r="IX28" s="27"/>
+      <c r="IY28" s="27"/>
+      <c r="IZ28" s="27"/>
+      <c r="JA28" s="27"/>
+      <c r="JB28" s="27"/>
+      <c r="JC28" s="27"/>
+      <c r="JD28" s="27"/>
+      <c r="JE28" s="27"/>
+      <c r="JF28" s="27"/>
+      <c r="JG28" s="27"/>
+      <c r="JH28" s="27"/>
+      <c r="JI28" s="27"/>
+      <c r="JJ28" s="27"/>
+      <c r="JK28" s="27"/>
+      <c r="JL28" s="27"/>
+      <c r="JM28" s="27"/>
+      <c r="JN28" s="27"/>
+      <c r="JO28" s="27"/>
+      <c r="JP28" s="27"/>
+      <c r="JQ28" s="27"/>
+      <c r="JR28" s="27"/>
+      <c r="JS28" s="27"/>
+      <c r="JT28" s="27"/>
+      <c r="JU28" s="27"/>
+      <c r="JV28" s="27"/>
+      <c r="JW28" s="27"/>
+      <c r="JX28" s="27"/>
+      <c r="JY28" s="27"/>
+      <c r="JZ28" s="27"/>
+      <c r="KA28" s="27"/>
+      <c r="KB28" s="27"/>
+      <c r="KC28" s="27"/>
+      <c r="KD28" s="27"/>
+      <c r="KE28" s="27"/>
+      <c r="KF28" s="27"/>
+      <c r="KG28" s="27"/>
+      <c r="KH28" s="27"/>
+      <c r="KI28" s="27"/>
+      <c r="KJ28" s="27"/>
+      <c r="KK28" s="27"/>
+      <c r="KL28" s="27"/>
+      <c r="KM28" s="27"/>
+      <c r="KN28" s="27"/>
+      <c r="KO28" s="27"/>
+      <c r="KP28" s="27"/>
+      <c r="KQ28" s="27"/>
+      <c r="KR28" s="27"/>
+      <c r="KS28" s="27"/>
+      <c r="KT28" s="27"/>
+      <c r="KU28" s="27"/>
+      <c r="KV28" s="27"/>
+      <c r="KW28" s="27"/>
+      <c r="KX28" s="27"/>
+      <c r="KY28" s="27"/>
+      <c r="KZ28" s="27"/>
+      <c r="LA28" s="27"/>
+      <c r="LB28" s="27"/>
+      <c r="LC28" s="27"/>
+      <c r="LD28" s="27"/>
+      <c r="LE28" s="27"/>
+      <c r="LF28" s="27"/>
+      <c r="LG28" s="27"/>
+      <c r="LH28" s="27"/>
+      <c r="LI28" s="27"/>
+      <c r="LJ28" s="27"/>
+      <c r="LK28" s="27"/>
+      <c r="LL28" s="27"/>
+      <c r="LM28" s="27"/>
+      <c r="LN28" s="27"/>
+      <c r="LO28" s="27"/>
+      <c r="LP28" s="27"/>
+      <c r="LQ28" s="27"/>
+      <c r="LR28" s="27"/>
+      <c r="LS28" s="27"/>
+      <c r="LT28" s="27"/>
+      <c r="LU28" s="27"/>
+      <c r="LV28" s="27"/>
+      <c r="LW28" s="27"/>
+      <c r="LX28" s="27"/>
+      <c r="LY28" s="27"/>
+      <c r="LZ28" s="27"/>
+      <c r="MA28" s="27"/>
+      <c r="MB28" s="27"/>
+      <c r="MC28" s="27"/>
+      <c r="MD28" s="27"/>
+      <c r="ME28" s="27"/>
+      <c r="MF28" s="27"/>
+      <c r="MG28" s="27"/>
+      <c r="MH28" s="27"/>
+      <c r="MI28" s="27"/>
+      <c r="MJ28" s="27"/>
+      <c r="MK28" s="27"/>
+      <c r="ML28" s="27"/>
+      <c r="MM28" s="27"/>
+      <c r="MN28" s="27"/>
+      <c r="MO28" s="27"/>
+      <c r="MP28" s="27"/>
+      <c r="MQ28" s="27"/>
+      <c r="MR28" s="27"/>
+      <c r="MS28" s="27"/>
+      <c r="MT28" s="27"/>
+      <c r="MU28" s="27"/>
+      <c r="MV28" s="27"/>
+      <c r="MW28" s="27"/>
+      <c r="MX28" s="27"/>
+      <c r="MY28" s="27"/>
+      <c r="MZ28" s="27"/>
+      <c r="NA28" s="27"/>
+      <c r="NB28" s="27"/>
+      <c r="NC28" s="27"/>
+      <c r="ND28" s="27"/>
+      <c r="NE28" s="27"/>
+      <c r="NF28" s="27"/>
+      <c r="NG28" s="27"/>
+      <c r="NH28" s="27"/>
+      <c r="NI28" s="27"/>
+      <c r="NJ28" s="27"/>
+      <c r="NK28" s="27"/>
+      <c r="NL28" s="27"/>
+      <c r="NM28" s="27"/>
+      <c r="NN28" s="27"/>
+      <c r="NO28" s="27"/>
+      <c r="NP28" s="27"/>
+      <c r="NQ28" s="27"/>
+      <c r="NR28" s="27"/>
+      <c r="NS28" s="27"/>
+      <c r="NT28" s="27"/>
+      <c r="NU28" s="27"/>
+      <c r="NV28" s="27"/>
+      <c r="NW28" s="27"/>
+      <c r="NX28" s="27"/>
+      <c r="NY28" s="27"/>
+      <c r="NZ28" s="27"/>
+      <c r="OA28" s="27"/>
+      <c r="OB28" s="27"/>
+      <c r="OC28" s="27"/>
+      <c r="OD28" s="27"/>
+      <c r="OE28" s="27"/>
+      <c r="OF28" s="27"/>
+      <c r="OG28" s="27"/>
+      <c r="OH28" s="27"/>
+      <c r="OI28" s="27"/>
+      <c r="OJ28" s="27"/>
+      <c r="OK28" s="27"/>
+      <c r="OL28" s="27"/>
+      <c r="OM28" s="27"/>
+      <c r="ON28" s="27"/>
+      <c r="OO28" s="27"/>
+      <c r="OP28" s="27"/>
+      <c r="OQ28" s="27"/>
+      <c r="OR28" s="27"/>
+      <c r="OS28" s="27"/>
+      <c r="OT28" s="27"/>
+      <c r="OU28" s="27"/>
+      <c r="OV28" s="27"/>
+      <c r="OW28" s="27"/>
+      <c r="OX28" s="27"/>
+      <c r="OY28" s="27"/>
+      <c r="OZ28" s="27"/>
+      <c r="PA28" s="27"/>
+      <c r="PB28" s="27"/>
+      <c r="PC28" s="27"/>
+      <c r="PD28" s="27"/>
+      <c r="PE28" s="27"/>
+      <c r="PF28" s="27"/>
+      <c r="PG28" s="27"/>
+      <c r="PH28" s="27"/>
+      <c r="PI28" s="27"/>
+      <c r="PJ28" s="27"/>
+      <c r="PK28" s="27"/>
+      <c r="PL28" s="27"/>
+      <c r="PM28" s="27"/>
+      <c r="PN28" s="27"/>
+      <c r="PO28" s="27"/>
+      <c r="PP28" s="27"/>
+      <c r="PQ28" s="27"/>
+      <c r="PR28" s="27"/>
+      <c r="PS28" s="27"/>
+      <c r="PT28" s="27"/>
+      <c r="PU28" s="27"/>
+      <c r="PV28" s="27"/>
+      <c r="PW28" s="27"/>
+      <c r="PX28" s="27"/>
+      <c r="PY28" s="27"/>
+      <c r="PZ28" s="27"/>
+      <c r="QA28" s="27"/>
+      <c r="QB28" s="27"/>
+      <c r="QC28" s="27"/>
+      <c r="QD28" s="27"/>
+      <c r="QE28" s="27"/>
+      <c r="QF28" s="27"/>
+      <c r="QG28" s="27"/>
+      <c r="QH28" s="27"/>
+      <c r="QI28" s="27"/>
+      <c r="QJ28" s="27"/>
+      <c r="QK28" s="27"/>
+      <c r="QL28" s="27"/>
+      <c r="QM28" s="27"/>
+      <c r="QN28" s="27"/>
+      <c r="QO28" s="27"/>
+      <c r="QP28" s="27"/>
+      <c r="QQ28" s="27"/>
+      <c r="QR28" s="27"/>
+      <c r="QS28" s="27"/>
+      <c r="QT28" s="27"/>
+      <c r="QU28" s="27"/>
+      <c r="QV28" s="27"/>
+      <c r="QW28" s="27"/>
+      <c r="QX28" s="27"/>
+      <c r="QY28" s="27"/>
+      <c r="QZ28" s="27"/>
+      <c r="RA28" s="27"/>
+      <c r="RB28" s="27"/>
+      <c r="RC28" s="27"/>
+      <c r="RD28" s="27"/>
+      <c r="RE28" s="27"/>
+      <c r="RF28" s="27"/>
+      <c r="RG28" s="27"/>
+      <c r="RH28" s="27"/>
+      <c r="RI28" s="27"/>
+      <c r="RJ28" s="27"/>
+      <c r="RK28" s="27"/>
+      <c r="RL28" s="27"/>
+      <c r="RM28" s="27"/>
+      <c r="RN28" s="27"/>
+      <c r="RO28" s="27"/>
+      <c r="RP28" s="27"/>
+      <c r="RQ28" s="27"/>
+      <c r="RR28" s="27"/>
+      <c r="RS28" s="27"/>
+      <c r="RT28" s="27"/>
+      <c r="RU28" s="27"/>
+      <c r="RV28" s="27"/>
+      <c r="RW28" s="27"/>
+      <c r="RX28" s="27"/>
+      <c r="RY28" s="27"/>
+      <c r="RZ28" s="27"/>
+      <c r="SA28" s="27"/>
+      <c r="SB28" s="27"/>
+      <c r="SC28" s="27"/>
+      <c r="SD28" s="27"/>
+      <c r="SE28" s="27"/>
+      <c r="SF28" s="27"/>
+      <c r="SG28" s="27"/>
+      <c r="SH28" s="27"/>
+      <c r="SI28" s="27"/>
+      <c r="SJ28" s="27"/>
+      <c r="SK28" s="27"/>
+      <c r="SL28" s="27"/>
+      <c r="SM28" s="27"/>
+      <c r="SN28" s="27"/>
+      <c r="SO28" s="27"/>
+      <c r="SP28" s="27"/>
+      <c r="SQ28" s="27"/>
+      <c r="SR28" s="27"/>
+      <c r="SS28" s="27"/>
+      <c r="ST28" s="27"/>
+      <c r="SU28" s="27"/>
+      <c r="SV28" s="27"/>
+      <c r="SW28" s="27"/>
+      <c r="SX28" s="27"/>
+      <c r="SY28" s="27"/>
+      <c r="SZ28" s="27"/>
+      <c r="TA28" s="27"/>
+      <c r="TB28" s="27"/>
+      <c r="TC28" s="27"/>
+      <c r="TD28" s="27"/>
+      <c r="TE28" s="27"/>
+      <c r="TF28" s="27"/>
+      <c r="TG28" s="27"/>
+      <c r="TH28" s="27"/>
+      <c r="TI28" s="27"/>
+      <c r="TJ28" s="27"/>
+      <c r="TK28" s="27"/>
+      <c r="TL28" s="27"/>
+      <c r="TM28" s="27"/>
+      <c r="TN28" s="27"/>
+      <c r="TO28" s="27"/>
+      <c r="TP28" s="27"/>
+      <c r="TQ28" s="27"/>
+      <c r="TR28" s="27"/>
+      <c r="TS28" s="27"/>
+      <c r="TT28" s="27"/>
+      <c r="TU28" s="27"/>
+      <c r="TV28" s="27"/>
+      <c r="TW28" s="27"/>
+      <c r="TX28" s="27"/>
+      <c r="TY28" s="27"/>
+      <c r="TZ28" s="27"/>
+      <c r="UA28" s="27"/>
+      <c r="UB28" s="27"/>
+      <c r="UC28" s="27"/>
+      <c r="UD28" s="27"/>
+      <c r="UE28" s="27"/>
+      <c r="UF28" s="27"/>
+      <c r="UG28" s="27"/>
+      <c r="UH28" s="27"/>
+      <c r="UI28" s="27"/>
+      <c r="UJ28" s="27"/>
+      <c r="UK28" s="27"/>
+      <c r="UL28" s="27"/>
+      <c r="UM28" s="27"/>
+      <c r="UN28" s="27"/>
+      <c r="UO28" s="27"/>
+      <c r="UP28" s="27"/>
+      <c r="UQ28" s="27"/>
+      <c r="UR28" s="27"/>
+      <c r="US28" s="27"/>
+      <c r="UT28" s="27"/>
+      <c r="UU28" s="27"/>
+      <c r="UV28" s="27"/>
+      <c r="UW28" s="27"/>
+      <c r="UX28" s="27"/>
+      <c r="UY28" s="27"/>
+      <c r="UZ28" s="27"/>
+      <c r="VA28" s="27"/>
+      <c r="VB28" s="27"/>
+      <c r="VC28" s="27"/>
+      <c r="VD28" s="27"/>
+      <c r="VE28" s="27"/>
+      <c r="VF28" s="27"/>
+      <c r="VG28" s="27"/>
+      <c r="VH28" s="27"/>
+      <c r="VI28" s="27"/>
+      <c r="VJ28" s="27"/>
+      <c r="VK28" s="27"/>
+      <c r="VL28" s="27"/>
+      <c r="VM28" s="27"/>
+      <c r="VN28" s="27"/>
+      <c r="VO28" s="27"/>
+      <c r="VP28" s="27"/>
+      <c r="VQ28" s="27"/>
+      <c r="VR28" s="27"/>
+      <c r="VS28" s="27"/>
+      <c r="VT28" s="27"/>
+      <c r="VU28" s="27"/>
+      <c r="VV28" s="27"/>
+      <c r="VW28" s="27"/>
+      <c r="VX28" s="27"/>
+      <c r="VY28" s="27"/>
+      <c r="VZ28" s="27"/>
+      <c r="WA28" s="27"/>
+      <c r="WB28" s="27"/>
+      <c r="WC28" s="27"/>
+      <c r="WD28" s="27"/>
+      <c r="WE28" s="27"/>
+      <c r="WF28" s="27"/>
+      <c r="WG28" s="27"/>
+      <c r="WH28" s="27"/>
+      <c r="WI28" s="27"/>
+      <c r="WJ28" s="27"/>
+      <c r="WK28" s="27"/>
+      <c r="WL28" s="27"/>
+      <c r="WM28" s="27"/>
+      <c r="WN28" s="27"/>
+      <c r="WO28" s="27"/>
+      <c r="WP28" s="27"/>
+      <c r="WQ28" s="27"/>
+      <c r="WR28" s="27"/>
+      <c r="WS28" s="27"/>
+      <c r="WT28" s="27"/>
+      <c r="WU28" s="27"/>
+      <c r="WV28" s="27"/>
+      <c r="WW28" s="27"/>
+      <c r="WX28" s="27"/>
+      <c r="WY28" s="27"/>
+      <c r="WZ28" s="27"/>
+      <c r="XA28" s="27"/>
+      <c r="XB28" s="27"/>
+      <c r="XC28" s="27"/>
+      <c r="XD28" s="27"/>
+      <c r="XE28" s="27"/>
+      <c r="XF28" s="27"/>
+      <c r="XG28" s="27"/>
+      <c r="XH28" s="27"/>
+      <c r="XI28" s="27"/>
+      <c r="XJ28" s="27"/>
+      <c r="XK28" s="27"/>
+      <c r="XL28" s="27"/>
+      <c r="XM28" s="27"/>
+      <c r="XN28" s="27"/>
+      <c r="XO28" s="27"/>
+      <c r="XP28" s="27"/>
+      <c r="XQ28" s="27"/>
+      <c r="XR28" s="27"/>
+      <c r="XS28" s="27"/>
+      <c r="XT28" s="27"/>
+      <c r="XU28" s="27"/>
+      <c r="XV28" s="27"/>
+      <c r="XW28" s="27"/>
+      <c r="XX28" s="27"/>
+      <c r="XY28" s="27"/>
+      <c r="XZ28" s="27"/>
+      <c r="YA28" s="27"/>
+      <c r="YB28" s="27"/>
+      <c r="YC28" s="27"/>
+      <c r="YD28" s="27"/>
+      <c r="YE28" s="27"/>
+      <c r="YF28" s="27"/>
+      <c r="YG28" s="27"/>
+      <c r="YH28" s="27"/>
+      <c r="YI28" s="27"/>
+      <c r="YJ28" s="27"/>
+      <c r="YK28" s="27"/>
+      <c r="YL28" s="27"/>
+      <c r="YM28" s="27"/>
+      <c r="YN28" s="27"/>
+      <c r="YO28" s="27"/>
+      <c r="YP28" s="27"/>
+      <c r="YQ28" s="27"/>
+      <c r="YR28" s="27"/>
+      <c r="YS28" s="27"/>
+      <c r="YT28" s="27"/>
+      <c r="YU28" s="27"/>
+      <c r="YV28" s="27"/>
+      <c r="YW28" s="27"/>
+      <c r="YX28" s="27"/>
+      <c r="YY28" s="27"/>
+      <c r="YZ28" s="27"/>
+      <c r="ZA28" s="27"/>
+      <c r="ZB28" s="27"/>
+      <c r="ZC28" s="27"/>
+      <c r="ZD28" s="27"/>
+      <c r="ZE28" s="27"/>
+      <c r="ZF28" s="27"/>
+      <c r="ZG28" s="27"/>
+      <c r="ZH28" s="27"/>
+      <c r="ZI28" s="27"/>
+      <c r="ZJ28" s="27"/>
+      <c r="ZK28" s="27"/>
+      <c r="ZL28" s="27"/>
+      <c r="ZM28" s="27"/>
+      <c r="ZN28" s="27"/>
+      <c r="ZO28" s="27"/>
+      <c r="ZP28" s="27"/>
+      <c r="ZQ28" s="27"/>
+      <c r="ZR28" s="27"/>
+      <c r="ZS28" s="27"/>
+      <c r="ZT28" s="27"/>
+      <c r="ZU28" s="27"/>
+      <c r="ZV28" s="27"/>
+      <c r="ZW28" s="27"/>
+      <c r="ZX28" s="27"/>
+      <c r="ZY28" s="27"/>
+      <c r="ZZ28" s="27"/>
+      <c r="AAA28" s="27"/>
+      <c r="AAB28" s="27"/>
+      <c r="AAC28" s="27"/>
+      <c r="AAD28" s="27"/>
+      <c r="AAE28" s="27"/>
+      <c r="AAF28" s="27"/>
+      <c r="AAG28" s="27"/>
+      <c r="AAH28" s="27"/>
+      <c r="AAI28" s="27"/>
+      <c r="AAJ28" s="27"/>
+      <c r="AAK28" s="27"/>
+      <c r="AAL28" s="27"/>
+      <c r="AAM28" s="27"/>
+      <c r="AAN28" s="27"/>
+      <c r="AAO28" s="27"/>
+      <c r="AAP28" s="27"/>
+      <c r="AAQ28" s="27"/>
+      <c r="AAR28" s="27"/>
+      <c r="AAS28" s="27"/>
+      <c r="AAT28" s="27"/>
+      <c r="AAU28" s="27"/>
+      <c r="AAV28" s="27"/>
+      <c r="AAW28" s="27"/>
+      <c r="AAX28" s="27"/>
+      <c r="AAY28" s="27"/>
+      <c r="AAZ28" s="27"/>
+      <c r="ABA28" s="27"/>
+      <c r="ABB28" s="27"/>
+      <c r="ABC28" s="27"/>
+      <c r="ABD28" s="27"/>
+      <c r="ABE28" s="27"/>
+      <c r="ABF28" s="27"/>
+      <c r="ABG28" s="27"/>
+      <c r="ABH28" s="27"/>
+      <c r="ABI28" s="27"/>
+      <c r="ABJ28" s="27"/>
+      <c r="ABK28" s="27"/>
+      <c r="ABL28" s="27"/>
+      <c r="ABM28" s="27"/>
+      <c r="ABN28" s="27"/>
+      <c r="ABO28" s="27"/>
+      <c r="ABP28" s="27"/>
+      <c r="ABQ28" s="27"/>
+      <c r="ABR28" s="27"/>
+      <c r="ABS28" s="27"/>
+      <c r="ABT28" s="27"/>
+      <c r="ABU28" s="27"/>
+      <c r="ABV28" s="27"/>
+      <c r="ABW28" s="27"/>
+      <c r="ABX28" s="27"/>
+      <c r="ABY28" s="27"/>
+      <c r="ABZ28" s="27"/>
+      <c r="ACA28" s="27"/>
+      <c r="ACB28" s="27"/>
+      <c r="ACC28" s="27"/>
+      <c r="ACD28" s="27"/>
+      <c r="ACE28" s="27"/>
+      <c r="ACF28" s="27"/>
+      <c r="ACG28" s="27"/>
+      <c r="ACH28" s="27"/>
+      <c r="ACI28" s="27"/>
+      <c r="ACJ28" s="27"/>
+      <c r="ACK28" s="27"/>
+      <c r="ACL28" s="27"/>
+      <c r="ACM28" s="27"/>
+      <c r="ACN28" s="27"/>
+      <c r="ACO28" s="27"/>
+      <c r="ACP28" s="27"/>
+      <c r="ACQ28" s="27"/>
+      <c r="ACR28" s="27"/>
+      <c r="ACS28" s="27"/>
+      <c r="ACT28" s="27"/>
+      <c r="ACU28" s="27"/>
+      <c r="ACV28" s="27"/>
+      <c r="ACW28" s="27"/>
+      <c r="ACX28" s="27"/>
+      <c r="ACY28" s="27"/>
+      <c r="ACZ28" s="27"/>
+      <c r="ADA28" s="27"/>
+      <c r="ADB28" s="27"/>
+      <c r="ADC28" s="27"/>
+      <c r="ADD28" s="27"/>
+      <c r="ADE28" s="27"/>
+      <c r="ADF28" s="27"/>
+      <c r="ADG28" s="27"/>
+      <c r="ADH28" s="27"/>
+      <c r="ADI28" s="27"/>
+      <c r="ADJ28" s="27"/>
+      <c r="ADK28" s="27"/>
+      <c r="ADL28" s="27"/>
+      <c r="ADM28" s="27"/>
+      <c r="ADN28" s="27"/>
+      <c r="ADO28" s="27"/>
+      <c r="ADP28" s="27"/>
+      <c r="ADQ28" s="27"/>
+      <c r="ADR28" s="27"/>
+      <c r="ADS28" s="27"/>
+      <c r="ADT28" s="27"/>
+      <c r="ADU28" s="27"/>
+      <c r="ADV28" s="27"/>
+      <c r="ADW28" s="27"/>
+      <c r="ADX28" s="27"/>
+      <c r="ADY28" s="27"/>
+      <c r="ADZ28" s="27"/>
+      <c r="AEA28" s="27"/>
+      <c r="AEB28" s="27"/>
+      <c r="AEC28" s="27"/>
+      <c r="AED28" s="27"/>
+      <c r="AEE28" s="27"/>
+      <c r="AEF28" s="27"/>
+      <c r="AEG28" s="27"/>
+      <c r="AEH28" s="27"/>
+      <c r="AEI28" s="27"/>
+      <c r="AEJ28" s="27"/>
+      <c r="AEK28" s="27"/>
+      <c r="AEL28" s="27"/>
+      <c r="AEM28" s="27"/>
+      <c r="AEN28" s="27"/>
+      <c r="AEO28" s="27"/>
+      <c r="AEP28" s="27"/>
+      <c r="AEQ28" s="27"/>
+      <c r="AER28" s="27"/>
+      <c r="AES28" s="27"/>
+      <c r="AET28" s="27"/>
+      <c r="AEU28" s="27"/>
+      <c r="AEV28" s="27"/>
+      <c r="AEW28" s="27"/>
+      <c r="AEX28" s="27"/>
+      <c r="AEY28" s="27"/>
+      <c r="AEZ28" s="27"/>
+      <c r="AFA28" s="27"/>
+      <c r="AFB28" s="27"/>
+      <c r="AFC28" s="27"/>
+      <c r="AFD28" s="27"/>
+      <c r="AFE28" s="27"/>
+      <c r="AFF28" s="27"/>
+      <c r="AFG28" s="27"/>
+      <c r="AFH28" s="27"/>
+      <c r="AFI28" s="27"/>
+      <c r="AFJ28" s="27"/>
+      <c r="AFK28" s="27"/>
+      <c r="AFL28" s="27"/>
+      <c r="AFM28" s="27"/>
+      <c r="AFN28" s="27"/>
+      <c r="AFO28" s="27"/>
+      <c r="AFP28" s="27"/>
+      <c r="AFQ28" s="27"/>
+      <c r="AFR28" s="27"/>
+      <c r="AFS28" s="27"/>
+      <c r="AFT28" s="27"/>
+      <c r="AFU28" s="27"/>
+      <c r="AFV28" s="27"/>
+      <c r="AFW28" s="27"/>
+      <c r="AFX28" s="27"/>
+      <c r="AFY28" s="27"/>
+      <c r="AFZ28" s="27"/>
+      <c r="AGA28" s="27"/>
+      <c r="AGB28" s="27"/>
+      <c r="AGC28" s="27"/>
+      <c r="AGD28" s="27"/>
+      <c r="AGE28" s="27"/>
+      <c r="AGF28" s="27"/>
+      <c r="AGG28" s="27"/>
+      <c r="AGH28" s="27"/>
+      <c r="AGI28" s="27"/>
+      <c r="AGJ28" s="27"/>
+      <c r="AGK28" s="27"/>
+      <c r="AGL28" s="27"/>
+      <c r="AGM28" s="27"/>
+      <c r="AGN28" s="27"/>
+      <c r="AGO28" s="27"/>
+      <c r="AGP28" s="27"/>
+      <c r="AGQ28" s="27"/>
+      <c r="AGR28" s="27"/>
+      <c r="AGS28" s="27"/>
+      <c r="AGT28" s="27"/>
+      <c r="AGU28" s="27"/>
+      <c r="AGV28" s="27"/>
+      <c r="AGW28" s="27"/>
+      <c r="AGX28" s="27"/>
+      <c r="AGY28" s="27"/>
+      <c r="AGZ28" s="27"/>
+      <c r="AHA28" s="27"/>
+      <c r="AHB28" s="27"/>
+      <c r="AHC28" s="27"/>
+      <c r="AHD28" s="27"/>
+      <c r="AHE28" s="27"/>
+      <c r="AHF28" s="27"/>
+      <c r="AHG28" s="27"/>
+      <c r="AHH28" s="27"/>
+      <c r="AHI28" s="27"/>
+      <c r="AHJ28" s="27"/>
+      <c r="AHK28" s="27"/>
+      <c r="AHL28" s="27"/>
+      <c r="AHM28" s="27"/>
+      <c r="AHN28" s="27"/>
+      <c r="AHO28" s="27"/>
+      <c r="AHP28" s="27"/>
+      <c r="AHQ28" s="27"/>
+      <c r="AHR28" s="27"/>
+      <c r="AHS28" s="27"/>
+      <c r="AHT28" s="27"/>
+      <c r="AHU28" s="27"/>
+      <c r="AHV28" s="27"/>
+      <c r="AHW28" s="27"/>
+      <c r="AHX28" s="27"/>
+      <c r="AHY28" s="27"/>
+      <c r="AHZ28" s="27"/>
+      <c r="AIA28" s="27"/>
+      <c r="AIB28" s="27"/>
+      <c r="AIC28" s="27"/>
+      <c r="AID28" s="27"/>
+      <c r="AIE28" s="27"/>
+      <c r="AIF28" s="27"/>
+      <c r="AIG28" s="27"/>
+      <c r="AIH28" s="27"/>
+      <c r="AII28" s="27"/>
+      <c r="AIJ28" s="27"/>
+      <c r="AIK28" s="27"/>
+      <c r="AIL28" s="27"/>
+      <c r="AIM28" s="27"/>
+      <c r="AIN28" s="27"/>
+      <c r="AIO28" s="27"/>
+      <c r="AIP28" s="27"/>
+      <c r="AIQ28" s="27"/>
+      <c r="AIR28" s="27"/>
+      <c r="AIS28" s="27"/>
+      <c r="AIT28" s="27"/>
+      <c r="AIU28" s="27"/>
+      <c r="AIV28" s="27"/>
+      <c r="AIW28" s="27"/>
+      <c r="AIX28" s="27"/>
+      <c r="AIY28" s="27"/>
+      <c r="AIZ28" s="27"/>
+      <c r="AJA28" s="27"/>
+      <c r="AJB28" s="27"/>
+      <c r="AJC28" s="27"/>
+      <c r="AJD28" s="27"/>
+      <c r="AJE28" s="27"/>
+      <c r="AJF28" s="27"/>
+      <c r="AJG28" s="27"/>
+      <c r="AJH28" s="27"/>
+      <c r="AJI28" s="27"/>
+      <c r="AJJ28" s="27"/>
+      <c r="AJK28" s="27"/>
+      <c r="AJL28" s="27"/>
+      <c r="AJM28" s="27"/>
+      <c r="AJN28" s="27"/>
+      <c r="AJO28" s="27"/>
+      <c r="AJP28" s="27"/>
+      <c r="AJQ28" s="27"/>
+      <c r="AJR28" s="27"/>
+      <c r="AJS28" s="27"/>
+      <c r="AJT28" s="27"/>
+      <c r="AJU28" s="27"/>
+      <c r="AJV28" s="27"/>
+      <c r="AJW28" s="27"/>
+      <c r="AJX28" s="27"/>
+      <c r="AJY28" s="27"/>
+      <c r="AJZ28" s="27"/>
+      <c r="AKA28" s="27"/>
+      <c r="AKB28" s="27"/>
+      <c r="AKC28" s="27"/>
+      <c r="AKD28" s="27"/>
+      <c r="AKE28" s="27"/>
+      <c r="AKF28" s="27"/>
+      <c r="AKG28" s="27"/>
+      <c r="AKH28" s="27"/>
+      <c r="AKI28" s="27"/>
+      <c r="AKJ28" s="27"/>
+      <c r="AKK28" s="27"/>
+      <c r="AKL28" s="27"/>
+      <c r="AKM28" s="27"/>
+      <c r="AKN28" s="27"/>
+      <c r="AKO28" s="27"/>
+      <c r="AKP28" s="27"/>
+      <c r="AKQ28" s="27"/>
+      <c r="AKR28" s="27"/>
+      <c r="AKS28" s="27"/>
+      <c r="AKT28" s="27"/>
+      <c r="AKU28" s="27"/>
+      <c r="AKV28" s="27"/>
+      <c r="AKW28" s="27"/>
+      <c r="AKX28" s="27"/>
+      <c r="AKY28" s="27"/>
+      <c r="AKZ28" s="27"/>
+      <c r="ALA28" s="27"/>
+      <c r="ALB28" s="27"/>
+      <c r="ALC28" s="27"/>
+      <c r="ALD28" s="27"/>
+      <c r="ALE28" s="27"/>
+      <c r="ALF28" s="27"/>
+      <c r="ALG28" s="27"/>
+      <c r="ALH28" s="27"/>
+      <c r="ALI28" s="27"/>
+      <c r="ALJ28" s="27"/>
+      <c r="ALK28" s="27"/>
+      <c r="ALL28" s="27"/>
+      <c r="ALM28" s="27"/>
+      <c r="ALN28" s="27"/>
+      <c r="ALO28" s="27"/>
+      <c r="ALP28" s="27"/>
+      <c r="ALQ28" s="27"/>
+      <c r="ALR28" s="27"/>
+      <c r="ALS28" s="27"/>
+      <c r="ALT28" s="27"/>
+      <c r="ALU28" s="27"/>
+      <c r="ALV28" s="27"/>
+      <c r="ALW28" s="27"/>
+      <c r="ALX28" s="27"/>
+      <c r="ALY28" s="27"/>
+      <c r="ALZ28" s="27"/>
+      <c r="AMA28" s="27"/>
+      <c r="AMB28" s="27"/>
+      <c r="AMC28" s="27"/>
+      <c r="AMD28" s="27"/>
+      <c r="AME28" s="27"/>
+      <c r="AMF28" s="27"/>
+      <c r="AMG28" s="27"/>
+      <c r="AMH28" s="27"/>
+      <c r="AMI28" s="27"/>
+      <c r="AMJ28" s="27"/>
+      <c r="AMK28" s="27"/>
+      <c r="AML28" s="27"/>
+      <c r="AMM28" s="27"/>
+      <c r="AMN28" s="27"/>
+      <c r="AMO28" s="27"/>
+      <c r="AMP28" s="27"/>
+      <c r="AMQ28" s="27"/>
+      <c r="AMR28" s="27"/>
+      <c r="AMS28" s="27"/>
+    </row>
+    <row r="29" s="43" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="27" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27" t="n">
+        <v>150</v>
+      </c>
+      <c r="H29" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27" t="n">
+        <v>129508</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="M29" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="N29" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="O29" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27" t="n">
+        <v>16</v>
+      </c>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z29" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA29" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB29" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC29" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27" t="n">
         <v>20270</v>
       </c>
-      <c r="AG28" s="1" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AH28" s="1" t="s">
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="AT28" s="9"/>
-      <c r="AU28" s="8"/>
-      <c r="AV28" s="9"/>
-      <c r="AY28" s="8"/>
-      <c r="BB28" s="8"/>
+      <c r="AI29" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="27"/>
+      <c r="AN29" s="27"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="27"/>
+      <c r="AQ29" s="27"/>
+      <c r="AR29" s="27"/>
+      <c r="AS29" s="27"/>
+      <c r="AT29" s="24"/>
+      <c r="AU29" s="27"/>
+      <c r="AV29" s="24"/>
+      <c r="AW29" s="27"/>
+      <c r="AX29" s="27"/>
+      <c r="AY29" s="27"/>
+      <c r="AZ29" s="27"/>
+      <c r="BA29" s="27"/>
+      <c r="BB29" s="27"/>
+      <c r="BC29" s="27"/>
+      <c r="BD29" s="27"/>
+      <c r="BE29" s="27"/>
+      <c r="BF29" s="27"/>
+      <c r="BG29" s="27"/>
+      <c r="BH29" s="27"/>
+      <c r="BI29" s="27"/>
+      <c r="BJ29" s="27"/>
+      <c r="BK29" s="27"/>
+      <c r="BL29" s="27"/>
+      <c r="BM29" s="27"/>
+      <c r="BN29" s="27"/>
+      <c r="BO29" s="27"/>
+      <c r="BP29" s="27"/>
+      <c r="BQ29" s="27"/>
+      <c r="BR29" s="27"/>
+      <c r="BS29" s="27"/>
+      <c r="BT29" s="27"/>
+      <c r="BU29" s="27"/>
+      <c r="BV29" s="27"/>
+      <c r="BW29" s="27"/>
+      <c r="BX29" s="27"/>
+      <c r="BY29" s="27"/>
+      <c r="BZ29" s="27"/>
+      <c r="CA29" s="27"/>
+      <c r="CB29" s="27"/>
+      <c r="CC29" s="27"/>
+      <c r="CD29" s="27"/>
+      <c r="CE29" s="27"/>
+      <c r="CF29" s="27"/>
+      <c r="CG29" s="27"/>
+      <c r="CH29" s="27"/>
+      <c r="CI29" s="27"/>
+      <c r="CJ29" s="27"/>
+      <c r="CK29" s="27"/>
+      <c r="CL29" s="27"/>
+      <c r="CM29" s="27"/>
+      <c r="CN29" s="27"/>
+      <c r="CO29" s="27"/>
+      <c r="CP29" s="27"/>
+      <c r="CQ29" s="27"/>
+      <c r="CR29" s="27"/>
+      <c r="CS29" s="27"/>
+      <c r="CT29" s="27"/>
+      <c r="CU29" s="27"/>
+      <c r="CV29" s="27"/>
+      <c r="CW29" s="27"/>
+      <c r="CX29" s="27"/>
+      <c r="CY29" s="27"/>
+      <c r="CZ29" s="27"/>
+      <c r="DA29" s="27"/>
+      <c r="DB29" s="27"/>
+      <c r="DC29" s="27"/>
+      <c r="DD29" s="27"/>
+      <c r="DE29" s="27"/>
+      <c r="DF29" s="27"/>
+      <c r="DG29" s="27"/>
+      <c r="DH29" s="27"/>
+      <c r="DI29" s="27"/>
+      <c r="DJ29" s="27"/>
+      <c r="DK29" s="27"/>
+      <c r="DL29" s="27"/>
+      <c r="DM29" s="27"/>
+      <c r="DN29" s="27"/>
+      <c r="DO29" s="27"/>
+      <c r="DP29" s="27"/>
+      <c r="DQ29" s="27"/>
+      <c r="DR29" s="27"/>
+      <c r="DS29" s="27"/>
+      <c r="DT29" s="27"/>
+      <c r="DU29" s="27"/>
+      <c r="DV29" s="27"/>
+      <c r="DW29" s="27"/>
+      <c r="DX29" s="27"/>
+      <c r="DY29" s="27"/>
+      <c r="DZ29" s="27"/>
+      <c r="EA29" s="27"/>
+      <c r="EB29" s="27"/>
+      <c r="EC29" s="27"/>
+      <c r="ED29" s="27"/>
+      <c r="EE29" s="27"/>
+      <c r="EF29" s="27"/>
+      <c r="EG29" s="27"/>
+      <c r="EH29" s="27"/>
+      <c r="EI29" s="27"/>
+      <c r="EJ29" s="27"/>
+      <c r="EK29" s="27"/>
+      <c r="EL29" s="27"/>
+      <c r="EM29" s="27"/>
+      <c r="EN29" s="27"/>
+      <c r="EO29" s="27"/>
+      <c r="EP29" s="27"/>
+      <c r="EQ29" s="27"/>
+      <c r="ER29" s="27"/>
+      <c r="ES29" s="27"/>
+      <c r="ET29" s="27"/>
+      <c r="EU29" s="27"/>
+      <c r="EV29" s="27"/>
+      <c r="EW29" s="27"/>
+      <c r="EX29" s="27"/>
+      <c r="EY29" s="27"/>
+      <c r="EZ29" s="27"/>
+      <c r="FA29" s="27"/>
+      <c r="FB29" s="27"/>
+      <c r="FC29" s="27"/>
+      <c r="FD29" s="27"/>
+      <c r="FE29" s="27"/>
+      <c r="FF29" s="27"/>
+      <c r="FG29" s="27"/>
+      <c r="FH29" s="27"/>
+      <c r="FI29" s="27"/>
+      <c r="FJ29" s="27"/>
+      <c r="FK29" s="27"/>
+      <c r="FL29" s="27"/>
+      <c r="FM29" s="27"/>
+      <c r="FN29" s="27"/>
+      <c r="FO29" s="27"/>
+      <c r="FP29" s="27"/>
+      <c r="FQ29" s="27"/>
+      <c r="FR29" s="27"/>
+      <c r="FS29" s="27"/>
+      <c r="FT29" s="27"/>
+      <c r="FU29" s="27"/>
+      <c r="FV29" s="27"/>
+      <c r="FW29" s="27"/>
+      <c r="FX29" s="27"/>
+      <c r="FY29" s="27"/>
+      <c r="FZ29" s="27"/>
+      <c r="GA29" s="27"/>
+      <c r="GB29" s="27"/>
+      <c r="GC29" s="27"/>
+      <c r="GD29" s="27"/>
+      <c r="GE29" s="27"/>
+      <c r="GF29" s="27"/>
+      <c r="GG29" s="27"/>
+      <c r="GH29" s="27"/>
+      <c r="GI29" s="27"/>
+      <c r="GJ29" s="27"/>
+      <c r="GK29" s="27"/>
+      <c r="GL29" s="27"/>
+      <c r="GM29" s="27"/>
+      <c r="GN29" s="27"/>
+      <c r="GO29" s="27"/>
+      <c r="GP29" s="27"/>
+      <c r="GQ29" s="27"/>
+      <c r="GR29" s="27"/>
+      <c r="GS29" s="27"/>
+      <c r="GT29" s="27"/>
+      <c r="GU29" s="27"/>
+      <c r="GV29" s="27"/>
+      <c r="GW29" s="27"/>
+      <c r="GX29" s="27"/>
+      <c r="GY29" s="27"/>
+      <c r="GZ29" s="27"/>
+      <c r="HA29" s="27"/>
+      <c r="HB29" s="27"/>
+      <c r="HC29" s="27"/>
+      <c r="HD29" s="27"/>
+      <c r="HE29" s="27"/>
+      <c r="HF29" s="27"/>
+      <c r="HG29" s="27"/>
+      <c r="HH29" s="27"/>
+      <c r="HI29" s="27"/>
+      <c r="HJ29" s="27"/>
+      <c r="HK29" s="27"/>
+      <c r="HL29" s="27"/>
+      <c r="HM29" s="27"/>
+      <c r="HN29" s="27"/>
+      <c r="HO29" s="27"/>
+      <c r="HP29" s="27"/>
+      <c r="HQ29" s="27"/>
+      <c r="HR29" s="27"/>
+      <c r="HS29" s="27"/>
+      <c r="HT29" s="27"/>
+      <c r="HU29" s="27"/>
+      <c r="HV29" s="27"/>
+      <c r="HW29" s="27"/>
+      <c r="HX29" s="27"/>
+      <c r="HY29" s="27"/>
+      <c r="HZ29" s="27"/>
+      <c r="IA29" s="27"/>
+      <c r="IB29" s="27"/>
+      <c r="IC29" s="27"/>
+      <c r="ID29" s="27"/>
+      <c r="IE29" s="27"/>
+      <c r="IF29" s="27"/>
+      <c r="IG29" s="27"/>
+      <c r="IH29" s="27"/>
+      <c r="II29" s="27"/>
+      <c r="IJ29" s="27"/>
+      <c r="IK29" s="27"/>
+      <c r="IL29" s="27"/>
+      <c r="IM29" s="27"/>
+      <c r="IN29" s="27"/>
+      <c r="IO29" s="27"/>
+      <c r="IP29" s="27"/>
+      <c r="IQ29" s="27"/>
+      <c r="IR29" s="27"/>
+      <c r="IS29" s="27"/>
+      <c r="IT29" s="27"/>
+      <c r="IU29" s="27"/>
+      <c r="IV29" s="27"/>
+      <c r="IW29" s="27"/>
+      <c r="IX29" s="27"/>
+      <c r="IY29" s="27"/>
+      <c r="IZ29" s="27"/>
+      <c r="JA29" s="27"/>
+      <c r="JB29" s="27"/>
+      <c r="JC29" s="27"/>
+      <c r="JD29" s="27"/>
+      <c r="JE29" s="27"/>
+      <c r="JF29" s="27"/>
+      <c r="JG29" s="27"/>
+      <c r="JH29" s="27"/>
+      <c r="JI29" s="27"/>
+      <c r="JJ29" s="27"/>
+      <c r="JK29" s="27"/>
+      <c r="JL29" s="27"/>
+      <c r="JM29" s="27"/>
+      <c r="JN29" s="27"/>
+      <c r="JO29" s="27"/>
+      <c r="JP29" s="27"/>
+      <c r="JQ29" s="27"/>
+      <c r="JR29" s="27"/>
+      <c r="JS29" s="27"/>
+      <c r="JT29" s="27"/>
+      <c r="JU29" s="27"/>
+      <c r="JV29" s="27"/>
+      <c r="JW29" s="27"/>
+      <c r="JX29" s="27"/>
+      <c r="JY29" s="27"/>
+      <c r="JZ29" s="27"/>
+      <c r="KA29" s="27"/>
+      <c r="KB29" s="27"/>
+      <c r="KC29" s="27"/>
+      <c r="KD29" s="27"/>
+      <c r="KE29" s="27"/>
+      <c r="KF29" s="27"/>
+      <c r="KG29" s="27"/>
+      <c r="KH29" s="27"/>
+      <c r="KI29" s="27"/>
+      <c r="KJ29" s="27"/>
+      <c r="KK29" s="27"/>
+      <c r="KL29" s="27"/>
+      <c r="KM29" s="27"/>
+      <c r="KN29" s="27"/>
+      <c r="KO29" s="27"/>
+      <c r="KP29" s="27"/>
+      <c r="KQ29" s="27"/>
+      <c r="KR29" s="27"/>
+      <c r="KS29" s="27"/>
+      <c r="KT29" s="27"/>
+      <c r="KU29" s="27"/>
+      <c r="KV29" s="27"/>
+      <c r="KW29" s="27"/>
+      <c r="KX29" s="27"/>
+      <c r="KY29" s="27"/>
+      <c r="KZ29" s="27"/>
+      <c r="LA29" s="27"/>
+      <c r="LB29" s="27"/>
+      <c r="LC29" s="27"/>
+      <c r="LD29" s="27"/>
+      <c r="LE29" s="27"/>
+      <c r="LF29" s="27"/>
+      <c r="LG29" s="27"/>
+      <c r="LH29" s="27"/>
+      <c r="LI29" s="27"/>
+      <c r="LJ29" s="27"/>
+      <c r="LK29" s="27"/>
+      <c r="LL29" s="27"/>
+      <c r="LM29" s="27"/>
+      <c r="LN29" s="27"/>
+      <c r="LO29" s="27"/>
+      <c r="LP29" s="27"/>
+      <c r="LQ29" s="27"/>
+      <c r="LR29" s="27"/>
+      <c r="LS29" s="27"/>
+      <c r="LT29" s="27"/>
+      <c r="LU29" s="27"/>
+      <c r="LV29" s="27"/>
+      <c r="LW29" s="27"/>
+      <c r="LX29" s="27"/>
+      <c r="LY29" s="27"/>
+      <c r="LZ29" s="27"/>
+      <c r="MA29" s="27"/>
+      <c r="MB29" s="27"/>
+      <c r="MC29" s="27"/>
+      <c r="MD29" s="27"/>
+      <c r="ME29" s="27"/>
+      <c r="MF29" s="27"/>
+      <c r="MG29" s="27"/>
+      <c r="MH29" s="27"/>
+      <c r="MI29" s="27"/>
+      <c r="MJ29" s="27"/>
+      <c r="MK29" s="27"/>
+      <c r="ML29" s="27"/>
+      <c r="MM29" s="27"/>
+      <c r="MN29" s="27"/>
+      <c r="MO29" s="27"/>
+      <c r="MP29" s="27"/>
+      <c r="MQ29" s="27"/>
+      <c r="MR29" s="27"/>
+      <c r="MS29" s="27"/>
+      <c r="MT29" s="27"/>
+      <c r="MU29" s="27"/>
+      <c r="MV29" s="27"/>
+      <c r="MW29" s="27"/>
+      <c r="MX29" s="27"/>
+      <c r="MY29" s="27"/>
+      <c r="MZ29" s="27"/>
+      <c r="NA29" s="27"/>
+      <c r="NB29" s="27"/>
+      <c r="NC29" s="27"/>
+      <c r="ND29" s="27"/>
+      <c r="NE29" s="27"/>
+      <c r="NF29" s="27"/>
+      <c r="NG29" s="27"/>
+      <c r="NH29" s="27"/>
+      <c r="NI29" s="27"/>
+      <c r="NJ29" s="27"/>
+      <c r="NK29" s="27"/>
+      <c r="NL29" s="27"/>
+      <c r="NM29" s="27"/>
+      <c r="NN29" s="27"/>
+      <c r="NO29" s="27"/>
+      <c r="NP29" s="27"/>
+      <c r="NQ29" s="27"/>
+      <c r="NR29" s="27"/>
+      <c r="NS29" s="27"/>
+      <c r="NT29" s="27"/>
+      <c r="NU29" s="27"/>
+      <c r="NV29" s="27"/>
+      <c r="NW29" s="27"/>
+      <c r="NX29" s="27"/>
+      <c r="NY29" s="27"/>
+      <c r="NZ29" s="27"/>
+      <c r="OA29" s="27"/>
+      <c r="OB29" s="27"/>
+      <c r="OC29" s="27"/>
+      <c r="OD29" s="27"/>
+      <c r="OE29" s="27"/>
+      <c r="OF29" s="27"/>
+      <c r="OG29" s="27"/>
+      <c r="OH29" s="27"/>
+      <c r="OI29" s="27"/>
+      <c r="OJ29" s="27"/>
+      <c r="OK29" s="27"/>
+      <c r="OL29" s="27"/>
+      <c r="OM29" s="27"/>
+      <c r="ON29" s="27"/>
+      <c r="OO29" s="27"/>
+      <c r="OP29" s="27"/>
+      <c r="OQ29" s="27"/>
+      <c r="OR29" s="27"/>
+      <c r="OS29" s="27"/>
+      <c r="OT29" s="27"/>
+      <c r="OU29" s="27"/>
+      <c r="OV29" s="27"/>
+      <c r="OW29" s="27"/>
+      <c r="OX29" s="27"/>
+      <c r="OY29" s="27"/>
+      <c r="OZ29" s="27"/>
+      <c r="PA29" s="27"/>
+      <c r="PB29" s="27"/>
+      <c r="PC29" s="27"/>
+      <c r="PD29" s="27"/>
+      <c r="PE29" s="27"/>
+      <c r="PF29" s="27"/>
+      <c r="PG29" s="27"/>
+      <c r="PH29" s="27"/>
+      <c r="PI29" s="27"/>
+      <c r="PJ29" s="27"/>
+      <c r="PK29" s="27"/>
+      <c r="PL29" s="27"/>
+      <c r="PM29" s="27"/>
+      <c r="PN29" s="27"/>
+      <c r="PO29" s="27"/>
+      <c r="PP29" s="27"/>
+      <c r="PQ29" s="27"/>
+      <c r="PR29" s="27"/>
+      <c r="PS29" s="27"/>
+      <c r="PT29" s="27"/>
+      <c r="PU29" s="27"/>
+      <c r="PV29" s="27"/>
+      <c r="PW29" s="27"/>
+      <c r="PX29" s="27"/>
+      <c r="PY29" s="27"/>
+      <c r="PZ29" s="27"/>
+      <c r="QA29" s="27"/>
+      <c r="QB29" s="27"/>
+      <c r="QC29" s="27"/>
+      <c r="QD29" s="27"/>
+      <c r="QE29" s="27"/>
+      <c r="QF29" s="27"/>
+      <c r="QG29" s="27"/>
+      <c r="QH29" s="27"/>
+      <c r="QI29" s="27"/>
+      <c r="QJ29" s="27"/>
+      <c r="QK29" s="27"/>
+      <c r="QL29" s="27"/>
+      <c r="QM29" s="27"/>
+      <c r="QN29" s="27"/>
+      <c r="QO29" s="27"/>
+      <c r="QP29" s="27"/>
+      <c r="QQ29" s="27"/>
+      <c r="QR29" s="27"/>
+      <c r="QS29" s="27"/>
+      <c r="QT29" s="27"/>
+      <c r="QU29" s="27"/>
+      <c r="QV29" s="27"/>
+      <c r="QW29" s="27"/>
+      <c r="QX29" s="27"/>
+      <c r="QY29" s="27"/>
+      <c r="QZ29" s="27"/>
+      <c r="RA29" s="27"/>
+      <c r="RB29" s="27"/>
+      <c r="RC29" s="27"/>
+      <c r="RD29" s="27"/>
+      <c r="RE29" s="27"/>
+      <c r="RF29" s="27"/>
+      <c r="RG29" s="27"/>
+      <c r="RH29" s="27"/>
+      <c r="RI29" s="27"/>
+      <c r="RJ29" s="27"/>
+      <c r="RK29" s="27"/>
+      <c r="RL29" s="27"/>
+      <c r="RM29" s="27"/>
+      <c r="RN29" s="27"/>
+      <c r="RO29" s="27"/>
+      <c r="RP29" s="27"/>
+      <c r="RQ29" s="27"/>
+      <c r="RR29" s="27"/>
+      <c r="RS29" s="27"/>
+      <c r="RT29" s="27"/>
+      <c r="RU29" s="27"/>
+      <c r="RV29" s="27"/>
+      <c r="RW29" s="27"/>
+      <c r="RX29" s="27"/>
+      <c r="RY29" s="27"/>
+      <c r="RZ29" s="27"/>
+      <c r="SA29" s="27"/>
+      <c r="SB29" s="27"/>
+      <c r="SC29" s="27"/>
+      <c r="SD29" s="27"/>
+      <c r="SE29" s="27"/>
+      <c r="SF29" s="27"/>
+      <c r="SG29" s="27"/>
+      <c r="SH29" s="27"/>
+      <c r="SI29" s="27"/>
+      <c r="SJ29" s="27"/>
+      <c r="SK29" s="27"/>
+      <c r="SL29" s="27"/>
+      <c r="SM29" s="27"/>
+      <c r="SN29" s="27"/>
+      <c r="SO29" s="27"/>
+      <c r="SP29" s="27"/>
+      <c r="SQ29" s="27"/>
+      <c r="SR29" s="27"/>
+      <c r="SS29" s="27"/>
+      <c r="ST29" s="27"/>
+      <c r="SU29" s="27"/>
+      <c r="SV29" s="27"/>
+      <c r="SW29" s="27"/>
+      <c r="SX29" s="27"/>
+      <c r="SY29" s="27"/>
+      <c r="SZ29" s="27"/>
+      <c r="TA29" s="27"/>
+      <c r="TB29" s="27"/>
+      <c r="TC29" s="27"/>
+      <c r="TD29" s="27"/>
+      <c r="TE29" s="27"/>
+      <c r="TF29" s="27"/>
+      <c r="TG29" s="27"/>
+      <c r="TH29" s="27"/>
+      <c r="TI29" s="27"/>
+      <c r="TJ29" s="27"/>
+      <c r="TK29" s="27"/>
+      <c r="TL29" s="27"/>
+      <c r="TM29" s="27"/>
+      <c r="TN29" s="27"/>
+      <c r="TO29" s="27"/>
+      <c r="TP29" s="27"/>
+      <c r="TQ29" s="27"/>
+      <c r="TR29" s="27"/>
+      <c r="TS29" s="27"/>
+      <c r="TT29" s="27"/>
+      <c r="TU29" s="27"/>
+      <c r="TV29" s="27"/>
+      <c r="TW29" s="27"/>
+      <c r="TX29" s="27"/>
+      <c r="TY29" s="27"/>
+      <c r="TZ29" s="27"/>
+      <c r="UA29" s="27"/>
+      <c r="UB29" s="27"/>
+      <c r="UC29" s="27"/>
+      <c r="UD29" s="27"/>
+      <c r="UE29" s="27"/>
+      <c r="UF29" s="27"/>
+      <c r="UG29" s="27"/>
+      <c r="UH29" s="27"/>
+      <c r="UI29" s="27"/>
+      <c r="UJ29" s="27"/>
+      <c r="UK29" s="27"/>
+      <c r="UL29" s="27"/>
+      <c r="UM29" s="27"/>
+      <c r="UN29" s="27"/>
+      <c r="UO29" s="27"/>
+      <c r="UP29" s="27"/>
+      <c r="UQ29" s="27"/>
+      <c r="UR29" s="27"/>
+      <c r="US29" s="27"/>
+      <c r="UT29" s="27"/>
+      <c r="UU29" s="27"/>
+      <c r="UV29" s="27"/>
+      <c r="UW29" s="27"/>
+      <c r="UX29" s="27"/>
+      <c r="UY29" s="27"/>
+      <c r="UZ29" s="27"/>
+      <c r="VA29" s="27"/>
+      <c r="VB29" s="27"/>
+      <c r="VC29" s="27"/>
+      <c r="VD29" s="27"/>
+      <c r="VE29" s="27"/>
+      <c r="VF29" s="27"/>
+      <c r="VG29" s="27"/>
+      <c r="VH29" s="27"/>
+      <c r="VI29" s="27"/>
+      <c r="VJ29" s="27"/>
+      <c r="VK29" s="27"/>
+      <c r="VL29" s="27"/>
+      <c r="VM29" s="27"/>
+      <c r="VN29" s="27"/>
+      <c r="VO29" s="27"/>
+      <c r="VP29" s="27"/>
+      <c r="VQ29" s="27"/>
+      <c r="VR29" s="27"/>
+      <c r="VS29" s="27"/>
+      <c r="VT29" s="27"/>
+      <c r="VU29" s="27"/>
+      <c r="VV29" s="27"/>
+      <c r="VW29" s="27"/>
+      <c r="VX29" s="27"/>
+      <c r="VY29" s="27"/>
+      <c r="VZ29" s="27"/>
+      <c r="WA29" s="27"/>
+      <c r="WB29" s="27"/>
+      <c r="WC29" s="27"/>
+      <c r="WD29" s="27"/>
+      <c r="WE29" s="27"/>
+      <c r="WF29" s="27"/>
+      <c r="WG29" s="27"/>
+      <c r="WH29" s="27"/>
+      <c r="WI29" s="27"/>
+      <c r="WJ29" s="27"/>
+      <c r="WK29" s="27"/>
+      <c r="WL29" s="27"/>
+      <c r="WM29" s="27"/>
+      <c r="WN29" s="27"/>
+      <c r="WO29" s="27"/>
+      <c r="WP29" s="27"/>
+      <c r="WQ29" s="27"/>
+      <c r="WR29" s="27"/>
+      <c r="WS29" s="27"/>
+      <c r="WT29" s="27"/>
+      <c r="WU29" s="27"/>
+      <c r="WV29" s="27"/>
+      <c r="WW29" s="27"/>
+      <c r="WX29" s="27"/>
+      <c r="WY29" s="27"/>
+      <c r="WZ29" s="27"/>
+      <c r="XA29" s="27"/>
+      <c r="XB29" s="27"/>
+      <c r="XC29" s="27"/>
+      <c r="XD29" s="27"/>
+      <c r="XE29" s="27"/>
+      <c r="XF29" s="27"/>
+      <c r="XG29" s="27"/>
+      <c r="XH29" s="27"/>
+      <c r="XI29" s="27"/>
+      <c r="XJ29" s="27"/>
+      <c r="XK29" s="27"/>
+      <c r="XL29" s="27"/>
+      <c r="XM29" s="27"/>
+      <c r="XN29" s="27"/>
+      <c r="XO29" s="27"/>
+      <c r="XP29" s="27"/>
+      <c r="XQ29" s="27"/>
+      <c r="XR29" s="27"/>
+      <c r="XS29" s="27"/>
+      <c r="XT29" s="27"/>
+      <c r="XU29" s="27"/>
+      <c r="XV29" s="27"/>
+      <c r="XW29" s="27"/>
+      <c r="XX29" s="27"/>
+      <c r="XY29" s="27"/>
+      <c r="XZ29" s="27"/>
+      <c r="YA29" s="27"/>
+      <c r="YB29" s="27"/>
+      <c r="YC29" s="27"/>
+      <c r="YD29" s="27"/>
+      <c r="YE29" s="27"/>
+      <c r="YF29" s="27"/>
+      <c r="YG29" s="27"/>
+      <c r="YH29" s="27"/>
+      <c r="YI29" s="27"/>
+      <c r="YJ29" s="27"/>
+      <c r="YK29" s="27"/>
+      <c r="YL29" s="27"/>
+      <c r="YM29" s="27"/>
+      <c r="YN29" s="27"/>
+      <c r="YO29" s="27"/>
+      <c r="YP29" s="27"/>
+      <c r="YQ29" s="27"/>
+      <c r="YR29" s="27"/>
+      <c r="YS29" s="27"/>
+      <c r="YT29" s="27"/>
+      <c r="YU29" s="27"/>
+      <c r="YV29" s="27"/>
+      <c r="YW29" s="27"/>
+      <c r="YX29" s="27"/>
+      <c r="YY29" s="27"/>
+      <c r="YZ29" s="27"/>
+      <c r="ZA29" s="27"/>
+      <c r="ZB29" s="27"/>
+      <c r="ZC29" s="27"/>
+      <c r="ZD29" s="27"/>
+      <c r="ZE29" s="27"/>
+      <c r="ZF29" s="27"/>
+      <c r="ZG29" s="27"/>
+      <c r="ZH29" s="27"/>
+      <c r="ZI29" s="27"/>
+      <c r="ZJ29" s="27"/>
+      <c r="ZK29" s="27"/>
+      <c r="ZL29" s="27"/>
+      <c r="ZM29" s="27"/>
+      <c r="ZN29" s="27"/>
+      <c r="ZO29" s="27"/>
+      <c r="ZP29" s="27"/>
+      <c r="ZQ29" s="27"/>
+      <c r="ZR29" s="27"/>
+      <c r="ZS29" s="27"/>
+      <c r="ZT29" s="27"/>
+      <c r="ZU29" s="27"/>
+      <c r="ZV29" s="27"/>
+      <c r="ZW29" s="27"/>
+      <c r="ZX29" s="27"/>
+      <c r="ZY29" s="27"/>
+      <c r="ZZ29" s="27"/>
+      <c r="AAA29" s="27"/>
+      <c r="AAB29" s="27"/>
+      <c r="AAC29" s="27"/>
+      <c r="AAD29" s="27"/>
+      <c r="AAE29" s="27"/>
+      <c r="AAF29" s="27"/>
+      <c r="AAG29" s="27"/>
+      <c r="AAH29" s="27"/>
+      <c r="AAI29" s="27"/>
+      <c r="AAJ29" s="27"/>
+      <c r="AAK29" s="27"/>
+      <c r="AAL29" s="27"/>
+      <c r="AAM29" s="27"/>
+      <c r="AAN29" s="27"/>
+      <c r="AAO29" s="27"/>
+      <c r="AAP29" s="27"/>
+      <c r="AAQ29" s="27"/>
+      <c r="AAR29" s="27"/>
+      <c r="AAS29" s="27"/>
+      <c r="AAT29" s="27"/>
+      <c r="AAU29" s="27"/>
+      <c r="AAV29" s="27"/>
+      <c r="AAW29" s="27"/>
+      <c r="AAX29" s="27"/>
+      <c r="AAY29" s="27"/>
+      <c r="AAZ29" s="27"/>
+      <c r="ABA29" s="27"/>
+      <c r="ABB29" s="27"/>
+      <c r="ABC29" s="27"/>
+      <c r="ABD29" s="27"/>
+      <c r="ABE29" s="27"/>
+      <c r="ABF29" s="27"/>
+      <c r="ABG29" s="27"/>
+      <c r="ABH29" s="27"/>
+      <c r="ABI29" s="27"/>
+      <c r="ABJ29" s="27"/>
+      <c r="ABK29" s="27"/>
+      <c r="ABL29" s="27"/>
+      <c r="ABM29" s="27"/>
+      <c r="ABN29" s="27"/>
+      <c r="ABO29" s="27"/>
+      <c r="ABP29" s="27"/>
+      <c r="ABQ29" s="27"/>
+      <c r="ABR29" s="27"/>
+      <c r="ABS29" s="27"/>
+      <c r="ABT29" s="27"/>
+      <c r="ABU29" s="27"/>
+      <c r="ABV29" s="27"/>
+      <c r="ABW29" s="27"/>
+      <c r="ABX29" s="27"/>
+      <c r="ABY29" s="27"/>
+      <c r="ABZ29" s="27"/>
+      <c r="ACA29" s="27"/>
+      <c r="ACB29" s="27"/>
+      <c r="ACC29" s="27"/>
+      <c r="ACD29" s="27"/>
+      <c r="ACE29" s="27"/>
+      <c r="ACF29" s="27"/>
+      <c r="ACG29" s="27"/>
+      <c r="ACH29" s="27"/>
+      <c r="ACI29" s="27"/>
+      <c r="ACJ29" s="27"/>
+      <c r="ACK29" s="27"/>
+      <c r="ACL29" s="27"/>
+      <c r="ACM29" s="27"/>
+      <c r="ACN29" s="27"/>
+      <c r="ACO29" s="27"/>
+      <c r="ACP29" s="27"/>
+      <c r="ACQ29" s="27"/>
+      <c r="ACR29" s="27"/>
+      <c r="ACS29" s="27"/>
+      <c r="ACT29" s="27"/>
+      <c r="ACU29" s="27"/>
+      <c r="ACV29" s="27"/>
+      <c r="ACW29" s="27"/>
+      <c r="ACX29" s="27"/>
+      <c r="ACY29" s="27"/>
+      <c r="ACZ29" s="27"/>
+      <c r="ADA29" s="27"/>
+      <c r="ADB29" s="27"/>
+      <c r="ADC29" s="27"/>
+      <c r="ADD29" s="27"/>
+      <c r="ADE29" s="27"/>
+      <c r="ADF29" s="27"/>
+      <c r="ADG29" s="27"/>
+      <c r="ADH29" s="27"/>
+      <c r="ADI29" s="27"/>
+      <c r="ADJ29" s="27"/>
+      <c r="ADK29" s="27"/>
+      <c r="ADL29" s="27"/>
+      <c r="ADM29" s="27"/>
+      <c r="ADN29" s="27"/>
+      <c r="ADO29" s="27"/>
+      <c r="ADP29" s="27"/>
+      <c r="ADQ29" s="27"/>
+      <c r="ADR29" s="27"/>
+      <c r="ADS29" s="27"/>
+      <c r="ADT29" s="27"/>
+      <c r="ADU29" s="27"/>
+      <c r="ADV29" s="27"/>
+      <c r="ADW29" s="27"/>
+      <c r="ADX29" s="27"/>
+      <c r="ADY29" s="27"/>
+      <c r="ADZ29" s="27"/>
+      <c r="AEA29" s="27"/>
+      <c r="AEB29" s="27"/>
+      <c r="AEC29" s="27"/>
+      <c r="AED29" s="27"/>
+      <c r="AEE29" s="27"/>
+      <c r="AEF29" s="27"/>
+      <c r="AEG29" s="27"/>
+      <c r="AEH29" s="27"/>
+      <c r="AEI29" s="27"/>
+      <c r="AEJ29" s="27"/>
+      <c r="AEK29" s="27"/>
+      <c r="AEL29" s="27"/>
+      <c r="AEM29" s="27"/>
+      <c r="AEN29" s="27"/>
+      <c r="AEO29" s="27"/>
+      <c r="AEP29" s="27"/>
+      <c r="AEQ29" s="27"/>
+      <c r="AER29" s="27"/>
+      <c r="AES29" s="27"/>
+      <c r="AET29" s="27"/>
+      <c r="AEU29" s="27"/>
+      <c r="AEV29" s="27"/>
+      <c r="AEW29" s="27"/>
+      <c r="AEX29" s="27"/>
+      <c r="AEY29" s="27"/>
+      <c r="AEZ29" s="27"/>
+      <c r="AFA29" s="27"/>
+      <c r="AFB29" s="27"/>
+      <c r="AFC29" s="27"/>
+      <c r="AFD29" s="27"/>
+      <c r="AFE29" s="27"/>
+      <c r="AFF29" s="27"/>
+      <c r="AFG29" s="27"/>
+      <c r="AFH29" s="27"/>
+      <c r="AFI29" s="27"/>
+      <c r="AFJ29" s="27"/>
+      <c r="AFK29" s="27"/>
+      <c r="AFL29" s="27"/>
+      <c r="AFM29" s="27"/>
+      <c r="AFN29" s="27"/>
+      <c r="AFO29" s="27"/>
+      <c r="AFP29" s="27"/>
+      <c r="AFQ29" s="27"/>
+      <c r="AFR29" s="27"/>
+      <c r="AFS29" s="27"/>
+      <c r="AFT29" s="27"/>
+      <c r="AFU29" s="27"/>
+      <c r="AFV29" s="27"/>
+      <c r="AFW29" s="27"/>
+      <c r="AFX29" s="27"/>
+      <c r="AFY29" s="27"/>
+      <c r="AFZ29" s="27"/>
+      <c r="AGA29" s="27"/>
+      <c r="AGB29" s="27"/>
+      <c r="AGC29" s="27"/>
+      <c r="AGD29" s="27"/>
+      <c r="AGE29" s="27"/>
+      <c r="AGF29" s="27"/>
+      <c r="AGG29" s="27"/>
+      <c r="AGH29" s="27"/>
+      <c r="AGI29" s="27"/>
+      <c r="AGJ29" s="27"/>
+      <c r="AGK29" s="27"/>
+      <c r="AGL29" s="27"/>
+      <c r="AGM29" s="27"/>
+      <c r="AGN29" s="27"/>
+      <c r="AGO29" s="27"/>
+      <c r="AGP29" s="27"/>
+      <c r="AGQ29" s="27"/>
+      <c r="AGR29" s="27"/>
+      <c r="AGS29" s="27"/>
+      <c r="AGT29" s="27"/>
+      <c r="AGU29" s="27"/>
+      <c r="AGV29" s="27"/>
+      <c r="AGW29" s="27"/>
+      <c r="AGX29" s="27"/>
+      <c r="AGY29" s="27"/>
+      <c r="AGZ29" s="27"/>
+      <c r="AHA29" s="27"/>
+      <c r="AHB29" s="27"/>
+      <c r="AHC29" s="27"/>
+      <c r="AHD29" s="27"/>
+      <c r="AHE29" s="27"/>
+      <c r="AHF29" s="27"/>
+      <c r="AHG29" s="27"/>
+      <c r="AHH29" s="27"/>
+      <c r="AHI29" s="27"/>
+      <c r="AHJ29" s="27"/>
+      <c r="AHK29" s="27"/>
+      <c r="AHL29" s="27"/>
+      <c r="AHM29" s="27"/>
+      <c r="AHN29" s="27"/>
+      <c r="AHO29" s="27"/>
+      <c r="AHP29" s="27"/>
+      <c r="AHQ29" s="27"/>
+      <c r="AHR29" s="27"/>
+      <c r="AHS29" s="27"/>
+      <c r="AHT29" s="27"/>
+      <c r="AHU29" s="27"/>
+      <c r="AHV29" s="27"/>
+      <c r="AHW29" s="27"/>
+      <c r="AHX29" s="27"/>
+      <c r="AHY29" s="27"/>
+      <c r="AHZ29" s="27"/>
+      <c r="AIA29" s="27"/>
+      <c r="AIB29" s="27"/>
+      <c r="AIC29" s="27"/>
+      <c r="AID29" s="27"/>
+      <c r="AIE29" s="27"/>
+      <c r="AIF29" s="27"/>
+      <c r="AIG29" s="27"/>
+      <c r="AIH29" s="27"/>
+      <c r="AII29" s="27"/>
+      <c r="AIJ29" s="27"/>
+      <c r="AIK29" s="27"/>
+      <c r="AIL29" s="27"/>
+      <c r="AIM29" s="27"/>
+      <c r="AIN29" s="27"/>
+      <c r="AIO29" s="27"/>
+      <c r="AIP29" s="27"/>
+      <c r="AIQ29" s="27"/>
+      <c r="AIR29" s="27"/>
+      <c r="AIS29" s="27"/>
+      <c r="AIT29" s="27"/>
+      <c r="AIU29" s="27"/>
+      <c r="AIV29" s="27"/>
+      <c r="AIW29" s="27"/>
+      <c r="AIX29" s="27"/>
+      <c r="AIY29" s="27"/>
+      <c r="AIZ29" s="27"/>
+      <c r="AJA29" s="27"/>
+      <c r="AJB29" s="27"/>
+      <c r="AJC29" s="27"/>
+      <c r="AJD29" s="27"/>
+      <c r="AJE29" s="27"/>
+      <c r="AJF29" s="27"/>
+      <c r="AJG29" s="27"/>
+      <c r="AJH29" s="27"/>
+      <c r="AJI29" s="27"/>
+      <c r="AJJ29" s="27"/>
+      <c r="AJK29" s="27"/>
+      <c r="AJL29" s="27"/>
+      <c r="AJM29" s="27"/>
+      <c r="AJN29" s="27"/>
+      <c r="AJO29" s="27"/>
+      <c r="AJP29" s="27"/>
+      <c r="AJQ29" s="27"/>
+      <c r="AJR29" s="27"/>
+      <c r="AJS29" s="27"/>
+      <c r="AJT29" s="27"/>
+      <c r="AJU29" s="27"/>
+      <c r="AJV29" s="27"/>
+      <c r="AJW29" s="27"/>
+      <c r="AJX29" s="27"/>
+      <c r="AJY29" s="27"/>
+      <c r="AJZ29" s="27"/>
+      <c r="AKA29" s="27"/>
+      <c r="AKB29" s="27"/>
+      <c r="AKC29" s="27"/>
+      <c r="AKD29" s="27"/>
+      <c r="AKE29" s="27"/>
+      <c r="AKF29" s="27"/>
+      <c r="AKG29" s="27"/>
+      <c r="AKH29" s="27"/>
+      <c r="AKI29" s="27"/>
+      <c r="AKJ29" s="27"/>
+      <c r="AKK29" s="27"/>
+      <c r="AKL29" s="27"/>
+      <c r="AKM29" s="27"/>
+      <c r="AKN29" s="27"/>
+      <c r="AKO29" s="27"/>
+      <c r="AKP29" s="27"/>
+      <c r="AKQ29" s="27"/>
+      <c r="AKR29" s="27"/>
+      <c r="AKS29" s="27"/>
+      <c r="AKT29" s="27"/>
+      <c r="AKU29" s="27"/>
+      <c r="AKV29" s="27"/>
+      <c r="AKW29" s="27"/>
+      <c r="AKX29" s="27"/>
+      <c r="AKY29" s="27"/>
+      <c r="AKZ29" s="27"/>
+      <c r="ALA29" s="27"/>
+      <c r="ALB29" s="27"/>
+      <c r="ALC29" s="27"/>
+      <c r="ALD29" s="27"/>
+      <c r="ALE29" s="27"/>
+      <c r="ALF29" s="27"/>
+      <c r="ALG29" s="27"/>
+      <c r="ALH29" s="27"/>
+      <c r="ALI29" s="27"/>
+      <c r="ALJ29" s="27"/>
+      <c r="ALK29" s="27"/>
+      <c r="ALL29" s="27"/>
+      <c r="ALM29" s="27"/>
+      <c r="ALN29" s="27"/>
+      <c r="ALO29" s="27"/>
+      <c r="ALP29" s="27"/>
+      <c r="ALQ29" s="27"/>
+      <c r="ALR29" s="27"/>
+      <c r="ALS29" s="27"/>
+      <c r="ALT29" s="27"/>
+      <c r="ALU29" s="27"/>
+      <c r="ALV29" s="27"/>
+      <c r="ALW29" s="27"/>
+      <c r="ALX29" s="27"/>
+      <c r="ALY29" s="27"/>
+      <c r="ALZ29" s="27"/>
+      <c r="AMA29" s="27"/>
+      <c r="AMB29" s="27"/>
+      <c r="AMC29" s="27"/>
+      <c r="AMD29" s="27"/>
+      <c r="AME29" s="27"/>
+      <c r="AMF29" s="27"/>
+      <c r="AMG29" s="27"/>
+      <c r="AMH29" s="27"/>
+      <c r="AMI29" s="27"/>
+      <c r="AMJ29" s="27"/>
+      <c r="AMK29" s="27"/>
+      <c r="AML29" s="27"/>
+      <c r="AMM29" s="27"/>
+      <c r="AMN29" s="27"/>
+      <c r="AMO29" s="27"/>
+      <c r="AMP29" s="27"/>
+      <c r="AMQ29" s="27"/>
+      <c r="AMR29" s="27"/>
+      <c r="AMS29" s="27"/>
     </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>1023</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C29" s="2" t="n">
+    <row r="30" s="43" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="27" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C30" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D30" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H29" s="1" t="n">
+      <c r="E30" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27" t="n">
+        <v>250</v>
+      </c>
+      <c r="H30" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="J29" s="1" t="n">
-        <v>129508</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L29" s="1" t="s">
+      <c r="I30" s="27"/>
+      <c r="J30" s="27" t="n">
+        <v>319126</v>
+      </c>
+      <c r="K30" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="L30" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="M30" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="N30" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="T29" s="1" t="n">
+      <c r="O30" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="X29" s="1" t="n">
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="Y30" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="Z29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA29" s="1" t="s">
+      <c r="Z30" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA30" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AB29" s="1" t="s">
+      <c r="AB30" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AC29" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AF29" s="1" t="n">
+      <c r="AC30" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27" t="n">
         <v>20270</v>
       </c>
-      <c r="AH29" s="1" t="s">
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="AI29" s="8" t="s">
+      <c r="AI30" s="32" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>1024</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" s="1" t="n">
-        <v>319126</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="T30" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="X30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AF30" s="1" t="n">
-        <v>20270</v>
-      </c>
-      <c r="AH30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI30" s="8" t="s">
-        <v>199</v>
-      </c>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="27"/>
+      <c r="AQ30" s="27"/>
+      <c r="AR30" s="27"/>
+      <c r="AS30" s="27"/>
+      <c r="AT30" s="24"/>
+      <c r="AU30" s="27"/>
+      <c r="AV30" s="24"/>
+      <c r="AW30" s="27"/>
+      <c r="AX30" s="27"/>
+      <c r="AY30" s="27"/>
+      <c r="AZ30" s="27"/>
+      <c r="BA30" s="27"/>
+      <c r="BB30" s="27"/>
+      <c r="BC30" s="27"/>
+      <c r="BD30" s="27"/>
+      <c r="BE30" s="27"/>
+      <c r="BF30" s="27"/>
+      <c r="BG30" s="27"/>
+      <c r="BH30" s="27"/>
+      <c r="BI30" s="27"/>
+      <c r="BJ30" s="27"/>
+      <c r="BK30" s="27"/>
+      <c r="BL30" s="27"/>
+      <c r="BM30" s="27"/>
+      <c r="BN30" s="27"/>
+      <c r="BO30" s="27"/>
+      <c r="BP30" s="27"/>
+      <c r="BQ30" s="27"/>
+      <c r="BR30" s="27"/>
+      <c r="BS30" s="27"/>
+      <c r="BT30" s="27"/>
+      <c r="BU30" s="27"/>
+      <c r="BV30" s="27"/>
+      <c r="BW30" s="27"/>
+      <c r="BX30" s="27"/>
+      <c r="BY30" s="27"/>
+      <c r="BZ30" s="27"/>
+      <c r="CA30" s="27"/>
+      <c r="CB30" s="27"/>
+      <c r="CC30" s="27"/>
+      <c r="CD30" s="27"/>
+      <c r="CE30" s="27"/>
+      <c r="CF30" s="27"/>
+      <c r="CG30" s="27"/>
+      <c r="CH30" s="27"/>
+      <c r="CI30" s="27"/>
+      <c r="CJ30" s="27"/>
+      <c r="CK30" s="27"/>
+      <c r="CL30" s="27"/>
+      <c r="CM30" s="27"/>
+      <c r="CN30" s="27"/>
+      <c r="CO30" s="27"/>
+      <c r="CP30" s="27"/>
+      <c r="CQ30" s="27"/>
+      <c r="CR30" s="27"/>
+      <c r="CS30" s="27"/>
+      <c r="CT30" s="27"/>
+      <c r="CU30" s="27"/>
+      <c r="CV30" s="27"/>
+      <c r="CW30" s="27"/>
+      <c r="CX30" s="27"/>
+      <c r="CY30" s="27"/>
+      <c r="CZ30" s="27"/>
+      <c r="DA30" s="27"/>
+      <c r="DB30" s="27"/>
+      <c r="DC30" s="27"/>
+      <c r="DD30" s="27"/>
+      <c r="DE30" s="27"/>
+      <c r="DF30" s="27"/>
+      <c r="DG30" s="27"/>
+      <c r="DH30" s="27"/>
+      <c r="DI30" s="27"/>
+      <c r="DJ30" s="27"/>
+      <c r="DK30" s="27"/>
+      <c r="DL30" s="27"/>
+      <c r="DM30" s="27"/>
+      <c r="DN30" s="27"/>
+      <c r="DO30" s="27"/>
+      <c r="DP30" s="27"/>
+      <c r="DQ30" s="27"/>
+      <c r="DR30" s="27"/>
+      <c r="DS30" s="27"/>
+      <c r="DT30" s="27"/>
+      <c r="DU30" s="27"/>
+      <c r="DV30" s="27"/>
+      <c r="DW30" s="27"/>
+      <c r="DX30" s="27"/>
+      <c r="DY30" s="27"/>
+      <c r="DZ30" s="27"/>
+      <c r="EA30" s="27"/>
+      <c r="EB30" s="27"/>
+      <c r="EC30" s="27"/>
+      <c r="ED30" s="27"/>
+      <c r="EE30" s="27"/>
+      <c r="EF30" s="27"/>
+      <c r="EG30" s="27"/>
+      <c r="EH30" s="27"/>
+      <c r="EI30" s="27"/>
+      <c r="EJ30" s="27"/>
+      <c r="EK30" s="27"/>
+      <c r="EL30" s="27"/>
+      <c r="EM30" s="27"/>
+      <c r="EN30" s="27"/>
+      <c r="EO30" s="27"/>
+      <c r="EP30" s="27"/>
+      <c r="EQ30" s="27"/>
+      <c r="ER30" s="27"/>
+      <c r="ES30" s="27"/>
+      <c r="ET30" s="27"/>
+      <c r="EU30" s="27"/>
+      <c r="EV30" s="27"/>
+      <c r="EW30" s="27"/>
+      <c r="EX30" s="27"/>
+      <c r="EY30" s="27"/>
+      <c r="EZ30" s="27"/>
+      <c r="FA30" s="27"/>
+      <c r="FB30" s="27"/>
+      <c r="FC30" s="27"/>
+      <c r="FD30" s="27"/>
+      <c r="FE30" s="27"/>
+      <c r="FF30" s="27"/>
+      <c r="FG30" s="27"/>
+      <c r="FH30" s="27"/>
+      <c r="FI30" s="27"/>
+      <c r="FJ30" s="27"/>
+      <c r="FK30" s="27"/>
+      <c r="FL30" s="27"/>
+      <c r="FM30" s="27"/>
+      <c r="FN30" s="27"/>
+      <c r="FO30" s="27"/>
+      <c r="FP30" s="27"/>
+      <c r="FQ30" s="27"/>
+      <c r="FR30" s="27"/>
+      <c r="FS30" s="27"/>
+      <c r="FT30" s="27"/>
+      <c r="FU30" s="27"/>
+      <c r="FV30" s="27"/>
+      <c r="FW30" s="27"/>
+      <c r="FX30" s="27"/>
+      <c r="FY30" s="27"/>
+      <c r="FZ30" s="27"/>
+      <c r="GA30" s="27"/>
+      <c r="GB30" s="27"/>
+      <c r="GC30" s="27"/>
+      <c r="GD30" s="27"/>
+      <c r="GE30" s="27"/>
+      <c r="GF30" s="27"/>
+      <c r="GG30" s="27"/>
+      <c r="GH30" s="27"/>
+      <c r="GI30" s="27"/>
+      <c r="GJ30" s="27"/>
+      <c r="GK30" s="27"/>
+      <c r="GL30" s="27"/>
+      <c r="GM30" s="27"/>
+      <c r="GN30" s="27"/>
+      <c r="GO30" s="27"/>
+      <c r="GP30" s="27"/>
+      <c r="GQ30" s="27"/>
+      <c r="GR30" s="27"/>
+      <c r="GS30" s="27"/>
+      <c r="GT30" s="27"/>
+      <c r="GU30" s="27"/>
+      <c r="GV30" s="27"/>
+      <c r="GW30" s="27"/>
+      <c r="GX30" s="27"/>
+      <c r="GY30" s="27"/>
+      <c r="GZ30" s="27"/>
+      <c r="HA30" s="27"/>
+      <c r="HB30" s="27"/>
+      <c r="HC30" s="27"/>
+      <c r="HD30" s="27"/>
+      <c r="HE30" s="27"/>
+      <c r="HF30" s="27"/>
+      <c r="HG30" s="27"/>
+      <c r="HH30" s="27"/>
+      <c r="HI30" s="27"/>
+      <c r="HJ30" s="27"/>
+      <c r="HK30" s="27"/>
+      <c r="HL30" s="27"/>
+      <c r="HM30" s="27"/>
+      <c r="HN30" s="27"/>
+      <c r="HO30" s="27"/>
+      <c r="HP30" s="27"/>
+      <c r="HQ30" s="27"/>
+      <c r="HR30" s="27"/>
+      <c r="HS30" s="27"/>
+      <c r="HT30" s="27"/>
+      <c r="HU30" s="27"/>
+      <c r="HV30" s="27"/>
+      <c r="HW30" s="27"/>
+      <c r="HX30" s="27"/>
+      <c r="HY30" s="27"/>
+      <c r="HZ30" s="27"/>
+      <c r="IA30" s="27"/>
+      <c r="IB30" s="27"/>
+      <c r="IC30" s="27"/>
+      <c r="ID30" s="27"/>
+      <c r="IE30" s="27"/>
+      <c r="IF30" s="27"/>
+      <c r="IG30" s="27"/>
+      <c r="IH30" s="27"/>
+      <c r="II30" s="27"/>
+      <c r="IJ30" s="27"/>
+      <c r="IK30" s="27"/>
+      <c r="IL30" s="27"/>
+      <c r="IM30" s="27"/>
+      <c r="IN30" s="27"/>
+      <c r="IO30" s="27"/>
+      <c r="IP30" s="27"/>
+      <c r="IQ30" s="27"/>
+      <c r="IR30" s="27"/>
+      <c r="IS30" s="27"/>
+      <c r="IT30" s="27"/>
+      <c r="IU30" s="27"/>
+      <c r="IV30" s="27"/>
+      <c r="IW30" s="27"/>
+      <c r="IX30" s="27"/>
+      <c r="IY30" s="27"/>
+      <c r="IZ30" s="27"/>
+      <c r="JA30" s="27"/>
+      <c r="JB30" s="27"/>
+      <c r="JC30" s="27"/>
+      <c r="JD30" s="27"/>
+      <c r="JE30" s="27"/>
+      <c r="JF30" s="27"/>
+      <c r="JG30" s="27"/>
+      <c r="JH30" s="27"/>
+      <c r="JI30" s="27"/>
+      <c r="JJ30" s="27"/>
+      <c r="JK30" s="27"/>
+      <c r="JL30" s="27"/>
+      <c r="JM30" s="27"/>
+      <c r="JN30" s="27"/>
+      <c r="JO30" s="27"/>
+      <c r="JP30" s="27"/>
+      <c r="JQ30" s="27"/>
+      <c r="JR30" s="27"/>
+      <c r="JS30" s="27"/>
+      <c r="JT30" s="27"/>
+      <c r="JU30" s="27"/>
+      <c r="JV30" s="27"/>
+      <c r="JW30" s="27"/>
+      <c r="JX30" s="27"/>
+      <c r="JY30" s="27"/>
+      <c r="JZ30" s="27"/>
+      <c r="KA30" s="27"/>
+      <c r="KB30" s="27"/>
+      <c r="KC30" s="27"/>
+      <c r="KD30" s="27"/>
+      <c r="KE30" s="27"/>
+      <c r="KF30" s="27"/>
+      <c r="KG30" s="27"/>
+      <c r="KH30" s="27"/>
+      <c r="KI30" s="27"/>
+      <c r="KJ30" s="27"/>
+      <c r="KK30" s="27"/>
+      <c r="KL30" s="27"/>
+      <c r="KM30" s="27"/>
+      <c r="KN30" s="27"/>
+      <c r="KO30" s="27"/>
+      <c r="KP30" s="27"/>
+      <c r="KQ30" s="27"/>
+      <c r="KR30" s="27"/>
+      <c r="KS30" s="27"/>
+      <c r="KT30" s="27"/>
+      <c r="KU30" s="27"/>
+      <c r="KV30" s="27"/>
+      <c r="KW30" s="27"/>
+      <c r="KX30" s="27"/>
+      <c r="KY30" s="27"/>
+      <c r="KZ30" s="27"/>
+      <c r="LA30" s="27"/>
+      <c r="LB30" s="27"/>
+      <c r="LC30" s="27"/>
+      <c r="LD30" s="27"/>
+      <c r="LE30" s="27"/>
+      <c r="LF30" s="27"/>
+      <c r="LG30" s="27"/>
+      <c r="LH30" s="27"/>
+      <c r="LI30" s="27"/>
+      <c r="LJ30" s="27"/>
+      <c r="LK30" s="27"/>
+      <c r="LL30" s="27"/>
+      <c r="LM30" s="27"/>
+      <c r="LN30" s="27"/>
+      <c r="LO30" s="27"/>
+      <c r="LP30" s="27"/>
+      <c r="LQ30" s="27"/>
+      <c r="LR30" s="27"/>
+      <c r="LS30" s="27"/>
+      <c r="LT30" s="27"/>
+      <c r="LU30" s="27"/>
+      <c r="LV30" s="27"/>
+      <c r="LW30" s="27"/>
+      <c r="LX30" s="27"/>
+      <c r="LY30" s="27"/>
+      <c r="LZ30" s="27"/>
+      <c r="MA30" s="27"/>
+      <c r="MB30" s="27"/>
+      <c r="MC30" s="27"/>
+      <c r="MD30" s="27"/>
+      <c r="ME30" s="27"/>
+      <c r="MF30" s="27"/>
+      <c r="MG30" s="27"/>
+      <c r="MH30" s="27"/>
+      <c r="MI30" s="27"/>
+      <c r="MJ30" s="27"/>
+      <c r="MK30" s="27"/>
+      <c r="ML30" s="27"/>
+      <c r="MM30" s="27"/>
+      <c r="MN30" s="27"/>
+      <c r="MO30" s="27"/>
+      <c r="MP30" s="27"/>
+      <c r="MQ30" s="27"/>
+      <c r="MR30" s="27"/>
+      <c r="MS30" s="27"/>
+      <c r="MT30" s="27"/>
+      <c r="MU30" s="27"/>
+      <c r="MV30" s="27"/>
+      <c r="MW30" s="27"/>
+      <c r="MX30" s="27"/>
+      <c r="MY30" s="27"/>
+      <c r="MZ30" s="27"/>
+      <c r="NA30" s="27"/>
+      <c r="NB30" s="27"/>
+      <c r="NC30" s="27"/>
+      <c r="ND30" s="27"/>
+      <c r="NE30" s="27"/>
+      <c r="NF30" s="27"/>
+      <c r="NG30" s="27"/>
+      <c r="NH30" s="27"/>
+      <c r="NI30" s="27"/>
+      <c r="NJ30" s="27"/>
+      <c r="NK30" s="27"/>
+      <c r="NL30" s="27"/>
+      <c r="NM30" s="27"/>
+      <c r="NN30" s="27"/>
+      <c r="NO30" s="27"/>
+      <c r="NP30" s="27"/>
+      <c r="NQ30" s="27"/>
+      <c r="NR30" s="27"/>
+      <c r="NS30" s="27"/>
+      <c r="NT30" s="27"/>
+      <c r="NU30" s="27"/>
+      <c r="NV30" s="27"/>
+      <c r="NW30" s="27"/>
+      <c r="NX30" s="27"/>
+      <c r="NY30" s="27"/>
+      <c r="NZ30" s="27"/>
+      <c r="OA30" s="27"/>
+      <c r="OB30" s="27"/>
+      <c r="OC30" s="27"/>
+      <c r="OD30" s="27"/>
+      <c r="OE30" s="27"/>
+      <c r="OF30" s="27"/>
+      <c r="OG30" s="27"/>
+      <c r="OH30" s="27"/>
+      <c r="OI30" s="27"/>
+      <c r="OJ30" s="27"/>
+      <c r="OK30" s="27"/>
+      <c r="OL30" s="27"/>
+      <c r="OM30" s="27"/>
+      <c r="ON30" s="27"/>
+      <c r="OO30" s="27"/>
+      <c r="OP30" s="27"/>
+      <c r="OQ30" s="27"/>
+      <c r="OR30" s="27"/>
+      <c r="OS30" s="27"/>
+      <c r="OT30" s="27"/>
+      <c r="OU30" s="27"/>
+      <c r="OV30" s="27"/>
+      <c r="OW30" s="27"/>
+      <c r="OX30" s="27"/>
+      <c r="OY30" s="27"/>
+      <c r="OZ30" s="27"/>
+      <c r="PA30" s="27"/>
+      <c r="PB30" s="27"/>
+      <c r="PC30" s="27"/>
+      <c r="PD30" s="27"/>
+      <c r="PE30" s="27"/>
+      <c r="PF30" s="27"/>
+      <c r="PG30" s="27"/>
+      <c r="PH30" s="27"/>
+      <c r="PI30" s="27"/>
+      <c r="PJ30" s="27"/>
+      <c r="PK30" s="27"/>
+      <c r="PL30" s="27"/>
+      <c r="PM30" s="27"/>
+      <c r="PN30" s="27"/>
+      <c r="PO30" s="27"/>
+      <c r="PP30" s="27"/>
+      <c r="PQ30" s="27"/>
+      <c r="PR30" s="27"/>
+      <c r="PS30" s="27"/>
+      <c r="PT30" s="27"/>
+      <c r="PU30" s="27"/>
+      <c r="PV30" s="27"/>
+      <c r="PW30" s="27"/>
+      <c r="PX30" s="27"/>
+      <c r="PY30" s="27"/>
+      <c r="PZ30" s="27"/>
+      <c r="QA30" s="27"/>
+      <c r="QB30" s="27"/>
+      <c r="QC30" s="27"/>
+      <c r="QD30" s="27"/>
+      <c r="QE30" s="27"/>
+      <c r="QF30" s="27"/>
+      <c r="QG30" s="27"/>
+      <c r="QH30" s="27"/>
+      <c r="QI30" s="27"/>
+      <c r="QJ30" s="27"/>
+      <c r="QK30" s="27"/>
+      <c r="QL30" s="27"/>
+      <c r="QM30" s="27"/>
+      <c r="QN30" s="27"/>
+      <c r="QO30" s="27"/>
+      <c r="QP30" s="27"/>
+      <c r="QQ30" s="27"/>
+      <c r="QR30" s="27"/>
+      <c r="QS30" s="27"/>
+      <c r="QT30" s="27"/>
+      <c r="QU30" s="27"/>
+      <c r="QV30" s="27"/>
+      <c r="QW30" s="27"/>
+      <c r="QX30" s="27"/>
+      <c r="QY30" s="27"/>
+      <c r="QZ30" s="27"/>
+      <c r="RA30" s="27"/>
+      <c r="RB30" s="27"/>
+      <c r="RC30" s="27"/>
+      <c r="RD30" s="27"/>
+      <c r="RE30" s="27"/>
+      <c r="RF30" s="27"/>
+      <c r="RG30" s="27"/>
+      <c r="RH30" s="27"/>
+      <c r="RI30" s="27"/>
+      <c r="RJ30" s="27"/>
+      <c r="RK30" s="27"/>
+      <c r="RL30" s="27"/>
+      <c r="RM30" s="27"/>
+      <c r="RN30" s="27"/>
+      <c r="RO30" s="27"/>
+      <c r="RP30" s="27"/>
+      <c r="RQ30" s="27"/>
+      <c r="RR30" s="27"/>
+      <c r="RS30" s="27"/>
+      <c r="RT30" s="27"/>
+      <c r="RU30" s="27"/>
+      <c r="RV30" s="27"/>
+      <c r="RW30" s="27"/>
+      <c r="RX30" s="27"/>
+      <c r="RY30" s="27"/>
+      <c r="RZ30" s="27"/>
+      <c r="SA30" s="27"/>
+      <c r="SB30" s="27"/>
+      <c r="SC30" s="27"/>
+      <c r="SD30" s="27"/>
+      <c r="SE30" s="27"/>
+      <c r="SF30" s="27"/>
+      <c r="SG30" s="27"/>
+      <c r="SH30" s="27"/>
+      <c r="SI30" s="27"/>
+      <c r="SJ30" s="27"/>
+      <c r="SK30" s="27"/>
+      <c r="SL30" s="27"/>
+      <c r="SM30" s="27"/>
+      <c r="SN30" s="27"/>
+      <c r="SO30" s="27"/>
+      <c r="SP30" s="27"/>
+      <c r="SQ30" s="27"/>
+      <c r="SR30" s="27"/>
+      <c r="SS30" s="27"/>
+      <c r="ST30" s="27"/>
+      <c r="SU30" s="27"/>
+      <c r="SV30" s="27"/>
+      <c r="SW30" s="27"/>
+      <c r="SX30" s="27"/>
+      <c r="SY30" s="27"/>
+      <c r="SZ30" s="27"/>
+      <c r="TA30" s="27"/>
+      <c r="TB30" s="27"/>
+      <c r="TC30" s="27"/>
+      <c r="TD30" s="27"/>
+      <c r="TE30" s="27"/>
+      <c r="TF30" s="27"/>
+      <c r="TG30" s="27"/>
+      <c r="TH30" s="27"/>
+      <c r="TI30" s="27"/>
+      <c r="TJ30" s="27"/>
+      <c r="TK30" s="27"/>
+      <c r="TL30" s="27"/>
+      <c r="TM30" s="27"/>
+      <c r="TN30" s="27"/>
+      <c r="TO30" s="27"/>
+      <c r="TP30" s="27"/>
+      <c r="TQ30" s="27"/>
+      <c r="TR30" s="27"/>
+      <c r="TS30" s="27"/>
+      <c r="TT30" s="27"/>
+      <c r="TU30" s="27"/>
+      <c r="TV30" s="27"/>
+      <c r="TW30" s="27"/>
+      <c r="TX30" s="27"/>
+      <c r="TY30" s="27"/>
+      <c r="TZ30" s="27"/>
+      <c r="UA30" s="27"/>
+      <c r="UB30" s="27"/>
+      <c r="UC30" s="27"/>
+      <c r="UD30" s="27"/>
+      <c r="UE30" s="27"/>
+      <c r="UF30" s="27"/>
+      <c r="UG30" s="27"/>
+      <c r="UH30" s="27"/>
+      <c r="UI30" s="27"/>
+      <c r="UJ30" s="27"/>
+      <c r="UK30" s="27"/>
+      <c r="UL30" s="27"/>
+      <c r="UM30" s="27"/>
+      <c r="UN30" s="27"/>
+      <c r="UO30" s="27"/>
+      <c r="UP30" s="27"/>
+      <c r="UQ30" s="27"/>
+      <c r="UR30" s="27"/>
+      <c r="US30" s="27"/>
+      <c r="UT30" s="27"/>
+      <c r="UU30" s="27"/>
+      <c r="UV30" s="27"/>
+      <c r="UW30" s="27"/>
+      <c r="UX30" s="27"/>
+      <c r="UY30" s="27"/>
+      <c r="UZ30" s="27"/>
+      <c r="VA30" s="27"/>
+      <c r="VB30" s="27"/>
+      <c r="VC30" s="27"/>
+      <c r="VD30" s="27"/>
+      <c r="VE30" s="27"/>
+      <c r="VF30" s="27"/>
+      <c r="VG30" s="27"/>
+      <c r="VH30" s="27"/>
+      <c r="VI30" s="27"/>
+      <c r="VJ30" s="27"/>
+      <c r="VK30" s="27"/>
+      <c r="VL30" s="27"/>
+      <c r="VM30" s="27"/>
+      <c r="VN30" s="27"/>
+      <c r="VO30" s="27"/>
+      <c r="VP30" s="27"/>
+      <c r="VQ30" s="27"/>
+      <c r="VR30" s="27"/>
+      <c r="VS30" s="27"/>
+      <c r="VT30" s="27"/>
+      <c r="VU30" s="27"/>
+      <c r="VV30" s="27"/>
+      <c r="VW30" s="27"/>
+      <c r="VX30" s="27"/>
+      <c r="VY30" s="27"/>
+      <c r="VZ30" s="27"/>
+      <c r="WA30" s="27"/>
+      <c r="WB30" s="27"/>
+      <c r="WC30" s="27"/>
+      <c r="WD30" s="27"/>
+      <c r="WE30" s="27"/>
+      <c r="WF30" s="27"/>
+      <c r="WG30" s="27"/>
+      <c r="WH30" s="27"/>
+      <c r="WI30" s="27"/>
+      <c r="WJ30" s="27"/>
+      <c r="WK30" s="27"/>
+      <c r="WL30" s="27"/>
+      <c r="WM30" s="27"/>
+      <c r="WN30" s="27"/>
+      <c r="WO30" s="27"/>
+      <c r="WP30" s="27"/>
+      <c r="WQ30" s="27"/>
+      <c r="WR30" s="27"/>
+      <c r="WS30" s="27"/>
+      <c r="WT30" s="27"/>
+      <c r="WU30" s="27"/>
+      <c r="WV30" s="27"/>
+      <c r="WW30" s="27"/>
+      <c r="WX30" s="27"/>
+      <c r="WY30" s="27"/>
+      <c r="WZ30" s="27"/>
+      <c r="XA30" s="27"/>
+      <c r="XB30" s="27"/>
+      <c r="XC30" s="27"/>
+      <c r="XD30" s="27"/>
+      <c r="XE30" s="27"/>
+      <c r="XF30" s="27"/>
+      <c r="XG30" s="27"/>
+      <c r="XH30" s="27"/>
+      <c r="XI30" s="27"/>
+      <c r="XJ30" s="27"/>
+      <c r="XK30" s="27"/>
+      <c r="XL30" s="27"/>
+      <c r="XM30" s="27"/>
+      <c r="XN30" s="27"/>
+      <c r="XO30" s="27"/>
+      <c r="XP30" s="27"/>
+      <c r="XQ30" s="27"/>
+      <c r="XR30" s="27"/>
+      <c r="XS30" s="27"/>
+      <c r="XT30" s="27"/>
+      <c r="XU30" s="27"/>
+      <c r="XV30" s="27"/>
+      <c r="XW30" s="27"/>
+      <c r="XX30" s="27"/>
+      <c r="XY30" s="27"/>
+      <c r="XZ30" s="27"/>
+      <c r="YA30" s="27"/>
+      <c r="YB30" s="27"/>
+      <c r="YC30" s="27"/>
+      <c r="YD30" s="27"/>
+      <c r="YE30" s="27"/>
+      <c r="YF30" s="27"/>
+      <c r="YG30" s="27"/>
+      <c r="YH30" s="27"/>
+      <c r="YI30" s="27"/>
+      <c r="YJ30" s="27"/>
+      <c r="YK30" s="27"/>
+      <c r="YL30" s="27"/>
+      <c r="YM30" s="27"/>
+      <c r="YN30" s="27"/>
+      <c r="YO30" s="27"/>
+      <c r="YP30" s="27"/>
+      <c r="YQ30" s="27"/>
+      <c r="YR30" s="27"/>
+      <c r="YS30" s="27"/>
+      <c r="YT30" s="27"/>
+      <c r="YU30" s="27"/>
+      <c r="YV30" s="27"/>
+      <c r="YW30" s="27"/>
+      <c r="YX30" s="27"/>
+      <c r="YY30" s="27"/>
+      <c r="YZ30" s="27"/>
+      <c r="ZA30" s="27"/>
+      <c r="ZB30" s="27"/>
+      <c r="ZC30" s="27"/>
+      <c r="ZD30" s="27"/>
+      <c r="ZE30" s="27"/>
+      <c r="ZF30" s="27"/>
+      <c r="ZG30" s="27"/>
+      <c r="ZH30" s="27"/>
+      <c r="ZI30" s="27"/>
+      <c r="ZJ30" s="27"/>
+      <c r="ZK30" s="27"/>
+      <c r="ZL30" s="27"/>
+      <c r="ZM30" s="27"/>
+      <c r="ZN30" s="27"/>
+      <c r="ZO30" s="27"/>
+      <c r="ZP30" s="27"/>
+      <c r="ZQ30" s="27"/>
+      <c r="ZR30" s="27"/>
+      <c r="ZS30" s="27"/>
+      <c r="ZT30" s="27"/>
+      <c r="ZU30" s="27"/>
+      <c r="ZV30" s="27"/>
+      <c r="ZW30" s="27"/>
+      <c r="ZX30" s="27"/>
+      <c r="ZY30" s="27"/>
+      <c r="ZZ30" s="27"/>
+      <c r="AAA30" s="27"/>
+      <c r="AAB30" s="27"/>
+      <c r="AAC30" s="27"/>
+      <c r="AAD30" s="27"/>
+      <c r="AAE30" s="27"/>
+      <c r="AAF30" s="27"/>
+      <c r="AAG30" s="27"/>
+      <c r="AAH30" s="27"/>
+      <c r="AAI30" s="27"/>
+      <c r="AAJ30" s="27"/>
+      <c r="AAK30" s="27"/>
+      <c r="AAL30" s="27"/>
+      <c r="AAM30" s="27"/>
+      <c r="AAN30" s="27"/>
+      <c r="AAO30" s="27"/>
+      <c r="AAP30" s="27"/>
+      <c r="AAQ30" s="27"/>
+      <c r="AAR30" s="27"/>
+      <c r="AAS30" s="27"/>
+      <c r="AAT30" s="27"/>
+      <c r="AAU30" s="27"/>
+      <c r="AAV30" s="27"/>
+      <c r="AAW30" s="27"/>
+      <c r="AAX30" s="27"/>
+      <c r="AAY30" s="27"/>
+      <c r="AAZ30" s="27"/>
+      <c r="ABA30" s="27"/>
+      <c r="ABB30" s="27"/>
+      <c r="ABC30" s="27"/>
+      <c r="ABD30" s="27"/>
+      <c r="ABE30" s="27"/>
+      <c r="ABF30" s="27"/>
+      <c r="ABG30" s="27"/>
+      <c r="ABH30" s="27"/>
+      <c r="ABI30" s="27"/>
+      <c r="ABJ30" s="27"/>
+      <c r="ABK30" s="27"/>
+      <c r="ABL30" s="27"/>
+      <c r="ABM30" s="27"/>
+      <c r="ABN30" s="27"/>
+      <c r="ABO30" s="27"/>
+      <c r="ABP30" s="27"/>
+      <c r="ABQ30" s="27"/>
+      <c r="ABR30" s="27"/>
+      <c r="ABS30" s="27"/>
+      <c r="ABT30" s="27"/>
+      <c r="ABU30" s="27"/>
+      <c r="ABV30" s="27"/>
+      <c r="ABW30" s="27"/>
+      <c r="ABX30" s="27"/>
+      <c r="ABY30" s="27"/>
+      <c r="ABZ30" s="27"/>
+      <c r="ACA30" s="27"/>
+      <c r="ACB30" s="27"/>
+      <c r="ACC30" s="27"/>
+      <c r="ACD30" s="27"/>
+      <c r="ACE30" s="27"/>
+      <c r="ACF30" s="27"/>
+      <c r="ACG30" s="27"/>
+      <c r="ACH30" s="27"/>
+      <c r="ACI30" s="27"/>
+      <c r="ACJ30" s="27"/>
+      <c r="ACK30" s="27"/>
+      <c r="ACL30" s="27"/>
+      <c r="ACM30" s="27"/>
+      <c r="ACN30" s="27"/>
+      <c r="ACO30" s="27"/>
+      <c r="ACP30" s="27"/>
+      <c r="ACQ30" s="27"/>
+      <c r="ACR30" s="27"/>
+      <c r="ACS30" s="27"/>
+      <c r="ACT30" s="27"/>
+      <c r="ACU30" s="27"/>
+      <c r="ACV30" s="27"/>
+      <c r="ACW30" s="27"/>
+      <c r="ACX30" s="27"/>
+      <c r="ACY30" s="27"/>
+      <c r="ACZ30" s="27"/>
+      <c r="ADA30" s="27"/>
+      <c r="ADB30" s="27"/>
+      <c r="ADC30" s="27"/>
+      <c r="ADD30" s="27"/>
+      <c r="ADE30" s="27"/>
+      <c r="ADF30" s="27"/>
+      <c r="ADG30" s="27"/>
+      <c r="ADH30" s="27"/>
+      <c r="ADI30" s="27"/>
+      <c r="ADJ30" s="27"/>
+      <c r="ADK30" s="27"/>
+      <c r="ADL30" s="27"/>
+      <c r="ADM30" s="27"/>
+      <c r="ADN30" s="27"/>
+      <c r="ADO30" s="27"/>
+      <c r="ADP30" s="27"/>
+      <c r="ADQ30" s="27"/>
+      <c r="ADR30" s="27"/>
+      <c r="ADS30" s="27"/>
+      <c r="ADT30" s="27"/>
+      <c r="ADU30" s="27"/>
+      <c r="ADV30" s="27"/>
+      <c r="ADW30" s="27"/>
+      <c r="ADX30" s="27"/>
+      <c r="ADY30" s="27"/>
+      <c r="ADZ30" s="27"/>
+      <c r="AEA30" s="27"/>
+      <c r="AEB30" s="27"/>
+      <c r="AEC30" s="27"/>
+      <c r="AED30" s="27"/>
+      <c r="AEE30" s="27"/>
+      <c r="AEF30" s="27"/>
+      <c r="AEG30" s="27"/>
+      <c r="AEH30" s="27"/>
+      <c r="AEI30" s="27"/>
+      <c r="AEJ30" s="27"/>
+      <c r="AEK30" s="27"/>
+      <c r="AEL30" s="27"/>
+      <c r="AEM30" s="27"/>
+      <c r="AEN30" s="27"/>
+      <c r="AEO30" s="27"/>
+      <c r="AEP30" s="27"/>
+      <c r="AEQ30" s="27"/>
+      <c r="AER30" s="27"/>
+      <c r="AES30" s="27"/>
+      <c r="AET30" s="27"/>
+      <c r="AEU30" s="27"/>
+      <c r="AEV30" s="27"/>
+      <c r="AEW30" s="27"/>
+      <c r="AEX30" s="27"/>
+      <c r="AEY30" s="27"/>
+      <c r="AEZ30" s="27"/>
+      <c r="AFA30" s="27"/>
+      <c r="AFB30" s="27"/>
+      <c r="AFC30" s="27"/>
+      <c r="AFD30" s="27"/>
+      <c r="AFE30" s="27"/>
+      <c r="AFF30" s="27"/>
+      <c r="AFG30" s="27"/>
+      <c r="AFH30" s="27"/>
+      <c r="AFI30" s="27"/>
+      <c r="AFJ30" s="27"/>
+      <c r="AFK30" s="27"/>
+      <c r="AFL30" s="27"/>
+      <c r="AFM30" s="27"/>
+      <c r="AFN30" s="27"/>
+      <c r="AFO30" s="27"/>
+      <c r="AFP30" s="27"/>
+      <c r="AFQ30" s="27"/>
+      <c r="AFR30" s="27"/>
+      <c r="AFS30" s="27"/>
+      <c r="AFT30" s="27"/>
+      <c r="AFU30" s="27"/>
+      <c r="AFV30" s="27"/>
+      <c r="AFW30" s="27"/>
+      <c r="AFX30" s="27"/>
+      <c r="AFY30" s="27"/>
+      <c r="AFZ30" s="27"/>
+      <c r="AGA30" s="27"/>
+      <c r="AGB30" s="27"/>
+      <c r="AGC30" s="27"/>
+      <c r="AGD30" s="27"/>
+      <c r="AGE30" s="27"/>
+      <c r="AGF30" s="27"/>
+      <c r="AGG30" s="27"/>
+      <c r="AGH30" s="27"/>
+      <c r="AGI30" s="27"/>
+      <c r="AGJ30" s="27"/>
+      <c r="AGK30" s="27"/>
+      <c r="AGL30" s="27"/>
+      <c r="AGM30" s="27"/>
+      <c r="AGN30" s="27"/>
+      <c r="AGO30" s="27"/>
+      <c r="AGP30" s="27"/>
+      <c r="AGQ30" s="27"/>
+      <c r="AGR30" s="27"/>
+      <c r="AGS30" s="27"/>
+      <c r="AGT30" s="27"/>
+      <c r="AGU30" s="27"/>
+      <c r="AGV30" s="27"/>
+      <c r="AGW30" s="27"/>
+      <c r="AGX30" s="27"/>
+      <c r="AGY30" s="27"/>
+      <c r="AGZ30" s="27"/>
+      <c r="AHA30" s="27"/>
+      <c r="AHB30" s="27"/>
+      <c r="AHC30" s="27"/>
+      <c r="AHD30" s="27"/>
+      <c r="AHE30" s="27"/>
+      <c r="AHF30" s="27"/>
+      <c r="AHG30" s="27"/>
+      <c r="AHH30" s="27"/>
+      <c r="AHI30" s="27"/>
+      <c r="AHJ30" s="27"/>
+      <c r="AHK30" s="27"/>
+      <c r="AHL30" s="27"/>
+      <c r="AHM30" s="27"/>
+      <c r="AHN30" s="27"/>
+      <c r="AHO30" s="27"/>
+      <c r="AHP30" s="27"/>
+      <c r="AHQ30" s="27"/>
+      <c r="AHR30" s="27"/>
+      <c r="AHS30" s="27"/>
+      <c r="AHT30" s="27"/>
+      <c r="AHU30" s="27"/>
+      <c r="AHV30" s="27"/>
+      <c r="AHW30" s="27"/>
+      <c r="AHX30" s="27"/>
+      <c r="AHY30" s="27"/>
+      <c r="AHZ30" s="27"/>
+      <c r="AIA30" s="27"/>
+      <c r="AIB30" s="27"/>
+      <c r="AIC30" s="27"/>
+      <c r="AID30" s="27"/>
+      <c r="AIE30" s="27"/>
+      <c r="AIF30" s="27"/>
+      <c r="AIG30" s="27"/>
+      <c r="AIH30" s="27"/>
+      <c r="AII30" s="27"/>
+      <c r="AIJ30" s="27"/>
+      <c r="AIK30" s="27"/>
+      <c r="AIL30" s="27"/>
+      <c r="AIM30" s="27"/>
+      <c r="AIN30" s="27"/>
+      <c r="AIO30" s="27"/>
+      <c r="AIP30" s="27"/>
+      <c r="AIQ30" s="27"/>
+      <c r="AIR30" s="27"/>
+      <c r="AIS30" s="27"/>
+      <c r="AIT30" s="27"/>
+      <c r="AIU30" s="27"/>
+      <c r="AIV30" s="27"/>
+      <c r="AIW30" s="27"/>
+      <c r="AIX30" s="27"/>
+      <c r="AIY30" s="27"/>
+      <c r="AIZ30" s="27"/>
+      <c r="AJA30" s="27"/>
+      <c r="AJB30" s="27"/>
+      <c r="AJC30" s="27"/>
+      <c r="AJD30" s="27"/>
+      <c r="AJE30" s="27"/>
+      <c r="AJF30" s="27"/>
+      <c r="AJG30" s="27"/>
+      <c r="AJH30" s="27"/>
+      <c r="AJI30" s="27"/>
+      <c r="AJJ30" s="27"/>
+      <c r="AJK30" s="27"/>
+      <c r="AJL30" s="27"/>
+      <c r="AJM30" s="27"/>
+      <c r="AJN30" s="27"/>
+      <c r="AJO30" s="27"/>
+      <c r="AJP30" s="27"/>
+      <c r="AJQ30" s="27"/>
+      <c r="AJR30" s="27"/>
+      <c r="AJS30" s="27"/>
+      <c r="AJT30" s="27"/>
+      <c r="AJU30" s="27"/>
+      <c r="AJV30" s="27"/>
+      <c r="AJW30" s="27"/>
+      <c r="AJX30" s="27"/>
+      <c r="AJY30" s="27"/>
+      <c r="AJZ30" s="27"/>
+      <c r="AKA30" s="27"/>
+      <c r="AKB30" s="27"/>
+      <c r="AKC30" s="27"/>
+      <c r="AKD30" s="27"/>
+      <c r="AKE30" s="27"/>
+      <c r="AKF30" s="27"/>
+      <c r="AKG30" s="27"/>
+      <c r="AKH30" s="27"/>
+      <c r="AKI30" s="27"/>
+      <c r="AKJ30" s="27"/>
+      <c r="AKK30" s="27"/>
+      <c r="AKL30" s="27"/>
+      <c r="AKM30" s="27"/>
+      <c r="AKN30" s="27"/>
+      <c r="AKO30" s="27"/>
+      <c r="AKP30" s="27"/>
+      <c r="AKQ30" s="27"/>
+      <c r="AKR30" s="27"/>
+      <c r="AKS30" s="27"/>
+      <c r="AKT30" s="27"/>
+      <c r="AKU30" s="27"/>
+      <c r="AKV30" s="27"/>
+      <c r="AKW30" s="27"/>
+      <c r="AKX30" s="27"/>
+      <c r="AKY30" s="27"/>
+      <c r="AKZ30" s="27"/>
+      <c r="ALA30" s="27"/>
+      <c r="ALB30" s="27"/>
+      <c r="ALC30" s="27"/>
+      <c r="ALD30" s="27"/>
+      <c r="ALE30" s="27"/>
+      <c r="ALF30" s="27"/>
+      <c r="ALG30" s="27"/>
+      <c r="ALH30" s="27"/>
+      <c r="ALI30" s="27"/>
+      <c r="ALJ30" s="27"/>
+      <c r="ALK30" s="27"/>
+      <c r="ALL30" s="27"/>
+      <c r="ALM30" s="27"/>
+      <c r="ALN30" s="27"/>
+      <c r="ALO30" s="27"/>
+      <c r="ALP30" s="27"/>
+      <c r="ALQ30" s="27"/>
+      <c r="ALR30" s="27"/>
+      <c r="ALS30" s="27"/>
+      <c r="ALT30" s="27"/>
+      <c r="ALU30" s="27"/>
+      <c r="ALV30" s="27"/>
+      <c r="ALW30" s="27"/>
+      <c r="ALX30" s="27"/>
+      <c r="ALY30" s="27"/>
+      <c r="ALZ30" s="27"/>
+      <c r="AMA30" s="27"/>
+      <c r="AMB30" s="27"/>
+      <c r="AMC30" s="27"/>
+      <c r="AMD30" s="27"/>
+      <c r="AME30" s="27"/>
+      <c r="AMF30" s="27"/>
+      <c r="AMG30" s="27"/>
+      <c r="AMH30" s="27"/>
+      <c r="AMI30" s="27"/>
+      <c r="AMJ30" s="27"/>
+      <c r="AMK30" s="27"/>
+      <c r="AML30" s="27"/>
+      <c r="AMM30" s="27"/>
+      <c r="AMN30" s="27"/>
+      <c r="AMO30" s="27"/>
+      <c r="AMP30" s="27"/>
+      <c r="AMQ30" s="27"/>
+      <c r="AMR30" s="27"/>
+      <c r="AMS30" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>1025</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>3</v>
@@ -16017,7 +19048,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>9</v>
@@ -16041,16 +19072,16 @@
         <v>84</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T31" s="1" t="n">
         <v>16</v>
@@ -16062,7 +19093,7 @@
         <v>1</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>135</v>
@@ -16074,7 +19105,7 @@
         <v>154</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AD31" s="1" t="n">
         <v>281788</v>
@@ -16097,7 +19128,7 @@
         <v>1026</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>3</v>
@@ -16106,7 +19137,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>7</v>
@@ -16130,16 +19161,16 @@
         <v>84</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T32" s="1" t="n">
         <v>16</v>
@@ -16163,7 +19194,7 @@
         <v>265</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AD32" s="1" t="n">
         <v>285400</v>
@@ -16186,7 +19217,7 @@
         <v>1027</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>3</v>
@@ -16195,7 +19226,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>2</v>
@@ -16219,16 +19250,16 @@
         <v>84</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="T33" s="1" t="n">
         <v>16</v>
@@ -16240,7 +19271,7 @@
         <v>1.2</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>177</v>
@@ -16252,7 +19283,7 @@
         <v>154</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AD33" s="1" t="n">
         <v>281710</v>
@@ -16275,7 +19306,7 @@
         <v>1028</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>3</v>
@@ -16284,7 +19315,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>4</v>
@@ -16308,16 +19339,16 @@
         <v>84</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="T34" s="1" t="n">
         <v>16</v>
@@ -16329,10 +19360,10 @@
         <v>0.5</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AA34" s="1" t="s">
         <v>91</v>
@@ -16341,7 +19372,7 @@
         <v>265</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AD34" s="1" t="n">
         <v>299561</v>
@@ -16360,11 +19391,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="42" t="n">
+      <c r="A35" s="44" t="n">
         <v>1029</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>3</v>
@@ -16372,8 +19403,8 @@
       <c r="D35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E35" s="42" t="s">
-        <v>328</v>
+      <c r="E35" s="44" t="s">
+        <v>329</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>550</v>
@@ -16394,25 +19425,25 @@
         <v>84</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="R35" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="R35" s="44" t="s">
         <v>221</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T35" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V35" s="42" t="s">
-        <v>332</v>
+      <c r="V35" s="44" t="s">
+        <v>333</v>
       </c>
       <c r="W35" s="1" t="n">
         <v>130642</v>
@@ -16433,7 +19464,7 @@
         <v>154</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AD35" s="1" t="n">
         <v>285356</v>
@@ -16441,8 +19472,8 @@
       <c r="AE35" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF35" s="42" t="s">
-        <v>334</v>
+      <c r="AF35" s="44" t="s">
+        <v>335</v>
       </c>
       <c r="AG35" s="1" t="n">
         <v>2</v>
@@ -16452,11 +19483,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="42" t="n">
+      <c r="A36" s="44" t="n">
         <v>1030</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>3</v>
@@ -16464,8 +19495,8 @@
       <c r="D36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E36" s="42" t="s">
-        <v>336</v>
+      <c r="E36" s="44" t="s">
+        <v>337</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>2</v>
@@ -16489,25 +19520,25 @@
         <v>84</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="R36" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="R36" s="44" t="s">
         <v>221</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T36" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="V36" s="42" t="s">
-        <v>340</v>
+      <c r="V36" s="44" t="s">
+        <v>341</v>
       </c>
       <c r="W36" s="1" t="n">
         <v>254276</v>
@@ -16528,7 +19559,7 @@
         <v>154</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AD36" s="1" t="n">
         <v>20301</v>
@@ -16536,8 +19567,8 @@
       <c r="AE36" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF36" s="42" t="s">
-        <v>342</v>
+      <c r="AF36" s="44" t="s">
+        <v>343</v>
       </c>
       <c r="AG36" s="1" t="n">
         <v>3</v>
@@ -16551,7 +19582,7 @@
         <v>1031</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>4</v>
@@ -16560,7 +19591,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>8</v>
@@ -16584,16 +19615,16 @@
         <v>84</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="T37" s="1" t="n">
         <v>16</v>
@@ -16605,7 +19636,7 @@
         <v>1</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>90</v>
@@ -16617,7 +19648,7 @@
         <v>223</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AD37" s="1" t="n">
         <v>281710</v>
@@ -16640,7 +19671,7 @@
         <v>1032</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>4</v>
@@ -16649,7 +19680,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>4</v>
@@ -16673,16 +19704,16 @@
         <v>84</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="T38" s="1" t="n">
         <v>16</v>
@@ -16694,7 +19725,7 @@
         <v>0.8</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>90</v>
@@ -16706,7 +19737,7 @@
         <v>265</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AD38" s="1" t="n">
         <v>281871</v>
@@ -16729,7 +19760,7 @@
         <v>1033</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>4</v>
@@ -16738,7 +19769,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>10</v>
@@ -16762,16 +19793,16 @@
         <v>84</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T39" s="1" t="n">
         <v>16</v>
@@ -16783,7 +19814,7 @@
         <v>1</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>90</v>
@@ -16795,7 +19826,7 @@
         <v>154</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD39" s="1" t="n">
         <v>300932</v>
@@ -16818,7 +19849,7 @@
         <v>1034</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>4</v>
@@ -16827,7 +19858,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1500</v>
@@ -16848,16 +19879,16 @@
         <v>84</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T40" s="1" t="n">
         <v>16</v>
@@ -16869,7 +19900,7 @@
         <v>1</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>90</v>
@@ -16881,7 +19912,7 @@
         <v>154</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AD40" s="1" t="n">
         <v>117391</v>
@@ -16904,7 +19935,7 @@
         <v>1035</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>4</v>
@@ -16913,7 +19944,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>6</v>
@@ -16937,16 +19968,16 @@
         <v>84</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="T41" s="1" t="n">
         <v>16</v>
@@ -16970,7 +20001,7 @@
         <v>265</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AD41" s="1" t="n">
         <v>285445</v>
@@ -16978,7 +20009,7 @@
       <c r="AE41" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF41" s="43" t="n">
+      <c r="AF41" s="45" t="n">
         <v>269223</v>
       </c>
       <c r="AG41" s="1" t="n">
@@ -16993,7 +20024,7 @@
         <v>1036</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>4</v>
@@ -17002,7 +20033,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>150</v>
@@ -17029,7 +20060,7 @@
         <v>120</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="T42" s="1" t="n">
         <v>16</v>
@@ -17050,7 +20081,7 @@
         <v>119</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF42" s="1" t="n">
         <v>20270</v>
@@ -17067,7 +20098,7 @@
         <v>1037</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>5</v>
@@ -17076,7 +20107,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>150</v>
@@ -17097,16 +20128,16 @@
         <v>84</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T43" s="1" t="n">
         <v>16</v>
@@ -17118,7 +20149,7 @@
         <v>1</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z43" s="1" t="s">
         <v>90</v>
@@ -17130,7 +20161,7 @@
         <v>223</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AD43" s="1" t="n">
         <v>279765</v>
@@ -17153,7 +20184,7 @@
         <v>1038</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>5</v>
@@ -17162,7 +20193,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>250</v>
@@ -17183,16 +20214,16 @@
         <v>84</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="T44" s="1" t="n">
         <v>16</v>
@@ -17204,7 +20235,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z44" s="1" t="s">
         <v>90</v>
@@ -17216,7 +20247,7 @@
         <v>223</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AD44" s="1" t="n">
         <v>85944</v>
@@ -17224,7 +20255,7 @@
       <c r="AE44" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF44" s="43" t="n">
+      <c r="AF44" s="45" t="n">
         <v>29747</v>
       </c>
       <c r="AG44" s="1" t="n">
@@ -17239,7 +20270,7 @@
         <v>1039</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>5</v>
@@ -17248,7 +20279,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>3</v>
@@ -17272,16 +20303,16 @@
         <v>84</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="T45" s="1" t="n">
         <v>16</v>
@@ -17293,7 +20324,7 @@
         <v>1</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z45" s="1" t="s">
         <v>135</v>
@@ -17305,7 +20336,7 @@
         <v>154</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AD45" s="1" t="n">
         <v>326802</v>
@@ -17328,7 +20359,7 @@
         <v>1040</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>5</v>
@@ -17337,7 +20368,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>6</v>
@@ -17361,16 +20392,16 @@
         <v>84</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="T46" s="1" t="n">
         <v>16</v>
@@ -17382,7 +20413,7 @@
         <v>1</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>223</v>
@@ -17394,7 +20425,7 @@
         <v>90</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AD46" s="1" t="n">
         <v>281871</v>
@@ -17417,7 +20448,7 @@
         <v>1041</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>5</v>
@@ -17426,7 +20457,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>100</v>
@@ -17447,16 +20478,16 @@
         <v>184</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="T47" s="1" t="n">
         <v>16</v>
@@ -17468,7 +20499,7 @@
         <v>0.6</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z47" s="1" t="s">
         <v>90</v>
@@ -17480,7 +20511,7 @@
         <v>90</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AD47" s="1" t="n">
         <v>285673</v>
@@ -17503,7 +20534,7 @@
         <v>1042</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5</v>
@@ -17512,7 +20543,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G48" s="10" t="n">
         <v>100</v>
@@ -17533,13 +20564,13 @@
         <v>184</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
@@ -17554,7 +20585,7 @@
         <v>1</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z48" s="1" t="s">
         <v>90</v>
@@ -17566,7 +20597,7 @@
         <v>90</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AD48" s="1" t="n">
         <v>144183</v>
@@ -17594,7 +20625,7 @@
         <v>1043</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>6</v>
@@ -17603,7 +20634,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>5</v>
@@ -17627,16 +20658,16 @@
         <v>84</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="T49" s="1" t="n">
         <v>16</v>
@@ -17660,7 +20691,7 @@
         <v>154</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AD49" s="1" t="n">
         <v>303259</v>
@@ -17683,7 +20714,7 @@
         <v>1044</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>6</v>
@@ -17692,7 +20723,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>350</v>
@@ -17713,16 +20744,16 @@
         <v>84</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="T50" s="1" t="n">
         <v>16</v>
@@ -17746,7 +20777,7 @@
         <v>90</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AD50" s="1" t="n">
         <v>305224</v>
@@ -17769,7 +20800,7 @@
         <v>1045</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>6</v>
@@ -17778,7 +20809,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>3</v>
@@ -17802,16 +20833,16 @@
         <v>84</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T51" s="1" t="n">
         <v>16</v>
@@ -17823,7 +20854,7 @@
         <v>1</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z51" s="1" t="s">
         <v>90</v>
@@ -17835,7 +20866,7 @@
         <v>223</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AD51" s="1" t="n">
         <v>269209</v>
@@ -17858,7 +20889,7 @@
         <v>1046</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>6</v>
@@ -17867,7 +20898,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>6</v>
@@ -17891,16 +20922,16 @@
         <v>84</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="T52" s="1" t="n">
         <v>16</v>
@@ -17912,7 +20943,7 @@
         <v>1</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z52" s="1" t="s">
         <v>223</v>
@@ -17924,7 +20955,7 @@
         <v>154</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AD52" s="1" t="n">
         <v>144183</v>
@@ -17947,7 +20978,7 @@
         <v>1047</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>6</v>
@@ -17956,7 +20987,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>700</v>
@@ -17977,16 +21008,16 @@
         <v>84</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="T53" s="1" t="n">
         <v>16</v>
@@ -17998,7 +21029,7 @@
         <v>1</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z53" s="1" t="s">
         <v>154</v>
@@ -18010,7 +21041,7 @@
         <v>154</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AD53" s="1" t="n">
         <v>281795</v>
@@ -18036,7 +21067,7 @@
         <v>1048</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>6</v>
@@ -18045,7 +21076,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G54" s="10" t="n">
         <v>100</v>
@@ -18072,7 +21103,7 @@
         <v>287</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="T54" s="1" t="n">
         <v>16</v>

--- a/nevergiveup/Excel/Tower_塔表.xlsx
+++ b/nevergiveup/Excel/Tower_塔表.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B60195D-7B46-47BE-AC3D-B9F15F818572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,264 +27,264 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="453">
   <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float[][]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elementTy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nameCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">towerStrategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shopPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackTags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imgGuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infoTestsCn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infoTexts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sellBack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guid2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guid3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">characterDelayTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weaponGuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weaponSlot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weaponLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effectDelayTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackEffect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hitEffect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackDamage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idleAnim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effectColor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackAnim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AtkAnimDur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackAnimSpeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackBuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flyZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">塔ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">塔的名字</t>
-  </si>
-  <si>
-    <t xml:space="preserve">防御塔元素（从1—6分别为光、暗、水、火、木、土）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1为物理伤害，2为法术伤害，3为产出，4为增益</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名字备注</t>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>float[][]</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>elementTy</t>
+  </si>
+  <si>
+    <t>adap</t>
+  </si>
+  <si>
+    <t>nameCN</t>
+  </si>
+  <si>
+    <t>towerStrategy</t>
+  </si>
+  <si>
+    <t>shopPrice</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>attackTags</t>
+  </si>
+  <si>
+    <t>imgGuid</t>
+  </si>
+  <si>
+    <t>infoTestsCn</t>
+  </si>
+  <si>
+    <t>infoTexts</t>
+  </si>
+  <si>
+    <t>spend</t>
+  </si>
+  <si>
+    <t>sellBack</t>
+  </si>
+  <si>
+    <t>guid</t>
+  </si>
+  <si>
+    <t>guid2</t>
+  </si>
+  <si>
+    <t>guid3</t>
+  </si>
+  <si>
+    <t>characterDelayTime</t>
+  </si>
+  <si>
+    <t>weaponGuid</t>
+  </si>
+  <si>
+    <t>weaponSlot</t>
+  </si>
+  <si>
+    <t>weaponLocation</t>
+  </si>
+  <si>
+    <t>effectDelayTime</t>
+  </si>
+  <si>
+    <t>attackEffect</t>
+  </si>
+  <si>
+    <t>hitEffect</t>
+  </si>
+  <si>
+    <t>attackTime</t>
+  </si>
+  <si>
+    <t>attackCount</t>
+  </si>
+  <si>
+    <t>attackRange</t>
+  </si>
+  <si>
+    <t>findRange</t>
+  </si>
+  <si>
+    <t>attackDamage</t>
+  </si>
+  <si>
+    <t>idleAnim</t>
+  </si>
+  <si>
+    <t>effectColor</t>
+  </si>
+  <si>
+    <t>attackAnim</t>
+  </si>
+  <si>
+    <t>AtkAnimDur</t>
+  </si>
+  <si>
+    <t>attackAnimSpeed</t>
+  </si>
+  <si>
+    <t>attackBuff</t>
+  </si>
+  <si>
+    <t>flyZ</t>
+  </si>
+  <si>
+    <t>塔ID</t>
+  </si>
+  <si>
+    <t>塔的名字</t>
+  </si>
+  <si>
+    <t>防御塔元素（从1—6分别为光、暗、水、火、木、土）</t>
+  </si>
+  <si>
+    <t>1为物理伤害，2为法术伤害，3为产出，4为增益</t>
+  </si>
+  <si>
+    <t>名字备注</t>
   </si>
   <si>
     <t xml:space="preserve">WarmUp = 1  暖机, AntiHidden = 2 破隐, ArmorBreak = 3 破甲, StunEffect 4  眩晕, ArmorShred 5 削甲, SlowEffect 6 减速, MagicPenetration 7 法穿, AntiAir 8 对空增伤, MultiHit 9 多段伤害, PriorityAir 10 优先对空 </t>
   </si>
   <si>
-    <t xml:space="preserve">塔的售价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">塔的类型
+    <t>塔的售价</t>
+  </si>
+  <si>
+    <t>塔的类型
 1 攻击塔
 2 buff 塔
 3 产出塔
 4 投掷物塔</t>
   </si>
   <si>
-    <t xml:space="preserve">特殊索敌类型
+    <t>特殊索敌类型
     Stealth = 1,
     Flying = 2,
 Armored = 3</t>
   </si>
   <si>
-    <t xml:space="preserve">塔的UI图片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">描述显示字段文本文字</t>
-  </si>
-  <si>
-    <t xml:space="preserve">资料卡的显示字段文本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每一级塔要花的钱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每一级塔拆除后返回的钱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">塔每一级buff特效的guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">防御塔二级特效guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">防御塔三级特效guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">防御塔攻击特效延迟时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">武器guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">武器挂载插槽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">武器相对于插槽的位置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">武器特效延迟播放时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">击中特效</t>
-  </si>
-  <si>
-    <t xml:space="preserve">受击特效的缩放</t>
-  </si>
-  <si>
-    <t xml:space="preserve">攻击间隔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">攻击数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">攻击AOE范围
+    <t>塔的UI图片</t>
+  </si>
+  <si>
+    <t>描述显示字段文本文字</t>
+  </si>
+  <si>
+    <t>资料卡的显示字段文本</t>
+  </si>
+  <si>
+    <t>每一级塔要花的钱</t>
+  </si>
+  <si>
+    <t>每一级塔拆除后返回的钱</t>
+  </si>
+  <si>
+    <t>塔每一级buff特效的guid</t>
+  </si>
+  <si>
+    <t>防御塔二级特效guid</t>
+  </si>
+  <si>
+    <t>防御塔三级特效guid</t>
+  </si>
+  <si>
+    <t>防御塔攻击特效延迟时间</t>
+  </si>
+  <si>
+    <t>武器guid</t>
+  </si>
+  <si>
+    <t>武器挂载插槽</t>
+  </si>
+  <si>
+    <t>武器相对于插槽的位置</t>
+  </si>
+  <si>
+    <t>武器特效延迟播放时间</t>
+  </si>
+  <si>
+    <t>击中特效</t>
+  </si>
+  <si>
+    <t>受击特效的缩放</t>
+  </si>
+  <si>
+    <t>攻击间隔</t>
+  </si>
+  <si>
+    <t>攻击数量</t>
+  </si>
+  <si>
+    <t>攻击AOE范围
 （0为单体)</t>
   </si>
   <si>
-    <t xml:space="preserve">索敌范围</t>
-  </si>
-  <si>
-    <t xml:space="preserve">攻击伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve">待机动画</t>
-  </si>
-  <si>
-    <t xml:space="preserve">特效颜色</t>
-  </si>
-  <si>
-    <t xml:space="preserve">攻击动画</t>
-  </si>
-  <si>
-    <t xml:space="preserve">攻击动画持续时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">攻击动画参数
+    <t>索敌范围</t>
+  </si>
+  <si>
+    <t>攻击伤害</t>
+  </si>
+  <si>
+    <t>待机动画</t>
+  </si>
+  <si>
+    <t>特效颜色</t>
+  </si>
+  <si>
+    <t>攻击动画</t>
+  </si>
+  <si>
+    <t>攻击动画持续时间</t>
+  </si>
+  <si>
+    <t>攻击动画参数
 速率|次数</t>
   </si>
   <si>
-    <t xml:space="preserve">攻击带的buff
+    <t>攻击带的buff
 对应buff表的id
 二维数组，针对多个等级</t>
   </si>
   <si>
-    <t xml:space="preserve">投掷物的Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">枪手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|2</t>
+    <t>投掷物的Z</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Tower_name_1</t>
+  </si>
+  <si>
+    <t>枪手</t>
+  </si>
+  <si>
+    <t>1|2</t>
   </si>
   <si>
     <r>
@@ -287,266 +292,266 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Tower_attackTags_1</t>
+      <t>Tower_attackTags_1</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">|</t>
+      <t>|</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Tower_attackTags_2</t>
+      <t>Tower_attackTags_2</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">|</t>
+      <t>|</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Tower_attackTags_3</t>
+      <t>Tower_attackTags_3</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">|</t>
+      <t>|</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Tower_attackTags_4</t>
+      <t>Tower_attackTags_4</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">attackDamage|attackTime|attackCount|findRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50|90|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25|70|160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">035FE6194D5ED1833C63E8A5565B4B2A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0524CC544E1BF295C554C69AD1D8CFA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|0.83|0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|1|1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2|2.1|2.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50|57.5|65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF9200FF|0C9BFFFF|FF00FEFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">步枪手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120|215|360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60|165|385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAF74E344060D0E4F10B2FAA213EB466|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">629362DD4A7294FF649E37BDDE9F30B0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75|0.63|0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2|1.32|1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75|86.25|97.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFBE4EFF|317FFFFF|FF31F1FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">机枪手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180|325|540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90|250|575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6B3208A84B2AE04875E6ACB418BCF27C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350A0E654CA7583A6D2FA987E8D51E1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5|0.42|0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5|1.65|1.875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60|69|78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFB860FF|7FA3FFFF|FF75FAFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">狙击手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|2|3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250|450|750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125|350|800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8D1F67E84BEAFBABCA05FE8DBE470802|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E17F27CC4B7A0FCBDA598E9D66D87007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3|2.5|2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75|4.125|4.6875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200|230|260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFFFFFFF|33A4FFFF|FF4CF5FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">火炮手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">375|675|1125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185|525|1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6CB1EE514F4B82CBB5CA22A5FEA68B5C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C40D8AAA48542A860728848F6CBDF8BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2|1.67|1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2|2|2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3|3.3|3.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250|287.5|325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF944DFF|5995FFFF|FF6BF9FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">特种兵</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240|430|720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120|335|765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21D4F5AF4A7AD5509FCBCD8CC10D94DC|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">653891C94FB0A366D642CEA818391DC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80|92|104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFAA65FF|4BAFFFFF|FFB4F4FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">爆破专家</t>
+    <t>attackDamage|attackTime|attackCount|findRange</t>
+  </si>
+  <si>
+    <t>50|90|150</t>
+  </si>
+  <si>
+    <t>25|70|160</t>
+  </si>
+  <si>
+    <t>035FE6194D5ED1833C63E8A5565B4B2A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>0524CC544E1BF295C554C69AD1D8CFA2</t>
+  </si>
+  <si>
+    <t>1|0.83|0.8</t>
+  </si>
+  <si>
+    <t>1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|0</t>
+  </si>
+  <si>
+    <t>2|2.1|2.25</t>
+  </si>
+  <si>
+    <t>50|57.5|65</t>
+  </si>
+  <si>
+    <t>FF9200FF|0C9BFFFF|FF00FEFF</t>
+  </si>
+  <si>
+    <t>1|1</t>
+  </si>
+  <si>
+    <t>Tower_name_2</t>
+  </si>
+  <si>
+    <t>步枪手</t>
+  </si>
+  <si>
+    <t>1|3</t>
+  </si>
+  <si>
+    <t>120|215|360</t>
+  </si>
+  <si>
+    <t>60|165|385</t>
+  </si>
+  <si>
+    <t>EAF74E344060D0E4F10B2FAA213EB466|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>629362DD4A7294FF649E37BDDE9F30B0</t>
+  </si>
+  <si>
+    <t>0.75|0.63|0.6</t>
+  </si>
+  <si>
+    <t>1.2|1.32|1.5</t>
+  </si>
+  <si>
+    <t>75|86.25|97.5</t>
+  </si>
+  <si>
+    <t>FFBE4EFF|317FFFFF|FF31F1FF</t>
+  </si>
+  <si>
+    <t>Tower_name_3</t>
+  </si>
+  <si>
+    <t>机枪手</t>
+  </si>
+  <si>
+    <t>180|325|540</t>
+  </si>
+  <si>
+    <t>90|250|575</t>
+  </si>
+  <si>
+    <t>6B3208A84B2AE04875E6ACB418BCF27C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>350A0E654CA7583A6D2FA987E8D51E1A</t>
+  </si>
+  <si>
+    <t>0.5|0.42|0.4</t>
+  </si>
+  <si>
+    <t>1.5|1.65|1.875</t>
+  </si>
+  <si>
+    <t>60|69|78</t>
+  </si>
+  <si>
+    <t>FFB860FF|7FA3FFFF|FF75FAFF</t>
+  </si>
+  <si>
+    <t>Tower_name_4</t>
+  </si>
+  <si>
+    <t>狙击手</t>
+  </si>
+  <si>
+    <t>1|2|3</t>
+  </si>
+  <si>
+    <t>250|450|750</t>
+  </si>
+  <si>
+    <t>125|350|800</t>
+  </si>
+  <si>
+    <t>8D1F67E84BEAFBABCA05FE8DBE470802|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>E17F27CC4B7A0FCBDA598E9D66D87007</t>
+  </si>
+  <si>
+    <t>3|2.5|2.4</t>
+  </si>
+  <si>
+    <t>3.75|4.125|4.6875</t>
+  </si>
+  <si>
+    <t>200|230|260</t>
+  </si>
+  <si>
+    <t>FFFFFFFF|33A4FFFF|FF4CF5FF</t>
+  </si>
+  <si>
+    <t>Tower_name_5</t>
+  </si>
+  <si>
+    <t>火炮手</t>
+  </si>
+  <si>
+    <t>375|675|1125</t>
+  </si>
+  <si>
+    <t>185|525|1200</t>
+  </si>
+  <si>
+    <t>6CB1EE514F4B82CBB5CA22A5FEA68B5C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>C40D8AAA48542A860728848F6CBDF8BF</t>
+  </si>
+  <si>
+    <t>2|1.67|1.6</t>
+  </si>
+  <si>
+    <t>2|2|2</t>
+  </si>
+  <si>
+    <t>3|3.3|3.75</t>
+  </si>
+  <si>
+    <t>250|287.5|325</t>
+  </si>
+  <si>
+    <t>FF944DFF|5995FFFF|FF6BF9FF</t>
+  </si>
+  <si>
+    <t>Tower_name_6</t>
+  </si>
+  <si>
+    <t>特种兵</t>
+  </si>
+  <si>
+    <t>240|430|720</t>
+  </si>
+  <si>
+    <t>120|335|765</t>
+  </si>
+  <si>
+    <t>21D4F5AF4A7AD5509FCBCD8CC10D94DC|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>653891C94FB0A366D642CEA818391DC9</t>
+  </si>
+  <si>
+    <t>80|92|104</t>
+  </si>
+  <si>
+    <t>FFAA65FF|4BAFFFFF|FFB4F4FF</t>
+  </si>
+  <si>
+    <t>Tower_name_7</t>
+  </si>
+  <si>
+    <t>爆破专家</t>
   </si>
   <si>
     <r>
@@ -554,98 +559,98 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Tower_attackTags_1</t>
+      <t>Tower_attackTags_1</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">|</t>
+      <t>|</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Tower_attackTags_2</t>
+      <t>Tower_attackTags_2</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">|</t>
+      <t>|</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Tower_attackTags_5</t>
+      <t>Tower_attackTags_5</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">|</t>
+      <t>|</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Tower_attackTags_4</t>
+      <t>Tower_attackTags_4</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">300|540|900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150|420|960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC5DCEC54F3EA67C227D0EA95AB9E08F|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EECF96D34B6A40D279E4418439C0FCD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3|3|3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2|2.2|2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|115|130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">歼击导弹</t>
+    <t>300|540|900</t>
+  </si>
+  <si>
+    <t>150|420|960</t>
+  </si>
+  <si>
+    <t>EC5DCEC54F3EA67C227D0EA95AB9E08F|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>EECF96D34B6A40D279E4418439C0FCD8</t>
+  </si>
+  <si>
+    <t>3|3|3</t>
+  </si>
+  <si>
+    <t>2|2.2|2.5</t>
+  </si>
+  <si>
+    <t>100|115|130</t>
+  </si>
+  <si>
+    <t>Tower_name_8</t>
+  </si>
+  <si>
+    <t>歼击导弹</t>
   </si>
   <si>
     <r>
@@ -653,140 +658,140 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Tower_attackTags_1</t>
+      <t>Tower_attackTags_1</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">|</t>
+      <t>|</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Tower_attackTags_2</t>
+      <t>Tower_attackTags_2</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">|</t>
+      <t>|</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Tower_attackTags_6</t>
+      <t>Tower_attackTags_6</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">|</t>
+      <t>|</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Tower_attackTags_4</t>
+      <t>Tower_attackTags_4</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">600|1080|1800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300|840|1920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B3A884E74563F1D443673D972DE73C5A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海豹突击手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225|405|675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115|315|720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B6770C824788E1B59A5992BEB0E58D58|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6A0DE7F4464370FE3F343F8B8280953B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33|0.28|0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF9E59FF|72C7FFFF|FF5CDCFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霰弹枪兵</t>
-  </si>
-  <si>
-    <t xml:space="preserve">720|1296|2160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">360|1000|2300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A017872D4179A0F6C53E2786AA756766|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBC7A8DF492ADDA5A3B0A0B28A3EC68B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5|5|5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|1.1|1.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120|138|156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF9C6CFF|65AAFFFF|FF45FEFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金币矿机</t>
+    <t>600|1080|1800</t>
+  </si>
+  <si>
+    <t>300|840|1920</t>
+  </si>
+  <si>
+    <t>B3A884E74563F1D443673D972DE73C5A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>Tower_name_9</t>
+  </si>
+  <si>
+    <t>海豹突击手</t>
+  </si>
+  <si>
+    <t>225|405|675</t>
+  </si>
+  <si>
+    <t>115|315|720</t>
+  </si>
+  <si>
+    <t>B6770C824788E1B59A5992BEB0E58D58|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>6A0DE7F4464370FE3F343F8B8280953B</t>
+  </si>
+  <si>
+    <t>0.33|0.28|0.27</t>
+  </si>
+  <si>
+    <t>FF9E59FF|72C7FFFF|FF5CDCFF</t>
+  </si>
+  <si>
+    <t>Tower_name_10</t>
+  </si>
+  <si>
+    <t>霰弹枪兵</t>
+  </si>
+  <si>
+    <t>720|1296|2160</t>
+  </si>
+  <si>
+    <t>360|1000|2300</t>
+  </si>
+  <si>
+    <t>A017872D4179A0F6C53E2786AA756766|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>CBC7A8DF492ADDA5A3B0A0B28A3EC68B</t>
+  </si>
+  <si>
+    <t>5|5|5</t>
+  </si>
+  <si>
+    <t>1|1.1|1.25</t>
+  </si>
+  <si>
+    <t>120|138|156</t>
+  </si>
+  <si>
+    <t>FF9C6CFF|65AAFFFF|FF45FEFF</t>
+  </si>
+  <si>
+    <t>Tower_name_11</t>
+  </si>
+  <si>
+    <t>金币矿机</t>
   </si>
   <si>
     <r>
@@ -794,58 +799,58 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Tower_attackTags_7</t>
+      <t>Tower_attackTags_7</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">|</t>
+      <t>|</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Tower_attackTags_8</t>
+      <t>Tower_attackTags_8</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">attackDamage|attackTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30|90|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15|50|100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3F3E2CEE4DABFE0E832743B85AE2BD5B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10|8|6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2|3|4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7|10|15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鼓舞旗帜</t>
+    <t>attackDamage|attackTime</t>
+  </si>
+  <si>
+    <t>30|90|150</t>
+  </si>
+  <si>
+    <t>15|50|100</t>
+  </si>
+  <si>
+    <t>3F3E2CEE4DABFE0E832743B85AE2BD5B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>10|8|6</t>
+  </si>
+  <si>
+    <t>2|3|4</t>
+  </si>
+  <si>
+    <t>7|10|15</t>
+  </si>
+  <si>
+    <t>Tower_name_12</t>
+  </si>
+  <si>
+    <t>鼓舞旗帜</t>
   </si>
   <si>
     <r>
@@ -853,181 +858,181 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Tower_attackTags_9</t>
+      <t>Tower_attackTags_9</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">|</t>
+      <t>|</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Tower_attackTags_10</t>
+      <t>Tower_attackTags_10</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">attackDamage|findRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120|300|600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14F45E2348C0537D52B304A3C3C6B69B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01|0.01|0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10|15|25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001|2002|2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光龙少1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_attackTags_1|Tower_attackTags_2|Tower_attackTags_3|Tower_attackTags_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60|100|200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09E82E72488ED6F749BA99A256F1792F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E8DF061043359EE84F60AEAAB3D3A68A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5|0.5|0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58|108|128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2|1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光龙娘4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600|700|800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88A9134443C169D1D86DE4A68690D295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC07D30340D3F7222F7D498025208100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3|3|2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000|1250|1500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光龙娘3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">550|600|650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B06787054CADB7A7F6D7119045051E1E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000|500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4B7264E42074A814EA43BA7906BBEE7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4|4|4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2|2|2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">280|350|350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20275|281753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光龙少2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80|120|260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB17F0404A02BC9A002911BC7BDC0A65|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500|500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B8042E594FB8BDA5FFE681993C5A8FB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7|0.6|0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|1|1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFB53FFF|FFB53FFF|FFB53FFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20270|285799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光龙娘6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_attackTags_7|Tower_attackTags_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F295C0434C6D1288C0CBCD81DD5DE08B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暖机光龙娘5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200|250|300</t>
+    <t>attackDamage|findRange</t>
+  </si>
+  <si>
+    <t>120|300|600</t>
+  </si>
+  <si>
+    <t>14F45E2348C0537D52B304A3C3C6B69B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>0.01|0.01|0.01</t>
+  </si>
+  <si>
+    <t>10|15|25</t>
+  </si>
+  <si>
+    <t>2001|2002|2003</t>
+  </si>
+  <si>
+    <t>Tower_name_13</t>
+  </si>
+  <si>
+    <t>光龙少1</t>
+  </si>
+  <si>
+    <t>Tower_attackTags_1|Tower_attackTags_2|Tower_attackTags_3|Tower_attackTags_4</t>
+  </si>
+  <si>
+    <t>60|100|200</t>
+  </si>
+  <si>
+    <t>09E82E72488ED6F749BA99A256F1792F</t>
+  </si>
+  <si>
+    <t>E8DF061043359EE84F60AEAAB3D3A68A</t>
+  </si>
+  <si>
+    <t>0.5|0.5|0.5</t>
+  </si>
+  <si>
+    <t>58|108|128</t>
+  </si>
+  <si>
+    <t>2|1</t>
+  </si>
+  <si>
+    <t>Tower_name_14</t>
+  </si>
+  <si>
+    <t>光龙娘4</t>
+  </si>
+  <si>
+    <t>600|700|800</t>
+  </si>
+  <si>
+    <t>88A9134443C169D1D86DE4A68690D295</t>
+  </si>
+  <si>
+    <t>CC07D30340D3F7222F7D498025208100</t>
+  </si>
+  <si>
+    <t>3|3|2.8</t>
+  </si>
+  <si>
+    <t>1000|1250|1500</t>
+  </si>
+  <si>
+    <t>Tower_name_15</t>
+  </si>
+  <si>
+    <t>光龙娘3</t>
+  </si>
+  <si>
+    <t>550|600|650</t>
+  </si>
+  <si>
+    <t>B06787054CADB7A7F6D7119045051E1E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>6|7</t>
+  </si>
+  <si>
+    <t>1000|500</t>
+  </si>
+  <si>
+    <t>D4B7264E42074A814EA43BA7906BBEE7</t>
+  </si>
+  <si>
+    <t>4|4|4</t>
+  </si>
+  <si>
+    <t>2|2|2.5</t>
+  </si>
+  <si>
+    <t>280|350|350</t>
+  </si>
+  <si>
+    <t>20275|281753</t>
+  </si>
+  <si>
+    <t>Tower_name_16</t>
+  </si>
+  <si>
+    <t>光龙少2</t>
+  </si>
+  <si>
+    <t>80|120|260</t>
+  </si>
+  <si>
+    <t>AB17F0404A02BC9A002911BC7BDC0A65|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>500|500</t>
+  </si>
+  <si>
+    <t>B8042E594FB8BDA5FFE681993C5A8FB3</t>
+  </si>
+  <si>
+    <t>0.7|0.6|0.5</t>
+  </si>
+  <si>
+    <t>1|1|1.5</t>
+  </si>
+  <si>
+    <t>FFB53FFF|FFB53FFF|FFB53FFF</t>
+  </si>
+  <si>
+    <t>20270|285799</t>
+  </si>
+  <si>
+    <t>Tower_name_17</t>
+  </si>
+  <si>
+    <t>光龙娘6</t>
+  </si>
+  <si>
+    <t>Tower_attackTags_7|Tower_attackTags_8</t>
+  </si>
+  <si>
+    <t>F295C0434C6D1288C0CBCD81DD5DE08B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>Tower_name_18</t>
+  </si>
+  <si>
+    <t>暖机光龙娘5</t>
+  </si>
+  <si>
+    <t>200|250|300</t>
   </si>
   <si>
     <r>
@@ -1035,712 +1040,696 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">200|250|300</t>
+      <t>200|250|300</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t>.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">7A8D6E2149EC964C609BEABB1CD4DB6E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">421CE1374301DC37D8FCB09C2F2321C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7|1.7|1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光龙娘7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2156CCFE49B0B0F804086C96D2F8166C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|150|250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暗龙娘2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60|100|130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28D3AAC24F38644228D141AF6EE3C31F|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45F04C6F46C61EA619AEF0B058363AC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8|1.7|1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200|300|350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">279685|279595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暗龙娘1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160|250|320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3A9D803A4C74C27DA0A11FA53B742510|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07F582E14688F6E9C9F0D2951D0902E1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5|1.5|1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8|8|8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|1.5|2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50|60|70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4012||4013||4014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暗龙娘3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70|120|180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD0581B64EAB0563BF8537BCE23878AE|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2E34840A438C9605A8FB7C978CAFE3D9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6|0.5|0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55|90|160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暗龙娘4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80|120|200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9E7CB4874D5A5A99FE782A946A61E0DC|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2790D96472CAB1BF1D3578B3620717C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6|0.6|0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56|86|156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4015||4016||4017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暗龙娘5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60|120|180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB4D06E34849041AB9D5C084904B8036|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15|12|9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10|20|30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暗龙娘6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_attackTags_9|Tower_attackTags_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2413BE794DFD89225C6BB1984BF3B39A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40|60|80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暗龙娘7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4E3FA2424F946AAFD47668983B3506B9|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60|80|100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水龙娘1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400|600|900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">588EA3A049E954202CC020B7C119324A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1A4B3C9846217C42C0C3C3B2371F9918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82|0.75|0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58|88|128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水龙娘2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210|320|700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2376FBE449DD94F61D9F08B9220157E7|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EF86F5344F48528C8775BCAB8A3CC651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30|45|70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水龙娘3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500|600|800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEA94B29458A224F6916409D0B5EEBD0|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A79AF731457034A4CF4D289257346D2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9|0.9|0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55|75|95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水龙娘4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450|500|650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2DA70B84E6508A3A06964B69D6F056D|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6DD1BB22431EAB1F9DF6F993572D3713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13|3.13|3.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6|6|6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270|320|460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水龙娘5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">550|620|750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A8B88FED4B0D764366A4B1A994393357|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4FF20A6343EE57735D83EE9B9EFB6981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000|500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350|450|600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285517|281753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水龙少6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300|400|520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A012FACE4430191FBD317598F7684D86|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F5DBBEBC4F82864C959DB8AFDD5CF39F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1500|500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600|900|1300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285705|285819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">火龙娘1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180|280|450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">983140204DD194704B0D219D8596E5E1|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7069F2404586016EEC5B889FE759BDD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5|1.4|1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130|210|330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">火龙娘2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80|120|220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">041C24AB42F1534E083C448211B4655B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BED1185C4360D4F0220DDC94B0A0A813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5|1.4|1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140|220|400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">火龙娘3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130|200|300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8D561C1D4BDEB35DC34957875388B3BD|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE86E2AD461A9AB225C6329AEF404C80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2|2|1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150|280|400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">火龙娘4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700|900|1050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2F4F3FB84ECC5CBA4112CF9121CAA1FA|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3A20A4B4593FC172CCCB0AE02D5BCC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4|3.4|3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1500|2100|2700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">火龙娘5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">550|660|820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9ACB25334D22EDBDC22F04B4FAC43CE8|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16F273444522747F516CA88B9469B2E7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45|60|80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">火龙少6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6992D1454962F1D5D06B77B19228941B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木龙娘1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150|240|350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFE5AFC34941975C455821BFB8EB1BE2|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA95F4BE423F0DB39D4102BC4E93DFD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35|0.35|0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32|40|60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木龙少2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250|350|500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0991DF7A47C82436D3BA6483EE4F886A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FE8432F9463F1BFDA0DC73A6E3720AD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55|0.55|0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60|100|160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木龙少3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340|480|700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55BA8E6B4582A52B769877A12BBFDF6E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6F648B984ACAAA6EB60AD39B0D0689D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|0.9|0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90|120|160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木龙少4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160|300|460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">692660CD472CB70636DCEC8544290350|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2B668554B1057C2E3EA788780B7592D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4|0.4|0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30|60|90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木龙娘5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8881D0434DA2E5FCC8E099A3BEA08F60|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">833FB1144C705CD35444A69D0B8D821E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2|2.1|2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木龙娘6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A00272E14699C5AAEC057C9208A9C3D4|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10|15|20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土龙娘1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300|700|1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56916B684770A63ECB303BAE1DF71C3B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A940E9B24121BF230FEAC18D34315ABF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138|238|298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土龙娘2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350|450|700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22A8F6A141BDEA65E78402AD6A635193|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A7A643954302557C42B049A90B86312E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150|250|400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土龙娘3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180|220|280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E9799482461ABE8EA4DE3C9B18665BE0|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2C666BFA45743B92B54F7794F779AEB8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6|2.5|2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210|260|350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土龙娘4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">620|700|900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5A0F59954E3351A543A7A78A032CC19C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96AACACB4F8135625CF80FB738A9CD96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8|2.6|2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">280|320|400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土龙娘5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700|1100|1500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8037B47F4044AA8C51D7ACAA0BC47EBD|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEF3A6264248B976FC68F4B44604C8F3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340|540|740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower_name_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土龙娘6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A9EDEC8F43483A421EBD97A16A7F99BD|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+    <t>7A8D6E2149EC964C609BEABB1CD4DB6E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>421CE1374301DC37D8FCB09C2F2321C4</t>
+  </si>
+  <si>
+    <t>1.7|1.7|1.7</t>
+  </si>
+  <si>
+    <t>Tower_name_19</t>
+  </si>
+  <si>
+    <t>光龙娘7</t>
+  </si>
+  <si>
+    <t>2156CCFE49B0B0F804086C96D2F8166C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>100|150|250</t>
+  </si>
+  <si>
+    <t>Tower_name_20</t>
+  </si>
+  <si>
+    <t>暗龙娘2</t>
+  </si>
+  <si>
+    <t>60|100|130</t>
+  </si>
+  <si>
+    <t>28D3AAC24F38644228D141AF6EE3C31F|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>45F04C6F46C61EA619AEF0B058363AC7</t>
+  </si>
+  <si>
+    <t>1.8|1.7|1.5</t>
+  </si>
+  <si>
+    <t>200|300|350</t>
+  </si>
+  <si>
+    <t>279685|279595</t>
+  </si>
+  <si>
+    <t>Tower_name_21</t>
+  </si>
+  <si>
+    <t>暗龙娘1</t>
+  </si>
+  <si>
+    <t>160|250|320</t>
+  </si>
+  <si>
+    <t>3A9D803A4C74C27DA0A11FA53B742510|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>07F582E14688F6E9C9F0D2951D0902E1</t>
+  </si>
+  <si>
+    <t>1.5|1.5|1.5</t>
+  </si>
+  <si>
+    <t>8|8|8</t>
+  </si>
+  <si>
+    <t>1|1.5|2</t>
+  </si>
+  <si>
+    <t>50|60|70</t>
+  </si>
+  <si>
+    <t>4012||4013||4014</t>
+  </si>
+  <si>
+    <t>Tower_name_22</t>
+  </si>
+  <si>
+    <t>暗龙娘3</t>
+  </si>
+  <si>
+    <t>70|120|180</t>
+  </si>
+  <si>
+    <t>CD0581B64EAB0563BF8537BCE23878AE|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>2E34840A438C9605A8FB7C978CAFE3D9</t>
+  </si>
+  <si>
+    <t>0.6|0.5|0.5</t>
+  </si>
+  <si>
+    <t>55|90|160</t>
+  </si>
+  <si>
+    <t>Tower_name_23</t>
+  </si>
+  <si>
+    <t>暗龙娘4</t>
+  </si>
+  <si>
+    <t>80|120|200</t>
+  </si>
+  <si>
+    <t>9E7CB4874D5A5A99FE782A946A61E0DC|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>B2790D96472CAB1BF1D3578B3620717C</t>
+  </si>
+  <si>
+    <t>0.6|0.6|0.6</t>
+  </si>
+  <si>
+    <t>56|86|156</t>
+  </si>
+  <si>
+    <t>4015||4016||4017</t>
+  </si>
+  <si>
+    <t>Tower_name_24</t>
+  </si>
+  <si>
+    <t>暗龙娘5</t>
+  </si>
+  <si>
+    <t>60|120|180</t>
+  </si>
+  <si>
+    <t>AB4D06E34849041AB9D5C084904B8036|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>15|12|9</t>
+  </si>
+  <si>
+    <t>10|20|30</t>
+  </si>
+  <si>
+    <t>Tower_name_25</t>
+  </si>
+  <si>
+    <t>暗龙娘6</t>
+  </si>
+  <si>
+    <t>Tower_attackTags_9|Tower_attackTags_10</t>
+  </si>
+  <si>
+    <t>2413BE794DFD89225C6BB1984BF3B39A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>40|60|80</t>
+  </si>
+  <si>
+    <t>Tower_name_26</t>
+  </si>
+  <si>
+    <t>暗龙娘7</t>
+  </si>
+  <si>
+    <t>4E3FA2424F946AAFD47668983B3506B9|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>60|80|100</t>
+  </si>
+  <si>
+    <t>Tower_name_27</t>
+  </si>
+  <si>
+    <t>水龙娘1</t>
+  </si>
+  <si>
+    <t>400|600|900</t>
+  </si>
+  <si>
+    <t>588EA3A049E954202CC020B7C119324A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>1A4B3C9846217C42C0C3C3B2371F9918</t>
+  </si>
+  <si>
+    <t>0.82|0.75|0.68</t>
+  </si>
+  <si>
+    <t>58|88|128</t>
+  </si>
+  <si>
+    <t>Tower_name_28</t>
+  </si>
+  <si>
+    <t>水龙娘2</t>
+  </si>
+  <si>
+    <t>210|320|700</t>
+  </si>
+  <si>
+    <t>2376FBE449DD94F61D9F08B9220157E7|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>EF86F5344F48528C8775BCAB8A3CC651</t>
+  </si>
+  <si>
+    <t>30|45|70</t>
+  </si>
+  <si>
+    <t>Tower_name_29</t>
+  </si>
+  <si>
+    <t>水龙娘3</t>
+  </si>
+  <si>
+    <t>500|600|800</t>
+  </si>
+  <si>
+    <t>EEA94B29458A224F6916409D0B5EEBD0|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>A79AF731457034A4CF4D289257346D2B</t>
+  </si>
+  <si>
+    <t>0.9|0.9|0.8</t>
+  </si>
+  <si>
+    <t>55|75|95</t>
+  </si>
+  <si>
+    <t>Tower_name_30</t>
+  </si>
+  <si>
+    <t>水龙娘4</t>
+  </si>
+  <si>
+    <t>450|500|650</t>
+  </si>
+  <si>
+    <t>A2DA70B84E6508A3A06964B69D6F056D|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>6DD1BB22431EAB1F9DF6F993572D3713</t>
+  </si>
+  <si>
+    <t>3.13|3.13|3.13</t>
+  </si>
+  <si>
+    <t>6|6|6</t>
+  </si>
+  <si>
+    <t>270|320|460</t>
+  </si>
+  <si>
+    <t>Tower_name_31</t>
+  </si>
+  <si>
+    <t>水龙娘5</t>
+  </si>
+  <si>
+    <t>550|620|750</t>
+  </si>
+  <si>
+    <t>A8B88FED4B0D764366A4B1A994393357|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>4FF20A6343EE57735D83EE9B9EFB6981</t>
+  </si>
+  <si>
+    <t>2000|500</t>
+  </si>
+  <si>
+    <t>350|450|600</t>
+  </si>
+  <si>
+    <t>285517|281753</t>
+  </si>
+  <si>
+    <t>Tower_name_32</t>
+  </si>
+  <si>
+    <t>水龙少6</t>
+  </si>
+  <si>
+    <t>300|400|520</t>
+  </si>
+  <si>
+    <t>A012FACE4430191FBD317598F7684D86|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>F5DBBEBC4F82864C959DB8AFDD5CF39F</t>
+  </si>
+  <si>
+    <t>1500|500</t>
+  </si>
+  <si>
+    <t>600|900|1300</t>
+  </si>
+  <si>
+    <t>285705|285819</t>
+  </si>
+  <si>
+    <t>Tower_name_33</t>
+  </si>
+  <si>
+    <t>火龙娘1</t>
+  </si>
+  <si>
+    <t>180|280|450</t>
+  </si>
+  <si>
+    <t>983140204DD194704B0D219D8596E5E1|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>7069F2404586016EEC5B889FE759BDD8</t>
+  </si>
+  <si>
+    <t>1.5|1.4|1.3</t>
+  </si>
+  <si>
+    <t>130|210|330</t>
+  </si>
+  <si>
+    <t>Tower_name_34</t>
+  </si>
+  <si>
+    <t>火龙娘2</t>
+  </si>
+  <si>
+    <t>80|120|220</t>
+  </si>
+  <si>
+    <t>041C24AB42F1534E083C448211B4655B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>BED1185C4360D4F0220DDC94B0A0A813</t>
+  </si>
+  <si>
+    <t>1.5|1.4|1.2</t>
+  </si>
+  <si>
+    <t>140|220|400</t>
+  </si>
+  <si>
+    <t>Tower_name_35</t>
+  </si>
+  <si>
+    <t>火龙娘3</t>
+  </si>
+  <si>
+    <t>130|200|300</t>
+  </si>
+  <si>
+    <t>8D561C1D4BDEB35DC34957875388B3BD|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>CE86E2AD461A9AB225C6329AEF404C80</t>
+  </si>
+  <si>
+    <t>2.2|2|1.8</t>
+  </si>
+  <si>
+    <t>150|280|400</t>
+  </si>
+  <si>
+    <t>Tower_name_36</t>
+  </si>
+  <si>
+    <t>火龙娘4</t>
+  </si>
+  <si>
+    <t>700|900|1050</t>
+  </si>
+  <si>
+    <t>2F4F3FB84ECC5CBA4112CF9121CAA1FA|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>C3A20A4B4593FC172CCCB0AE02D5BCC2</t>
+  </si>
+  <si>
+    <t>3.4|3.4|3.4</t>
+  </si>
+  <si>
+    <t>1500|2100|2700</t>
+  </si>
+  <si>
+    <t>Tower_name_37</t>
+  </si>
+  <si>
+    <t>火龙娘5</t>
+  </si>
+  <si>
+    <t>550|660|820</t>
+  </si>
+  <si>
+    <t>9ACB25334D22EDBDC22F04B4FAC43CE8|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>16F273444522747F516CA88B9469B2E7</t>
+  </si>
+  <si>
+    <t>45|60|80</t>
+  </si>
+  <si>
+    <t>Tower_name_38</t>
+  </si>
+  <si>
+    <t>火龙少6</t>
+  </si>
+  <si>
+    <t>6992D1454962F1D5D06B77B19228941B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>Tower_name_39</t>
+  </si>
+  <si>
+    <t>木龙娘1</t>
+  </si>
+  <si>
+    <t>150|240|350</t>
+  </si>
+  <si>
+    <t>DFE5AFC34941975C455821BFB8EB1BE2|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>DA95F4BE423F0DB39D4102BC4E93DFD4</t>
+  </si>
+  <si>
+    <t>0.35|0.35|0.35</t>
+  </si>
+  <si>
+    <t>32|40|60</t>
+  </si>
+  <si>
+    <t>Tower_name_40</t>
+  </si>
+  <si>
+    <t>木龙少2</t>
+  </si>
+  <si>
+    <t>250|350|500</t>
+  </si>
+  <si>
+    <t>0991DF7A47C82436D3BA6483EE4F886A|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>FE8432F9463F1BFDA0DC73A6E3720AD4</t>
+  </si>
+  <si>
+    <t>0.55|0.55|0.55</t>
+  </si>
+  <si>
+    <t>60|100|160</t>
+  </si>
+  <si>
+    <t>Tower_name_41</t>
+  </si>
+  <si>
+    <t>木龙少3</t>
+  </si>
+  <si>
+    <t>340|480|700</t>
+  </si>
+  <si>
+    <t>55BA8E6B4582A52B769877A12BBFDF6E|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>6F648B984ACAAA6EB60AD39B0D0689D3</t>
+  </si>
+  <si>
+    <t>1|0.9|0.8</t>
+  </si>
+  <si>
+    <t>90|120|160</t>
+  </si>
+  <si>
+    <t>Tower_name_42</t>
+  </si>
+  <si>
+    <t>木龙少4</t>
+  </si>
+  <si>
+    <t>160|300|460</t>
+  </si>
+  <si>
+    <t>692660CD472CB70636DCEC8544290350|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>C2B668554B1057C2E3EA788780B7592D</t>
+  </si>
+  <si>
+    <t>0.4|0.4|0.4</t>
+  </si>
+  <si>
+    <t>30|60|90</t>
+  </si>
+  <si>
+    <t>Tower_name_43</t>
+  </si>
+  <si>
+    <t>木龙娘5</t>
+  </si>
+  <si>
+    <t>8881D0434DA2E5FCC8E099A3BEA08F60|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>833FB1144C705CD35444A69D0B8D821E</t>
+  </si>
+  <si>
+    <t>2.2|2.1|2</t>
+  </si>
+  <si>
+    <t>Tower_name_44</t>
+  </si>
+  <si>
+    <t>木龙娘6</t>
+  </si>
+  <si>
+    <t>A00272E14699C5AAEC057C9208A9C3D4|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>10|15|20</t>
+  </si>
+  <si>
+    <t>Tower_name_45</t>
+  </si>
+  <si>
+    <t>土龙娘1</t>
+  </si>
+  <si>
+    <t>300|700|1200</t>
+  </si>
+  <si>
+    <t>56916B684770A63ECB303BAE1DF71C3B|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>A940E9B24121BF230FEAC18D34315ABF</t>
+  </si>
+  <si>
+    <t>138|238|298</t>
+  </si>
+  <si>
+    <t>Tower_name_46</t>
+  </si>
+  <si>
+    <t>土龙娘2</t>
+  </si>
+  <si>
+    <t>350|450|700</t>
+  </si>
+  <si>
+    <t>22A8F6A141BDEA65E78402AD6A635193|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>A7A643954302557C42B049A90B86312E</t>
+  </si>
+  <si>
+    <t>150|250|400</t>
+  </si>
+  <si>
+    <t>Tower_name_47</t>
+  </si>
+  <si>
+    <t>土龙娘3</t>
+  </si>
+  <si>
+    <t>180|220|280</t>
+  </si>
+  <si>
+    <t>E9799482461ABE8EA4DE3C9B18665BE0|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>2C666BFA45743B92B54F7794F779AEB8</t>
+  </si>
+  <si>
+    <t>2.6|2.5|2.4</t>
+  </si>
+  <si>
+    <t>210|260|350</t>
+  </si>
+  <si>
+    <t>Tower_name_48</t>
+  </si>
+  <si>
+    <t>土龙娘4</t>
+  </si>
+  <si>
+    <t>620|700|900</t>
+  </si>
+  <si>
+    <t>5A0F59954E3351A543A7A78A032CC19C|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>96AACACB4F8135625CF80FB738A9CD96</t>
+  </si>
+  <si>
+    <t>2.8|2.6|2.4</t>
+  </si>
+  <si>
+    <t>280|320|400</t>
+  </si>
+  <si>
+    <t>Tower_name_49</t>
+  </si>
+  <si>
+    <t>土龙娘5</t>
+  </si>
+  <si>
+    <t>700|1100|1500</t>
+  </si>
+  <si>
+    <t>8037B47F4044AA8C51D7ACAA0BC47EBD|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
+  </si>
+  <si>
+    <t>EEF3A6264248B976FC68F4B44604C8F3</t>
+  </si>
+  <si>
+    <t>340|540|740</t>
+  </si>
+  <si>
+    <t>Tower_name_50</t>
+  </si>
+  <si>
+    <t>土龙娘6</t>
+  </si>
+  <si>
+    <t>A9EDEC8F43483A421EBD97A16A7F99BD|E718B09E4408CE5534779780E5365B64|E456238842ACC53D8C01EAABD11B256C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="0"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1783,247 +1772,163 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="46">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2082,62 +1987,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -2190,72 +2111,71 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMS54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C13" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="topRight" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A13" sqref="A13"/>
+      <selection pane="topRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="36.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="44.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="16" style="1" width="54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="19.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="23.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="21.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="23" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="25" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="32" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="39.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="27.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="117.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="46.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="96.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="36.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="64.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="36.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="22.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="2" width="27.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="31.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="23.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="53" min="52" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="58" min="55" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="15.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="31.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="16.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="18.75"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1033" min="63" style="1" width="12.51"/>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="13.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="44.25" style="1" customWidth="1"/>
+    <col min="16" max="19" width="54" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="12.5" style="1"/>
+    <col min="25" max="29" width="18" style="1" customWidth="1"/>
+    <col min="30" max="30" width="16" style="1" customWidth="1"/>
+    <col min="31" max="31" width="18" style="1" customWidth="1"/>
+    <col min="32" max="34" width="16" style="1" customWidth="1"/>
+    <col min="35" max="35" width="39.75" style="1" customWidth="1"/>
+    <col min="36" max="36" width="16" style="1" customWidth="1"/>
+    <col min="37" max="37" width="27.875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="117.875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="46.5" style="1" customWidth="1"/>
+    <col min="40" max="40" width="96.125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="36.25" style="1" customWidth="1"/>
+    <col min="42" max="42" width="64.25" style="1" customWidth="1"/>
+    <col min="43" max="43" width="36.625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="15.625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="22.125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="27.25" style="2" customWidth="1"/>
+    <col min="47" max="47" width="34" style="1" customWidth="1"/>
+    <col min="48" max="48" width="31.75" style="2" customWidth="1"/>
+    <col min="49" max="49" width="19.875" style="1" customWidth="1"/>
+    <col min="50" max="50" width="23.375" style="1" customWidth="1"/>
+    <col min="51" max="51" width="16" style="1" customWidth="1"/>
+    <col min="52" max="53" width="12.5" style="1"/>
+    <col min="54" max="54" width="17" style="1" customWidth="1"/>
+    <col min="55" max="58" width="12.5" style="1"/>
+    <col min="59" max="59" width="15.75" style="1" customWidth="1"/>
+    <col min="60" max="60" width="31.25" style="1" customWidth="1"/>
+    <col min="61" max="61" width="16.75" style="1" customWidth="1"/>
+    <col min="62" max="62" width="18.75" style="1" customWidth="1"/>
+    <col min="63" max="1033" width="12.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:61" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2390,7 +2310,7 @@
       <c r="BH1" s="3"/>
       <c r="BI1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:61" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2525,7 +2445,7 @@
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:61" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -2660,13 +2580,13 @@
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2678,16 +2598,16 @@
         <v>81</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>300</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="1">
         <v>291768</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -2708,13 +2628,13 @@
       <c r="S5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="T5" s="1" t="n">
+      <c r="T5" s="1">
         <v>16</v>
       </c>
-      <c r="W5" s="8" t="n">
+      <c r="W5" s="8">
         <v>107535</v>
       </c>
-      <c r="X5" s="8" t="n">
+      <c r="X5" s="8">
         <v>0.8</v>
       </c>
       <c r="Y5" s="1" t="s">
@@ -2732,16 +2652,16 @@
       <c r="AC5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AD5" s="1" t="n">
+      <c r="AD5" s="1">
         <v>281795</v>
       </c>
       <c r="AE5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AF5" s="1" t="n">
+      <c r="AF5" s="1">
         <v>81687</v>
       </c>
-      <c r="AG5" s="1" t="n">
+      <c r="AG5" s="1">
         <v>1</v>
       </c>
       <c r="AH5" s="1" t="s">
@@ -2755,8 +2675,8 @@
       <c r="AY5" s="8"/>
       <c r="BB5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2768,16 +2688,16 @@
         <v>97</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>360</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="10">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="10">
         <v>291769</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -2798,13 +2718,13 @@
       <c r="S6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="1" t="n">
+      <c r="T6" s="1">
         <v>16</v>
       </c>
-      <c r="W6" s="8" t="n">
+      <c r="W6" s="8">
         <v>107535</v>
       </c>
-      <c r="X6" s="8" t="n">
+      <c r="X6" s="8">
         <v>0.8</v>
       </c>
       <c r="Y6" s="1" t="s">
@@ -2822,16 +2742,16 @@
       <c r="AC6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AD6" s="1" t="n">
+      <c r="AD6" s="1">
         <v>281710</v>
       </c>
       <c r="AE6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AF6" s="1" t="n">
+      <c r="AF6" s="1">
         <v>80483</v>
       </c>
-      <c r="AG6" s="1" t="n">
+      <c r="AG6" s="1">
         <v>0.1</v>
       </c>
       <c r="AH6" s="1" t="s">
@@ -2842,8 +2762,8 @@
       <c r="AT6" s="9"/>
       <c r="AV6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2855,16 +2775,16 @@
         <v>108</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>540</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="1">
         <v>3</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="1">
         <v>291776</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -2885,13 +2805,13 @@
       <c r="S7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T7" s="1" t="n">
+      <c r="T7" s="1">
         <v>16</v>
       </c>
-      <c r="W7" s="8" t="n">
+      <c r="W7" s="8">
         <v>107535</v>
       </c>
-      <c r="X7" s="8" t="n">
+      <c r="X7" s="8">
         <v>0.8</v>
       </c>
       <c r="Y7" s="1" t="s">
@@ -2909,16 +2829,16 @@
       <c r="AC7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AD7" s="1" t="n">
+      <c r="AD7" s="1">
         <v>281710</v>
       </c>
       <c r="AE7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AF7" s="1" t="n">
+      <c r="AF7" s="1">
         <v>80483</v>
       </c>
-      <c r="AG7" s="1" t="n">
+      <c r="AG7" s="1">
         <v>0.5</v>
       </c>
       <c r="AH7" s="1" t="s">
@@ -2932,8 +2852,8 @@
       <c r="AY7" s="8"/>
       <c r="BB7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>1004</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2945,16 +2865,16 @@
         <v>118</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2">
         <v>750</v>
       </c>
-      <c r="H8" s="10" t="n">
+      <c r="H8" s="10">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="10" t="n">
+      <c r="J8" s="10">
         <v>291770</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -2975,13 +2895,13 @@
       <c r="S8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="T8" s="1" t="n">
+      <c r="T8" s="1">
         <v>16</v>
       </c>
-      <c r="W8" s="8" t="n">
+      <c r="W8" s="8">
         <v>107535</v>
       </c>
-      <c r="X8" s="8" t="n">
+      <c r="X8" s="8">
         <v>0.8</v>
       </c>
       <c r="Y8" s="1" t="s">
@@ -2999,16 +2919,16 @@
       <c r="AC8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AD8" s="1" t="n">
+      <c r="AD8" s="1">
         <v>20227</v>
       </c>
       <c r="AE8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AF8" s="1" t="n">
+      <c r="AF8" s="1">
         <v>20279</v>
       </c>
-      <c r="AG8" s="1" t="n">
+      <c r="AG8" s="1">
         <v>0.5</v>
       </c>
       <c r="AH8" s="1" t="s">
@@ -3019,8 +2939,8 @@
       <c r="AT8" s="9"/>
       <c r="AV8" s="9"/>
     </row>
-    <row r="9" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>1005</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -3031,16 +2951,16 @@
       <c r="E9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2">
         <v>1125</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="10">
         <v>291772</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -3064,15 +2984,15 @@
       <c r="S9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="T9" s="1">
         <v>16</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="8" t="n">
+      <c r="W9" s="8">
         <v>107535</v>
       </c>
-      <c r="X9" s="8" t="n">
+      <c r="X9" s="8">
         <v>0.8</v>
       </c>
       <c r="Y9" s="1" t="s">
@@ -3090,16 +3010,16 @@
       <c r="AC9" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AD9" s="1" t="n">
+      <c r="AD9" s="1">
         <v>20273</v>
       </c>
       <c r="AE9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AF9" s="1" t="n">
+      <c r="AF9" s="1">
         <v>288430</v>
       </c>
-      <c r="AG9" s="1" t="n">
+      <c r="AG9" s="1">
         <v>0.5</v>
       </c>
       <c r="AH9" s="1" t="s">
@@ -3108,8 +3028,8 @@
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
     </row>
-    <row r="10" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>1006</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3120,16 +3040,16 @@
       <c r="E10" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2">
         <v>720</v>
       </c>
-      <c r="H10" s="10" t="n">
+      <c r="H10" s="10">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="10" t="n">
+      <c r="J10" s="10">
         <v>291775</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -3153,15 +3073,15 @@
       <c r="S10" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="T10" s="1" t="n">
+      <c r="T10" s="1">
         <v>16</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="8" t="n">
+      <c r="W10" s="8">
         <v>107535</v>
       </c>
-      <c r="X10" s="8" t="n">
+      <c r="X10" s="8">
         <v>0.8</v>
       </c>
       <c r="Y10" s="1" t="s">
@@ -3179,16 +3099,16 @@
       <c r="AC10" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AD10" s="1" t="n">
+      <c r="AD10" s="1">
         <v>281710</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AF10" s="1" t="n">
+      <c r="AF10" s="1">
         <v>80483</v>
       </c>
-      <c r="AG10" s="1" t="n">
+      <c r="AG10" s="1">
         <v>0.2</v>
       </c>
       <c r="AH10" s="1" t="s">
@@ -3197,8 +3117,8 @@
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
     </row>
-    <row r="11" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>1007</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3209,16 +3129,16 @@
       <c r="E11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>900</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="10" t="n">
+      <c r="J11" s="10">
         <v>291779</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -3242,15 +3162,15 @@
       <c r="S11" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="T11" s="1">
         <v>16</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="8" t="n">
+      <c r="W11" s="8">
         <v>107535</v>
       </c>
-      <c r="X11" s="8" t="n">
+      <c r="X11" s="8">
         <v>0.8</v>
       </c>
       <c r="Y11" s="1" t="s">
@@ -3268,26 +3188,26 @@
       <c r="AC11" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD11" s="1" t="n">
+      <c r="AD11" s="1">
         <v>35385</v>
       </c>
       <c r="AE11" s="1"/>
-      <c r="AF11" s="1" t="n">
+      <c r="AF11" s="1">
         <v>84862</v>
       </c>
-      <c r="AG11" s="1" t="n">
+      <c r="AG11" s="1">
         <v>0.5</v>
       </c>
       <c r="AH11" s="1" t="s">
         <v>95</v>
       </c>
       <c r="AI11" s="8"/>
-      <c r="AJ11" s="8" t="n">
+      <c r="AJ11" s="8">
         <v>200</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>1008</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3298,16 +3218,16 @@
       <c r="E12" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2">
         <v>1800</v>
       </c>
-      <c r="H12" s="10" t="n">
+      <c r="H12" s="10">
         <v>4</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J12" s="10" t="n">
+      <c r="J12" s="10">
         <v>291773</v>
       </c>
       <c r="K12" s="7" t="s">
@@ -3331,15 +3251,15 @@
       <c r="S12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T12" s="1" t="n">
+      <c r="T12" s="1">
         <v>16</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="8" t="n">
+      <c r="W12" s="8">
         <v>107535</v>
       </c>
-      <c r="X12" s="8" t="n">
+      <c r="X12" s="8">
         <v>0.8</v>
       </c>
       <c r="Y12" s="1" t="s">
@@ -3357,11 +3277,11 @@
       <c r="AC12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AD12" s="1" t="n">
+      <c r="AD12" s="1">
         <v>180888</v>
       </c>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="1" t="n">
+      <c r="AF12" s="1">
         <v>86462</v>
       </c>
       <c r="AG12" s="1"/>
@@ -3369,12 +3289,12 @@
         <v>95</v>
       </c>
       <c r="AI12" s="8"/>
-      <c r="AJ12" s="8" t="n">
+      <c r="AJ12" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>1009</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -3385,16 +3305,16 @@
       <c r="E13" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2">
         <v>675</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="1">
         <v>3</v>
       </c>
-      <c r="J13" s="10" t="n">
+      <c r="J13" s="10">
         <v>291780</v>
       </c>
       <c r="K13" s="7" t="s">
@@ -3418,15 +3338,15 @@
       <c r="S13" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="T13" s="1" t="n">
+      <c r="T13" s="1">
         <v>16</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="8" t="n">
+      <c r="W13" s="8">
         <v>107535</v>
       </c>
-      <c r="X13" s="8" t="n">
+      <c r="X13" s="8">
         <v>0.8</v>
       </c>
       <c r="Y13" s="1" t="s">
@@ -3444,16 +3364,16 @@
       <c r="AC13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AD13" s="1" t="n">
+      <c r="AD13" s="1">
         <v>281710</v>
       </c>
       <c r="AE13" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AF13" s="1" t="n">
+      <c r="AF13" s="1">
         <v>80483</v>
       </c>
-      <c r="AG13" s="1" t="n">
+      <c r="AG13" s="1">
         <v>0.3</v>
       </c>
       <c r="AH13" s="1" t="s">
@@ -3462,8 +3382,8 @@
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8"/>
     </row>
-    <row r="14" s="2" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>1010</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3474,16 +3394,16 @@
       <c r="E14" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2">
         <v>2100</v>
       </c>
-      <c r="H14" s="10" t="n">
+      <c r="H14" s="10">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J14" s="10" t="n">
+      <c r="J14" s="10">
         <v>291778</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -3507,15 +3427,15 @@
       <c r="S14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="T14" s="1" t="n">
+      <c r="T14" s="1">
         <v>16</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="8" t="n">
+      <c r="W14" s="8">
         <v>107535</v>
       </c>
-      <c r="X14" s="8" t="n">
+      <c r="X14" s="8">
         <v>0.8</v>
       </c>
       <c r="Y14" s="1" t="s">
@@ -3533,16 +3453,16 @@
       <c r="AC14" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AD14" s="1" t="n">
+      <c r="AD14" s="1">
         <v>281710</v>
       </c>
       <c r="AE14" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF14" s="1" t="n">
+      <c r="AF14" s="1">
         <v>281780</v>
       </c>
-      <c r="AG14" s="1" t="n">
+      <c r="AG14" s="1">
         <v>0.25</v>
       </c>
       <c r="AH14" s="1" t="s">
@@ -3551,8 +3471,8 @@
       <c r="AI14" s="8"/>
       <c r="AJ14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>2001</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -3564,13 +3484,13 @@
         <v>182</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2">
         <v>100</v>
       </c>
-      <c r="H15" s="10" t="n">
+      <c r="H15" s="10">
         <v>3</v>
       </c>
-      <c r="J15" s="10" t="n">
+      <c r="J15" s="10">
         <v>291777</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -3591,13 +3511,13 @@
       <c r="S15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T15" s="1" t="n">
+      <c r="T15" s="1">
         <v>16</v>
       </c>
-      <c r="W15" s="8" t="n">
+      <c r="W15" s="8">
         <v>107535</v>
       </c>
-      <c r="X15" s="8" t="n">
+      <c r="X15" s="8">
         <v>0.8</v>
       </c>
       <c r="Y15" s="1" t="s">
@@ -3615,10 +3535,10 @@
       <c r="AC15" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" s="1" t="n">
+      <c r="AD15" s="1">
         <v>180888</v>
       </c>
-      <c r="AF15" s="1" t="n">
+      <c r="AF15" s="1">
         <v>97181</v>
       </c>
       <c r="AH15" s="1" t="s">
@@ -3628,8 +3548,8 @@
       <c r="AT15" s="9"/>
       <c r="AV15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>3001</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3641,13 +3561,13 @@
         <v>192</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="2">
         <v>500</v>
       </c>
-      <c r="H16" s="10" t="n">
+      <c r="H16" s="10">
         <v>2</v>
       </c>
-      <c r="J16" s="10" t="n">
+      <c r="J16" s="10">
         <v>291764</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -3665,11 +3585,11 @@
       <c r="O16" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="T16" s="1" t="n">
+      <c r="T16" s="1">
         <v>16</v>
       </c>
       <c r="W16" s="8"/>
-      <c r="X16" s="8" t="n">
+      <c r="X16" s="8">
         <v>0.8</v>
       </c>
       <c r="Y16" s="1" t="s">
@@ -3687,7 +3607,7 @@
       <c r="AC16" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AF16" s="1" t="n">
+      <c r="AF16" s="1">
         <v>97181</v>
       </c>
       <c r="AH16" s="1" t="s">
@@ -3700,32 +3620,32 @@
       <c r="AT16" s="9"/>
       <c r="AV16" s="9"/>
     </row>
-    <row r="17" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="n">
+    <row r="17" spans="1:1033" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
         <v>1011</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="11">
         <v>1</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="11">
         <v>1</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>201</v>
       </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="13" t="n">
+      <c r="G17" s="13">
         <v>100</v>
       </c>
-      <c r="H17" s="13" t="n">
+      <c r="H17" s="13">
         <v>1</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="13" t="n">
-        <v>326244</v>
+      <c r="J17" s="13">
+        <v>392760</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>202</v>
@@ -3742,27 +3662,27 @@
       <c r="O17" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="P17" s="15" t="n">
+      <c r="P17" s="15">
         <v>2</v>
       </c>
-      <c r="Q17" s="15" t="n">
+      <c r="Q17" s="15">
         <v>3</v>
       </c>
-      <c r="R17" s="15" t="n">
+      <c r="R17" s="15">
         <v>200</v>
       </c>
       <c r="S17" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="T17" s="15" t="n">
+      <c r="T17" s="15">
         <v>16</v>
       </c>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="17" t="n">
+      <c r="W17" s="17">
         <v>168944</v>
       </c>
-      <c r="X17" s="17" t="n">
+      <c r="X17" s="17">
         <v>0.3</v>
       </c>
       <c r="Y17" s="15" t="s">
@@ -3780,16 +3700,16 @@
       <c r="AC17" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="AD17" s="15" t="n">
+      <c r="AD17" s="15">
         <v>144183</v>
       </c>
       <c r="AE17" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="AF17" s="15" t="n">
+      <c r="AF17" s="15">
         <v>279719</v>
       </c>
-      <c r="AG17" s="15" t="n">
+      <c r="AG17" s="15">
         <v>0.5</v>
       </c>
       <c r="AH17" s="15" t="s">
@@ -4795,32 +4715,32 @@
       <c r="AMR17" s="15"/>
       <c r="AMS17" s="15"/>
     </row>
-    <row r="18" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="n">
+    <row r="18" spans="1:1033" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
         <v>1012</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="11">
         <v>1</v>
       </c>
-      <c r="D18" s="11" t="n">
+      <c r="D18" s="11">
         <v>1</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>210</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="15" t="n">
+      <c r="G18" s="15">
         <v>600</v>
       </c>
-      <c r="H18" s="15" t="n">
+      <c r="H18" s="15">
         <v>1</v>
       </c>
       <c r="I18" s="15"/>
-      <c r="J18" s="20" t="n">
-        <v>326244</v>
+      <c r="J18" s="20">
+        <v>392761</v>
       </c>
       <c r="K18" s="21" t="s">
         <v>202</v>
@@ -4837,29 +4757,29 @@
       <c r="O18" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="P18" s="15" t="n">
+      <c r="P18" s="15">
         <v>4</v>
       </c>
-      <c r="Q18" s="15" t="n">
+      <c r="Q18" s="15">
         <v>5</v>
       </c>
-      <c r="R18" s="15" t="n">
+      <c r="R18" s="15">
         <v>300</v>
       </c>
       <c r="S18" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="T18" s="15" t="n">
+      <c r="T18" s="15">
         <v>16</v>
       </c>
       <c r="U18" s="15"/>
-      <c r="V18" s="15" t="n">
+      <c r="V18" s="15">
         <v>800</v>
       </c>
-      <c r="W18" s="15" t="n">
+      <c r="W18" s="15">
         <v>153046</v>
       </c>
-      <c r="X18" s="17" t="n">
+      <c r="X18" s="17">
         <v>1.5</v>
       </c>
       <c r="Y18" s="15" t="s">
@@ -4877,16 +4797,16 @@
       <c r="AC18" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="AD18" s="15" t="n">
+      <c r="AD18" s="15">
         <v>284848</v>
       </c>
       <c r="AE18" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="AF18" s="15" t="n">
+      <c r="AF18" s="15">
         <v>121794</v>
       </c>
-      <c r="AG18" s="15" t="n">
+      <c r="AG18" s="15">
         <v>2.5</v>
       </c>
       <c r="AH18" s="15" t="s">
@@ -5892,36 +5812,36 @@
       <c r="AMR18" s="15"/>
       <c r="AMS18" s="15"/>
     </row>
-    <row r="19" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="n">
+    <row r="19" spans="1:1033" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
         <v>1013</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="11">
         <v>1</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="11">
         <v>1</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="11">
         <v>8</v>
       </c>
-      <c r="G19" s="13" t="n">
+      <c r="G19" s="13">
         <v>550</v>
       </c>
-      <c r="H19" s="13" t="n">
+      <c r="H19" s="13">
         <v>1</v>
       </c>
-      <c r="I19" s="15" t="n">
+      <c r="I19" s="15">
         <v>2</v>
       </c>
-      <c r="J19" s="15" t="n">
-        <v>326267</v>
+      <c r="J19" s="15">
+        <v>392757</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>202</v>
@@ -5938,7 +5858,7 @@
       <c r="O19" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="P19" s="15" t="n">
+      <c r="P19" s="15">
         <v>6</v>
       </c>
       <c r="Q19" s="15" t="s">
@@ -5950,17 +5870,17 @@
       <c r="S19" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="T19" s="15" t="n">
+      <c r="T19" s="15">
         <v>16</v>
       </c>
       <c r="U19" s="15"/>
       <c r="V19" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="W19" s="15" t="n">
+      <c r="W19" s="15">
         <v>151551</v>
       </c>
-      <c r="X19" s="15" t="n">
+      <c r="X19" s="15">
         <v>1</v>
       </c>
       <c r="Y19" s="15" t="s">
@@ -5978,7 +5898,7 @@
       <c r="AC19" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="AD19" s="15" t="n">
+      <c r="AD19" s="15">
         <v>144183</v>
       </c>
       <c r="AE19" s="15" t="s">
@@ -5987,13 +5907,13 @@
       <c r="AF19" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="AG19" s="15" t="n">
+      <c r="AG19" s="15">
         <v>3</v>
       </c>
       <c r="AH19" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="AI19" s="15" t="n">
+      <c r="AI19" s="15">
         <v>4008</v>
       </c>
       <c r="AJ19" s="15"/>
@@ -6995,34 +6915,34 @@
       <c r="AMR19" s="15"/>
       <c r="AMS19" s="15"/>
     </row>
-    <row r="20" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
+    <row r="20" spans="1:1033" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
         <v>1014</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="11">
         <v>1</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D20" s="11">
         <v>2</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F20" s="11" t="n">
+      <c r="F20" s="11">
         <v>7</v>
       </c>
-      <c r="G20" s="15" t="n">
+      <c r="G20" s="15">
         <v>80</v>
       </c>
-      <c r="H20" s="15" t="n">
+      <c r="H20" s="15">
         <v>1</v>
       </c>
       <c r="I20" s="15"/>
-      <c r="J20" s="15" t="n">
-        <v>150576</v>
+      <c r="J20" s="15">
+        <v>392755</v>
       </c>
       <c r="K20" s="21" t="s">
         <v>202</v>
@@ -7039,10 +6959,10 @@
       <c r="O20" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="P20" s="15" t="n">
+      <c r="P20" s="15">
         <v>8</v>
       </c>
-      <c r="Q20" s="15" t="n">
+      <c r="Q20" s="15">
         <v>9</v>
       </c>
       <c r="R20" s="15" t="s">
@@ -7051,17 +6971,17 @@
       <c r="S20" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="T20" s="15" t="n">
+      <c r="T20" s="15">
         <v>16</v>
       </c>
       <c r="U20" s="15"/>
       <c r="V20" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="W20" s="15" t="n">
+      <c r="W20" s="15">
         <v>200133</v>
       </c>
-      <c r="X20" s="15" t="n">
+      <c r="X20" s="15">
         <v>1</v>
       </c>
       <c r="Y20" s="15" t="s">
@@ -7079,7 +6999,7 @@
       <c r="AC20" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="AD20" s="15" t="n">
+      <c r="AD20" s="15">
         <v>144183</v>
       </c>
       <c r="AE20" s="15" t="s">
@@ -7088,13 +7008,13 @@
       <c r="AF20" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="AG20" s="15" t="n">
+      <c r="AG20" s="15">
         <v>1.8</v>
       </c>
       <c r="AH20" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="AI20" s="15" t="n">
+      <c r="AI20" s="15">
         <v>4002</v>
       </c>
       <c r="AJ20" s="15"/>
@@ -8096,32 +8016,32 @@
       <c r="AMR20" s="15"/>
       <c r="AMS20" s="15"/>
     </row>
-    <row r="21" s="33" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="n">
+    <row r="21" spans="1:1033" s="33" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="24">
         <v>1015</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="24" t="n">
+      <c r="C21" s="24">
         <v>1</v>
       </c>
-      <c r="D21" s="24" t="n">
+      <c r="D21" s="24">
         <v>3</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>238</v>
       </c>
       <c r="F21" s="24"/>
-      <c r="G21" s="26" t="n">
+      <c r="G21" s="26">
         <v>100</v>
       </c>
-      <c r="H21" s="26" t="n">
+      <c r="H21" s="26">
         <v>3</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="J21" s="27" t="n">
-        <v>130536</v>
+      <c r="J21" s="27">
+        <v>392758</v>
       </c>
       <c r="K21" s="28" t="s">
         <v>239</v>
@@ -8138,25 +8058,25 @@
       <c r="O21" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="P21" s="27" t="n">
+      <c r="P21" s="27">
         <v>10</v>
       </c>
-      <c r="Q21" s="27" t="n">
+      <c r="Q21" s="27">
         <v>11</v>
       </c>
-      <c r="R21" s="27" t="n">
+      <c r="R21" s="27">
         <v>300</v>
       </c>
       <c r="S21" s="27"/>
-      <c r="T21" s="27" t="n">
+      <c r="T21" s="27">
         <v>16</v>
       </c>
       <c r="U21" s="27"/>
       <c r="V21" s="27"/>
-      <c r="W21" s="27" t="n">
+      <c r="W21" s="27">
         <v>200133</v>
       </c>
-      <c r="X21" s="27" t="n">
+      <c r="X21" s="27">
         <v>1</v>
       </c>
       <c r="Y21" s="27" t="s">
@@ -8174,16 +8094,16 @@
       <c r="AC21" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="AD21" s="27" t="n">
+      <c r="AD21" s="27">
         <v>279748</v>
       </c>
       <c r="AE21" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="AF21" s="27" t="n">
+      <c r="AF21" s="27">
         <v>281056</v>
       </c>
-      <c r="AG21" s="27" t="n">
+      <c r="AG21" s="27">
         <v>1.8</v>
       </c>
       <c r="AH21" s="27" t="s">
@@ -9189,34 +9109,34 @@
       <c r="AMR21" s="27"/>
       <c r="AMS21" s="27"/>
     </row>
-    <row r="22" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
+    <row r="22" spans="1:1033" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
         <v>1016</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C22" s="11">
         <v>1</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D22" s="11">
         <v>1</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="F22" s="11" t="n">
+      <c r="F22" s="11">
         <v>1</v>
       </c>
-      <c r="G22" s="15" t="n">
+      <c r="G22" s="15">
         <v>200</v>
       </c>
-      <c r="H22" s="15" t="n">
+      <c r="H22" s="15">
         <v>1</v>
       </c>
       <c r="I22" s="15"/>
-      <c r="J22" s="15" t="n">
-        <v>326241</v>
+      <c r="J22" s="15">
+        <v>392754</v>
       </c>
       <c r="K22" s="21" t="s">
         <v>83</v>
@@ -9233,27 +9153,27 @@
       <c r="O22" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="P22" s="15" t="n">
+      <c r="P22" s="15">
         <v>12</v>
       </c>
-      <c r="Q22" s="15" t="n">
+      <c r="Q22" s="15">
         <v>13</v>
       </c>
       <c r="R22" s="15"/>
       <c r="S22" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="T22" s="15" t="n">
+      <c r="T22" s="15">
         <v>16</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="15" t="n">
+      <c r="V22" s="15">
         <v>600</v>
       </c>
-      <c r="W22" s="15" t="n">
+      <c r="W22" s="15">
         <v>150929</v>
       </c>
-      <c r="X22" s="15" t="n">
+      <c r="X22" s="15">
         <v>1</v>
       </c>
       <c r="Y22" s="15" t="s">
@@ -9271,22 +9191,22 @@
       <c r="AC22" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AD22" s="15" t="n">
+      <c r="AD22" s="15">
         <v>122546</v>
       </c>
       <c r="AE22" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="AF22" s="15" t="n">
+      <c r="AF22" s="15">
         <v>135369</v>
       </c>
-      <c r="AG22" s="15" t="n">
+      <c r="AG22" s="15">
         <v>2</v>
       </c>
       <c r="AH22" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="AI22" s="15" t="n">
+      <c r="AI22" s="15">
         <v>4009</v>
       </c>
       <c r="AJ22" s="15"/>
@@ -10288,32 +10208,32 @@
       <c r="AMR22" s="15"/>
       <c r="AMS22" s="15"/>
     </row>
-    <row r="23" s="33" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="n">
+    <row r="23" spans="1:1033" s="33" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="24">
         <v>1017</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C23" s="24" t="n">
+      <c r="C23" s="24">
         <v>1</v>
       </c>
-      <c r="D23" s="24" t="n">
+      <c r="D23" s="24">
         <v>4</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>249</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="26" t="n">
+      <c r="G23" s="26">
         <v>300</v>
       </c>
-      <c r="H23" s="26" t="n">
+      <c r="H23" s="26">
         <v>2</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="J23" s="33" t="n">
-        <v>326271</v>
+      <c r="J23" s="33">
+        <v>392759</v>
       </c>
       <c r="K23" s="28" t="s">
         <v>193</v>
@@ -10330,23 +10250,23 @@
       <c r="O23" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="P23" s="27" t="n">
+      <c r="P23" s="27">
         <v>14</v>
       </c>
-      <c r="Q23" s="27" t="n">
+      <c r="Q23" s="27">
         <v>15</v>
       </c>
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
-      <c r="T23" s="27" t="n">
+      <c r="T23" s="27">
         <v>16</v>
       </c>
       <c r="U23" s="27"/>
       <c r="V23" s="27"/>
-      <c r="W23" s="27" t="n">
+      <c r="W23" s="27">
         <v>200133</v>
       </c>
-      <c r="X23" s="27" t="n">
+      <c r="X23" s="27">
         <v>1</v>
       </c>
       <c r="Y23" s="27" t="s">
@@ -10364,11 +10284,11 @@
       <c r="AC23" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="AD23" s="27" t="n">
+      <c r="AD23" s="27">
         <v>279748</v>
       </c>
       <c r="AE23" s="27"/>
-      <c r="AF23" s="27" t="n">
+      <c r="AF23" s="27">
         <v>122228</v>
       </c>
       <c r="AG23" s="27"/>
@@ -11377,31 +11297,31 @@
       <c r="AMR23" s="27"/>
       <c r="AMS23" s="27"/>
     </row>
-    <row r="24" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="n">
+    <row r="24" spans="1:1033" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
         <v>1018</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C24" s="11">
         <v>2</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D24" s="11">
         <v>1</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>253</v>
       </c>
       <c r="F24" s="11"/>
-      <c r="G24" s="15" t="n">
+      <c r="G24" s="15">
         <v>200</v>
       </c>
-      <c r="H24" s="15" t="n">
+      <c r="H24" s="15">
         <v>1</v>
       </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15" t="n">
+      <c r="J24" s="15">
         <v>143689</v>
       </c>
       <c r="K24" s="21" t="s">
@@ -11419,29 +11339,29 @@
       <c r="O24" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="P24" s="15" t="n">
+      <c r="P24" s="15">
         <v>16</v>
       </c>
-      <c r="Q24" s="15" t="n">
+      <c r="Q24" s="15">
         <v>17</v>
       </c>
-      <c r="R24" s="15" t="n">
+      <c r="R24" s="15">
         <v>600</v>
       </c>
       <c r="S24" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="T24" s="15" t="n">
+      <c r="T24" s="15">
         <v>16</v>
       </c>
       <c r="U24" s="15"/>
       <c r="V24" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="W24" s="15" t="n">
+      <c r="W24" s="15">
         <v>254300</v>
       </c>
-      <c r="X24" s="15" t="n">
+      <c r="X24" s="15">
         <v>1</v>
       </c>
       <c r="Y24" s="15" t="s">
@@ -11459,7 +11379,7 @@
       <c r="AC24" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="AD24" s="13" t="n">
+      <c r="AD24" s="13">
         <v>285370</v>
       </c>
       <c r="AE24" s="15" t="s">
@@ -11468,7 +11388,7 @@
       <c r="AF24" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AG24" s="15" t="n">
+      <c r="AG24" s="15">
         <v>1.5</v>
       </c>
       <c r="AH24" s="15" t="s">
@@ -12474,33 +12394,33 @@
       <c r="AMR24" s="15"/>
       <c r="AMS24" s="15"/>
     </row>
-    <row r="25" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="n">
+    <row r="25" spans="1:1033" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
         <v>1019</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C25" s="11" t="n">
+      <c r="C25" s="11">
         <v>2</v>
       </c>
-      <c r="D25" s="11" t="n">
+      <c r="D25" s="11">
         <v>2</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F25" s="11" t="n">
+      <c r="F25" s="11">
         <v>7</v>
       </c>
-      <c r="G25" s="13" t="n">
+      <c r="G25" s="13">
         <v>160</v>
       </c>
-      <c r="H25" s="13" t="n">
+      <c r="H25" s="13">
         <v>1</v>
       </c>
       <c r="I25" s="15"/>
-      <c r="J25" s="13" t="n">
+      <c r="J25" s="13">
         <v>326237</v>
       </c>
       <c r="K25" s="14" t="s">
@@ -12518,29 +12438,29 @@
       <c r="O25" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="P25" s="15" t="n">
+      <c r="P25" s="15">
         <v>18</v>
       </c>
-      <c r="Q25" s="15" t="n">
+      <c r="Q25" s="15">
         <v>19</v>
       </c>
-      <c r="R25" s="15" t="n">
+      <c r="R25" s="15">
         <v>400</v>
       </c>
       <c r="S25" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="T25" s="15" t="n">
+      <c r="T25" s="15">
         <v>16</v>
       </c>
       <c r="U25" s="15"/>
-      <c r="V25" s="15" t="n">
+      <c r="V25" s="15">
         <v>400</v>
       </c>
-      <c r="W25" s="15" t="n">
+      <c r="W25" s="15">
         <v>150927</v>
       </c>
-      <c r="X25" s="15" t="n">
+      <c r="X25" s="15">
         <v>1.3</v>
       </c>
       <c r="Y25" s="15" t="s">
@@ -12558,16 +12478,16 @@
       <c r="AC25" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="AD25" s="15" t="n">
+      <c r="AD25" s="15">
         <v>146119</v>
       </c>
       <c r="AE25" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="AF25" s="15" t="n">
+      <c r="AF25" s="15">
         <v>279672</v>
       </c>
-      <c r="AG25" s="15" t="n">
+      <c r="AG25" s="15">
         <v>1.5</v>
       </c>
       <c r="AH25" s="15" t="s">
@@ -13575,33 +13495,33 @@
       <c r="AMR25" s="15"/>
       <c r="AMS25" s="15"/>
     </row>
-    <row r="26" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="n">
+    <row r="26" spans="1:1033" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
         <v>1020</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C26" s="11" t="n">
+      <c r="C26" s="11">
         <v>2</v>
       </c>
-      <c r="D26" s="11" t="n">
+      <c r="D26" s="11">
         <v>1</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>271</v>
       </c>
       <c r="F26" s="11"/>
-      <c r="G26" s="15" t="n">
+      <c r="G26" s="15">
         <v>70</v>
       </c>
-      <c r="H26" s="15" t="n">
+      <c r="H26" s="15">
         <v>1</v>
       </c>
-      <c r="I26" s="15" t="n">
+      <c r="I26" s="15">
         <v>1</v>
       </c>
-      <c r="J26" s="15" t="n">
+      <c r="J26" s="15">
         <v>326236</v>
       </c>
       <c r="K26" s="14" t="s">
@@ -13619,29 +13539,29 @@
       <c r="O26" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="P26" s="15" t="n">
+      <c r="P26" s="15">
         <v>18</v>
       </c>
-      <c r="Q26" s="15" t="n">
+      <c r="Q26" s="15">
         <v>19</v>
       </c>
-      <c r="R26" s="15" t="n">
+      <c r="R26" s="15">
         <v>200</v>
       </c>
       <c r="S26" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="T26" s="15" t="n">
+      <c r="T26" s="15">
         <v>16</v>
       </c>
       <c r="U26" s="15"/>
-      <c r="V26" s="15" t="n">
+      <c r="V26" s="15">
         <v>200</v>
       </c>
-      <c r="W26" s="15" t="n">
+      <c r="W26" s="15">
         <v>181026</v>
       </c>
-      <c r="X26" s="15" t="n">
+      <c r="X26" s="15">
         <v>1.5</v>
       </c>
       <c r="Y26" s="15" t="s">
@@ -13659,16 +13579,16 @@
       <c r="AC26" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="AD26" s="13" t="n">
+      <c r="AD26" s="13">
         <v>144198</v>
       </c>
       <c r="AE26" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="AF26" s="15" t="n">
+      <c r="AF26" s="15">
         <v>285283</v>
       </c>
-      <c r="AG26" s="15" t="n">
+      <c r="AG26" s="15">
         <v>0.4</v>
       </c>
       <c r="AH26" s="15" t="s">
@@ -14674,33 +14594,33 @@
       <c r="AMR26" s="15"/>
       <c r="AMS26" s="15"/>
     </row>
-    <row r="27" s="41" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="n">
+    <row r="27" spans="1:1033" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="34">
         <v>1021</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="C27" s="34" t="n">
+      <c r="C27" s="34">
         <v>2</v>
       </c>
-      <c r="D27" s="34" t="n">
+      <c r="D27" s="34">
         <v>1</v>
       </c>
       <c r="E27" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="F27" s="34" t="n">
+      <c r="F27" s="34">
         <v>3</v>
       </c>
-      <c r="G27" s="36" t="n">
+      <c r="G27" s="36">
         <v>80</v>
       </c>
-      <c r="H27" s="36" t="n">
+      <c r="H27" s="36">
         <v>1</v>
       </c>
       <c r="I27" s="37"/>
-      <c r="J27" s="36" t="n">
+      <c r="J27" s="36">
         <v>326245</v>
       </c>
       <c r="K27" s="38" t="s">
@@ -14718,29 +14638,29 @@
       <c r="O27" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="P27" s="37" t="n">
+      <c r="P27" s="37">
         <v>18</v>
       </c>
-      <c r="Q27" s="37" t="n">
+      <c r="Q27" s="37">
         <v>19</v>
       </c>
-      <c r="R27" s="37" t="n">
+      <c r="R27" s="37">
         <v>500</v>
       </c>
       <c r="S27" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="T27" s="37" t="n">
+      <c r="T27" s="37">
         <v>16</v>
       </c>
       <c r="U27" s="37"/>
-      <c r="V27" s="37" t="n">
+      <c r="V27" s="37">
         <v>500</v>
       </c>
-      <c r="W27" s="37" t="n">
+      <c r="W27" s="37">
         <v>151069</v>
       </c>
-      <c r="X27" s="37" t="n">
+      <c r="X27" s="37">
         <v>0.8</v>
       </c>
       <c r="Y27" s="37" t="s">
@@ -14758,16 +14678,16 @@
       <c r="AC27" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="AD27" s="37" t="n">
+      <c r="AD27" s="37">
         <v>281886</v>
       </c>
       <c r="AE27" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="AF27" s="37" t="n">
+      <c r="AF27" s="37">
         <v>281763</v>
       </c>
-      <c r="AG27" s="37" t="n">
+      <c r="AG27" s="37">
         <v>1.5</v>
       </c>
       <c r="AH27" s="37" t="s">
@@ -15775,31 +15695,31 @@
       <c r="AMR27" s="37"/>
       <c r="AMS27" s="37"/>
     </row>
-    <row r="28" s="43" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="n">
+    <row r="28" spans="1:1033" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="24">
         <v>1022</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C28" s="24" t="n">
+      <c r="C28" s="24">
         <v>2</v>
       </c>
-      <c r="D28" s="24" t="n">
+      <c r="D28" s="24">
         <v>3</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>286</v>
       </c>
       <c r="F28" s="24"/>
-      <c r="G28" s="26" t="n">
+      <c r="G28" s="26">
         <v>100</v>
       </c>
-      <c r="H28" s="26" t="n">
+      <c r="H28" s="26">
         <v>3</v>
       </c>
       <c r="I28" s="27"/>
-      <c r="J28" s="32" t="n">
+      <c r="J28" s="32">
         <v>130536</v>
       </c>
       <c r="K28" s="42" t="s">
@@ -15817,29 +15737,29 @@
       <c r="O28" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="P28" s="26" t="n">
+      <c r="P28" s="26">
         <v>20</v>
       </c>
-      <c r="Q28" s="26" t="n">
+      <c r="Q28" s="26">
         <v>21</v>
       </c>
-      <c r="R28" s="26" t="n">
+      <c r="R28" s="26">
         <v>600</v>
       </c>
       <c r="S28" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="T28" s="27" t="n">
+      <c r="T28" s="27">
         <v>16</v>
       </c>
       <c r="U28" s="27"/>
-      <c r="V28" s="27" t="n">
+      <c r="V28" s="27">
         <v>600</v>
       </c>
-      <c r="W28" s="27" t="n">
+      <c r="W28" s="27">
         <v>200133</v>
       </c>
-      <c r="X28" s="27" t="n">
+      <c r="X28" s="27">
         <v>1</v>
       </c>
       <c r="Y28" s="27" t="s">
@@ -15857,16 +15777,16 @@
       <c r="AC28" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="AD28" s="27" t="n">
+      <c r="AD28" s="27">
         <v>144183</v>
       </c>
       <c r="AE28" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="AF28" s="27" t="n">
+      <c r="AF28" s="27">
         <v>279686</v>
       </c>
-      <c r="AG28" s="27" t="n">
+      <c r="AG28" s="27">
         <v>2.5</v>
       </c>
       <c r="AH28" s="27" t="s">
@@ -16872,31 +16792,31 @@
       <c r="AMR28" s="27"/>
       <c r="AMS28" s="27"/>
     </row>
-    <row r="29" s="43" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27" t="n">
+    <row r="29" spans="1:1033" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="27">
         <v>1023</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="C29" s="24" t="n">
+      <c r="C29" s="24">
         <v>2</v>
       </c>
-      <c r="D29" s="24" t="n">
+      <c r="D29" s="24">
         <v>4</v>
       </c>
       <c r="E29" s="27" t="s">
         <v>292</v>
       </c>
       <c r="F29" s="27"/>
-      <c r="G29" s="27" t="n">
+      <c r="G29" s="27">
         <v>150</v>
       </c>
-      <c r="H29" s="27" t="n">
+      <c r="H29" s="27">
         <v>2</v>
       </c>
       <c r="I29" s="27"/>
-      <c r="J29" s="27" t="n">
+      <c r="J29" s="27">
         <v>129508</v>
       </c>
       <c r="K29" s="42" t="s">
@@ -16918,13 +16838,13 @@
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
       <c r="S29" s="27"/>
-      <c r="T29" s="27" t="n">
+      <c r="T29" s="27">
         <v>16</v>
       </c>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
       <c r="W29" s="27"/>
-      <c r="X29" s="27" t="n">
+      <c r="X29" s="27">
         <v>1</v>
       </c>
       <c r="Y29" s="27" t="s">
@@ -16944,7 +16864,7 @@
       </c>
       <c r="AD29" s="27"/>
       <c r="AE29" s="27"/>
-      <c r="AF29" s="27" t="n">
+      <c r="AF29" s="27">
         <v>20270</v>
       </c>
       <c r="AG29" s="27"/>
@@ -17953,31 +17873,31 @@
       <c r="AMR29" s="27"/>
       <c r="AMS29" s="27"/>
     </row>
-    <row r="30" s="43" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27" t="n">
+    <row r="30" spans="1:1033" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="27">
         <v>1024</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="C30" s="24" t="n">
+      <c r="C30" s="24">
         <v>2</v>
       </c>
-      <c r="D30" s="24" t="n">
+      <c r="D30" s="24">
         <v>4</v>
       </c>
       <c r="E30" s="27" t="s">
         <v>297</v>
       </c>
       <c r="F30" s="27"/>
-      <c r="G30" s="27" t="n">
+      <c r="G30" s="27">
         <v>250</v>
       </c>
-      <c r="H30" s="27" t="n">
+      <c r="H30" s="27">
         <v>2</v>
       </c>
       <c r="I30" s="27"/>
-      <c r="J30" s="27" t="n">
+      <c r="J30" s="27">
         <v>319126</v>
       </c>
       <c r="K30" s="42" t="s">
@@ -17999,13 +17919,13 @@
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
-      <c r="T30" s="27" t="n">
+      <c r="T30" s="27">
         <v>16</v>
       </c>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
       <c r="W30" s="27"/>
-      <c r="X30" s="27" t="n">
+      <c r="X30" s="27">
         <v>1</v>
       </c>
       <c r="Y30" s="27" t="s">
@@ -18025,7 +17945,7 @@
       </c>
       <c r="AD30" s="27"/>
       <c r="AE30" s="27"/>
-      <c r="AF30" s="27" t="n">
+      <c r="AF30" s="27">
         <v>20270</v>
       </c>
       <c r="AG30" s="27"/>
@@ -19034,35 +18954,35 @@
       <c r="AMR30" s="27"/>
       <c r="AMS30" s="27"/>
     </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:1033" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>1025</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="1">
         <v>3</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="1">
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="F31" s="1">
         <v>9</v>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="G31" s="1">
         <v>400</v>
       </c>
-      <c r="H31" s="1" t="n">
+      <c r="H31" s="1">
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J31" s="1" t="n">
+      <c r="J31" s="1">
         <v>326261</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -19083,13 +19003,13 @@
       <c r="S31" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="T31" s="1" t="n">
+      <c r="T31" s="1">
         <v>16</v>
       </c>
-      <c r="W31" s="1" t="n">
+      <c r="W31" s="1">
         <v>151576</v>
       </c>
-      <c r="X31" s="1" t="n">
+      <c r="X31" s="1">
         <v>1</v>
       </c>
       <c r="Y31" s="1" t="s">
@@ -19107,51 +19027,51 @@
       <c r="AC31" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AD31" s="1" t="n">
+      <c r="AD31" s="1">
         <v>281788</v>
       </c>
       <c r="AE31" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF31" s="1" t="n">
+      <c r="AF31" s="1">
         <v>268572</v>
       </c>
-      <c r="AG31" s="1" t="n">
+      <c r="AG31" s="1">
         <v>0.4</v>
       </c>
       <c r="AH31" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:1033" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>1026</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="1">
         <v>3</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="1">
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32" s="1">
         <v>7</v>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="G32" s="1">
         <v>210</v>
       </c>
-      <c r="H32" s="1" t="n">
+      <c r="H32" s="1">
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J32" s="1" t="n">
+      <c r="J32" s="1">
         <v>326270</v>
       </c>
       <c r="K32" s="7" t="s">
@@ -19172,13 +19092,13 @@
       <c r="S32" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="T32" s="1" t="n">
+      <c r="T32" s="1">
         <v>16</v>
       </c>
-      <c r="W32" s="1" t="n">
+      <c r="W32" s="1">
         <v>168944</v>
       </c>
-      <c r="X32" s="1" t="n">
+      <c r="X32" s="1">
         <v>0.3</v>
       </c>
       <c r="Y32" s="1" t="s">
@@ -19196,51 +19116,51 @@
       <c r="AC32" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AD32" s="1" t="n">
+      <c r="AD32" s="1">
         <v>285400</v>
       </c>
       <c r="AE32" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF32" s="1" t="n">
+      <c r="AF32" s="1">
         <v>85955</v>
       </c>
-      <c r="AG32" s="1" t="n">
+      <c r="AG32" s="1">
         <v>0.4</v>
       </c>
       <c r="AH32" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>1027</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="1">
         <v>3</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F33" s="1">
         <v>2</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="1">
         <v>500</v>
       </c>
-      <c r="H33" s="1" t="n">
+      <c r="H33" s="1">
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J33" s="1" t="n">
+      <c r="J33" s="1">
         <v>142127</v>
       </c>
       <c r="K33" s="7" t="s">
@@ -19261,13 +19181,13 @@
       <c r="S33" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="T33" s="1" t="n">
+      <c r="T33" s="1">
         <v>16</v>
       </c>
-      <c r="W33" s="1" t="n">
+      <c r="W33" s="1">
         <v>99608</v>
       </c>
-      <c r="X33" s="1" t="n">
+      <c r="X33" s="1">
         <v>1.2</v>
       </c>
       <c r="Y33" s="1" t="s">
@@ -19285,51 +19205,51 @@
       <c r="AC33" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AD33" s="1" t="n">
+      <c r="AD33" s="1">
         <v>281710</v>
       </c>
       <c r="AE33" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF33" s="1" t="n">
+      <c r="AF33" s="1">
         <v>80483</v>
       </c>
-      <c r="AG33" s="1" t="n">
+      <c r="AG33" s="1">
         <v>0.4</v>
       </c>
       <c r="AH33" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>1028</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="1">
         <v>3</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="1">
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F34" s="1">
         <v>4</v>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="1">
         <v>270</v>
       </c>
-      <c r="H34" s="1" t="n">
+      <c r="H34" s="1">
         <v>1</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="1" t="n">
+      <c r="J34" s="1">
         <v>326264</v>
       </c>
       <c r="K34" s="7" t="s">
@@ -19350,13 +19270,13 @@
       <c r="S34" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="T34" s="1" t="n">
+      <c r="T34" s="1">
         <v>16</v>
       </c>
-      <c r="W34" s="1" t="n">
+      <c r="W34" s="1">
         <v>288335</v>
       </c>
-      <c r="X34" s="1" t="n">
+      <c r="X34" s="1">
         <v>0.5</v>
       </c>
       <c r="Y34" s="1" t="s">
@@ -19374,48 +19294,48 @@
       <c r="AC34" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AD34" s="1" t="n">
+      <c r="AD34" s="1">
         <v>299561</v>
       </c>
       <c r="AE34" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF34" s="1" t="n">
+      <c r="AF34" s="1">
         <v>117367</v>
       </c>
-      <c r="AG34" s="1" t="n">
+      <c r="AG34" s="1">
         <v>1.5</v>
       </c>
       <c r="AH34" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="44" t="n">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A35" s="43">
         <v>1029</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="1">
         <v>3</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="1">
         <v>2</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="43" t="s">
         <v>329</v>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G35" s="1">
         <v>550</v>
       </c>
-      <c r="H35" s="1" t="n">
+      <c r="H35" s="1">
         <v>1</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J35" s="1" t="n">
+      <c r="J35" s="1">
         <v>141968</v>
       </c>
       <c r="K35" s="7" t="s">
@@ -19433,22 +19353,22 @@
       <c r="O35" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="R35" s="44" t="s">
+      <c r="R35" s="43" t="s">
         <v>221</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="T35" s="1" t="n">
+      <c r="T35" s="1">
         <v>16</v>
       </c>
-      <c r="V35" s="44" t="s">
+      <c r="V35" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="W35" s="1" t="n">
+      <c r="W35" s="1">
         <v>130642</v>
       </c>
-      <c r="X35" s="1" t="n">
+      <c r="X35" s="1">
         <v>0.8</v>
       </c>
       <c r="Y35" s="1" t="s">
@@ -19466,51 +19386,51 @@
       <c r="AC35" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AD35" s="1" t="n">
+      <c r="AD35" s="1">
         <v>285356</v>
       </c>
       <c r="AE35" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF35" s="44" t="s">
+      <c r="AF35" s="43" t="s">
         <v>335</v>
       </c>
-      <c r="AG35" s="1" t="n">
+      <c r="AG35" s="1">
         <v>2</v>
       </c>
       <c r="AH35" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="44" t="n">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A36" s="43">
         <v>1030</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="1">
         <v>3</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="1">
         <v>2</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F36" s="1">
         <v>2</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="1">
         <v>300</v>
       </c>
-      <c r="H36" s="1" t="n">
+      <c r="H36" s="1">
         <v>1</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J36" s="1" t="n">
+      <c r="J36" s="1">
         <v>130042</v>
       </c>
       <c r="K36" s="7" t="s">
@@ -19528,22 +19448,22 @@
       <c r="O36" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="R36" s="44" t="s">
+      <c r="R36" s="43" t="s">
         <v>221</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="T36" s="1" t="n">
+      <c r="T36" s="1">
         <v>16</v>
       </c>
-      <c r="V36" s="44" t="s">
+      <c r="V36" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="W36" s="1" t="n">
+      <c r="W36" s="1">
         <v>254276</v>
       </c>
-      <c r="X36" s="1" t="n">
+      <c r="X36" s="1">
         <v>1</v>
       </c>
       <c r="Y36" s="1" t="s">
@@ -19561,51 +19481,51 @@
       <c r="AC36" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AD36" s="1" t="n">
+      <c r="AD36" s="1">
         <v>20301</v>
       </c>
       <c r="AE36" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF36" s="44" t="s">
+      <c r="AF36" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="AG36" s="1" t="n">
+      <c r="AG36" s="1">
         <v>3</v>
       </c>
       <c r="AH36" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>1031</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="1">
         <v>4</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="1">
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F37" s="1">
         <v>8</v>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G37" s="1">
         <v>180</v>
       </c>
-      <c r="H37" s="1" t="n">
+      <c r="H37" s="1">
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J37" s="1" t="n">
+      <c r="J37" s="1">
         <v>136878</v>
       </c>
       <c r="K37" s="7" t="s">
@@ -19626,13 +19546,13 @@
       <c r="S37" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="T37" s="1" t="n">
+      <c r="T37" s="1">
         <v>16</v>
       </c>
-      <c r="W37" s="1" t="n">
+      <c r="W37" s="1">
         <v>151562</v>
       </c>
-      <c r="X37" s="1" t="n">
+      <c r="X37" s="1">
         <v>1</v>
       </c>
       <c r="Y37" s="1" t="s">
@@ -19650,51 +19570,51 @@
       <c r="AC37" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AD37" s="1" t="n">
+      <c r="AD37" s="1">
         <v>281710</v>
       </c>
       <c r="AE37" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF37" s="1" t="n">
+      <c r="AF37" s="1">
         <v>80483</v>
       </c>
-      <c r="AG37" s="1" t="n">
+      <c r="AG37" s="1">
         <v>0.4</v>
       </c>
       <c r="AH37" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>1032</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="1">
         <v>4</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="1">
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F38" s="1">
         <v>4</v>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G38" s="1">
         <v>80</v>
       </c>
-      <c r="H38" s="1" t="n">
+      <c r="H38" s="1">
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J38" s="1" t="n">
+      <c r="J38" s="1">
         <v>62588</v>
       </c>
       <c r="K38" s="7" t="s">
@@ -19715,13 +19635,13 @@
       <c r="S38" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="T38" s="1" t="n">
+      <c r="T38" s="1">
         <v>16</v>
       </c>
-      <c r="W38" s="1" t="n">
+      <c r="W38" s="1">
         <v>271321</v>
       </c>
-      <c r="X38" s="1" t="n">
+      <c r="X38" s="1">
         <v>0.8</v>
       </c>
       <c r="Y38" s="1" t="s">
@@ -19739,51 +19659,51 @@
       <c r="AC38" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AD38" s="1" t="n">
+      <c r="AD38" s="1">
         <v>281871</v>
       </c>
       <c r="AE38" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF38" s="1" t="n">
+      <c r="AF38" s="1">
         <v>268572</v>
       </c>
-      <c r="AG38" s="1" t="n">
+      <c r="AG38" s="1">
         <v>1</v>
       </c>
       <c r="AH38" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>1033</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="1">
         <v>4</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D39" s="1">
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F39" s="1" t="n">
+      <c r="F39" s="1">
         <v>10</v>
       </c>
-      <c r="G39" s="1" t="n">
+      <c r="G39" s="1">
         <v>130</v>
       </c>
-      <c r="H39" s="1" t="n">
+      <c r="H39" s="1">
         <v>1</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J39" s="1" t="n">
+      <c r="J39" s="1">
         <v>326250</v>
       </c>
       <c r="K39" s="7" t="s">
@@ -19804,13 +19724,13 @@
       <c r="S39" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="T39" s="1" t="n">
+      <c r="T39" s="1">
         <v>16</v>
       </c>
-      <c r="W39" s="1" t="n">
+      <c r="W39" s="1">
         <v>29393</v>
       </c>
-      <c r="X39" s="1" t="n">
+      <c r="X39" s="1">
         <v>1</v>
       </c>
       <c r="Y39" s="1" t="s">
@@ -19828,48 +19748,48 @@
       <c r="AC39" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AD39" s="1" t="n">
+      <c r="AD39" s="1">
         <v>300932</v>
       </c>
       <c r="AE39" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF39" s="1" t="n">
+      <c r="AF39" s="1">
         <v>285208</v>
       </c>
-      <c r="AG39" s="1" t="n">
+      <c r="AG39" s="1">
         <v>2</v>
       </c>
       <c r="AH39" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>1034</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="1">
         <v>4</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D40" s="1">
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G40" s="1" t="n">
+      <c r="G40" s="1">
         <v>1500</v>
       </c>
-      <c r="H40" s="1" t="n">
+      <c r="H40" s="1">
         <v>1</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J40" s="1" t="n">
+      <c r="J40" s="1">
         <v>326249</v>
       </c>
       <c r="K40" s="7" t="s">
@@ -19890,13 +19810,13 @@
       <c r="S40" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="T40" s="1" t="n">
+      <c r="T40" s="1">
         <v>16</v>
       </c>
-      <c r="W40" s="1" t="n">
+      <c r="W40" s="1">
         <v>107536</v>
       </c>
-      <c r="X40" s="1" t="n">
+      <c r="X40" s="1">
         <v>1</v>
       </c>
       <c r="Y40" s="1" t="s">
@@ -19914,51 +19834,51 @@
       <c r="AC40" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AD40" s="1" t="n">
+      <c r="AD40" s="1">
         <v>117391</v>
       </c>
       <c r="AE40" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF40" s="1" t="n">
+      <c r="AF40" s="1">
         <v>285306</v>
       </c>
-      <c r="AG40" s="1" t="n">
+      <c r="AG40" s="1">
         <v>2</v>
       </c>
       <c r="AH40" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>1035</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="1">
         <v>4</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="F41" s="1">
         <v>6</v>
       </c>
-      <c r="G41" s="1" t="n">
+      <c r="G41" s="1">
         <v>550</v>
       </c>
-      <c r="H41" s="1" t="n">
+      <c r="H41" s="1">
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J41" s="1" t="n">
+      <c r="J41" s="1">
         <v>326243</v>
       </c>
       <c r="K41" s="7" t="s">
@@ -19979,13 +19899,13 @@
       <c r="S41" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="T41" s="1" t="n">
+      <c r="T41" s="1">
         <v>16</v>
       </c>
-      <c r="W41" s="1" t="n">
+      <c r="W41" s="1">
         <v>151568</v>
       </c>
-      <c r="X41" s="1" t="n">
+      <c r="X41" s="1">
         <v>1</v>
       </c>
       <c r="Y41" s="1" t="s">
@@ -20003,48 +19923,48 @@
       <c r="AC41" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AD41" s="1" t="n">
+      <c r="AD41" s="1">
         <v>285445</v>
       </c>
       <c r="AE41" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF41" s="45" t="n">
+      <c r="AF41" s="44">
         <v>269223</v>
       </c>
-      <c r="AG41" s="1" t="n">
+      <c r="AG41" s="1">
         <v>2</v>
       </c>
       <c r="AH41" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>1036</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="1">
         <v>4</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D42" s="1">
         <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G42" s="1" t="n">
+      <c r="G42" s="1">
         <v>150</v>
       </c>
-      <c r="H42" s="1" t="n">
+      <c r="H42" s="1">
         <v>2</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J42" s="1" t="n">
+      <c r="J42" s="1">
         <v>147047</v>
       </c>
       <c r="K42" s="7" t="s">
@@ -20062,10 +19982,10 @@
       <c r="O42" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="T42" s="1" t="n">
+      <c r="T42" s="1">
         <v>16</v>
       </c>
-      <c r="X42" s="1" t="n">
+      <c r="X42" s="1">
         <v>1</v>
       </c>
       <c r="Y42" s="1" t="s">
@@ -20083,7 +20003,7 @@
       <c r="AC42" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AF42" s="1" t="n">
+      <c r="AF42" s="1">
         <v>20270</v>
       </c>
       <c r="AH42" s="1" t="s">
@@ -20093,32 +20013,32 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>1037</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="1">
         <v>5</v>
       </c>
-      <c r="D43" s="1" t="n">
+      <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G43" s="1" t="n">
+      <c r="G43" s="1">
         <v>150</v>
       </c>
-      <c r="H43" s="1" t="n">
+      <c r="H43" s="1">
         <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J43" s="1" t="n">
+      <c r="J43" s="1">
         <v>326256</v>
       </c>
       <c r="K43" s="7" t="s">
@@ -20139,13 +20059,13 @@
       <c r="S43" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="T43" s="1" t="n">
+      <c r="T43" s="1">
         <v>16</v>
       </c>
-      <c r="W43" s="1" t="n">
+      <c r="W43" s="1">
         <v>164529</v>
       </c>
-      <c r="X43" s="1" t="n">
+      <c r="X43" s="1">
         <v>1</v>
       </c>
       <c r="Y43" s="1" t="s">
@@ -20163,48 +20083,48 @@
       <c r="AC43" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="AD43" s="1" t="n">
+      <c r="AD43" s="1">
         <v>279765</v>
       </c>
       <c r="AE43" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF43" s="1" t="n">
+      <c r="AF43" s="1">
         <v>303167</v>
       </c>
-      <c r="AG43" s="1" t="n">
+      <c r="AG43" s="1">
         <v>2</v>
       </c>
       <c r="AH43" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>1038</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C44" s="1">
         <v>5</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G44" s="1" t="n">
+      <c r="G44" s="1">
         <v>250</v>
       </c>
-      <c r="H44" s="1" t="n">
+      <c r="H44" s="1">
         <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J44" s="1" t="n">
+      <c r="J44" s="1">
         <v>326273</v>
       </c>
       <c r="K44" s="7" t="s">
@@ -20225,13 +20145,13 @@
       <c r="S44" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="T44" s="1" t="n">
+      <c r="T44" s="1">
         <v>16</v>
       </c>
-      <c r="W44" s="1" t="n">
+      <c r="W44" s="1">
         <v>86362</v>
       </c>
-      <c r="X44" s="1" t="n">
+      <c r="X44" s="1">
         <v>1</v>
       </c>
       <c r="Y44" s="1" t="s">
@@ -20249,51 +20169,51 @@
       <c r="AC44" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="AD44" s="1" t="n">
+      <c r="AD44" s="1">
         <v>85944</v>
       </c>
       <c r="AE44" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AF44" s="45" t="n">
+      <c r="AF44" s="44">
         <v>29747</v>
       </c>
-      <c r="AG44" s="1" t="n">
+      <c r="AG44" s="1">
         <v>1.5</v>
       </c>
       <c r="AH44" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>1039</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="1">
         <v>5</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="F45" s="1">
         <v>3</v>
       </c>
-      <c r="G45" s="1" t="n">
+      <c r="G45" s="1">
         <v>340</v>
       </c>
-      <c r="H45" s="1" t="n">
+      <c r="H45" s="1">
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J45" s="1" t="n">
+      <c r="J45" s="1">
         <v>326255</v>
       </c>
       <c r="K45" s="7" t="s">
@@ -20314,13 +20234,13 @@
       <c r="S45" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="T45" s="1" t="n">
+      <c r="T45" s="1">
         <v>16</v>
       </c>
-      <c r="W45" s="1" t="n">
+      <c r="W45" s="1">
         <v>52946</v>
       </c>
-      <c r="X45" s="1" t="n">
+      <c r="X45" s="1">
         <v>1</v>
       </c>
       <c r="Y45" s="1" t="s">
@@ -20338,51 +20258,51 @@
       <c r="AC45" s="1" t="s">
         <v>401</v>
 